--- a/Objets_parlementaires_CDF_EFK.xlsx
+++ b/Objets_parlementaires_CDF_EFK.xlsx
@@ -53,36 +53,543 @@
     <t xml:space="preserve">Lien_FR</t>
   </si>
   <si>
+    <t xml:space="preserve">25.4785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Vergütung der Aufgaben, die dem Bundesamt für Zoll und Grenzsicherheit (BAZG) übertragen wurden und die dieses Amt an den Flughäfen Genf und Basel wahrnimmt, muss auch dem BAZG zugute kommen!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Addor Jean-Luc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eingereicht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-12-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La rémunération des tâches confiées à l'OFDF dans les aéroports de Genève et Bâle doit profiter à l'OFDF !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Déposé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE, FR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daten der Bundesverwaltung mehrfach nutzbar machen – als Basis für vertrauenswürdige KI in der Schweiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michel Matthias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-12-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Favoriser la fiabilité de l’IA en Suisse en rendant réutilisables les données de l’administration fédérale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ip.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transparenz bei der Fördereffizienz aller erneuerbaren Technologien herstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grossen Jürg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assurer la transparence quant à l'efficacité des subventions accordées à toutes les technologies renouvelables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medizinische Bildgebung in der Westschweiz: Wie hängen Moratorien, Untersuchungsvolumen und Kosten zusammen?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolly Nicolas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erledigt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-12-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imagerie médicale en Suisse romande : quel lien entre moratoires, volume d’examens et coûts ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liquidé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20258194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20258194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kostendeckende Erträge aus dem Artenschutz? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trede Aline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Des revenus couvrant les coûts liés à la protection des espèces ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20258273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20258273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drei weitere Aufgabenbereiche für das Projekt Entflechtung 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wettstein Felix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-12-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trois nouveaux groupes de tâches pour le projet "Désenchevêtrement 27"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Po.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wirksamere Koordination der Verkehrsmittel im Rahmen von Agglomerationsprogrammen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuosto Brenda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stellungnahme zum Vorstoss liegt vor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordination plus efficace des moyens de transport dans le cadre des programmes d'agglomération</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’avis relatif à l’intervention est disponible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stärkung der Aufsicht über die SRG unter Wahrung der Programmautonomie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobler Marcel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renforcer la surveillance de la SSR tout en préservant l'autonomie des programmes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Für gesunde Bundesfinanzen. Subventionsüberprüfung optimieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gapany Johanna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimiser l'examen des subventions pour garantir la santé des finances fédérales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Versorgungssicherheit und raschen Zugang zu innovativen Medikamenten gewährleisten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schmid Martin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zugewiesen an die behandelnde Kommission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garantir la sécurité de l'approvisionnement et un accès rapide aux médicaments innovants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribué à la commission compétente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giftiger Rasen. Warum sind toxische PFAS-Pestizide ausgerechnet zur Anwendung auf Spiel- und Sportplätzen oder in Wohnquartieren zugelassen? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schlatter Marionna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gazon toxique. Pourquoi les pesticides PFAS sont-ils autorisés sur les terrains de jeux et de sport ainsi que dans les quartiers résidentiels ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finanzhilfen nach Artikel 74 IVG und Bedarfs- und Innovationsorientierung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alijaj Islam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adapter les subventions allouées en vertu de l'article 74 LAI aux besoins des bénéficiaires et à l'innovation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heim- versus Nutztier bei Equiden. Wieso diese Sonderregelung und wieso so viel Food Waste?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dittli Josef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animaux de rente et de compagnie chez les équidés. Pourquoi ce régime spécial et pourquoi tant de gaspillage alimentaire ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grossprojekte im VBS an externe Dienstleister. Was für eine Strategie wird verfolgt?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zryd Andrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le DDPS confie de grands projets à des externes. Quel est l'objectif stratégique ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steuerdebakel Waadt: Finanzausgleich betroffen?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gugger Niklaus-Samuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Débâcle fiscale vaudoise. Conséquences sur la péréquation financière ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wann wird der Zwischenbericht des Gutachtens zur RUAG öffentlich?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weichelt Manuela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quand le rapport d’enquête intermédiaire sur RUAG sera-t-il publié ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rolle des Bundes bei der Sanierung der Deponie Gamsenried </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clivaz Christophe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rôle de la Confédération dans l’assainissement de la décharge de Gamsenried </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wirtschaft entlasten durch Vereinfachung des Steuersystems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grünliberale Fraktion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alléger l'économie en simplifiant le système fiscal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FDP-Liberale Fraktion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Kommission des Ständerats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En commission du Conseil des Etats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruag: Anwaltskosten in Millionenhöhe statt Munition für unsere Armee?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUAG : des millions pour des avocats au lieu de munition pour notre armée ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Untersuchungskosten Ruag-Skandal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De Ventura Linda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coûts de l’enquête sur le scandale RUAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kostenunterdeckung bei der Zeitungszustellung der Post. Wo bleibt die Transparenz?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broulis Pascal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Déficit de la Poste pour la distribution des journaux. Quelle transparence ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesetzliche Grundlage zum Monitoring von Effekten der Anwendung von problematischen Stoffen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bases légales pour surveiller les effets de l’utilisation de substances problématiques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strategische Aufstockung des Personalbestands des Fedpol. Nur so kann die nationale Sicherheit gewährleistet werden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sicherheitspolitische Kommission Nationalrat-Nationalrat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Überwiesen an den Bundesrat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renforcement stratégique des effectifs de Fedpol. Une nécessité pour la sécurité nationale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmis au Conseil fédéral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253941</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.3835</t>
   </si>
   <si>
-    <t xml:space="preserve">Mo.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Förderung sicherer und nachhaltiger Chemikalien</t>
   </si>
   <si>
     <t xml:space="preserve">Silberschmidt Andri</t>
   </si>
   <si>
-    <t xml:space="preserve">In Kommission des Ständerats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NR</t>
+    <t xml:space="preserve">2025-06-20</t>
   </si>
   <si>
     <t xml:space="preserve">Encourager des produits chimiques sûrs et durables</t>
   </si>
   <si>
-    <t xml:space="preserve">En commission du Conseil des Etats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE, FR</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253835</t>
   </si>
   <si>
@@ -92,24 +599,12 @@
     <t xml:space="preserve">25.3845</t>
   </si>
   <si>
-    <t xml:space="preserve">Ip.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kinder vor Pestiziden schützen. Forschung und Prävention stärken</t>
   </si>
   <si>
-    <t xml:space="preserve">Clivaz Christophe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stellungnahme zum Vorstoss liegt vor</t>
-  </si>
-  <si>
     <t xml:space="preserve">Protéger nos enfants des pesticides. Renforcer la recherche et les mesures de prévention</t>
   </si>
   <si>
-    <t xml:space="preserve">L’avis relatif à l’intervention est disponible</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253845</t>
   </si>
   <si>
@@ -122,9 +617,6 @@
     <t xml:space="preserve">Mühlemann Benjamin</t>
   </si>
   <si>
-    <t xml:space="preserve">SR</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253855</t>
   </si>
   <si>
@@ -161,9 +653,6 @@
     <t xml:space="preserve">L’évaluation des technologies de la santé, un instrument important qui doit être mieux utilisé</t>
   </si>
   <si>
-    <t xml:space="preserve">FR</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253892</t>
   </si>
   <si>
@@ -173,9 +662,6 @@
     <t xml:space="preserve">25.3893</t>
   </si>
   <si>
-    <t xml:space="preserve">Po.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Transparenz und Rechtfertigung der finanziellen Reserven der Suva und Prüfung durch die Eidgenössische Finanzkontrolle</t>
   </si>
   <si>
@@ -200,7 +686,7 @@
     <t xml:space="preserve">Klopfenstein Broggini Delphine</t>
   </si>
   <si>
-    <t xml:space="preserve">45827</t>
+    <t xml:space="preserve">2025-06-19</t>
   </si>
   <si>
     <t xml:space="preserve">Assainissement des sites contaminés par les PFAS. Application effective du principe du pollueur-payeur</t>
@@ -221,18 +707,12 @@
     <t xml:space="preserve">Wicki Hans</t>
   </si>
   <si>
-    <t xml:space="preserve">Erledigt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45825</t>
+    <t xml:space="preserve">2025-06-17</t>
   </si>
   <si>
     <t xml:space="preserve">Assurer à long terme et de manière durable la sécurité financière des aérodromes régionaux suisses</t>
   </si>
   <si>
-    <t xml:space="preserve">Liquidé</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253630</t>
   </si>
   <si>
@@ -266,24 +746,18 @@
     <t xml:space="preserve">25.7355</t>
   </si>
   <si>
-    <t xml:space="preserve">Fra.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ungeklärte Eigentümerschaft von Leopard I Panzern?</t>
   </si>
   <si>
     <t xml:space="preserve">Heimgartner Stefanie</t>
   </si>
   <si>
-    <t xml:space="preserve">45812</t>
+    <t xml:space="preserve">2025-06-04</t>
   </si>
   <si>
     <t xml:space="preserve">Propriété non élucidée de chars Leopard I</t>
   </si>
   <si>
-    <t xml:space="preserve">DE</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257355</t>
   </si>
   <si>
@@ -317,7 +791,7 @@
     <t xml:space="preserve">Storni Bruno</t>
   </si>
   <si>
-    <t xml:space="preserve">45784</t>
+    <t xml:space="preserve">2025-05-07</t>
   </si>
   <si>
     <t xml:space="preserve">Surprise provoquée par la décision anachronique et inappropriée de fermer la chaussée roulante à la fin de l'année</t>
@@ -338,7 +812,7 @@
     <t xml:space="preserve">Feller Olivier</t>
   </si>
   <si>
-    <t xml:space="preserve">45782</t>
+    <t xml:space="preserve">2025-05-05</t>
   </si>
   <si>
     <t xml:space="preserve">Garantir le respect par la Poste de l’interdiction des subventions croisées</t>
@@ -356,7 +830,7 @@
     <t xml:space="preserve">Temporäre Ausgleichszahlungen im Zusammenhang mit dem Kantonswechsel der Gemeinde Moutier</t>
   </si>
   <si>
-    <t xml:space="preserve">45751</t>
+    <t xml:space="preserve">2025-04-04</t>
   </si>
   <si>
     <t xml:space="preserve">Paiements compensatoires temporaires dans le contexte du changement de canton de la commune de Moutier</t>
@@ -374,10 +848,7 @@
     <t xml:space="preserve">Das Trauerspiel "Aufklärungsdrohne ADS 15" stoppen</t>
   </si>
   <si>
-    <t xml:space="preserve">Weichelt Manuela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45737</t>
+    <t xml:space="preserve">2025-03-21</t>
   </si>
   <si>
     <t xml:space="preserve">Drones de reconnaissance ADS 15. Un gâchis auquel il faut mettre fin</t>
@@ -455,7 +926,7 @@
     <t xml:space="preserve">Graf Maya</t>
   </si>
   <si>
-    <t xml:space="preserve">45736</t>
+    <t xml:space="preserve">2025-03-20</t>
   </si>
   <si>
     <t xml:space="preserve">Consultation concernant le programme d'allègement budgétaire 2027 et la modification de la loi sur les subventions. Conséquences et potentiel d'économies effectif</t>
@@ -563,7 +1034,7 @@
     <t xml:space="preserve">Friedl Claudia</t>
   </si>
   <si>
-    <t xml:space="preserve">45729</t>
+    <t xml:space="preserve">2025-03-13</t>
   </si>
   <si>
     <t xml:space="preserve">Échange de quotas d'émission. Les droits d'émission à titre gratuit soulèvent des questions</t>
@@ -581,7 +1052,7 @@
     <t xml:space="preserve">Nimmt der Bundesrat die Finanzkontrolle ernst? </t>
   </si>
   <si>
-    <t xml:space="preserve">45727</t>
+    <t xml:space="preserve">2025-03-11</t>
   </si>
   <si>
     <t xml:space="preserve">Le Conseil fédéral prend-il au sérieux le Contrôle fédéral des finances ? </t>
@@ -602,7 +1073,7 @@
     <t xml:space="preserve">Golay Roger</t>
   </si>
   <si>
-    <t xml:space="preserve">45721</t>
+    <t xml:space="preserve">2025-03-05</t>
   </si>
   <si>
     <t xml:space="preserve">Le DFJP doit renforcer sans tarder la Police judiciaire fédérale pour combattre l'infiltration par la mafia et d'autres crimes</t>
@@ -620,9 +1091,6 @@
     <t xml:space="preserve">RUAG-Betrugsskandal</t>
   </si>
   <si>
-    <t xml:space="preserve">Zryd Andrea</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fraude chez RUAG</t>
   </si>
   <si>
@@ -674,7 +1142,7 @@
     <t xml:space="preserve">Vontobel Erich</t>
   </si>
   <si>
-    <t xml:space="preserve">45719</t>
+    <t xml:space="preserve">2025-03-03</t>
   </si>
   <si>
     <t xml:space="preserve">Comment garantir que le financement des ONG par la Confédération soit transparent et ne soit pas détourné ?</t>
@@ -710,7 +1178,7 @@
     <t xml:space="preserve">Schweizer Depotbank für die Ausgleichfonds von AHV, IV und EO </t>
   </si>
   <si>
-    <t xml:space="preserve">45678</t>
+    <t xml:space="preserve">2025-01-21</t>
   </si>
   <si>
     <t xml:space="preserve">Banque dépositaire pour les fonds de compensation AVS/AI/APG</t>
@@ -731,7 +1199,7 @@
     <t xml:space="preserve">Rechsteiner Thomas</t>
   </si>
   <si>
-    <t xml:space="preserve">45644</t>
+    <t xml:space="preserve">2024-12-18</t>
   </si>
   <si>
     <t xml:space="preserve">Suite de la Stratégie Cybersanté Suisse 2.0 et Digisanté. Les cantons sont-ils suffisamment associés au programme ?</t>
@@ -767,7 +1235,7 @@
     <t xml:space="preserve">Schnyder Markus</t>
   </si>
   <si>
-    <t xml:space="preserve">45637</t>
+    <t xml:space="preserve">2024-12-11</t>
   </si>
   <si>
     <t xml:space="preserve">Est-il acceptable que l’administration tente d’influencer les processus politiques ?</t>
@@ -806,7 +1274,7 @@
     <t xml:space="preserve">Prelicz-Huber Katharina</t>
   </si>
   <si>
-    <t xml:space="preserve">45630</t>
+    <t xml:space="preserve">2024-12-04</t>
   </si>
   <si>
     <t xml:space="preserve">Droit à un enseignement de base</t>
@@ -827,7 +1295,7 @@
     <t xml:space="preserve">Wyss Sarah</t>
   </si>
   <si>
-    <t xml:space="preserve">45628</t>
+    <t xml:space="preserve">2024-12-02</t>
   </si>
   <si>
     <t xml:space="preserve">Allègements fiscaux</t>
@@ -845,7 +1313,7 @@
     <t xml:space="preserve">Verwaltung der Schweizer Vorsorgegelder</t>
   </si>
   <si>
-    <t xml:space="preserve">45561</t>
+    <t xml:space="preserve">2024-09-26</t>
   </si>
   <si>
     <t xml:space="preserve">Administration des fonds de prévoyance suisses</t>
@@ -881,9 +1349,6 @@
     <t xml:space="preserve">Planetare Grenzen chemischer Stoffe</t>
   </si>
   <si>
-    <t xml:space="preserve">Trede Aline</t>
-  </si>
-  <si>
     <t xml:space="preserve">Produits chimiques et limites planétaires</t>
   </si>
   <si>
@@ -950,18 +1415,12 @@
     <t xml:space="preserve">Fässler Daniel</t>
   </si>
   <si>
-    <t xml:space="preserve">Überwiesen an den Bundesrat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45558</t>
+    <t xml:space="preserve">2024-09-23</t>
   </si>
   <si>
     <t xml:space="preserve">Les décisions de renvoi doivent être exécutées plus rapidement et plus systématiquement</t>
   </si>
   <si>
-    <t xml:space="preserve">Transmis au Conseil fédéral</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243937</t>
   </si>
   <si>
@@ -992,7 +1451,7 @@
     <t xml:space="preserve">Gute Governance und Beseitigung von Redundanzen bei den Aktivitäten des Bundes im Bereich AHV/IV/EO</t>
   </si>
   <si>
-    <t xml:space="preserve">45553</t>
+    <t xml:space="preserve">2024-09-18</t>
   </si>
   <si>
     <t xml:space="preserve">Bonne gouvernance et suppression de doublons dans les activités de la Confédération en matière d’AVS/AI/APG</t>
@@ -1025,9 +1484,6 @@
     <t xml:space="preserve">Evaluation der Strukturverbesserungsbeiträge: Bis wann werden die vorgeschlagenen Massnahmen zum Schutz der Biodiversität umgesetzt?</t>
   </si>
   <si>
-    <t xml:space="preserve">Gugger Niklaus-Samuel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Évaluation des contributions aux améliorations structurelles. D’ici à quand les mesures proposées destinées à la protection de la biodiversité seront-elles mises en œuvre ?</t>
   </si>
   <si>
@@ -1061,7 +1517,7 @@
     <t xml:space="preserve">Pahud Yvan</t>
   </si>
   <si>
-    <t xml:space="preserve">45547</t>
+    <t xml:space="preserve">2024-09-12</t>
   </si>
   <si>
     <t xml:space="preserve">AVS. Erreur de calculs ou scandale d'Etat?</t>
@@ -1097,7 +1553,7 @@
     <t xml:space="preserve">Ressourcenüberprüfung Fedpol?</t>
   </si>
   <si>
-    <t xml:space="preserve">45546</t>
+    <t xml:space="preserve">2024-09-11</t>
   </si>
   <si>
     <t xml:space="preserve">Examen des ressources de Fedpol ?</t>
@@ -1136,7 +1592,7 @@
     <t xml:space="preserve">Candan Hasan</t>
   </si>
   <si>
-    <t xml:space="preserve">45457</t>
+    <t xml:space="preserve">2024-06-14</t>
   </si>
   <si>
     <t xml:space="preserve">Rapport de synthèse du Contrôle fédéral des finances sur l'examen des subventions. Quelles conclusions le Conseil fédéral en tire-t-il?</t>
@@ -1193,7 +1649,7 @@
     <t xml:space="preserve">Beratung in Kommission des Ständerates abgeschlossen</t>
   </si>
   <si>
-    <t xml:space="preserve">45456</t>
+    <t xml:space="preserve">2024-06-13</t>
   </si>
   <si>
     <t xml:space="preserve"> Améliorer la coopération de la part des cantons en matière de renvoi de requérants d'asile déboutés</t>
@@ -1214,7 +1670,7 @@
     <t xml:space="preserve">Mehr Kostenrealität im KVG. Verlässliche Daten für faire Tarife</t>
   </si>
   <si>
-    <t xml:space="preserve">45455</t>
+    <t xml:space="preserve">2024-06-12</t>
   </si>
   <si>
     <t xml:space="preserve">LAMal. Mieux refléter les coûts réels en fixant des tarifs équitables sur la base de données fiables</t>
@@ -1235,7 +1691,7 @@
     <t xml:space="preserve">Lohr Christian</t>
   </si>
   <si>
-    <t xml:space="preserve">45454</t>
+    <t xml:space="preserve">2024-06-11</t>
   </si>
   <si>
     <t xml:space="preserve">Système de santé. Eviter les prestations inutiles</t>
@@ -1253,7 +1709,7 @@
     <t xml:space="preserve">Kostentransparenz in der zweiten Säule</t>
   </si>
   <si>
-    <t xml:space="preserve">45414</t>
+    <t xml:space="preserve">2024-05-02</t>
   </si>
   <si>
     <t xml:space="preserve">Transparence des coûts dans le deuxième pilier</t>
@@ -1271,7 +1727,7 @@
     <t xml:space="preserve">Stand der Umsetzung des Seilbahngesetzes</t>
   </si>
   <si>
-    <t xml:space="preserve">45412</t>
+    <t xml:space="preserve">2024-04-30</t>
   </si>
   <si>
     <t xml:space="preserve">Etat des lieux de la mise en oeuvre de la loi sur les installations à câbles</t>
@@ -1289,7 +1745,7 @@
     <t xml:space="preserve">Schaffung eines Bundesgesetzes über einen ausserordentlichen Beitrag für die Sicherheit der Schweiz und den Frieden in Europa angesichts des Krieges gegen die Ukraine</t>
   </si>
   <si>
-    <t xml:space="preserve">45407</t>
+    <t xml:space="preserve">2024-04-25</t>
   </si>
   <si>
     <t xml:space="preserve">Création d'une loi fédérale concernant une contribution extraordinaire pour la sécurité de la Suisse et la paix en Europe dans le contexte de la guerre menée contre l'Ukraine</t>
@@ -1310,7 +1766,7 @@
     <t xml:space="preserve">Gredig Corina</t>
   </si>
   <si>
-    <t xml:space="preserve">45366</t>
+    <t xml:space="preserve">2024-03-15</t>
   </si>
   <si>
     <t xml:space="preserve">Subventions nuisibles à la biodiversité. Un possible gisement d'économies?</t>
@@ -1328,7 +1784,7 @@
     <t xml:space="preserve">Renten und Privilegien der Bundesräte reduzieren</t>
   </si>
   <si>
-    <t xml:space="preserve">45365</t>
+    <t xml:space="preserve">2024-03-14</t>
   </si>
   <si>
     <t xml:space="preserve">Réduire les rentes et les privilèges des conseillers fédéraux</t>
@@ -1367,7 +1823,7 @@
     <t xml:space="preserve">Knutti Thomas</t>
   </si>
   <si>
-    <t xml:space="preserve">45364</t>
+    <t xml:space="preserve">2024-03-13</t>
   </si>
   <si>
     <t xml:space="preserve">Utiliser la retraite des anciens conseillers fédéraux pour financer la 13e rente AVS</t>
@@ -1385,10 +1841,7 @@
     <t xml:space="preserve">Dringende Wiederherstellung der Verteidigungsfähigkeit der Schweizer Armee</t>
   </si>
   <si>
-    <t xml:space="preserve">Addor Jean-Luc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45355</t>
+    <t xml:space="preserve">2024-03-04</t>
   </si>
   <si>
     <t xml:space="preserve">Rétablir d'urgence la capacité de défense de notre armée</t>
@@ -1409,7 +1862,7 @@
     <t xml:space="preserve">Michaud Gigon Sophie</t>
   </si>
   <si>
-    <t xml:space="preserve">45350</t>
+    <t xml:space="preserve">2024-02-28</t>
   </si>
   <si>
     <t xml:space="preserve">Prendre en compte les rapports du CDF et de la CdG-E sur la vérité des coûts dans le rapport sur les po Giacometti/Schneider.</t>
@@ -1427,7 +1880,7 @@
     <t xml:space="preserve">Unterstellung von Organisationen ausserhalb der Bundesverwaltung unter die Aufsicht durch die Eidgenössische Finanzkontrolle. Wann wird der Bundesrat seinen Bericht veröffentlichen? </t>
   </si>
   <si>
-    <t xml:space="preserve">45348</t>
+    <t xml:space="preserve">2024-02-26</t>
   </si>
   <si>
     <t xml:space="preserve">Assujettissement des organisations externes à l’administration au Contrôle fédéral des finances. Quand le Conseil fédéral publiera-t-il son rapport ? </t>
@@ -1445,7 +1898,7 @@
     <t xml:space="preserve">Biodiversitätsschädigende Wirkungen der Neuen Regionalpolitik. Wie plant das zuständige Bundesamt vorzugehen?</t>
   </si>
   <si>
-    <t xml:space="preserve">45282</t>
+    <t xml:space="preserve">2023-12-22</t>
   </si>
   <si>
     <t xml:space="preserve">Effet néfaste de la nouvelle politique régionale sur la biodiversité. Comment l'office fédéral compétent procède-t-il?</t>
@@ -1463,10 +1916,7 @@
     <t xml:space="preserve">Unterschiedliche Auffassungen und Zielsetzungen zwischen dem Nationale Zentrum für Cybersicherheit und dem Nachrichtendienst des Bundes</t>
   </si>
   <si>
-    <t xml:space="preserve">Schlatter Marionna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45281</t>
+    <t xml:space="preserve">2023-12-21</t>
   </si>
   <si>
     <t xml:space="preserve">NCSC et SRC. Des conceptions et des objectifs divergents</t>
@@ -1487,7 +1937,7 @@
     <t xml:space="preserve">Haab Martin</t>
   </si>
   <si>
-    <t xml:space="preserve">45274</t>
+    <t xml:space="preserve">2023-12-14</t>
   </si>
   <si>
     <t xml:space="preserve">Ruptures de livraison et d'approvisionnement affectant les médicaments vétérinaires. Quid du marché suisse?</t>
@@ -1508,7 +1958,7 @@
     <t xml:space="preserve">Grüter Franz</t>
   </si>
   <si>
-    <t xml:space="preserve">45265</t>
+    <t xml:space="preserve">2023-12-05</t>
   </si>
   <si>
     <t xml:space="preserve">Surveillance des fondations d’utilité publique. Multiplication par deux des émoluments perçus</t>
@@ -1526,7 +1976,7 @@
     <t xml:space="preserve">Fonds für Demokratie und Rechtsstaatlichkeit im Gedenken an 1848</t>
   </si>
   <si>
-    <t xml:space="preserve">45250</t>
+    <t xml:space="preserve">2023-11-20</t>
   </si>
   <si>
     <t xml:space="preserve">Fonds pour la démocratie et l'état de droit en commémoration de 1848</t>
@@ -1536,456 +1986,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20234346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Vergütung der Aufgaben, die dem Bundesamt für Zoll und Grenzsicherheit (BAZG) übertragen wurden und die dieses Amt an den Flughäfen Genf und Basel wahrnimmt, muss auch dem BAZG zugute kommen!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eingereicht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-12-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La rémunération des tâches confiées à l'OFDF dans les aéroports de Genève et Bâle doit profiter à l'OFDF !</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Déposé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4620</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daten der Bundesverwaltung mehrfach nutzbar machen – als Basis für vertrauenswürdige KI in der Schweiz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michel Matthias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-12-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Favoriser la fiabilité de l’IA en Suisse en rendant réutilisables les données de l’administration fédérale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254620</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254620</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transparenz bei der Fördereffizienz aller erneuerbaren Technologien herstellen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grossen Jürg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assurer la transparence quant à l'efficacité des subventions accordées à toutes les technologies renouvelables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medizinische Bildgebung in der Westschweiz: Wie hängen Moratorien, Untersuchungsvolumen und Kosten zusammen?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kolly Nicolas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-12-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imagerie médicale en Suisse romande : quel lien entre moratoires, volume d’examens et coûts ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20258194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20258194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kostendeckende Erträge aus dem Artenschutz? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Des revenus couvrant les coûts liés à la protection des espèces ? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20258273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20258273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drei weitere Aufgabenbereiche für das Projekt Entflechtung 27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wettstein Felix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-12-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trois nouveaux groupes de tâches pour le projet "Désenchevêtrement 27"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wirksamere Koordination der Verkehrsmittel im Rahmen von Agglomerationsprogrammen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuosto Brenda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-09-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coordination plus efficace des moyens de transport dans le cadre des programmes d'agglomération</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stärkung der Aufsicht über die SRG unter Wahrung der Programmautonomie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobler Marcel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renforcer la surveillance de la SSR tout en préservant l'autonomie des programmes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Für gesunde Bundesfinanzen. Subventionsüberprüfung optimieren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gapany Johanna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-09-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimiser l'examen des subventions pour garantir la santé des finances fédérales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Versorgungssicherheit und raschen Zugang zu innovativen Medikamenten gewährleisten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schmid Martin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zugewiesen an die behandelnde Kommission</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garantir la sécurité de l'approvisionnement et un accès rapide aux médicaments innovants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attribué à la commission compétente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giftiger Rasen. Warum sind toxische PFAS-Pestizide ausgerechnet zur Anwendung auf Spiel- und Sportplätzen oder in Wohnquartieren zugelassen? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gazon toxique. Pourquoi les pesticides PFAS sont-ils autorisés sur les terrains de jeux et de sport ainsi que dans les quartiers résidentiels ? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finanzhilfen nach Artikel 74 IVG und Bedarfs- und Innovationsorientierung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alijaj Islam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adapter les subventions allouées en vertu de l'article 74 LAI aux besoins des bénéficiaires et à l'innovation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heim- versus Nutztier bei Equiden. Wieso diese Sonderregelung und wieso so viel Food Waste?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dittli Josef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-09-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animaux de rente et de compagnie chez les équidés. Pourquoi ce régime spécial et pourquoi tant de gaspillage alimentaire ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grossprojekte im VBS an externe Dienstleister. Was für eine Strategie wird verfolgt?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-09-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le DDPS confie de grands projets à des externes. Quel est l'objectif stratégique ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steuerdebakel Waadt: Finanzausgleich betroffen?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Débâcle fiscale vaudoise. Conséquences sur la péréquation financière ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wann wird der Zwischenbericht des Gutachtens zur RUAG öffentlich?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quand le rapport d’enquête intermédiaire sur RUAG sera-t-il publié ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7890</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rolle des Bundes bei der Sanierung der Deponie Gamsenried </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rôle de la Confédération dans l’assainissement de la décharge de Gamsenried </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257890</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257890</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wirtschaft entlasten durch Vereinfachung des Steuersystems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grünliberale Fraktion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-09-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alléger l'économie en simplifiant le système fiscal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FDP-Liberale Fraktion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-09-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruag: Anwaltskosten in Millionenhöhe statt Munition für unsere Armee?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUAG : des millions pour des avocats au lieu de munition pour notre armée ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Untersuchungskosten Ruag-Skandal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De Ventura Linda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coûts de l’enquête sur le scandale RUAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kostenunterdeckung bei der Zeitungszustellung der Post. Wo bleibt die Transparenz?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Broulis Pascal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-09-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Déficit de la Poste pour la distribution des journaux. Quelle transparence ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gesetzliche Grundlage zum Monitoring von Effekten der Anwendung von problematischen Stoffen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-09-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bases légales pour surveiller les effets de l’utilisation de substances problématiques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strategische Aufstockung des Personalbestands des Fedpol. Nur so kann die nationale Sicherheit gewährleistet werden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sicherheitspolitische Kommission Nationalrat-Nationalrat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-06-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renforcement stratégique des effectifs de Fedpol. Une nécessité pour la sécurité nationale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253941</t>
   </si>
 </sst>
 </file>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20253835</v>
+        <v>20254785</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -2423,72 +2423,72 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>20253845</v>
+        <v>20254620</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
       </c>
       <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
         <v>31</v>
       </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>32</v>
-      </c>
-      <c r="M3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>20253855</v>
+        <v>20254696</v>
       </c>
       <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s">
         <v>21</v>
@@ -2497,2363 +2497,2363 @@
         <v>22</v>
       </c>
       <c r="L4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20253880</v>
+        <v>20258194</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
         <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="L5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="M5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>20253892</v>
+        <v>20258273</v>
       </c>
       <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" t="s">
         <v>47</v>
       </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" t="s">
-        <v>31</v>
-      </c>
       <c r="K6" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="L6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>20253893</v>
+        <v>20254463</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="H7" t="s">
         <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K7" t="s">
         <v>22</v>
       </c>
       <c r="L7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="M7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>20253730</v>
+        <v>20254281</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H8" t="s">
         <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="J8" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="K8" t="s">
         <v>22</v>
       </c>
       <c r="L8" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="M8" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>20253630</v>
+        <v>20254317</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" t="s">
         <v>68</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>69</v>
       </c>
-      <c r="G9" t="s">
-        <v>70</v>
-      </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" t="s">
         <v>71</v>
       </c>
-      <c r="J9" t="s">
-        <v>72</v>
-      </c>
       <c r="K9" t="s">
         <v>22</v>
       </c>
       <c r="L9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M9" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>20253637</v>
+        <v>20254145</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J10" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="K10" t="s">
         <v>22</v>
       </c>
       <c r="L10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M10" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>20257355</v>
+        <v>20254188</v>
       </c>
       <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" t="s">
         <v>83</v>
       </c>
-      <c r="C11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" t="s">
-        <v>87</v>
-      </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J11" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="K11" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="L11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>20257419</v>
+        <v>20254225</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s">
         <v>19</v>
       </c>
       <c r="I12" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K12" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="L12" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M12" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>20253479</v>
+        <v>20254234</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E13" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s">
         <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J13" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="K13" t="s">
         <v>22</v>
       </c>
       <c r="L13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>20253444</v>
+        <v>20254071</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" t="s">
         <v>29</v>
       </c>
-      <c r="G14" t="s">
-        <v>108</v>
-      </c>
-      <c r="H14" t="s">
-        <v>19</v>
-      </c>
       <c r="I14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J14" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="K14" t="s">
         <v>22</v>
       </c>
       <c r="L14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>20253425</v>
+        <v>20254024</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15"/>
+        <v>115</v>
+      </c>
+      <c r="E15" t="s">
+        <v>116</v>
+      </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="G15" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H15" t="s">
         <v>19</v>
       </c>
       <c r="I15" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J15" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="K15" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="L15" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M15" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>20253309</v>
+        <v>20257863</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E16" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H16" t="s">
         <v>19</v>
       </c>
       <c r="I16" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J16" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="K16" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="L16" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M16" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>20253399</v>
+        <v>20257888</v>
       </c>
       <c r="B17" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E17" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H17" t="s">
         <v>19</v>
       </c>
       <c r="I17" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J17" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="K17" t="s">
         <v>22</v>
       </c>
       <c r="L17" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M17" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>20253404</v>
+        <v>20257890</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E18" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H18" t="s">
         <v>19</v>
       </c>
       <c r="I18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="J18" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="K18" t="s">
         <v>22</v>
       </c>
       <c r="L18" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M18" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>20253417</v>
+        <v>20254003</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E19" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="G19" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="H19" t="s">
         <v>19</v>
       </c>
       <c r="I19" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="J19" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="K19" t="s">
         <v>22</v>
       </c>
       <c r="L19" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M19" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>20251011</v>
+        <v>20253984</v>
       </c>
       <c r="B20" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C20" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>149</v>
       </c>
       <c r="G20" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="I20" t="s">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="J20" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="K20" t="s">
         <v>22</v>
       </c>
       <c r="L20" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M20" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20253194</v>
+        <v>20257663</v>
       </c>
       <c r="B21" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E21" t="s">
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="I21" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J21" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="K21" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="L21" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M21" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>20253203</v>
+        <v>20257698</v>
       </c>
       <c r="B22" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E22" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F22" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H22" t="s">
         <v>19</v>
       </c>
       <c r="I22" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J22" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="K22" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="L22" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M22" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>20253213</v>
+        <v>20253971</v>
       </c>
       <c r="B23" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E23" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F23" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="H23" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I23" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J23" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="K23" t="s">
         <v>22</v>
       </c>
       <c r="L23" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M23" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>20253214</v>
+        <v>20257601</v>
       </c>
       <c r="B24" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E24" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="F24" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="H24" t="s">
         <v>19</v>
       </c>
       <c r="I24" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="J24" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="K24" t="s">
         <v>22</v>
       </c>
       <c r="L24" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M24" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>20253246</v>
+        <v>20253941</v>
       </c>
       <c r="B25" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E25" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>181</v>
       </c>
       <c r="G25" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="H25" t="s">
         <v>19</v>
       </c>
       <c r="I25" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="J25" t="s">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="K25" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="L25" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="M25" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>20253093</v>
+        <v>20253835</v>
       </c>
       <c r="B26" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E26" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="G26" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="H26" t="s">
         <v>19</v>
       </c>
       <c r="I26" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="J26" t="s">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="K26" t="s">
         <v>22</v>
       </c>
       <c r="L26" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="M26" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>20257213</v>
+        <v>20253845</v>
       </c>
       <c r="B27" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="E27" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G27" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H27" t="s">
         <v>19</v>
       </c>
       <c r="I27" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="J27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K27" t="s">
         <v>22</v>
       </c>
       <c r="L27" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="M27" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>20253054</v>
+        <v>20253855</v>
       </c>
       <c r="B28" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E28" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F28" t="s">
+        <v>149</v>
+      </c>
+      <c r="G28" t="s">
+        <v>190</v>
+      </c>
+      <c r="H28" t="s">
         <v>29</v>
       </c>
-      <c r="G28" t="s">
-        <v>196</v>
-      </c>
-      <c r="H28" t="s">
-        <v>19</v>
-      </c>
       <c r="I28" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="J28" t="s">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="K28" t="s">
         <v>22</v>
       </c>
       <c r="L28" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M28" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>20257102</v>
+        <v>20253880</v>
       </c>
       <c r="B29" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E29" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G29" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H29" t="s">
         <v>19</v>
       </c>
       <c r="I29" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="J29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K29" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="L29" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M29" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>20257129</v>
+        <v>20253892</v>
       </c>
       <c r="B30" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E30" t="s">
-        <v>107</v>
+        <v>211</v>
       </c>
       <c r="F30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G30" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H30" t="s">
         <v>19</v>
       </c>
       <c r="I30" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="J30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L30" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M30" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>20257138</v>
+        <v>20253893</v>
       </c>
       <c r="B31" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D31" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E31" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H31" t="s">
         <v>19</v>
       </c>
       <c r="I31" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="J31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K31" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="L31" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M31" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>20253031</v>
+        <v>20253730</v>
       </c>
       <c r="B32" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E32" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="G32" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H32" t="s">
         <v>19</v>
       </c>
       <c r="I32" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="J32" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="K32" t="s">
         <v>22</v>
       </c>
       <c r="L32" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M32" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>20257012</v>
+        <v>20253630</v>
       </c>
       <c r="B33" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E33" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F33" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="H33" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I33" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="J33" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="K33" t="s">
         <v>22</v>
       </c>
       <c r="L33" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M33" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>20253008</v>
+        <v>20253637</v>
       </c>
       <c r="B34" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
       </c>
       <c r="D34" t="s">
+        <v>236</v>
+      </c>
+      <c r="E34" t="s">
+        <v>237</v>
+      </c>
+      <c r="F34" t="s">
+        <v>238</v>
+      </c>
+      <c r="G34" t="s">
         <v>231</v>
       </c>
-      <c r="E34"/>
-      <c r="F34" t="s">
-        <v>69</v>
-      </c>
-      <c r="G34" t="s">
-        <v>232</v>
-      </c>
       <c r="H34" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I34" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="J34" t="s">
-        <v>72</v>
+        <v>240</v>
       </c>
       <c r="K34" t="s">
         <v>22</v>
       </c>
       <c r="L34" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="M34" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>20244404</v>
+        <v>20257355</v>
       </c>
       <c r="B35" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="E35" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="F35" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="H35" t="s">
         <v>19</v>
       </c>
       <c r="I35" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="J35" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="K35" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="L35" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="M35" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>20244419</v>
+        <v>20257419</v>
       </c>
       <c r="B36" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="E36" t="s">
-        <v>68</v>
+        <v>252</v>
       </c>
       <c r="F36" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="G36" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="H36" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="I36" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="J36" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="K36" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="L36" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="M36" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>20247975</v>
+        <v>20253479</v>
       </c>
       <c r="B37" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="E37" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="F37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G37" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="H37" t="s">
         <v>19</v>
       </c>
       <c r="I37" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="J37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K37" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="L37" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="M37" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>20248043</v>
+        <v>20253444</v>
       </c>
       <c r="B38" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E38" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G38" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="H38" t="s">
         <v>19</v>
       </c>
       <c r="I38" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="J38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K38" t="s">
         <v>22</v>
       </c>
       <c r="L38" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="M38" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>20244290</v>
+        <v>20253425</v>
       </c>
       <c r="B39" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>262</v>
-      </c>
-      <c r="E39" t="s">
-        <v>263</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="E39"/>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="G39" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="H39" t="s">
         <v>19</v>
       </c>
       <c r="I39" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="J39" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="K39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L39" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="M39" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>20244278</v>
+        <v>20253309</v>
       </c>
       <c r="B40" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="C40" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="E40" t="s">
-        <v>270</v>
+        <v>130</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="G40" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="H40" t="s">
         <v>19</v>
       </c>
       <c r="I40" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="J40" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="K40" t="s">
         <v>22</v>
       </c>
       <c r="L40" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="M40" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>20244082</v>
+        <v>20253399</v>
       </c>
       <c r="B41" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C41" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D41" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E41" t="s">
-        <v>139</v>
+        <v>284</v>
       </c>
       <c r="F41" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="G41" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H41" t="s">
         <v>19</v>
       </c>
       <c r="I41" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="J41" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="K41" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="L41" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="M41" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>20244112</v>
+        <v>20253404</v>
       </c>
       <c r="B42" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="E42" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="G42" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H42" t="s">
         <v>19</v>
       </c>
       <c r="I42" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="J42" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="K42" t="s">
         <v>22</v>
       </c>
       <c r="L42" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="M42" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>20244131</v>
+        <v>20253417</v>
       </c>
       <c r="B43" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C43" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="E43" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="F43" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="G43" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H43" t="s">
         <v>19</v>
       </c>
       <c r="I43" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="J43" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="K43" t="s">
         <v>22</v>
       </c>
       <c r="L43" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="M43" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>20244132</v>
+        <v>20251011</v>
       </c>
       <c r="B44" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>301</v>
       </c>
       <c r="D44" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="E44" t="s">
-        <v>120</v>
+        <v>303</v>
       </c>
       <c r="F44" t="s">
+        <v>44</v>
+      </c>
+      <c r="G44" t="s">
+        <v>304</v>
+      </c>
+      <c r="H44" t="s">
         <v>29</v>
       </c>
-      <c r="G44" t="s">
-        <v>277</v>
-      </c>
-      <c r="H44" t="s">
-        <v>19</v>
-      </c>
       <c r="I44" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="J44" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="K44" t="s">
         <v>22</v>
       </c>
       <c r="L44" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="M44" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>20244133</v>
+        <v>20253194</v>
       </c>
       <c r="B45" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D45" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="E45" t="s">
-        <v>120</v>
+        <v>310</v>
       </c>
       <c r="F45" t="s">
+        <v>44</v>
+      </c>
+      <c r="G45" t="s">
+        <v>304</v>
+      </c>
+      <c r="H45" t="s">
         <v>29</v>
       </c>
-      <c r="G45" t="s">
-        <v>277</v>
-      </c>
-      <c r="H45" t="s">
-        <v>19</v>
-      </c>
       <c r="I45" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="J45" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="K45" t="s">
         <v>22</v>
       </c>
       <c r="L45" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="M45" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>20244137</v>
+        <v>20253203</v>
       </c>
       <c r="B46" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="C46" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D46" t="s">
+        <v>315</v>
+      </c>
+      <c r="E46" t="s">
+        <v>316</v>
+      </c>
+      <c r="F46" t="s">
+        <v>44</v>
+      </c>
+      <c r="G46" t="s">
         <v>304</v>
       </c>
-      <c r="E46" t="s">
-        <v>305</v>
-      </c>
-      <c r="F46" t="s">
-        <v>29</v>
-      </c>
-      <c r="G46" t="s">
-        <v>277</v>
-      </c>
       <c r="H46" t="s">
         <v>19</v>
       </c>
       <c r="I46" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="J46" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="K46" t="s">
         <v>22</v>
       </c>
       <c r="L46" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="M46" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>20243937</v>
+        <v>20253213</v>
       </c>
       <c r="B47" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D47" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="E47" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="F47" t="s">
-        <v>312</v>
+        <v>44</v>
       </c>
       <c r="G47" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="H47" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I47" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="J47" t="s">
-        <v>315</v>
+        <v>47</v>
       </c>
       <c r="K47" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="L47" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="M47" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>20243948</v>
+        <v>20253214</v>
       </c>
       <c r="B48" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C48" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D48" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E48" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F48" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="G48" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="H48" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="I48" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="J48" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="K48" t="s">
         <v>22</v>
       </c>
       <c r="L48" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="M48" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>20247720</v>
+        <v>20253246</v>
       </c>
       <c r="B49" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C49" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="E49" t="s">
-        <v>107</v>
+        <v>333</v>
       </c>
       <c r="F49" t="s">
-        <v>69</v>
+        <v>149</v>
       </c>
       <c r="G49" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="H49" t="s">
         <v>19</v>
       </c>
       <c r="I49" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="J49" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="K49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L49" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="M49" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>20247726</v>
+        <v>20253093</v>
       </c>
       <c r="B50" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="C50" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="D50" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="E50" t="s">
-        <v>139</v>
+        <v>339</v>
       </c>
       <c r="F50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G50" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="H50" t="s">
         <v>19</v>
       </c>
       <c r="I50" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="J50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K50" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="L50" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="M50" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>20247773</v>
+        <v>20257213</v>
       </c>
       <c r="B51" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="C51" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="D51" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="E51" t="s">
-        <v>337</v>
+        <v>284</v>
       </c>
       <c r="F51" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="G51" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="H51" t="s">
         <v>19</v>
       </c>
       <c r="I51" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="J51" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="K51" t="s">
         <v>22</v>
       </c>
       <c r="L51" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="M51" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>20247774</v>
+        <v>20253054</v>
       </c>
       <c r="B52" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="C52" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="E52" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="F52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G52" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="H52" t="s">
         <v>19</v>
       </c>
       <c r="I52" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="J52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K52" t="s">
         <v>22</v>
       </c>
       <c r="L52" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="M52" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>20243858</v>
+        <v>20257102</v>
       </c>
       <c r="B53" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="C53" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D53" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="E53" t="s">
-        <v>348</v>
+        <v>116</v>
       </c>
       <c r="F53" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="H53" t="s">
         <v>19</v>
       </c>
       <c r="I53" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="J53" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="K53" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="L53" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="M53" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>20243877</v>
+        <v>20257129</v>
       </c>
       <c r="B54" t="s">
+        <v>362</v>
+      </c>
+      <c r="C54" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" t="s">
+        <v>363</v>
+      </c>
+      <c r="E54" t="s">
+        <v>265</v>
+      </c>
+      <c r="F54" t="s">
+        <v>44</v>
+      </c>
+      <c r="G54" t="s">
         <v>353</v>
       </c>
-      <c r="C54" t="s">
-        <v>26</v>
-      </c>
-      <c r="D54" t="s">
-        <v>354</v>
-      </c>
-      <c r="E54" t="s">
-        <v>355</v>
-      </c>
-      <c r="F54" t="s">
-        <v>29</v>
-      </c>
-      <c r="G54" t="s">
-        <v>349</v>
-      </c>
       <c r="H54" t="s">
         <v>19</v>
       </c>
       <c r="I54" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="J54" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="K54" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="L54" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="M54" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>20247622</v>
+        <v>20257138</v>
       </c>
       <c r="B55" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="C55" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="D55" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="E55" t="s">
-        <v>289</v>
+        <v>369</v>
       </c>
       <c r="F55" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="G55" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="H55" t="s">
         <v>19</v>
       </c>
       <c r="I55" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="J55" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="K55" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="L55" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="M55" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>20247649</v>
+        <v>20253031</v>
       </c>
       <c r="B56" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C56" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="D56" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="E56" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="F56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G56" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="H56" t="s">
         <v>19</v>
       </c>
       <c r="I56" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="J56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K56" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="L56" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="M56" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>20243709</v>
+        <v>20257012</v>
       </c>
       <c r="B57" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="C57" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D57" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="E57" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="F57" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G57" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H57" t="s">
         <v>19</v>
       </c>
       <c r="I57" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="J57" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="K57" t="s">
         <v>22</v>
       </c>
       <c r="L57" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="M57" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>20243773</v>
+        <v>20253008</v>
       </c>
       <c r="B58" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="C58" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>379</v>
-      </c>
-      <c r="E58" t="s">
-        <v>380</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="E58"/>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G58" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="H58" t="s">
         <v>19</v>
       </c>
       <c r="I58" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="J58" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="K58" t="s">
         <v>22</v>
       </c>
       <c r="L58" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="M58" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>20243776</v>
+        <v>20244404</v>
       </c>
       <c r="B59" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D59" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="E59" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="F59" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="G59" t="s">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="H59" t="s">
         <v>19</v>
       </c>
       <c r="I59" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="J59" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="K59" t="s">
         <v>22</v>
       </c>
       <c r="L59" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="M59" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>20243609</v>
+        <v>20244419</v>
       </c>
       <c r="B60" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D60" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="E60" t="s">
-        <v>391</v>
+        <v>230</v>
       </c>
       <c r="F60" t="s">
-        <v>392</v>
+        <v>44</v>
       </c>
       <c r="G60" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H60" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I60" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="J60" t="s">
-        <v>395</v>
+        <v>47</v>
       </c>
       <c r="K60" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="L60" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="M60" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>20243574</v>
+        <v>20247975</v>
       </c>
       <c r="B61" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C61" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D61" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="E61" t="s">
-        <v>77</v>
+        <v>406</v>
       </c>
       <c r="F61" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="G61" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="H61" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="I61" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="J61" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="K61" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="L61" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="M61" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>20243557</v>
+        <v>20248043</v>
       </c>
       <c r="B62" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="C62" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D62" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="E62" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="F62" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="G62" t="s">
         <v>407</v>
@@ -4862,487 +4862,493 @@
         <v>19</v>
       </c>
       <c r="I62" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="J62" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="K62" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="L62" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="M62" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>20243471</v>
+        <v>20244290</v>
       </c>
       <c r="B63" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D63" t="s">
-        <v>412</v>
-      </c>
-      <c r="E63"/>
+        <v>418</v>
+      </c>
+      <c r="E63" t="s">
+        <v>419</v>
+      </c>
       <c r="F63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G63" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="H63" t="s">
         <v>19</v>
       </c>
       <c r="I63" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="J63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K63" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="L63" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="M63" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>20243468</v>
+        <v>20244278</v>
       </c>
       <c r="B64" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="C64" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D64" t="s">
-        <v>418</v>
-      </c>
-      <c r="E64"/>
+        <v>425</v>
+      </c>
+      <c r="E64" t="s">
+        <v>426</v>
+      </c>
       <c r="F64" t="s">
-        <v>312</v>
+        <v>68</v>
       </c>
       <c r="G64" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="H64" t="s">
         <v>19</v>
       </c>
       <c r="I64" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="J64" t="s">
-        <v>315</v>
+        <v>71</v>
       </c>
       <c r="K64" t="s">
         <v>22</v>
       </c>
       <c r="L64" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="M64" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>20243467</v>
+        <v>20244082</v>
       </c>
       <c r="B65" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D65" t="s">
-        <v>424</v>
-      </c>
-      <c r="E65"/>
+        <v>432</v>
+      </c>
+      <c r="E65" t="s">
+        <v>296</v>
+      </c>
       <c r="F65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G65" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="H65" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="I65" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="J65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L65" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="M65" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>20243318</v>
+        <v>20244112</v>
       </c>
       <c r="B66" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C66" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D66" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="E66" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="G66" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H66" t="s">
         <v>19</v>
       </c>
       <c r="I66" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="J66" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="K66" t="s">
         <v>22</v>
       </c>
       <c r="L66" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="M66" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>20243234</v>
+        <v>20244131</v>
       </c>
       <c r="B67" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D67" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="E67" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="F67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G67" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H67" t="s">
         <v>19</v>
       </c>
       <c r="I67" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="J67" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K67" t="s">
         <v>22</v>
       </c>
       <c r="L67" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="M67" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>20243259</v>
+        <v>20244132</v>
       </c>
       <c r="B68" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C68" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="D68" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="E68" t="s">
-        <v>444</v>
+        <v>130</v>
       </c>
       <c r="F68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G68" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H68" t="s">
         <v>19</v>
       </c>
       <c r="I68" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="J68" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K68" t="s">
         <v>22</v>
       </c>
       <c r="L68" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="M68" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>20243169</v>
+        <v>20244133</v>
       </c>
       <c r="B69" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="E69" t="s">
-        <v>450</v>
+        <v>130</v>
       </c>
       <c r="F69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G69" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="H69" t="s">
         <v>19</v>
       </c>
       <c r="I69" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="J69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K69" t="s">
         <v>22</v>
       </c>
       <c r="L69" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="M69" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>20243077</v>
+        <v>20244137</v>
       </c>
       <c r="B70" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D70" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="E70" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="G70" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="H70" t="s">
         <v>19</v>
       </c>
       <c r="I70" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="J70" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="K70" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="L70" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="M70" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>20247112</v>
+        <v>20243937</v>
       </c>
       <c r="B71" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C71" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E71" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F71" t="s">
-        <v>69</v>
+        <v>181</v>
       </c>
       <c r="G71" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="H71" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I71" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="J71" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="K71" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="L71" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="M71" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>20247015</v>
+        <v>20243948</v>
       </c>
       <c r="B72" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C72" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="D72" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E72" t="s">
-        <v>107</v>
+        <v>473</v>
       </c>
       <c r="F72" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="G72" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H72" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I72" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="J72" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="K72" t="s">
         <v>22</v>
       </c>
       <c r="L72" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="M72" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>20234494</v>
+        <v>20247720</v>
       </c>
       <c r="B73" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C73" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D73" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E73" t="s">
-        <v>28</v>
+        <v>265</v>
       </c>
       <c r="F73" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="G73" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="H73" t="s">
         <v>19</v>
       </c>
       <c r="I73" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="J73" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="K73" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="L73" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="M73" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>20234461</v>
+        <v>20247726</v>
       </c>
       <c r="B74" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C74" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D74" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E74" t="s">
-        <v>483</v>
+        <v>296</v>
       </c>
       <c r="F74" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="G74" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="H74" t="s">
         <v>19</v>
@@ -5351,10 +5357,10 @@
         <v>485</v>
       </c>
       <c r="J74" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="K74" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="L74" t="s">
         <v>486</v>
@@ -5365,925 +5371,921 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>20234375</v>
+        <v>20247773</v>
       </c>
       <c r="B75" t="s">
         <v>488</v>
       </c>
       <c r="C75" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D75" t="s">
         <v>489</v>
       </c>
       <c r="E75" t="s">
+        <v>123</v>
+      </c>
+      <c r="F75" t="s">
+        <v>44</v>
+      </c>
+      <c r="G75" t="s">
+        <v>479</v>
+      </c>
+      <c r="H75" t="s">
+        <v>19</v>
+      </c>
+      <c r="I75" t="s">
         <v>490</v>
       </c>
-      <c r="F75" t="s">
-        <v>69</v>
-      </c>
-      <c r="G75" t="s">
+      <c r="J75" t="s">
+        <v>47</v>
+      </c>
+      <c r="K75" t="s">
+        <v>22</v>
+      </c>
+      <c r="L75" t="s">
         <v>491</v>
       </c>
-      <c r="H75" t="s">
-        <v>19</v>
-      </c>
-      <c r="I75" t="s">
+      <c r="M75" t="s">
         <v>492</v>
-      </c>
-      <c r="J75" t="s">
-        <v>72</v>
-      </c>
-      <c r="K75" t="s">
-        <v>22</v>
-      </c>
-      <c r="L75" t="s">
-        <v>493</v>
-      </c>
-      <c r="M75" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>20234353</v>
+        <v>20247774</v>
       </c>
       <c r="B76" t="s">
+        <v>493</v>
+      </c>
+      <c r="C76" t="s">
+        <v>41</v>
+      </c>
+      <c r="D76" t="s">
+        <v>494</v>
+      </c>
+      <c r="E76" t="s">
+        <v>123</v>
+      </c>
+      <c r="F76" t="s">
+        <v>44</v>
+      </c>
+      <c r="G76" t="s">
+        <v>479</v>
+      </c>
+      <c r="H76" t="s">
+        <v>19</v>
+      </c>
+      <c r="I76" t="s">
         <v>495</v>
       </c>
-      <c r="C76" t="s">
-        <v>26</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="J76" t="s">
+        <v>47</v>
+      </c>
+      <c r="K76" t="s">
+        <v>22</v>
+      </c>
+      <c r="L76" t="s">
         <v>496</v>
       </c>
-      <c r="E76" t="s">
+      <c r="M76" t="s">
         <v>497</v>
-      </c>
-      <c r="F76" t="s">
-        <v>69</v>
-      </c>
-      <c r="G76" t="s">
-        <v>498</v>
-      </c>
-      <c r="H76" t="s">
-        <v>19</v>
-      </c>
-      <c r="I76" t="s">
-        <v>499</v>
-      </c>
-      <c r="J76" t="s">
-        <v>72</v>
-      </c>
-      <c r="K76" t="s">
-        <v>22</v>
-      </c>
-      <c r="L76" t="s">
-        <v>500</v>
-      </c>
-      <c r="M76" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>20234346</v>
+        <v>20243858</v>
       </c>
       <c r="B77" t="s">
+        <v>498</v>
+      </c>
+      <c r="C77" t="s">
+        <v>34</v>
+      </c>
+      <c r="D77" t="s">
+        <v>499</v>
+      </c>
+      <c r="E77" t="s">
+        <v>500</v>
+      </c>
+      <c r="F77" t="s">
+        <v>68</v>
+      </c>
+      <c r="G77" t="s">
+        <v>501</v>
+      </c>
+      <c r="H77" t="s">
+        <v>19</v>
+      </c>
+      <c r="I77" t="s">
         <v>502</v>
       </c>
-      <c r="C77" t="s">
-        <v>14</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="J77" t="s">
+        <v>71</v>
+      </c>
+      <c r="K77" t="s">
+        <v>48</v>
+      </c>
+      <c r="L77" t="s">
         <v>503</v>
       </c>
-      <c r="E77"/>
-      <c r="F77" t="s">
-        <v>69</v>
-      </c>
-      <c r="G77" t="s">
+      <c r="M77" t="s">
         <v>504</v>
-      </c>
-      <c r="H77" t="s">
-        <v>36</v>
-      </c>
-      <c r="I77" t="s">
-        <v>505</v>
-      </c>
-      <c r="J77" t="s">
-        <v>72</v>
-      </c>
-      <c r="K77" t="s">
-        <v>49</v>
-      </c>
-      <c r="L77" t="s">
-        <v>506</v>
-      </c>
-      <c r="M77" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>20254785</v>
+        <v>20243877</v>
       </c>
       <c r="B78" t="s">
+        <v>505</v>
+      </c>
+      <c r="C78" t="s">
+        <v>34</v>
+      </c>
+      <c r="D78" t="s">
+        <v>506</v>
+      </c>
+      <c r="E78" t="s">
+        <v>507</v>
+      </c>
+      <c r="F78" t="s">
+        <v>68</v>
+      </c>
+      <c r="G78" t="s">
+        <v>501</v>
+      </c>
+      <c r="H78" t="s">
+        <v>19</v>
+      </c>
+      <c r="I78" t="s">
         <v>508</v>
       </c>
-      <c r="C78" t="s">
-        <v>14</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="J78" t="s">
+        <v>71</v>
+      </c>
+      <c r="K78" t="s">
+        <v>22</v>
+      </c>
+      <c r="L78" t="s">
         <v>509</v>
       </c>
-      <c r="E78" t="s">
-        <v>457</v>
-      </c>
-      <c r="F78" t="s">
+      <c r="M78" t="s">
         <v>510</v>
-      </c>
-      <c r="G78" t="s">
-        <v>511</v>
-      </c>
-      <c r="H78" t="s">
-        <v>19</v>
-      </c>
-      <c r="I78" t="s">
-        <v>512</v>
-      </c>
-      <c r="J78" t="s">
-        <v>513</v>
-      </c>
-      <c r="K78" t="s">
-        <v>22</v>
-      </c>
-      <c r="L78" t="s">
-        <v>514</v>
-      </c>
-      <c r="M78" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>20254620</v>
+        <v>20247622</v>
       </c>
       <c r="B79" t="s">
+        <v>511</v>
+      </c>
+      <c r="C79" t="s">
+        <v>41</v>
+      </c>
+      <c r="D79" t="s">
+        <v>512</v>
+      </c>
+      <c r="E79" t="s">
+        <v>53</v>
+      </c>
+      <c r="F79" t="s">
+        <v>44</v>
+      </c>
+      <c r="G79" t="s">
+        <v>513</v>
+      </c>
+      <c r="H79" t="s">
+        <v>19</v>
+      </c>
+      <c r="I79" t="s">
+        <v>514</v>
+      </c>
+      <c r="J79" t="s">
+        <v>47</v>
+      </c>
+      <c r="K79" t="s">
+        <v>125</v>
+      </c>
+      <c r="L79" t="s">
+        <v>515</v>
+      </c>
+      <c r="M79" t="s">
         <v>516</v>
-      </c>
-      <c r="C79" t="s">
-        <v>14</v>
-      </c>
-      <c r="D79" t="s">
-        <v>517</v>
-      </c>
-      <c r="E79" t="s">
-        <v>518</v>
-      </c>
-      <c r="F79" t="s">
-        <v>510</v>
-      </c>
-      <c r="G79" t="s">
-        <v>519</v>
-      </c>
-      <c r="H79" t="s">
-        <v>36</v>
-      </c>
-      <c r="I79" t="s">
-        <v>520</v>
-      </c>
-      <c r="J79" t="s">
-        <v>513</v>
-      </c>
-      <c r="K79" t="s">
-        <v>22</v>
-      </c>
-      <c r="L79" t="s">
-        <v>521</v>
-      </c>
-      <c r="M79" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>20254696</v>
+        <v>20247649</v>
       </c>
       <c r="B80" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C80" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D80" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="E80" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F80" t="s">
-        <v>510</v>
+        <v>44</v>
       </c>
       <c r="G80" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="H80" t="s">
         <v>19</v>
       </c>
       <c r="I80" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="J80" t="s">
-        <v>513</v>
+        <v>47</v>
       </c>
       <c r="K80" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="L80" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="M80" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>20258194</v>
+        <v>20243709</v>
       </c>
       <c r="B81" t="s">
+        <v>523</v>
+      </c>
+      <c r="C81" t="s">
+        <v>34</v>
+      </c>
+      <c r="D81" t="s">
+        <v>524</v>
+      </c>
+      <c r="E81" t="s">
+        <v>525</v>
+      </c>
+      <c r="F81" t="s">
+        <v>68</v>
+      </c>
+      <c r="G81" t="s">
+        <v>526</v>
+      </c>
+      <c r="H81" t="s">
+        <v>19</v>
+      </c>
+      <c r="I81" t="s">
+        <v>527</v>
+      </c>
+      <c r="J81" t="s">
+        <v>71</v>
+      </c>
+      <c r="K81" t="s">
+        <v>22</v>
+      </c>
+      <c r="L81" t="s">
+        <v>528</v>
+      </c>
+      <c r="M81" t="s">
         <v>529</v>
-      </c>
-      <c r="C81" t="s">
-        <v>84</v>
-      </c>
-      <c r="D81" t="s">
-        <v>530</v>
-      </c>
-      <c r="E81" t="s">
-        <v>531</v>
-      </c>
-      <c r="F81" t="s">
-        <v>69</v>
-      </c>
-      <c r="G81" t="s">
-        <v>532</v>
-      </c>
-      <c r="H81" t="s">
-        <v>19</v>
-      </c>
-      <c r="I81" t="s">
-        <v>533</v>
-      </c>
-      <c r="J81" t="s">
-        <v>72</v>
-      </c>
-      <c r="K81" t="s">
-        <v>49</v>
-      </c>
-      <c r="L81" t="s">
-        <v>534</v>
-      </c>
-      <c r="M81" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>20258273</v>
+        <v>20243773</v>
       </c>
       <c r="B82" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C82" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="D82" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="E82" t="s">
-        <v>289</v>
+        <v>532</v>
       </c>
       <c r="F82" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G82" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="H82" t="s">
         <v>19</v>
       </c>
       <c r="I82" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="J82" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K82" t="s">
         <v>22</v>
       </c>
       <c r="L82" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="M82" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>20254463</v>
+        <v>20243776</v>
       </c>
       <c r="B83" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E83" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="F83" t="s">
-        <v>510</v>
+        <v>44</v>
       </c>
       <c r="G83" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="H83" t="s">
         <v>19</v>
       </c>
       <c r="I83" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="J83" t="s">
-        <v>513</v>
+        <v>47</v>
       </c>
       <c r="K83" t="s">
         <v>22</v>
       </c>
       <c r="L83" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="M83" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>20254281</v>
+        <v>20243609</v>
       </c>
       <c r="B84" t="s">
+        <v>541</v>
+      </c>
+      <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" t="s">
+        <v>542</v>
+      </c>
+      <c r="E84" t="s">
+        <v>543</v>
+      </c>
+      <c r="F84" t="s">
+        <v>544</v>
+      </c>
+      <c r="G84" t="s">
+        <v>545</v>
+      </c>
+      <c r="H84" t="s">
+        <v>19</v>
+      </c>
+      <c r="I84" t="s">
+        <v>546</v>
+      </c>
+      <c r="J84" t="s">
+        <v>547</v>
+      </c>
+      <c r="K84" t="s">
+        <v>48</v>
+      </c>
+      <c r="L84" t="s">
         <v>548</v>
       </c>
-      <c r="C84" t="s">
-        <v>53</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="M84" t="s">
         <v>549</v>
-      </c>
-      <c r="E84" t="s">
-        <v>550</v>
-      </c>
-      <c r="F84" t="s">
-        <v>29</v>
-      </c>
-      <c r="G84" t="s">
-        <v>551</v>
-      </c>
-      <c r="H84" t="s">
-        <v>19</v>
-      </c>
-      <c r="I84" t="s">
-        <v>552</v>
-      </c>
-      <c r="J84" t="s">
-        <v>31</v>
-      </c>
-      <c r="K84" t="s">
-        <v>22</v>
-      </c>
-      <c r="L84" t="s">
-        <v>553</v>
-      </c>
-      <c r="M84" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>20254317</v>
+        <v>20243574</v>
       </c>
       <c r="B85" t="s">
+        <v>550</v>
+      </c>
+      <c r="C85" t="s">
+        <v>34</v>
+      </c>
+      <c r="D85" t="s">
+        <v>551</v>
+      </c>
+      <c r="E85" t="s">
+        <v>237</v>
+      </c>
+      <c r="F85" t="s">
+        <v>44</v>
+      </c>
+      <c r="G85" t="s">
+        <v>552</v>
+      </c>
+      <c r="H85" t="s">
+        <v>29</v>
+      </c>
+      <c r="I85" t="s">
+        <v>553</v>
+      </c>
+      <c r="J85" t="s">
+        <v>47</v>
+      </c>
+      <c r="K85" t="s">
+        <v>22</v>
+      </c>
+      <c r="L85" t="s">
+        <v>554</v>
+      </c>
+      <c r="M85" t="s">
         <v>555</v>
-      </c>
-      <c r="C85" t="s">
-        <v>14</v>
-      </c>
-      <c r="D85" t="s">
-        <v>556</v>
-      </c>
-      <c r="E85" t="s">
-        <v>557</v>
-      </c>
-      <c r="F85" t="s">
-        <v>29</v>
-      </c>
-      <c r="G85" t="s">
-        <v>551</v>
-      </c>
-      <c r="H85" t="s">
-        <v>19</v>
-      </c>
-      <c r="I85" t="s">
-        <v>558</v>
-      </c>
-      <c r="J85" t="s">
-        <v>31</v>
-      </c>
-      <c r="K85" t="s">
-        <v>22</v>
-      </c>
-      <c r="L85" t="s">
-        <v>559</v>
-      </c>
-      <c r="M85" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>20254145</v>
+        <v>20243557</v>
       </c>
       <c r="B86" t="s">
+        <v>556</v>
+      </c>
+      <c r="C86" t="s">
+        <v>34</v>
+      </c>
+      <c r="D86" t="s">
+        <v>557</v>
+      </c>
+      <c r="E86" t="s">
+        <v>558</v>
+      </c>
+      <c r="F86" t="s">
+        <v>44</v>
+      </c>
+      <c r="G86" t="s">
+        <v>559</v>
+      </c>
+      <c r="H86" t="s">
+        <v>19</v>
+      </c>
+      <c r="I86" t="s">
+        <v>560</v>
+      </c>
+      <c r="J86" t="s">
+        <v>47</v>
+      </c>
+      <c r="K86" t="s">
+        <v>48</v>
+      </c>
+      <c r="L86" t="s">
         <v>561</v>
       </c>
-      <c r="C86" t="s">
-        <v>14</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="M86" t="s">
         <v>562</v>
-      </c>
-      <c r="E86" t="s">
-        <v>563</v>
-      </c>
-      <c r="F86" t="s">
-        <v>69</v>
-      </c>
-      <c r="G86" t="s">
-        <v>564</v>
-      </c>
-      <c r="H86" t="s">
-        <v>36</v>
-      </c>
-      <c r="I86" t="s">
-        <v>565</v>
-      </c>
-      <c r="J86" t="s">
-        <v>72</v>
-      </c>
-      <c r="K86" t="s">
-        <v>22</v>
-      </c>
-      <c r="L86" t="s">
-        <v>566</v>
-      </c>
-      <c r="M86" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>20254188</v>
+        <v>20243471</v>
       </c>
       <c r="B87" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>569</v>
-      </c>
-      <c r="E87" t="s">
-        <v>570</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="E87"/>
       <c r="F87" t="s">
-        <v>571</v>
+        <v>44</v>
       </c>
       <c r="G87" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H87" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="I87" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="J87" t="s">
-        <v>573</v>
+        <v>47</v>
       </c>
       <c r="K87" t="s">
         <v>22</v>
       </c>
       <c r="L87" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="M87" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>20254225</v>
+        <v>20243468</v>
       </c>
       <c r="B88" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="C88" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="D88" t="s">
-        <v>577</v>
-      </c>
-      <c r="E88" t="s">
-        <v>483</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="E88"/>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>181</v>
       </c>
       <c r="G88" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="H88" t="s">
         <v>19</v>
       </c>
       <c r="I88" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="J88" t="s">
-        <v>31</v>
+        <v>184</v>
       </c>
       <c r="K88" t="s">
         <v>22</v>
       </c>
       <c r="L88" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="M88" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>20254234</v>
+        <v>20243467</v>
       </c>
       <c r="B89" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>582</v>
-      </c>
-      <c r="E89" t="s">
-        <v>583</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="E89"/>
       <c r="F89" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="G89" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="H89" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I89" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="J89" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="K89" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="L89" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="M89" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>20254071</v>
+        <v>20243318</v>
       </c>
       <c r="B90" t="s">
+        <v>581</v>
+      </c>
+      <c r="C90" t="s">
+        <v>34</v>
+      </c>
+      <c r="D90" t="s">
+        <v>582</v>
+      </c>
+      <c r="E90" t="s">
+        <v>583</v>
+      </c>
+      <c r="F90" t="s">
+        <v>68</v>
+      </c>
+      <c r="G90" t="s">
+        <v>584</v>
+      </c>
+      <c r="H90" t="s">
+        <v>19</v>
+      </c>
+      <c r="I90" t="s">
+        <v>585</v>
+      </c>
+      <c r="J90" t="s">
+        <v>71</v>
+      </c>
+      <c r="K90" t="s">
+        <v>22</v>
+      </c>
+      <c r="L90" t="s">
+        <v>586</v>
+      </c>
+      <c r="M90" t="s">
         <v>587</v>
-      </c>
-      <c r="C90" t="s">
-        <v>26</v>
-      </c>
-      <c r="D90" t="s">
-        <v>588</v>
-      </c>
-      <c r="E90" t="s">
-        <v>589</v>
-      </c>
-      <c r="F90" t="s">
-        <v>69</v>
-      </c>
-      <c r="G90" t="s">
-        <v>590</v>
-      </c>
-      <c r="H90" t="s">
-        <v>36</v>
-      </c>
-      <c r="I90" t="s">
-        <v>591</v>
-      </c>
-      <c r="J90" t="s">
-        <v>72</v>
-      </c>
-      <c r="K90" t="s">
-        <v>22</v>
-      </c>
-      <c r="L90" t="s">
-        <v>592</v>
-      </c>
-      <c r="M90" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>20254024</v>
+        <v>20243234</v>
       </c>
       <c r="B91" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="C91" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="E91" t="s">
-        <v>202</v>
+        <v>296</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G91" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="H91" t="s">
         <v>19</v>
       </c>
       <c r="I91" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="J91" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="K91" t="s">
         <v>22</v>
       </c>
       <c r="L91" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="M91" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>20257863</v>
+        <v>20243259</v>
       </c>
       <c r="B92" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C92" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="D92" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="E92" t="s">
-        <v>337</v>
+        <v>596</v>
       </c>
       <c r="F92" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="G92" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="H92" t="s">
         <v>19</v>
       </c>
       <c r="I92" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="J92" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="K92" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="L92" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="M92" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>20257888</v>
+        <v>20243169</v>
       </c>
       <c r="B93" t="s">
+        <v>600</v>
+      </c>
+      <c r="C93" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" t="s">
+        <v>601</v>
+      </c>
+      <c r="E93" t="s">
+        <v>602</v>
+      </c>
+      <c r="F93" t="s">
+        <v>44</v>
+      </c>
+      <c r="G93" t="s">
+        <v>603</v>
+      </c>
+      <c r="H93" t="s">
+        <v>19</v>
+      </c>
+      <c r="I93" t="s">
+        <v>604</v>
+      </c>
+      <c r="J93" t="s">
+        <v>47</v>
+      </c>
+      <c r="K93" t="s">
+        <v>22</v>
+      </c>
+      <c r="L93" t="s">
         <v>605</v>
       </c>
-      <c r="C93" t="s">
-        <v>84</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="M93" t="s">
         <v>606</v>
-      </c>
-      <c r="E93" t="s">
-        <v>120</v>
-      </c>
-      <c r="F93" t="s">
-        <v>69</v>
-      </c>
-      <c r="G93" t="s">
-        <v>596</v>
-      </c>
-      <c r="H93" t="s">
-        <v>19</v>
-      </c>
-      <c r="I93" t="s">
-        <v>607</v>
-      </c>
-      <c r="J93" t="s">
-        <v>72</v>
-      </c>
-      <c r="K93" t="s">
-        <v>22</v>
-      </c>
-      <c r="L93" t="s">
-        <v>608</v>
-      </c>
-      <c r="M93" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>20257890</v>
+        <v>20243077</v>
       </c>
       <c r="B94" t="s">
+        <v>607</v>
+      </c>
+      <c r="C94" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" t="s">
+        <v>608</v>
+      </c>
+      <c r="E94" t="s">
+        <v>16</v>
+      </c>
+      <c r="F94" t="s">
+        <v>68</v>
+      </c>
+      <c r="G94" t="s">
+        <v>609</v>
+      </c>
+      <c r="H94" t="s">
+        <v>19</v>
+      </c>
+      <c r="I94" t="s">
         <v>610</v>
       </c>
-      <c r="C94" t="s">
-        <v>84</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="J94" t="s">
+        <v>71</v>
+      </c>
+      <c r="K94" t="s">
+        <v>48</v>
+      </c>
+      <c r="L94" t="s">
         <v>611</v>
       </c>
-      <c r="E94" t="s">
-        <v>28</v>
-      </c>
-      <c r="F94" t="s">
-        <v>69</v>
-      </c>
-      <c r="G94" t="s">
-        <v>596</v>
-      </c>
-      <c r="H94" t="s">
-        <v>19</v>
-      </c>
-      <c r="I94" t="s">
+      <c r="M94" t="s">
         <v>612</v>
-      </c>
-      <c r="J94" t="s">
-        <v>72</v>
-      </c>
-      <c r="K94" t="s">
-        <v>22</v>
-      </c>
-      <c r="L94" t="s">
-        <v>613</v>
-      </c>
-      <c r="M94" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>20254003</v>
+        <v>20247112</v>
       </c>
       <c r="B95" t="s">
+        <v>613</v>
+      </c>
+      <c r="C95" t="s">
+        <v>41</v>
+      </c>
+      <c r="D95" t="s">
+        <v>614</v>
+      </c>
+      <c r="E95" t="s">
         <v>615</v>
       </c>
-      <c r="C95" t="s">
-        <v>53</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="F95" t="s">
+        <v>44</v>
+      </c>
+      <c r="G95" t="s">
         <v>616</v>
       </c>
-      <c r="E95" t="s">
+      <c r="H95" t="s">
+        <v>19</v>
+      </c>
+      <c r="I95" t="s">
         <v>617</v>
       </c>
-      <c r="F95" t="s">
-        <v>29</v>
-      </c>
-      <c r="G95" t="s">
+      <c r="J95" t="s">
+        <v>47</v>
+      </c>
+      <c r="K95" t="s">
+        <v>22</v>
+      </c>
+      <c r="L95" t="s">
         <v>618</v>
       </c>
-      <c r="H95" t="s">
-        <v>19</v>
-      </c>
-      <c r="I95" t="s">
+      <c r="M95" t="s">
         <v>619</v>
-      </c>
-      <c r="J95" t="s">
-        <v>31</v>
-      </c>
-      <c r="K95" t="s">
-        <v>22</v>
-      </c>
-      <c r="L95" t="s">
-        <v>620</v>
-      </c>
-      <c r="M95" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>20253984</v>
+        <v>20247015</v>
       </c>
       <c r="B96" t="s">
+        <v>620</v>
+      </c>
+      <c r="C96" t="s">
+        <v>41</v>
+      </c>
+      <c r="D96" t="s">
+        <v>621</v>
+      </c>
+      <c r="E96" t="s">
+        <v>265</v>
+      </c>
+      <c r="F96" t="s">
+        <v>44</v>
+      </c>
+      <c r="G96" t="s">
         <v>622</v>
       </c>
-      <c r="C96" t="s">
-        <v>14</v>
-      </c>
-      <c r="D96" t="s">
-        <v>562</v>
-      </c>
-      <c r="E96" t="s">
+      <c r="H96" t="s">
+        <v>19</v>
+      </c>
+      <c r="I96" t="s">
         <v>623</v>
       </c>
-      <c r="F96" t="s">
-        <v>17</v>
-      </c>
-      <c r="G96" t="s">
+      <c r="J96" t="s">
+        <v>47</v>
+      </c>
+      <c r="K96" t="s">
+        <v>22</v>
+      </c>
+      <c r="L96" t="s">
         <v>624</v>
       </c>
-      <c r="H96" t="s">
-        <v>19</v>
-      </c>
-      <c r="I96" t="s">
-        <v>565</v>
-      </c>
-      <c r="J96" t="s">
-        <v>21</v>
-      </c>
-      <c r="K96" t="s">
-        <v>22</v>
-      </c>
-      <c r="L96" t="s">
+      <c r="M96" t="s">
         <v>625</v>
-      </c>
-      <c r="M96" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>20257663</v>
+        <v>20234494</v>
       </c>
       <c r="B97" t="s">
+        <v>626</v>
+      </c>
+      <c r="C97" t="s">
+        <v>34</v>
+      </c>
+      <c r="D97" t="s">
         <v>627</v>
       </c>
-      <c r="C97" t="s">
-        <v>84</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
+        <v>136</v>
+      </c>
+      <c r="F97" t="s">
+        <v>44</v>
+      </c>
+      <c r="G97" t="s">
         <v>628</v>
-      </c>
-      <c r="E97" t="s">
-        <v>457</v>
-      </c>
-      <c r="F97" t="s">
-        <v>69</v>
-      </c>
-      <c r="G97" t="s">
-        <v>624</v>
       </c>
       <c r="H97" t="s">
         <v>19</v>
@@ -6292,10 +6294,10 @@
         <v>629</v>
       </c>
       <c r="J97" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="K97" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="L97" t="s">
         <v>630</v>
@@ -6306,25 +6308,25 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>20257698</v>
+        <v>20234461</v>
       </c>
       <c r="B98" t="s">
         <v>632</v>
       </c>
       <c r="C98" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="D98" t="s">
         <v>633</v>
       </c>
       <c r="E98" t="s">
+        <v>97</v>
+      </c>
+      <c r="F98" t="s">
+        <v>44</v>
+      </c>
+      <c r="G98" t="s">
         <v>634</v>
-      </c>
-      <c r="F98" t="s">
-        <v>69</v>
-      </c>
-      <c r="G98" t="s">
-        <v>624</v>
       </c>
       <c r="H98" t="s">
         <v>19</v>
@@ -6333,10 +6335,10 @@
         <v>635</v>
       </c>
       <c r="J98" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="K98" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="L98" t="s">
         <v>636</v>
@@ -6347,13 +6349,13 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>20253971</v>
+        <v>20234375</v>
       </c>
       <c r="B99" t="s">
         <v>638</v>
       </c>
       <c r="C99" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D99" t="s">
         <v>639</v>
@@ -6362,19 +6364,19 @@
         <v>640</v>
       </c>
       <c r="F99" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="G99" t="s">
         <v>641</v>
       </c>
       <c r="H99" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="I99" t="s">
         <v>642</v>
       </c>
       <c r="J99" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="K99" t="s">
         <v>22</v>
@@ -6388,78 +6390,76 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>20257601</v>
+        <v>20234353</v>
       </c>
       <c r="B100" t="s">
         <v>645</v>
       </c>
       <c r="C100" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="D100" t="s">
         <v>646</v>
       </c>
       <c r="E100" t="s">
-        <v>120</v>
+        <v>647</v>
       </c>
       <c r="F100" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="G100" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H100" t="s">
         <v>19</v>
       </c>
       <c r="I100" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="J100" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="K100" t="s">
         <v>22</v>
       </c>
       <c r="L100" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="M100" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>20253941</v>
+        <v>20234346</v>
       </c>
       <c r="B101" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C101" t="s">
         <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>652</v>
-      </c>
-      <c r="E101" t="s">
         <v>653</v>
       </c>
+      <c r="E101"/>
       <c r="F101" t="s">
-        <v>312</v>
+        <v>44</v>
       </c>
       <c r="G101" t="s">
         <v>654</v>
       </c>
       <c r="H101" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I101" t="s">
         <v>655</v>
       </c>
       <c r="J101" t="s">
-        <v>315</v>
+        <v>47</v>
       </c>
       <c r="K101" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="L101" t="s">
         <v>656</v>

--- a/Objets_parlementaires_CDF_EFK.xlsx
+++ b/Objets_parlementaires_CDF_EFK.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="650">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -23,28 +23,22 @@
     <t xml:space="preserve">Type</t>
   </si>
   <si>
+    <t xml:space="preserve">Auteur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date_dépôt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conseil</t>
+  </si>
+  <si>
     <t xml:space="preserve">Titre_DE</t>
   </si>
   <si>
-    <t xml:space="preserve">Auteur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statut_DE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date_dépôt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conseil</t>
-  </si>
-  <si>
     <t xml:space="preserve">Titre_FR</t>
   </si>
   <si>
-    <t xml:space="preserve">Statut_FR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Langue_détection</t>
+    <t xml:space="preserve">Statut</t>
   </si>
   <si>
     <t xml:space="preserve">Lien_DE</t>
@@ -53,34 +47,31 @@
     <t xml:space="preserve">Lien_FR</t>
   </si>
   <si>
+    <t xml:space="preserve">Mention</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.4785</t>
   </si>
   <si>
     <t xml:space="preserve">Mo.</t>
   </si>
   <si>
+    <t xml:space="preserve">Addor Jean-Luc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-12-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Die Vergütung der Aufgaben, die dem Bundesamt für Zoll und Grenzsicherheit (BAZG) übertragen wurden und die dieses Amt an den Flughäfen Genf und Basel wahrnimmt, muss auch dem BAZG zugute kommen!</t>
   </si>
   <si>
-    <t xml:space="preserve">Addor Jean-Luc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eingereicht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-12-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NR</t>
-  </si>
-  <si>
     <t xml:space="preserve">La rémunération des tâches confiées à l'OFDF dans les aéroports de Genève et Bâle doit profiter à l'OFDF !</t>
   </si>
   <si>
-    <t xml:space="preserve">Déposé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE, FR</t>
+    <t xml:space="preserve">Eingereicht / Déposé</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254785</t>
@@ -89,21 +80,24 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254785</t>
   </si>
   <si>
+    <t xml:space="preserve">Élu</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.4620</t>
   </si>
   <si>
+    <t xml:space="preserve">Michel Matthias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-12-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Daten der Bundesverwaltung mehrfach nutzbar machen – als Basis für vertrauenswürdige KI in der Schweiz</t>
   </si>
   <si>
-    <t xml:space="preserve">Michel Matthias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-12-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR</t>
-  </si>
-  <si>
     <t xml:space="preserve">Favoriser la fiabilité de l’IA en Suisse en rendant réutilisables les données de l’administration fédérale</t>
   </si>
   <si>
@@ -119,12 +113,12 @@
     <t xml:space="preserve">Ip.</t>
   </si>
   <si>
+    <t xml:space="preserve">Grossen Jürg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Transparenz bei der Fördereffizienz aller erneuerbaren Technologien herstellen</t>
   </si>
   <si>
-    <t xml:space="preserve">Grossen Jürg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Assurer la transparence quant à l'efficacité des subventions accordées à toutes les technologies renouvelables</t>
   </si>
   <si>
@@ -140,25 +134,19 @@
     <t xml:space="preserve">Fra.</t>
   </si>
   <si>
+    <t xml:space="preserve">Kolly Nicolas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-12-10</t>
+  </si>
+  <si>
     <t xml:space="preserve">Medizinische Bildgebung in der Westschweiz: Wie hängen Moratorien, Untersuchungsvolumen und Kosten zusammen?</t>
   </si>
   <si>
-    <t xml:space="preserve">Kolly Nicolas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erledigt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-12-10</t>
-  </si>
-  <si>
     <t xml:space="preserve">Imagerie médicale en Suisse romande : quel lien entre moratoires, volume d’examens et coûts ?</t>
   </si>
   <si>
-    <t xml:space="preserve">Liquidé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR</t>
+    <t xml:space="preserve">Erledigt / Liquidé</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20258194</t>
@@ -167,15 +155,18 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20258194</t>
   </si>
   <si>
+    <t xml:space="preserve">Conseil fédéral</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.8273</t>
   </si>
   <si>
+    <t xml:space="preserve">Trede Aline</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kostendeckende Erträge aus dem Artenschutz? </t>
   </si>
   <si>
-    <t xml:space="preserve">Trede Aline</t>
-  </si>
-  <si>
     <t xml:space="preserve">Des revenus couvrant les coûts liés à la protection des espèces ? </t>
   </si>
   <si>
@@ -185,18 +176,21 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20258273</t>
   </si>
   <si>
+    <t xml:space="preserve">Élu &amp; Conseil fédéral</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.4463</t>
   </si>
   <si>
+    <t xml:space="preserve">Wettstein Felix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-12-04</t>
+  </si>
+  <si>
     <t xml:space="preserve">Drei weitere Aufgabenbereiche für das Projekt Entflechtung 27</t>
   </si>
   <si>
-    <t xml:space="preserve">Wettstein Felix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-12-04</t>
-  </si>
-  <si>
     <t xml:space="preserve">Trois nouveaux groupes de tâches pour le projet "Désenchevêtrement 27"</t>
   </si>
   <si>
@@ -212,22 +206,19 @@
     <t xml:space="preserve">Po.</t>
   </si>
   <si>
+    <t xml:space="preserve">Tuosto Brenda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-26</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wirksamere Koordination der Verkehrsmittel im Rahmen von Agglomerationsprogrammen</t>
   </si>
   <si>
-    <t xml:space="preserve">Tuosto Brenda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stellungnahme zum Vorstoss liegt vor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-09-26</t>
-  </si>
-  <si>
     <t xml:space="preserve">Coordination plus efficace des moyens de transport dans le cadre des programmes d'agglomération</t>
   </si>
   <si>
-    <t xml:space="preserve">L’avis relatif à l’intervention est disponible</t>
+    <t xml:space="preserve">Stellungnahme zum Vorstoss liegt vor / L’avis relatif à l’intervention est disponible</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254281</t>
@@ -239,12 +230,12 @@
     <t xml:space="preserve">25.4317</t>
   </si>
   <si>
+    <t xml:space="preserve">Dobler Marcel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stärkung der Aufsicht über die SRG unter Wahrung der Programmautonomie</t>
   </si>
   <si>
-    <t xml:space="preserve">Dobler Marcel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Renforcer la surveillance de la SSR tout en préservant l'autonomie des programmes</t>
   </si>
   <si>
@@ -257,15 +248,15 @@
     <t xml:space="preserve">25.4145</t>
   </si>
   <si>
+    <t xml:space="preserve">Gapany Johanna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-25</t>
+  </si>
+  <si>
     <t xml:space="preserve">Für gesunde Bundesfinanzen. Subventionsüberprüfung optimieren</t>
   </si>
   <si>
-    <t xml:space="preserve">Gapany Johanna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-09-25</t>
-  </si>
-  <si>
     <t xml:space="preserve">Optimiser l'examen des subventions pour garantir la santé des finances fédérales</t>
   </si>
   <si>
@@ -278,19 +269,16 @@
     <t xml:space="preserve">25.4188</t>
   </si>
   <si>
+    <t xml:space="preserve">Schmid Martin</t>
+  </si>
+  <si>
     <t xml:space="preserve">Versorgungssicherheit und raschen Zugang zu innovativen Medikamenten gewährleisten</t>
   </si>
   <si>
-    <t xml:space="preserve">Schmid Martin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zugewiesen an die behandelnde Kommission</t>
-  </si>
-  <si>
     <t xml:space="preserve">Garantir la sécurité de l'approvisionnement et un accès rapide aux médicaments innovants</t>
   </si>
   <si>
-    <t xml:space="preserve">Attribué à la commission compétente</t>
+    <t xml:space="preserve">Zugewiesen an die behandelnde Kommission / Attribué à la commission compétente</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254188</t>
@@ -302,12 +290,12 @@
     <t xml:space="preserve">25.4225</t>
   </si>
   <si>
+    <t xml:space="preserve">Schlatter Marionna</t>
+  </si>
+  <si>
     <t xml:space="preserve">Giftiger Rasen. Warum sind toxische PFAS-Pestizide ausgerechnet zur Anwendung auf Spiel- und Sportplätzen oder in Wohnquartieren zugelassen? </t>
   </si>
   <si>
-    <t xml:space="preserve">Schlatter Marionna</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gazon toxique. Pourquoi les pesticides PFAS sont-ils autorisés sur les terrains de jeux et de sport ainsi que dans les quartiers résidentiels ? </t>
   </si>
   <si>
@@ -320,12 +308,12 @@
     <t xml:space="preserve">25.4234</t>
   </si>
   <si>
+    <t xml:space="preserve">Alijaj Islam</t>
+  </si>
+  <si>
     <t xml:space="preserve">Finanzhilfen nach Artikel 74 IVG und Bedarfs- und Innovationsorientierung</t>
   </si>
   <si>
-    <t xml:space="preserve">Alijaj Islam</t>
-  </si>
-  <si>
     <t xml:space="preserve">Adapter les subventions allouées en vertu de l'article 74 LAI aux besoins des bénéficiaires et à l'innovation</t>
   </si>
   <si>
@@ -338,15 +326,15 @@
     <t xml:space="preserve">25.4071</t>
   </si>
   <si>
+    <t xml:space="preserve">Dittli Josef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-23</t>
+  </si>
+  <si>
     <t xml:space="preserve">Heim- versus Nutztier bei Equiden. Wieso diese Sonderregelung und wieso so viel Food Waste?</t>
   </si>
   <si>
-    <t xml:space="preserve">Dittli Josef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-09-23</t>
-  </si>
-  <si>
     <t xml:space="preserve">Animaux de rente et de compagnie chez les équidés. Pourquoi ce régime spécial et pourquoi tant de gaspillage alimentaire ?</t>
   </si>
   <si>
@@ -359,15 +347,15 @@
     <t xml:space="preserve">25.4024</t>
   </si>
   <si>
+    <t xml:space="preserve">Zryd Andrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-17</t>
+  </si>
+  <si>
     <t xml:space="preserve">Grossprojekte im VBS an externe Dienstleister. Was für eine Strategie wird verfolgt?</t>
   </si>
   <si>
-    <t xml:space="preserve">Zryd Andrea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-09-17</t>
-  </si>
-  <si>
     <t xml:space="preserve">Le DDPS confie de grands projets à des externes. Quel est l'objectif stratégique ?</t>
   </si>
   <si>
@@ -380,18 +368,15 @@
     <t xml:space="preserve">25.7863</t>
   </si>
   <si>
+    <t xml:space="preserve">Gugger Niklaus-Samuel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Steuerdebakel Waadt: Finanzausgleich betroffen?</t>
   </si>
   <si>
-    <t xml:space="preserve">Gugger Niklaus-Samuel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Débâcle fiscale vaudoise. Conséquences sur la péréquation financière ?</t>
   </si>
   <si>
-    <t xml:space="preserve">DE</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257863</t>
   </si>
   <si>
@@ -401,12 +386,12 @@
     <t xml:space="preserve">25.7888</t>
   </si>
   <si>
+    <t xml:space="preserve">Weichelt Manuela</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wann wird der Zwischenbericht des Gutachtens zur RUAG öffentlich?</t>
   </si>
   <si>
-    <t xml:space="preserve">Weichelt Manuela</t>
-  </si>
-  <si>
     <t xml:space="preserve">Quand le rapport d’enquête intermédiaire sur RUAG sera-t-il publié ?</t>
   </si>
   <si>
@@ -419,12 +404,12 @@
     <t xml:space="preserve">25.7890</t>
   </si>
   <si>
+    <t xml:space="preserve">Clivaz Christophe</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rolle des Bundes bei der Sanierung der Deponie Gamsenried </t>
   </si>
   <si>
-    <t xml:space="preserve">Clivaz Christophe</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rôle de la Confédération dans l’assainissement de la décharge de Gamsenried </t>
   </si>
   <si>
@@ -437,15 +422,15 @@
     <t xml:space="preserve">25.4003</t>
   </si>
   <si>
+    <t xml:space="preserve">Grünliberale Fraktion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-11</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wirtschaft entlasten durch Vereinfachung des Steuersystems</t>
   </si>
   <si>
-    <t xml:space="preserve">Grünliberale Fraktion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-09-11</t>
-  </si>
-  <si>
     <t xml:space="preserve">Alléger l'économie en simplifiant le système fiscal</t>
   </si>
   <si>
@@ -461,13 +446,10 @@
     <t xml:space="preserve">FDP-Liberale Fraktion</t>
   </si>
   <si>
-    <t xml:space="preserve">In Kommission des Ständerats</t>
-  </si>
-  <si>
     <t xml:space="preserve">2025-09-10</t>
   </si>
   <si>
-    <t xml:space="preserve">En commission du Conseil des Etats</t>
+    <t xml:space="preserve">In Kommission des Ständerats / En commission du Conseil des Etats</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253984</t>
@@ -494,12 +476,12 @@
     <t xml:space="preserve">25.7698</t>
   </si>
   <si>
+    <t xml:space="preserve">De Ventura Linda</t>
+  </si>
+  <si>
     <t xml:space="preserve">Untersuchungskosten Ruag-Skandal</t>
   </si>
   <si>
-    <t xml:space="preserve">De Ventura Linda</t>
-  </si>
-  <si>
     <t xml:space="preserve">Coûts de l’enquête sur le scandale RUAG</t>
   </si>
   <si>
@@ -512,15 +494,15 @@
     <t xml:space="preserve">25.3971</t>
   </si>
   <si>
+    <t xml:space="preserve">Broulis Pascal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-09</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kostenunterdeckung bei der Zeitungszustellung der Post. Wo bleibt die Transparenz?</t>
   </si>
   <si>
-    <t xml:space="preserve">Broulis Pascal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-09-09</t>
-  </si>
-  <si>
     <t xml:space="preserve">Déficit de la Poste pour la distribution des journaux. Quelle transparence ?</t>
   </si>
   <si>
@@ -533,12 +515,12 @@
     <t xml:space="preserve">25.7601</t>
   </si>
   <si>
+    <t xml:space="preserve">2025-09-08</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gesetzliche Grundlage zum Monitoring von Effekten der Anwendung von problematischen Stoffen</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-09-08</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bases légales pour surveiller les effets de l’utilisation de substances problématiques</t>
   </si>
   <si>
@@ -551,22 +533,19 @@
     <t xml:space="preserve">25.3941</t>
   </si>
   <si>
+    <t xml:space="preserve">Sicherheitspolitische Kommission Nationalrat-Nationalrat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-23</t>
+  </si>
+  <si>
     <t xml:space="preserve">Strategische Aufstockung des Personalbestands des Fedpol. Nur so kann die nationale Sicherheit gewährleistet werden</t>
   </si>
   <si>
-    <t xml:space="preserve">Sicherheitspolitische Kommission Nationalrat-Nationalrat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Überwiesen an den Bundesrat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-06-23</t>
-  </si>
-  <si>
     <t xml:space="preserve">Renforcement stratégique des effectifs de Fedpol. Une nécessité pour la sécurité nationale</t>
   </si>
   <si>
-    <t xml:space="preserve">Transmis au Conseil fédéral</t>
+    <t xml:space="preserve">Überwiesen an den Bundesrat / Transmis au Conseil fédéral</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253941</t>
@@ -578,15 +557,15 @@
     <t xml:space="preserve">25.3835</t>
   </si>
   <si>
+    <t xml:space="preserve">Silberschmidt Andri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-20</t>
+  </si>
+  <si>
     <t xml:space="preserve">Förderung sicherer und nachhaltiger Chemikalien</t>
   </si>
   <si>
-    <t xml:space="preserve">Silberschmidt Andri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-06-20</t>
-  </si>
-  <si>
     <t xml:space="preserve">Encourager des produits chimiques sûrs et durables</t>
   </si>
   <si>
@@ -596,6 +575,9 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253835</t>
   </si>
   <si>
+    <t xml:space="preserve">À recalculer</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.3845</t>
   </si>
   <si>
@@ -626,12 +608,12 @@
     <t xml:space="preserve">25.3880</t>
   </si>
   <si>
+    <t xml:space="preserve">Buffat Michaël</t>
+  </si>
+  <si>
     <t xml:space="preserve">Grünes Licht für Tardoc. Wie werden die Prämienzahlerinnen und -zahler geschützt? (1)</t>
   </si>
   <si>
-    <t xml:space="preserve">Buffat Michaël</t>
-  </si>
-  <si>
     <t xml:space="preserve">Feu vert donné au Tardoc. Avec quelle protection pour les payeurs de primes ? (1)</t>
   </si>
   <si>
@@ -644,12 +626,12 @@
     <t xml:space="preserve">25.3892</t>
   </si>
   <si>
+    <t xml:space="preserve">Hess Lorenz</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bessere Nutzung des wichtigen Instruments HTA</t>
   </si>
   <si>
-    <t xml:space="preserve">Hess Lorenz</t>
-  </si>
-  <si>
     <t xml:space="preserve">L’évaluation des technologies de la santé, un instrument important qui doit être mieux utilisé</t>
   </si>
   <si>
@@ -662,12 +644,12 @@
     <t xml:space="preserve">25.3893</t>
   </si>
   <si>
+    <t xml:space="preserve">Ruch Daniel</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Transparenz und Rechtfertigung der finanziellen Reserven der Suva und Prüfung durch die Eidgenössische Finanzkontrolle</t>
   </si>
   <si>
-    <t xml:space="preserve">Ruch Daniel</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Transparence et justification des réserves financières de la Suva et contrôle du CDF</t>
   </si>
   <si>
@@ -680,15 +662,15 @@
     <t xml:space="preserve">25.3730</t>
   </si>
   <si>
+    <t xml:space="preserve">Klopfenstein Broggini Delphine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-19</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sanierung von mit PFAS belasteten Standorten. Konsequente Umsetzung des Verursacherprinzips</t>
   </si>
   <si>
-    <t xml:space="preserve">Klopfenstein Broggini Delphine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-06-19</t>
-  </si>
-  <si>
     <t xml:space="preserve">Assainissement des sites contaminés par les PFAS. Application effective du principe du pollueur-payeur</t>
   </si>
   <si>
@@ -701,15 +683,15 @@
     <t xml:space="preserve">25.3630</t>
   </si>
   <si>
+    <t xml:space="preserve">Wicki Hans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-17</t>
+  </si>
+  <si>
     <t xml:space="preserve">Finanzielle Sicherheit für Schweizer Regionalflugplätze langfristig und nachhaltig ermöglichen</t>
   </si>
   <si>
-    <t xml:space="preserve">Wicki Hans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-06-17</t>
-  </si>
-  <si>
     <t xml:space="preserve">Assurer à long terme et de manière durable la sécurité financière des aérodromes régionaux suisses</t>
   </si>
   <si>
@@ -722,19 +704,16 @@
     <t xml:space="preserve">25.3637</t>
   </si>
   <si>
+    <t xml:space="preserve">Engler Stefan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Verbindliche Massnahmen bei übermässigem Kostenwachstum auch bei den "Amtstarifen" im KVG</t>
   </si>
   <si>
-    <t xml:space="preserve">Engler Stefan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beratung in Kommission des Nationalrates abgeschlossen</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mesures contraignantes en cas de hausse excessive des coûts, y compris pour les tarifs "officiels" définis dans la LAMal</t>
   </si>
   <si>
-    <t xml:space="preserve">Fin des discussions en commission du Conseil national</t>
+    <t xml:space="preserve">Beratung in Kommission des Nationalrates abgeschlossen / Fin des discussions en commission du Conseil national</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253637</t>
@@ -746,15 +725,15 @@
     <t xml:space="preserve">25.7355</t>
   </si>
   <si>
+    <t xml:space="preserve">Heimgartner Stefanie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-04</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ungeklärte Eigentümerschaft von Leopard I Panzern?</t>
   </si>
   <si>
-    <t xml:space="preserve">Heimgartner Stefanie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-06-04</t>
-  </si>
-  <si>
     <t xml:space="preserve">Propriété non élucidée de chars Leopard I</t>
   </si>
   <si>
@@ -767,12 +746,12 @@
     <t xml:space="preserve">25.7419</t>
   </si>
   <si>
+    <t xml:space="preserve">Zuberbühler David</t>
+  </si>
+  <si>
     <t xml:space="preserve">Leopard-1-Verkauf durch RUAG MRO: Verwendung, Weiterverkauf und möglicher Ringtausch</t>
   </si>
   <si>
-    <t xml:space="preserve">Zuberbühler David</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vente de Leopard 1 par RUAG MRO. Utilisation, revente et éventuel échange circulaire</t>
   </si>
   <si>
@@ -785,15 +764,15 @@
     <t xml:space="preserve">25.3479</t>
   </si>
   <si>
+    <t xml:space="preserve">Storni Bruno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-07</t>
+  </si>
+  <si>
     <t xml:space="preserve">Der anachronistische und unangemessene Entscheid, die rollende Landstrasse zum Jahresende zu schliessen, überrascht uns</t>
   </si>
   <si>
-    <t xml:space="preserve">Storni Bruno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-05-07</t>
-  </si>
-  <si>
     <t xml:space="preserve">Surprise provoquée par la décision anachronique et inappropriée de fermer la chaussée roulante à la fin de l'année</t>
   </si>
   <si>
@@ -806,15 +785,15 @@
     <t xml:space="preserve">25.3444</t>
   </si>
   <si>
+    <t xml:space="preserve">Feller Olivier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-05</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sicherstellen, dass die Post das Quersubventionierungsverbot einhält</t>
   </si>
   <si>
-    <t xml:space="preserve">Feller Olivier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-05-05</t>
-  </si>
-  <si>
     <t xml:space="preserve">Garantir le respect par la Poste de l’interdiction des subventions croisées</t>
   </si>
   <si>
@@ -827,12 +806,12 @@
     <t xml:space="preserve">25.3425</t>
   </si>
   <si>
+    <t xml:space="preserve">2025-04-04</t>
+  </si>
+  <si>
     <t xml:space="preserve">Temporäre Ausgleichszahlungen im Zusammenhang mit dem Kantonswechsel der Gemeinde Moutier</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-04-04</t>
-  </si>
-  <si>
     <t xml:space="preserve">Paiements compensatoires temporaires dans le contexte du changement de canton de la commune de Moutier</t>
   </si>
   <si>
@@ -845,12 +824,12 @@
     <t xml:space="preserve">25.3309</t>
   </si>
   <si>
+    <t xml:space="preserve">2025-03-21</t>
+  </si>
+  <si>
     <t xml:space="preserve">Das Trauerspiel "Aufklärungsdrohne ADS 15" stoppen</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-03-21</t>
-  </si>
-  <si>
     <t xml:space="preserve">Drones de reconnaissance ADS 15. Un gâchis auquel il faut mettre fin</t>
   </si>
   <si>
@@ -863,12 +842,12 @@
     <t xml:space="preserve">25.3399</t>
   </si>
   <si>
+    <t xml:space="preserve">Schmezer Ueli</t>
+  </si>
+  <si>
     <t xml:space="preserve">CO2-Verordnung. Erleichterungsmassnahmen für die Autobranche? </t>
   </si>
   <si>
-    <t xml:space="preserve">Schmezer Ueli</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ordonnance sur le CO2. Des mesures d'allègement pour la branche automobile ? </t>
   </si>
   <si>
@@ -881,12 +860,12 @@
     <t xml:space="preserve">25.3404</t>
   </si>
   <si>
+    <t xml:space="preserve">Zybach Ursula</t>
+  </si>
+  <si>
     <t xml:space="preserve">Der Bundesrat soll gemeinsam Verantwortung für die Governance des VBS übernehmen</t>
   </si>
   <si>
-    <t xml:space="preserve">Zybach Ursula</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pour que le Conseil fédéral assume la gouvernance du DDPS</t>
   </si>
   <si>
@@ -899,12 +878,12 @@
     <t xml:space="preserve">25.3417</t>
   </si>
   <si>
+    <t xml:space="preserve">Burgherr Thomas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Abgestufte Anpassung der Bundesratsrente</t>
   </si>
   <si>
-    <t xml:space="preserve">Burgherr Thomas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Adaptation progressive des retraites des conseillers fédéraux</t>
   </si>
   <si>
@@ -920,15 +899,15 @@
     <t xml:space="preserve">A</t>
   </si>
   <si>
+    <t xml:space="preserve">Graf Maya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-03-20</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vernehmlassungsvorlage zum Entlastungspaket 27 und Änderung des Subventionsgesetzes. Auswirkungen und effektives Sparpotenzial</t>
   </si>
   <si>
-    <t xml:space="preserve">Graf Maya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-03-20</t>
-  </si>
-  <si>
     <t xml:space="preserve">Consultation concernant le programme d'allègement budgétaire 2027 et la modification de la loi sur les subventions. Conséquences et potentiel d'économies effectif</t>
   </si>
   <si>
@@ -941,12 +920,12 @@
     <t xml:space="preserve">25.3194</t>
   </si>
   <si>
+    <t xml:space="preserve">Z'graggen Heidi</t>
+  </si>
+  <si>
     <t xml:space="preserve">Klärung der Kompetenzverteilung im Bereich der inneren Sicherheit</t>
   </si>
   <si>
-    <t xml:space="preserve">Z'graggen Heidi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Clarifier la répartition des compétences en matière de sécurité intérieure</t>
   </si>
   <si>
@@ -959,12 +938,12 @@
     <t xml:space="preserve">25.3203</t>
   </si>
   <si>
+    <t xml:space="preserve">Blunschy Dominik</t>
+  </si>
+  <si>
     <t xml:space="preserve">Der AHV-Fonds darf nicht zum Selbstbedienungsladen der Bundesverwaltung verkommen</t>
   </si>
   <si>
-    <t xml:space="preserve">Blunschy Dominik</t>
-  </si>
-  <si>
     <t xml:space="preserve">Le fonds AVS ne doit pas devenir un libre-service de l'administration fédérale</t>
   </si>
   <si>
@@ -977,12 +956,12 @@
     <t xml:space="preserve">25.3213</t>
   </si>
   <si>
+    <t xml:space="preserve">Regazzi Fabio</t>
+  </si>
+  <si>
     <t xml:space="preserve">Handel und Konsum von Kokain und Crack in der Schweiz. Ein Phänomen, das zunehmend Sorge bereitet und das es zu bekämpfen gilt</t>
   </si>
   <si>
-    <t xml:space="preserve">Regazzi Fabio</t>
-  </si>
-  <si>
     <t xml:space="preserve">Trafic et consommation de cocaïne et de crack en Suisse. Un phénomène de plus en plus inquiétant qu'il faut combattre</t>
   </si>
   <si>
@@ -1010,12 +989,12 @@
     <t xml:space="preserve">25.3246</t>
   </si>
   <si>
+    <t xml:space="preserve">Aeschi Thomas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Einführung einer Obergrenze für die Anzahl Personal-Vollzeitäquivalente (FTE) beim Bund</t>
   </si>
   <si>
-    <t xml:space="preserve">Aeschi Thomas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Instauration d'un plafond pour le nombre d'employés en équivalents plein temps à la Confédération</t>
   </si>
   <si>
@@ -1028,15 +1007,15 @@
     <t xml:space="preserve">25.3093</t>
   </si>
   <si>
+    <t xml:space="preserve">Friedl Claudia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-03-13</t>
+  </si>
+  <si>
     <t xml:space="preserve">Emissionshandel. Fragwürdige Gratisemissionsrechte</t>
   </si>
   <si>
-    <t xml:space="preserve">Friedl Claudia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-03-13</t>
-  </si>
-  <si>
     <t xml:space="preserve">Échange de quotas d'émission. Les droits d'émission à titre gratuit soulèvent des questions</t>
   </si>
   <si>
@@ -1049,12 +1028,12 @@
     <t xml:space="preserve">25.7213</t>
   </si>
   <si>
+    <t xml:space="preserve">2025-03-11</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nimmt der Bundesrat die Finanzkontrolle ernst? </t>
   </si>
   <si>
-    <t xml:space="preserve">2025-03-11</t>
-  </si>
-  <si>
     <t xml:space="preserve">Le Conseil fédéral prend-il au sérieux le Contrôle fédéral des finances ? </t>
   </si>
   <si>
@@ -1067,15 +1046,15 @@
     <t xml:space="preserve">25.3054</t>
   </si>
   <si>
+    <t xml:space="preserve">Golay Roger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-03-05</t>
+  </si>
+  <si>
     <t xml:space="preserve">Das EJPD muss die Bundeskriminalpolizei unverzüglich verstärken, damit die Unterwanderung durch die Mafia und andere Straftaten bekämpft werden können</t>
   </si>
   <si>
-    <t xml:space="preserve">Golay Roger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-03-05</t>
-  </si>
-  <si>
     <t xml:space="preserve">Le DFJP doit renforcer sans tarder la Police judiciaire fédérale pour combattre l'infiltration par la mafia et d'autres crimes</t>
   </si>
   <si>
@@ -1118,12 +1097,12 @@
     <t xml:space="preserve">25.7138</t>
   </si>
   <si>
+    <t xml:space="preserve">Fridez Pierre-Alain</t>
+  </si>
+  <si>
     <t xml:space="preserve">Veruntreuung bei Ruag und Information des Bundesrates</t>
   </si>
   <si>
-    <t xml:space="preserve">Fridez Pierre-Alain</t>
-  </si>
-  <si>
     <t xml:space="preserve">Malversations chez Ruag et information du Conseil fédéral</t>
   </si>
   <si>
@@ -1136,15 +1115,15 @@
     <t xml:space="preserve">25.3031</t>
   </si>
   <si>
+    <t xml:space="preserve">Vontobel Erich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-03-03</t>
+  </si>
+  <si>
     <t xml:space="preserve">Transparenz und Zweckbindung bei der NGO-Finanzierung. Wo steht der Bund?</t>
   </si>
   <si>
-    <t xml:space="preserve">Vontobel Erich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-03-03</t>
-  </si>
-  <si>
     <t xml:space="preserve">Comment garantir que le financement des ONG par la Confédération soit transparent et ne soit pas détourné ?</t>
   </si>
   <si>
@@ -1157,12 +1136,12 @@
     <t xml:space="preserve">25.7012</t>
   </si>
   <si>
+    <t xml:space="preserve">Reimann Lukas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Whistleblowing Meldestelle Korruption für Private und für Bundesangestellte</t>
   </si>
   <si>
-    <t xml:space="preserve">Reimann Lukas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Corruption. Bureau de communication pour les lanceurs d’alerte ouvert aux particuliers et aux employés de la Confédération</t>
   </si>
   <si>
@@ -1175,12 +1154,12 @@
     <t xml:space="preserve">25.3008</t>
   </si>
   <si>
+    <t xml:space="preserve">2025-01-21</t>
+  </si>
+  <si>
     <t xml:space="preserve">Schweizer Depotbank für die Ausgleichfonds von AHV, IV und EO </t>
   </si>
   <si>
-    <t xml:space="preserve">2025-01-21</t>
-  </si>
-  <si>
     <t xml:space="preserve">Banque dépositaire pour les fonds de compensation AVS/AI/APG</t>
   </si>
   <si>
@@ -1193,15 +1172,15 @@
     <t xml:space="preserve">24.4404</t>
   </si>
   <si>
+    <t xml:space="preserve">Rechsteiner Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-18</t>
+  </si>
+  <si>
     <t xml:space="preserve">Von E-Health 2.0 zu Digisanté. Sind die Kantone adäquat ins Programm eingebunden?</t>
   </si>
   <si>
-    <t xml:space="preserve">Rechsteiner Thomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-12-18</t>
-  </si>
-  <si>
     <t xml:space="preserve">Suite de la Stratégie Cybersanté Suisse 2.0 et Digisanté. Les cantons sont-ils suffisamment associés au programme ?</t>
   </si>
   <si>
@@ -1229,15 +1208,15 @@
     <t xml:space="preserve">24.7975</t>
   </si>
   <si>
+    <t xml:space="preserve">Schnyder Markus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-11</t>
+  </si>
+  <si>
     <t xml:space="preserve">Politische Einflussnahme der Verwaltung. Ist das korrekt?</t>
   </si>
   <si>
-    <t xml:space="preserve">Schnyder Markus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-12-11</t>
-  </si>
-  <si>
     <t xml:space="preserve">Est-il acceptable que l’administration tente d’influencer les processus politiques ?</t>
   </si>
   <si>
@@ -1250,12 +1229,12 @@
     <t xml:space="preserve">24.8043</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaufmann Pius</t>
+  </si>
+  <si>
     <t xml:space="preserve">ETH-Top vs. ETH-Baumanagement-Flop </t>
   </si>
   <si>
-    <t xml:space="preserve">Kaufmann Pius</t>
-  </si>
-  <si>
     <t xml:space="preserve">EPFZ. Un top et un flop </t>
   </si>
   <si>
@@ -1268,15 +1247,15 @@
     <t xml:space="preserve">24.4290</t>
   </si>
   <si>
+    <t xml:space="preserve">Prelicz-Huber Katharina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-04</t>
+  </si>
+  <si>
     <t xml:space="preserve">Recht auf Grundschulung</t>
   </si>
   <si>
-    <t xml:space="preserve">Prelicz-Huber Katharina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-12-04</t>
-  </si>
-  <si>
     <t xml:space="preserve">Droit à un enseignement de base</t>
   </si>
   <si>
@@ -1289,15 +1268,15 @@
     <t xml:space="preserve">24.4278</t>
   </si>
   <si>
+    <t xml:space="preserve">Wyss Sarah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-02</t>
+  </si>
+  <si>
     <t xml:space="preserve">Steuervergünstigungen</t>
   </si>
   <si>
-    <t xml:space="preserve">Wyss Sarah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-12-02</t>
-  </si>
-  <si>
     <t xml:space="preserve">Allègements fiscaux</t>
   </si>
   <si>
@@ -1310,12 +1289,12 @@
     <t xml:space="preserve">24.4082</t>
   </si>
   <si>
+    <t xml:space="preserve">2024-09-26</t>
+  </si>
+  <si>
     <t xml:space="preserve">Verwaltung der Schweizer Vorsorgegelder</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-09-26</t>
-  </si>
-  <si>
     <t xml:space="preserve">Administration des fonds de prévoyance suisses</t>
   </si>
   <si>
@@ -1328,12 +1307,12 @@
     <t xml:space="preserve">24.4112</t>
   </si>
   <si>
+    <t xml:space="preserve">Glättli Balthasar</t>
+  </si>
+  <si>
     <t xml:space="preserve">Umfang und Wirkungseffizienz der Finanzhilfen in Form von steuerlichen Vergünstigungen</t>
   </si>
   <si>
-    <t xml:space="preserve">Glättli Balthasar</t>
-  </si>
-  <si>
     <t xml:space="preserve">Montant et efficacité des aides financières sous forme d'allègements fiscaux</t>
   </si>
   <si>
@@ -1391,12 +1370,12 @@
     <t xml:space="preserve">24.4137</t>
   </si>
   <si>
+    <t xml:space="preserve">Brenzikofer Florence</t>
+  </si>
+  <si>
     <t xml:space="preserve">PFAS. Handelt der Bund?</t>
   </si>
   <si>
-    <t xml:space="preserve">Brenzikofer Florence</t>
-  </si>
-  <si>
     <t xml:space="preserve">PFAS. La Confédération prend-elle des mesures?</t>
   </si>
   <si>
@@ -1409,15 +1388,15 @@
     <t xml:space="preserve">24.3937</t>
   </si>
   <si>
+    <t xml:space="preserve">Fässler Daniel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-23</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wegweisungsverfügungen sind rascher und konsequenter zu vollziehen</t>
   </si>
   <si>
-    <t xml:space="preserve">Fässler Daniel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-09-23</t>
-  </si>
-  <si>
     <t xml:space="preserve">Les décisions de renvoi doivent être exécutées plus rapidement et plus systématiquement</t>
   </si>
   <si>
@@ -1430,12 +1409,12 @@
     <t xml:space="preserve">24.3948</t>
   </si>
   <si>
+    <t xml:space="preserve">Zopfi Mathias</t>
+  </si>
+  <si>
     <t xml:space="preserve">Erneuerung der Antikorruptions-Strategie des Bundesrates</t>
   </si>
   <si>
-    <t xml:space="preserve">Zopfi Mathias</t>
-  </si>
-  <si>
     <t xml:space="preserve">Renouvellement de la stratégie anticorruption du Conseil fédéral</t>
   </si>
   <si>
@@ -1448,12 +1427,12 @@
     <t xml:space="preserve">24.7720</t>
   </si>
   <si>
+    <t xml:space="preserve">2024-09-18</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gute Governance und Beseitigung von Redundanzen bei den Aktivitäten des Bundes im Bereich AHV/IV/EO</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-09-18</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bonne gouvernance et suppression de doublons dans les activités de la Confédération en matière d’AVS/AI/APG</t>
   </si>
   <si>
@@ -1511,15 +1490,15 @@
     <t xml:space="preserve">24.3858</t>
   </si>
   <si>
+    <t xml:space="preserve">Pahud Yvan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-12</t>
+  </si>
+  <si>
     <t xml:space="preserve">AHV. Rechenfehler oder Staatsskandal?</t>
   </si>
   <si>
-    <t xml:space="preserve">Pahud Yvan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-09-12</t>
-  </si>
-  <si>
     <t xml:space="preserve">AVS. Erreur de calculs ou scandale d'Etat?</t>
   </si>
   <si>
@@ -1532,12 +1511,12 @@
     <t xml:space="preserve">24.3877</t>
   </si>
   <si>
+    <t xml:space="preserve">Matter Thomas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wechsel der Wertschriftenverwaltung vom Inland (UBS) ins Ausland (State Street) für die Ausgleichsfonds von AHV, IV und EO</t>
   </si>
   <si>
-    <t xml:space="preserve">Matter Thomas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Transfert de la Suisse (UBS) vers l'étranger (State Street) de la gestion des titres des fonds de compensation AVS/AI/APG</t>
   </si>
   <si>
@@ -1550,12 +1529,12 @@
     <t xml:space="preserve">24.7622</t>
   </si>
   <si>
+    <t xml:space="preserve">2024-09-11</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ressourcenüberprüfung Fedpol?</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-09-11</t>
-  </si>
-  <si>
     <t xml:space="preserve">Examen des ressources de Fedpol ?</t>
   </si>
   <si>
@@ -1568,12 +1547,12 @@
     <t xml:space="preserve">24.7649</t>
   </si>
   <si>
+    <t xml:space="preserve">Theiler Heinz</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kickbacks an Gewerkschaften</t>
   </si>
   <si>
-    <t xml:space="preserve">Theiler Heinz</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rétrocessions en faveur des syndicats</t>
   </si>
   <si>
@@ -1586,15 +1565,15 @@
     <t xml:space="preserve">24.3709</t>
   </si>
   <si>
+    <t xml:space="preserve">Candan Hasan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-14</t>
+  </si>
+  <si>
     <t xml:space="preserve">Welche Schlüsse zieht der Bundesrat aus dem Synthesebericht der Eidgenössischen Finanzkontrolle zur Subventionsüberprüfung?</t>
   </si>
   <si>
-    <t xml:space="preserve">Candan Hasan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-06-14</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rapport de synthèse du Contrôle fédéral des finances sur l'examen des subventions. Quelles conclusions le Conseil fédéral en tire-t-il?</t>
   </si>
   <si>
@@ -1607,12 +1586,12 @@
     <t xml:space="preserve">24.3773</t>
   </si>
   <si>
+    <t xml:space="preserve">Bertschy Kathrin</t>
+  </si>
+  <si>
     <t xml:space="preserve">Investitionskredite Landwirtschaft. In Rentabilität und Einkommensverbesserung statt in die Verschuldung "investieren"</t>
   </si>
   <si>
-    <t xml:space="preserve">Bertschy Kathrin</t>
-  </si>
-  <si>
     <t xml:space="preserve">Crédits d'investissement agricoles. Bien investir, pour la rentabilité et l'amélioration des revenus plutôt que l'endettement</t>
   </si>
   <si>
@@ -1640,22 +1619,19 @@
     <t xml:space="preserve">24.3609</t>
   </si>
   <si>
+    <t xml:space="preserve">Egger Mike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-13</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Verbesserung der Zusammenarbeit seitens der Kantone bei der Ausschaffung von abgewiesenen Asylbewerbern</t>
   </si>
   <si>
-    <t xml:space="preserve">Egger Mike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beratung in Kommission des Ständerates abgeschlossen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-06-13</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Améliorer la coopération de la part des cantons en matière de renvoi de requérants d'asile déboutés</t>
   </si>
   <si>
-    <t xml:space="preserve">Fin des discussions en commission du Conseil des Etats</t>
+    <t xml:space="preserve">Beratung in Kommission des Ständerates abgeschlossen / Fin des discussions en commission du Conseil des Etats</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243609</t>
@@ -1667,12 +1643,12 @@
     <t xml:space="preserve">24.3574</t>
   </si>
   <si>
+    <t xml:space="preserve">2024-06-12</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mehr Kostenrealität im KVG. Verlässliche Daten für faire Tarife</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-06-12</t>
-  </si>
-  <si>
     <t xml:space="preserve">LAMal. Mieux refléter les coûts réels en fixant des tarifs équitables sur la base de données fiables</t>
   </si>
   <si>
@@ -1685,15 +1661,15 @@
     <t xml:space="preserve">24.3557</t>
   </si>
   <si>
+    <t xml:space="preserve">Lohr Christian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-11</t>
+  </si>
+  <si>
     <t xml:space="preserve">Unnötige Leistungen im Gesundheitswesen vermeiden</t>
   </si>
   <si>
-    <t xml:space="preserve">Lohr Christian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-06-11</t>
-  </si>
-  <si>
     <t xml:space="preserve">Système de santé. Eviter les prestations inutiles</t>
   </si>
   <si>
@@ -1706,12 +1682,12 @@
     <t xml:space="preserve">24.3471</t>
   </si>
   <si>
+    <t xml:space="preserve">2024-05-02</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kostentransparenz in der zweiten Säule</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-05-02</t>
-  </si>
-  <si>
     <t xml:space="preserve">Transparence des coûts dans le deuxième pilier</t>
   </si>
   <si>
@@ -1724,12 +1700,12 @@
     <t xml:space="preserve">24.3468</t>
   </si>
   <si>
+    <t xml:space="preserve">2024-04-30</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stand der Umsetzung des Seilbahngesetzes</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-04-30</t>
-  </si>
-  <si>
     <t xml:space="preserve">Etat des lieux de la mise en oeuvre de la loi sur les installations à câbles</t>
   </si>
   <si>
@@ -1742,12 +1718,12 @@
     <t xml:space="preserve">24.3467</t>
   </si>
   <si>
+    <t xml:space="preserve">2024-04-25</t>
+  </si>
+  <si>
     <t xml:space="preserve">Schaffung eines Bundesgesetzes über einen ausserordentlichen Beitrag für die Sicherheit der Schweiz und den Frieden in Europa angesichts des Krieges gegen die Ukraine</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-04-25</t>
-  </si>
-  <si>
     <t xml:space="preserve">Création d'une loi fédérale concernant une contribution extraordinaire pour la sécurité de la Suisse et la paix en Europe dans le contexte de la guerre menée contre l'Ukraine</t>
   </si>
   <si>
@@ -1760,15 +1736,15 @@
     <t xml:space="preserve">24.3318</t>
   </si>
   <si>
+    <t xml:space="preserve">Gredig Corina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-15</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sparpotenzial bei biodiversitätsschädigenden Subventionen</t>
   </si>
   <si>
-    <t xml:space="preserve">Gredig Corina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-03-15</t>
-  </si>
-  <si>
     <t xml:space="preserve">Subventions nuisibles à la biodiversité. Un possible gisement d'économies?</t>
   </si>
   <si>
@@ -1781,12 +1757,12 @@
     <t xml:space="preserve">24.3234</t>
   </si>
   <si>
+    <t xml:space="preserve">2024-03-14</t>
+  </si>
+  <si>
     <t xml:space="preserve">Renten und Privilegien der Bundesräte reduzieren</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-03-14</t>
-  </si>
-  <si>
     <t xml:space="preserve">Réduire les rentes et les privilèges des conseillers fédéraux</t>
   </si>
   <si>
@@ -1799,12 +1775,12 @@
     <t xml:space="preserve">24.3259</t>
   </si>
   <si>
+    <t xml:space="preserve">Schläfli Nina</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wie setzt sich die Schweiz für eine menschenrechtskonforme Verwendung der BMVI-Gelder ein?</t>
   </si>
   <si>
-    <t xml:space="preserve">Schläfli Nina</t>
-  </si>
-  <si>
     <t xml:space="preserve">De quelle manière la Suisse s'engage-t-elle en faveur d'une utilisation du fonds BMVI qui soit conforme aux droits de l'homme?</t>
   </si>
   <si>
@@ -1817,15 +1793,15 @@
     <t xml:space="preserve">24.3169</t>
   </si>
   <si>
+    <t xml:space="preserve">Knutti Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-13</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ruhegehalt von alt Bundesräten für die 13. AHV-Rente einsetzen</t>
   </si>
   <si>
-    <t xml:space="preserve">Knutti Thomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-03-13</t>
-  </si>
-  <si>
     <t xml:space="preserve">Utiliser la retraite des anciens conseillers fédéraux pour financer la 13e rente AVS</t>
   </si>
   <si>
@@ -1838,12 +1814,12 @@
     <t xml:space="preserve">24.3077</t>
   </si>
   <si>
+    <t xml:space="preserve">2024-03-04</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dringende Wiederherstellung der Verteidigungsfähigkeit der Schweizer Armee</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-03-04</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rétablir d'urgence la capacité de défense de notre armée</t>
   </si>
   <si>
@@ -1856,15 +1832,15 @@
     <t xml:space="preserve">24.7112</t>
   </si>
   <si>
+    <t xml:space="preserve">Michaud Gigon Sophie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-28</t>
+  </si>
+  <si>
     <t xml:space="preserve">Die Berichte der Eidgenössischen Finanzkontrolle (EFK) und der Geschäftsprüfungskommission des Ständerats (GPK-S) zur Kostenwahrheit im Bericht über die Postulate Giacometti Schneider berücksichtigen</t>
   </si>
   <si>
-    <t xml:space="preserve">Michaud Gigon Sophie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-02-28</t>
-  </si>
-  <si>
     <t xml:space="preserve">Prendre en compte les rapports du CDF et de la CdG-E sur la vérité des coûts dans le rapport sur les po Giacometti/Schneider.</t>
   </si>
   <si>
@@ -1877,12 +1853,12 @@
     <t xml:space="preserve">24.7015</t>
   </si>
   <si>
+    <t xml:space="preserve">2024-02-26</t>
+  </si>
+  <si>
     <t xml:space="preserve">Unterstellung von Organisationen ausserhalb der Bundesverwaltung unter die Aufsicht durch die Eidgenössische Finanzkontrolle. Wann wird der Bundesrat seinen Bericht veröffentlichen? </t>
   </si>
   <si>
-    <t xml:space="preserve">2024-02-26</t>
-  </si>
-  <si>
     <t xml:space="preserve">Assujettissement des organisations externes à l’administration au Contrôle fédéral des finances. Quand le Conseil fédéral publiera-t-il son rapport ? </t>
   </si>
   <si>
@@ -1895,12 +1871,12 @@
     <t xml:space="preserve">23.4494</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-12-22</t>
+  </si>
+  <si>
     <t xml:space="preserve">Biodiversitätsschädigende Wirkungen der Neuen Regionalpolitik. Wie plant das zuständige Bundesamt vorzugehen?</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-12-22</t>
-  </si>
-  <si>
     <t xml:space="preserve">Effet néfaste de la nouvelle politique régionale sur la biodiversité. Comment l'office fédéral compétent procède-t-il?</t>
   </si>
   <si>
@@ -1913,12 +1889,12 @@
     <t xml:space="preserve">23.4461</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-12-21</t>
+  </si>
+  <si>
     <t xml:space="preserve">Unterschiedliche Auffassungen und Zielsetzungen zwischen dem Nationale Zentrum für Cybersicherheit und dem Nachrichtendienst des Bundes</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-12-21</t>
-  </si>
-  <si>
     <t xml:space="preserve">NCSC et SRC. Des conceptions et des objectifs divergents</t>
   </si>
   <si>
@@ -1931,15 +1907,15 @@
     <t xml:space="preserve">23.4375</t>
   </si>
   <si>
+    <t xml:space="preserve">Haab Martin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-14</t>
+  </si>
+  <si>
     <t xml:space="preserve">Liefer- und Versorgungsengpässe im Tierarzneimittelbereich. Wie weiter im Schweizer Markt?</t>
   </si>
   <si>
-    <t xml:space="preserve">Haab Martin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-14</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ruptures de livraison et d'approvisionnement affectant les médicaments vétérinaires. Quid du marché suisse?</t>
   </si>
   <si>
@@ -1952,15 +1928,15 @@
     <t xml:space="preserve">23.4353</t>
   </si>
   <si>
+    <t xml:space="preserve">Grüter Franz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-05</t>
+  </si>
+  <si>
     <t xml:space="preserve">Doppelt so hohe Gebühren für gemeinnützige Stiftungen</t>
   </si>
   <si>
-    <t xml:space="preserve">Grüter Franz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-05</t>
-  </si>
-  <si>
     <t xml:space="preserve">Surveillance des fondations d’utilité publique. Multiplication par deux des émoluments perçus</t>
   </si>
   <si>
@@ -1973,10 +1949,10 @@
     <t xml:space="preserve">23.4346</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-11-20</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fonds für Demokratie und Rechtsstaatlichkeit im Gedenken an 1848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-11-20</t>
   </si>
   <si>
     <t xml:space="preserve">Fonds pour la démocratie et l'état de droit en commémoration de 1848</t>
@@ -2033,22 +2009,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:M101" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:M101"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:L101" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:L101"/>
+  <tableColumns count="12">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Numéro"/>
     <tableColumn id="3" name="Type"/>
-    <tableColumn id="4" name="Titre_DE"/>
-    <tableColumn id="5" name="Auteur"/>
-    <tableColumn id="6" name="Statut_DE"/>
-    <tableColumn id="7" name="Date_dépôt"/>
-    <tableColumn id="8" name="Conseil"/>
-    <tableColumn id="9" name="Titre_FR"/>
-    <tableColumn id="10" name="Statut_FR"/>
-    <tableColumn id="11" name="Langue_détection"/>
-    <tableColumn id="12" name="Lien_DE"/>
-    <tableColumn id="13" name="Lien_FR"/>
+    <tableColumn id="4" name="Auteur"/>
+    <tableColumn id="5" name="Date_dépôt"/>
+    <tableColumn id="6" name="Conseil"/>
+    <tableColumn id="7" name="Titre_DE"/>
+    <tableColumn id="8" name="Titre_FR"/>
+    <tableColumn id="9" name="Statut"/>
+    <tableColumn id="10" name="Lien_DE"/>
+    <tableColumn id="11" name="Lien_FR"/>
+    <tableColumn id="12" name="Mention"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2376,49 +2351,43 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>20254785</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
       <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -2426,40 +2395,37 @@
         <v>20254620</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
         <v>29</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>30</v>
       </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>22</v>
-      </c>
-      <c r="L3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -2467,40 +2433,37 @@
         <v>20254696</v>
       </c>
       <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" t="s">
+      <c r="H4" t="s">
         <v>35</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
         <v>36</v>
       </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>37</v>
       </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>22</v>
-      </c>
-      <c r="L4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5">
@@ -2508,40 +2471,37 @@
         <v>20258194</v>
       </c>
       <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>41</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
         <v>42</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>43</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>44</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>45</v>
       </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>46</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>47</v>
-      </c>
-      <c r="K5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -2549,40 +2509,37 @@
         <v>20258273</v>
       </c>
       <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
         <v>51</v>
       </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" t="s">
         <v>52</v>
       </c>
-      <c r="E6" t="s">
+      <c r="K6" t="s">
         <v>53</v>
       </c>
-      <c r="F6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>54</v>
-      </c>
-      <c r="J6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" t="s">
-        <v>55</v>
-      </c>
-      <c r="M6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="7">
@@ -2590,40 +2547,37 @@
         <v>20254463</v>
       </c>
       <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
         <v>57</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
         <v>58</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
         <v>59</v>
       </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s">
         <v>60</v>
       </c>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>61</v>
       </c>
-      <c r="J7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>22</v>
-      </c>
-      <c r="L7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -2631,40 +2585,37 @@
         <v>20254281</v>
       </c>
       <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
         <v>64</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>65</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
         <v>66</v>
       </c>
-      <c r="E8" t="s">
+      <c r="H8" t="s">
         <v>67</v>
       </c>
-      <c r="F8" t="s">
+      <c r="I8" t="s">
         <v>68</v>
       </c>
-      <c r="G8" t="s">
+      <c r="J8" t="s">
         <v>69</v>
       </c>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>70</v>
       </c>
-      <c r="J8" t="s">
-        <v>71</v>
-      </c>
-      <c r="K8" t="s">
-        <v>22</v>
-      </c>
       <c r="L8" t="s">
-        <v>72</v>
-      </c>
-      <c r="M8" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
@@ -2672,40 +2623,37 @@
         <v>20254317</v>
       </c>
       <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" t="s">
         <v>74</v>
       </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="I9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" t="s">
         <v>75</v>
       </c>
-      <c r="E9" t="s">
+      <c r="K9" t="s">
         <v>76</v>
       </c>
-      <c r="F9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" t="s">
-        <v>77</v>
-      </c>
-      <c r="J9" t="s">
-        <v>71</v>
-      </c>
-      <c r="K9" t="s">
-        <v>22</v>
-      </c>
       <c r="L9" t="s">
-        <v>78</v>
-      </c>
-      <c r="M9" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
@@ -2713,40 +2661,37 @@
         <v>20254145</v>
       </c>
       <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
         <v>80</v>
       </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="H10" t="s">
         <v>81</v>
       </c>
-      <c r="E10" t="s">
+      <c r="I10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" t="s">
         <v>82</v>
       </c>
-      <c r="F10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="K10" t="s">
         <v>83</v>
       </c>
-      <c r="H10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" t="s">
-        <v>84</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>47</v>
-      </c>
-      <c r="K10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" t="s">
-        <v>85</v>
-      </c>
-      <c r="M10" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="11">
@@ -2754,40 +2699,37 @@
         <v>20254188</v>
       </c>
       <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" t="s">
         <v>87</v>
       </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="I11" t="s">
         <v>88</v>
       </c>
-      <c r="E11" t="s">
+      <c r="J11" t="s">
         <v>89</v>
       </c>
-      <c r="F11" t="s">
+      <c r="K11" t="s">
         <v>90</v>
       </c>
-      <c r="G11" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" t="s">
-        <v>91</v>
-      </c>
-      <c r="J11" t="s">
-        <v>92</v>
-      </c>
-      <c r="K11" t="s">
-        <v>22</v>
-      </c>
       <c r="L11" t="s">
-        <v>93</v>
-      </c>
-      <c r="M11" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
@@ -2795,40 +2737,37 @@
         <v>20254225</v>
       </c>
       <c r="B12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" t="s">
         <v>95</v>
       </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="K12" t="s">
         <v>96</v>
       </c>
-      <c r="E12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" t="s">
-        <v>98</v>
-      </c>
-      <c r="J12" t="s">
-        <v>71</v>
-      </c>
-      <c r="K12" t="s">
-        <v>22</v>
-      </c>
       <c r="L12" t="s">
-        <v>99</v>
-      </c>
-      <c r="M12" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13">
@@ -2836,40 +2775,37 @@
         <v>20254234</v>
       </c>
       <c r="B13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" t="s">
         <v>101</v>
       </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="K13" t="s">
         <v>102</v>
       </c>
-      <c r="E13" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" t="s">
-        <v>104</v>
-      </c>
-      <c r="J13" t="s">
-        <v>47</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>22</v>
-      </c>
-      <c r="L13" t="s">
-        <v>105</v>
-      </c>
-      <c r="M13" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="14">
@@ -2877,40 +2813,37 @@
         <v>20254071</v>
       </c>
       <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" t="s">
         <v>107</v>
       </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="I14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" t="s">
         <v>108</v>
       </c>
-      <c r="E14" t="s">
+      <c r="K14" t="s">
         <v>109</v>
       </c>
-      <c r="F14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" t="s">
-        <v>110</v>
-      </c>
-      <c r="H14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" t="s">
-        <v>111</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>47</v>
-      </c>
-      <c r="K14" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" t="s">
-        <v>112</v>
-      </c>
-      <c r="M14" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="15">
@@ -2918,40 +2851,37 @@
         <v>20254024</v>
       </c>
       <c r="B15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15" t="s">
         <v>114</v>
       </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="I15" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" t="s">
         <v>115</v>
       </c>
-      <c r="E15" t="s">
+      <c r="K15" t="s">
         <v>116</v>
       </c>
-      <c r="F15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" t="s">
-        <v>117</v>
-      </c>
-      <c r="H15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" t="s">
-        <v>118</v>
-      </c>
-      <c r="J15" t="s">
-        <v>71</v>
-      </c>
-      <c r="K15" t="s">
-        <v>22</v>
-      </c>
       <c r="L15" t="s">
-        <v>119</v>
-      </c>
-      <c r="M15" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
@@ -2959,40 +2889,37 @@
         <v>20257863</v>
       </c>
       <c r="B16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H16" t="s">
+        <v>120</v>
+      </c>
+      <c r="I16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" t="s">
         <v>121</v>
       </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="K16" t="s">
         <v>122</v>
       </c>
-      <c r="E16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" t="s">
-        <v>117</v>
-      </c>
-      <c r="H16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" t="s">
-        <v>124</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>47</v>
-      </c>
-      <c r="K16" t="s">
-        <v>125</v>
-      </c>
-      <c r="L16" t="s">
-        <v>126</v>
-      </c>
-      <c r="M16" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="17">
@@ -3000,40 +2927,37 @@
         <v>20257888</v>
       </c>
       <c r="B17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" t="s">
+        <v>127</v>
+      </c>
+      <c r="K17" t="s">
         <v>128</v>
       </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E17" t="s">
-        <v>130</v>
-      </c>
-      <c r="F17" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" t="s">
-        <v>117</v>
-      </c>
-      <c r="H17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" t="s">
-        <v>131</v>
-      </c>
-      <c r="J17" t="s">
-        <v>47</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>22</v>
-      </c>
-      <c r="L17" t="s">
-        <v>132</v>
-      </c>
-      <c r="M17" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="18">
@@ -3041,40 +2965,37 @@
         <v>20257890</v>
       </c>
       <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>131</v>
+      </c>
+      <c r="H18" t="s">
+        <v>132</v>
+      </c>
+      <c r="I18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" t="s">
+        <v>133</v>
+      </c>
+      <c r="K18" t="s">
         <v>134</v>
       </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E18" t="s">
-        <v>136</v>
-      </c>
-      <c r="F18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" t="s">
-        <v>117</v>
-      </c>
-      <c r="H18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" t="s">
-        <v>137</v>
-      </c>
-      <c r="J18" t="s">
-        <v>47</v>
-      </c>
-      <c r="K18" t="s">
-        <v>22</v>
-      </c>
       <c r="L18" t="s">
-        <v>138</v>
-      </c>
-      <c r="M18" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19">
@@ -3082,40 +3003,37 @@
         <v>20254003</v>
       </c>
       <c r="B19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>138</v>
+      </c>
+      <c r="H19" t="s">
+        <v>139</v>
+      </c>
+      <c r="I19" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" t="s">
         <v>140</v>
       </c>
-      <c r="C19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="K19" t="s">
         <v>141</v>
       </c>
-      <c r="E19" t="s">
-        <v>142</v>
-      </c>
-      <c r="F19" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" t="s">
-        <v>143</v>
-      </c>
-      <c r="H19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" t="s">
-        <v>144</v>
-      </c>
-      <c r="J19" t="s">
-        <v>71</v>
-      </c>
-      <c r="K19" t="s">
-        <v>22</v>
-      </c>
       <c r="L19" t="s">
-        <v>145</v>
-      </c>
-      <c r="M19" t="s">
-        <v>146</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20">
@@ -3123,40 +3041,37 @@
         <v>20253984</v>
       </c>
       <c r="B20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" t="s">
+        <v>145</v>
+      </c>
+      <c r="J20" t="s">
+        <v>146</v>
+      </c>
+      <c r="K20" t="s">
         <v>147</v>
       </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" t="s">
-        <v>148</v>
-      </c>
-      <c r="F20" t="s">
-        <v>149</v>
-      </c>
-      <c r="G20" t="s">
-        <v>150</v>
-      </c>
-      <c r="H20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" t="s">
-        <v>84</v>
-      </c>
-      <c r="J20" t="s">
-        <v>151</v>
-      </c>
-      <c r="K20" t="s">
-        <v>22</v>
-      </c>
       <c r="L20" t="s">
-        <v>152</v>
-      </c>
-      <c r="M20" t="s">
-        <v>153</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21">
@@ -3164,40 +3079,37 @@
         <v>20257663</v>
       </c>
       <c r="B21" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>149</v>
+      </c>
+      <c r="H21" t="s">
+        <v>150</v>
+      </c>
+      <c r="I21" t="s">
         <v>44</v>
       </c>
-      <c r="G21" t="s">
-        <v>150</v>
-      </c>
-      <c r="H21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" t="s">
-        <v>156</v>
-      </c>
       <c r="J21" t="s">
+        <v>151</v>
+      </c>
+      <c r="K21" t="s">
+        <v>152</v>
+      </c>
+      <c r="L21" t="s">
         <v>47</v>
-      </c>
-      <c r="K21" t="s">
-        <v>125</v>
-      </c>
-      <c r="L21" t="s">
-        <v>157</v>
-      </c>
-      <c r="M21" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="22">
@@ -3205,40 +3117,37 @@
         <v>20257698</v>
       </c>
       <c r="B22" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E22" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>155</v>
+      </c>
+      <c r="H22" t="s">
+        <v>156</v>
+      </c>
+      <c r="I22" t="s">
         <v>44</v>
       </c>
-      <c r="G22" t="s">
-        <v>150</v>
-      </c>
-      <c r="H22" t="s">
-        <v>19</v>
-      </c>
-      <c r="I22" t="s">
-        <v>162</v>
-      </c>
       <c r="J22" t="s">
+        <v>157</v>
+      </c>
+      <c r="K22" t="s">
+        <v>158</v>
+      </c>
+      <c r="L22" t="s">
         <v>47</v>
-      </c>
-      <c r="K22" t="s">
-        <v>125</v>
-      </c>
-      <c r="L22" t="s">
-        <v>163</v>
-      </c>
-      <c r="M22" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="23">
@@ -3246,40 +3155,37 @@
         <v>20253971</v>
       </c>
       <c r="B23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>160</v>
+      </c>
+      <c r="E23" t="s">
+        <v>161</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s">
+        <v>162</v>
+      </c>
+      <c r="H23" t="s">
+        <v>163</v>
+      </c>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" t="s">
+        <v>164</v>
+      </c>
+      <c r="K23" t="s">
         <v>165</v>
       </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>166</v>
-      </c>
-      <c r="E23" t="s">
-        <v>167</v>
-      </c>
-      <c r="F23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" t="s">
-        <v>168</v>
-      </c>
-      <c r="H23" t="s">
-        <v>29</v>
-      </c>
-      <c r="I23" t="s">
-        <v>169</v>
-      </c>
-      <c r="J23" t="s">
-        <v>47</v>
-      </c>
-      <c r="K23" t="s">
-        <v>22</v>
-      </c>
       <c r="L23" t="s">
-        <v>170</v>
-      </c>
-      <c r="M23" t="s">
-        <v>171</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24">
@@ -3287,40 +3193,37 @@
         <v>20257601</v>
       </c>
       <c r="B24" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="E24" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="F24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>168</v>
+      </c>
+      <c r="H24" t="s">
+        <v>169</v>
+      </c>
+      <c r="I24" t="s">
         <v>44</v>
       </c>
-      <c r="G24" t="s">
-        <v>174</v>
-      </c>
-      <c r="H24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" t="s">
-        <v>175</v>
-      </c>
       <c r="J24" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
       <c r="K24" t="s">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="L24" t="s">
-        <v>176</v>
-      </c>
-      <c r="M24" t="s">
-        <v>177</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25">
@@ -3328,40 +3231,37 @@
         <v>20253941</v>
       </c>
       <c r="B25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>173</v>
+      </c>
+      <c r="E25" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>175</v>
+      </c>
+      <c r="H25" t="s">
+        <v>176</v>
+      </c>
+      <c r="I25" t="s">
+        <v>177</v>
+      </c>
+      <c r="J25" t="s">
         <v>178</v>
       </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="K25" t="s">
         <v>179</v>
       </c>
-      <c r="E25" t="s">
-        <v>180</v>
-      </c>
-      <c r="F25" t="s">
-        <v>181</v>
-      </c>
-      <c r="G25" t="s">
-        <v>182</v>
-      </c>
-      <c r="H25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" t="s">
-        <v>183</v>
-      </c>
-      <c r="J25" t="s">
-        <v>184</v>
-      </c>
-      <c r="K25" t="s">
-        <v>22</v>
-      </c>
       <c r="L25" t="s">
-        <v>185</v>
-      </c>
-      <c r="M25" t="s">
-        <v>186</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26">
@@ -3369,40 +3269,37 @@
         <v>20253835</v>
       </c>
       <c r="B26" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E26" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F26" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="G26" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="H26" t="s">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="I26" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="J26" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="K26" t="s">
-        <v>22</v>
+        <v>186</v>
       </c>
       <c r="L26" t="s">
-        <v>192</v>
-      </c>
-      <c r="M26" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27">
@@ -3410,40 +3307,37 @@
         <v>20253845</v>
       </c>
       <c r="B27" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="E27" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="F27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>189</v>
+      </c>
+      <c r="H27" t="s">
+        <v>190</v>
+      </c>
+      <c r="I27" t="s">
         <v>68</v>
       </c>
-      <c r="G27" t="s">
-        <v>190</v>
-      </c>
-      <c r="H27" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" t="s">
-        <v>196</v>
-      </c>
       <c r="J27" t="s">
-        <v>71</v>
+        <v>191</v>
       </c>
       <c r="K27" t="s">
-        <v>22</v>
+        <v>192</v>
       </c>
       <c r="L27" t="s">
-        <v>197</v>
-      </c>
-      <c r="M27" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28">
@@ -3451,40 +3345,37 @@
         <v>20253855</v>
       </c>
       <c r="B28" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E28" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="F28" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="G28" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="H28" t="s">
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="I28" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="J28" t="s">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="K28" t="s">
-        <v>22</v>
+        <v>196</v>
       </c>
       <c r="L28" t="s">
-        <v>201</v>
-      </c>
-      <c r="M28" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29">
@@ -3492,40 +3383,37 @@
         <v>20253880</v>
       </c>
       <c r="B29" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E29" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="F29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>199</v>
+      </c>
+      <c r="H29" t="s">
+        <v>200</v>
+      </c>
+      <c r="I29" t="s">
         <v>68</v>
       </c>
-      <c r="G29" t="s">
-        <v>190</v>
-      </c>
-      <c r="H29" t="s">
-        <v>19</v>
-      </c>
-      <c r="I29" t="s">
-        <v>206</v>
-      </c>
       <c r="J29" t="s">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="K29" t="s">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="L29" t="s">
-        <v>207</v>
-      </c>
-      <c r="M29" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30">
@@ -3533,40 +3421,37 @@
         <v>20253892</v>
       </c>
       <c r="B30" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E30" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="F30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>205</v>
+      </c>
+      <c r="H30" t="s">
+        <v>206</v>
+      </c>
+      <c r="I30" t="s">
         <v>68</v>
       </c>
-      <c r="G30" t="s">
-        <v>190</v>
-      </c>
-      <c r="H30" t="s">
-        <v>19</v>
-      </c>
-      <c r="I30" t="s">
-        <v>212</v>
-      </c>
       <c r="J30" t="s">
-        <v>71</v>
+        <v>207</v>
       </c>
       <c r="K30" t="s">
-        <v>48</v>
+        <v>208</v>
       </c>
       <c r="L30" t="s">
-        <v>213</v>
-      </c>
-      <c r="M30" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31">
@@ -3574,40 +3459,37 @@
         <v>20253893</v>
       </c>
       <c r="B31" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D31" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E31" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="F31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>211</v>
+      </c>
+      <c r="H31" t="s">
+        <v>212</v>
+      </c>
+      <c r="I31" t="s">
         <v>68</v>
       </c>
-      <c r="G31" t="s">
-        <v>190</v>
-      </c>
-      <c r="H31" t="s">
-        <v>19</v>
-      </c>
-      <c r="I31" t="s">
-        <v>218</v>
-      </c>
       <c r="J31" t="s">
-        <v>71</v>
+        <v>213</v>
       </c>
       <c r="K31" t="s">
-        <v>22</v>
+        <v>214</v>
       </c>
       <c r="L31" t="s">
-        <v>219</v>
-      </c>
-      <c r="M31" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32">
@@ -3615,40 +3497,37 @@
         <v>20253730</v>
       </c>
       <c r="B32" t="s">
+        <v>215</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>216</v>
+      </c>
+      <c r="E32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>218</v>
+      </c>
+      <c r="H32" t="s">
+        <v>219</v>
+      </c>
+      <c r="I32" t="s">
+        <v>68</v>
+      </c>
+      <c r="J32" t="s">
+        <v>220</v>
+      </c>
+      <c r="K32" t="s">
         <v>221</v>
       </c>
-      <c r="C32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" t="s">
-        <v>222</v>
-      </c>
-      <c r="E32" t="s">
-        <v>223</v>
-      </c>
-      <c r="F32" t="s">
-        <v>68</v>
-      </c>
-      <c r="G32" t="s">
-        <v>224</v>
-      </c>
-      <c r="H32" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32" t="s">
-        <v>225</v>
-      </c>
-      <c r="J32" t="s">
-        <v>71</v>
-      </c>
-      <c r="K32" t="s">
-        <v>22</v>
-      </c>
       <c r="L32" t="s">
-        <v>226</v>
-      </c>
-      <c r="M32" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33">
@@ -3656,40 +3535,37 @@
         <v>20253630</v>
       </c>
       <c r="B33" t="s">
+        <v>222</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>223</v>
+      </c>
+      <c r="E33" t="s">
+        <v>224</v>
+      </c>
+      <c r="F33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" t="s">
+        <v>225</v>
+      </c>
+      <c r="H33" t="s">
+        <v>226</v>
+      </c>
+      <c r="I33" t="s">
+        <v>44</v>
+      </c>
+      <c r="J33" t="s">
+        <v>227</v>
+      </c>
+      <c r="K33" t="s">
         <v>228</v>
       </c>
-      <c r="C33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" t="s">
-        <v>229</v>
-      </c>
-      <c r="E33" t="s">
-        <v>230</v>
-      </c>
-      <c r="F33" t="s">
-        <v>44</v>
-      </c>
-      <c r="G33" t="s">
-        <v>231</v>
-      </c>
-      <c r="H33" t="s">
-        <v>29</v>
-      </c>
-      <c r="I33" t="s">
-        <v>232</v>
-      </c>
-      <c r="J33" t="s">
-        <v>47</v>
-      </c>
-      <c r="K33" t="s">
-        <v>22</v>
-      </c>
       <c r="L33" t="s">
-        <v>233</v>
-      </c>
-      <c r="M33" t="s">
-        <v>234</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34">
@@ -3697,40 +3573,37 @@
         <v>20253637</v>
       </c>
       <c r="B34" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E34" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="F34" t="s">
-        <v>238</v>
+        <v>26</v>
       </c>
       <c r="G34" t="s">
         <v>231</v>
       </c>
       <c r="H34" t="s">
-        <v>29</v>
+        <v>232</v>
       </c>
       <c r="I34" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="J34" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="K34" t="s">
-        <v>22</v>
+        <v>235</v>
       </c>
       <c r="L34" t="s">
-        <v>241</v>
-      </c>
-      <c r="M34" t="s">
-        <v>242</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35">
@@ -3738,40 +3611,37 @@
         <v>20257355</v>
       </c>
       <c r="B35" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D35" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E35" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>239</v>
+      </c>
+      <c r="H35" t="s">
+        <v>240</v>
+      </c>
+      <c r="I35" t="s">
         <v>44</v>
       </c>
-      <c r="G35" t="s">
-        <v>246</v>
-      </c>
-      <c r="H35" t="s">
-        <v>19</v>
-      </c>
-      <c r="I35" t="s">
-        <v>247</v>
-      </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>241</v>
       </c>
       <c r="K35" t="s">
-        <v>125</v>
+        <v>242</v>
       </c>
       <c r="L35" t="s">
-        <v>248</v>
-      </c>
-      <c r="M35" t="s">
-        <v>249</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36">
@@ -3779,40 +3649,37 @@
         <v>20257419</v>
       </c>
       <c r="B36" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D36" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E36" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="F36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>245</v>
+      </c>
+      <c r="H36" t="s">
+        <v>246</v>
+      </c>
+      <c r="I36" t="s">
         <v>44</v>
       </c>
-      <c r="G36" t="s">
-        <v>246</v>
-      </c>
-      <c r="H36" t="s">
-        <v>19</v>
-      </c>
-      <c r="I36" t="s">
-        <v>253</v>
-      </c>
       <c r="J36" t="s">
-        <v>47</v>
+        <v>247</v>
       </c>
       <c r="K36" t="s">
-        <v>125</v>
+        <v>248</v>
       </c>
       <c r="L36" t="s">
-        <v>254</v>
-      </c>
-      <c r="M36" t="s">
-        <v>255</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37">
@@ -3820,40 +3687,37 @@
         <v>20253479</v>
       </c>
       <c r="B37" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E37" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="F37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>252</v>
+      </c>
+      <c r="H37" t="s">
+        <v>253</v>
+      </c>
+      <c r="I37" t="s">
         <v>68</v>
       </c>
-      <c r="G37" t="s">
-        <v>259</v>
-      </c>
-      <c r="H37" t="s">
-        <v>19</v>
-      </c>
-      <c r="I37" t="s">
-        <v>260</v>
-      </c>
       <c r="J37" t="s">
-        <v>71</v>
+        <v>254</v>
       </c>
       <c r="K37" t="s">
-        <v>22</v>
+        <v>255</v>
       </c>
       <c r="L37" t="s">
-        <v>261</v>
-      </c>
-      <c r="M37" t="s">
-        <v>262</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38">
@@ -3861,40 +3725,37 @@
         <v>20253444</v>
       </c>
       <c r="B38" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="E38" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>259</v>
+      </c>
+      <c r="H38" t="s">
+        <v>260</v>
+      </c>
+      <c r="I38" t="s">
         <v>68</v>
       </c>
-      <c r="G38" t="s">
-        <v>266</v>
-      </c>
-      <c r="H38" t="s">
-        <v>19</v>
-      </c>
-      <c r="I38" t="s">
-        <v>267</v>
-      </c>
       <c r="J38" t="s">
-        <v>71</v>
+        <v>261</v>
       </c>
       <c r="K38" t="s">
-        <v>22</v>
+        <v>262</v>
       </c>
       <c r="L38" t="s">
-        <v>268</v>
-      </c>
-      <c r="M38" t="s">
-        <v>269</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39">
@@ -3902,38 +3763,35 @@
         <v>20253425</v>
       </c>
       <c r="B39" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" t="s">
-        <v>271</v>
-      </c>
-      <c r="E39"/>
+        <v>13</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39" t="s">
+        <v>264</v>
+      </c>
       <c r="F39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>265</v>
+      </c>
+      <c r="H39" t="s">
+        <v>266</v>
+      </c>
+      <c r="I39" t="s">
         <v>68</v>
       </c>
-      <c r="G39" t="s">
-        <v>272</v>
-      </c>
-      <c r="H39" t="s">
-        <v>19</v>
-      </c>
-      <c r="I39" t="s">
-        <v>273</v>
-      </c>
       <c r="J39" t="s">
-        <v>71</v>
+        <v>267</v>
       </c>
       <c r="K39" t="s">
-        <v>48</v>
+        <v>268</v>
       </c>
       <c r="L39" t="s">
-        <v>274</v>
-      </c>
-      <c r="M39" t="s">
-        <v>275</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40">
@@ -3941,40 +3799,37 @@
         <v>20253309</v>
       </c>
       <c r="B40" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>277</v>
+        <v>124</v>
       </c>
       <c r="E40" t="s">
-        <v>130</v>
+        <v>270</v>
       </c>
       <c r="F40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>271</v>
+      </c>
+      <c r="H40" t="s">
+        <v>272</v>
+      </c>
+      <c r="I40" t="s">
         <v>68</v>
       </c>
-      <c r="G40" t="s">
-        <v>278</v>
-      </c>
-      <c r="H40" t="s">
-        <v>19</v>
-      </c>
-      <c r="I40" t="s">
-        <v>279</v>
-      </c>
       <c r="J40" t="s">
-        <v>71</v>
+        <v>273</v>
       </c>
       <c r="K40" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="L40" t="s">
-        <v>280</v>
-      </c>
-      <c r="M40" t="s">
-        <v>281</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41">
@@ -3982,40 +3837,37 @@
         <v>20253399</v>
       </c>
       <c r="B41" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D41" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E41" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="F41" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>277</v>
+      </c>
+      <c r="H41" t="s">
+        <v>278</v>
+      </c>
+      <c r="I41" t="s">
         <v>68</v>
       </c>
-      <c r="G41" t="s">
-        <v>278</v>
-      </c>
-      <c r="H41" t="s">
-        <v>19</v>
-      </c>
-      <c r="I41" t="s">
-        <v>285</v>
-      </c>
       <c r="J41" t="s">
-        <v>71</v>
+        <v>279</v>
       </c>
       <c r="K41" t="s">
-        <v>22</v>
+        <v>280</v>
       </c>
       <c r="L41" t="s">
-        <v>286</v>
-      </c>
-      <c r="M41" t="s">
-        <v>287</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42">
@@ -4023,40 +3875,37 @@
         <v>20253404</v>
       </c>
       <c r="B42" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E42" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="F42" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>283</v>
+      </c>
+      <c r="H42" t="s">
+        <v>284</v>
+      </c>
+      <c r="I42" t="s">
         <v>68</v>
       </c>
-      <c r="G42" t="s">
-        <v>278</v>
-      </c>
-      <c r="H42" t="s">
-        <v>19</v>
-      </c>
-      <c r="I42" t="s">
-        <v>291</v>
-      </c>
       <c r="J42" t="s">
-        <v>71</v>
+        <v>285</v>
       </c>
       <c r="K42" t="s">
-        <v>22</v>
+        <v>286</v>
       </c>
       <c r="L42" t="s">
-        <v>292</v>
-      </c>
-      <c r="M42" t="s">
-        <v>293</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43">
@@ -4064,40 +3913,37 @@
         <v>20253417</v>
       </c>
       <c r="B43" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E43" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="F43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>289</v>
+      </c>
+      <c r="H43" t="s">
+        <v>290</v>
+      </c>
+      <c r="I43" t="s">
         <v>68</v>
       </c>
-      <c r="G43" t="s">
-        <v>278</v>
-      </c>
-      <c r="H43" t="s">
-        <v>19</v>
-      </c>
-      <c r="I43" t="s">
-        <v>297</v>
-      </c>
       <c r="J43" t="s">
-        <v>71</v>
+        <v>291</v>
       </c>
       <c r="K43" t="s">
-        <v>22</v>
+        <v>292</v>
       </c>
       <c r="L43" t="s">
-        <v>298</v>
-      </c>
-      <c r="M43" t="s">
-        <v>299</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44">
@@ -4105,40 +3951,37 @@
         <v>20251011</v>
       </c>
       <c r="B44" t="s">
+        <v>293</v>
+      </c>
+      <c r="C44" t="s">
+        <v>294</v>
+      </c>
+      <c r="D44" t="s">
+        <v>295</v>
+      </c>
+      <c r="E44" t="s">
+        <v>296</v>
+      </c>
+      <c r="F44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" t="s">
+        <v>297</v>
+      </c>
+      <c r="H44" t="s">
+        <v>298</v>
+      </c>
+      <c r="I44" t="s">
+        <v>44</v>
+      </c>
+      <c r="J44" t="s">
+        <v>299</v>
+      </c>
+      <c r="K44" t="s">
         <v>300</v>
       </c>
-      <c r="C44" t="s">
-        <v>301</v>
-      </c>
-      <c r="D44" t="s">
-        <v>302</v>
-      </c>
-      <c r="E44" t="s">
-        <v>303</v>
-      </c>
-      <c r="F44" t="s">
-        <v>44</v>
-      </c>
-      <c r="G44" t="s">
-        <v>304</v>
-      </c>
-      <c r="H44" t="s">
-        <v>29</v>
-      </c>
-      <c r="I44" t="s">
-        <v>305</v>
-      </c>
-      <c r="J44" t="s">
-        <v>47</v>
-      </c>
-      <c r="K44" t="s">
-        <v>22</v>
-      </c>
       <c r="L44" t="s">
-        <v>306</v>
-      </c>
-      <c r="M44" t="s">
-        <v>307</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45">
@@ -4146,40 +3989,37 @@
         <v>20253194</v>
       </c>
       <c r="B45" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D45" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="E45" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="F45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" t="s">
+        <v>303</v>
+      </c>
+      <c r="H45" t="s">
+        <v>304</v>
+      </c>
+      <c r="I45" t="s">
         <v>44</v>
       </c>
-      <c r="G45" t="s">
-        <v>304</v>
-      </c>
-      <c r="H45" t="s">
-        <v>29</v>
-      </c>
-      <c r="I45" t="s">
-        <v>311</v>
-      </c>
       <c r="J45" t="s">
-        <v>47</v>
+        <v>305</v>
       </c>
       <c r="K45" t="s">
-        <v>22</v>
+        <v>306</v>
       </c>
       <c r="L45" t="s">
-        <v>312</v>
-      </c>
-      <c r="M45" t="s">
-        <v>313</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46">
@@ -4187,40 +4027,37 @@
         <v>20253203</v>
       </c>
       <c r="B46" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D46" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E46" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="F46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>309</v>
+      </c>
+      <c r="H46" t="s">
+        <v>310</v>
+      </c>
+      <c r="I46" t="s">
         <v>44</v>
       </c>
-      <c r="G46" t="s">
-        <v>304</v>
-      </c>
-      <c r="H46" t="s">
-        <v>19</v>
-      </c>
-      <c r="I46" t="s">
-        <v>317</v>
-      </c>
       <c r="J46" t="s">
-        <v>47</v>
+        <v>311</v>
       </c>
       <c r="K46" t="s">
-        <v>22</v>
+        <v>312</v>
       </c>
       <c r="L46" t="s">
-        <v>318</v>
-      </c>
-      <c r="M46" t="s">
-        <v>319</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47">
@@ -4228,40 +4065,37 @@
         <v>20253213</v>
       </c>
       <c r="B47" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C47" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D47" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="E47" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="F47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" t="s">
+        <v>315</v>
+      </c>
+      <c r="H47" t="s">
+        <v>316</v>
+      </c>
+      <c r="I47" t="s">
         <v>44</v>
       </c>
-      <c r="G47" t="s">
-        <v>304</v>
-      </c>
-      <c r="H47" t="s">
-        <v>29</v>
-      </c>
-      <c r="I47" t="s">
-        <v>323</v>
-      </c>
       <c r="J47" t="s">
-        <v>47</v>
+        <v>317</v>
       </c>
       <c r="K47" t="s">
-        <v>22</v>
+        <v>318</v>
       </c>
       <c r="L47" t="s">
-        <v>324</v>
-      </c>
-      <c r="M47" t="s">
-        <v>325</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48">
@@ -4269,40 +4103,37 @@
         <v>20253214</v>
       </c>
       <c r="B48" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D48" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="E48" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="F48" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>320</v>
+      </c>
+      <c r="H48" t="s">
+        <v>321</v>
+      </c>
+      <c r="I48" t="s">
         <v>44</v>
       </c>
-      <c r="G48" t="s">
-        <v>304</v>
-      </c>
-      <c r="H48" t="s">
-        <v>19</v>
-      </c>
-      <c r="I48" t="s">
-        <v>328</v>
-      </c>
       <c r="J48" t="s">
-        <v>47</v>
+        <v>322</v>
       </c>
       <c r="K48" t="s">
-        <v>22</v>
+        <v>323</v>
       </c>
       <c r="L48" t="s">
-        <v>329</v>
-      </c>
-      <c r="M48" t="s">
-        <v>330</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49">
@@ -4310,40 +4141,37 @@
         <v>20253246</v>
       </c>
       <c r="B49" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E49" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="F49" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="G49" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="H49" t="s">
-        <v>19</v>
+        <v>327</v>
       </c>
       <c r="I49" t="s">
-        <v>334</v>
+        <v>145</v>
       </c>
       <c r="J49" t="s">
-        <v>151</v>
+        <v>328</v>
       </c>
       <c r="K49" t="s">
-        <v>48</v>
+        <v>329</v>
       </c>
       <c r="L49" t="s">
-        <v>335</v>
-      </c>
-      <c r="M49" t="s">
-        <v>336</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50">
@@ -4351,40 +4179,37 @@
         <v>20253093</v>
       </c>
       <c r="B50" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D50" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="E50" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>333</v>
+      </c>
+      <c r="H50" t="s">
+        <v>334</v>
+      </c>
+      <c r="I50" t="s">
         <v>68</v>
       </c>
-      <c r="G50" t="s">
-        <v>340</v>
-      </c>
-      <c r="H50" t="s">
-        <v>19</v>
-      </c>
-      <c r="I50" t="s">
-        <v>341</v>
-      </c>
       <c r="J50" t="s">
-        <v>71</v>
+        <v>335</v>
       </c>
       <c r="K50" t="s">
-        <v>22</v>
+        <v>336</v>
       </c>
       <c r="L50" t="s">
-        <v>342</v>
-      </c>
-      <c r="M50" t="s">
-        <v>343</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51">
@@ -4392,40 +4217,37 @@
         <v>20257213</v>
       </c>
       <c r="B51" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D51" t="s">
-        <v>345</v>
+        <v>276</v>
       </c>
       <c r="E51" t="s">
-        <v>284</v>
+        <v>338</v>
       </c>
       <c r="F51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>339</v>
+      </c>
+      <c r="H51" t="s">
+        <v>340</v>
+      </c>
+      <c r="I51" t="s">
         <v>44</v>
       </c>
-      <c r="G51" t="s">
-        <v>346</v>
-      </c>
-      <c r="H51" t="s">
-        <v>19</v>
-      </c>
-      <c r="I51" t="s">
-        <v>347</v>
-      </c>
       <c r="J51" t="s">
-        <v>47</v>
+        <v>341</v>
       </c>
       <c r="K51" t="s">
-        <v>22</v>
+        <v>342</v>
       </c>
       <c r="L51" t="s">
-        <v>348</v>
-      </c>
-      <c r="M51" t="s">
-        <v>349</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52">
@@ -4433,40 +4255,37 @@
         <v>20253054</v>
       </c>
       <c r="B52" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E52" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>346</v>
+      </c>
+      <c r="H52" t="s">
+        <v>347</v>
+      </c>
+      <c r="I52" t="s">
         <v>68</v>
       </c>
-      <c r="G52" t="s">
-        <v>353</v>
-      </c>
-      <c r="H52" t="s">
-        <v>19</v>
-      </c>
-      <c r="I52" t="s">
-        <v>354</v>
-      </c>
       <c r="J52" t="s">
-        <v>71</v>
+        <v>348</v>
       </c>
       <c r="K52" t="s">
-        <v>22</v>
+        <v>349</v>
       </c>
       <c r="L52" t="s">
-        <v>355</v>
-      </c>
-      <c r="M52" t="s">
-        <v>356</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53">
@@ -4474,40 +4293,37 @@
         <v>20257102</v>
       </c>
       <c r="B53" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C53" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D53" t="s">
-        <v>358</v>
+        <v>111</v>
       </c>
       <c r="E53" t="s">
-        <v>116</v>
+        <v>345</v>
       </c>
       <c r="F53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>351</v>
+      </c>
+      <c r="H53" t="s">
+        <v>352</v>
+      </c>
+      <c r="I53" t="s">
         <v>44</v>
       </c>
-      <c r="G53" t="s">
+      <c r="J53" t="s">
         <v>353</v>
       </c>
-      <c r="H53" t="s">
-        <v>19</v>
-      </c>
-      <c r="I53" t="s">
-        <v>359</v>
-      </c>
-      <c r="J53" t="s">
-        <v>47</v>
-      </c>
       <c r="K53" t="s">
-        <v>125</v>
+        <v>354</v>
       </c>
       <c r="L53" t="s">
-        <v>360</v>
-      </c>
-      <c r="M53" t="s">
-        <v>361</v>
+        <v>187</v>
       </c>
     </row>
     <row r="54">
@@ -4515,40 +4331,37 @@
         <v>20257129</v>
       </c>
       <c r="B54" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C54" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D54" t="s">
-        <v>363</v>
+        <v>257</v>
       </c>
       <c r="E54" t="s">
-        <v>265</v>
+        <v>345</v>
       </c>
       <c r="F54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>356</v>
+      </c>
+      <c r="H54" t="s">
+        <v>357</v>
+      </c>
+      <c r="I54" t="s">
         <v>44</v>
       </c>
-      <c r="G54" t="s">
-        <v>353</v>
-      </c>
-      <c r="H54" t="s">
-        <v>19</v>
-      </c>
-      <c r="I54" t="s">
-        <v>364</v>
-      </c>
       <c r="J54" t="s">
-        <v>47</v>
+        <v>358</v>
       </c>
       <c r="K54" t="s">
-        <v>48</v>
+        <v>359</v>
       </c>
       <c r="L54" t="s">
-        <v>365</v>
-      </c>
-      <c r="M54" t="s">
-        <v>366</v>
+        <v>187</v>
       </c>
     </row>
     <row r="55">
@@ -4556,40 +4369,37 @@
         <v>20257138</v>
       </c>
       <c r="B55" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="C55" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D55" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="E55" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="F55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>362</v>
+      </c>
+      <c r="H55" t="s">
+        <v>363</v>
+      </c>
+      <c r="I55" t="s">
         <v>44</v>
       </c>
-      <c r="G55" t="s">
-        <v>353</v>
-      </c>
-      <c r="H55" t="s">
-        <v>19</v>
-      </c>
-      <c r="I55" t="s">
-        <v>370</v>
-      </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>364</v>
       </c>
       <c r="K55" t="s">
-        <v>48</v>
+        <v>365</v>
       </c>
       <c r="L55" t="s">
-        <v>371</v>
-      </c>
-      <c r="M55" t="s">
-        <v>372</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56">
@@ -4597,40 +4407,37 @@
         <v>20253031</v>
       </c>
       <c r="B56" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D56" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="E56" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F56" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
+        <v>369</v>
+      </c>
+      <c r="H56" t="s">
+        <v>370</v>
+      </c>
+      <c r="I56" t="s">
         <v>68</v>
       </c>
-      <c r="G56" t="s">
-        <v>376</v>
-      </c>
-      <c r="H56" t="s">
-        <v>19</v>
-      </c>
-      <c r="I56" t="s">
-        <v>377</v>
-      </c>
       <c r="J56" t="s">
-        <v>71</v>
+        <v>371</v>
       </c>
       <c r="K56" t="s">
-        <v>22</v>
+        <v>372</v>
       </c>
       <c r="L56" t="s">
-        <v>378</v>
-      </c>
-      <c r="M56" t="s">
-        <v>379</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57">
@@ -4638,40 +4445,37 @@
         <v>20257012</v>
       </c>
       <c r="B57" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C57" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D57" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="E57" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="F57" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>375</v>
+      </c>
+      <c r="H57" t="s">
+        <v>376</v>
+      </c>
+      <c r="I57" t="s">
         <v>44</v>
       </c>
-      <c r="G57" t="s">
-        <v>376</v>
-      </c>
-      <c r="H57" t="s">
-        <v>19</v>
-      </c>
-      <c r="I57" t="s">
-        <v>383</v>
-      </c>
       <c r="J57" t="s">
-        <v>47</v>
+        <v>377</v>
       </c>
       <c r="K57" t="s">
-        <v>22</v>
+        <v>378</v>
       </c>
       <c r="L57" t="s">
-        <v>384</v>
-      </c>
-      <c r="M57" t="s">
-        <v>385</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58">
@@ -4679,38 +4483,35 @@
         <v>20253008</v>
       </c>
       <c r="B58" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" t="s">
-        <v>387</v>
-      </c>
-      <c r="E58"/>
+        <v>13</v>
+      </c>
+      <c r="D58"/>
+      <c r="E58" t="s">
+        <v>380</v>
+      </c>
       <c r="F58" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>381</v>
+      </c>
+      <c r="H58" t="s">
+        <v>382</v>
+      </c>
+      <c r="I58" t="s">
         <v>44</v>
       </c>
-      <c r="G58" t="s">
-        <v>388</v>
-      </c>
-      <c r="H58" t="s">
-        <v>19</v>
-      </c>
-      <c r="I58" t="s">
-        <v>389</v>
-      </c>
       <c r="J58" t="s">
-        <v>47</v>
+        <v>383</v>
       </c>
       <c r="K58" t="s">
-        <v>22</v>
+        <v>384</v>
       </c>
       <c r="L58" t="s">
-        <v>390</v>
-      </c>
-      <c r="M58" t="s">
-        <v>391</v>
+        <v>187</v>
       </c>
     </row>
     <row r="59">
@@ -4718,40 +4519,37 @@
         <v>20244404</v>
       </c>
       <c r="B59" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D59" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="E59" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="F59" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>388</v>
+      </c>
+      <c r="H59" t="s">
+        <v>389</v>
+      </c>
+      <c r="I59" t="s">
         <v>44</v>
       </c>
-      <c r="G59" t="s">
-        <v>395</v>
-      </c>
-      <c r="H59" t="s">
-        <v>19</v>
-      </c>
-      <c r="I59" t="s">
-        <v>396</v>
-      </c>
       <c r="J59" t="s">
-        <v>47</v>
+        <v>390</v>
       </c>
       <c r="K59" t="s">
-        <v>22</v>
+        <v>391</v>
       </c>
       <c r="L59" t="s">
-        <v>397</v>
-      </c>
-      <c r="M59" t="s">
-        <v>398</v>
+        <v>187</v>
       </c>
     </row>
     <row r="60">
@@ -4759,40 +4557,37 @@
         <v>20244419</v>
       </c>
       <c r="B60" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C60" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D60" t="s">
-        <v>400</v>
+        <v>223</v>
       </c>
       <c r="E60" t="s">
-        <v>230</v>
+        <v>387</v>
       </c>
       <c r="F60" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" t="s">
+        <v>393</v>
+      </c>
+      <c r="H60" t="s">
+        <v>394</v>
+      </c>
+      <c r="I60" t="s">
         <v>44</v>
       </c>
-      <c r="G60" t="s">
+      <c r="J60" t="s">
         <v>395</v>
       </c>
-      <c r="H60" t="s">
-        <v>29</v>
-      </c>
-      <c r="I60" t="s">
-        <v>401</v>
-      </c>
-      <c r="J60" t="s">
-        <v>47</v>
-      </c>
       <c r="K60" t="s">
-        <v>22</v>
+        <v>396</v>
       </c>
       <c r="L60" t="s">
-        <v>402</v>
-      </c>
-      <c r="M60" t="s">
-        <v>403</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61">
@@ -4800,40 +4595,37 @@
         <v>20247975</v>
       </c>
       <c r="B61" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C61" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D61" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="E61" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="F61" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>400</v>
+      </c>
+      <c r="H61" t="s">
+        <v>401</v>
+      </c>
+      <c r="I61" t="s">
         <v>44</v>
       </c>
-      <c r="G61" t="s">
-        <v>407</v>
-      </c>
-      <c r="H61" t="s">
-        <v>19</v>
-      </c>
-      <c r="I61" t="s">
-        <v>408</v>
-      </c>
       <c r="J61" t="s">
-        <v>47</v>
+        <v>402</v>
       </c>
       <c r="K61" t="s">
-        <v>48</v>
+        <v>403</v>
       </c>
       <c r="L61" t="s">
-        <v>409</v>
-      </c>
-      <c r="M61" t="s">
-        <v>410</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62">
@@ -4841,40 +4633,37 @@
         <v>20248043</v>
       </c>
       <c r="B62" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C62" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D62" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="E62" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="F62" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>406</v>
+      </c>
+      <c r="H62" t="s">
+        <v>407</v>
+      </c>
+      <c r="I62" t="s">
         <v>44</v>
       </c>
-      <c r="G62" t="s">
-        <v>407</v>
-      </c>
-      <c r="H62" t="s">
-        <v>19</v>
-      </c>
-      <c r="I62" t="s">
-        <v>414</v>
-      </c>
       <c r="J62" t="s">
-        <v>47</v>
+        <v>408</v>
       </c>
       <c r="K62" t="s">
-        <v>22</v>
+        <v>409</v>
       </c>
       <c r="L62" t="s">
-        <v>415</v>
-      </c>
-      <c r="M62" t="s">
-        <v>416</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63">
@@ -4882,40 +4671,37 @@
         <v>20244290</v>
       </c>
       <c r="B63" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D63" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="E63" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F63" t="s">
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>413</v>
+      </c>
+      <c r="H63" t="s">
+        <v>414</v>
+      </c>
+      <c r="I63" t="s">
         <v>68</v>
       </c>
-      <c r="G63" t="s">
-        <v>420</v>
-      </c>
-      <c r="H63" t="s">
-        <v>19</v>
-      </c>
-      <c r="I63" t="s">
-        <v>421</v>
-      </c>
       <c r="J63" t="s">
-        <v>71</v>
+        <v>415</v>
       </c>
       <c r="K63" t="s">
-        <v>48</v>
+        <v>416</v>
       </c>
       <c r="L63" t="s">
-        <v>422</v>
-      </c>
-      <c r="M63" t="s">
-        <v>423</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64">
@@ -4923,40 +4709,37 @@
         <v>20244278</v>
       </c>
       <c r="B64" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C64" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D64" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="E64" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="F64" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>420</v>
+      </c>
+      <c r="H64" t="s">
+        <v>421</v>
+      </c>
+      <c r="I64" t="s">
         <v>68</v>
       </c>
-      <c r="G64" t="s">
-        <v>427</v>
-      </c>
-      <c r="H64" t="s">
-        <v>19</v>
-      </c>
-      <c r="I64" t="s">
-        <v>428</v>
-      </c>
       <c r="J64" t="s">
-        <v>71</v>
+        <v>422</v>
       </c>
       <c r="K64" t="s">
-        <v>22</v>
+        <v>423</v>
       </c>
       <c r="L64" t="s">
-        <v>429</v>
-      </c>
-      <c r="M64" t="s">
-        <v>430</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65">
@@ -4964,40 +4747,37 @@
         <v>20244082</v>
       </c>
       <c r="B65" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="C65" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D65" t="s">
-        <v>432</v>
+        <v>288</v>
       </c>
       <c r="E65" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="F65" t="s">
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>426</v>
+      </c>
+      <c r="H65" t="s">
+        <v>427</v>
+      </c>
+      <c r="I65" t="s">
         <v>68</v>
       </c>
-      <c r="G65" t="s">
-        <v>433</v>
-      </c>
-      <c r="H65" t="s">
-        <v>19</v>
-      </c>
-      <c r="I65" t="s">
-        <v>434</v>
-      </c>
       <c r="J65" t="s">
-        <v>71</v>
+        <v>428</v>
       </c>
       <c r="K65" t="s">
-        <v>48</v>
+        <v>429</v>
       </c>
       <c r="L65" t="s">
-        <v>435</v>
-      </c>
-      <c r="M65" t="s">
-        <v>436</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66">
@@ -5005,40 +4785,37 @@
         <v>20244112</v>
       </c>
       <c r="B66" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C66" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D66" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E66" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="F66" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" t="s">
+        <v>432</v>
+      </c>
+      <c r="H66" t="s">
+        <v>433</v>
+      </c>
+      <c r="I66" t="s">
         <v>68</v>
       </c>
-      <c r="G66" t="s">
-        <v>433</v>
-      </c>
-      <c r="H66" t="s">
-        <v>19</v>
-      </c>
-      <c r="I66" t="s">
-        <v>440</v>
-      </c>
       <c r="J66" t="s">
-        <v>71</v>
+        <v>434</v>
       </c>
       <c r="K66" t="s">
-        <v>22</v>
+        <v>435</v>
       </c>
       <c r="L66" t="s">
-        <v>441</v>
-      </c>
-      <c r="M66" t="s">
-        <v>442</v>
+        <v>187</v>
       </c>
     </row>
     <row r="67">
@@ -5046,40 +4823,37 @@
         <v>20244131</v>
       </c>
       <c r="B67" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="C67" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D67" t="s">
-        <v>444</v>
+        <v>49</v>
       </c>
       <c r="E67" t="s">
-        <v>53</v>
+        <v>425</v>
       </c>
       <c r="F67" t="s">
+        <v>16</v>
+      </c>
+      <c r="G67" t="s">
+        <v>437</v>
+      </c>
+      <c r="H67" t="s">
+        <v>438</v>
+      </c>
+      <c r="I67" t="s">
         <v>68</v>
       </c>
-      <c r="G67" t="s">
-        <v>433</v>
-      </c>
-      <c r="H67" t="s">
-        <v>19</v>
-      </c>
-      <c r="I67" t="s">
-        <v>445</v>
-      </c>
       <c r="J67" t="s">
-        <v>71</v>
+        <v>439</v>
       </c>
       <c r="K67" t="s">
-        <v>22</v>
+        <v>440</v>
       </c>
       <c r="L67" t="s">
-        <v>446</v>
-      </c>
-      <c r="M67" t="s">
-        <v>447</v>
+        <v>187</v>
       </c>
     </row>
     <row r="68">
@@ -5087,40 +4861,37 @@
         <v>20244132</v>
       </c>
       <c r="B68" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="C68" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D68" t="s">
-        <v>449</v>
+        <v>124</v>
       </c>
       <c r="E68" t="s">
-        <v>130</v>
+        <v>425</v>
       </c>
       <c r="F68" t="s">
+        <v>16</v>
+      </c>
+      <c r="G68" t="s">
+        <v>442</v>
+      </c>
+      <c r="H68" t="s">
+        <v>443</v>
+      </c>
+      <c r="I68" t="s">
         <v>68</v>
       </c>
-      <c r="G68" t="s">
-        <v>433</v>
-      </c>
-      <c r="H68" t="s">
-        <v>19</v>
-      </c>
-      <c r="I68" t="s">
-        <v>450</v>
-      </c>
       <c r="J68" t="s">
-        <v>71</v>
+        <v>444</v>
       </c>
       <c r="K68" t="s">
-        <v>22</v>
+        <v>445</v>
       </c>
       <c r="L68" t="s">
-        <v>451</v>
-      </c>
-      <c r="M68" t="s">
-        <v>452</v>
+        <v>187</v>
       </c>
     </row>
     <row r="69">
@@ -5128,40 +4899,37 @@
         <v>20244133</v>
       </c>
       <c r="B69" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>454</v>
+        <v>124</v>
       </c>
       <c r="E69" t="s">
-        <v>130</v>
+        <v>425</v>
       </c>
       <c r="F69" t="s">
+        <v>16</v>
+      </c>
+      <c r="G69" t="s">
+        <v>447</v>
+      </c>
+      <c r="H69" t="s">
+        <v>448</v>
+      </c>
+      <c r="I69" t="s">
         <v>68</v>
       </c>
-      <c r="G69" t="s">
-        <v>433</v>
-      </c>
-      <c r="H69" t="s">
-        <v>19</v>
-      </c>
-      <c r="I69" t="s">
-        <v>455</v>
-      </c>
       <c r="J69" t="s">
-        <v>71</v>
+        <v>449</v>
       </c>
       <c r="K69" t="s">
-        <v>22</v>
+        <v>450</v>
       </c>
       <c r="L69" t="s">
-        <v>456</v>
-      </c>
-      <c r="M69" t="s">
-        <v>457</v>
+        <v>187</v>
       </c>
     </row>
     <row r="70">
@@ -5169,40 +4937,37 @@
         <v>20244137</v>
       </c>
       <c r="B70" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="C70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D70" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="E70" t="s">
-        <v>460</v>
+        <v>425</v>
       </c>
       <c r="F70" t="s">
+        <v>16</v>
+      </c>
+      <c r="G70" t="s">
+        <v>453</v>
+      </c>
+      <c r="H70" t="s">
+        <v>454</v>
+      </c>
+      <c r="I70" t="s">
         <v>68</v>
       </c>
-      <c r="G70" t="s">
-        <v>433</v>
-      </c>
-      <c r="H70" t="s">
-        <v>19</v>
-      </c>
-      <c r="I70" t="s">
-        <v>461</v>
-      </c>
       <c r="J70" t="s">
-        <v>71</v>
+        <v>455</v>
       </c>
       <c r="K70" t="s">
-        <v>22</v>
+        <v>456</v>
       </c>
       <c r="L70" t="s">
-        <v>462</v>
-      </c>
-      <c r="M70" t="s">
-        <v>463</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71">
@@ -5210,40 +4975,37 @@
         <v>20243937</v>
       </c>
       <c r="B71" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D71" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="E71" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="F71" t="s">
-        <v>181</v>
+        <v>26</v>
       </c>
       <c r="G71" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="H71" t="s">
-        <v>29</v>
+        <v>461</v>
       </c>
       <c r="I71" t="s">
-        <v>468</v>
+        <v>177</v>
       </c>
       <c r="J71" t="s">
-        <v>184</v>
+        <v>462</v>
       </c>
       <c r="K71" t="s">
-        <v>48</v>
+        <v>463</v>
       </c>
       <c r="L71" t="s">
-        <v>469</v>
-      </c>
-      <c r="M71" t="s">
-        <v>470</v>
+        <v>187</v>
       </c>
     </row>
     <row r="72">
@@ -5251,40 +5013,37 @@
         <v>20243948</v>
       </c>
       <c r="B72" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="C72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D72" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="E72" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="F72" t="s">
+        <v>26</v>
+      </c>
+      <c r="G72" t="s">
+        <v>466</v>
+      </c>
+      <c r="H72" t="s">
+        <v>467</v>
+      </c>
+      <c r="I72" t="s">
         <v>44</v>
       </c>
-      <c r="G72" t="s">
-        <v>467</v>
-      </c>
-      <c r="H72" t="s">
-        <v>29</v>
-      </c>
-      <c r="I72" t="s">
-        <v>474</v>
-      </c>
       <c r="J72" t="s">
-        <v>47</v>
+        <v>468</v>
       </c>
       <c r="K72" t="s">
-        <v>22</v>
+        <v>469</v>
       </c>
       <c r="L72" t="s">
-        <v>475</v>
-      </c>
-      <c r="M72" t="s">
-        <v>476</v>
+        <v>187</v>
       </c>
     </row>
     <row r="73">
@@ -5292,40 +5051,37 @@
         <v>20247720</v>
       </c>
       <c r="B73" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="C73" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D73" t="s">
-        <v>478</v>
+        <v>257</v>
       </c>
       <c r="E73" t="s">
-        <v>265</v>
+        <v>471</v>
       </c>
       <c r="F73" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73" t="s">
+        <v>472</v>
+      </c>
+      <c r="H73" t="s">
+        <v>473</v>
+      </c>
+      <c r="I73" t="s">
         <v>44</v>
       </c>
-      <c r="G73" t="s">
-        <v>479</v>
-      </c>
-      <c r="H73" t="s">
-        <v>19</v>
-      </c>
-      <c r="I73" t="s">
-        <v>480</v>
-      </c>
       <c r="J73" t="s">
-        <v>47</v>
+        <v>474</v>
       </c>
       <c r="K73" t="s">
-        <v>48</v>
+        <v>475</v>
       </c>
       <c r="L73" t="s">
-        <v>481</v>
-      </c>
-      <c r="M73" t="s">
-        <v>482</v>
+        <v>187</v>
       </c>
     </row>
     <row r="74">
@@ -5333,40 +5089,37 @@
         <v>20247726</v>
       </c>
       <c r="B74" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="C74" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D74" t="s">
-        <v>484</v>
+        <v>288</v>
       </c>
       <c r="E74" t="s">
-        <v>296</v>
+        <v>471</v>
       </c>
       <c r="F74" t="s">
+        <v>16</v>
+      </c>
+      <c r="G74" t="s">
+        <v>477</v>
+      </c>
+      <c r="H74" t="s">
+        <v>478</v>
+      </c>
+      <c r="I74" t="s">
         <v>44</v>
       </c>
-      <c r="G74" t="s">
+      <c r="J74" t="s">
         <v>479</v>
       </c>
-      <c r="H74" t="s">
-        <v>19</v>
-      </c>
-      <c r="I74" t="s">
-        <v>485</v>
-      </c>
-      <c r="J74" t="s">
-        <v>47</v>
-      </c>
       <c r="K74" t="s">
-        <v>48</v>
+        <v>480</v>
       </c>
       <c r="L74" t="s">
-        <v>486</v>
-      </c>
-      <c r="M74" t="s">
-        <v>487</v>
+        <v>187</v>
       </c>
     </row>
     <row r="75">
@@ -5374,40 +5127,37 @@
         <v>20247773</v>
       </c>
       <c r="B75" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="C75" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D75" t="s">
-        <v>489</v>
+        <v>118</v>
       </c>
       <c r="E75" t="s">
-        <v>123</v>
+        <v>471</v>
       </c>
       <c r="F75" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75" t="s">
+        <v>482</v>
+      </c>
+      <c r="H75" t="s">
+        <v>483</v>
+      </c>
+      <c r="I75" t="s">
         <v>44</v>
       </c>
-      <c r="G75" t="s">
-        <v>479</v>
-      </c>
-      <c r="H75" t="s">
-        <v>19</v>
-      </c>
-      <c r="I75" t="s">
-        <v>490</v>
-      </c>
       <c r="J75" t="s">
-        <v>47</v>
+        <v>484</v>
       </c>
       <c r="K75" t="s">
-        <v>22</v>
+        <v>485</v>
       </c>
       <c r="L75" t="s">
-        <v>491</v>
-      </c>
-      <c r="M75" t="s">
-        <v>492</v>
+        <v>187</v>
       </c>
     </row>
     <row r="76">
@@ -5415,40 +5165,37 @@
         <v>20247774</v>
       </c>
       <c r="B76" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C76" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D76" t="s">
-        <v>494</v>
+        <v>118</v>
       </c>
       <c r="E76" t="s">
-        <v>123</v>
+        <v>471</v>
       </c>
       <c r="F76" t="s">
+        <v>16</v>
+      </c>
+      <c r="G76" t="s">
+        <v>487</v>
+      </c>
+      <c r="H76" t="s">
+        <v>488</v>
+      </c>
+      <c r="I76" t="s">
         <v>44</v>
       </c>
-      <c r="G76" t="s">
-        <v>479</v>
-      </c>
-      <c r="H76" t="s">
-        <v>19</v>
-      </c>
-      <c r="I76" t="s">
-        <v>495</v>
-      </c>
       <c r="J76" t="s">
-        <v>47</v>
+        <v>489</v>
       </c>
       <c r="K76" t="s">
-        <v>22</v>
+        <v>490</v>
       </c>
       <c r="L76" t="s">
-        <v>496</v>
-      </c>
-      <c r="M76" t="s">
-        <v>497</v>
+        <v>187</v>
       </c>
     </row>
     <row r="77">
@@ -5456,40 +5203,37 @@
         <v>20243858</v>
       </c>
       <c r="B77" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="C77" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D77" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="E77" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="F77" t="s">
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
+        <v>494</v>
+      </c>
+      <c r="H77" t="s">
+        <v>495</v>
+      </c>
+      <c r="I77" t="s">
         <v>68</v>
       </c>
-      <c r="G77" t="s">
-        <v>501</v>
-      </c>
-      <c r="H77" t="s">
-        <v>19</v>
-      </c>
-      <c r="I77" t="s">
-        <v>502</v>
-      </c>
       <c r="J77" t="s">
-        <v>71</v>
+        <v>496</v>
       </c>
       <c r="K77" t="s">
-        <v>48</v>
+        <v>497</v>
       </c>
       <c r="L77" t="s">
-        <v>503</v>
-      </c>
-      <c r="M77" t="s">
-        <v>504</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78">
@@ -5497,40 +5241,37 @@
         <v>20243877</v>
       </c>
       <c r="B78" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C78" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D78" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="E78" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="F78" t="s">
+        <v>16</v>
+      </c>
+      <c r="G78" t="s">
+        <v>500</v>
+      </c>
+      <c r="H78" t="s">
+        <v>501</v>
+      </c>
+      <c r="I78" t="s">
         <v>68</v>
       </c>
-      <c r="G78" t="s">
-        <v>501</v>
-      </c>
-      <c r="H78" t="s">
-        <v>19</v>
-      </c>
-      <c r="I78" t="s">
-        <v>508</v>
-      </c>
       <c r="J78" t="s">
-        <v>71</v>
+        <v>502</v>
       </c>
       <c r="K78" t="s">
-        <v>22</v>
+        <v>503</v>
       </c>
       <c r="L78" t="s">
-        <v>509</v>
-      </c>
-      <c r="M78" t="s">
-        <v>510</v>
+        <v>187</v>
       </c>
     </row>
     <row r="79">
@@ -5538,40 +5279,37 @@
         <v>20247622</v>
       </c>
       <c r="B79" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="C79" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D79" t="s">
-        <v>512</v>
+        <v>49</v>
       </c>
       <c r="E79" t="s">
-        <v>53</v>
+        <v>505</v>
       </c>
       <c r="F79" t="s">
+        <v>16</v>
+      </c>
+      <c r="G79" t="s">
+        <v>506</v>
+      </c>
+      <c r="H79" t="s">
+        <v>507</v>
+      </c>
+      <c r="I79" t="s">
         <v>44</v>
       </c>
-      <c r="G79" t="s">
-        <v>513</v>
-      </c>
-      <c r="H79" t="s">
-        <v>19</v>
-      </c>
-      <c r="I79" t="s">
-        <v>514</v>
-      </c>
       <c r="J79" t="s">
-        <v>47</v>
+        <v>508</v>
       </c>
       <c r="K79" t="s">
-        <v>125</v>
+        <v>509</v>
       </c>
       <c r="L79" t="s">
-        <v>515</v>
-      </c>
-      <c r="M79" t="s">
-        <v>516</v>
+        <v>187</v>
       </c>
     </row>
     <row r="80">
@@ -5579,40 +5317,37 @@
         <v>20247649</v>
       </c>
       <c r="B80" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="C80" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D80" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="E80" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="F80" t="s">
+        <v>16</v>
+      </c>
+      <c r="G80" t="s">
+        <v>512</v>
+      </c>
+      <c r="H80" t="s">
+        <v>513</v>
+      </c>
+      <c r="I80" t="s">
         <v>44</v>
       </c>
-      <c r="G80" t="s">
-        <v>513</v>
-      </c>
-      <c r="H80" t="s">
-        <v>19</v>
-      </c>
-      <c r="I80" t="s">
-        <v>520</v>
-      </c>
       <c r="J80" t="s">
-        <v>47</v>
+        <v>514</v>
       </c>
       <c r="K80" t="s">
-        <v>48</v>
+        <v>515</v>
       </c>
       <c r="L80" t="s">
-        <v>521</v>
-      </c>
-      <c r="M80" t="s">
-        <v>522</v>
+        <v>187</v>
       </c>
     </row>
     <row r="81">
@@ -5620,40 +5355,37 @@
         <v>20243709</v>
       </c>
       <c r="B81" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="C81" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D81" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="E81" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="F81" t="s">
+        <v>16</v>
+      </c>
+      <c r="G81" t="s">
+        <v>519</v>
+      </c>
+      <c r="H81" t="s">
+        <v>520</v>
+      </c>
+      <c r="I81" t="s">
         <v>68</v>
       </c>
-      <c r="G81" t="s">
-        <v>526</v>
-      </c>
-      <c r="H81" t="s">
-        <v>19</v>
-      </c>
-      <c r="I81" t="s">
-        <v>527</v>
-      </c>
       <c r="J81" t="s">
-        <v>71</v>
+        <v>521</v>
       </c>
       <c r="K81" t="s">
-        <v>22</v>
+        <v>522</v>
       </c>
       <c r="L81" t="s">
-        <v>528</v>
-      </c>
-      <c r="M81" t="s">
-        <v>529</v>
+        <v>187</v>
       </c>
     </row>
     <row r="82">
@@ -5661,40 +5393,37 @@
         <v>20243773</v>
       </c>
       <c r="B82" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="C82" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D82" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="E82" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="F82" t="s">
+        <v>16</v>
+      </c>
+      <c r="G82" t="s">
+        <v>525</v>
+      </c>
+      <c r="H82" t="s">
+        <v>526</v>
+      </c>
+      <c r="I82" t="s">
         <v>68</v>
       </c>
-      <c r="G82" t="s">
-        <v>526</v>
-      </c>
-      <c r="H82" t="s">
-        <v>19</v>
-      </c>
-      <c r="I82" t="s">
-        <v>533</v>
-      </c>
       <c r="J82" t="s">
-        <v>71</v>
+        <v>527</v>
       </c>
       <c r="K82" t="s">
-        <v>22</v>
+        <v>528</v>
       </c>
       <c r="L82" t="s">
-        <v>534</v>
-      </c>
-      <c r="M82" t="s">
-        <v>535</v>
+        <v>187</v>
       </c>
     </row>
     <row r="83">
@@ -5702,40 +5431,37 @@
         <v>20243776</v>
       </c>
       <c r="B83" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E83" t="s">
+        <v>518</v>
+      </c>
+      <c r="F83" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" t="s">
+        <v>530</v>
+      </c>
+      <c r="H83" t="s">
+        <v>531</v>
+      </c>
+      <c r="I83" t="s">
+        <v>44</v>
+      </c>
+      <c r="J83" t="s">
         <v>532</v>
       </c>
-      <c r="F83" t="s">
-        <v>44</v>
-      </c>
-      <c r="G83" t="s">
-        <v>526</v>
-      </c>
-      <c r="H83" t="s">
-        <v>19</v>
-      </c>
-      <c r="I83" t="s">
-        <v>538</v>
-      </c>
-      <c r="J83" t="s">
-        <v>47</v>
-      </c>
       <c r="K83" t="s">
-        <v>22</v>
+        <v>533</v>
       </c>
       <c r="L83" t="s">
-        <v>539</v>
-      </c>
-      <c r="M83" t="s">
-        <v>540</v>
+        <v>187</v>
       </c>
     </row>
     <row r="84">
@@ -5743,40 +5469,37 @@
         <v>20243609</v>
       </c>
       <c r="B84" t="s">
+        <v>534</v>
+      </c>
+      <c r="C84" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" t="s">
+        <v>535</v>
+      </c>
+      <c r="E84" t="s">
+        <v>536</v>
+      </c>
+      <c r="F84" t="s">
+        <v>16</v>
+      </c>
+      <c r="G84" t="s">
+        <v>537</v>
+      </c>
+      <c r="H84" t="s">
+        <v>538</v>
+      </c>
+      <c r="I84" t="s">
+        <v>539</v>
+      </c>
+      <c r="J84" t="s">
+        <v>540</v>
+      </c>
+      <c r="K84" t="s">
         <v>541</v>
       </c>
-      <c r="C84" t="s">
-        <v>14</v>
-      </c>
-      <c r="D84" t="s">
-        <v>542</v>
-      </c>
-      <c r="E84" t="s">
-        <v>543</v>
-      </c>
-      <c r="F84" t="s">
-        <v>544</v>
-      </c>
-      <c r="G84" t="s">
-        <v>545</v>
-      </c>
-      <c r="H84" t="s">
-        <v>19</v>
-      </c>
-      <c r="I84" t="s">
-        <v>546</v>
-      </c>
-      <c r="J84" t="s">
-        <v>547</v>
-      </c>
-      <c r="K84" t="s">
-        <v>48</v>
-      </c>
       <c r="L84" t="s">
-        <v>548</v>
-      </c>
-      <c r="M84" t="s">
-        <v>549</v>
+        <v>187</v>
       </c>
     </row>
     <row r="85">
@@ -5784,40 +5507,37 @@
         <v>20243574</v>
       </c>
       <c r="B85" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="C85" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D85" t="s">
-        <v>551</v>
+        <v>230</v>
       </c>
       <c r="E85" t="s">
-        <v>237</v>
+        <v>543</v>
       </c>
       <c r="F85" t="s">
+        <v>26</v>
+      </c>
+      <c r="G85" t="s">
+        <v>544</v>
+      </c>
+      <c r="H85" t="s">
+        <v>545</v>
+      </c>
+      <c r="I85" t="s">
         <v>44</v>
       </c>
-      <c r="G85" t="s">
-        <v>552</v>
-      </c>
-      <c r="H85" t="s">
-        <v>29</v>
-      </c>
-      <c r="I85" t="s">
-        <v>553</v>
-      </c>
       <c r="J85" t="s">
-        <v>47</v>
+        <v>546</v>
       </c>
       <c r="K85" t="s">
-        <v>22</v>
+        <v>547</v>
       </c>
       <c r="L85" t="s">
-        <v>554</v>
-      </c>
-      <c r="M85" t="s">
-        <v>555</v>
+        <v>187</v>
       </c>
     </row>
     <row r="86">
@@ -5825,40 +5545,37 @@
         <v>20243557</v>
       </c>
       <c r="B86" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="C86" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D86" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="E86" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="F86" t="s">
+        <v>16</v>
+      </c>
+      <c r="G86" t="s">
+        <v>551</v>
+      </c>
+      <c r="H86" t="s">
+        <v>552</v>
+      </c>
+      <c r="I86" t="s">
         <v>44</v>
       </c>
-      <c r="G86" t="s">
-        <v>559</v>
-      </c>
-      <c r="H86" t="s">
-        <v>19</v>
-      </c>
-      <c r="I86" t="s">
-        <v>560</v>
-      </c>
       <c r="J86" t="s">
-        <v>47</v>
+        <v>553</v>
       </c>
       <c r="K86" t="s">
-        <v>48</v>
+        <v>554</v>
       </c>
       <c r="L86" t="s">
-        <v>561</v>
-      </c>
-      <c r="M86" t="s">
-        <v>562</v>
+        <v>187</v>
       </c>
     </row>
     <row r="87">
@@ -5866,38 +5583,35 @@
         <v>20243471</v>
       </c>
       <c r="B87" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
-      </c>
-      <c r="D87" t="s">
-        <v>564</v>
-      </c>
-      <c r="E87"/>
+        <v>13</v>
+      </c>
+      <c r="D87"/>
+      <c r="E87" t="s">
+        <v>556</v>
+      </c>
       <c r="F87" t="s">
+        <v>16</v>
+      </c>
+      <c r="G87" t="s">
+        <v>557</v>
+      </c>
+      <c r="H87" t="s">
+        <v>558</v>
+      </c>
+      <c r="I87" t="s">
         <v>44</v>
       </c>
-      <c r="G87" t="s">
-        <v>565</v>
-      </c>
-      <c r="H87" t="s">
-        <v>19</v>
-      </c>
-      <c r="I87" t="s">
-        <v>566</v>
-      </c>
       <c r="J87" t="s">
-        <v>47</v>
+        <v>559</v>
       </c>
       <c r="K87" t="s">
-        <v>22</v>
+        <v>560</v>
       </c>
       <c r="L87" t="s">
-        <v>567</v>
-      </c>
-      <c r="M87" t="s">
-        <v>568</v>
+        <v>187</v>
       </c>
     </row>
     <row r="88">
@@ -5905,38 +5619,35 @@
         <v>20243468</v>
       </c>
       <c r="B88" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="C88" t="s">
-        <v>65</v>
-      </c>
-      <c r="D88" t="s">
-        <v>570</v>
-      </c>
-      <c r="E88"/>
+        <v>63</v>
+      </c>
+      <c r="D88"/>
+      <c r="E88" t="s">
+        <v>562</v>
+      </c>
       <c r="F88" t="s">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="G88" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="H88" t="s">
-        <v>19</v>
+        <v>564</v>
       </c>
       <c r="I88" t="s">
-        <v>572</v>
+        <v>177</v>
       </c>
       <c r="J88" t="s">
-        <v>184</v>
+        <v>565</v>
       </c>
       <c r="K88" t="s">
-        <v>22</v>
+        <v>566</v>
       </c>
       <c r="L88" t="s">
-        <v>573</v>
-      </c>
-      <c r="M88" t="s">
-        <v>574</v>
+        <v>187</v>
       </c>
     </row>
     <row r="89">
@@ -5944,38 +5655,35 @@
         <v>20243467</v>
       </c>
       <c r="B89" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
-      </c>
-      <c r="D89" t="s">
-        <v>576</v>
-      </c>
-      <c r="E89"/>
+        <v>13</v>
+      </c>
+      <c r="D89"/>
+      <c r="E89" t="s">
+        <v>568</v>
+      </c>
       <c r="F89" t="s">
+        <v>26</v>
+      </c>
+      <c r="G89" t="s">
+        <v>569</v>
+      </c>
+      <c r="H89" t="s">
+        <v>570</v>
+      </c>
+      <c r="I89" t="s">
         <v>44</v>
       </c>
-      <c r="G89" t="s">
-        <v>577</v>
-      </c>
-      <c r="H89" t="s">
-        <v>29</v>
-      </c>
-      <c r="I89" t="s">
-        <v>578</v>
-      </c>
       <c r="J89" t="s">
-        <v>47</v>
+        <v>571</v>
       </c>
       <c r="K89" t="s">
-        <v>48</v>
+        <v>572</v>
       </c>
       <c r="L89" t="s">
-        <v>579</v>
-      </c>
-      <c r="M89" t="s">
-        <v>580</v>
+        <v>187</v>
       </c>
     </row>
     <row r="90">
@@ -5983,40 +5691,37 @@
         <v>20243318</v>
       </c>
       <c r="B90" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="C90" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D90" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="E90" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F90" t="s">
+        <v>16</v>
+      </c>
+      <c r="G90" t="s">
+        <v>576</v>
+      </c>
+      <c r="H90" t="s">
+        <v>577</v>
+      </c>
+      <c r="I90" t="s">
         <v>68</v>
       </c>
-      <c r="G90" t="s">
-        <v>584</v>
-      </c>
-      <c r="H90" t="s">
-        <v>19</v>
-      </c>
-      <c r="I90" t="s">
-        <v>585</v>
-      </c>
       <c r="J90" t="s">
-        <v>71</v>
+        <v>578</v>
       </c>
       <c r="K90" t="s">
-        <v>22</v>
+        <v>579</v>
       </c>
       <c r="L90" t="s">
-        <v>586</v>
-      </c>
-      <c r="M90" t="s">
-        <v>587</v>
+        <v>187</v>
       </c>
     </row>
     <row r="91">
@@ -6024,40 +5729,37 @@
         <v>20243234</v>
       </c>
       <c r="B91" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D91" t="s">
-        <v>589</v>
+        <v>288</v>
       </c>
       <c r="E91" t="s">
-        <v>296</v>
+        <v>581</v>
       </c>
       <c r="F91" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" t="s">
+        <v>582</v>
+      </c>
+      <c r="H91" t="s">
+        <v>583</v>
+      </c>
+      <c r="I91" t="s">
         <v>44</v>
       </c>
-      <c r="G91" t="s">
-        <v>590</v>
-      </c>
-      <c r="H91" t="s">
-        <v>19</v>
-      </c>
-      <c r="I91" t="s">
-        <v>591</v>
-      </c>
       <c r="J91" t="s">
-        <v>47</v>
+        <v>584</v>
       </c>
       <c r="K91" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="L91" t="s">
-        <v>592</v>
-      </c>
-      <c r="M91" t="s">
-        <v>593</v>
+        <v>187</v>
       </c>
     </row>
     <row r="92">
@@ -6065,40 +5767,37 @@
         <v>20243259</v>
       </c>
       <c r="B92" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="C92" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D92" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="E92" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="F92" t="s">
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>588</v>
+      </c>
+      <c r="H92" t="s">
+        <v>589</v>
+      </c>
+      <c r="I92" t="s">
         <v>44</v>
       </c>
-      <c r="G92" t="s">
+      <c r="J92" t="s">
         <v>590</v>
       </c>
-      <c r="H92" t="s">
-        <v>19</v>
-      </c>
-      <c r="I92" t="s">
-        <v>597</v>
-      </c>
-      <c r="J92" t="s">
-        <v>47</v>
-      </c>
       <c r="K92" t="s">
-        <v>22</v>
+        <v>591</v>
       </c>
       <c r="L92" t="s">
-        <v>598</v>
-      </c>
-      <c r="M92" t="s">
-        <v>599</v>
+        <v>187</v>
       </c>
     </row>
     <row r="93">
@@ -6106,40 +5805,37 @@
         <v>20243169</v>
       </c>
       <c r="B93" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D93" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="E93" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="F93" t="s">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>595</v>
+      </c>
+      <c r="H93" t="s">
+        <v>596</v>
+      </c>
+      <c r="I93" t="s">
         <v>44</v>
       </c>
-      <c r="G93" t="s">
-        <v>603</v>
-      </c>
-      <c r="H93" t="s">
-        <v>19</v>
-      </c>
-      <c r="I93" t="s">
-        <v>604</v>
-      </c>
       <c r="J93" t="s">
-        <v>47</v>
+        <v>597</v>
       </c>
       <c r="K93" t="s">
-        <v>22</v>
+        <v>598</v>
       </c>
       <c r="L93" t="s">
-        <v>605</v>
-      </c>
-      <c r="M93" t="s">
-        <v>606</v>
+        <v>187</v>
       </c>
     </row>
     <row r="94">
@@ -6147,40 +5843,37 @@
         <v>20243077</v>
       </c>
       <c r="B94" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="C94" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" t="s">
         <v>14</v>
       </c>
-      <c r="D94" t="s">
-        <v>608</v>
-      </c>
       <c r="E94" t="s">
-        <v>16</v>
+        <v>600</v>
       </c>
       <c r="F94" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>601</v>
+      </c>
+      <c r="H94" t="s">
+        <v>602</v>
+      </c>
+      <c r="I94" t="s">
         <v>68</v>
       </c>
-      <c r="G94" t="s">
-        <v>609</v>
-      </c>
-      <c r="H94" t="s">
-        <v>19</v>
-      </c>
-      <c r="I94" t="s">
-        <v>610</v>
-      </c>
       <c r="J94" t="s">
-        <v>71</v>
+        <v>603</v>
       </c>
       <c r="K94" t="s">
-        <v>48</v>
+        <v>604</v>
       </c>
       <c r="L94" t="s">
-        <v>611</v>
-      </c>
-      <c r="M94" t="s">
-        <v>612</v>
+        <v>187</v>
       </c>
     </row>
     <row r="95">
@@ -6188,40 +5881,37 @@
         <v>20247112</v>
       </c>
       <c r="B95" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="C95" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D95" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="E95" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="F95" t="s">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
+        <v>608</v>
+      </c>
+      <c r="H95" t="s">
+        <v>609</v>
+      </c>
+      <c r="I95" t="s">
         <v>44</v>
       </c>
-      <c r="G95" t="s">
-        <v>616</v>
-      </c>
-      <c r="H95" t="s">
-        <v>19</v>
-      </c>
-      <c r="I95" t="s">
-        <v>617</v>
-      </c>
       <c r="J95" t="s">
-        <v>47</v>
+        <v>610</v>
       </c>
       <c r="K95" t="s">
-        <v>22</v>
+        <v>611</v>
       </c>
       <c r="L95" t="s">
-        <v>618</v>
-      </c>
-      <c r="M95" t="s">
-        <v>619</v>
+        <v>187</v>
       </c>
     </row>
     <row r="96">
@@ -6229,40 +5919,37 @@
         <v>20247015</v>
       </c>
       <c r="B96" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="C96" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D96" t="s">
-        <v>621</v>
+        <v>257</v>
       </c>
       <c r="E96" t="s">
-        <v>265</v>
+        <v>613</v>
       </c>
       <c r="F96" t="s">
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>614</v>
+      </c>
+      <c r="H96" t="s">
+        <v>615</v>
+      </c>
+      <c r="I96" t="s">
         <v>44</v>
       </c>
-      <c r="G96" t="s">
-        <v>622</v>
-      </c>
-      <c r="H96" t="s">
-        <v>19</v>
-      </c>
-      <c r="I96" t="s">
-        <v>623</v>
-      </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>616</v>
       </c>
       <c r="K96" t="s">
-        <v>22</v>
+        <v>617</v>
       </c>
       <c r="L96" t="s">
-        <v>624</v>
-      </c>
-      <c r="M96" t="s">
-        <v>625</v>
+        <v>187</v>
       </c>
     </row>
     <row r="97">
@@ -6270,40 +5957,37 @@
         <v>20234494</v>
       </c>
       <c r="B97" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="C97" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D97" t="s">
-        <v>627</v>
+        <v>130</v>
       </c>
       <c r="E97" t="s">
-        <v>136</v>
+        <v>619</v>
       </c>
       <c r="F97" t="s">
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
+        <v>620</v>
+      </c>
+      <c r="H97" t="s">
+        <v>621</v>
+      </c>
+      <c r="I97" t="s">
         <v>44</v>
       </c>
-      <c r="G97" t="s">
-        <v>628</v>
-      </c>
-      <c r="H97" t="s">
-        <v>19</v>
-      </c>
-      <c r="I97" t="s">
-        <v>629</v>
-      </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>622</v>
       </c>
       <c r="K97" t="s">
-        <v>22</v>
+        <v>623</v>
       </c>
       <c r="L97" t="s">
-        <v>630</v>
-      </c>
-      <c r="M97" t="s">
-        <v>631</v>
+        <v>187</v>
       </c>
     </row>
     <row r="98">
@@ -6311,40 +5995,37 @@
         <v>20234461</v>
       </c>
       <c r="B98" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="C98" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D98" t="s">
-        <v>633</v>
+        <v>92</v>
       </c>
       <c r="E98" t="s">
-        <v>97</v>
+        <v>625</v>
       </c>
       <c r="F98" t="s">
+        <v>16</v>
+      </c>
+      <c r="G98" t="s">
+        <v>626</v>
+      </c>
+      <c r="H98" t="s">
+        <v>627</v>
+      </c>
+      <c r="I98" t="s">
         <v>44</v>
       </c>
-      <c r="G98" t="s">
-        <v>634</v>
-      </c>
-      <c r="H98" t="s">
-        <v>19</v>
-      </c>
-      <c r="I98" t="s">
-        <v>635</v>
-      </c>
       <c r="J98" t="s">
-        <v>47</v>
+        <v>628</v>
       </c>
       <c r="K98" t="s">
-        <v>22</v>
+        <v>629</v>
       </c>
       <c r="L98" t="s">
-        <v>636</v>
-      </c>
-      <c r="M98" t="s">
-        <v>637</v>
+        <v>187</v>
       </c>
     </row>
     <row r="99">
@@ -6352,40 +6033,37 @@
         <v>20234375</v>
       </c>
       <c r="B99" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C99" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D99" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="E99" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="F99" t="s">
+        <v>16</v>
+      </c>
+      <c r="G99" t="s">
+        <v>633</v>
+      </c>
+      <c r="H99" t="s">
+        <v>634</v>
+      </c>
+      <c r="I99" t="s">
         <v>44</v>
       </c>
-      <c r="G99" t="s">
-        <v>641</v>
-      </c>
-      <c r="H99" t="s">
-        <v>19</v>
-      </c>
-      <c r="I99" t="s">
-        <v>642</v>
-      </c>
       <c r="J99" t="s">
-        <v>47</v>
+        <v>635</v>
       </c>
       <c r="K99" t="s">
-        <v>22</v>
+        <v>636</v>
       </c>
       <c r="L99" t="s">
-        <v>643</v>
-      </c>
-      <c r="M99" t="s">
-        <v>644</v>
+        <v>187</v>
       </c>
     </row>
     <row r="100">
@@ -6393,40 +6071,37 @@
         <v>20234353</v>
       </c>
       <c r="B100" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="C100" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D100" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="E100" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="F100" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" t="s">
+        <v>640</v>
+      </c>
+      <c r="H100" t="s">
+        <v>641</v>
+      </c>
+      <c r="I100" t="s">
         <v>44</v>
       </c>
-      <c r="G100" t="s">
-        <v>648</v>
-      </c>
-      <c r="H100" t="s">
-        <v>19</v>
-      </c>
-      <c r="I100" t="s">
-        <v>649</v>
-      </c>
       <c r="J100" t="s">
-        <v>47</v>
+        <v>642</v>
       </c>
       <c r="K100" t="s">
-        <v>22</v>
+        <v>643</v>
       </c>
       <c r="L100" t="s">
-        <v>650</v>
-      </c>
-      <c r="M100" t="s">
-        <v>651</v>
+        <v>187</v>
       </c>
     </row>
     <row r="101">
@@ -6434,38 +6109,35 @@
         <v>20234346</v>
       </c>
       <c r="B101" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
-      </c>
-      <c r="D101" t="s">
-        <v>653</v>
-      </c>
-      <c r="E101"/>
+        <v>13</v>
+      </c>
+      <c r="D101"/>
+      <c r="E101" t="s">
+        <v>645</v>
+      </c>
       <c r="F101" t="s">
+        <v>26</v>
+      </c>
+      <c r="G101" t="s">
+        <v>646</v>
+      </c>
+      <c r="H101" t="s">
+        <v>647</v>
+      </c>
+      <c r="I101" t="s">
         <v>44</v>
       </c>
-      <c r="G101" t="s">
-        <v>654</v>
-      </c>
-      <c r="H101" t="s">
-        <v>29</v>
-      </c>
-      <c r="I101" t="s">
-        <v>655</v>
-      </c>
       <c r="J101" t="s">
-        <v>47</v>
+        <v>648</v>
       </c>
       <c r="K101" t="s">
-        <v>48</v>
+        <v>649</v>
       </c>
       <c r="L101" t="s">
-        <v>656</v>
-      </c>
-      <c r="M101" t="s">
-        <v>657</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/Objets_parlementaires_CDF_EFK.xlsx
+++ b/Objets_parlementaires_CDF_EFK.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="649">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -573,9 +573,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">À recalculer</t>
   </si>
   <si>
     <t xml:space="preserve">25.3845</t>
@@ -3299,7 +3296,7 @@
         <v>186</v>
       </c>
       <c r="L26" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
@@ -3307,7 +3304,7 @@
         <v>20253845</v>
       </c>
       <c r="B27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C27" t="s">
         <v>32</v>
@@ -3322,22 +3319,22 @@
         <v>16</v>
       </c>
       <c r="G27" t="s">
+        <v>188</v>
+      </c>
+      <c r="H27" t="s">
         <v>189</v>
-      </c>
-      <c r="H27" t="s">
-        <v>190</v>
       </c>
       <c r="I27" t="s">
         <v>68</v>
       </c>
       <c r="J27" t="s">
+        <v>190</v>
+      </c>
+      <c r="K27" t="s">
         <v>191</v>
       </c>
-      <c r="K27" t="s">
-        <v>192</v>
-      </c>
       <c r="L27" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28">
@@ -3345,13 +3342,13 @@
         <v>20253855</v>
       </c>
       <c r="B28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E28" t="s">
         <v>182</v>
@@ -3369,13 +3366,13 @@
         <v>145</v>
       </c>
       <c r="J28" t="s">
+        <v>194</v>
+      </c>
+      <c r="K28" t="s">
         <v>195</v>
       </c>
-      <c r="K28" t="s">
-        <v>196</v>
-      </c>
       <c r="L28" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
@@ -3383,13 +3380,13 @@
         <v>20253880</v>
       </c>
       <c r="B29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C29" t="s">
         <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E29" t="s">
         <v>182</v>
@@ -3398,22 +3395,22 @@
         <v>16</v>
       </c>
       <c r="G29" t="s">
+        <v>198</v>
+      </c>
+      <c r="H29" t="s">
         <v>199</v>
-      </c>
-      <c r="H29" t="s">
-        <v>200</v>
       </c>
       <c r="I29" t="s">
         <v>68</v>
       </c>
       <c r="J29" t="s">
+        <v>200</v>
+      </c>
+      <c r="K29" t="s">
         <v>201</v>
       </c>
-      <c r="K29" t="s">
-        <v>202</v>
-      </c>
       <c r="L29" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30">
@@ -3421,13 +3418,13 @@
         <v>20253892</v>
       </c>
       <c r="B30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E30" t="s">
         <v>182</v>
@@ -3436,22 +3433,22 @@
         <v>16</v>
       </c>
       <c r="G30" t="s">
+        <v>204</v>
+      </c>
+      <c r="H30" t="s">
         <v>205</v>
-      </c>
-      <c r="H30" t="s">
-        <v>206</v>
       </c>
       <c r="I30" t="s">
         <v>68</v>
       </c>
       <c r="J30" t="s">
+        <v>206</v>
+      </c>
+      <c r="K30" t="s">
         <v>207</v>
       </c>
-      <c r="K30" t="s">
-        <v>208</v>
-      </c>
       <c r="L30" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31">
@@ -3459,13 +3456,13 @@
         <v>20253893</v>
       </c>
       <c r="B31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31" t="s">
         <v>63</v>
       </c>
       <c r="D31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E31" t="s">
         <v>182</v>
@@ -3474,22 +3471,22 @@
         <v>16</v>
       </c>
       <c r="G31" t="s">
+        <v>210</v>
+      </c>
+      <c r="H31" t="s">
         <v>211</v>
-      </c>
-      <c r="H31" t="s">
-        <v>212</v>
       </c>
       <c r="I31" t="s">
         <v>68</v>
       </c>
       <c r="J31" t="s">
+        <v>212</v>
+      </c>
+      <c r="K31" t="s">
         <v>213</v>
       </c>
-      <c r="K31" t="s">
-        <v>214</v>
-      </c>
       <c r="L31" t="s">
-        <v>187</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32">
@@ -3497,37 +3494,37 @@
         <v>20253730</v>
       </c>
       <c r="B32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
       </c>
       <c r="D32" t="s">
+        <v>215</v>
+      </c>
+      <c r="E32" t="s">
         <v>216</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
         <v>217</v>
       </c>
-      <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>218</v>
-      </c>
-      <c r="H32" t="s">
-        <v>219</v>
       </c>
       <c r="I32" t="s">
         <v>68</v>
       </c>
       <c r="J32" t="s">
+        <v>219</v>
+      </c>
+      <c r="K32" t="s">
         <v>220</v>
       </c>
-      <c r="K32" t="s">
-        <v>221</v>
-      </c>
       <c r="L32" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33">
@@ -3535,37 +3532,37 @@
         <v>20253630</v>
       </c>
       <c r="B33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C33" t="s">
         <v>32</v>
       </c>
       <c r="D33" t="s">
+        <v>222</v>
+      </c>
+      <c r="E33" t="s">
         <v>223</v>
-      </c>
-      <c r="E33" t="s">
-        <v>224</v>
       </c>
       <c r="F33" t="s">
         <v>26</v>
       </c>
       <c r="G33" t="s">
+        <v>224</v>
+      </c>
+      <c r="H33" t="s">
         <v>225</v>
-      </c>
-      <c r="H33" t="s">
-        <v>226</v>
       </c>
       <c r="I33" t="s">
         <v>44</v>
       </c>
       <c r="J33" t="s">
+        <v>226</v>
+      </c>
+      <c r="K33" t="s">
         <v>227</v>
       </c>
-      <c r="K33" t="s">
-        <v>228</v>
-      </c>
       <c r="L33" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34">
@@ -3573,37 +3570,37 @@
         <v>20253637</v>
       </c>
       <c r="B34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F34" t="s">
         <v>26</v>
       </c>
       <c r="G34" t="s">
+        <v>230</v>
+      </c>
+      <c r="H34" t="s">
         <v>231</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>232</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>233</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>234</v>
       </c>
-      <c r="K34" t="s">
-        <v>235</v>
-      </c>
       <c r="L34" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35">
@@ -3611,37 +3608,37 @@
         <v>20257355</v>
       </c>
       <c r="B35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C35" t="s">
         <v>39</v>
       </c>
       <c r="D35" t="s">
+        <v>236</v>
+      </c>
+      <c r="E35" t="s">
         <v>237</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
         <v>238</v>
       </c>
-      <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>239</v>
-      </c>
-      <c r="H35" t="s">
-        <v>240</v>
       </c>
       <c r="I35" t="s">
         <v>44</v>
       </c>
       <c r="J35" t="s">
+        <v>240</v>
+      </c>
+      <c r="K35" t="s">
         <v>241</v>
       </c>
-      <c r="K35" t="s">
-        <v>242</v>
-      </c>
       <c r="L35" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36">
@@ -3649,37 +3646,37 @@
         <v>20257419</v>
       </c>
       <c r="B36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C36" t="s">
         <v>39</v>
       </c>
       <c r="D36" t="s">
+        <v>243</v>
+      </c>
+      <c r="E36" t="s">
+        <v>237</v>
+      </c>
+      <c r="F36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
         <v>244</v>
       </c>
-      <c r="E36" t="s">
-        <v>238</v>
-      </c>
-      <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>245</v>
-      </c>
-      <c r="H36" t="s">
-        <v>246</v>
       </c>
       <c r="I36" t="s">
         <v>44</v>
       </c>
       <c r="J36" t="s">
+        <v>246</v>
+      </c>
+      <c r="K36" t="s">
         <v>247</v>
       </c>
-      <c r="K36" t="s">
-        <v>248</v>
-      </c>
       <c r="L36" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37">
@@ -3687,37 +3684,37 @@
         <v>20253479</v>
       </c>
       <c r="B37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C37" t="s">
         <v>32</v>
       </c>
       <c r="D37" t="s">
+        <v>249</v>
+      </c>
+      <c r="E37" t="s">
         <v>250</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
         <v>251</v>
       </c>
-      <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>252</v>
-      </c>
-      <c r="H37" t="s">
-        <v>253</v>
       </c>
       <c r="I37" t="s">
         <v>68</v>
       </c>
       <c r="J37" t="s">
+        <v>253</v>
+      </c>
+      <c r="K37" t="s">
         <v>254</v>
       </c>
-      <c r="K37" t="s">
-        <v>255</v>
-      </c>
       <c r="L37" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38">
@@ -3725,37 +3722,37 @@
         <v>20253444</v>
       </c>
       <c r="B38" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C38" t="s">
         <v>13</v>
       </c>
       <c r="D38" t="s">
+        <v>256</v>
+      </c>
+      <c r="E38" t="s">
         <v>257</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
         <v>258</v>
       </c>
-      <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>259</v>
-      </c>
-      <c r="H38" t="s">
-        <v>260</v>
       </c>
       <c r="I38" t="s">
         <v>68</v>
       </c>
       <c r="J38" t="s">
+        <v>260</v>
+      </c>
+      <c r="K38" t="s">
         <v>261</v>
       </c>
-      <c r="K38" t="s">
-        <v>262</v>
-      </c>
       <c r="L38" t="s">
-        <v>187</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39">
@@ -3763,35 +3760,35 @@
         <v>20253425</v>
       </c>
       <c r="B39" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C39" t="s">
         <v>13</v>
       </c>
       <c r="D39"/>
       <c r="E39" t="s">
+        <v>263</v>
+      </c>
+      <c r="F39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
         <v>264</v>
       </c>
-      <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>265</v>
-      </c>
-      <c r="H39" t="s">
-        <v>266</v>
       </c>
       <c r="I39" t="s">
         <v>68</v>
       </c>
       <c r="J39" t="s">
+        <v>266</v>
+      </c>
+      <c r="K39" t="s">
         <v>267</v>
       </c>
-      <c r="K39" t="s">
-        <v>268</v>
-      </c>
       <c r="L39" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40">
@@ -3799,7 +3796,7 @@
         <v>20253309</v>
       </c>
       <c r="B40" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
@@ -3808,28 +3805,28 @@
         <v>124</v>
       </c>
       <c r="E40" t="s">
+        <v>269</v>
+      </c>
+      <c r="F40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
         <v>270</v>
       </c>
-      <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>271</v>
-      </c>
-      <c r="H40" t="s">
-        <v>272</v>
       </c>
       <c r="I40" t="s">
         <v>68</v>
       </c>
       <c r="J40" t="s">
+        <v>272</v>
+      </c>
+      <c r="K40" t="s">
         <v>273</v>
       </c>
-      <c r="K40" t="s">
-        <v>274</v>
-      </c>
       <c r="L40" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41">
@@ -3837,37 +3834,37 @@
         <v>20253399</v>
       </c>
       <c r="B41" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C41" t="s">
         <v>32</v>
       </c>
       <c r="D41" t="s">
+        <v>275</v>
+      </c>
+      <c r="E41" t="s">
+        <v>269</v>
+      </c>
+      <c r="F41" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
         <v>276</v>
       </c>
-      <c r="E41" t="s">
-        <v>270</v>
-      </c>
-      <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>277</v>
-      </c>
-      <c r="H41" t="s">
-        <v>278</v>
       </c>
       <c r="I41" t="s">
         <v>68</v>
       </c>
       <c r="J41" t="s">
+        <v>278</v>
+      </c>
+      <c r="K41" t="s">
         <v>279</v>
       </c>
-      <c r="K41" t="s">
-        <v>280</v>
-      </c>
       <c r="L41" t="s">
-        <v>187</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42">
@@ -3875,37 +3872,37 @@
         <v>20253404</v>
       </c>
       <c r="B42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C42" t="s">
         <v>13</v>
       </c>
       <c r="D42" t="s">
+        <v>281</v>
+      </c>
+      <c r="E42" t="s">
+        <v>269</v>
+      </c>
+      <c r="F42" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
         <v>282</v>
       </c>
-      <c r="E42" t="s">
-        <v>270</v>
-      </c>
-      <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>283</v>
-      </c>
-      <c r="H42" t="s">
-        <v>284</v>
       </c>
       <c r="I42" t="s">
         <v>68</v>
       </c>
       <c r="J42" t="s">
+        <v>284</v>
+      </c>
+      <c r="K42" t="s">
         <v>285</v>
       </c>
-      <c r="K42" t="s">
-        <v>286</v>
-      </c>
       <c r="L42" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43">
@@ -3913,37 +3910,37 @@
         <v>20253417</v>
       </c>
       <c r="B43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
       </c>
       <c r="D43" t="s">
+        <v>287</v>
+      </c>
+      <c r="E43" t="s">
+        <v>269</v>
+      </c>
+      <c r="F43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
         <v>288</v>
       </c>
-      <c r="E43" t="s">
-        <v>270</v>
-      </c>
-      <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>289</v>
-      </c>
-      <c r="H43" t="s">
-        <v>290</v>
       </c>
       <c r="I43" t="s">
         <v>68</v>
       </c>
       <c r="J43" t="s">
+        <v>290</v>
+      </c>
+      <c r="K43" t="s">
         <v>291</v>
       </c>
-      <c r="K43" t="s">
-        <v>292</v>
-      </c>
       <c r="L43" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44">
@@ -3951,37 +3948,37 @@
         <v>20251011</v>
       </c>
       <c r="B44" t="s">
+        <v>292</v>
+      </c>
+      <c r="C44" t="s">
         <v>293</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>294</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>295</v>
-      </c>
-      <c r="E44" t="s">
-        <v>296</v>
       </c>
       <c r="F44" t="s">
         <v>26</v>
       </c>
       <c r="G44" t="s">
+        <v>296</v>
+      </c>
+      <c r="H44" t="s">
         <v>297</v>
-      </c>
-      <c r="H44" t="s">
-        <v>298</v>
       </c>
       <c r="I44" t="s">
         <v>44</v>
       </c>
       <c r="J44" t="s">
+        <v>298</v>
+      </c>
+      <c r="K44" t="s">
         <v>299</v>
       </c>
-      <c r="K44" t="s">
-        <v>300</v>
-      </c>
       <c r="L44" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45">
@@ -3989,37 +3986,37 @@
         <v>20253194</v>
       </c>
       <c r="B45" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C45" t="s">
         <v>32</v>
       </c>
       <c r="D45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E45" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F45" t="s">
         <v>26</v>
       </c>
       <c r="G45" t="s">
+        <v>302</v>
+      </c>
+      <c r="H45" t="s">
         <v>303</v>
-      </c>
-      <c r="H45" t="s">
-        <v>304</v>
       </c>
       <c r="I45" t="s">
         <v>44</v>
       </c>
       <c r="J45" t="s">
+        <v>304</v>
+      </c>
+      <c r="K45" t="s">
         <v>305</v>
       </c>
-      <c r="K45" t="s">
-        <v>306</v>
-      </c>
       <c r="L45" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46">
@@ -4027,37 +4024,37 @@
         <v>20253203</v>
       </c>
       <c r="B46" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C46" t="s">
         <v>32</v>
       </c>
       <c r="D46" t="s">
+        <v>307</v>
+      </c>
+      <c r="E46" t="s">
+        <v>295</v>
+      </c>
+      <c r="F46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
         <v>308</v>
       </c>
-      <c r="E46" t="s">
-        <v>296</v>
-      </c>
-      <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>309</v>
-      </c>
-      <c r="H46" t="s">
-        <v>310</v>
       </c>
       <c r="I46" t="s">
         <v>44</v>
       </c>
       <c r="J46" t="s">
+        <v>310</v>
+      </c>
+      <c r="K46" t="s">
         <v>311</v>
       </c>
-      <c r="K46" t="s">
-        <v>312</v>
-      </c>
       <c r="L46" t="s">
-        <v>187</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47">
@@ -4065,37 +4062,37 @@
         <v>20253213</v>
       </c>
       <c r="B47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C47" t="s">
         <v>32</v>
       </c>
       <c r="D47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E47" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F47" t="s">
         <v>26</v>
       </c>
       <c r="G47" t="s">
+        <v>314</v>
+      </c>
+      <c r="H47" t="s">
         <v>315</v>
-      </c>
-      <c r="H47" t="s">
-        <v>316</v>
       </c>
       <c r="I47" t="s">
         <v>44</v>
       </c>
       <c r="J47" t="s">
+        <v>316</v>
+      </c>
+      <c r="K47" t="s">
         <v>317</v>
       </c>
-      <c r="K47" t="s">
-        <v>318</v>
-      </c>
       <c r="L47" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48">
@@ -4103,37 +4100,37 @@
         <v>20253214</v>
       </c>
       <c r="B48" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C48" t="s">
         <v>32</v>
       </c>
       <c r="D48" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E48" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F48" t="s">
         <v>16</v>
       </c>
       <c r="G48" t="s">
+        <v>319</v>
+      </c>
+      <c r="H48" t="s">
         <v>320</v>
-      </c>
-      <c r="H48" t="s">
-        <v>321</v>
       </c>
       <c r="I48" t="s">
         <v>44</v>
       </c>
       <c r="J48" t="s">
+        <v>321</v>
+      </c>
+      <c r="K48" t="s">
         <v>322</v>
       </c>
-      <c r="K48" t="s">
-        <v>323</v>
-      </c>
       <c r="L48" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49">
@@ -4141,37 +4138,37 @@
         <v>20253246</v>
       </c>
       <c r="B49" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C49" t="s">
         <v>13</v>
       </c>
       <c r="D49" t="s">
+        <v>324</v>
+      </c>
+      <c r="E49" t="s">
+        <v>295</v>
+      </c>
+      <c r="F49" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
         <v>325</v>
       </c>
-      <c r="E49" t="s">
-        <v>296</v>
-      </c>
-      <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>326</v>
-      </c>
-      <c r="H49" t="s">
-        <v>327</v>
       </c>
       <c r="I49" t="s">
         <v>145</v>
       </c>
       <c r="J49" t="s">
+        <v>327</v>
+      </c>
+      <c r="K49" t="s">
         <v>328</v>
       </c>
-      <c r="K49" t="s">
-        <v>329</v>
-      </c>
       <c r="L49" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50">
@@ -4179,37 +4176,37 @@
         <v>20253093</v>
       </c>
       <c r="B50" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C50" t="s">
         <v>32</v>
       </c>
       <c r="D50" t="s">
+        <v>330</v>
+      </c>
+      <c r="E50" t="s">
         <v>331</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
         <v>332</v>
       </c>
-      <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>333</v>
-      </c>
-      <c r="H50" t="s">
-        <v>334</v>
       </c>
       <c r="I50" t="s">
         <v>68</v>
       </c>
       <c r="J50" t="s">
+        <v>334</v>
+      </c>
+      <c r="K50" t="s">
         <v>335</v>
       </c>
-      <c r="K50" t="s">
-        <v>336</v>
-      </c>
       <c r="L50" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51">
@@ -4217,37 +4214,37 @@
         <v>20257213</v>
       </c>
       <c r="B51" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C51" t="s">
         <v>39</v>
       </c>
       <c r="D51" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E51" t="s">
+        <v>337</v>
+      </c>
+      <c r="F51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
         <v>338</v>
       </c>
-      <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>339</v>
-      </c>
-      <c r="H51" t="s">
-        <v>340</v>
       </c>
       <c r="I51" t="s">
         <v>44</v>
       </c>
       <c r="J51" t="s">
+        <v>340</v>
+      </c>
+      <c r="K51" t="s">
         <v>341</v>
       </c>
-      <c r="K51" t="s">
-        <v>342</v>
-      </c>
       <c r="L51" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52">
@@ -4255,37 +4252,37 @@
         <v>20253054</v>
       </c>
       <c r="B52" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C52" t="s">
         <v>13</v>
       </c>
       <c r="D52" t="s">
+        <v>343</v>
+      </c>
+      <c r="E52" t="s">
         <v>344</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
         <v>345</v>
       </c>
-      <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>346</v>
-      </c>
-      <c r="H52" t="s">
-        <v>347</v>
       </c>
       <c r="I52" t="s">
         <v>68</v>
       </c>
       <c r="J52" t="s">
+        <v>347</v>
+      </c>
+      <c r="K52" t="s">
         <v>348</v>
       </c>
-      <c r="K52" t="s">
-        <v>349</v>
-      </c>
       <c r="L52" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53">
@@ -4293,7 +4290,7 @@
         <v>20257102</v>
       </c>
       <c r="B53" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C53" t="s">
         <v>39</v>
@@ -4302,28 +4299,28 @@
         <v>111</v>
       </c>
       <c r="E53" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F53" t="s">
         <v>16</v>
       </c>
       <c r="G53" t="s">
+        <v>350</v>
+      </c>
+      <c r="H53" t="s">
         <v>351</v>
-      </c>
-      <c r="H53" t="s">
-        <v>352</v>
       </c>
       <c r="I53" t="s">
         <v>44</v>
       </c>
       <c r="J53" t="s">
+        <v>352</v>
+      </c>
+      <c r="K53" t="s">
         <v>353</v>
       </c>
-      <c r="K53" t="s">
-        <v>354</v>
-      </c>
       <c r="L53" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54">
@@ -4331,37 +4328,37 @@
         <v>20257129</v>
       </c>
       <c r="B54" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C54" t="s">
         <v>39</v>
       </c>
       <c r="D54" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F54" t="s">
         <v>16</v>
       </c>
       <c r="G54" t="s">
+        <v>355</v>
+      </c>
+      <c r="H54" t="s">
         <v>356</v>
-      </c>
-      <c r="H54" t="s">
-        <v>357</v>
       </c>
       <c r="I54" t="s">
         <v>44</v>
       </c>
       <c r="J54" t="s">
+        <v>357</v>
+      </c>
+      <c r="K54" t="s">
         <v>358</v>
       </c>
-      <c r="K54" t="s">
-        <v>359</v>
-      </c>
       <c r="L54" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55">
@@ -4369,37 +4366,37 @@
         <v>20257138</v>
       </c>
       <c r="B55" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C55" t="s">
         <v>39</v>
       </c>
       <c r="D55" t="s">
+        <v>360</v>
+      </c>
+      <c r="E55" t="s">
+        <v>344</v>
+      </c>
+      <c r="F55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
         <v>361</v>
       </c>
-      <c r="E55" t="s">
-        <v>345</v>
-      </c>
-      <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>362</v>
-      </c>
-      <c r="H55" t="s">
-        <v>363</v>
       </c>
       <c r="I55" t="s">
         <v>44</v>
       </c>
       <c r="J55" t="s">
+        <v>363</v>
+      </c>
+      <c r="K55" t="s">
         <v>364</v>
       </c>
-      <c r="K55" t="s">
-        <v>365</v>
-      </c>
       <c r="L55" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56">
@@ -4407,37 +4404,37 @@
         <v>20253031</v>
       </c>
       <c r="B56" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C56" t="s">
         <v>32</v>
       </c>
       <c r="D56" t="s">
+        <v>366</v>
+      </c>
+      <c r="E56" t="s">
         <v>367</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
         <v>368</v>
       </c>
-      <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>369</v>
-      </c>
-      <c r="H56" t="s">
-        <v>370</v>
       </c>
       <c r="I56" t="s">
         <v>68</v>
       </c>
       <c r="J56" t="s">
+        <v>370</v>
+      </c>
+      <c r="K56" t="s">
         <v>371</v>
       </c>
-      <c r="K56" t="s">
-        <v>372</v>
-      </c>
       <c r="L56" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57">
@@ -4445,37 +4442,37 @@
         <v>20257012</v>
       </c>
       <c r="B57" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C57" t="s">
         <v>39</v>
       </c>
       <c r="D57" t="s">
+        <v>373</v>
+      </c>
+      <c r="E57" t="s">
+        <v>367</v>
+      </c>
+      <c r="F57" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
         <v>374</v>
       </c>
-      <c r="E57" t="s">
-        <v>368</v>
-      </c>
-      <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>375</v>
-      </c>
-      <c r="H57" t="s">
-        <v>376</v>
       </c>
       <c r="I57" t="s">
         <v>44</v>
       </c>
       <c r="J57" t="s">
+        <v>376</v>
+      </c>
+      <c r="K57" t="s">
         <v>377</v>
       </c>
-      <c r="K57" t="s">
-        <v>378</v>
-      </c>
       <c r="L57" t="s">
-        <v>187</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58">
@@ -4483,35 +4480,35 @@
         <v>20253008</v>
       </c>
       <c r="B58" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C58" t="s">
         <v>13</v>
       </c>
       <c r="D58"/>
       <c r="E58" t="s">
+        <v>379</v>
+      </c>
+      <c r="F58" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
         <v>380</v>
       </c>
-      <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>381</v>
-      </c>
-      <c r="H58" t="s">
-        <v>382</v>
       </c>
       <c r="I58" t="s">
         <v>44</v>
       </c>
       <c r="J58" t="s">
+        <v>382</v>
+      </c>
+      <c r="K58" t="s">
         <v>383</v>
       </c>
-      <c r="K58" t="s">
-        <v>384</v>
-      </c>
       <c r="L58" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59">
@@ -4519,37 +4516,37 @@
         <v>20244404</v>
       </c>
       <c r="B59" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C59" t="s">
         <v>32</v>
       </c>
       <c r="D59" t="s">
+        <v>385</v>
+      </c>
+      <c r="E59" t="s">
         <v>386</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
         <v>387</v>
       </c>
-      <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>388</v>
-      </c>
-      <c r="H59" t="s">
-        <v>389</v>
       </c>
       <c r="I59" t="s">
         <v>44</v>
       </c>
       <c r="J59" t="s">
+        <v>389</v>
+      </c>
+      <c r="K59" t="s">
         <v>390</v>
       </c>
-      <c r="K59" t="s">
-        <v>391</v>
-      </c>
       <c r="L59" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60">
@@ -4557,37 +4554,37 @@
         <v>20244419</v>
       </c>
       <c r="B60" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C60" t="s">
         <v>32</v>
       </c>
       <c r="D60" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E60" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F60" t="s">
         <v>26</v>
       </c>
       <c r="G60" t="s">
+        <v>392</v>
+      </c>
+      <c r="H60" t="s">
         <v>393</v>
-      </c>
-      <c r="H60" t="s">
-        <v>394</v>
       </c>
       <c r="I60" t="s">
         <v>44</v>
       </c>
       <c r="J60" t="s">
+        <v>394</v>
+      </c>
+      <c r="K60" t="s">
         <v>395</v>
       </c>
-      <c r="K60" t="s">
-        <v>396</v>
-      </c>
       <c r="L60" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61">
@@ -4595,37 +4592,37 @@
         <v>20247975</v>
       </c>
       <c r="B61" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C61" t="s">
         <v>39</v>
       </c>
       <c r="D61" t="s">
+        <v>397</v>
+      </c>
+      <c r="E61" t="s">
         <v>398</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
         <v>399</v>
       </c>
-      <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>400</v>
-      </c>
-      <c r="H61" t="s">
-        <v>401</v>
       </c>
       <c r="I61" t="s">
         <v>44</v>
       </c>
       <c r="J61" t="s">
+        <v>401</v>
+      </c>
+      <c r="K61" t="s">
         <v>402</v>
       </c>
-      <c r="K61" t="s">
-        <v>403</v>
-      </c>
       <c r="L61" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62">
@@ -4633,37 +4630,37 @@
         <v>20248043</v>
       </c>
       <c r="B62" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C62" t="s">
         <v>39</v>
       </c>
       <c r="D62" t="s">
+        <v>404</v>
+      </c>
+      <c r="E62" t="s">
+        <v>398</v>
+      </c>
+      <c r="F62" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
         <v>405</v>
       </c>
-      <c r="E62" t="s">
-        <v>399</v>
-      </c>
-      <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>406</v>
-      </c>
-      <c r="H62" t="s">
-        <v>407</v>
       </c>
       <c r="I62" t="s">
         <v>44</v>
       </c>
       <c r="J62" t="s">
+        <v>407</v>
+      </c>
+      <c r="K62" t="s">
         <v>408</v>
       </c>
-      <c r="K62" t="s">
-        <v>409</v>
-      </c>
       <c r="L62" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63">
@@ -4671,37 +4668,37 @@
         <v>20244290</v>
       </c>
       <c r="B63" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C63" t="s">
         <v>32</v>
       </c>
       <c r="D63" t="s">
+        <v>410</v>
+      </c>
+      <c r="E63" t="s">
         <v>411</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
         <v>412</v>
       </c>
-      <c r="F63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>413</v>
-      </c>
-      <c r="H63" t="s">
-        <v>414</v>
       </c>
       <c r="I63" t="s">
         <v>68</v>
       </c>
       <c r="J63" t="s">
+        <v>414</v>
+      </c>
+      <c r="K63" t="s">
         <v>415</v>
       </c>
-      <c r="K63" t="s">
-        <v>416</v>
-      </c>
       <c r="L63" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64">
@@ -4709,37 +4706,37 @@
         <v>20244278</v>
       </c>
       <c r="B64" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C64" t="s">
         <v>32</v>
       </c>
       <c r="D64" t="s">
+        <v>417</v>
+      </c>
+      <c r="E64" t="s">
         <v>418</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
         <v>419</v>
       </c>
-      <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>420</v>
-      </c>
-      <c r="H64" t="s">
-        <v>421</v>
       </c>
       <c r="I64" t="s">
         <v>68</v>
       </c>
       <c r="J64" t="s">
+        <v>421</v>
+      </c>
+      <c r="K64" t="s">
         <v>422</v>
       </c>
-      <c r="K64" t="s">
-        <v>423</v>
-      </c>
       <c r="L64" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65">
@@ -4747,37 +4744,37 @@
         <v>20244082</v>
       </c>
       <c r="B65" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C65" t="s">
         <v>32</v>
       </c>
       <c r="D65" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E65" t="s">
+        <v>424</v>
+      </c>
+      <c r="F65" t="s">
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
         <v>425</v>
       </c>
-      <c r="F65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>426</v>
-      </c>
-      <c r="H65" t="s">
-        <v>427</v>
       </c>
       <c r="I65" t="s">
         <v>68</v>
       </c>
       <c r="J65" t="s">
+        <v>427</v>
+      </c>
+      <c r="K65" t="s">
         <v>428</v>
       </c>
-      <c r="K65" t="s">
-        <v>429</v>
-      </c>
       <c r="L65" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66">
@@ -4785,37 +4782,37 @@
         <v>20244112</v>
       </c>
       <c r="B66" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C66" t="s">
         <v>32</v>
       </c>
       <c r="D66" t="s">
+        <v>430</v>
+      </c>
+      <c r="E66" t="s">
+        <v>424</v>
+      </c>
+      <c r="F66" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" t="s">
         <v>431</v>
       </c>
-      <c r="E66" t="s">
-        <v>425</v>
-      </c>
-      <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>432</v>
-      </c>
-      <c r="H66" t="s">
-        <v>433</v>
       </c>
       <c r="I66" t="s">
         <v>68</v>
       </c>
       <c r="J66" t="s">
+        <v>433</v>
+      </c>
+      <c r="K66" t="s">
         <v>434</v>
       </c>
-      <c r="K66" t="s">
-        <v>435</v>
-      </c>
       <c r="L66" t="s">
-        <v>187</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67">
@@ -4823,7 +4820,7 @@
         <v>20244131</v>
       </c>
       <c r="B67" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C67" t="s">
         <v>32</v>
@@ -4832,28 +4829,28 @@
         <v>49</v>
       </c>
       <c r="E67" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F67" t="s">
         <v>16</v>
       </c>
       <c r="G67" t="s">
+        <v>436</v>
+      </c>
+      <c r="H67" t="s">
         <v>437</v>
-      </c>
-      <c r="H67" t="s">
-        <v>438</v>
       </c>
       <c r="I67" t="s">
         <v>68</v>
       </c>
       <c r="J67" t="s">
+        <v>438</v>
+      </c>
+      <c r="K67" t="s">
         <v>439</v>
       </c>
-      <c r="K67" t="s">
-        <v>440</v>
-      </c>
       <c r="L67" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68">
@@ -4861,7 +4858,7 @@
         <v>20244132</v>
       </c>
       <c r="B68" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C68" t="s">
         <v>63</v>
@@ -4870,28 +4867,28 @@
         <v>124</v>
       </c>
       <c r="E68" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F68" t="s">
         <v>16</v>
       </c>
       <c r="G68" t="s">
+        <v>441</v>
+      </c>
+      <c r="H68" t="s">
         <v>442</v>
-      </c>
-      <c r="H68" t="s">
-        <v>443</v>
       </c>
       <c r="I68" t="s">
         <v>68</v>
       </c>
       <c r="J68" t="s">
+        <v>443</v>
+      </c>
+      <c r="K68" t="s">
         <v>444</v>
       </c>
-      <c r="K68" t="s">
-        <v>445</v>
-      </c>
       <c r="L68" t="s">
-        <v>187</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69">
@@ -4899,7 +4896,7 @@
         <v>20244133</v>
       </c>
       <c r="B69" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C69" t="s">
         <v>13</v>
@@ -4908,28 +4905,28 @@
         <v>124</v>
       </c>
       <c r="E69" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F69" t="s">
         <v>16</v>
       </c>
       <c r="G69" t="s">
+        <v>446</v>
+      </c>
+      <c r="H69" t="s">
         <v>447</v>
-      </c>
-      <c r="H69" t="s">
-        <v>448</v>
       </c>
       <c r="I69" t="s">
         <v>68</v>
       </c>
       <c r="J69" t="s">
+        <v>448</v>
+      </c>
+      <c r="K69" t="s">
         <v>449</v>
       </c>
-      <c r="K69" t="s">
-        <v>450</v>
-      </c>
       <c r="L69" t="s">
-        <v>187</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70">
@@ -4937,37 +4934,37 @@
         <v>20244137</v>
       </c>
       <c r="B70" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C70" t="s">
         <v>32</v>
       </c>
       <c r="D70" t="s">
+        <v>451</v>
+      </c>
+      <c r="E70" t="s">
+        <v>424</v>
+      </c>
+      <c r="F70" t="s">
+        <v>16</v>
+      </c>
+      <c r="G70" t="s">
         <v>452</v>
       </c>
-      <c r="E70" t="s">
-        <v>425</v>
-      </c>
-      <c r="F70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>453</v>
-      </c>
-      <c r="H70" t="s">
-        <v>454</v>
       </c>
       <c r="I70" t="s">
         <v>68</v>
       </c>
       <c r="J70" t="s">
+        <v>454</v>
+      </c>
+      <c r="K70" t="s">
         <v>455</v>
       </c>
-      <c r="K70" t="s">
-        <v>456</v>
-      </c>
       <c r="L70" t="s">
-        <v>187</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71">
@@ -4975,37 +4972,37 @@
         <v>20243937</v>
       </c>
       <c r="B71" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C71" t="s">
         <v>13</v>
       </c>
       <c r="D71" t="s">
+        <v>457</v>
+      </c>
+      <c r="E71" t="s">
         <v>458</v>
-      </c>
-      <c r="E71" t="s">
-        <v>459</v>
       </c>
       <c r="F71" t="s">
         <v>26</v>
       </c>
       <c r="G71" t="s">
+        <v>459</v>
+      </c>
+      <c r="H71" t="s">
         <v>460</v>
-      </c>
-      <c r="H71" t="s">
-        <v>461</v>
       </c>
       <c r="I71" t="s">
         <v>177</v>
       </c>
       <c r="J71" t="s">
+        <v>461</v>
+      </c>
+      <c r="K71" t="s">
         <v>462</v>
       </c>
-      <c r="K71" t="s">
-        <v>463</v>
-      </c>
       <c r="L71" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72">
@@ -5013,37 +5010,37 @@
         <v>20243948</v>
       </c>
       <c r="B72" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C72" t="s">
         <v>32</v>
       </c>
       <c r="D72" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E72" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F72" t="s">
         <v>26</v>
       </c>
       <c r="G72" t="s">
+        <v>465</v>
+      </c>
+      <c r="H72" t="s">
         <v>466</v>
-      </c>
-      <c r="H72" t="s">
-        <v>467</v>
       </c>
       <c r="I72" t="s">
         <v>44</v>
       </c>
       <c r="J72" t="s">
+        <v>467</v>
+      </c>
+      <c r="K72" t="s">
         <v>468</v>
       </c>
-      <c r="K72" t="s">
-        <v>469</v>
-      </c>
       <c r="L72" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73">
@@ -5051,37 +5048,37 @@
         <v>20247720</v>
       </c>
       <c r="B73" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C73" t="s">
         <v>39</v>
       </c>
       <c r="D73" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E73" t="s">
+        <v>470</v>
+      </c>
+      <c r="F73" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73" t="s">
         <v>471</v>
       </c>
-      <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>472</v>
-      </c>
-      <c r="H73" t="s">
-        <v>473</v>
       </c>
       <c r="I73" t="s">
         <v>44</v>
       </c>
       <c r="J73" t="s">
+        <v>473</v>
+      </c>
+      <c r="K73" t="s">
         <v>474</v>
       </c>
-      <c r="K73" t="s">
-        <v>475</v>
-      </c>
       <c r="L73" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74">
@@ -5089,37 +5086,37 @@
         <v>20247726</v>
       </c>
       <c r="B74" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C74" t="s">
         <v>39</v>
       </c>
       <c r="D74" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E74" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F74" t="s">
         <v>16</v>
       </c>
       <c r="G74" t="s">
+        <v>476</v>
+      </c>
+      <c r="H74" t="s">
         <v>477</v>
-      </c>
-      <c r="H74" t="s">
-        <v>478</v>
       </c>
       <c r="I74" t="s">
         <v>44</v>
       </c>
       <c r="J74" t="s">
+        <v>478</v>
+      </c>
+      <c r="K74" t="s">
         <v>479</v>
       </c>
-      <c r="K74" t="s">
-        <v>480</v>
-      </c>
       <c r="L74" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75">
@@ -5127,7 +5124,7 @@
         <v>20247773</v>
       </c>
       <c r="B75" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C75" t="s">
         <v>39</v>
@@ -5136,28 +5133,28 @@
         <v>118</v>
       </c>
       <c r="E75" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F75" t="s">
         <v>16</v>
       </c>
       <c r="G75" t="s">
+        <v>481</v>
+      </c>
+      <c r="H75" t="s">
         <v>482</v>
-      </c>
-      <c r="H75" t="s">
-        <v>483</v>
       </c>
       <c r="I75" t="s">
         <v>44</v>
       </c>
       <c r="J75" t="s">
+        <v>483</v>
+      </c>
+      <c r="K75" t="s">
         <v>484</v>
       </c>
-      <c r="K75" t="s">
-        <v>485</v>
-      </c>
       <c r="L75" t="s">
-        <v>187</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76">
@@ -5165,7 +5162,7 @@
         <v>20247774</v>
       </c>
       <c r="B76" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C76" t="s">
         <v>39</v>
@@ -5174,28 +5171,28 @@
         <v>118</v>
       </c>
       <c r="E76" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F76" t="s">
         <v>16</v>
       </c>
       <c r="G76" t="s">
+        <v>486</v>
+      </c>
+      <c r="H76" t="s">
         <v>487</v>
-      </c>
-      <c r="H76" t="s">
-        <v>488</v>
       </c>
       <c r="I76" t="s">
         <v>44</v>
       </c>
       <c r="J76" t="s">
+        <v>488</v>
+      </c>
+      <c r="K76" t="s">
         <v>489</v>
       </c>
-      <c r="K76" t="s">
-        <v>490</v>
-      </c>
       <c r="L76" t="s">
-        <v>187</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77">
@@ -5203,37 +5200,37 @@
         <v>20243858</v>
       </c>
       <c r="B77" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C77" t="s">
         <v>32</v>
       </c>
       <c r="D77" t="s">
+        <v>491</v>
+      </c>
+      <c r="E77" t="s">
         <v>492</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
         <v>493</v>
       </c>
-      <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>494</v>
-      </c>
-      <c r="H77" t="s">
-        <v>495</v>
       </c>
       <c r="I77" t="s">
         <v>68</v>
       </c>
       <c r="J77" t="s">
+        <v>495</v>
+      </c>
+      <c r="K77" t="s">
         <v>496</v>
       </c>
-      <c r="K77" t="s">
-        <v>497</v>
-      </c>
       <c r="L77" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78">
@@ -5241,37 +5238,37 @@
         <v>20243877</v>
       </c>
       <c r="B78" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C78" t="s">
         <v>32</v>
       </c>
       <c r="D78" t="s">
+        <v>498</v>
+      </c>
+      <c r="E78" t="s">
+        <v>492</v>
+      </c>
+      <c r="F78" t="s">
+        <v>16</v>
+      </c>
+      <c r="G78" t="s">
         <v>499</v>
       </c>
-      <c r="E78" t="s">
-        <v>493</v>
-      </c>
-      <c r="F78" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>500</v>
-      </c>
-      <c r="H78" t="s">
-        <v>501</v>
       </c>
       <c r="I78" t="s">
         <v>68</v>
       </c>
       <c r="J78" t="s">
+        <v>501</v>
+      </c>
+      <c r="K78" t="s">
         <v>502</v>
       </c>
-      <c r="K78" t="s">
-        <v>503</v>
-      </c>
       <c r="L78" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79">
@@ -5279,7 +5276,7 @@
         <v>20247622</v>
       </c>
       <c r="B79" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C79" t="s">
         <v>39</v>
@@ -5288,28 +5285,28 @@
         <v>49</v>
       </c>
       <c r="E79" t="s">
+        <v>504</v>
+      </c>
+      <c r="F79" t="s">
+        <v>16</v>
+      </c>
+      <c r="G79" t="s">
         <v>505</v>
       </c>
-      <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>506</v>
-      </c>
-      <c r="H79" t="s">
-        <v>507</v>
       </c>
       <c r="I79" t="s">
         <v>44</v>
       </c>
       <c r="J79" t="s">
+        <v>507</v>
+      </c>
+      <c r="K79" t="s">
         <v>508</v>
       </c>
-      <c r="K79" t="s">
-        <v>509</v>
-      </c>
       <c r="L79" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80">
@@ -5317,37 +5314,37 @@
         <v>20247649</v>
       </c>
       <c r="B80" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C80" t="s">
         <v>39</v>
       </c>
       <c r="D80" t="s">
+        <v>510</v>
+      </c>
+      <c r="E80" t="s">
+        <v>504</v>
+      </c>
+      <c r="F80" t="s">
+        <v>16</v>
+      </c>
+      <c r="G80" t="s">
         <v>511</v>
       </c>
-      <c r="E80" t="s">
-        <v>505</v>
-      </c>
-      <c r="F80" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>512</v>
-      </c>
-      <c r="H80" t="s">
-        <v>513</v>
       </c>
       <c r="I80" t="s">
         <v>44</v>
       </c>
       <c r="J80" t="s">
+        <v>513</v>
+      </c>
+      <c r="K80" t="s">
         <v>514</v>
       </c>
-      <c r="K80" t="s">
-        <v>515</v>
-      </c>
       <c r="L80" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81">
@@ -5355,37 +5352,37 @@
         <v>20243709</v>
       </c>
       <c r="B81" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C81" t="s">
         <v>32</v>
       </c>
       <c r="D81" t="s">
+        <v>516</v>
+      </c>
+      <c r="E81" t="s">
         <v>517</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
+        <v>16</v>
+      </c>
+      <c r="G81" t="s">
         <v>518</v>
       </c>
-      <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>519</v>
-      </c>
-      <c r="H81" t="s">
-        <v>520</v>
       </c>
       <c r="I81" t="s">
         <v>68</v>
       </c>
       <c r="J81" t="s">
+        <v>520</v>
+      </c>
+      <c r="K81" t="s">
         <v>521</v>
       </c>
-      <c r="K81" t="s">
-        <v>522</v>
-      </c>
       <c r="L81" t="s">
-        <v>187</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82">
@@ -5393,37 +5390,37 @@
         <v>20243773</v>
       </c>
       <c r="B82" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C82" t="s">
         <v>32</v>
       </c>
       <c r="D82" t="s">
+        <v>523</v>
+      </c>
+      <c r="E82" t="s">
+        <v>517</v>
+      </c>
+      <c r="F82" t="s">
+        <v>16</v>
+      </c>
+      <c r="G82" t="s">
         <v>524</v>
       </c>
-      <c r="E82" t="s">
-        <v>518</v>
-      </c>
-      <c r="F82" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>525</v>
-      </c>
-      <c r="H82" t="s">
-        <v>526</v>
       </c>
       <c r="I82" t="s">
         <v>68</v>
       </c>
       <c r="J82" t="s">
+        <v>526</v>
+      </c>
+      <c r="K82" t="s">
         <v>527</v>
       </c>
-      <c r="K82" t="s">
-        <v>528</v>
-      </c>
       <c r="L82" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
     </row>
     <row r="83">
@@ -5431,37 +5428,37 @@
         <v>20243776</v>
       </c>
       <c r="B83" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C83" t="s">
         <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E83" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F83" t="s">
         <v>16</v>
       </c>
       <c r="G83" t="s">
+        <v>529</v>
+      </c>
+      <c r="H83" t="s">
         <v>530</v>
-      </c>
-      <c r="H83" t="s">
-        <v>531</v>
       </c>
       <c r="I83" t="s">
         <v>44</v>
       </c>
       <c r="J83" t="s">
+        <v>531</v>
+      </c>
+      <c r="K83" t="s">
         <v>532</v>
       </c>
-      <c r="K83" t="s">
-        <v>533</v>
-      </c>
       <c r="L83" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84">
@@ -5469,37 +5466,37 @@
         <v>20243609</v>
       </c>
       <c r="B84" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
       </c>
       <c r="D84" t="s">
+        <v>534</v>
+      </c>
+      <c r="E84" t="s">
         <v>535</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
+        <v>16</v>
+      </c>
+      <c r="G84" t="s">
         <v>536</v>
       </c>
-      <c r="F84" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>537</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>538</v>
       </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
         <v>539</v>
       </c>
-      <c r="J84" t="s">
+      <c r="K84" t="s">
         <v>540</v>
       </c>
-      <c r="K84" t="s">
-        <v>541</v>
-      </c>
       <c r="L84" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85">
@@ -5507,37 +5504,37 @@
         <v>20243574</v>
       </c>
       <c r="B85" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C85" t="s">
         <v>32</v>
       </c>
       <c r="D85" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E85" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F85" t="s">
         <v>26</v>
       </c>
       <c r="G85" t="s">
+        <v>543</v>
+      </c>
+      <c r="H85" t="s">
         <v>544</v>
-      </c>
-      <c r="H85" t="s">
-        <v>545</v>
       </c>
       <c r="I85" t="s">
         <v>44</v>
       </c>
       <c r="J85" t="s">
+        <v>545</v>
+      </c>
+      <c r="K85" t="s">
         <v>546</v>
       </c>
-      <c r="K85" t="s">
-        <v>547</v>
-      </c>
       <c r="L85" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86">
@@ -5545,37 +5542,37 @@
         <v>20243557</v>
       </c>
       <c r="B86" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C86" t="s">
         <v>32</v>
       </c>
       <c r="D86" t="s">
+        <v>548</v>
+      </c>
+      <c r="E86" t="s">
         <v>549</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
+        <v>16</v>
+      </c>
+      <c r="G86" t="s">
         <v>550</v>
       </c>
-      <c r="F86" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>551</v>
-      </c>
-      <c r="H86" t="s">
-        <v>552</v>
       </c>
       <c r="I86" t="s">
         <v>44</v>
       </c>
       <c r="J86" t="s">
+        <v>552</v>
+      </c>
+      <c r="K86" t="s">
         <v>553</v>
       </c>
-      <c r="K86" t="s">
-        <v>554</v>
-      </c>
       <c r="L86" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87">
@@ -5583,35 +5580,35 @@
         <v>20243471</v>
       </c>
       <c r="B87" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C87" t="s">
         <v>13</v>
       </c>
       <c r="D87"/>
       <c r="E87" t="s">
+        <v>555</v>
+      </c>
+      <c r="F87" t="s">
+        <v>16</v>
+      </c>
+      <c r="G87" t="s">
         <v>556</v>
       </c>
-      <c r="F87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>557</v>
-      </c>
-      <c r="H87" t="s">
-        <v>558</v>
       </c>
       <c r="I87" t="s">
         <v>44</v>
       </c>
       <c r="J87" t="s">
+        <v>558</v>
+      </c>
+      <c r="K87" t="s">
         <v>559</v>
       </c>
-      <c r="K87" t="s">
-        <v>560</v>
-      </c>
       <c r="L87" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88">
@@ -5619,35 +5616,35 @@
         <v>20243468</v>
       </c>
       <c r="B88" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C88" t="s">
         <v>63</v>
       </c>
       <c r="D88"/>
       <c r="E88" t="s">
+        <v>561</v>
+      </c>
+      <c r="F88" t="s">
+        <v>16</v>
+      </c>
+      <c r="G88" t="s">
         <v>562</v>
       </c>
-      <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>563</v>
-      </c>
-      <c r="H88" t="s">
-        <v>564</v>
       </c>
       <c r="I88" t="s">
         <v>177</v>
       </c>
       <c r="J88" t="s">
+        <v>564</v>
+      </c>
+      <c r="K88" t="s">
         <v>565</v>
       </c>
-      <c r="K88" t="s">
-        <v>566</v>
-      </c>
       <c r="L88" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89">
@@ -5655,35 +5652,35 @@
         <v>20243467</v>
       </c>
       <c r="B89" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C89" t="s">
         <v>13</v>
       </c>
       <c r="D89"/>
       <c r="E89" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F89" t="s">
         <v>26</v>
       </c>
       <c r="G89" t="s">
+        <v>568</v>
+      </c>
+      <c r="H89" t="s">
         <v>569</v>
-      </c>
-      <c r="H89" t="s">
-        <v>570</v>
       </c>
       <c r="I89" t="s">
         <v>44</v>
       </c>
       <c r="J89" t="s">
+        <v>570</v>
+      </c>
+      <c r="K89" t="s">
         <v>571</v>
       </c>
-      <c r="K89" t="s">
-        <v>572</v>
-      </c>
       <c r="L89" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90">
@@ -5691,37 +5688,37 @@
         <v>20243318</v>
       </c>
       <c r="B90" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C90" t="s">
         <v>32</v>
       </c>
       <c r="D90" t="s">
+        <v>573</v>
+      </c>
+      <c r="E90" t="s">
         <v>574</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
+        <v>16</v>
+      </c>
+      <c r="G90" t="s">
         <v>575</v>
       </c>
-      <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>576</v>
-      </c>
-      <c r="H90" t="s">
-        <v>577</v>
       </c>
       <c r="I90" t="s">
         <v>68</v>
       </c>
       <c r="J90" t="s">
+        <v>577</v>
+      </c>
+      <c r="K90" t="s">
         <v>578</v>
       </c>
-      <c r="K90" t="s">
-        <v>579</v>
-      </c>
       <c r="L90" t="s">
-        <v>187</v>
+        <v>54</v>
       </c>
     </row>
     <row r="91">
@@ -5729,37 +5726,37 @@
         <v>20243234</v>
       </c>
       <c r="B91" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C91" t="s">
         <v>13</v>
       </c>
       <c r="D91" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E91" t="s">
+        <v>580</v>
+      </c>
+      <c r="F91" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" t="s">
         <v>581</v>
       </c>
-      <c r="F91" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>582</v>
-      </c>
-      <c r="H91" t="s">
-        <v>583</v>
       </c>
       <c r="I91" t="s">
         <v>44</v>
       </c>
       <c r="J91" t="s">
+        <v>583</v>
+      </c>
+      <c r="K91" t="s">
         <v>584</v>
       </c>
-      <c r="K91" t="s">
-        <v>585</v>
-      </c>
       <c r="L91" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
     </row>
     <row r="92">
@@ -5767,37 +5764,37 @@
         <v>20243259</v>
       </c>
       <c r="B92" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C92" t="s">
         <v>32</v>
       </c>
       <c r="D92" t="s">
+        <v>586</v>
+      </c>
+      <c r="E92" t="s">
+        <v>580</v>
+      </c>
+      <c r="F92" t="s">
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
         <v>587</v>
       </c>
-      <c r="E92" t="s">
-        <v>581</v>
-      </c>
-      <c r="F92" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>588</v>
-      </c>
-      <c r="H92" t="s">
-        <v>589</v>
       </c>
       <c r="I92" t="s">
         <v>44</v>
       </c>
       <c r="J92" t="s">
+        <v>589</v>
+      </c>
+      <c r="K92" t="s">
         <v>590</v>
       </c>
-      <c r="K92" t="s">
-        <v>591</v>
-      </c>
       <c r="L92" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
     </row>
     <row r="93">
@@ -5805,37 +5802,37 @@
         <v>20243169</v>
       </c>
       <c r="B93" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C93" t="s">
         <v>13</v>
       </c>
       <c r="D93" t="s">
+        <v>592</v>
+      </c>
+      <c r="E93" t="s">
         <v>593</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
         <v>594</v>
       </c>
-      <c r="F93" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>595</v>
-      </c>
-      <c r="H93" t="s">
-        <v>596</v>
       </c>
       <c r="I93" t="s">
         <v>44</v>
       </c>
       <c r="J93" t="s">
+        <v>596</v>
+      </c>
+      <c r="K93" t="s">
         <v>597</v>
       </c>
-      <c r="K93" t="s">
-        <v>598</v>
-      </c>
       <c r="L93" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
     </row>
     <row r="94">
@@ -5843,7 +5840,7 @@
         <v>20243077</v>
       </c>
       <c r="B94" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C94" t="s">
         <v>13</v>
@@ -5852,28 +5849,28 @@
         <v>14</v>
       </c>
       <c r="E94" t="s">
+        <v>599</v>
+      </c>
+      <c r="F94" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
         <v>600</v>
       </c>
-      <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>601</v>
-      </c>
-      <c r="H94" t="s">
-        <v>602</v>
       </c>
       <c r="I94" t="s">
         <v>68</v>
       </c>
       <c r="J94" t="s">
+        <v>602</v>
+      </c>
+      <c r="K94" t="s">
         <v>603</v>
       </c>
-      <c r="K94" t="s">
-        <v>604</v>
-      </c>
       <c r="L94" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95">
@@ -5881,37 +5878,37 @@
         <v>20247112</v>
       </c>
       <c r="B95" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C95" t="s">
         <v>39</v>
       </c>
       <c r="D95" t="s">
+        <v>605</v>
+      </c>
+      <c r="E95" t="s">
         <v>606</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
         <v>607</v>
       </c>
-      <c r="F95" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>608</v>
-      </c>
-      <c r="H95" t="s">
-        <v>609</v>
       </c>
       <c r="I95" t="s">
         <v>44</v>
       </c>
       <c r="J95" t="s">
+        <v>609</v>
+      </c>
+      <c r="K95" t="s">
         <v>610</v>
       </c>
-      <c r="K95" t="s">
-        <v>611</v>
-      </c>
       <c r="L95" t="s">
-        <v>187</v>
+        <v>54</v>
       </c>
     </row>
     <row r="96">
@@ -5919,37 +5916,37 @@
         <v>20247015</v>
       </c>
       <c r="B96" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C96" t="s">
         <v>39</v>
       </c>
       <c r="D96" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E96" t="s">
+        <v>612</v>
+      </c>
+      <c r="F96" t="s">
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
         <v>613</v>
       </c>
-      <c r="F96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>614</v>
-      </c>
-      <c r="H96" t="s">
-        <v>615</v>
       </c>
       <c r="I96" t="s">
         <v>44</v>
       </c>
       <c r="J96" t="s">
+        <v>615</v>
+      </c>
+      <c r="K96" t="s">
         <v>616</v>
       </c>
-      <c r="K96" t="s">
-        <v>617</v>
-      </c>
       <c r="L96" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97">
@@ -5957,7 +5954,7 @@
         <v>20234494</v>
       </c>
       <c r="B97" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C97" t="s">
         <v>32</v>
@@ -5966,28 +5963,28 @@
         <v>130</v>
       </c>
       <c r="E97" t="s">
+        <v>618</v>
+      </c>
+      <c r="F97" t="s">
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
         <v>619</v>
       </c>
-      <c r="F97" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>620</v>
-      </c>
-      <c r="H97" t="s">
-        <v>621</v>
       </c>
       <c r="I97" t="s">
         <v>44</v>
       </c>
       <c r="J97" t="s">
+        <v>621</v>
+      </c>
+      <c r="K97" t="s">
         <v>622</v>
       </c>
-      <c r="K97" t="s">
-        <v>623</v>
-      </c>
       <c r="L97" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98">
@@ -5995,7 +5992,7 @@
         <v>20234461</v>
       </c>
       <c r="B98" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C98" t="s">
         <v>32</v>
@@ -6004,28 +6001,28 @@
         <v>92</v>
       </c>
       <c r="E98" t="s">
+        <v>624</v>
+      </c>
+      <c r="F98" t="s">
+        <v>16</v>
+      </c>
+      <c r="G98" t="s">
         <v>625</v>
       </c>
-      <c r="F98" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>626</v>
-      </c>
-      <c r="H98" t="s">
-        <v>627</v>
       </c>
       <c r="I98" t="s">
         <v>44</v>
       </c>
       <c r="J98" t="s">
+        <v>627</v>
+      </c>
+      <c r="K98" t="s">
         <v>628</v>
       </c>
-      <c r="K98" t="s">
-        <v>629</v>
-      </c>
       <c r="L98" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
     </row>
     <row r="99">
@@ -6033,37 +6030,37 @@
         <v>20234375</v>
       </c>
       <c r="B99" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C99" t="s">
         <v>32</v>
       </c>
       <c r="D99" t="s">
+        <v>630</v>
+      </c>
+      <c r="E99" t="s">
         <v>631</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
+        <v>16</v>
+      </c>
+      <c r="G99" t="s">
         <v>632</v>
       </c>
-      <c r="F99" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" t="s">
+      <c r="H99" t="s">
         <v>633</v>
-      </c>
-      <c r="H99" t="s">
-        <v>634</v>
       </c>
       <c r="I99" t="s">
         <v>44</v>
       </c>
       <c r="J99" t="s">
+        <v>634</v>
+      </c>
+      <c r="K99" t="s">
         <v>635</v>
       </c>
-      <c r="K99" t="s">
-        <v>636</v>
-      </c>
       <c r="L99" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100">
@@ -6071,37 +6068,37 @@
         <v>20234353</v>
       </c>
       <c r="B100" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C100" t="s">
         <v>32</v>
       </c>
       <c r="D100" t="s">
+        <v>637</v>
+      </c>
+      <c r="E100" t="s">
         <v>638</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" t="s">
         <v>639</v>
       </c>
-      <c r="F100" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" t="s">
+      <c r="H100" t="s">
         <v>640</v>
-      </c>
-      <c r="H100" t="s">
-        <v>641</v>
       </c>
       <c r="I100" t="s">
         <v>44</v>
       </c>
       <c r="J100" t="s">
+        <v>641</v>
+      </c>
+      <c r="K100" t="s">
         <v>642</v>
       </c>
-      <c r="K100" t="s">
-        <v>643</v>
-      </c>
       <c r="L100" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101">
@@ -6109,35 +6106,35 @@
         <v>20234346</v>
       </c>
       <c r="B101" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C101" t="s">
         <v>13</v>
       </c>
       <c r="D101"/>
       <c r="E101" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F101" t="s">
         <v>26</v>
       </c>
       <c r="G101" t="s">
+        <v>645</v>
+      </c>
+      <c r="H101" t="s">
         <v>646</v>
-      </c>
-      <c r="H101" t="s">
-        <v>647</v>
       </c>
       <c r="I101" t="s">
         <v>44</v>
       </c>
       <c r="J101" t="s">
+        <v>647</v>
+      </c>
+      <c r="K101" t="s">
         <v>648</v>
       </c>
-      <c r="K101" t="s">
-        <v>649</v>
-      </c>
       <c r="L101" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Objets_parlementaires_CDF_EFK.xlsx
+++ b/Objets_parlementaires_CDF_EFK.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="655">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -803,6 +803,9 @@
     <t xml:space="preserve">25.3425</t>
   </si>
   <si>
+    <t xml:space="preserve">Commission des finances Conseil national</t>
+  </si>
+  <si>
     <t xml:space="preserve">2025-04-04</t>
   </si>
   <si>
@@ -1151,6 +1154,9 @@
     <t xml:space="preserve">25.3008</t>
   </si>
   <si>
+    <t xml:space="preserve">Commission de l'économie et des redevances Conseil national</t>
+  </si>
+  <si>
     <t xml:space="preserve">2025-01-21</t>
   </si>
   <si>
@@ -1679,6 +1685,9 @@
     <t xml:space="preserve">24.3471</t>
   </si>
   <si>
+    <t xml:space="preserve">Commission de la sécurité sociale et de la santé publique Conseil national</t>
+  </si>
+  <si>
     <t xml:space="preserve">2024-05-02</t>
   </si>
   <si>
@@ -1697,6 +1706,9 @@
     <t xml:space="preserve">24.3468</t>
   </si>
   <si>
+    <t xml:space="preserve">Commission des transports et des télécommunications Conseil national</t>
+  </si>
+  <si>
     <t xml:space="preserve">2024-04-30</t>
   </si>
   <si>
@@ -1715,6 +1727,9 @@
     <t xml:space="preserve">24.3467</t>
   </si>
   <si>
+    <t xml:space="preserve">Commission de la politique de sécurité Conseil des États</t>
+  </si>
+  <si>
     <t xml:space="preserve">2024-04-25</t>
   </si>
   <si>
@@ -1944,6 +1959,9 @@
   </si>
   <si>
     <t xml:space="preserve">23.4346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commission des institutions politiques Conseil des États</t>
   </si>
   <si>
     <t xml:space="preserve">2023-11-20</t>
@@ -3765,27 +3783,29 @@
       <c r="C39" t="s">
         <v>13</v>
       </c>
-      <c r="D39"/>
+      <c r="D39" t="s">
+        <v>263</v>
+      </c>
       <c r="E39" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
       </c>
       <c r="G39" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H39" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I39" t="s">
         <v>68</v>
       </c>
       <c r="J39" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K39" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L39" t="s">
         <v>22</v>
@@ -3796,7 +3816,7 @@
         <v>20253309</v>
       </c>
       <c r="B40" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
@@ -3805,25 +3825,25 @@
         <v>124</v>
       </c>
       <c r="E40" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F40" t="s">
         <v>16</v>
       </c>
       <c r="G40" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H40" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I40" t="s">
         <v>68</v>
       </c>
       <c r="J40" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K40" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L40" t="s">
         <v>22</v>
@@ -3834,34 +3854,34 @@
         <v>20253399</v>
       </c>
       <c r="B41" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C41" t="s">
         <v>32</v>
       </c>
       <c r="D41" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E41" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F41" t="s">
         <v>16</v>
       </c>
       <c r="G41" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H41" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I41" t="s">
         <v>68</v>
       </c>
       <c r="J41" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K41" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L41" t="s">
         <v>54</v>
@@ -3872,34 +3892,34 @@
         <v>20253404</v>
       </c>
       <c r="B42" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C42" t="s">
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E42" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F42" t="s">
         <v>16</v>
       </c>
       <c r="G42" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H42" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I42" t="s">
         <v>68</v>
       </c>
       <c r="J42" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K42" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L42" t="s">
         <v>47</v>
@@ -3910,34 +3930,34 @@
         <v>20253417</v>
       </c>
       <c r="B43" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E43" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
       </c>
       <c r="G43" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H43" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I43" t="s">
         <v>68</v>
       </c>
       <c r="J43" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K43" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L43" t="s">
         <v>47</v>
@@ -3948,34 +3968,34 @@
         <v>20251011</v>
       </c>
       <c r="B44" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C44" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D44" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E44" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F44" t="s">
         <v>26</v>
       </c>
       <c r="G44" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H44" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I44" t="s">
         <v>44</v>
       </c>
       <c r="J44" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K44" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L44" t="s">
         <v>47</v>
@@ -3986,34 +4006,34 @@
         <v>20253194</v>
       </c>
       <c r="B45" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C45" t="s">
         <v>32</v>
       </c>
       <c r="D45" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E45" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F45" t="s">
         <v>26</v>
       </c>
       <c r="G45" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H45" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I45" t="s">
         <v>44</v>
       </c>
       <c r="J45" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K45" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L45" t="s">
         <v>47</v>
@@ -4024,34 +4044,34 @@
         <v>20253203</v>
       </c>
       <c r="B46" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C46" t="s">
         <v>32</v>
       </c>
       <c r="D46" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E46" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
       </c>
       <c r="G46" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H46" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I46" t="s">
         <v>44</v>
       </c>
       <c r="J46" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K46" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L46" t="s">
         <v>54</v>
@@ -4062,34 +4082,34 @@
         <v>20253213</v>
       </c>
       <c r="B47" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C47" t="s">
         <v>32</v>
       </c>
       <c r="D47" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E47" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F47" t="s">
         <v>26</v>
       </c>
       <c r="G47" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H47" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I47" t="s">
         <v>44</v>
       </c>
       <c r="J47" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K47" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L47" t="s">
         <v>47</v>
@@ -4100,34 +4120,34 @@
         <v>20253214</v>
       </c>
       <c r="B48" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C48" t="s">
         <v>32</v>
       </c>
       <c r="D48" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E48" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F48" t="s">
         <v>16</v>
       </c>
       <c r="G48" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H48" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I48" t="s">
         <v>44</v>
       </c>
       <c r="J48" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K48" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L48" t="s">
         <v>47</v>
@@ -4138,34 +4158,34 @@
         <v>20253246</v>
       </c>
       <c r="B49" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C49" t="s">
         <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E49" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F49" t="s">
         <v>16</v>
       </c>
       <c r="G49" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H49" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I49" t="s">
         <v>145</v>
       </c>
       <c r="J49" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K49" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L49" t="s">
         <v>22</v>
@@ -4176,34 +4196,34 @@
         <v>20253093</v>
       </c>
       <c r="B50" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C50" t="s">
         <v>32</v>
       </c>
       <c r="D50" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E50" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F50" t="s">
         <v>16</v>
       </c>
       <c r="G50" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H50" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I50" t="s">
         <v>68</v>
       </c>
       <c r="J50" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K50" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L50" t="s">
         <v>22</v>
@@ -4214,34 +4234,34 @@
         <v>20257213</v>
       </c>
       <c r="B51" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C51" t="s">
         <v>39</v>
       </c>
       <c r="D51" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E51" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
       </c>
       <c r="G51" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H51" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I51" t="s">
         <v>44</v>
       </c>
       <c r="J51" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K51" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L51" t="s">
         <v>22</v>
@@ -4252,34 +4272,34 @@
         <v>20253054</v>
       </c>
       <c r="B52" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C52" t="s">
         <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E52" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F52" t="s">
         <v>16</v>
       </c>
       <c r="G52" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H52" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I52" t="s">
         <v>68</v>
       </c>
       <c r="J52" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K52" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L52" t="s">
         <v>47</v>
@@ -4290,7 +4310,7 @@
         <v>20257102</v>
       </c>
       <c r="B53" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C53" t="s">
         <v>39</v>
@@ -4299,25 +4319,25 @@
         <v>111</v>
       </c>
       <c r="E53" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F53" t="s">
         <v>16</v>
       </c>
       <c r="G53" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H53" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I53" t="s">
         <v>44</v>
       </c>
       <c r="J53" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K53" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L53" t="s">
         <v>47</v>
@@ -4328,7 +4348,7 @@
         <v>20257129</v>
       </c>
       <c r="B54" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C54" t="s">
         <v>39</v>
@@ -4337,25 +4357,25 @@
         <v>256</v>
       </c>
       <c r="E54" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F54" t="s">
         <v>16</v>
       </c>
       <c r="G54" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H54" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I54" t="s">
         <v>44</v>
       </c>
       <c r="J54" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K54" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L54" t="s">
         <v>22</v>
@@ -4366,34 +4386,34 @@
         <v>20257138</v>
       </c>
       <c r="B55" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C55" t="s">
         <v>39</v>
       </c>
       <c r="D55" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E55" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
       </c>
       <c r="G55" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H55" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I55" t="s">
         <v>44</v>
       </c>
       <c r="J55" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K55" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L55" t="s">
         <v>47</v>
@@ -4404,34 +4424,34 @@
         <v>20253031</v>
       </c>
       <c r="B56" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C56" t="s">
         <v>32</v>
       </c>
       <c r="D56" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E56" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F56" t="s">
         <v>16</v>
       </c>
       <c r="G56" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H56" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I56" t="s">
         <v>68</v>
       </c>
       <c r="J56" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K56" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L56" t="s">
         <v>47</v>
@@ -4442,34 +4462,34 @@
         <v>20257012</v>
       </c>
       <c r="B57" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C57" t="s">
         <v>39</v>
       </c>
       <c r="D57" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E57" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F57" t="s">
         <v>16</v>
       </c>
       <c r="G57" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H57" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I57" t="s">
         <v>44</v>
       </c>
       <c r="J57" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K57" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L57" t="s">
         <v>54</v>
@@ -4480,32 +4500,34 @@
         <v>20253008</v>
       </c>
       <c r="B58" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C58" t="s">
         <v>13</v>
       </c>
-      <c r="D58"/>
+      <c r="D58" t="s">
+        <v>380</v>
+      </c>
       <c r="E58" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F58" t="s">
         <v>16</v>
       </c>
       <c r="G58" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="H58" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I58" t="s">
         <v>44</v>
       </c>
       <c r="J58" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K58" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L58" t="s">
         <v>47</v>
@@ -4516,34 +4538,34 @@
         <v>20244404</v>
       </c>
       <c r="B59" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C59" t="s">
         <v>32</v>
       </c>
       <c r="D59" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E59" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F59" t="s">
         <v>16</v>
       </c>
       <c r="G59" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H59" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="I59" t="s">
         <v>44</v>
       </c>
       <c r="J59" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="K59" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L59" t="s">
         <v>47</v>
@@ -4554,7 +4576,7 @@
         <v>20244419</v>
       </c>
       <c r="B60" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C60" t="s">
         <v>32</v>
@@ -4563,25 +4585,25 @@
         <v>222</v>
       </c>
       <c r="E60" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F60" t="s">
         <v>26</v>
       </c>
       <c r="G60" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H60" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="I60" t="s">
         <v>44</v>
       </c>
       <c r="J60" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K60" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L60" t="s">
         <v>47</v>
@@ -4592,34 +4614,34 @@
         <v>20247975</v>
       </c>
       <c r="B61" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C61" t="s">
         <v>39</v>
       </c>
       <c r="D61" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E61" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F61" t="s">
         <v>16</v>
       </c>
       <c r="G61" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="H61" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="I61" t="s">
         <v>44</v>
       </c>
       <c r="J61" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K61" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L61" t="s">
         <v>22</v>
@@ -4630,34 +4652,34 @@
         <v>20248043</v>
       </c>
       <c r="B62" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C62" t="s">
         <v>39</v>
       </c>
       <c r="D62" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E62" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F62" t="s">
         <v>16</v>
       </c>
       <c r="G62" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="H62" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="I62" t="s">
         <v>44</v>
       </c>
       <c r="J62" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K62" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L62" t="s">
         <v>22</v>
@@ -4668,34 +4690,34 @@
         <v>20244290</v>
       </c>
       <c r="B63" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C63" t="s">
         <v>32</v>
       </c>
       <c r="D63" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E63" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F63" t="s">
         <v>16</v>
       </c>
       <c r="G63" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H63" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="I63" t="s">
         <v>68</v>
       </c>
       <c r="J63" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="K63" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L63" t="s">
         <v>47</v>
@@ -4706,34 +4728,34 @@
         <v>20244278</v>
       </c>
       <c r="B64" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C64" t="s">
         <v>32</v>
       </c>
       <c r="D64" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E64" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F64" t="s">
         <v>16</v>
       </c>
       <c r="G64" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H64" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I64" t="s">
         <v>68</v>
       </c>
       <c r="J64" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K64" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L64" t="s">
         <v>22</v>
@@ -4744,34 +4766,34 @@
         <v>20244082</v>
       </c>
       <c r="B65" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C65" t="s">
         <v>32</v>
       </c>
       <c r="D65" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E65" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F65" t="s">
         <v>16</v>
       </c>
       <c r="G65" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H65" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="I65" t="s">
         <v>68</v>
       </c>
       <c r="J65" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K65" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L65" t="s">
         <v>47</v>
@@ -4782,34 +4804,34 @@
         <v>20244112</v>
       </c>
       <c r="B66" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C66" t="s">
         <v>32</v>
       </c>
       <c r="D66" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="E66" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F66" t="s">
         <v>16</v>
       </c>
       <c r="G66" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="H66" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="I66" t="s">
         <v>68</v>
       </c>
       <c r="J66" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="K66" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L66" t="s">
         <v>54</v>
@@ -4820,7 +4842,7 @@
         <v>20244131</v>
       </c>
       <c r="B67" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C67" t="s">
         <v>32</v>
@@ -4829,25 +4851,25 @@
         <v>49</v>
       </c>
       <c r="E67" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F67" t="s">
         <v>16</v>
       </c>
       <c r="G67" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="H67" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="I67" t="s">
         <v>68</v>
       </c>
       <c r="J67" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="K67" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L67" t="s">
         <v>47</v>
@@ -4858,7 +4880,7 @@
         <v>20244132</v>
       </c>
       <c r="B68" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C68" t="s">
         <v>63</v>
@@ -4867,25 +4889,25 @@
         <v>124</v>
       </c>
       <c r="E68" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F68" t="s">
         <v>16</v>
       </c>
       <c r="G68" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H68" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="I68" t="s">
         <v>68</v>
       </c>
       <c r="J68" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K68" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L68" t="s">
         <v>54</v>
@@ -4896,7 +4918,7 @@
         <v>20244133</v>
       </c>
       <c r="B69" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C69" t="s">
         <v>13</v>
@@ -4905,25 +4927,25 @@
         <v>124</v>
       </c>
       <c r="E69" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F69" t="s">
         <v>16</v>
       </c>
       <c r="G69" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H69" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="I69" t="s">
         <v>68</v>
       </c>
       <c r="J69" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="K69" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="L69" t="s">
         <v>54</v>
@@ -4934,34 +4956,34 @@
         <v>20244137</v>
       </c>
       <c r="B70" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C70" t="s">
         <v>32</v>
       </c>
       <c r="D70" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E70" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F70" t="s">
         <v>16</v>
       </c>
       <c r="G70" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H70" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="I70" t="s">
         <v>68</v>
       </c>
       <c r="J70" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="K70" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="L70" t="s">
         <v>54</v>
@@ -4972,34 +4994,34 @@
         <v>20243937</v>
       </c>
       <c r="B71" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C71" t="s">
         <v>13</v>
       </c>
       <c r="D71" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E71" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F71" t="s">
         <v>26</v>
       </c>
       <c r="G71" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="H71" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="I71" t="s">
         <v>177</v>
       </c>
       <c r="J71" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="K71" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="L71" t="s">
         <v>22</v>
@@ -5010,34 +5032,34 @@
         <v>20243948</v>
       </c>
       <c r="B72" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C72" t="s">
         <v>32</v>
       </c>
       <c r="D72" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E72" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F72" t="s">
         <v>26</v>
       </c>
       <c r="G72" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="H72" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="I72" t="s">
         <v>44</v>
       </c>
       <c r="J72" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="K72" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="L72" t="s">
         <v>47</v>
@@ -5048,7 +5070,7 @@
         <v>20247720</v>
       </c>
       <c r="B73" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C73" t="s">
         <v>39</v>
@@ -5057,25 +5079,25 @@
         <v>256</v>
       </c>
       <c r="E73" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F73" t="s">
         <v>16</v>
       </c>
       <c r="G73" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H73" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="I73" t="s">
         <v>44</v>
       </c>
       <c r="J73" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="K73" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="L73" t="s">
         <v>22</v>
@@ -5086,34 +5108,34 @@
         <v>20247726</v>
       </c>
       <c r="B74" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C74" t="s">
         <v>39</v>
       </c>
       <c r="D74" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E74" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F74" t="s">
         <v>16</v>
       </c>
       <c r="G74" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="H74" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="I74" t="s">
         <v>44</v>
       </c>
       <c r="J74" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="K74" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="L74" t="s">
         <v>47</v>
@@ -5124,7 +5146,7 @@
         <v>20247773</v>
       </c>
       <c r="B75" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C75" t="s">
         <v>39</v>
@@ -5133,25 +5155,25 @@
         <v>118</v>
       </c>
       <c r="E75" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F75" t="s">
         <v>16</v>
       </c>
       <c r="G75" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="H75" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="I75" t="s">
         <v>44</v>
       </c>
       <c r="J75" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="K75" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="L75" t="s">
         <v>54</v>
@@ -5162,7 +5184,7 @@
         <v>20247774</v>
       </c>
       <c r="B76" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C76" t="s">
         <v>39</v>
@@ -5171,25 +5193,25 @@
         <v>118</v>
       </c>
       <c r="E76" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F76" t="s">
         <v>16</v>
       </c>
       <c r="G76" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H76" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="I76" t="s">
         <v>44</v>
       </c>
       <c r="J76" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K76" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="L76" t="s">
         <v>54</v>
@@ -5200,34 +5222,34 @@
         <v>20243858</v>
       </c>
       <c r="B77" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C77" t="s">
         <v>32</v>
       </c>
       <c r="D77" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E77" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F77" t="s">
         <v>16</v>
       </c>
       <c r="G77" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="H77" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="I77" t="s">
         <v>68</v>
       </c>
       <c r="J77" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="K77" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L77" t="s">
         <v>22</v>
@@ -5238,34 +5260,34 @@
         <v>20243877</v>
       </c>
       <c r="B78" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C78" t="s">
         <v>32</v>
       </c>
       <c r="D78" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E78" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F78" t="s">
         <v>16</v>
       </c>
       <c r="G78" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="H78" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="I78" t="s">
         <v>68</v>
       </c>
       <c r="J78" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K78" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="L78" t="s">
         <v>47</v>
@@ -5276,7 +5298,7 @@
         <v>20247622</v>
       </c>
       <c r="B79" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C79" t="s">
         <v>39</v>
@@ -5285,25 +5307,25 @@
         <v>49</v>
       </c>
       <c r="E79" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
       </c>
       <c r="G79" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="H79" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="I79" t="s">
         <v>44</v>
       </c>
       <c r="J79" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="K79" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="L79" t="s">
         <v>47</v>
@@ -5314,34 +5336,34 @@
         <v>20247649</v>
       </c>
       <c r="B80" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C80" t="s">
         <v>39</v>
       </c>
       <c r="D80" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E80" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F80" t="s">
         <v>16</v>
       </c>
       <c r="G80" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="H80" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="I80" t="s">
         <v>44</v>
       </c>
       <c r="J80" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="K80" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="L80" t="s">
         <v>47</v>
@@ -5352,34 +5374,34 @@
         <v>20243709</v>
       </c>
       <c r="B81" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C81" t="s">
         <v>32</v>
       </c>
       <c r="D81" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E81" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F81" t="s">
         <v>16</v>
       </c>
       <c r="G81" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="H81" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="I81" t="s">
         <v>68</v>
       </c>
       <c r="J81" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="K81" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="L81" t="s">
         <v>54</v>
@@ -5390,34 +5412,34 @@
         <v>20243773</v>
       </c>
       <c r="B82" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C82" t="s">
         <v>32</v>
       </c>
       <c r="D82" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E82" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F82" t="s">
         <v>16</v>
       </c>
       <c r="G82" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="H82" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="I82" t="s">
         <v>68</v>
       </c>
       <c r="J82" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="K82" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="L82" t="s">
         <v>47</v>
@@ -5428,34 +5450,34 @@
         <v>20243776</v>
       </c>
       <c r="B83" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C83" t="s">
         <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E83" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F83" t="s">
         <v>16</v>
       </c>
       <c r="G83" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="H83" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="I83" t="s">
         <v>44</v>
       </c>
       <c r="J83" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="K83" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="L83" t="s">
         <v>22</v>
@@ -5466,34 +5488,34 @@
         <v>20243609</v>
       </c>
       <c r="B84" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
       </c>
       <c r="D84" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="E84" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="F84" t="s">
         <v>16</v>
       </c>
       <c r="G84" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H84" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="I84" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="J84" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="K84" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="L84" t="s">
         <v>47</v>
@@ -5504,7 +5526,7 @@
         <v>20243574</v>
       </c>
       <c r="B85" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C85" t="s">
         <v>32</v>
@@ -5513,25 +5535,25 @@
         <v>229</v>
       </c>
       <c r="E85" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="F85" t="s">
         <v>26</v>
       </c>
       <c r="G85" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="H85" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="I85" t="s">
         <v>44</v>
       </c>
       <c r="J85" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K85" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="L85" t="s">
         <v>22</v>
@@ -5542,34 +5564,34 @@
         <v>20243557</v>
       </c>
       <c r="B86" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C86" t="s">
         <v>32</v>
       </c>
       <c r="D86" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E86" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F86" t="s">
         <v>16</v>
       </c>
       <c r="G86" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="H86" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="I86" t="s">
         <v>44</v>
       </c>
       <c r="J86" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="K86" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="L86" t="s">
         <v>47</v>
@@ -5580,32 +5602,34 @@
         <v>20243471</v>
       </c>
       <c r="B87" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C87" t="s">
         <v>13</v>
       </c>
-      <c r="D87"/>
+      <c r="D87" t="s">
+        <v>557</v>
+      </c>
       <c r="E87" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="F87" t="s">
         <v>16</v>
       </c>
       <c r="G87" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="H87" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="I87" t="s">
         <v>44</v>
       </c>
       <c r="J87" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="K87" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="L87" t="s">
         <v>22</v>
@@ -5616,32 +5640,34 @@
         <v>20243468</v>
       </c>
       <c r="B88" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="C88" t="s">
         <v>63</v>
       </c>
-      <c r="D88"/>
+      <c r="D88" t="s">
+        <v>564</v>
+      </c>
       <c r="E88" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="F88" t="s">
         <v>16</v>
       </c>
       <c r="G88" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="H88" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="I88" t="s">
         <v>177</v>
       </c>
       <c r="J88" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="K88" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="L88" t="s">
         <v>47</v>
@@ -5652,32 +5678,34 @@
         <v>20243467</v>
       </c>
       <c r="B89" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C89" t="s">
         <v>13</v>
       </c>
-      <c r="D89"/>
+      <c r="D89" t="s">
+        <v>571</v>
+      </c>
       <c r="E89" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="F89" t="s">
         <v>26</v>
       </c>
       <c r="G89" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="H89" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="I89" t="s">
         <v>44</v>
       </c>
       <c r="J89" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="K89" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="L89" t="s">
         <v>47</v>
@@ -5688,34 +5716,34 @@
         <v>20243318</v>
       </c>
       <c r="B90" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="C90" t="s">
         <v>32</v>
       </c>
       <c r="D90" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="E90" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="F90" t="s">
         <v>16</v>
       </c>
       <c r="G90" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="H90" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="I90" t="s">
         <v>68</v>
       </c>
       <c r="J90" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="K90" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="L90" t="s">
         <v>54</v>
@@ -5726,34 +5754,34 @@
         <v>20243234</v>
       </c>
       <c r="B91" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="C91" t="s">
         <v>13</v>
       </c>
       <c r="D91" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E91" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="F91" t="s">
         <v>16</v>
       </c>
       <c r="G91" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="H91" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="I91" t="s">
         <v>44</v>
       </c>
       <c r="J91" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="K91" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="L91" t="s">
         <v>47</v>
@@ -5764,34 +5792,34 @@
         <v>20243259</v>
       </c>
       <c r="B92" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="C92" t="s">
         <v>32</v>
       </c>
       <c r="D92" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="E92" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="F92" t="s">
         <v>16</v>
       </c>
       <c r="G92" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="H92" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="I92" t="s">
         <v>44</v>
       </c>
       <c r="J92" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="K92" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="L92" t="s">
         <v>47</v>
@@ -5802,34 +5830,34 @@
         <v>20243169</v>
       </c>
       <c r="B93" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="C93" t="s">
         <v>13</v>
       </c>
       <c r="D93" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="E93" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="F93" t="s">
         <v>16</v>
       </c>
       <c r="G93" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="H93" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="I93" t="s">
         <v>44</v>
       </c>
       <c r="J93" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="K93" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="L93" t="s">
         <v>47</v>
@@ -5840,7 +5868,7 @@
         <v>20243077</v>
       </c>
       <c r="B94" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="C94" t="s">
         <v>13</v>
@@ -5849,25 +5877,25 @@
         <v>14</v>
       </c>
       <c r="E94" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
       </c>
       <c r="G94" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="H94" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="I94" t="s">
         <v>68</v>
       </c>
       <c r="J94" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="K94" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="L94" t="s">
         <v>47</v>
@@ -5878,34 +5906,34 @@
         <v>20247112</v>
       </c>
       <c r="B95" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="C95" t="s">
         <v>39</v>
       </c>
       <c r="D95" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="E95" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
       </c>
       <c r="G95" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="H95" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="I95" t="s">
         <v>44</v>
       </c>
       <c r="J95" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="K95" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="L95" t="s">
         <v>54</v>
@@ -5916,7 +5944,7 @@
         <v>20247015</v>
       </c>
       <c r="B96" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="C96" t="s">
         <v>39</v>
@@ -5925,25 +5953,25 @@
         <v>256</v>
       </c>
       <c r="E96" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="F96" t="s">
         <v>16</v>
       </c>
       <c r="G96" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="H96" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="I96" t="s">
         <v>44</v>
       </c>
       <c r="J96" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="K96" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="L96" t="s">
         <v>22</v>
@@ -5954,7 +5982,7 @@
         <v>20234494</v>
       </c>
       <c r="B97" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="C97" t="s">
         <v>32</v>
@@ -5963,25 +5991,25 @@
         <v>130</v>
       </c>
       <c r="E97" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="F97" t="s">
         <v>16</v>
       </c>
       <c r="G97" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="H97" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="I97" t="s">
         <v>44</v>
       </c>
       <c r="J97" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="K97" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="L97" t="s">
         <v>22</v>
@@ -5992,7 +6020,7 @@
         <v>20234461</v>
       </c>
       <c r="B98" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="C98" t="s">
         <v>32</v>
@@ -6001,25 +6029,25 @@
         <v>92</v>
       </c>
       <c r="E98" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="F98" t="s">
         <v>16</v>
       </c>
       <c r="G98" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="H98" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="I98" t="s">
         <v>44</v>
       </c>
       <c r="J98" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="K98" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="L98" t="s">
         <v>47</v>
@@ -6030,34 +6058,34 @@
         <v>20234375</v>
       </c>
       <c r="B99" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="C99" t="s">
         <v>32</v>
       </c>
       <c r="D99" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="E99" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="F99" t="s">
         <v>16</v>
       </c>
       <c r="G99" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="H99" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="I99" t="s">
         <v>44</v>
       </c>
       <c r="J99" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="K99" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="L99" t="s">
         <v>22</v>
@@ -6068,34 +6096,34 @@
         <v>20234353</v>
       </c>
       <c r="B100" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="C100" t="s">
         <v>32</v>
       </c>
       <c r="D100" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="E100" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="F100" t="s">
         <v>16</v>
       </c>
       <c r="G100" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="H100" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="I100" t="s">
         <v>44</v>
       </c>
       <c r="J100" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="K100" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="L100" t="s">
         <v>47</v>
@@ -6106,32 +6134,34 @@
         <v>20234346</v>
       </c>
       <c r="B101" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="C101" t="s">
         <v>13</v>
       </c>
-      <c r="D101"/>
+      <c r="D101" t="s">
+        <v>649</v>
+      </c>
       <c r="E101" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="F101" t="s">
         <v>26</v>
       </c>
       <c r="G101" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="H101" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="I101" t="s">
         <v>44</v>
       </c>
       <c r="J101" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="K101" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="L101" t="s">
         <v>22</v>

--- a/Objets_parlementaires_CDF_EFK.xlsx
+++ b/Objets_parlementaires_CDF_EFK.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="666">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -26,6 +26,9 @@
     <t xml:space="preserve">Auteur</t>
   </si>
   <si>
+    <t xml:space="preserve">Parti</t>
+  </si>
+  <si>
     <t xml:space="preserve">Date_dépôt</t>
   </si>
   <si>
@@ -59,6 +62,9 @@
     <t xml:space="preserve">Addor Jean-Luc</t>
   </si>
   <si>
+    <t xml:space="preserve">UDC</t>
+  </si>
+  <si>
     <t xml:space="preserve">2025-12-19</t>
   </si>
   <si>
@@ -89,6 +95,9 @@
     <t xml:space="preserve">Michel Matthias</t>
   </si>
   <si>
+    <t xml:space="preserve">PLR</t>
+  </si>
+  <si>
     <t xml:space="preserve">2025-12-18</t>
   </si>
   <si>
@@ -116,6 +125,9 @@
     <t xml:space="preserve">Grossen Jürg</t>
   </si>
   <si>
+    <t xml:space="preserve">pvl</t>
+  </si>
+  <si>
     <t xml:space="preserve">Transparenz bei der Fördereffizienz aller erneuerbaren Technologien herstellen</t>
   </si>
   <si>
@@ -164,6 +176,9 @@
     <t xml:space="preserve">Trede Aline</t>
   </si>
   <si>
+    <t xml:space="preserve">VERT-E-S</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kostendeckende Erträge aus dem Artenschutz? </t>
   </si>
   <si>
@@ -209,6 +224,9 @@
     <t xml:space="preserve">Tuosto Brenda</t>
   </si>
   <si>
+    <t xml:space="preserve">PSS</t>
+  </si>
+  <si>
     <t xml:space="preserve">2025-09-26</t>
   </si>
   <si>
@@ -371,6 +389,9 @@
     <t xml:space="preserve">Gugger Niklaus-Samuel</t>
   </si>
   <si>
+    <t xml:space="preserve">PEV</t>
+  </si>
+  <si>
     <t xml:space="preserve">Steuerdebakel Waadt: Finanzausgleich betroffen?</t>
   </si>
   <si>
@@ -389,6 +410,9 @@
     <t xml:space="preserve">Weichelt Manuela</t>
   </si>
   <si>
+    <t xml:space="preserve">Al</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wann wird der Zwischenbericht des Gutachtens zur RUAG öffentlich?</t>
   </si>
   <si>
@@ -626,6 +650,9 @@
     <t xml:space="preserve">Hess Lorenz</t>
   </si>
   <si>
+    <t xml:space="preserve">M-E</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bessere Nutzung des wichtigen Instruments HTA</t>
   </si>
   <si>
@@ -1049,6 +1076,9 @@
     <t xml:space="preserve">Golay Roger</t>
   </si>
   <si>
+    <t xml:space="preserve">MCG</t>
+  </si>
+  <si>
     <t xml:space="preserve">2025-03-05</t>
   </si>
   <si>
@@ -1116,6 +1146,9 @@
   </si>
   <si>
     <t xml:space="preserve">Vontobel Erich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UDF</t>
   </si>
   <si>
     <t xml:space="preserve">2025-03-03</t>
@@ -2024,21 +2057,22 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:L101" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:L101"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:M101" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:M101"/>
+  <tableColumns count="13">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Numéro"/>
     <tableColumn id="3" name="Type"/>
     <tableColumn id="4" name="Auteur"/>
-    <tableColumn id="5" name="Date_dépôt"/>
-    <tableColumn id="6" name="Conseil"/>
-    <tableColumn id="7" name="Titre_DE"/>
-    <tableColumn id="8" name="Titre_FR"/>
-    <tableColumn id="9" name="Statut"/>
-    <tableColumn id="10" name="Lien_DE"/>
-    <tableColumn id="11" name="Lien_FR"/>
-    <tableColumn id="12" name="Mention"/>
+    <tableColumn id="5" name="Parti"/>
+    <tableColumn id="6" name="Date_dépôt"/>
+    <tableColumn id="7" name="Conseil"/>
+    <tableColumn id="8" name="Titre_DE"/>
+    <tableColumn id="9" name="Titre_FR"/>
+    <tableColumn id="10" name="Statut"/>
+    <tableColumn id="11" name="Lien_DE"/>
+    <tableColumn id="12" name="Lien_FR"/>
+    <tableColumn id="13" name="Mention"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2366,43 +2400,49 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>20254785</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -2410,37 +2450,40 @@
         <v>20254620</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
         <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -2448,37 +2491,40 @@
         <v>20254696</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>41</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -2486,37 +2532,40 @@
         <v>20258194</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L5" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="M5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="6">
@@ -2524,37 +2573,40 @@
         <v>20258273</v>
       </c>
       <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" t="s">
         <v>48</v>
       </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" t="s">
-        <v>52</v>
-      </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+      <c r="M6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7">
@@ -2562,37 +2614,40 @@
         <v>20254463</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="J7" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="K7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L7" t="s">
-        <v>22</v>
+        <v>66</v>
+      </c>
+      <c r="M7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -2600,37 +2655,40 @@
         <v>20254281</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="J8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L8" t="s">
-        <v>54</v>
+        <v>76</v>
+      </c>
+      <c r="M8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9">
@@ -2638,37 +2696,40 @@
         <v>20254317</v>
       </c>
       <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
         <v>71</v>
       </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" t="s">
         <v>74</v>
       </c>
-      <c r="I9" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" t="s">
-        <v>75</v>
-      </c>
       <c r="K9" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L9" t="s">
-        <v>54</v>
+        <v>82</v>
+      </c>
+      <c r="M9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10">
@@ -2676,37 +2737,40 @@
         <v>20254145</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="J10" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="K10" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L10" t="s">
-        <v>47</v>
+        <v>89</v>
+      </c>
+      <c r="M10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11">
@@ -2714,37 +2778,40 @@
         <v>20254188</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
         <v>85</v>
       </c>
-      <c r="E11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
       <c r="G11" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I11" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J11" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K11" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L11" t="s">
-        <v>47</v>
+        <v>96</v>
+      </c>
+      <c r="M11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="12">
@@ -2752,37 +2819,40 @@
         <v>20254225</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="G12" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="I12" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="J12" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="K12" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="L12" t="s">
-        <v>54</v>
+        <v>102</v>
+      </c>
+      <c r="M12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13">
@@ -2790,37 +2860,40 @@
         <v>20254234</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="G13" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="J13" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="K13" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="L13" t="s">
-        <v>22</v>
+        <v>108</v>
+      </c>
+      <c r="M13" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14">
@@ -2828,37 +2901,40 @@
         <v>20254071</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="G14" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I14" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="J14" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="K14" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="L14" t="s">
-        <v>47</v>
+        <v>115</v>
+      </c>
+      <c r="M14" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15">
@@ -2866,37 +2942,40 @@
         <v>20254024</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="G15" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I15" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="J15" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="K15" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L15" t="s">
-        <v>54</v>
+        <v>122</v>
+      </c>
+      <c r="M15" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16">
@@ -2904,37 +2983,40 @@
         <v>20257863</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" t="s">
         <v>118</v>
       </c>
-      <c r="E16" t="s">
-        <v>112</v>
-      </c>
-      <c r="F16" t="s">
-        <v>16</v>
-      </c>
       <c r="G16" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="J16" t="s">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="K16" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L16" t="s">
-        <v>47</v>
+        <v>129</v>
+      </c>
+      <c r="M16" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="17">
@@ -2942,37 +3024,40 @@
         <v>20257888</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E17" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="G17" t="s">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="J17" t="s">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="K17" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="L17" t="s">
-        <v>22</v>
+        <v>136</v>
+      </c>
+      <c r="M17" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18">
@@ -2980,37 +3065,40 @@
         <v>20257890</v>
       </c>
       <c r="B18" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E18" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="G18" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="I18" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="J18" t="s">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="K18" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="L18" t="s">
-        <v>54</v>
+        <v>142</v>
+      </c>
+      <c r="M18" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="19">
@@ -3018,37 +3106,38 @@
         <v>20254003</v>
       </c>
       <c r="B19" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>136</v>
-      </c>
-      <c r="E19" t="s">
-        <v>137</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="E19"/>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="G19" t="s">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="I19" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="J19" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="K19" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="L19" t="s">
-        <v>47</v>
+        <v>149</v>
+      </c>
+      <c r="M19" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="20">
@@ -3056,37 +3145,38 @@
         <v>20253984</v>
       </c>
       <c r="B20" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>143</v>
-      </c>
-      <c r="E20" t="s">
-        <v>144</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="E20"/>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="G20" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="H20" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I20" t="s">
-        <v>145</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="K20" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="L20" t="s">
-        <v>47</v>
+        <v>155</v>
+      </c>
+      <c r="M20" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -3094,37 +3184,40 @@
         <v>20257663</v>
       </c>
       <c r="B21" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="G21" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="H21" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="J21" t="s">
-        <v>151</v>
+        <v>48</v>
       </c>
       <c r="K21" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="L21" t="s">
-        <v>47</v>
+        <v>160</v>
+      </c>
+      <c r="M21" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="22">
@@ -3132,37 +3225,40 @@
         <v>20257698</v>
       </c>
       <c r="B22" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E22" t="s">
-        <v>144</v>
+        <v>70</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="G22" t="s">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
+        <v>164</v>
       </c>
       <c r="J22" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="K22" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="L22" t="s">
-        <v>47</v>
+        <v>166</v>
+      </c>
+      <c r="M22" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="23">
@@ -3170,37 +3266,40 @@
         <v>20253971</v>
       </c>
       <c r="B23" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E23" t="s">
-        <v>161</v>
+        <v>27</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
+        <v>169</v>
       </c>
       <c r="G23" t="s">
-        <v>162</v>
+        <v>29</v>
       </c>
       <c r="H23" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="J23" t="s">
-        <v>164</v>
+        <v>48</v>
       </c>
       <c r="K23" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L23" t="s">
-        <v>54</v>
+        <v>173</v>
+      </c>
+      <c r="M23" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="24">
@@ -3208,37 +3307,40 @@
         <v>20257601</v>
       </c>
       <c r="B24" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="G24" t="s">
-        <v>168</v>
+        <v>18</v>
       </c>
       <c r="H24" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="J24" t="s">
-        <v>170</v>
+        <v>48</v>
       </c>
       <c r="K24" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="L24" t="s">
-        <v>54</v>
+        <v>179</v>
+      </c>
+      <c r="M24" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="25">
@@ -3246,37 +3348,38 @@
         <v>20253941</v>
       </c>
       <c r="B25" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>173</v>
-      </c>
-      <c r="E25" t="s">
-        <v>174</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="E25"/>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>182</v>
       </c>
       <c r="G25" t="s">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="H25" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="I25" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="J25" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="K25" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L25" t="s">
-        <v>47</v>
+        <v>187</v>
+      </c>
+      <c r="M25" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -3284,37 +3387,40 @@
         <v>20253835</v>
       </c>
       <c r="B26" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E26" t="s">
-        <v>182</v>
+        <v>27</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="G26" t="s">
-        <v>183</v>
+        <v>18</v>
       </c>
       <c r="H26" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="I26" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="J26" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="K26" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="L26" t="s">
-        <v>22</v>
+        <v>194</v>
+      </c>
+      <c r="M26" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="27">
@@ -3322,37 +3428,40 @@
         <v>20253845</v>
       </c>
       <c r="B27" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E27" t="s">
-        <v>182</v>
+        <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="G27" t="s">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="I27" t="s">
-        <v>68</v>
+        <v>197</v>
       </c>
       <c r="J27" t="s">
-        <v>190</v>
+        <v>74</v>
       </c>
       <c r="K27" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="L27" t="s">
-        <v>22</v>
+        <v>199</v>
+      </c>
+      <c r="M27" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="28">
@@ -3360,37 +3469,40 @@
         <v>20253855</v>
       </c>
       <c r="B28" t="s">
+        <v>200</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>201</v>
+      </c>
+      <c r="E28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" t="s">
+        <v>190</v>
+      </c>
+      <c r="G28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" t="s">
+        <v>191</v>
+      </c>
+      <c r="I28" t="s">
         <v>192</v>
       </c>
-      <c r="C28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" t="s">
-        <v>193</v>
-      </c>
-      <c r="E28" t="s">
-        <v>182</v>
-      </c>
-      <c r="F28" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" t="s">
-        <v>183</v>
-      </c>
-      <c r="H28" t="s">
-        <v>184</v>
-      </c>
-      <c r="I28" t="s">
-        <v>145</v>
-      </c>
       <c r="J28" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="K28" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="L28" t="s">
-        <v>22</v>
+        <v>203</v>
+      </c>
+      <c r="M28" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="29">
@@ -3398,37 +3510,40 @@
         <v>20253880</v>
       </c>
       <c r="B29" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E29" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="G29" t="s">
-        <v>198</v>
+        <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="I29" t="s">
-        <v>68</v>
+        <v>207</v>
       </c>
       <c r="J29" t="s">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="K29" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="L29" t="s">
-        <v>22</v>
+        <v>209</v>
+      </c>
+      <c r="M29" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="30">
@@ -3436,37 +3551,40 @@
         <v>20253892</v>
       </c>
       <c r="B30" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="E30" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="G30" t="s">
-        <v>204</v>
+        <v>18</v>
       </c>
       <c r="H30" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="I30" t="s">
-        <v>68</v>
+        <v>214</v>
       </c>
       <c r="J30" t="s">
-        <v>206</v>
+        <v>74</v>
       </c>
       <c r="K30" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="L30" t="s">
-        <v>22</v>
+        <v>216</v>
+      </c>
+      <c r="M30" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="31">
@@ -3474,37 +3592,40 @@
         <v>20253893</v>
       </c>
       <c r="B31" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="E31" t="s">
-        <v>182</v>
+        <v>27</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="G31" t="s">
-        <v>210</v>
+        <v>18</v>
       </c>
       <c r="H31" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="I31" t="s">
-        <v>68</v>
+        <v>220</v>
       </c>
       <c r="J31" t="s">
-        <v>212</v>
+        <v>74</v>
       </c>
       <c r="K31" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="L31" t="s">
-        <v>54</v>
+        <v>222</v>
+      </c>
+      <c r="M31" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="32">
@@ -3512,37 +3633,40 @@
         <v>20253730</v>
       </c>
       <c r="B32" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="E32" t="s">
-        <v>216</v>
+        <v>54</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>225</v>
       </c>
       <c r="G32" t="s">
-        <v>217</v>
+        <v>18</v>
       </c>
       <c r="H32" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="I32" t="s">
-        <v>68</v>
+        <v>227</v>
       </c>
       <c r="J32" t="s">
-        <v>219</v>
+        <v>74</v>
       </c>
       <c r="K32" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="L32" t="s">
-        <v>47</v>
+        <v>229</v>
+      </c>
+      <c r="M32" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="33">
@@ -3550,37 +3674,40 @@
         <v>20253630</v>
       </c>
       <c r="B33" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="E33" t="s">
-        <v>223</v>
+        <v>27</v>
       </c>
       <c r="F33" t="s">
-        <v>26</v>
+        <v>232</v>
       </c>
       <c r="G33" t="s">
-        <v>224</v>
+        <v>29</v>
       </c>
       <c r="H33" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="I33" t="s">
-        <v>44</v>
+        <v>234</v>
       </c>
       <c r="J33" t="s">
-        <v>226</v>
+        <v>48</v>
       </c>
       <c r="K33" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="L33" t="s">
-        <v>22</v>
+        <v>236</v>
+      </c>
+      <c r="M33" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="34">
@@ -3588,37 +3715,40 @@
         <v>20253637</v>
       </c>
       <c r="B34" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="E34" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="F34" t="s">
-        <v>26</v>
+        <v>232</v>
       </c>
       <c r="G34" t="s">
-        <v>230</v>
+        <v>29</v>
       </c>
       <c r="H34" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="I34" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="J34" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="K34" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="L34" t="s">
-        <v>47</v>
+        <v>243</v>
+      </c>
+      <c r="M34" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="35">
@@ -3626,37 +3756,40 @@
         <v>20257355</v>
       </c>
       <c r="B35" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D35" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="E35" t="s">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>246</v>
       </c>
       <c r="G35" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="H35" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="I35" t="s">
-        <v>44</v>
+        <v>248</v>
       </c>
       <c r="J35" t="s">
-        <v>240</v>
+        <v>48</v>
       </c>
       <c r="K35" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="L35" t="s">
-        <v>47</v>
+        <v>250</v>
+      </c>
+      <c r="M35" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="36">
@@ -3664,37 +3797,40 @@
         <v>20257419</v>
       </c>
       <c r="B36" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D36" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="E36" t="s">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>246</v>
       </c>
       <c r="G36" t="s">
-        <v>244</v>
+        <v>18</v>
       </c>
       <c r="H36" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="I36" t="s">
-        <v>44</v>
+        <v>254</v>
       </c>
       <c r="J36" t="s">
-        <v>246</v>
+        <v>48</v>
       </c>
       <c r="K36" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="L36" t="s">
-        <v>47</v>
+        <v>256</v>
+      </c>
+      <c r="M36" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="37">
@@ -3702,37 +3838,40 @@
         <v>20253479</v>
       </c>
       <c r="B37" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="E37" t="s">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>259</v>
       </c>
       <c r="G37" t="s">
-        <v>251</v>
+        <v>18</v>
       </c>
       <c r="H37" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="I37" t="s">
-        <v>68</v>
+        <v>261</v>
       </c>
       <c r="J37" t="s">
-        <v>253</v>
+        <v>74</v>
       </c>
       <c r="K37" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="L37" t="s">
-        <v>22</v>
+        <v>263</v>
+      </c>
+      <c r="M37" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="38">
@@ -3740,37 +3879,40 @@
         <v>20253444</v>
       </c>
       <c r="B38" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="E38" t="s">
-        <v>257</v>
+        <v>27</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>266</v>
       </c>
       <c r="G38" t="s">
-        <v>258</v>
+        <v>18</v>
       </c>
       <c r="H38" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="I38" t="s">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="J38" t="s">
-        <v>260</v>
+        <v>74</v>
       </c>
       <c r="K38" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="L38" t="s">
-        <v>54</v>
+        <v>270</v>
+      </c>
+      <c r="M38" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="39">
@@ -3778,37 +3920,38 @@
         <v>20253425</v>
       </c>
       <c r="B39" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>263</v>
-      </c>
-      <c r="E39" t="s">
-        <v>264</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="E39"/>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="G39" t="s">
-        <v>265</v>
+        <v>18</v>
       </c>
       <c r="H39" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="I39" t="s">
-        <v>68</v>
+        <v>275</v>
       </c>
       <c r="J39" t="s">
-        <v>267</v>
+        <v>74</v>
       </c>
       <c r="K39" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="L39" t="s">
-        <v>22</v>
+        <v>277</v>
+      </c>
+      <c r="M39" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="40">
@@ -3816,37 +3959,40 @@
         <v>20253309</v>
       </c>
       <c r="B40" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E40" t="s">
-        <v>270</v>
+        <v>132</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>279</v>
       </c>
       <c r="G40" t="s">
-        <v>271</v>
+        <v>18</v>
       </c>
       <c r="H40" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="I40" t="s">
-        <v>68</v>
+        <v>281</v>
       </c>
       <c r="J40" t="s">
-        <v>273</v>
+        <v>74</v>
       </c>
       <c r="K40" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="L40" t="s">
-        <v>22</v>
+        <v>283</v>
+      </c>
+      <c r="M40" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="41">
@@ -3854,37 +4000,40 @@
         <v>20253399</v>
       </c>
       <c r="B41" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D41" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E41" t="s">
-        <v>270</v>
+        <v>70</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
+        <v>279</v>
       </c>
       <c r="G41" t="s">
-        <v>277</v>
+        <v>18</v>
       </c>
       <c r="H41" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="I41" t="s">
-        <v>68</v>
+        <v>287</v>
       </c>
       <c r="J41" t="s">
-        <v>279</v>
+        <v>74</v>
       </c>
       <c r="K41" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="L41" t="s">
-        <v>54</v>
+        <v>289</v>
+      </c>
+      <c r="M41" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="42">
@@ -3892,37 +4041,40 @@
         <v>20253404</v>
       </c>
       <c r="B42" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="E42" t="s">
-        <v>270</v>
+        <v>70</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>279</v>
       </c>
       <c r="G42" t="s">
-        <v>283</v>
+        <v>18</v>
       </c>
       <c r="H42" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="I42" t="s">
-        <v>68</v>
+        <v>293</v>
       </c>
       <c r="J42" t="s">
-        <v>285</v>
+        <v>74</v>
       </c>
       <c r="K42" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="L42" t="s">
-        <v>47</v>
+        <v>295</v>
+      </c>
+      <c r="M42" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="43">
@@ -3930,37 +4082,40 @@
         <v>20253417</v>
       </c>
       <c r="B43" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E43" t="s">
-        <v>270</v>
+        <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>279</v>
       </c>
       <c r="G43" t="s">
-        <v>289</v>
+        <v>18</v>
       </c>
       <c r="H43" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="I43" t="s">
-        <v>68</v>
+        <v>299</v>
       </c>
       <c r="J43" t="s">
-        <v>291</v>
+        <v>74</v>
       </c>
       <c r="K43" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="L43" t="s">
-        <v>47</v>
+        <v>301</v>
+      </c>
+      <c r="M43" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="44">
@@ -3968,37 +4123,40 @@
         <v>20251011</v>
       </c>
       <c r="B44" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="C44" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="D44" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="E44" t="s">
-        <v>296</v>
+        <v>54</v>
       </c>
       <c r="F44" t="s">
-        <v>26</v>
+        <v>305</v>
       </c>
       <c r="G44" t="s">
-        <v>297</v>
+        <v>29</v>
       </c>
       <c r="H44" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="I44" t="s">
-        <v>44</v>
+        <v>307</v>
       </c>
       <c r="J44" t="s">
-        <v>299</v>
+        <v>48</v>
       </c>
       <c r="K44" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="L44" t="s">
-        <v>47</v>
+        <v>309</v>
+      </c>
+      <c r="M44" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="45">
@@ -4006,37 +4164,40 @@
         <v>20253194</v>
       </c>
       <c r="B45" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D45" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="E45" t="s">
-        <v>296</v>
+        <v>212</v>
       </c>
       <c r="F45" t="s">
-        <v>26</v>
+        <v>305</v>
       </c>
       <c r="G45" t="s">
-        <v>303</v>
+        <v>29</v>
       </c>
       <c r="H45" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="I45" t="s">
-        <v>44</v>
+        <v>313</v>
       </c>
       <c r="J45" t="s">
-        <v>305</v>
+        <v>48</v>
       </c>
       <c r="K45" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="L45" t="s">
-        <v>47</v>
+        <v>315</v>
+      </c>
+      <c r="M45" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="46">
@@ -4044,37 +4205,40 @@
         <v>20253203</v>
       </c>
       <c r="B46" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D46" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="E46" t="s">
-        <v>296</v>
+        <v>212</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
+        <v>305</v>
       </c>
       <c r="G46" t="s">
-        <v>309</v>
+        <v>18</v>
       </c>
       <c r="H46" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="I46" t="s">
-        <v>44</v>
+        <v>319</v>
       </c>
       <c r="J46" t="s">
-        <v>311</v>
+        <v>48</v>
       </c>
       <c r="K46" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="L46" t="s">
-        <v>54</v>
+        <v>321</v>
+      </c>
+      <c r="M46" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="47">
@@ -4082,37 +4246,40 @@
         <v>20253213</v>
       </c>
       <c r="B47" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D47" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="E47" t="s">
-        <v>296</v>
+        <v>212</v>
       </c>
       <c r="F47" t="s">
-        <v>26</v>
+        <v>305</v>
       </c>
       <c r="G47" t="s">
-        <v>315</v>
+        <v>29</v>
       </c>
       <c r="H47" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="I47" t="s">
-        <v>44</v>
+        <v>325</v>
       </c>
       <c r="J47" t="s">
-        <v>317</v>
+        <v>48</v>
       </c>
       <c r="K47" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="L47" t="s">
-        <v>47</v>
+        <v>327</v>
+      </c>
+      <c r="M47" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="48">
@@ -4120,37 +4287,40 @@
         <v>20253214</v>
       </c>
       <c r="B48" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C48" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D48" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="E48" t="s">
-        <v>296</v>
+        <v>212</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
+        <v>305</v>
       </c>
       <c r="G48" t="s">
-        <v>320</v>
+        <v>18</v>
       </c>
       <c r="H48" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="I48" t="s">
-        <v>44</v>
+        <v>330</v>
       </c>
       <c r="J48" t="s">
-        <v>322</v>
+        <v>48</v>
       </c>
       <c r="K48" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="L48" t="s">
-        <v>47</v>
+        <v>332</v>
+      </c>
+      <c r="M48" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="49">
@@ -4158,37 +4328,40 @@
         <v>20253246</v>
       </c>
       <c r="B49" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="E49" t="s">
-        <v>296</v>
+        <v>16</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
+        <v>305</v>
       </c>
       <c r="G49" t="s">
-        <v>326</v>
+        <v>18</v>
       </c>
       <c r="H49" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="I49" t="s">
-        <v>145</v>
+        <v>336</v>
       </c>
       <c r="J49" t="s">
-        <v>328</v>
+        <v>153</v>
       </c>
       <c r="K49" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="L49" t="s">
-        <v>22</v>
+        <v>338</v>
+      </c>
+      <c r="M49" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="50">
@@ -4196,37 +4369,40 @@
         <v>20253093</v>
       </c>
       <c r="B50" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D50" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="E50" t="s">
-        <v>332</v>
+        <v>70</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
+        <v>341</v>
       </c>
       <c r="G50" t="s">
-        <v>333</v>
+        <v>18</v>
       </c>
       <c r="H50" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="I50" t="s">
-        <v>68</v>
+        <v>343</v>
       </c>
       <c r="J50" t="s">
-        <v>335</v>
+        <v>74</v>
       </c>
       <c r="K50" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="L50" t="s">
-        <v>22</v>
+        <v>345</v>
+      </c>
+      <c r="M50" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="51">
@@ -4234,37 +4410,40 @@
         <v>20257213</v>
       </c>
       <c r="B51" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="C51" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D51" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E51" t="s">
-        <v>338</v>
+        <v>70</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>347</v>
       </c>
       <c r="G51" t="s">
-        <v>339</v>
+        <v>18</v>
       </c>
       <c r="H51" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="I51" t="s">
-        <v>44</v>
+        <v>349</v>
       </c>
       <c r="J51" t="s">
-        <v>341</v>
+        <v>48</v>
       </c>
       <c r="K51" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="L51" t="s">
-        <v>22</v>
+        <v>351</v>
+      </c>
+      <c r="M51" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="52">
@@ -4272,37 +4451,40 @@
         <v>20253054</v>
       </c>
       <c r="B52" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="E52" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
+        <v>355</v>
       </c>
       <c r="G52" t="s">
-        <v>346</v>
+        <v>18</v>
       </c>
       <c r="H52" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="I52" t="s">
-        <v>68</v>
+        <v>357</v>
       </c>
       <c r="J52" t="s">
-        <v>348</v>
+        <v>74</v>
       </c>
       <c r="K52" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="L52" t="s">
-        <v>47</v>
+        <v>359</v>
+      </c>
+      <c r="M52" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="53">
@@ -4310,37 +4492,40 @@
         <v>20257102</v>
       </c>
       <c r="B53" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="C53" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D53" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E53" t="s">
-        <v>345</v>
+        <v>70</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
+        <v>355</v>
       </c>
       <c r="G53" t="s">
-        <v>351</v>
+        <v>18</v>
       </c>
       <c r="H53" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="I53" t="s">
-        <v>44</v>
+        <v>362</v>
       </c>
       <c r="J53" t="s">
-        <v>353</v>
+        <v>48</v>
       </c>
       <c r="K53" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="L53" t="s">
-        <v>47</v>
+        <v>364</v>
+      </c>
+      <c r="M53" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="54">
@@ -4348,37 +4533,40 @@
         <v>20257129</v>
       </c>
       <c r="B54" t="s">
+        <v>365</v>
+      </c>
+      <c r="C54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" t="s">
+        <v>265</v>
+      </c>
+      <c r="E54" t="s">
+        <v>27</v>
+      </c>
+      <c r="F54" t="s">
         <v>355</v>
       </c>
-      <c r="C54" t="s">
-        <v>39</v>
-      </c>
-      <c r="D54" t="s">
-        <v>256</v>
-      </c>
-      <c r="E54" t="s">
-        <v>345</v>
-      </c>
-      <c r="F54" t="s">
-        <v>16</v>
-      </c>
       <c r="G54" t="s">
-        <v>356</v>
+        <v>18</v>
       </c>
       <c r="H54" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="I54" t="s">
-        <v>44</v>
+        <v>367</v>
       </c>
       <c r="J54" t="s">
-        <v>358</v>
+        <v>48</v>
       </c>
       <c r="K54" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="L54" t="s">
-        <v>22</v>
+        <v>369</v>
+      </c>
+      <c r="M54" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="55">
@@ -4386,37 +4574,40 @@
         <v>20257138</v>
       </c>
       <c r="B55" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="C55" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D55" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="E55" t="s">
-        <v>345</v>
+        <v>70</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
+        <v>355</v>
       </c>
       <c r="G55" t="s">
-        <v>362</v>
+        <v>18</v>
       </c>
       <c r="H55" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="I55" t="s">
-        <v>44</v>
+        <v>373</v>
       </c>
       <c r="J55" t="s">
-        <v>364</v>
+        <v>48</v>
       </c>
       <c r="K55" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="L55" t="s">
-        <v>47</v>
+        <v>375</v>
+      </c>
+      <c r="M55" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="56">
@@ -4424,37 +4615,40 @@
         <v>20253031</v>
       </c>
       <c r="B56" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="C56" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D56" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="E56" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
+        <v>379</v>
       </c>
       <c r="G56" t="s">
-        <v>369</v>
+        <v>18</v>
       </c>
       <c r="H56" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="I56" t="s">
-        <v>68</v>
+        <v>381</v>
       </c>
       <c r="J56" t="s">
-        <v>371</v>
+        <v>74</v>
       </c>
       <c r="K56" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="L56" t="s">
-        <v>47</v>
+        <v>383</v>
+      </c>
+      <c r="M56" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="57">
@@ -4462,37 +4656,40 @@
         <v>20257012</v>
       </c>
       <c r="B57" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="C57" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D57" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="E57" t="s">
-        <v>368</v>
+        <v>16</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
+        <v>379</v>
       </c>
       <c r="G57" t="s">
-        <v>375</v>
+        <v>18</v>
       </c>
       <c r="H57" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="I57" t="s">
-        <v>44</v>
+        <v>387</v>
       </c>
       <c r="J57" t="s">
-        <v>377</v>
+        <v>48</v>
       </c>
       <c r="K57" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="L57" t="s">
-        <v>54</v>
+        <v>389</v>
+      </c>
+      <c r="M57" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="58">
@@ -4500,37 +4697,38 @@
         <v>20253008</v>
       </c>
       <c r="B58" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>380</v>
-      </c>
-      <c r="E58" t="s">
-        <v>381</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="E58"/>
       <c r="F58" t="s">
-        <v>16</v>
+        <v>392</v>
       </c>
       <c r="G58" t="s">
-        <v>382</v>
+        <v>18</v>
       </c>
       <c r="H58" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="I58" t="s">
-        <v>44</v>
+        <v>394</v>
       </c>
       <c r="J58" t="s">
-        <v>384</v>
+        <v>48</v>
       </c>
       <c r="K58" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="L58" t="s">
-        <v>47</v>
+        <v>396</v>
+      </c>
+      <c r="M58" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="59">
@@ -4538,37 +4736,40 @@
         <v>20244404</v>
       </c>
       <c r="B59" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D59" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="E59" t="s">
-        <v>388</v>
+        <v>212</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
+        <v>399</v>
       </c>
       <c r="G59" t="s">
-        <v>389</v>
+        <v>18</v>
       </c>
       <c r="H59" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="I59" t="s">
-        <v>44</v>
+        <v>401</v>
       </c>
       <c r="J59" t="s">
-        <v>391</v>
+        <v>48</v>
       </c>
       <c r="K59" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="L59" t="s">
-        <v>47</v>
+        <v>403</v>
+      </c>
+      <c r="M59" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="60">
@@ -4576,37 +4777,40 @@
         <v>20244419</v>
       </c>
       <c r="B60" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="C60" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D60" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="E60" t="s">
-        <v>388</v>
+        <v>27</v>
       </c>
       <c r="F60" t="s">
-        <v>26</v>
+        <v>399</v>
       </c>
       <c r="G60" t="s">
-        <v>394</v>
+        <v>29</v>
       </c>
       <c r="H60" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="I60" t="s">
-        <v>44</v>
+        <v>406</v>
       </c>
       <c r="J60" t="s">
-        <v>396</v>
+        <v>48</v>
       </c>
       <c r="K60" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="L60" t="s">
-        <v>47</v>
+        <v>408</v>
+      </c>
+      <c r="M60" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="61">
@@ -4614,37 +4818,40 @@
         <v>20247975</v>
       </c>
       <c r="B61" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="C61" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D61" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="E61" t="s">
-        <v>400</v>
+        <v>16</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
+        <v>411</v>
       </c>
       <c r="G61" t="s">
-        <v>401</v>
+        <v>18</v>
       </c>
       <c r="H61" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="I61" t="s">
-        <v>44</v>
+        <v>413</v>
       </c>
       <c r="J61" t="s">
-        <v>403</v>
+        <v>48</v>
       </c>
       <c r="K61" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="L61" t="s">
-        <v>22</v>
+        <v>415</v>
+      </c>
+      <c r="M61" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="62">
@@ -4652,37 +4859,40 @@
         <v>20248043</v>
       </c>
       <c r="B62" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="C62" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D62" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="E62" t="s">
-        <v>400</v>
+        <v>212</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
+        <v>411</v>
       </c>
       <c r="G62" t="s">
-        <v>407</v>
+        <v>18</v>
       </c>
       <c r="H62" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="I62" t="s">
-        <v>44</v>
+        <v>419</v>
       </c>
       <c r="J62" t="s">
-        <v>409</v>
+        <v>48</v>
       </c>
       <c r="K62" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="L62" t="s">
-        <v>22</v>
+        <v>421</v>
+      </c>
+      <c r="M62" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="63">
@@ -4690,37 +4900,40 @@
         <v>20244290</v>
       </c>
       <c r="B63" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="C63" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D63" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="E63" t="s">
-        <v>413</v>
+        <v>54</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
+        <v>424</v>
       </c>
       <c r="G63" t="s">
-        <v>414</v>
+        <v>18</v>
       </c>
       <c r="H63" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="I63" t="s">
-        <v>68</v>
+        <v>426</v>
       </c>
       <c r="J63" t="s">
-        <v>416</v>
+        <v>74</v>
       </c>
       <c r="K63" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="L63" t="s">
-        <v>47</v>
+        <v>428</v>
+      </c>
+      <c r="M63" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="64">
@@ -4728,37 +4941,40 @@
         <v>20244278</v>
       </c>
       <c r="B64" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="C64" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D64" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="E64" t="s">
-        <v>420</v>
+        <v>70</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
+        <v>431</v>
       </c>
       <c r="G64" t="s">
-        <v>421</v>
+        <v>18</v>
       </c>
       <c r="H64" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="I64" t="s">
-        <v>68</v>
+        <v>433</v>
       </c>
       <c r="J64" t="s">
-        <v>423</v>
+        <v>74</v>
       </c>
       <c r="K64" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="L64" t="s">
-        <v>22</v>
+        <v>435</v>
+      </c>
+      <c r="M64" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="65">
@@ -4766,37 +4982,40 @@
         <v>20244082</v>
       </c>
       <c r="B65" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="C65" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D65" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E65" t="s">
-        <v>426</v>
+        <v>16</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
+        <v>437</v>
       </c>
       <c r="G65" t="s">
-        <v>427</v>
+        <v>18</v>
       </c>
       <c r="H65" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="I65" t="s">
-        <v>68</v>
+        <v>439</v>
       </c>
       <c r="J65" t="s">
-        <v>429</v>
+        <v>74</v>
       </c>
       <c r="K65" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="L65" t="s">
-        <v>47</v>
+        <v>441</v>
+      </c>
+      <c r="M65" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="66">
@@ -4804,37 +5023,40 @@
         <v>20244112</v>
       </c>
       <c r="B66" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="C66" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D66" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="E66" t="s">
-        <v>426</v>
+        <v>54</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
+        <v>437</v>
       </c>
       <c r="G66" t="s">
-        <v>433</v>
+        <v>18</v>
       </c>
       <c r="H66" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="I66" t="s">
-        <v>68</v>
+        <v>445</v>
       </c>
       <c r="J66" t="s">
-        <v>435</v>
+        <v>74</v>
       </c>
       <c r="K66" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="L66" t="s">
-        <v>54</v>
+        <v>447</v>
+      </c>
+      <c r="M66" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="67">
@@ -4842,37 +5064,40 @@
         <v>20244131</v>
       </c>
       <c r="B67" t="s">
+        <v>448</v>
+      </c>
+      <c r="C67" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67" t="s">
+        <v>53</v>
+      </c>
+      <c r="E67" t="s">
+        <v>54</v>
+      </c>
+      <c r="F67" t="s">
         <v>437</v>
       </c>
-      <c r="C67" t="s">
-        <v>32</v>
-      </c>
-      <c r="D67" t="s">
-        <v>49</v>
-      </c>
-      <c r="E67" t="s">
-        <v>426</v>
-      </c>
-      <c r="F67" t="s">
-        <v>16</v>
-      </c>
       <c r="G67" t="s">
-        <v>438</v>
+        <v>18</v>
       </c>
       <c r="H67" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="I67" t="s">
-        <v>68</v>
+        <v>450</v>
       </c>
       <c r="J67" t="s">
-        <v>440</v>
+        <v>74</v>
       </c>
       <c r="K67" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="L67" t="s">
-        <v>47</v>
+        <v>452</v>
+      </c>
+      <c r="M67" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="68">
@@ -4880,37 +5105,40 @@
         <v>20244132</v>
       </c>
       <c r="B68" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="C68" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D68" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E68" t="s">
-        <v>426</v>
+        <v>132</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
+        <v>437</v>
       </c>
       <c r="G68" t="s">
-        <v>443</v>
+        <v>18</v>
       </c>
       <c r="H68" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="I68" t="s">
-        <v>68</v>
+        <v>455</v>
       </c>
       <c r="J68" t="s">
-        <v>445</v>
+        <v>74</v>
       </c>
       <c r="K68" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="L68" t="s">
-        <v>54</v>
+        <v>457</v>
+      </c>
+      <c r="M68" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="69">
@@ -4918,37 +5146,40 @@
         <v>20244133</v>
       </c>
       <c r="B69" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="C69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E69" t="s">
-        <v>426</v>
+        <v>132</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
+        <v>437</v>
       </c>
       <c r="G69" t="s">
-        <v>448</v>
+        <v>18</v>
       </c>
       <c r="H69" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="I69" t="s">
-        <v>68</v>
+        <v>460</v>
       </c>
       <c r="J69" t="s">
-        <v>450</v>
+        <v>74</v>
       </c>
       <c r="K69" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="L69" t="s">
-        <v>54</v>
+        <v>462</v>
+      </c>
+      <c r="M69" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="70">
@@ -4956,37 +5187,40 @@
         <v>20244137</v>
       </c>
       <c r="B70" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="C70" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D70" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="E70" t="s">
-        <v>426</v>
+        <v>54</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
+        <v>437</v>
       </c>
       <c r="G70" t="s">
-        <v>454</v>
+        <v>18</v>
       </c>
       <c r="H70" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="I70" t="s">
-        <v>68</v>
+        <v>466</v>
       </c>
       <c r="J70" t="s">
-        <v>456</v>
+        <v>74</v>
       </c>
       <c r="K70" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="L70" t="s">
-        <v>54</v>
+        <v>468</v>
+      </c>
+      <c r="M70" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="71">
@@ -4994,37 +5228,40 @@
         <v>20243937</v>
       </c>
       <c r="B71" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="C71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="E71" t="s">
-        <v>460</v>
+        <v>212</v>
       </c>
       <c r="F71" t="s">
-        <v>26</v>
+        <v>471</v>
       </c>
       <c r="G71" t="s">
-        <v>461</v>
+        <v>29</v>
       </c>
       <c r="H71" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="I71" t="s">
-        <v>177</v>
+        <v>473</v>
       </c>
       <c r="J71" t="s">
-        <v>463</v>
+        <v>185</v>
       </c>
       <c r="K71" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="L71" t="s">
-        <v>22</v>
+        <v>475</v>
+      </c>
+      <c r="M71" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="72">
@@ -5032,37 +5269,40 @@
         <v>20243948</v>
       </c>
       <c r="B72" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="C72" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D72" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="E72" t="s">
-        <v>460</v>
+        <v>54</v>
       </c>
       <c r="F72" t="s">
-        <v>26</v>
+        <v>471</v>
       </c>
       <c r="G72" t="s">
-        <v>467</v>
+        <v>29</v>
       </c>
       <c r="H72" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="I72" t="s">
-        <v>44</v>
+        <v>479</v>
       </c>
       <c r="J72" t="s">
-        <v>469</v>
+        <v>48</v>
       </c>
       <c r="K72" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="L72" t="s">
-        <v>47</v>
+        <v>481</v>
+      </c>
+      <c r="M72" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="73">
@@ -5070,37 +5310,40 @@
         <v>20247720</v>
       </c>
       <c r="B73" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="C73" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D73" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="E73" t="s">
-        <v>472</v>
+        <v>27</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
+        <v>483</v>
       </c>
       <c r="G73" t="s">
-        <v>473</v>
+        <v>18</v>
       </c>
       <c r="H73" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="I73" t="s">
-        <v>44</v>
+        <v>485</v>
       </c>
       <c r="J73" t="s">
-        <v>475</v>
+        <v>48</v>
       </c>
       <c r="K73" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="L73" t="s">
-        <v>22</v>
+        <v>487</v>
+      </c>
+      <c r="M73" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="74">
@@ -5108,37 +5351,40 @@
         <v>20247726</v>
       </c>
       <c r="B74" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="C74" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D74" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E74" t="s">
-        <v>472</v>
+        <v>16</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
+        <v>483</v>
       </c>
       <c r="G74" t="s">
-        <v>478</v>
+        <v>18</v>
       </c>
       <c r="H74" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="I74" t="s">
-        <v>44</v>
+        <v>490</v>
       </c>
       <c r="J74" t="s">
-        <v>480</v>
+        <v>48</v>
       </c>
       <c r="K74" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="L74" t="s">
-        <v>47</v>
+        <v>492</v>
+      </c>
+      <c r="M74" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="75">
@@ -5146,37 +5392,40 @@
         <v>20247773</v>
       </c>
       <c r="B75" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="C75" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D75" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E75" t="s">
-        <v>472</v>
+        <v>125</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
+        <v>483</v>
       </c>
       <c r="G75" t="s">
-        <v>483</v>
+        <v>18</v>
       </c>
       <c r="H75" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="I75" t="s">
-        <v>44</v>
+        <v>495</v>
       </c>
       <c r="J75" t="s">
-        <v>485</v>
+        <v>48</v>
       </c>
       <c r="K75" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="L75" t="s">
-        <v>54</v>
+        <v>497</v>
+      </c>
+      <c r="M75" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="76">
@@ -5184,37 +5433,40 @@
         <v>20247774</v>
       </c>
       <c r="B76" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="C76" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D76" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E76" t="s">
-        <v>472</v>
+        <v>125</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
+        <v>483</v>
       </c>
       <c r="G76" t="s">
-        <v>488</v>
+        <v>18</v>
       </c>
       <c r="H76" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="I76" t="s">
-        <v>44</v>
+        <v>500</v>
       </c>
       <c r="J76" t="s">
-        <v>490</v>
+        <v>48</v>
       </c>
       <c r="K76" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="L76" t="s">
-        <v>54</v>
+        <v>502</v>
+      </c>
+      <c r="M76" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="77">
@@ -5222,37 +5474,40 @@
         <v>20243858</v>
       </c>
       <c r="B77" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="C77" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D77" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="E77" t="s">
-        <v>494</v>
+        <v>16</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
+        <v>505</v>
       </c>
       <c r="G77" t="s">
-        <v>495</v>
+        <v>18</v>
       </c>
       <c r="H77" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="I77" t="s">
-        <v>68</v>
+        <v>507</v>
       </c>
       <c r="J77" t="s">
-        <v>497</v>
+        <v>74</v>
       </c>
       <c r="K77" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="L77" t="s">
-        <v>22</v>
+        <v>509</v>
+      </c>
+      <c r="M77" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="78">
@@ -5260,37 +5515,40 @@
         <v>20243877</v>
       </c>
       <c r="B78" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="C78" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D78" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="E78" t="s">
-        <v>494</v>
+        <v>16</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
+        <v>505</v>
       </c>
       <c r="G78" t="s">
-        <v>501</v>
+        <v>18</v>
       </c>
       <c r="H78" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="I78" t="s">
-        <v>68</v>
+        <v>513</v>
       </c>
       <c r="J78" t="s">
-        <v>503</v>
+        <v>74</v>
       </c>
       <c r="K78" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="L78" t="s">
-        <v>47</v>
+        <v>515</v>
+      </c>
+      <c r="M78" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="79">
@@ -5298,37 +5556,40 @@
         <v>20247622</v>
       </c>
       <c r="B79" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="C79" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D79" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E79" t="s">
-        <v>506</v>
+        <v>54</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
+        <v>517</v>
       </c>
       <c r="G79" t="s">
-        <v>507</v>
+        <v>18</v>
       </c>
       <c r="H79" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="I79" t="s">
-        <v>44</v>
+        <v>519</v>
       </c>
       <c r="J79" t="s">
-        <v>509</v>
+        <v>48</v>
       </c>
       <c r="K79" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="L79" t="s">
-        <v>47</v>
+        <v>521</v>
+      </c>
+      <c r="M79" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="80">
@@ -5336,37 +5597,40 @@
         <v>20247649</v>
       </c>
       <c r="B80" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="C80" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D80" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="E80" t="s">
-        <v>506</v>
+        <v>27</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
+        <v>517</v>
       </c>
       <c r="G80" t="s">
-        <v>513</v>
+        <v>18</v>
       </c>
       <c r="H80" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="I80" t="s">
-        <v>44</v>
+        <v>525</v>
       </c>
       <c r="J80" t="s">
-        <v>515</v>
+        <v>48</v>
       </c>
       <c r="K80" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="L80" t="s">
-        <v>47</v>
+        <v>527</v>
+      </c>
+      <c r="M80" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="81">
@@ -5374,37 +5638,40 @@
         <v>20243709</v>
       </c>
       <c r="B81" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="C81" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D81" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="E81" t="s">
-        <v>519</v>
+        <v>70</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
+        <v>530</v>
       </c>
       <c r="G81" t="s">
-        <v>520</v>
+        <v>18</v>
       </c>
       <c r="H81" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="I81" t="s">
-        <v>68</v>
+        <v>532</v>
       </c>
       <c r="J81" t="s">
-        <v>522</v>
+        <v>74</v>
       </c>
       <c r="K81" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="L81" t="s">
-        <v>54</v>
+        <v>534</v>
+      </c>
+      <c r="M81" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="82">
@@ -5412,37 +5679,40 @@
         <v>20243773</v>
       </c>
       <c r="B82" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="C82" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D82" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="E82" t="s">
-        <v>519</v>
+        <v>37</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
+        <v>530</v>
       </c>
       <c r="G82" t="s">
-        <v>526</v>
+        <v>18</v>
       </c>
       <c r="H82" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="I82" t="s">
-        <v>68</v>
+        <v>538</v>
       </c>
       <c r="J82" t="s">
-        <v>528</v>
+        <v>74</v>
       </c>
       <c r="K82" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="L82" t="s">
-        <v>47</v>
+        <v>540</v>
+      </c>
+      <c r="M82" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="83">
@@ -5450,37 +5720,40 @@
         <v>20243776</v>
       </c>
       <c r="B83" t="s">
+        <v>541</v>
+      </c>
+      <c r="C83" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" t="s">
+        <v>536</v>
+      </c>
+      <c r="E83" t="s">
+        <v>37</v>
+      </c>
+      <c r="F83" t="s">
         <v>530</v>
       </c>
-      <c r="C83" t="s">
-        <v>13</v>
-      </c>
-      <c r="D83" t="s">
-        <v>525</v>
-      </c>
-      <c r="E83" t="s">
-        <v>519</v>
-      </c>
-      <c r="F83" t="s">
-        <v>16</v>
-      </c>
       <c r="G83" t="s">
-        <v>531</v>
+        <v>18</v>
       </c>
       <c r="H83" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="I83" t="s">
-        <v>44</v>
+        <v>543</v>
       </c>
       <c r="J83" t="s">
-        <v>533</v>
+        <v>48</v>
       </c>
       <c r="K83" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="L83" t="s">
-        <v>22</v>
+        <v>545</v>
+      </c>
+      <c r="M83" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="84">
@@ -5488,37 +5761,40 @@
         <v>20243609</v>
       </c>
       <c r="B84" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="C84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D84" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="E84" t="s">
-        <v>537</v>
+        <v>16</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
+        <v>548</v>
       </c>
       <c r="G84" t="s">
-        <v>538</v>
+        <v>18</v>
       </c>
       <c r="H84" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="I84" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="J84" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="K84" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="L84" t="s">
-        <v>47</v>
+        <v>553</v>
+      </c>
+      <c r="M84" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="85">
@@ -5526,37 +5802,40 @@
         <v>20243574</v>
       </c>
       <c r="B85" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="C85" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D85" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="E85" t="s">
-        <v>544</v>
+        <v>212</v>
       </c>
       <c r="F85" t="s">
-        <v>26</v>
+        <v>555</v>
       </c>
       <c r="G85" t="s">
-        <v>545</v>
+        <v>29</v>
       </c>
       <c r="H85" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="I85" t="s">
-        <v>44</v>
+        <v>557</v>
       </c>
       <c r="J85" t="s">
-        <v>547</v>
+        <v>48</v>
       </c>
       <c r="K85" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="L85" t="s">
-        <v>22</v>
+        <v>559</v>
+      </c>
+      <c r="M85" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="86">
@@ -5564,37 +5843,40 @@
         <v>20243557</v>
       </c>
       <c r="B86" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="C86" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D86" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="E86" t="s">
-        <v>551</v>
+        <v>212</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
+        <v>562</v>
       </c>
       <c r="G86" t="s">
-        <v>552</v>
+        <v>18</v>
       </c>
       <c r="H86" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="I86" t="s">
-        <v>44</v>
+        <v>564</v>
       </c>
       <c r="J86" t="s">
-        <v>554</v>
+        <v>48</v>
       </c>
       <c r="K86" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="L86" t="s">
-        <v>47</v>
+        <v>566</v>
+      </c>
+      <c r="M86" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="87">
@@ -5602,37 +5884,38 @@
         <v>20243471</v>
       </c>
       <c r="B87" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="C87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>557</v>
-      </c>
-      <c r="E87" t="s">
-        <v>558</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="E87"/>
       <c r="F87" t="s">
-        <v>16</v>
+        <v>569</v>
       </c>
       <c r="G87" t="s">
-        <v>559</v>
+        <v>18</v>
       </c>
       <c r="H87" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="I87" t="s">
-        <v>44</v>
+        <v>571</v>
       </c>
       <c r="J87" t="s">
-        <v>561</v>
+        <v>48</v>
       </c>
       <c r="K87" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="L87" t="s">
-        <v>22</v>
+        <v>573</v>
+      </c>
+      <c r="M87" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="88">
@@ -5640,37 +5923,38 @@
         <v>20243468</v>
       </c>
       <c r="B88" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="C88" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D88" t="s">
-        <v>564</v>
-      </c>
-      <c r="E88" t="s">
-        <v>565</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="E88"/>
       <c r="F88" t="s">
-        <v>16</v>
+        <v>576</v>
       </c>
       <c r="G88" t="s">
-        <v>566</v>
+        <v>18</v>
       </c>
       <c r="H88" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="I88" t="s">
-        <v>177</v>
+        <v>578</v>
       </c>
       <c r="J88" t="s">
-        <v>568</v>
+        <v>185</v>
       </c>
       <c r="K88" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="L88" t="s">
-        <v>47</v>
+        <v>580</v>
+      </c>
+      <c r="M88" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="89">
@@ -5678,37 +5962,38 @@
         <v>20243467</v>
       </c>
       <c r="B89" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="C89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>571</v>
-      </c>
-      <c r="E89" t="s">
-        <v>572</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="E89"/>
       <c r="F89" t="s">
-        <v>26</v>
+        <v>583</v>
       </c>
       <c r="G89" t="s">
-        <v>573</v>
+        <v>29</v>
       </c>
       <c r="H89" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="I89" t="s">
-        <v>44</v>
+        <v>585</v>
       </c>
       <c r="J89" t="s">
-        <v>575</v>
+        <v>48</v>
       </c>
       <c r="K89" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="L89" t="s">
-        <v>47</v>
+        <v>587</v>
+      </c>
+      <c r="M89" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="90">
@@ -5716,37 +6001,40 @@
         <v>20243318</v>
       </c>
       <c r="B90" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="C90" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D90" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="E90" t="s">
-        <v>579</v>
+        <v>37</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
+        <v>590</v>
       </c>
       <c r="G90" t="s">
-        <v>580</v>
+        <v>18</v>
       </c>
       <c r="H90" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="I90" t="s">
-        <v>68</v>
+        <v>592</v>
       </c>
       <c r="J90" t="s">
-        <v>582</v>
+        <v>74</v>
       </c>
       <c r="K90" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="L90" t="s">
-        <v>54</v>
+        <v>594</v>
+      </c>
+      <c r="M90" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="91">
@@ -5754,37 +6042,40 @@
         <v>20243234</v>
       </c>
       <c r="B91" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="C91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E91" t="s">
-        <v>585</v>
+        <v>16</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
+        <v>596</v>
       </c>
       <c r="G91" t="s">
-        <v>586</v>
+        <v>18</v>
       </c>
       <c r="H91" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="I91" t="s">
-        <v>44</v>
+        <v>598</v>
       </c>
       <c r="J91" t="s">
-        <v>588</v>
+        <v>48</v>
       </c>
       <c r="K91" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="L91" t="s">
-        <v>47</v>
+        <v>600</v>
+      </c>
+      <c r="M91" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="92">
@@ -5792,37 +6083,40 @@
         <v>20243259</v>
       </c>
       <c r="B92" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="C92" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D92" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="E92" t="s">
-        <v>585</v>
+        <v>70</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
+        <v>596</v>
       </c>
       <c r="G92" t="s">
-        <v>592</v>
+        <v>18</v>
       </c>
       <c r="H92" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="I92" t="s">
-        <v>44</v>
+        <v>604</v>
       </c>
       <c r="J92" t="s">
-        <v>594</v>
+        <v>48</v>
       </c>
       <c r="K92" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="L92" t="s">
-        <v>47</v>
+        <v>606</v>
+      </c>
+      <c r="M92" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="93">
@@ -5830,37 +6124,40 @@
         <v>20243169</v>
       </c>
       <c r="B93" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="C93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="E93" t="s">
-        <v>598</v>
+        <v>16</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
+        <v>609</v>
       </c>
       <c r="G93" t="s">
-        <v>599</v>
+        <v>18</v>
       </c>
       <c r="H93" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="I93" t="s">
-        <v>44</v>
+        <v>611</v>
       </c>
       <c r="J93" t="s">
-        <v>601</v>
+        <v>48</v>
       </c>
       <c r="K93" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="L93" t="s">
-        <v>47</v>
+        <v>613</v>
+      </c>
+      <c r="M93" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="94">
@@ -5868,37 +6165,40 @@
         <v>20243077</v>
       </c>
       <c r="B94" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="C94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E94" t="s">
-        <v>604</v>
+        <v>16</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
+        <v>615</v>
       </c>
       <c r="G94" t="s">
-        <v>605</v>
+        <v>18</v>
       </c>
       <c r="H94" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="I94" t="s">
-        <v>68</v>
+        <v>617</v>
       </c>
       <c r="J94" t="s">
-        <v>607</v>
+        <v>74</v>
       </c>
       <c r="K94" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="L94" t="s">
-        <v>47</v>
+        <v>619</v>
+      </c>
+      <c r="M94" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="95">
@@ -5906,37 +6206,40 @@
         <v>20247112</v>
       </c>
       <c r="B95" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="C95" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D95" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="E95" t="s">
-        <v>611</v>
+        <v>54</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
+        <v>622</v>
       </c>
       <c r="G95" t="s">
-        <v>612</v>
+        <v>18</v>
       </c>
       <c r="H95" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="I95" t="s">
-        <v>44</v>
+        <v>624</v>
       </c>
       <c r="J95" t="s">
-        <v>614</v>
+        <v>48</v>
       </c>
       <c r="K95" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="L95" t="s">
-        <v>54</v>
+        <v>626</v>
+      </c>
+      <c r="M95" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="96">
@@ -5944,37 +6247,40 @@
         <v>20247015</v>
       </c>
       <c r="B96" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="C96" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D96" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="E96" t="s">
-        <v>617</v>
+        <v>27</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
+        <v>628</v>
       </c>
       <c r="G96" t="s">
-        <v>618</v>
+        <v>18</v>
       </c>
       <c r="H96" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="I96" t="s">
-        <v>44</v>
+        <v>630</v>
       </c>
       <c r="J96" t="s">
-        <v>620</v>
+        <v>48</v>
       </c>
       <c r="K96" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="L96" t="s">
-        <v>22</v>
+        <v>632</v>
+      </c>
+      <c r="M96" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="97">
@@ -5982,37 +6288,40 @@
         <v>20234494</v>
       </c>
       <c r="B97" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="C97" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D97" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E97" t="s">
-        <v>623</v>
+        <v>54</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
+        <v>634</v>
       </c>
       <c r="G97" t="s">
-        <v>624</v>
+        <v>18</v>
       </c>
       <c r="H97" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="I97" t="s">
-        <v>44</v>
+        <v>636</v>
       </c>
       <c r="J97" t="s">
-        <v>626</v>
+        <v>48</v>
       </c>
       <c r="K97" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="L97" t="s">
-        <v>22</v>
+        <v>638</v>
+      </c>
+      <c r="M97" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="98">
@@ -6020,37 +6329,40 @@
         <v>20234461</v>
       </c>
       <c r="B98" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c r="C98" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D98" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E98" t="s">
-        <v>629</v>
+        <v>54</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
+        <v>640</v>
       </c>
       <c r="G98" t="s">
-        <v>630</v>
+        <v>18</v>
       </c>
       <c r="H98" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="I98" t="s">
-        <v>44</v>
+        <v>642</v>
       </c>
       <c r="J98" t="s">
-        <v>632</v>
+        <v>48</v>
       </c>
       <c r="K98" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="L98" t="s">
-        <v>47</v>
+        <v>644</v>
+      </c>
+      <c r="M98" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="99">
@@ -6058,37 +6370,40 @@
         <v>20234375</v>
       </c>
       <c r="B99" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="C99" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D99" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="E99" t="s">
-        <v>636</v>
+        <v>16</v>
       </c>
       <c r="F99" t="s">
-        <v>16</v>
+        <v>647</v>
       </c>
       <c r="G99" t="s">
-        <v>637</v>
+        <v>18</v>
       </c>
       <c r="H99" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="I99" t="s">
-        <v>44</v>
+        <v>649</v>
       </c>
       <c r="J99" t="s">
-        <v>639</v>
+        <v>48</v>
       </c>
       <c r="K99" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="L99" t="s">
-        <v>22</v>
+        <v>651</v>
+      </c>
+      <c r="M99" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="100">
@@ -6096,37 +6411,40 @@
         <v>20234353</v>
       </c>
       <c r="B100" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="C100" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D100" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="E100" t="s">
-        <v>643</v>
+        <v>16</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
+        <v>654</v>
       </c>
       <c r="G100" t="s">
-        <v>644</v>
+        <v>18</v>
       </c>
       <c r="H100" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="I100" t="s">
-        <v>44</v>
+        <v>656</v>
       </c>
       <c r="J100" t="s">
-        <v>646</v>
+        <v>48</v>
       </c>
       <c r="K100" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="L100" t="s">
-        <v>47</v>
+        <v>658</v>
+      </c>
+      <c r="M100" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="101">
@@ -6134,37 +6452,38 @@
         <v>20234346</v>
       </c>
       <c r="B101" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="C101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>649</v>
-      </c>
-      <c r="E101" t="s">
-        <v>650</v>
-      </c>
+        <v>660</v>
+      </c>
+      <c r="E101"/>
       <c r="F101" t="s">
-        <v>26</v>
+        <v>661</v>
       </c>
       <c r="G101" t="s">
-        <v>651</v>
+        <v>29</v>
       </c>
       <c r="H101" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="I101" t="s">
-        <v>44</v>
+        <v>663</v>
       </c>
       <c r="J101" t="s">
-        <v>653</v>
+        <v>48</v>
       </c>
       <c r="K101" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="L101" t="s">
-        <v>22</v>
+        <v>665</v>
+      </c>
+      <c r="M101" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Objets_parlementaires_CDF_EFK.xlsx
+++ b/Objets_parlementaires_CDF_EFK.xlsx
@@ -77,45 +77,51 @@
     <t xml:space="preserve">La rémunération des tâches confiées à l'OFDF dans les aéroports de Genève et Bâle doit profiter à l'OFDF !</t>
   </si>
   <si>
+    <t xml:space="preserve">Stellungnahme zum Vorstoss liegt vor / L’avis relatif à l’intervention est disponible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Élu &amp; Conseil fédéral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michel Matthias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-12-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daten der Bundesverwaltung mehrfach nutzbar machen – als Basis für vertrauenswürdige KI in der Schweiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Favoriser la fiabilité de l’IA en Suisse en rendant réutilisables les données de l’administration fédérale</t>
+  </si>
+  <si>
     <t xml:space="preserve">Eingereicht / Déposé</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254785</t>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254620</t>
   </si>
   <si>
     <t xml:space="preserve">Élu</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4620</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michel Matthias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-12-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daten der Bundesverwaltung mehrfach nutzbar machen – als Basis für vertrauenswürdige KI in der Schweiz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Favoriser la fiabilité de l’IA en Suisse en rendant réutilisables les données de l’administration fédérale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254620</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254620</t>
-  </si>
-  <si>
     <t xml:space="preserve">25.4696</t>
   </si>
   <si>
@@ -191,9 +197,6 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20258273</t>
   </si>
   <si>
-    <t xml:space="preserve">Élu &amp; Conseil fédéral</t>
-  </si>
-  <si>
     <t xml:space="preserve">25.4463</t>
   </si>
   <si>
@@ -234,9 +237,6 @@
   </si>
   <si>
     <t xml:space="preserve">Coordination plus efficace des moyens de transport dans le cadre des programmes d'agglomération</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stellungnahme zum Vorstoss liegt vor / L’avis relatif à l’intervention est disponible</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254281</t>
@@ -2474,16 +2474,16 @@
         <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -2491,16 +2491,16 @@
         <v>20254696</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
         <v>28</v>
@@ -2509,19 +2509,19 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
         <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M4" t="s">
         <v>24</v>
@@ -2532,40 +2532,40 @@
         <v>20258194</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
@@ -2573,40 +2573,40 @@
         <v>20258273</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M6" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -2614,40 +2614,40 @@
         <v>20254463</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
         <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
         <v>21</v>
       </c>
       <c r="K7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M7" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -2655,31 +2655,31 @@
         <v>20254281</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s">
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J8" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="K8" t="s">
         <v>75</v>
@@ -2688,7 +2688,7 @@
         <v>76</v>
       </c>
       <c r="M8" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
@@ -2708,7 +2708,7 @@
         <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s">
         <v>18</v>
@@ -2720,7 +2720,7 @@
         <v>80</v>
       </c>
       <c r="J9" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="K9" t="s">
         <v>81</v>
@@ -2729,7 +2729,7 @@
         <v>82</v>
       </c>
       <c r="M9" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
@@ -2761,7 +2761,7 @@
         <v>87</v>
       </c>
       <c r="J10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K10" t="s">
         <v>88</v>
@@ -2770,7 +2770,7 @@
         <v>89</v>
       </c>
       <c r="M10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
@@ -2811,7 +2811,7 @@
         <v>96</v>
       </c>
       <c r="M11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
@@ -2822,13 +2822,13 @@
         <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
         <v>98</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s">
         <v>85</v>
@@ -2843,7 +2843,7 @@
         <v>100</v>
       </c>
       <c r="J12" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="K12" t="s">
         <v>101</v>
@@ -2852,7 +2852,7 @@
         <v>102</v>
       </c>
       <c r="M12" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
@@ -2869,7 +2869,7 @@
         <v>104</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -2884,7 +2884,7 @@
         <v>106</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K13" t="s">
         <v>107</v>
@@ -2893,7 +2893,7 @@
         <v>108</v>
       </c>
       <c r="M13" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14">
@@ -2904,7 +2904,7 @@
         <v>109</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
         <v>110</v>
@@ -2925,7 +2925,7 @@
         <v>113</v>
       </c>
       <c r="J14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K14" t="s">
         <v>114</v>
@@ -2934,7 +2934,7 @@
         <v>115</v>
       </c>
       <c r="M14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
@@ -2945,13 +2945,13 @@
         <v>116</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
         <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F15" t="s">
         <v>118</v>
@@ -2966,7 +2966,7 @@
         <v>120</v>
       </c>
       <c r="J15" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="K15" t="s">
         <v>121</v>
@@ -2975,7 +2975,7 @@
         <v>122</v>
       </c>
       <c r="M15" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
@@ -2986,7 +2986,7 @@
         <v>123</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
         <v>124</v>
@@ -3007,7 +3007,7 @@
         <v>127</v>
       </c>
       <c r="J16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K16" t="s">
         <v>128</v>
@@ -3016,7 +3016,7 @@
         <v>129</v>
       </c>
       <c r="M16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
@@ -3027,7 +3027,7 @@
         <v>130</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
         <v>131</v>
@@ -3048,7 +3048,7 @@
         <v>134</v>
       </c>
       <c r="J17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K17" t="s">
         <v>135</v>
@@ -3057,7 +3057,7 @@
         <v>136</v>
       </c>
       <c r="M17" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18">
@@ -3068,13 +3068,13 @@
         <v>137</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
         <v>138</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
         <v>118</v>
@@ -3089,7 +3089,7 @@
         <v>140</v>
       </c>
       <c r="J18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K18" t="s">
         <v>141</v>
@@ -3098,7 +3098,7 @@
         <v>142</v>
       </c>
       <c r="M18" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
@@ -3109,7 +3109,7 @@
         <v>143</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
         <v>144</v>
@@ -3128,7 +3128,7 @@
         <v>147</v>
       </c>
       <c r="J19" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="K19" t="s">
         <v>148</v>
@@ -3137,7 +3137,7 @@
         <v>149</v>
       </c>
       <c r="M19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20">
@@ -3176,7 +3176,7 @@
         <v>155</v>
       </c>
       <c r="M20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
@@ -3187,7 +3187,7 @@
         <v>156</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
@@ -3208,7 +3208,7 @@
         <v>158</v>
       </c>
       <c r="J21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K21" t="s">
         <v>159</v>
@@ -3217,7 +3217,7 @@
         <v>160</v>
       </c>
       <c r="M21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22">
@@ -3228,13 +3228,13 @@
         <v>161</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
         <v>162</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F22" t="s">
         <v>152</v>
@@ -3249,7 +3249,7 @@
         <v>164</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K22" t="s">
         <v>165</v>
@@ -3258,7 +3258,7 @@
         <v>166</v>
       </c>
       <c r="M22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23">
@@ -3269,7 +3269,7 @@
         <v>167</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
         <v>168</v>
@@ -3290,7 +3290,7 @@
         <v>171</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K23" t="s">
         <v>172</v>
@@ -3299,7 +3299,7 @@
         <v>173</v>
       </c>
       <c r="M23" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
@@ -3310,7 +3310,7 @@
         <v>174</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
         <v>131</v>
@@ -3331,7 +3331,7 @@
         <v>177</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K24" t="s">
         <v>178</v>
@@ -3340,7 +3340,7 @@
         <v>179</v>
       </c>
       <c r="M24" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
@@ -3379,7 +3379,7 @@
         <v>187</v>
       </c>
       <c r="M25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26">
@@ -3420,7 +3420,7 @@
         <v>194</v>
       </c>
       <c r="M26" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27">
@@ -3431,13 +3431,13 @@
         <v>195</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
         <v>138</v>
       </c>
       <c r="E27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F27" t="s">
         <v>190</v>
@@ -3452,7 +3452,7 @@
         <v>197</v>
       </c>
       <c r="J27" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="K27" t="s">
         <v>198</v>
@@ -3461,7 +3461,7 @@
         <v>199</v>
       </c>
       <c r="M27" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28">
@@ -3502,7 +3502,7 @@
         <v>203</v>
       </c>
       <c r="M28" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29">
@@ -3513,7 +3513,7 @@
         <v>204</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D29" t="s">
         <v>205</v>
@@ -3534,7 +3534,7 @@
         <v>207</v>
       </c>
       <c r="J29" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="K29" t="s">
         <v>208</v>
@@ -3543,7 +3543,7 @@
         <v>209</v>
       </c>
       <c r="M29" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30">
@@ -3554,7 +3554,7 @@
         <v>210</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s">
         <v>211</v>
@@ -3575,7 +3575,7 @@
         <v>214</v>
       </c>
       <c r="J30" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="K30" t="s">
         <v>215</v>
@@ -3584,7 +3584,7 @@
         <v>216</v>
       </c>
       <c r="M30" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31">
@@ -3595,7 +3595,7 @@
         <v>217</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
         <v>218</v>
@@ -3616,7 +3616,7 @@
         <v>220</v>
       </c>
       <c r="J31" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="K31" t="s">
         <v>221</v>
@@ -3625,7 +3625,7 @@
         <v>222</v>
       </c>
       <c r="M31" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32">
@@ -3642,7 +3642,7 @@
         <v>224</v>
       </c>
       <c r="E32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F32" t="s">
         <v>225</v>
@@ -3657,7 +3657,7 @@
         <v>227</v>
       </c>
       <c r="J32" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="K32" t="s">
         <v>228</v>
@@ -3666,7 +3666,7 @@
         <v>229</v>
       </c>
       <c r="M32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33">
@@ -3677,7 +3677,7 @@
         <v>230</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
         <v>231</v>
@@ -3698,7 +3698,7 @@
         <v>234</v>
       </c>
       <c r="J33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K33" t="s">
         <v>235</v>
@@ -3707,7 +3707,7 @@
         <v>236</v>
       </c>
       <c r="M33" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34">
@@ -3748,7 +3748,7 @@
         <v>243</v>
       </c>
       <c r="M34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35">
@@ -3759,7 +3759,7 @@
         <v>244</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D35" t="s">
         <v>245</v>
@@ -3780,7 +3780,7 @@
         <v>248</v>
       </c>
       <c r="J35" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K35" t="s">
         <v>249</v>
@@ -3789,7 +3789,7 @@
         <v>250</v>
       </c>
       <c r="M35" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36">
@@ -3800,7 +3800,7 @@
         <v>251</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D36" t="s">
         <v>252</v>
@@ -3821,7 +3821,7 @@
         <v>254</v>
       </c>
       <c r="J36" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K36" t="s">
         <v>255</v>
@@ -3830,7 +3830,7 @@
         <v>256</v>
       </c>
       <c r="M36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37">
@@ -3841,13 +3841,13 @@
         <v>257</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D37" t="s">
         <v>258</v>
       </c>
       <c r="E37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
         <v>259</v>
@@ -3862,7 +3862,7 @@
         <v>261</v>
       </c>
       <c r="J37" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="K37" t="s">
         <v>262</v>
@@ -3871,7 +3871,7 @@
         <v>263</v>
       </c>
       <c r="M37" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38">
@@ -3903,7 +3903,7 @@
         <v>268</v>
       </c>
       <c r="J38" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="K38" t="s">
         <v>269</v>
@@ -3912,7 +3912,7 @@
         <v>270</v>
       </c>
       <c r="M38" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39">
@@ -3942,7 +3942,7 @@
         <v>275</v>
       </c>
       <c r="J39" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="K39" t="s">
         <v>276</v>
@@ -3951,7 +3951,7 @@
         <v>277</v>
       </c>
       <c r="M39" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40">
@@ -3983,7 +3983,7 @@
         <v>281</v>
       </c>
       <c r="J40" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="K40" t="s">
         <v>282</v>
@@ -3992,7 +3992,7 @@
         <v>283</v>
       </c>
       <c r="M40" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41">
@@ -4003,13 +4003,13 @@
         <v>284</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D41" t="s">
         <v>285</v>
       </c>
       <c r="E41" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F41" t="s">
         <v>279</v>
@@ -4024,7 +4024,7 @@
         <v>287</v>
       </c>
       <c r="J41" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="K41" t="s">
         <v>288</v>
@@ -4033,7 +4033,7 @@
         <v>289</v>
       </c>
       <c r="M41" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42">
@@ -4050,7 +4050,7 @@
         <v>291</v>
       </c>
       <c r="E42" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F42" t="s">
         <v>279</v>
@@ -4065,7 +4065,7 @@
         <v>293</v>
       </c>
       <c r="J42" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="K42" t="s">
         <v>294</v>
@@ -4074,7 +4074,7 @@
         <v>295</v>
       </c>
       <c r="M42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43">
@@ -4106,7 +4106,7 @@
         <v>299</v>
       </c>
       <c r="J43" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="K43" t="s">
         <v>300</v>
@@ -4115,7 +4115,7 @@
         <v>301</v>
       </c>
       <c r="M43" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44">
@@ -4132,7 +4132,7 @@
         <v>304</v>
       </c>
       <c r="E44" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F44" t="s">
         <v>305</v>
@@ -4147,7 +4147,7 @@
         <v>307</v>
       </c>
       <c r="J44" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K44" t="s">
         <v>308</v>
@@ -4156,7 +4156,7 @@
         <v>309</v>
       </c>
       <c r="M44" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45">
@@ -4167,7 +4167,7 @@
         <v>310</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D45" t="s">
         <v>311</v>
@@ -4188,7 +4188,7 @@
         <v>313</v>
       </c>
       <c r="J45" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K45" t="s">
         <v>314</v>
@@ -4197,7 +4197,7 @@
         <v>315</v>
       </c>
       <c r="M45" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46">
@@ -4208,7 +4208,7 @@
         <v>316</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D46" t="s">
         <v>317</v>
@@ -4229,7 +4229,7 @@
         <v>319</v>
       </c>
       <c r="J46" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K46" t="s">
         <v>320</v>
@@ -4238,7 +4238,7 @@
         <v>321</v>
       </c>
       <c r="M46" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47">
@@ -4249,7 +4249,7 @@
         <v>322</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D47" t="s">
         <v>323</v>
@@ -4270,7 +4270,7 @@
         <v>325</v>
       </c>
       <c r="J47" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K47" t="s">
         <v>326</v>
@@ -4279,7 +4279,7 @@
         <v>327</v>
       </c>
       <c r="M47" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48">
@@ -4290,7 +4290,7 @@
         <v>328</v>
       </c>
       <c r="C48" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D48" t="s">
         <v>317</v>
@@ -4311,7 +4311,7 @@
         <v>330</v>
       </c>
       <c r="J48" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K48" t="s">
         <v>331</v>
@@ -4320,7 +4320,7 @@
         <v>332</v>
       </c>
       <c r="M48" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49">
@@ -4361,7 +4361,7 @@
         <v>338</v>
       </c>
       <c r="M49" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50">
@@ -4372,13 +4372,13 @@
         <v>339</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D50" t="s">
         <v>340</v>
       </c>
       <c r="E50" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F50" t="s">
         <v>341</v>
@@ -4393,7 +4393,7 @@
         <v>343</v>
       </c>
       <c r="J50" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="K50" t="s">
         <v>344</v>
@@ -4402,7 +4402,7 @@
         <v>345</v>
       </c>
       <c r="M50" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51">
@@ -4413,13 +4413,13 @@
         <v>346</v>
       </c>
       <c r="C51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D51" t="s">
         <v>285</v>
       </c>
       <c r="E51" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F51" t="s">
         <v>347</v>
@@ -4434,7 +4434,7 @@
         <v>349</v>
       </c>
       <c r="J51" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K51" t="s">
         <v>350</v>
@@ -4443,7 +4443,7 @@
         <v>351</v>
       </c>
       <c r="M51" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52">
@@ -4475,7 +4475,7 @@
         <v>357</v>
       </c>
       <c r="J52" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="K52" t="s">
         <v>358</v>
@@ -4484,7 +4484,7 @@
         <v>359</v>
       </c>
       <c r="M52" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53">
@@ -4495,13 +4495,13 @@
         <v>360</v>
       </c>
       <c r="C53" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D53" t="s">
         <v>117</v>
       </c>
       <c r="E53" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F53" t="s">
         <v>355</v>
@@ -4516,7 +4516,7 @@
         <v>362</v>
       </c>
       <c r="J53" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K53" t="s">
         <v>363</v>
@@ -4525,7 +4525,7 @@
         <v>364</v>
       </c>
       <c r="M53" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54">
@@ -4536,7 +4536,7 @@
         <v>365</v>
       </c>
       <c r="C54" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D54" t="s">
         <v>265</v>
@@ -4557,7 +4557,7 @@
         <v>367</v>
       </c>
       <c r="J54" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K54" t="s">
         <v>368</v>
@@ -4566,7 +4566,7 @@
         <v>369</v>
       </c>
       <c r="M54" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55">
@@ -4577,13 +4577,13 @@
         <v>370</v>
       </c>
       <c r="C55" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D55" t="s">
         <v>371</v>
       </c>
       <c r="E55" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F55" t="s">
         <v>355</v>
@@ -4598,7 +4598,7 @@
         <v>373</v>
       </c>
       <c r="J55" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K55" t="s">
         <v>374</v>
@@ -4607,7 +4607,7 @@
         <v>375</v>
       </c>
       <c r="M55" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56">
@@ -4618,7 +4618,7 @@
         <v>376</v>
       </c>
       <c r="C56" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D56" t="s">
         <v>377</v>
@@ -4639,7 +4639,7 @@
         <v>381</v>
       </c>
       <c r="J56" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="K56" t="s">
         <v>382</v>
@@ -4648,7 +4648,7 @@
         <v>383</v>
       </c>
       <c r="M56" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57">
@@ -4659,7 +4659,7 @@
         <v>384</v>
       </c>
       <c r="C57" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D57" t="s">
         <v>385</v>
@@ -4680,7 +4680,7 @@
         <v>387</v>
       </c>
       <c r="J57" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K57" t="s">
         <v>388</v>
@@ -4689,7 +4689,7 @@
         <v>389</v>
       </c>
       <c r="M57" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58">
@@ -4719,7 +4719,7 @@
         <v>394</v>
       </c>
       <c r="J58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K58" t="s">
         <v>395</v>
@@ -4728,7 +4728,7 @@
         <v>396</v>
       </c>
       <c r="M58" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59">
@@ -4739,7 +4739,7 @@
         <v>397</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D59" t="s">
         <v>398</v>
@@ -4760,7 +4760,7 @@
         <v>401</v>
       </c>
       <c r="J59" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K59" t="s">
         <v>402</v>
@@ -4769,7 +4769,7 @@
         <v>403</v>
       </c>
       <c r="M59" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60">
@@ -4780,7 +4780,7 @@
         <v>404</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D60" t="s">
         <v>231</v>
@@ -4801,7 +4801,7 @@
         <v>406</v>
       </c>
       <c r="J60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K60" t="s">
         <v>407</v>
@@ -4810,7 +4810,7 @@
         <v>408</v>
       </c>
       <c r="M60" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61">
@@ -4821,7 +4821,7 @@
         <v>409</v>
       </c>
       <c r="C61" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D61" t="s">
         <v>410</v>
@@ -4842,7 +4842,7 @@
         <v>413</v>
       </c>
       <c r="J61" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K61" t="s">
         <v>414</v>
@@ -4851,7 +4851,7 @@
         <v>415</v>
       </c>
       <c r="M61" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62">
@@ -4862,7 +4862,7 @@
         <v>416</v>
       </c>
       <c r="C62" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D62" t="s">
         <v>417</v>
@@ -4883,7 +4883,7 @@
         <v>419</v>
       </c>
       <c r="J62" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K62" t="s">
         <v>420</v>
@@ -4892,7 +4892,7 @@
         <v>421</v>
       </c>
       <c r="M62" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63">
@@ -4903,13 +4903,13 @@
         <v>422</v>
       </c>
       <c r="C63" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D63" t="s">
         <v>423</v>
       </c>
       <c r="E63" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F63" t="s">
         <v>424</v>
@@ -4924,7 +4924,7 @@
         <v>426</v>
       </c>
       <c r="J63" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="K63" t="s">
         <v>427</v>
@@ -4933,7 +4933,7 @@
         <v>428</v>
       </c>
       <c r="M63" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64">
@@ -4944,13 +4944,13 @@
         <v>429</v>
       </c>
       <c r="C64" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D64" t="s">
         <v>430</v>
       </c>
       <c r="E64" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F64" t="s">
         <v>431</v>
@@ -4965,7 +4965,7 @@
         <v>433</v>
       </c>
       <c r="J64" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="K64" t="s">
         <v>434</v>
@@ -4974,7 +4974,7 @@
         <v>435</v>
       </c>
       <c r="M64" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65">
@@ -4985,7 +4985,7 @@
         <v>436</v>
       </c>
       <c r="C65" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D65" t="s">
         <v>297</v>
@@ -5006,7 +5006,7 @@
         <v>439</v>
       </c>
       <c r="J65" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="K65" t="s">
         <v>440</v>
@@ -5015,7 +5015,7 @@
         <v>441</v>
       </c>
       <c r="M65" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66">
@@ -5026,13 +5026,13 @@
         <v>442</v>
       </c>
       <c r="C66" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D66" t="s">
         <v>443</v>
       </c>
       <c r="E66" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F66" t="s">
         <v>437</v>
@@ -5047,7 +5047,7 @@
         <v>445</v>
       </c>
       <c r="J66" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="K66" t="s">
         <v>446</v>
@@ -5056,7 +5056,7 @@
         <v>447</v>
       </c>
       <c r="M66" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67">
@@ -5067,13 +5067,13 @@
         <v>448</v>
       </c>
       <c r="C67" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D67" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E67" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F67" t="s">
         <v>437</v>
@@ -5088,7 +5088,7 @@
         <v>450</v>
       </c>
       <c r="J67" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="K67" t="s">
         <v>451</v>
@@ -5097,7 +5097,7 @@
         <v>452</v>
       </c>
       <c r="M67" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68">
@@ -5108,7 +5108,7 @@
         <v>453</v>
       </c>
       <c r="C68" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D68" t="s">
         <v>131</v>
@@ -5129,7 +5129,7 @@
         <v>455</v>
       </c>
       <c r="J68" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="K68" t="s">
         <v>456</v>
@@ -5138,7 +5138,7 @@
         <v>457</v>
       </c>
       <c r="M68" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69">
@@ -5170,7 +5170,7 @@
         <v>460</v>
       </c>
       <c r="J69" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="K69" t="s">
         <v>461</v>
@@ -5179,7 +5179,7 @@
         <v>462</v>
       </c>
       <c r="M69" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70">
@@ -5190,13 +5190,13 @@
         <v>463</v>
       </c>
       <c r="C70" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D70" t="s">
         <v>464</v>
       </c>
       <c r="E70" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F70" t="s">
         <v>437</v>
@@ -5211,7 +5211,7 @@
         <v>466</v>
       </c>
       <c r="J70" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="K70" t="s">
         <v>467</v>
@@ -5220,7 +5220,7 @@
         <v>468</v>
       </c>
       <c r="M70" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71">
@@ -5261,7 +5261,7 @@
         <v>475</v>
       </c>
       <c r="M71" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72">
@@ -5272,13 +5272,13 @@
         <v>476</v>
       </c>
       <c r="C72" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D72" t="s">
         <v>477</v>
       </c>
       <c r="E72" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F72" t="s">
         <v>471</v>
@@ -5293,7 +5293,7 @@
         <v>479</v>
       </c>
       <c r="J72" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K72" t="s">
         <v>480</v>
@@ -5302,7 +5302,7 @@
         <v>481</v>
       </c>
       <c r="M72" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73">
@@ -5313,7 +5313,7 @@
         <v>482</v>
       </c>
       <c r="C73" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D73" t="s">
         <v>265</v>
@@ -5334,7 +5334,7 @@
         <v>485</v>
       </c>
       <c r="J73" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K73" t="s">
         <v>486</v>
@@ -5343,7 +5343,7 @@
         <v>487</v>
       </c>
       <c r="M73" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74">
@@ -5354,7 +5354,7 @@
         <v>488</v>
       </c>
       <c r="C74" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D74" t="s">
         <v>297</v>
@@ -5375,7 +5375,7 @@
         <v>490</v>
       </c>
       <c r="J74" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K74" t="s">
         <v>491</v>
@@ -5384,7 +5384,7 @@
         <v>492</v>
       </c>
       <c r="M74" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75">
@@ -5395,7 +5395,7 @@
         <v>493</v>
       </c>
       <c r="C75" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D75" t="s">
         <v>124</v>
@@ -5416,7 +5416,7 @@
         <v>495</v>
       </c>
       <c r="J75" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K75" t="s">
         <v>496</v>
@@ -5425,7 +5425,7 @@
         <v>497</v>
       </c>
       <c r="M75" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76">
@@ -5436,7 +5436,7 @@
         <v>498</v>
       </c>
       <c r="C76" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D76" t="s">
         <v>124</v>
@@ -5457,7 +5457,7 @@
         <v>500</v>
       </c>
       <c r="J76" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K76" t="s">
         <v>501</v>
@@ -5466,7 +5466,7 @@
         <v>502</v>
       </c>
       <c r="M76" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77">
@@ -5477,7 +5477,7 @@
         <v>503</v>
       </c>
       <c r="C77" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D77" t="s">
         <v>504</v>
@@ -5498,7 +5498,7 @@
         <v>507</v>
       </c>
       <c r="J77" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="K77" t="s">
         <v>508</v>
@@ -5507,7 +5507,7 @@
         <v>509</v>
       </c>
       <c r="M77" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78">
@@ -5518,7 +5518,7 @@
         <v>510</v>
       </c>
       <c r="C78" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D78" t="s">
         <v>511</v>
@@ -5539,7 +5539,7 @@
         <v>513</v>
       </c>
       <c r="J78" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="K78" t="s">
         <v>514</v>
@@ -5548,7 +5548,7 @@
         <v>515</v>
       </c>
       <c r="M78" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79">
@@ -5559,13 +5559,13 @@
         <v>516</v>
       </c>
       <c r="C79" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D79" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E79" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F79" t="s">
         <v>517</v>
@@ -5580,7 +5580,7 @@
         <v>519</v>
       </c>
       <c r="J79" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K79" t="s">
         <v>520</v>
@@ -5589,7 +5589,7 @@
         <v>521</v>
       </c>
       <c r="M79" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80">
@@ -5600,7 +5600,7 @@
         <v>522</v>
       </c>
       <c r="C80" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D80" t="s">
         <v>523</v>
@@ -5621,7 +5621,7 @@
         <v>525</v>
       </c>
       <c r="J80" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K80" t="s">
         <v>526</v>
@@ -5630,7 +5630,7 @@
         <v>527</v>
       </c>
       <c r="M80" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="81">
@@ -5641,13 +5641,13 @@
         <v>528</v>
       </c>
       <c r="C81" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D81" t="s">
         <v>529</v>
       </c>
       <c r="E81" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F81" t="s">
         <v>530</v>
@@ -5662,7 +5662,7 @@
         <v>532</v>
       </c>
       <c r="J81" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="K81" t="s">
         <v>533</v>
@@ -5671,7 +5671,7 @@
         <v>534</v>
       </c>
       <c r="M81" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82">
@@ -5682,13 +5682,13 @@
         <v>535</v>
       </c>
       <c r="C82" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D82" t="s">
         <v>536</v>
       </c>
       <c r="E82" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F82" t="s">
         <v>530</v>
@@ -5703,7 +5703,7 @@
         <v>538</v>
       </c>
       <c r="J82" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="K82" t="s">
         <v>539</v>
@@ -5712,7 +5712,7 @@
         <v>540</v>
       </c>
       <c r="M82" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83">
@@ -5729,7 +5729,7 @@
         <v>536</v>
       </c>
       <c r="E83" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F83" t="s">
         <v>530</v>
@@ -5744,7 +5744,7 @@
         <v>543</v>
       </c>
       <c r="J83" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K83" t="s">
         <v>544</v>
@@ -5753,7 +5753,7 @@
         <v>545</v>
       </c>
       <c r="M83" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84">
@@ -5794,7 +5794,7 @@
         <v>553</v>
       </c>
       <c r="M84" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="85">
@@ -5805,7 +5805,7 @@
         <v>554</v>
       </c>
       <c r="C85" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D85" t="s">
         <v>238</v>
@@ -5826,7 +5826,7 @@
         <v>557</v>
       </c>
       <c r="J85" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K85" t="s">
         <v>558</v>
@@ -5835,7 +5835,7 @@
         <v>559</v>
       </c>
       <c r="M85" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86">
@@ -5846,7 +5846,7 @@
         <v>560</v>
       </c>
       <c r="C86" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D86" t="s">
         <v>561</v>
@@ -5867,7 +5867,7 @@
         <v>564</v>
       </c>
       <c r="J86" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K86" t="s">
         <v>565</v>
@@ -5876,7 +5876,7 @@
         <v>566</v>
       </c>
       <c r="M86" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="87">
@@ -5906,7 +5906,7 @@
         <v>571</v>
       </c>
       <c r="J87" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K87" t="s">
         <v>572</v>
@@ -5915,7 +5915,7 @@
         <v>573</v>
       </c>
       <c r="M87" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88">
@@ -5926,7 +5926,7 @@
         <v>574</v>
       </c>
       <c r="C88" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D88" t="s">
         <v>575</v>
@@ -5954,7 +5954,7 @@
         <v>580</v>
       </c>
       <c r="M88" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="89">
@@ -5984,7 +5984,7 @@
         <v>585</v>
       </c>
       <c r="J89" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K89" t="s">
         <v>586</v>
@@ -5993,7 +5993,7 @@
         <v>587</v>
       </c>
       <c r="M89" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="90">
@@ -6004,13 +6004,13 @@
         <v>588</v>
       </c>
       <c r="C90" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D90" t="s">
         <v>589</v>
       </c>
       <c r="E90" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F90" t="s">
         <v>590</v>
@@ -6025,7 +6025,7 @@
         <v>592</v>
       </c>
       <c r="J90" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="K90" t="s">
         <v>593</v>
@@ -6034,7 +6034,7 @@
         <v>594</v>
       </c>
       <c r="M90" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91">
@@ -6066,7 +6066,7 @@
         <v>598</v>
       </c>
       <c r="J91" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K91" t="s">
         <v>599</v>
@@ -6075,7 +6075,7 @@
         <v>600</v>
       </c>
       <c r="M91" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="92">
@@ -6086,13 +6086,13 @@
         <v>601</v>
       </c>
       <c r="C92" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D92" t="s">
         <v>602</v>
       </c>
       <c r="E92" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F92" t="s">
         <v>596</v>
@@ -6107,7 +6107,7 @@
         <v>604</v>
       </c>
       <c r="J92" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K92" t="s">
         <v>605</v>
@@ -6116,7 +6116,7 @@
         <v>606</v>
       </c>
       <c r="M92" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="93">
@@ -6148,7 +6148,7 @@
         <v>611</v>
       </c>
       <c r="J93" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K93" t="s">
         <v>612</v>
@@ -6157,7 +6157,7 @@
         <v>613</v>
       </c>
       <c r="M93" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="94">
@@ -6189,7 +6189,7 @@
         <v>617</v>
       </c>
       <c r="J94" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="K94" t="s">
         <v>618</v>
@@ -6198,7 +6198,7 @@
         <v>619</v>
       </c>
       <c r="M94" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95">
@@ -6209,13 +6209,13 @@
         <v>620</v>
       </c>
       <c r="C95" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D95" t="s">
         <v>621</v>
       </c>
       <c r="E95" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F95" t="s">
         <v>622</v>
@@ -6230,7 +6230,7 @@
         <v>624</v>
       </c>
       <c r="J95" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K95" t="s">
         <v>625</v>
@@ -6239,7 +6239,7 @@
         <v>626</v>
       </c>
       <c r="M95" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96">
@@ -6250,7 +6250,7 @@
         <v>627</v>
       </c>
       <c r="C96" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D96" t="s">
         <v>265</v>
@@ -6271,7 +6271,7 @@
         <v>630</v>
       </c>
       <c r="J96" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K96" t="s">
         <v>631</v>
@@ -6280,7 +6280,7 @@
         <v>632</v>
       </c>
       <c r="M96" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97">
@@ -6291,13 +6291,13 @@
         <v>633</v>
       </c>
       <c r="C97" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D97" t="s">
         <v>138</v>
       </c>
       <c r="E97" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F97" t="s">
         <v>634</v>
@@ -6312,7 +6312,7 @@
         <v>636</v>
       </c>
       <c r="J97" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K97" t="s">
         <v>637</v>
@@ -6321,7 +6321,7 @@
         <v>638</v>
       </c>
       <c r="M97" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98">
@@ -6332,13 +6332,13 @@
         <v>639</v>
       </c>
       <c r="C98" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D98" t="s">
         <v>98</v>
       </c>
       <c r="E98" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F98" t="s">
         <v>640</v>
@@ -6353,7 +6353,7 @@
         <v>642</v>
       </c>
       <c r="J98" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K98" t="s">
         <v>643</v>
@@ -6362,7 +6362,7 @@
         <v>644</v>
       </c>
       <c r="M98" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="99">
@@ -6373,7 +6373,7 @@
         <v>645</v>
       </c>
       <c r="C99" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D99" t="s">
         <v>646</v>
@@ -6394,7 +6394,7 @@
         <v>649</v>
       </c>
       <c r="J99" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K99" t="s">
         <v>650</v>
@@ -6403,7 +6403,7 @@
         <v>651</v>
       </c>
       <c r="M99" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100">
@@ -6414,7 +6414,7 @@
         <v>652</v>
       </c>
       <c r="C100" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D100" t="s">
         <v>653</v>
@@ -6435,7 +6435,7 @@
         <v>656</v>
       </c>
       <c r="J100" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K100" t="s">
         <v>657</v>
@@ -6444,7 +6444,7 @@
         <v>658</v>
       </c>
       <c r="M100" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="101">
@@ -6474,7 +6474,7 @@
         <v>663</v>
       </c>
       <c r="J101" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K101" t="s">
         <v>664</v>
@@ -6483,7 +6483,7 @@
         <v>665</v>
       </c>
       <c r="M101" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Objets_parlementaires_CDF_EFK.xlsx
+++ b/Objets_parlementaires_CDF_EFK.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="668">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -53,6 +53,9 @@
     <t xml:space="preserve">Mention</t>
   </si>
   <si>
+    <t xml:space="preserve">Date_MAJ</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.4785</t>
   </si>
   <si>
@@ -87,6 +90,9 @@
   </si>
   <si>
     <t xml:space="preserve">Élu &amp; Conseil fédéral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-02-13</t>
   </si>
   <si>
     <t xml:space="preserve">25.4620</t>
@@ -2017,7 +2023,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2025,13 +2031,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006400"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FF90EE90"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2046,8 +2062,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2057,9 +2074,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:M101" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:M101"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:N101" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:N101"/>
+  <tableColumns count="14">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Numéro"/>
     <tableColumn id="3" name="Type"/>
@@ -2073,6 +2090,7 @@
     <tableColumn id="11" name="Lien_DE"/>
     <tableColumn id="12" name="Lien_FR"/>
     <tableColumn id="13" name="Mention"/>
+    <tableColumn id="14" name="Date_MAJ"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2403,46 +2421,52 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>20254785</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
         <v>21</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -2450,40 +2474,43 @@
         <v>20254620</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
         <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -2491,40 +2518,43 @@
         <v>20254696</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
+        <v>43</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M4" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -2532,40 +2562,43 @@
         <v>20258194</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M5" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="N5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -2573,40 +2606,43 @@
         <v>20258273</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" t="s">
-        <v>50</v>
+        <v>60</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M6" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="N6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -2614,40 +2650,43 @@
         <v>20254463</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" t="s">
-        <v>21</v>
+        <v>67</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="K7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M7" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="N7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -2655,40 +2694,43 @@
         <v>20254281</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s">
-        <v>74</v>
-      </c>
-      <c r="J8" t="s">
-        <v>21</v>
+        <v>76</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="K8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M8" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="N8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
@@ -2696,40 +2738,43 @@
         <v>20254317</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>80</v>
-      </c>
-      <c r="J9" t="s">
-        <v>21</v>
+        <v>82</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="K9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M9" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="N9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -2737,40 +2782,43 @@
         <v>20254145</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I10" t="s">
-        <v>87</v>
-      </c>
-      <c r="J10" t="s">
-        <v>50</v>
+        <v>89</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="K10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M10" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="N10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11">
@@ -2778,40 +2826,43 @@
         <v>20254188</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I11" t="s">
-        <v>93</v>
-      </c>
-      <c r="J11" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="K11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M11" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="N11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12">
@@ -2819,40 +2870,43 @@
         <v>20254225</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J12" t="s">
-        <v>21</v>
+        <v>102</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="K12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M12" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="N12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13">
@@ -2860,40 +2914,43 @@
         <v>20254234</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I13" t="s">
-        <v>106</v>
-      </c>
-      <c r="J13" t="s">
-        <v>50</v>
+        <v>108</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="K13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M13" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="N13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14">
@@ -2901,40 +2958,43 @@
         <v>20254071</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I14" t="s">
-        <v>113</v>
-      </c>
-      <c r="J14" t="s">
-        <v>50</v>
+        <v>115</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="K14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M14" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="N14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15">
@@ -2942,40 +3002,43 @@
         <v>20254024</v>
       </c>
       <c r="B15" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I15" t="s">
-        <v>120</v>
-      </c>
-      <c r="J15" t="s">
-        <v>21</v>
+        <v>122</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="K15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M15" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="N15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16">
@@ -2983,40 +3046,43 @@
         <v>20257863</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F16" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I16" t="s">
-        <v>127</v>
-      </c>
-      <c r="J16" t="s">
-        <v>50</v>
+        <v>129</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="K16" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L16" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M16" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="N16" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17">
@@ -3024,40 +3090,43 @@
         <v>20257888</v>
       </c>
       <c r="B17" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E17" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F17" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I17" t="s">
-        <v>134</v>
-      </c>
-      <c r="J17" t="s">
-        <v>50</v>
+        <v>136</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="K17" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L17" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M17" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="N17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18">
@@ -3065,40 +3134,43 @@
         <v>20257890</v>
       </c>
       <c r="B18" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I18" t="s">
-        <v>140</v>
-      </c>
-      <c r="J18" t="s">
-        <v>50</v>
+        <v>142</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="K18" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L18" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M18" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="N18" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19">
@@ -3106,38 +3178,41 @@
         <v>20254003</v>
       </c>
       <c r="B19" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I19" t="s">
-        <v>147</v>
-      </c>
-      <c r="J19" t="s">
-        <v>21</v>
+        <v>149</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="K19" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L19" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M19" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="N19" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20">
@@ -3145,38 +3220,41 @@
         <v>20253984</v>
       </c>
       <c r="B20" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I20" t="s">
-        <v>87</v>
-      </c>
-      <c r="J20" t="s">
-        <v>153</v>
+        <v>89</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="K20" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L20" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M20" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="N20" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21">
@@ -3184,40 +3262,43 @@
         <v>20257663</v>
       </c>
       <c r="B21" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I21" t="s">
-        <v>158</v>
-      </c>
-      <c r="J21" t="s">
-        <v>50</v>
+        <v>160</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="K21" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L21" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M21" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="N21" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22">
@@ -3225,40 +3306,43 @@
         <v>20257698</v>
       </c>
       <c r="B22" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I22" t="s">
-        <v>164</v>
-      </c>
-      <c r="J22" t="s">
-        <v>50</v>
+        <v>166</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="K22" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L22" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M22" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="N22" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="23">
@@ -3266,40 +3350,43 @@
         <v>20253971</v>
       </c>
       <c r="B23" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H23" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I23" t="s">
-        <v>171</v>
-      </c>
-      <c r="J23" t="s">
-        <v>50</v>
+        <v>173</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="K23" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L23" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M23" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="N23" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="24">
@@ -3307,40 +3394,43 @@
         <v>20257601</v>
       </c>
       <c r="B24" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F24" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I24" t="s">
-        <v>177</v>
-      </c>
-      <c r="J24" t="s">
-        <v>50</v>
+        <v>179</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="K24" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L24" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M24" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="N24" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25">
@@ -3348,38 +3438,41 @@
         <v>20253941</v>
       </c>
       <c r="B25" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I25" t="s">
-        <v>184</v>
-      </c>
-      <c r="J25" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="K25" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L25" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M25" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="N25" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26">
@@ -3387,3104 +3480,3180 @@
         <v>20253835</v>
       </c>
       <c r="B26" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F26" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I26" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J26" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K26" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L26" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M26" t="s">
-        <v>35</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="N26"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>20253845</v>
       </c>
       <c r="B27" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" t="s">
+        <v>192</v>
+      </c>
+      <c r="G27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" t="s">
+        <v>198</v>
+      </c>
+      <c r="I27" t="s">
+        <v>199</v>
+      </c>
+      <c r="J27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" t="s">
+        <v>200</v>
+      </c>
+      <c r="L27" t="s">
+        <v>201</v>
+      </c>
+      <c r="M27" t="s">
         <v>37</v>
       </c>
-      <c r="D27" t="s">
-        <v>138</v>
-      </c>
-      <c r="E27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" t="s">
-        <v>190</v>
-      </c>
-      <c r="G27" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" t="s">
-        <v>196</v>
-      </c>
-      <c r="I27" t="s">
-        <v>197</v>
-      </c>
-      <c r="J27" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" t="s">
-        <v>198</v>
-      </c>
-      <c r="L27" t="s">
-        <v>199</v>
-      </c>
-      <c r="M27" t="s">
-        <v>35</v>
-      </c>
+      <c r="N27"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>20253855</v>
       </c>
       <c r="B28" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F28" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H28" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I28" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J28" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K28" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L28" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M28" t="s">
-        <v>35</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="N28"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>20253880</v>
       </c>
       <c r="B29" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" t="s">
+        <v>207</v>
+      </c>
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" t="s">
+        <v>192</v>
+      </c>
+      <c r="G29" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" t="s">
+        <v>208</v>
+      </c>
+      <c r="I29" t="s">
+        <v>209</v>
+      </c>
+      <c r="J29" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" t="s">
+        <v>210</v>
+      </c>
+      <c r="L29" t="s">
+        <v>211</v>
+      </c>
+      <c r="M29" t="s">
         <v>37</v>
       </c>
-      <c r="D29" t="s">
-        <v>205</v>
-      </c>
-      <c r="E29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" t="s">
-        <v>190</v>
-      </c>
-      <c r="G29" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" t="s">
-        <v>206</v>
-      </c>
-      <c r="I29" t="s">
-        <v>207</v>
-      </c>
-      <c r="J29" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" t="s">
-        <v>208</v>
-      </c>
-      <c r="L29" t="s">
-        <v>209</v>
-      </c>
-      <c r="M29" t="s">
-        <v>35</v>
-      </c>
+      <c r="N29"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>20253892</v>
       </c>
       <c r="B30" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s">
+        <v>213</v>
+      </c>
+      <c r="E30" t="s">
+        <v>214</v>
+      </c>
+      <c r="F30" t="s">
+        <v>192</v>
+      </c>
+      <c r="G30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" t="s">
+        <v>215</v>
+      </c>
+      <c r="I30" t="s">
+        <v>216</v>
+      </c>
+      <c r="J30" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" t="s">
+        <v>217</v>
+      </c>
+      <c r="L30" t="s">
+        <v>218</v>
+      </c>
+      <c r="M30" t="s">
         <v>37</v>
       </c>
-      <c r="D30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E30" t="s">
-        <v>212</v>
-      </c>
-      <c r="F30" t="s">
-        <v>190</v>
-      </c>
-      <c r="G30" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" t="s">
-        <v>213</v>
-      </c>
-      <c r="I30" t="s">
-        <v>214</v>
-      </c>
-      <c r="J30" t="s">
-        <v>21</v>
-      </c>
-      <c r="K30" t="s">
-        <v>215</v>
-      </c>
-      <c r="L30" t="s">
-        <v>216</v>
-      </c>
-      <c r="M30" t="s">
-        <v>35</v>
-      </c>
+      <c r="N30"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>20253893</v>
       </c>
       <c r="B31" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E31" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I31" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L31" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M31" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N31"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>20253730</v>
       </c>
       <c r="B32" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F32" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I32" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K32" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L32" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M32" t="s">
-        <v>53</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="N32"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>20253630</v>
       </c>
       <c r="B33" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" t="s">
+        <v>233</v>
+      </c>
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" t="s">
+        <v>234</v>
+      </c>
+      <c r="G33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" t="s">
+        <v>235</v>
+      </c>
+      <c r="I33" t="s">
+        <v>236</v>
+      </c>
+      <c r="J33" t="s">
+        <v>52</v>
+      </c>
+      <c r="K33" t="s">
+        <v>237</v>
+      </c>
+      <c r="L33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M33" t="s">
         <v>37</v>
       </c>
-      <c r="D33" t="s">
-        <v>231</v>
-      </c>
-      <c r="E33" t="s">
-        <v>27</v>
-      </c>
-      <c r="F33" t="s">
-        <v>232</v>
-      </c>
-      <c r="G33" t="s">
-        <v>29</v>
-      </c>
-      <c r="H33" t="s">
-        <v>233</v>
-      </c>
-      <c r="I33" t="s">
-        <v>234</v>
-      </c>
-      <c r="J33" t="s">
-        <v>50</v>
-      </c>
-      <c r="K33" t="s">
-        <v>235</v>
-      </c>
-      <c r="L33" t="s">
-        <v>236</v>
-      </c>
-      <c r="M33" t="s">
-        <v>35</v>
-      </c>
+      <c r="N33"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>20253637</v>
       </c>
       <c r="B34" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E34" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F34" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H34" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="I34" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J34" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K34" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L34" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M34" t="s">
-        <v>53</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="N34"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>20257355</v>
       </c>
       <c r="B35" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F35" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I35" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K35" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L35" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M35" t="s">
-        <v>53</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="N35"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>20257419</v>
       </c>
       <c r="B36" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F36" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I36" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K36" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L36" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M36" t="s">
-        <v>53</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="N36"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>20253479</v>
       </c>
       <c r="B37" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" t="s">
+        <v>260</v>
+      </c>
+      <c r="E37" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" t="s">
+        <v>261</v>
+      </c>
+      <c r="G37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" t="s">
+        <v>262</v>
+      </c>
+      <c r="I37" t="s">
+        <v>263</v>
+      </c>
+      <c r="J37" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37" t="s">
+        <v>264</v>
+      </c>
+      <c r="L37" t="s">
+        <v>265</v>
+      </c>
+      <c r="M37" t="s">
         <v>37</v>
       </c>
-      <c r="D37" t="s">
-        <v>258</v>
-      </c>
-      <c r="E37" t="s">
-        <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>259</v>
-      </c>
-      <c r="G37" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" t="s">
-        <v>260</v>
-      </c>
-      <c r="I37" t="s">
-        <v>261</v>
-      </c>
-      <c r="J37" t="s">
-        <v>21</v>
-      </c>
-      <c r="K37" t="s">
-        <v>262</v>
-      </c>
-      <c r="L37" t="s">
-        <v>263</v>
-      </c>
-      <c r="M37" t="s">
-        <v>35</v>
-      </c>
+      <c r="N37"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>20253444</v>
       </c>
       <c r="B38" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E38" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F38" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G38" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I38" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J38" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K38" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L38" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M38" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N38"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>20253425</v>
       </c>
       <c r="B39" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E39"/>
       <c r="F39" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H39" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I39" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="J39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K39" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L39" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M39" t="s">
-        <v>35</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="N39"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>20253309</v>
       </c>
       <c r="B40" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E40" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F40" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="I40" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="J40" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K40" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L40" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M40" t="s">
-        <v>35</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="N40"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>20253399</v>
       </c>
       <c r="B41" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C41" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D41" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E41" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F41" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H41" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I41" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K41" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L41" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M41" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N41"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>20253404</v>
       </c>
       <c r="B42" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E42" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F42" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G42" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I42" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="J42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K42" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L42" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M42" t="s">
-        <v>53</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="N42"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>20253417</v>
       </c>
       <c r="B43" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F43" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I43" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="J43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K43" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L43" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M43" t="s">
-        <v>53</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="N43"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>20251011</v>
       </c>
       <c r="B44" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C44" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D44" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E44" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F44" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G44" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H44" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="I44" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="J44" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K44" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L44" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M44" t="s">
-        <v>53</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="N44"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>20253194</v>
       </c>
       <c r="B45" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C45" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D45" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E45" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F45" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G45" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H45" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="I45" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J45" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K45" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L45" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M45" t="s">
-        <v>53</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="N45"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>20253203</v>
       </c>
       <c r="B46" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C46" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D46" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E46" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F46" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="I46" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="J46" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K46" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L46" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M46" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N46"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>20253213</v>
       </c>
       <c r="B47" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C47" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D47" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E47" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F47" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G47" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H47" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="I47" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J47" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K47" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L47" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M47" t="s">
-        <v>53</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="N47"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>20253214</v>
       </c>
       <c r="B48" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C48" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D48" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E48" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F48" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I48" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="J48" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K48" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L48" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M48" t="s">
-        <v>53</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="N48"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>20253246</v>
       </c>
       <c r="B49" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D49" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E49" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F49" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G49" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H49" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I49" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="J49" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K49" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L49" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M49" t="s">
-        <v>35</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="N49"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>20253093</v>
       </c>
       <c r="B50" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C50" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" t="s">
+        <v>342</v>
+      </c>
+      <c r="E50" t="s">
+        <v>73</v>
+      </c>
+      <c r="F50" t="s">
+        <v>343</v>
+      </c>
+      <c r="G50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" t="s">
+        <v>344</v>
+      </c>
+      <c r="I50" t="s">
+        <v>345</v>
+      </c>
+      <c r="J50" t="s">
+        <v>22</v>
+      </c>
+      <c r="K50" t="s">
+        <v>346</v>
+      </c>
+      <c r="L50" t="s">
+        <v>347</v>
+      </c>
+      <c r="M50" t="s">
         <v>37</v>
       </c>
-      <c r="D50" t="s">
-        <v>340</v>
-      </c>
-      <c r="E50" t="s">
-        <v>71</v>
-      </c>
-      <c r="F50" t="s">
-        <v>341</v>
-      </c>
-      <c r="G50" t="s">
-        <v>18</v>
-      </c>
-      <c r="H50" t="s">
-        <v>342</v>
-      </c>
-      <c r="I50" t="s">
-        <v>343</v>
-      </c>
-      <c r="J50" t="s">
-        <v>21</v>
-      </c>
-      <c r="K50" t="s">
-        <v>344</v>
-      </c>
-      <c r="L50" t="s">
-        <v>345</v>
-      </c>
-      <c r="M50" t="s">
-        <v>35</v>
-      </c>
+      <c r="N50"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>20257213</v>
       </c>
       <c r="B51" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C51" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D51" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E51" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F51" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H51" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="I51" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="J51" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K51" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L51" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M51" t="s">
-        <v>35</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="N51"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>20253054</v>
       </c>
       <c r="B52" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E52" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F52" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="I52" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="J52" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K52" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L52" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M52" t="s">
-        <v>53</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="N52"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>20257102</v>
       </c>
       <c r="B53" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C53" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D53" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E53" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F53" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="I53" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="J53" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K53" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L53" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M53" t="s">
-        <v>53</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="N53"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>20257129</v>
       </c>
       <c r="B54" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C54" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D54" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E54" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F54" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="I54" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="J54" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K54" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L54" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M54" t="s">
-        <v>35</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="N54"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>20257138</v>
       </c>
       <c r="B55" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D55" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E55" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F55" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G55" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H55" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="I55" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J55" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K55" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L55" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M55" t="s">
-        <v>53</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="N55"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>20253031</v>
       </c>
       <c r="B56" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C56" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D56" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E56" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F56" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G56" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H56" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="I56" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J56" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K56" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L56" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="M56" t="s">
-        <v>53</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="N56"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>20257012</v>
       </c>
       <c r="B57" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C57" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D57" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E57" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F57" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H57" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I57" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="J57" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K57" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L57" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M57" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N57"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>20253008</v>
       </c>
       <c r="B58" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E58"/>
       <c r="F58" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H58" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="I58" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="J58" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K58" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L58" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M58" t="s">
-        <v>53</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="N58"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>20244404</v>
       </c>
       <c r="B59" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C59" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D59" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E59" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F59" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H59" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="I59" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="J59" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K59" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L59" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="M59" t="s">
-        <v>53</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="N59"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>20244419</v>
       </c>
       <c r="B60" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C60" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D60" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E60" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F60" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H60" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="I60" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="J60" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K60" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="L60" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M60" t="s">
-        <v>53</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="N60"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>20247975</v>
       </c>
       <c r="B61" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C61" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D61" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E61" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F61" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G61" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H61" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I61" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J61" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K61" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L61" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="M61" t="s">
-        <v>35</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="N61"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>20248043</v>
       </c>
       <c r="B62" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C62" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D62" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E62" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F62" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G62" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H62" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="I62" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="J62" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K62" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L62" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M62" t="s">
-        <v>35</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="N62"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>20244290</v>
       </c>
       <c r="B63" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C63" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D63" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E63" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F63" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G63" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H63" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="I63" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="J63" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K63" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L63" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M63" t="s">
-        <v>53</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="N63"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>20244278</v>
       </c>
       <c r="B64" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C64" t="s">
+        <v>39</v>
+      </c>
+      <c r="D64" t="s">
+        <v>432</v>
+      </c>
+      <c r="E64" t="s">
+        <v>73</v>
+      </c>
+      <c r="F64" t="s">
+        <v>433</v>
+      </c>
+      <c r="G64" t="s">
+        <v>19</v>
+      </c>
+      <c r="H64" t="s">
+        <v>434</v>
+      </c>
+      <c r="I64" t="s">
+        <v>435</v>
+      </c>
+      <c r="J64" t="s">
+        <v>22</v>
+      </c>
+      <c r="K64" t="s">
+        <v>436</v>
+      </c>
+      <c r="L64" t="s">
+        <v>437</v>
+      </c>
+      <c r="M64" t="s">
         <v>37</v>
       </c>
-      <c r="D64" t="s">
-        <v>430</v>
-      </c>
-      <c r="E64" t="s">
-        <v>71</v>
-      </c>
-      <c r="F64" t="s">
-        <v>431</v>
-      </c>
-      <c r="G64" t="s">
-        <v>18</v>
-      </c>
-      <c r="H64" t="s">
-        <v>432</v>
-      </c>
-      <c r="I64" t="s">
-        <v>433</v>
-      </c>
-      <c r="J64" t="s">
-        <v>21</v>
-      </c>
-      <c r="K64" t="s">
-        <v>434</v>
-      </c>
-      <c r="L64" t="s">
-        <v>435</v>
-      </c>
-      <c r="M64" t="s">
-        <v>35</v>
-      </c>
+      <c r="N64"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>20244082</v>
       </c>
       <c r="B65" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C65" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D65" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E65" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F65" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G65" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H65" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="I65" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="J65" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K65" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L65" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="M65" t="s">
-        <v>53</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="N65"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>20244112</v>
       </c>
       <c r="B66" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C66" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D66" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E66" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F66" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G66" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H66" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="I66" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="J66" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K66" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="L66" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M66" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N66"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>20244131</v>
       </c>
       <c r="B67" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C67" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D67" t="s">
+        <v>57</v>
+      </c>
+      <c r="E67" t="s">
+        <v>58</v>
+      </c>
+      <c r="F67" t="s">
+        <v>439</v>
+      </c>
+      <c r="G67" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67" t="s">
+        <v>451</v>
+      </c>
+      <c r="I67" t="s">
+        <v>452</v>
+      </c>
+      <c r="J67" t="s">
+        <v>22</v>
+      </c>
+      <c r="K67" t="s">
+        <v>453</v>
+      </c>
+      <c r="L67" t="s">
+        <v>454</v>
+      </c>
+      <c r="M67" t="s">
         <v>55</v>
       </c>
-      <c r="E67" t="s">
-        <v>56</v>
-      </c>
-      <c r="F67" t="s">
-        <v>437</v>
-      </c>
-      <c r="G67" t="s">
-        <v>18</v>
-      </c>
-      <c r="H67" t="s">
-        <v>449</v>
-      </c>
-      <c r="I67" t="s">
-        <v>450</v>
-      </c>
-      <c r="J67" t="s">
-        <v>21</v>
-      </c>
-      <c r="K67" t="s">
-        <v>451</v>
-      </c>
-      <c r="L67" t="s">
-        <v>452</v>
-      </c>
-      <c r="M67" t="s">
-        <v>53</v>
-      </c>
+      <c r="N67"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>20244132</v>
       </c>
       <c r="B68" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C68" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D68" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E68" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F68" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G68" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H68" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I68" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="J68" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K68" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="L68" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="M68" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N68"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>20244133</v>
       </c>
       <c r="B69" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E69" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F69" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G69" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H69" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="I69" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="J69" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K69" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L69" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M69" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N69"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>20244137</v>
       </c>
       <c r="B70" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C70" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D70" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E70" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F70" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G70" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H70" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="I70" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="J70" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K70" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L70" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M70" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N70"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>20243937</v>
       </c>
       <c r="B71" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D71" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E71" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F71" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G71" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H71" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="I71" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J71" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K71" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="L71" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="M71" t="s">
-        <v>35</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="N71"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>20243948</v>
       </c>
       <c r="B72" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C72" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D72" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E72" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F72" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G72" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H72" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="I72" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="J72" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K72" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L72" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="M72" t="s">
-        <v>53</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="N72"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>20247720</v>
       </c>
       <c r="B73" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C73" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D73" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E73" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F73" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="G73" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H73" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="I73" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="J73" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K73" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="L73" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="M73" t="s">
-        <v>35</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="N73"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>20247726</v>
       </c>
       <c r="B74" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C74" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D74" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E74" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F74" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="G74" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H74" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="I74" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="J74" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K74" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="L74" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="M74" t="s">
-        <v>53</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="N74"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>20247773</v>
       </c>
       <c r="B75" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C75" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D75" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E75" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F75" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="G75" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H75" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="I75" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="J75" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K75" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L75" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="M75" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N75"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>20247774</v>
       </c>
       <c r="B76" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C76" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D76" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E76" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F76" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="G76" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H76" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="I76" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="J76" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K76" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="L76" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="M76" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N76"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>20243858</v>
       </c>
       <c r="B77" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C77" t="s">
+        <v>39</v>
+      </c>
+      <c r="D77" t="s">
+        <v>506</v>
+      </c>
+      <c r="E77" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77" t="s">
+        <v>507</v>
+      </c>
+      <c r="G77" t="s">
+        <v>19</v>
+      </c>
+      <c r="H77" t="s">
+        <v>508</v>
+      </c>
+      <c r="I77" t="s">
+        <v>509</v>
+      </c>
+      <c r="J77" t="s">
+        <v>22</v>
+      </c>
+      <c r="K77" t="s">
+        <v>510</v>
+      </c>
+      <c r="L77" t="s">
+        <v>511</v>
+      </c>
+      <c r="M77" t="s">
         <v>37</v>
       </c>
-      <c r="D77" t="s">
-        <v>504</v>
-      </c>
-      <c r="E77" t="s">
-        <v>16</v>
-      </c>
-      <c r="F77" t="s">
-        <v>505</v>
-      </c>
-      <c r="G77" t="s">
-        <v>18</v>
-      </c>
-      <c r="H77" t="s">
-        <v>506</v>
-      </c>
-      <c r="I77" t="s">
-        <v>507</v>
-      </c>
-      <c r="J77" t="s">
-        <v>21</v>
-      </c>
-      <c r="K77" t="s">
-        <v>508</v>
-      </c>
-      <c r="L77" t="s">
-        <v>509</v>
-      </c>
-      <c r="M77" t="s">
-        <v>35</v>
-      </c>
+      <c r="N77"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>20243877</v>
       </c>
       <c r="B78" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C78" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D78" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E78" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F78" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G78" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H78" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="I78" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="J78" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K78" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="L78" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="M78" t="s">
-        <v>53</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="N78"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>20247622</v>
       </c>
       <c r="B79" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C79" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D79" t="s">
+        <v>57</v>
+      </c>
+      <c r="E79" t="s">
+        <v>58</v>
+      </c>
+      <c r="F79" t="s">
+        <v>519</v>
+      </c>
+      <c r="G79" t="s">
+        <v>19</v>
+      </c>
+      <c r="H79" t="s">
+        <v>520</v>
+      </c>
+      <c r="I79" t="s">
+        <v>521</v>
+      </c>
+      <c r="J79" t="s">
+        <v>52</v>
+      </c>
+      <c r="K79" t="s">
+        <v>522</v>
+      </c>
+      <c r="L79" t="s">
+        <v>523</v>
+      </c>
+      <c r="M79" t="s">
         <v>55</v>
       </c>
-      <c r="E79" t="s">
-        <v>56</v>
-      </c>
-      <c r="F79" t="s">
-        <v>517</v>
-      </c>
-      <c r="G79" t="s">
-        <v>18</v>
-      </c>
-      <c r="H79" t="s">
-        <v>518</v>
-      </c>
-      <c r="I79" t="s">
-        <v>519</v>
-      </c>
-      <c r="J79" t="s">
-        <v>50</v>
-      </c>
-      <c r="K79" t="s">
-        <v>520</v>
-      </c>
-      <c r="L79" t="s">
-        <v>521</v>
-      </c>
-      <c r="M79" t="s">
-        <v>53</v>
-      </c>
+      <c r="N79"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>20247649</v>
       </c>
       <c r="B80" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C80" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D80" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E80" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F80" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G80" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H80" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="I80" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="J80" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K80" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="L80" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="M80" t="s">
-        <v>53</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="N80"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>20243709</v>
       </c>
       <c r="B81" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C81" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D81" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E81" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F81" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="G81" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H81" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="I81" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="J81" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K81" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="L81" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="M81" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N81"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>20243773</v>
       </c>
       <c r="B82" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C82" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D82" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="E82" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F82" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="G82" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H82" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="I82" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="J82" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K82" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="L82" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="M82" t="s">
-        <v>53</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="N82"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>20243776</v>
       </c>
       <c r="B83" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D83" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="E83" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F83" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="G83" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H83" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="I83" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="J83" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K83" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="L83" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="M83" t="s">
-        <v>35</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="N83"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>20243609</v>
       </c>
       <c r="B84" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E84" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F84" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="G84" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H84" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="I84" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="J84" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="K84" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="L84" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="M84" t="s">
-        <v>53</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="N84"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>20243574</v>
       </c>
       <c r="B85" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C85" t="s">
+        <v>39</v>
+      </c>
+      <c r="D85" t="s">
+        <v>240</v>
+      </c>
+      <c r="E85" t="s">
+        <v>214</v>
+      </c>
+      <c r="F85" t="s">
+        <v>557</v>
+      </c>
+      <c r="G85" t="s">
+        <v>31</v>
+      </c>
+      <c r="H85" t="s">
+        <v>558</v>
+      </c>
+      <c r="I85" t="s">
+        <v>559</v>
+      </c>
+      <c r="J85" t="s">
+        <v>52</v>
+      </c>
+      <c r="K85" t="s">
+        <v>560</v>
+      </c>
+      <c r="L85" t="s">
+        <v>561</v>
+      </c>
+      <c r="M85" t="s">
         <v>37</v>
       </c>
-      <c r="D85" t="s">
-        <v>238</v>
-      </c>
-      <c r="E85" t="s">
-        <v>212</v>
-      </c>
-      <c r="F85" t="s">
-        <v>555</v>
-      </c>
-      <c r="G85" t="s">
-        <v>29</v>
-      </c>
-      <c r="H85" t="s">
-        <v>556</v>
-      </c>
-      <c r="I85" t="s">
-        <v>557</v>
-      </c>
-      <c r="J85" t="s">
-        <v>50</v>
-      </c>
-      <c r="K85" t="s">
-        <v>558</v>
-      </c>
-      <c r="L85" t="s">
-        <v>559</v>
-      </c>
-      <c r="M85" t="s">
-        <v>35</v>
-      </c>
+      <c r="N85"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>20243557</v>
       </c>
       <c r="B86" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C86" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D86" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E86" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F86" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="G86" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H86" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="I86" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="J86" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K86" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="L86" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="M86" t="s">
-        <v>53</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="N86"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>20243471</v>
       </c>
       <c r="B87" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D87" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="E87"/>
       <c r="F87" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="G87" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H87" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="I87" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="J87" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K87" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="L87" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="M87" t="s">
-        <v>35</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="N87"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>20243468</v>
       </c>
       <c r="B88" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C88" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D88" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="E88"/>
       <c r="F88" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="G88" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H88" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="I88" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="J88" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K88" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="L88" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="M88" t="s">
-        <v>53</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="N88"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>20243467</v>
       </c>
       <c r="B89" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D89" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="E89"/>
       <c r="F89" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="G89" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H89" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I89" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="J89" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K89" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="L89" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="M89" t="s">
-        <v>53</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="N89"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>20243318</v>
       </c>
       <c r="B90" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C90" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D90" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E90" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F90" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="G90" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H90" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="I90" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="J90" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K90" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="L90" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="M90" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N90"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>20243234</v>
       </c>
       <c r="B91" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D91" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E91" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F91" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="G91" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H91" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="I91" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="J91" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K91" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="L91" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="M91" t="s">
-        <v>53</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="N91"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>20243259</v>
       </c>
       <c r="B92" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C92" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D92" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E92" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F92" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="G92" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H92" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="I92" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="J92" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K92" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="L92" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="M92" t="s">
-        <v>53</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="N92"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>20243169</v>
       </c>
       <c r="B93" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D93" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E93" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F93" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G93" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H93" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="I93" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="J93" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K93" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="L93" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="M93" t="s">
-        <v>53</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="N93"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>20243077</v>
       </c>
       <c r="B94" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E94" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F94" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="G94" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H94" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="I94" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="J94" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K94" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="L94" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="M94" t="s">
-        <v>53</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="N94"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>20247112</v>
       </c>
       <c r="B95" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C95" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D95" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="E95" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F95" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="G95" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H95" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="I95" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="J95" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K95" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="L95" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="M95" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N95"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>20247015</v>
       </c>
       <c r="B96" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C96" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D96" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E96" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F96" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="G96" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H96" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="I96" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="J96" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K96" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="L96" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="M96" t="s">
-        <v>35</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="N96"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>20234494</v>
       </c>
       <c r="B97" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C97" t="s">
+        <v>39</v>
+      </c>
+      <c r="D97" t="s">
+        <v>140</v>
+      </c>
+      <c r="E97" t="s">
+        <v>58</v>
+      </c>
+      <c r="F97" t="s">
+        <v>636</v>
+      </c>
+      <c r="G97" t="s">
+        <v>19</v>
+      </c>
+      <c r="H97" t="s">
+        <v>637</v>
+      </c>
+      <c r="I97" t="s">
+        <v>638</v>
+      </c>
+      <c r="J97" t="s">
+        <v>52</v>
+      </c>
+      <c r="K97" t="s">
+        <v>639</v>
+      </c>
+      <c r="L97" t="s">
+        <v>640</v>
+      </c>
+      <c r="M97" t="s">
         <v>37</v>
       </c>
-      <c r="D97" t="s">
-        <v>138</v>
-      </c>
-      <c r="E97" t="s">
-        <v>56</v>
-      </c>
-      <c r="F97" t="s">
-        <v>634</v>
-      </c>
-      <c r="G97" t="s">
-        <v>18</v>
-      </c>
-      <c r="H97" t="s">
-        <v>635</v>
-      </c>
-      <c r="I97" t="s">
-        <v>636</v>
-      </c>
-      <c r="J97" t="s">
-        <v>50</v>
-      </c>
-      <c r="K97" t="s">
-        <v>637</v>
-      </c>
-      <c r="L97" t="s">
-        <v>638</v>
-      </c>
-      <c r="M97" t="s">
-        <v>35</v>
-      </c>
+      <c r="N97"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>20234461</v>
       </c>
       <c r="B98" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C98" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D98" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E98" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F98" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="G98" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H98" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="I98" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="J98" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K98" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="L98" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="M98" t="s">
-        <v>53</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="N98"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>20234375</v>
       </c>
       <c r="B99" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C99" t="s">
+        <v>39</v>
+      </c>
+      <c r="D99" t="s">
+        <v>648</v>
+      </c>
+      <c r="E99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F99" t="s">
+        <v>649</v>
+      </c>
+      <c r="G99" t="s">
+        <v>19</v>
+      </c>
+      <c r="H99" t="s">
+        <v>650</v>
+      </c>
+      <c r="I99" t="s">
+        <v>651</v>
+      </c>
+      <c r="J99" t="s">
+        <v>52</v>
+      </c>
+      <c r="K99" t="s">
+        <v>652</v>
+      </c>
+      <c r="L99" t="s">
+        <v>653</v>
+      </c>
+      <c r="M99" t="s">
         <v>37</v>
       </c>
-      <c r="D99" t="s">
-        <v>646</v>
-      </c>
-      <c r="E99" t="s">
-        <v>16</v>
-      </c>
-      <c r="F99" t="s">
-        <v>647</v>
-      </c>
-      <c r="G99" t="s">
-        <v>18</v>
-      </c>
-      <c r="H99" t="s">
-        <v>648</v>
-      </c>
-      <c r="I99" t="s">
-        <v>649</v>
-      </c>
-      <c r="J99" t="s">
-        <v>50</v>
-      </c>
-      <c r="K99" t="s">
-        <v>650</v>
-      </c>
-      <c r="L99" t="s">
-        <v>651</v>
-      </c>
-      <c r="M99" t="s">
-        <v>35</v>
-      </c>
+      <c r="N99"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>20234353</v>
       </c>
       <c r="B100" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C100" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D100" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="E100" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F100" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="G100" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H100" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="I100" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="J100" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K100" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="L100" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="M100" t="s">
-        <v>53</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="N100"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>20234346</v>
       </c>
       <c r="B101" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D101" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E101"/>
       <c r="F101" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H101" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="I101" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="J101" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K101" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="L101" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="M101" t="s">
-        <v>35</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="N101"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Objets_parlementaires_CDF_EFK.xlsx
+++ b/Objets_parlementaires_CDF_EFK.xlsx
@@ -92,7 +92,7 @@
     <t xml:space="preserve">Élu &amp; Conseil fédéral</t>
   </si>
   <si>
-    <t xml:space="preserve">2026-02-13</t>
+    <t xml:space="preserve">2026-02-14</t>
   </si>
   <si>
     <t xml:space="preserve">25.4620</t>

--- a/Objets_parlementaires_CDF_EFK.xlsx
+++ b/Objets_parlementaires_CDF_EFK.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="662">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">Élu &amp; Conseil fédéral</t>
   </si>
   <si>
-    <t xml:space="preserve">2026-02-14</t>
+    <t xml:space="preserve">2026-02-15</t>
   </si>
   <si>
     <t xml:space="preserve">25.4620</t>
@@ -1860,24 +1860,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-03-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dringende Wiederherstellung der Verteidigungsfähigkeit der Schweizer Armee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rétablir d'urgence la capacité de défense de notre armée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243077</t>
   </si>
   <si>
     <t xml:space="preserve">24.7112</t>
@@ -2074,8 +2056,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:N101" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:N101"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:N100" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:N100"/>
   <tableColumns count="14">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Numéro"/>
@@ -6323,61 +6305,61 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>20243077</v>
+        <v>20247112</v>
       </c>
       <c r="B94" t="s">
         <v>616</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D94" t="s">
-        <v>16</v>
+        <v>617</v>
       </c>
       <c r="E94" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="F94" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G94" t="s">
         <v>19</v>
       </c>
       <c r="H94" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="I94" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="J94" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="K94" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="L94" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="M94" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N94"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>20247112</v>
+        <v>20247015</v>
       </c>
       <c r="B95" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C95" t="s">
         <v>47</v>
       </c>
       <c r="D95" t="s">
-        <v>623</v>
+        <v>267</v>
       </c>
       <c r="E95" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="F95" t="s">
         <v>624</v>
@@ -6401,25 +6383,25 @@
         <v>628</v>
       </c>
       <c r="M95" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="N95"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>20247015</v>
+        <v>20234494</v>
       </c>
       <c r="B96" t="s">
         <v>629</v>
       </c>
       <c r="C96" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D96" t="s">
-        <v>267</v>
+        <v>140</v>
       </c>
       <c r="E96" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="F96" t="s">
         <v>630</v>
@@ -6449,7 +6431,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>20234494</v>
+        <v>20234461</v>
       </c>
       <c r="B97" t="s">
         <v>635</v>
@@ -6458,7 +6440,7 @@
         <v>39</v>
       </c>
       <c r="D97" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="E97" t="s">
         <v>58</v>
@@ -6485,13 +6467,13 @@
         <v>640</v>
       </c>
       <c r="M97" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="N97"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>20234461</v>
+        <v>20234375</v>
       </c>
       <c r="B98" t="s">
         <v>641</v>
@@ -6500,160 +6482,118 @@
         <v>39</v>
       </c>
       <c r="D98" t="s">
-        <v>100</v>
+        <v>642</v>
       </c>
       <c r="E98" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="F98" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G98" t="s">
         <v>19</v>
       </c>
       <c r="H98" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="I98" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="J98" t="s">
         <v>52</v>
       </c>
       <c r="K98" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="L98" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="M98" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="N98"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>20234375</v>
+        <v>20234353</v>
       </c>
       <c r="B99" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C99" t="s">
         <v>39</v>
       </c>
       <c r="D99" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E99" t="s">
         <v>17</v>
       </c>
       <c r="F99" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G99" t="s">
         <v>19</v>
       </c>
       <c r="H99" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="I99" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J99" t="s">
         <v>52</v>
       </c>
       <c r="K99" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="L99" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="M99" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="N99"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>20234353</v>
+        <v>20234346</v>
       </c>
       <c r="B100" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C100" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>655</v>
-      </c>
-      <c r="E100" t="s">
-        <v>17</v>
-      </c>
+        <v>656</v>
+      </c>
+      <c r="E100"/>
       <c r="F100" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="G100" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H100" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="I100" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="J100" t="s">
         <v>52</v>
       </c>
       <c r="K100" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="L100" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="M100" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="N100"/>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>20234346</v>
-      </c>
-      <c r="B101" t="s">
-        <v>661</v>
-      </c>
-      <c r="C101" t="s">
-        <v>15</v>
-      </c>
-      <c r="D101" t="s">
-        <v>662</v>
-      </c>
-      <c r="E101"/>
-      <c r="F101" t="s">
-        <v>663</v>
-      </c>
-      <c r="G101" t="s">
-        <v>31</v>
-      </c>
-      <c r="H101" t="s">
-        <v>664</v>
-      </c>
-      <c r="I101" t="s">
-        <v>665</v>
-      </c>
-      <c r="J101" t="s">
-        <v>52</v>
-      </c>
-      <c r="K101" t="s">
-        <v>666</v>
-      </c>
-      <c r="L101" t="s">
-        <v>667</v>
-      </c>
-      <c r="M101" t="s">
-        <v>37</v>
-      </c>
-      <c r="N101"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Objets_parlementaires_CDF_EFK.xlsx
+++ b/Objets_parlementaires_CDF_EFK.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="668">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">Élu &amp; Conseil fédéral</t>
   </si>
   <si>
-    <t xml:space="preserve">2026-02-15</t>
+    <t xml:space="preserve">2026-02-16</t>
   </si>
   <si>
     <t xml:space="preserve">25.4620</t>
@@ -224,6 +224,36 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254463</t>
   </si>
   <si>
+    <t xml:space="preserve">25.479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pa. Iv.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golay Roger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genug Bürokratie! Für einen Frühlingsputz der Gesetze und Verordnungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trop de bureaucratie ! Pour un grand ménage dans les lois et ordonnances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zugewiesen an die behandelnde Kommission / Attribué à la commission compétente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20250479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20250479</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.4281</t>
   </si>
   <si>
@@ -236,9 +266,6 @@
     <t xml:space="preserve">PSS</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-09-26</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wirksamere Koordination der Verkehrsmittel im Rahmen von Agglomerationsprogrammen</t>
   </si>
   <si>
@@ -302,9 +329,6 @@
     <t xml:space="preserve">Garantir la sécurité de l'approvisionnement et un accès rapide aux médicaments innovants</t>
   </si>
   <si>
-    <t xml:space="preserve">Zugewiesen an die behandelnde Kommission / Attribué à la commission compétente</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254188</t>
   </si>
   <si>
@@ -1077,12 +1101,6 @@
   </si>
   <si>
     <t xml:space="preserve">25.3054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golay Roger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCG</t>
   </si>
   <si>
     <t xml:space="preserve">2025-03-05</t>
@@ -2056,8 +2074,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:N100" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:N100"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:N101" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:N101"/>
   <tableColumns count="14">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Numéro"/>
@@ -2673,7 +2691,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>20254281</v>
+        <v>20250479</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -2700,16 +2718,16 @@
         <v>76</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="K8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M8" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="N8" t="s">
         <v>26</v>
@@ -2717,19 +2735,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>20254317</v>
+        <v>20254281</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="F9" t="s">
         <v>74</v>
@@ -2738,19 +2756,19 @@
         <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M9" t="s">
         <v>25</v>
@@ -2761,43 +2779,43 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>20254145</v>
+        <v>20254317</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="K10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M10" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N10" t="s">
         <v>26</v>
@@ -2805,40 +2823,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>20254188</v>
+        <v>20254145</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E11" t="s">
         <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="G11" t="s">
         <v>31</v>
       </c>
       <c r="H11" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M11" t="s">
         <v>55</v>
@@ -2849,43 +2867,43 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>20254225</v>
+        <v>20254188</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M12" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N12" t="s">
         <v>26</v>
@@ -2893,43 +2911,43 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>20254234</v>
+        <v>20254225</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="G13" t="s">
         <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="K13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M13" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="N13" t="s">
         <v>26</v>
@@ -2937,43 +2955,43 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>20254071</v>
+        <v>20254234</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="F14" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M14" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="N14" t="s">
         <v>26</v>
@@ -2981,43 +2999,43 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>20254024</v>
+        <v>20254071</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="K15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M15" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N15" t="s">
         <v>26</v>
@@ -3025,43 +3043,43 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>20257863</v>
+        <v>20254024</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E16" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="F16" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="G16" t="s">
         <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="K16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M16" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N16" t="s">
         <v>26</v>
@@ -3069,43 +3087,43 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>20257888</v>
+        <v>20257863</v>
       </c>
       <c r="B17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C17" t="s">
         <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F17" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="G17" t="s">
         <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M17" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="N17" t="s">
         <v>26</v>
@@ -3113,43 +3131,43 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>20257890</v>
+        <v>20257888</v>
       </c>
       <c r="B18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C18" t="s">
         <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="F18" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="G18" t="s">
         <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I18" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K18" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L18" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M18" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="N18" t="s">
         <v>26</v>
@@ -3157,41 +3175,43 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>20254003</v>
+        <v>20257890</v>
       </c>
       <c r="B19" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>146</v>
-      </c>
-      <c r="E19"/>
+        <v>148</v>
+      </c>
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
       <c r="F19" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="G19" t="s">
         <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="K19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M19" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N19" t="s">
         <v>26</v>
@@ -3199,38 +3219,38 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>20253984</v>
+        <v>20254003</v>
       </c>
       <c r="B20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G20" t="s">
         <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="I20" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="K20" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L20" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M20" t="s">
         <v>55</v>
@@ -3241,40 +3261,38 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20257663</v>
+        <v>20253984</v>
       </c>
       <c r="B21" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="E21"/>
       <c r="F21" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="G21" t="s">
         <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="I21" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>52</v>
+        <v>163</v>
       </c>
       <c r="K21" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L21" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M21" t="s">
         <v>55</v>
@@ -3285,40 +3303,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>20257698</v>
+        <v>20257663</v>
       </c>
       <c r="B22" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C22" t="s">
         <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="G22" t="s">
         <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I22" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K22" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L22" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M22" t="s">
         <v>55</v>
@@ -3329,43 +3347,43 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>20253971</v>
+        <v>20257698</v>
       </c>
       <c r="B23" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="F23" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M23" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N23" t="s">
         <v>26</v>
@@ -3373,40 +3391,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>20257601</v>
+        <v>20253971</v>
       </c>
       <c r="B24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="E24" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G24" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H24" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I24" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K24" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L24" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M24" t="s">
         <v>25</v>
@@ -3417,32 +3435,34 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>20253941</v>
+        <v>20257601</v>
       </c>
       <c r="B25" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>183</v>
-      </c>
-      <c r="E25"/>
+        <v>141</v>
+      </c>
+      <c r="E25" t="s">
+        <v>142</v>
+      </c>
       <c r="F25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G25" t="s">
         <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I25" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>187</v>
+        <v>52</v>
       </c>
       <c r="K25" t="s">
         <v>188</v>
@@ -3451,7 +3471,7 @@
         <v>189</v>
       </c>
       <c r="M25" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N25" t="s">
         <v>26</v>
@@ -3459,7 +3479,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>20253835</v>
+        <v>20253941</v>
       </c>
       <c r="B26" t="s">
         <v>190</v>
@@ -3470,9 +3490,7 @@
       <c r="D26" t="s">
         <v>191</v>
       </c>
-      <c r="E26" t="s">
-        <v>29</v>
-      </c>
+      <c r="E26"/>
       <c r="F26" t="s">
         <v>192</v>
       </c>
@@ -3485,56 +3503,58 @@
       <c r="I26" t="s">
         <v>194</v>
       </c>
-      <c r="J26" t="s">
-        <v>155</v>
+      <c r="J26" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="K26" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L26" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M26" t="s">
-        <v>37</v>
-      </c>
-      <c r="N26"/>
+        <v>55</v>
+      </c>
+      <c r="N26" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>20253845</v>
+        <v>20253835</v>
       </c>
       <c r="B27" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>140</v>
+        <v>199</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="F27" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G27" t="s">
         <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="I27" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="J27" t="s">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="K27" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L27" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M27" t="s">
         <v>37</v>
@@ -3543,40 +3563,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>20253855</v>
+        <v>20253845</v>
       </c>
       <c r="B28" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="F28" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="I28" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="J28" t="s">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="K28" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L28" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M28" t="s">
         <v>37</v>
@@ -3585,40 +3605,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>20253880</v>
+        <v>20253855</v>
       </c>
       <c r="B29" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E29" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G29" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H29" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="I29" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="J29" t="s">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="K29" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L29" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M29" t="s">
         <v>37</v>
@@ -3627,40 +3647,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>20253892</v>
+        <v>20253880</v>
       </c>
       <c r="B30" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C30" t="s">
         <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E30" t="s">
-        <v>214</v>
+        <v>17</v>
       </c>
       <c r="F30" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G30" t="s">
         <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I30" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J30" t="s">
         <v>22</v>
       </c>
       <c r="K30" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L30" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M30" t="s">
         <v>37</v>
@@ -3669,193 +3689,193 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>20253893</v>
+        <v>20253892</v>
       </c>
       <c r="B31" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>222</v>
       </c>
       <c r="F31" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G31" t="s">
         <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I31" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J31" t="s">
         <v>22</v>
       </c>
       <c r="K31" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L31" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M31" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="N31"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>20253730</v>
+        <v>20253893</v>
       </c>
       <c r="B32" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="D32" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E32" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="F32" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="G32" t="s">
         <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J32" t="s">
         <v>22</v>
       </c>
       <c r="K32" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L32" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M32" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N32"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>20253630</v>
+        <v>20253730</v>
       </c>
       <c r="B33" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="F33" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I33" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J33" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="K33" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L33" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M33" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="N33"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>20253637</v>
+        <v>20253630</v>
       </c>
       <c r="B34" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E34" t="s">
-        <v>214</v>
+        <v>29</v>
       </c>
       <c r="F34" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="G34" t="s">
         <v>31</v>
       </c>
       <c r="H34" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I34" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J34" t="s">
-        <v>243</v>
+        <v>52</v>
       </c>
       <c r="K34" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L34" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M34" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="N34"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>20257355</v>
+        <v>20253637</v>
       </c>
       <c r="B35" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E35" t="s">
-        <v>17</v>
+        <v>222</v>
       </c>
       <c r="F35" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G35" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H35" t="s">
         <v>249</v>
@@ -3864,13 +3884,13 @@
         <v>250</v>
       </c>
       <c r="J35" t="s">
-        <v>52</v>
+        <v>251</v>
       </c>
       <c r="K35" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L35" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M35" t="s">
         <v>55</v>
@@ -3879,40 +3899,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>20257419</v>
+        <v>20257355</v>
       </c>
       <c r="B36" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C36" t="s">
         <v>47</v>
       </c>
       <c r="D36" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E36" t="s">
         <v>17</v>
       </c>
       <c r="F36" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="G36" t="s">
         <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I36" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J36" t="s">
         <v>52</v>
       </c>
       <c r="K36" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L36" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M36" t="s">
         <v>55</v>
@@ -3921,164 +3941,164 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>20253479</v>
+        <v>20257419</v>
       </c>
       <c r="B37" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D37" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="F37" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G37" t="s">
         <v>19</v>
       </c>
       <c r="H37" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I37" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J37" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="K37" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L37" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M37" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="N37"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>20253444</v>
+        <v>20253479</v>
       </c>
       <c r="B38" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E38" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="F38" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G38" t="s">
         <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I38" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J38" t="s">
         <v>22</v>
       </c>
       <c r="K38" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L38" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M38" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="N38"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>20253425</v>
+        <v>20253444</v>
       </c>
       <c r="B39" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C39" t="s">
         <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>274</v>
-      </c>
-      <c r="E39"/>
+        <v>275</v>
+      </c>
+      <c r="E39" t="s">
+        <v>29</v>
+      </c>
       <c r="F39" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G39" t="s">
         <v>19</v>
       </c>
       <c r="H39" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I39" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J39" t="s">
         <v>22</v>
       </c>
       <c r="K39" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L39" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M39" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="N39"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>20253309</v>
+        <v>20253425</v>
       </c>
       <c r="B40" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C40" t="s">
         <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>133</v>
-      </c>
-      <c r="E40" t="s">
-        <v>134</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="E40"/>
       <c r="F40" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G40" t="s">
         <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I40" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J40" t="s">
         <v>22</v>
       </c>
       <c r="K40" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L40" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M40" t="s">
         <v>37</v>
@@ -4087,124 +4107,124 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>20253399</v>
+        <v>20253309</v>
       </c>
       <c r="B41" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C41" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>287</v>
+        <v>141</v>
       </c>
       <c r="E41" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="F41" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="G41" t="s">
         <v>19</v>
       </c>
       <c r="H41" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="I41" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="J41" t="s">
         <v>22</v>
       </c>
       <c r="K41" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L41" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M41" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="N41"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>20253404</v>
+        <v>20253399</v>
       </c>
       <c r="B42" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D42" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E42" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F42" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="G42" t="s">
         <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I42" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="J42" t="s">
         <v>22</v>
       </c>
       <c r="K42" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L42" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M42" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N42"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>20253417</v>
+        <v>20253404</v>
       </c>
       <c r="B43" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C43" t="s">
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E43" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="G43" t="s">
         <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I43" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="J43" t="s">
         <v>22</v>
       </c>
       <c r="K43" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L43" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M43" t="s">
         <v>55</v>
@@ -4213,25 +4233,25 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>20251011</v>
+        <v>20253417</v>
       </c>
       <c r="B44" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C44" t="s">
-        <v>305</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E44" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="F44" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="G44" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H44" t="s">
         <v>308</v>
@@ -4240,7 +4260,7 @@
         <v>309</v>
       </c>
       <c r="J44" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="K44" t="s">
         <v>310</v>
@@ -4255,40 +4275,40 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>20253194</v>
+        <v>20251011</v>
       </c>
       <c r="B45" t="s">
         <v>312</v>
       </c>
       <c r="C45" t="s">
-        <v>39</v>
+        <v>313</v>
       </c>
       <c r="D45" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E45" t="s">
-        <v>214</v>
+        <v>58</v>
       </c>
       <c r="F45" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="G45" t="s">
         <v>31</v>
       </c>
       <c r="H45" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="I45" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="J45" t="s">
         <v>52</v>
       </c>
       <c r="K45" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L45" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M45" t="s">
         <v>55</v>
@@ -4297,124 +4317,124 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>20253203</v>
+        <v>20253194</v>
       </c>
       <c r="B46" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C46" t="s">
         <v>39</v>
       </c>
       <c r="D46" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E46" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="F46" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="G46" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H46" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="I46" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="J46" t="s">
         <v>52</v>
       </c>
       <c r="K46" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L46" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M46" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N46"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>20253213</v>
+        <v>20253203</v>
       </c>
       <c r="B47" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C47" t="s">
         <v>39</v>
       </c>
       <c r="D47" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E47" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="F47" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H47" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="I47" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="J47" t="s">
         <v>52</v>
       </c>
       <c r="K47" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L47" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M47" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N47"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>20253214</v>
+        <v>20253213</v>
       </c>
       <c r="B48" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C48" t="s">
         <v>39</v>
       </c>
       <c r="D48" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="E48" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="F48" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="G48" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H48" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="I48" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J48" t="s">
         <v>52</v>
       </c>
       <c r="K48" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L48" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="M48" t="s">
         <v>55</v>
@@ -4423,82 +4443,82 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>20253246</v>
+        <v>20253214</v>
       </c>
       <c r="B49" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D49" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="E49" t="s">
-        <v>17</v>
+        <v>222</v>
       </c>
       <c r="F49" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="G49" t="s">
         <v>19</v>
       </c>
       <c r="H49" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="I49" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="J49" t="s">
-        <v>155</v>
+        <v>52</v>
       </c>
       <c r="K49" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L49" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M49" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="N49"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>20253093</v>
+        <v>20253246</v>
       </c>
       <c r="B50" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C50" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E50" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="F50" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="G50" t="s">
         <v>19</v>
       </c>
       <c r="H50" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I50" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J50" t="s">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="K50" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L50" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M50" t="s">
         <v>37</v>
@@ -4507,40 +4527,40 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>20257213</v>
+        <v>20253093</v>
       </c>
       <c r="B51" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C51" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D51" t="s">
-        <v>287</v>
+        <v>350</v>
       </c>
       <c r="E51" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F51" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G51" t="s">
         <v>19</v>
       </c>
       <c r="H51" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="I51" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="J51" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="K51" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L51" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M51" t="s">
         <v>37</v>
@@ -4549,19 +4569,19 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>20253054</v>
+        <v>20257213</v>
       </c>
       <c r="B52" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D52" t="s">
-        <v>355</v>
+        <v>295</v>
       </c>
       <c r="E52" t="s">
-        <v>356</v>
+        <v>83</v>
       </c>
       <c r="F52" t="s">
         <v>357</v>
@@ -4576,7 +4596,7 @@
         <v>359</v>
       </c>
       <c r="J52" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="K52" t="s">
         <v>360</v>
@@ -4585,46 +4605,46 @@
         <v>361</v>
       </c>
       <c r="M52" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="N52"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>20257102</v>
+        <v>20253054</v>
       </c>
       <c r="B53" t="s">
         <v>362</v>
       </c>
       <c r="C53" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D53" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="E53" t="s">
         <v>73</v>
       </c>
       <c r="F53" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="G53" t="s">
         <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I53" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="J53" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="K53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L53" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M53" t="s">
         <v>55</v>
@@ -4633,64 +4653,64 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>20257129</v>
+        <v>20257102</v>
       </c>
       <c r="B54" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C54" t="s">
         <v>47</v>
       </c>
       <c r="D54" t="s">
-        <v>267</v>
+        <v>127</v>
       </c>
       <c r="E54" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="F54" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="G54" t="s">
         <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="J54" t="s">
         <v>52</v>
       </c>
       <c r="K54" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L54" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M54" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="N54"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>20257138</v>
+        <v>20257129</v>
       </c>
       <c r="B55" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C55" t="s">
         <v>47</v>
       </c>
       <c r="D55" t="s">
-        <v>373</v>
+        <v>275</v>
       </c>
       <c r="E55" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="F55" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="G55" t="s">
         <v>19</v>
@@ -4711,46 +4731,46 @@
         <v>377</v>
       </c>
       <c r="M55" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="N55"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>20253031</v>
+        <v>20257138</v>
       </c>
       <c r="B56" t="s">
         <v>378</v>
       </c>
       <c r="C56" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D56" t="s">
         <v>379</v>
       </c>
       <c r="E56" t="s">
+        <v>83</v>
+      </c>
+      <c r="F56" t="s">
+        <v>363</v>
+      </c>
+      <c r="G56" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" t="s">
         <v>380</v>
       </c>
-      <c r="F56" t="s">
+      <c r="I56" t="s">
         <v>381</v>
       </c>
-      <c r="G56" t="s">
-        <v>19</v>
-      </c>
-      <c r="H56" t="s">
+      <c r="J56" t="s">
+        <v>52</v>
+      </c>
+      <c r="K56" t="s">
         <v>382</v>
       </c>
-      <c r="I56" t="s">
+      <c r="L56" t="s">
         <v>383</v>
-      </c>
-      <c r="J56" t="s">
-        <v>22</v>
-      </c>
-      <c r="K56" t="s">
-        <v>384</v>
-      </c>
-      <c r="L56" t="s">
-        <v>385</v>
       </c>
       <c r="M56" t="s">
         <v>55</v>
@@ -4759,22 +4779,22 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>20257012</v>
+        <v>20253031</v>
       </c>
       <c r="B57" t="s">
+        <v>384</v>
+      </c>
+      <c r="C57" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" t="s">
+        <v>385</v>
+      </c>
+      <c r="E57" t="s">
         <v>386</v>
       </c>
-      <c r="C57" t="s">
-        <v>47</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="F57" t="s">
         <v>387</v>
-      </c>
-      <c r="E57" t="s">
-        <v>17</v>
-      </c>
-      <c r="F57" t="s">
-        <v>381</v>
       </c>
       <c r="G57" t="s">
         <v>19</v>
@@ -4786,7 +4806,7 @@
         <v>389</v>
       </c>
       <c r="J57" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="K57" t="s">
         <v>390</v>
@@ -4795,86 +4815,86 @@
         <v>391</v>
       </c>
       <c r="M57" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N57"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>20253008</v>
+        <v>20257012</v>
       </c>
       <c r="B58" t="s">
         <v>392</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D58" t="s">
         <v>393</v>
       </c>
-      <c r="E58"/>
+      <c r="E58" t="s">
+        <v>17</v>
+      </c>
       <c r="F58" t="s">
+        <v>387</v>
+      </c>
+      <c r="G58" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" t="s">
         <v>394</v>
       </c>
-      <c r="G58" t="s">
-        <v>19</v>
-      </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>395</v>
-      </c>
-      <c r="I58" t="s">
-        <v>396</v>
       </c>
       <c r="J58" t="s">
         <v>52</v>
       </c>
       <c r="K58" t="s">
+        <v>396</v>
+      </c>
+      <c r="L58" t="s">
         <v>397</v>
       </c>
-      <c r="L58" t="s">
-        <v>398</v>
-      </c>
       <c r="M58" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N58"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>20244404</v>
+        <v>20253008</v>
       </c>
       <c r="B59" t="s">
+        <v>398</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" t="s">
         <v>399</v>
       </c>
-      <c r="C59" t="s">
-        <v>39</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="E59"/>
+      <c r="F59" t="s">
         <v>400</v>
       </c>
-      <c r="E59" t="s">
-        <v>214</v>
-      </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" t="s">
         <v>401</v>
       </c>
-      <c r="G59" t="s">
-        <v>19</v>
-      </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>402</v>
-      </c>
-      <c r="I59" t="s">
-        <v>403</v>
       </c>
       <c r="J59" t="s">
         <v>52</v>
       </c>
       <c r="K59" t="s">
+        <v>403</v>
+      </c>
+      <c r="L59" t="s">
         <v>404</v>
-      </c>
-      <c r="L59" t="s">
-        <v>405</v>
       </c>
       <c r="M59" t="s">
         <v>55</v>
@@ -4883,40 +4903,40 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>20244419</v>
+        <v>20244404</v>
       </c>
       <c r="B60" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C60" t="s">
         <v>39</v>
       </c>
       <c r="D60" t="s">
-        <v>233</v>
+        <v>406</v>
       </c>
       <c r="E60" t="s">
-        <v>29</v>
+        <v>222</v>
       </c>
       <c r="F60" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="G60" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H60" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I60" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="J60" t="s">
         <v>52</v>
       </c>
       <c r="K60" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L60" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M60" t="s">
         <v>55</v>
@@ -4925,64 +4945,64 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>20247975</v>
+        <v>20244419</v>
       </c>
       <c r="B61" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C61" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D61" t="s">
-        <v>412</v>
+        <v>241</v>
       </c>
       <c r="E61" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F61" t="s">
+        <v>407</v>
+      </c>
+      <c r="G61" t="s">
+        <v>31</v>
+      </c>
+      <c r="H61" t="s">
         <v>413</v>
       </c>
-      <c r="G61" t="s">
-        <v>19</v>
-      </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>414</v>
-      </c>
-      <c r="I61" t="s">
-        <v>415</v>
       </c>
       <c r="J61" t="s">
         <v>52</v>
       </c>
       <c r="K61" t="s">
+        <v>415</v>
+      </c>
+      <c r="L61" t="s">
         <v>416</v>
       </c>
-      <c r="L61" t="s">
-        <v>417</v>
-      </c>
       <c r="M61" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="N61"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>20248043</v>
+        <v>20247975</v>
       </c>
       <c r="B62" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C62" t="s">
         <v>47</v>
       </c>
       <c r="D62" t="s">
+        <v>418</v>
+      </c>
+      <c r="E62" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" t="s">
         <v>419</v>
-      </c>
-      <c r="E62" t="s">
-        <v>214</v>
-      </c>
-      <c r="F62" t="s">
-        <v>413</v>
       </c>
       <c r="G62" t="s">
         <v>19</v>
@@ -5009,103 +5029,103 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>20244290</v>
+        <v>20248043</v>
       </c>
       <c r="B63" t="s">
         <v>424</v>
       </c>
       <c r="C63" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D63" t="s">
         <v>425</v>
       </c>
       <c r="E63" t="s">
-        <v>58</v>
+        <v>222</v>
       </c>
       <c r="F63" t="s">
+        <v>419</v>
+      </c>
+      <c r="G63" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63" t="s">
         <v>426</v>
       </c>
-      <c r="G63" t="s">
-        <v>19</v>
-      </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>427</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
+        <v>52</v>
+      </c>
+      <c r="K63" t="s">
         <v>428</v>
       </c>
-      <c r="J63" t="s">
-        <v>22</v>
-      </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
         <v>429</v>
       </c>
-      <c r="L63" t="s">
-        <v>430</v>
-      </c>
       <c r="M63" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="N63"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>20244278</v>
+        <v>20244290</v>
       </c>
       <c r="B64" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C64" t="s">
         <v>39</v>
       </c>
       <c r="D64" t="s">
+        <v>431</v>
+      </c>
+      <c r="E64" t="s">
+        <v>58</v>
+      </c>
+      <c r="F64" t="s">
         <v>432</v>
       </c>
-      <c r="E64" t="s">
-        <v>73</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
+        <v>19</v>
+      </c>
+      <c r="H64" t="s">
         <v>433</v>
       </c>
-      <c r="G64" t="s">
-        <v>19</v>
-      </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>434</v>
-      </c>
-      <c r="I64" t="s">
-        <v>435</v>
       </c>
       <c r="J64" t="s">
         <v>22</v>
       </c>
       <c r="K64" t="s">
+        <v>435</v>
+      </c>
+      <c r="L64" t="s">
         <v>436</v>
       </c>
-      <c r="L64" t="s">
-        <v>437</v>
-      </c>
       <c r="M64" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="N64"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>20244082</v>
+        <v>20244278</v>
       </c>
       <c r="B65" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C65" t="s">
         <v>39</v>
       </c>
       <c r="D65" t="s">
-        <v>299</v>
+        <v>438</v>
       </c>
       <c r="E65" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="F65" t="s">
         <v>439</v>
@@ -5129,13 +5149,13 @@
         <v>443</v>
       </c>
       <c r="M65" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="N65"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>20244112</v>
+        <v>20244082</v>
       </c>
       <c r="B66" t="s">
         <v>444</v>
@@ -5144,13 +5164,13 @@
         <v>39</v>
       </c>
       <c r="D66" t="s">
+        <v>307</v>
+      </c>
+      <c r="E66" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66" t="s">
         <v>445</v>
-      </c>
-      <c r="E66" t="s">
-        <v>58</v>
-      </c>
-      <c r="F66" t="s">
-        <v>439</v>
       </c>
       <c r="G66" t="s">
         <v>19</v>
@@ -5171,13 +5191,13 @@
         <v>449</v>
       </c>
       <c r="M66" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N66"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>20244131</v>
+        <v>20244112</v>
       </c>
       <c r="B67" t="s">
         <v>450</v>
@@ -5186,115 +5206,115 @@
         <v>39</v>
       </c>
       <c r="D67" t="s">
-        <v>57</v>
+        <v>451</v>
       </c>
       <c r="E67" t="s">
         <v>58</v>
       </c>
       <c r="F67" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="G67" t="s">
         <v>19</v>
       </c>
       <c r="H67" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I67" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J67" t="s">
         <v>22</v>
       </c>
       <c r="K67" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L67" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M67" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N67"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>20244132</v>
+        <v>20244131</v>
       </c>
       <c r="B68" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C68" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="D68" t="s">
-        <v>133</v>
+        <v>57</v>
       </c>
       <c r="E68" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="F68" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="G68" t="s">
         <v>19</v>
       </c>
       <c r="H68" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="I68" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J68" t="s">
         <v>22</v>
       </c>
       <c r="K68" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L68" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M68" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N68"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>20244133</v>
+        <v>20244132</v>
       </c>
       <c r="B69" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="D69" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E69" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F69" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="G69" t="s">
         <v>19</v>
       </c>
       <c r="H69" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="I69" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J69" t="s">
         <v>22</v>
       </c>
       <c r="K69" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L69" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M69" t="s">
         <v>25</v>
@@ -5303,22 +5323,22 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>20244137</v>
+        <v>20244133</v>
       </c>
       <c r="B70" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C70" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D70" t="s">
-        <v>466</v>
+        <v>141</v>
       </c>
       <c r="E70" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="F70" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="G70" t="s">
         <v>19</v>
@@ -5345,64 +5365,64 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>20243937</v>
+        <v>20244137</v>
       </c>
       <c r="B71" t="s">
         <v>471</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D71" t="s">
         <v>472</v>
       </c>
       <c r="E71" t="s">
-        <v>214</v>
+        <v>58</v>
       </c>
       <c r="F71" t="s">
+        <v>445</v>
+      </c>
+      <c r="G71" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71" t="s">
         <v>473</v>
       </c>
-      <c r="G71" t="s">
-        <v>31</v>
-      </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>474</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
+        <v>22</v>
+      </c>
+      <c r="K71" t="s">
         <v>475</v>
       </c>
-      <c r="J71" t="s">
-        <v>187</v>
-      </c>
-      <c r="K71" t="s">
+      <c r="L71" t="s">
         <v>476</v>
       </c>
-      <c r="L71" t="s">
-        <v>477</v>
-      </c>
       <c r="M71" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="N71"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>20243948</v>
+        <v>20243937</v>
       </c>
       <c r="B72" t="s">
+        <v>477</v>
+      </c>
+      <c r="C72" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" t="s">
         <v>478</v>
       </c>
-      <c r="C72" t="s">
-        <v>39</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
+        <v>222</v>
+      </c>
+      <c r="F72" t="s">
         <v>479</v>
-      </c>
-      <c r="E72" t="s">
-        <v>58</v>
-      </c>
-      <c r="F72" t="s">
-        <v>473</v>
       </c>
       <c r="G72" t="s">
         <v>31</v>
@@ -5414,7 +5434,7 @@
         <v>481</v>
       </c>
       <c r="J72" t="s">
-        <v>52</v>
+        <v>195</v>
       </c>
       <c r="K72" t="s">
         <v>482</v>
@@ -5423,31 +5443,31 @@
         <v>483</v>
       </c>
       <c r="M72" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="N72"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>20247720</v>
+        <v>20243948</v>
       </c>
       <c r="B73" t="s">
         <v>484</v>
       </c>
       <c r="C73" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D73" t="s">
-        <v>267</v>
+        <v>485</v>
       </c>
       <c r="E73" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="F73" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="G73" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H73" t="s">
         <v>486</v>
@@ -5465,13 +5485,13 @@
         <v>489</v>
       </c>
       <c r="M73" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="N73"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>20247726</v>
+        <v>20247720</v>
       </c>
       <c r="B74" t="s">
         <v>490</v>
@@ -5480,115 +5500,115 @@
         <v>47</v>
       </c>
       <c r="D74" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="E74" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F74" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="G74" t="s">
         <v>19</v>
       </c>
       <c r="H74" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="I74" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="J74" t="s">
         <v>52</v>
       </c>
       <c r="K74" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L74" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M74" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="N74"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>20247773</v>
+        <v>20247726</v>
       </c>
       <c r="B75" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C75" t="s">
         <v>47</v>
       </c>
       <c r="D75" t="s">
-        <v>126</v>
+        <v>307</v>
       </c>
       <c r="E75" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="F75" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="G75" t="s">
         <v>19</v>
       </c>
       <c r="H75" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="I75" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="J75" t="s">
         <v>52</v>
       </c>
       <c r="K75" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L75" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M75" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N75"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>20247774</v>
+        <v>20247773</v>
       </c>
       <c r="B76" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C76" t="s">
         <v>47</v>
       </c>
       <c r="D76" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E76" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F76" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="G76" t="s">
         <v>19</v>
       </c>
       <c r="H76" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="I76" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="J76" t="s">
         <v>52</v>
       </c>
       <c r="K76" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L76" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M76" t="s">
         <v>25</v>
@@ -5597,64 +5617,64 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>20243858</v>
+        <v>20247774</v>
       </c>
       <c r="B77" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C77" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D77" t="s">
-        <v>506</v>
+        <v>134</v>
       </c>
       <c r="E77" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="F77" t="s">
+        <v>491</v>
+      </c>
+      <c r="G77" t="s">
+        <v>19</v>
+      </c>
+      <c r="H77" t="s">
         <v>507</v>
       </c>
-      <c r="G77" t="s">
-        <v>19</v>
-      </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>508</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
+        <v>52</v>
+      </c>
+      <c r="K77" t="s">
         <v>509</v>
       </c>
-      <c r="J77" t="s">
-        <v>22</v>
-      </c>
-      <c r="K77" t="s">
+      <c r="L77" t="s">
         <v>510</v>
       </c>
-      <c r="L77" t="s">
-        <v>511</v>
-      </c>
       <c r="M77" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="N77"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>20243877</v>
+        <v>20243858</v>
       </c>
       <c r="B78" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C78" t="s">
         <v>39</v>
       </c>
       <c r="D78" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E78" t="s">
         <v>17</v>
       </c>
       <c r="F78" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="G78" t="s">
         <v>19</v>
@@ -5675,28 +5695,28 @@
         <v>517</v>
       </c>
       <c r="M78" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="N78"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>20247622</v>
+        <v>20243877</v>
       </c>
       <c r="B79" t="s">
         <v>518</v>
       </c>
       <c r="C79" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D79" t="s">
-        <v>57</v>
+        <v>519</v>
       </c>
       <c r="E79" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="F79" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G79" t="s">
         <v>19</v>
@@ -5708,7 +5728,7 @@
         <v>521</v>
       </c>
       <c r="J79" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="K79" t="s">
         <v>522</v>
@@ -5723,7 +5743,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>20247649</v>
+        <v>20247622</v>
       </c>
       <c r="B80" t="s">
         <v>524</v>
@@ -5732,13 +5752,13 @@
         <v>47</v>
       </c>
       <c r="D80" t="s">
+        <v>57</v>
+      </c>
+      <c r="E80" t="s">
+        <v>58</v>
+      </c>
+      <c r="F80" t="s">
         <v>525</v>
-      </c>
-      <c r="E80" t="s">
-        <v>29</v>
-      </c>
-      <c r="F80" t="s">
-        <v>519</v>
       </c>
       <c r="G80" t="s">
         <v>19</v>
@@ -5765,64 +5785,64 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>20243709</v>
+        <v>20247649</v>
       </c>
       <c r="B81" t="s">
         <v>530</v>
       </c>
       <c r="C81" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D81" t="s">
         <v>531</v>
       </c>
       <c r="E81" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="F81" t="s">
+        <v>525</v>
+      </c>
+      <c r="G81" t="s">
+        <v>19</v>
+      </c>
+      <c r="H81" t="s">
         <v>532</v>
       </c>
-      <c r="G81" t="s">
-        <v>19</v>
-      </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>533</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
+        <v>52</v>
+      </c>
+      <c r="K81" t="s">
         <v>534</v>
       </c>
-      <c r="J81" t="s">
-        <v>22</v>
-      </c>
-      <c r="K81" t="s">
+      <c r="L81" t="s">
         <v>535</v>
       </c>
-      <c r="L81" t="s">
-        <v>536</v>
-      </c>
       <c r="M81" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N81"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>20243773</v>
+        <v>20243709</v>
       </c>
       <c r="B82" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C82" t="s">
         <v>39</v>
       </c>
       <c r="D82" t="s">
+        <v>537</v>
+      </c>
+      <c r="E82" t="s">
+        <v>83</v>
+      </c>
+      <c r="F82" t="s">
         <v>538</v>
-      </c>
-      <c r="E82" t="s">
-        <v>41</v>
-      </c>
-      <c r="F82" t="s">
-        <v>532</v>
       </c>
       <c r="G82" t="s">
         <v>19</v>
@@ -5843,124 +5863,124 @@
         <v>542</v>
       </c>
       <c r="M82" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N82"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>20243776</v>
+        <v>20243773</v>
       </c>
       <c r="B83" t="s">
         <v>543</v>
       </c>
       <c r="C83" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D83" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="E83" t="s">
         <v>41</v>
       </c>
       <c r="F83" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="G83" t="s">
         <v>19</v>
       </c>
       <c r="H83" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="I83" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="J83" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="K83" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="L83" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M83" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="N83"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>20243609</v>
+        <v>20243776</v>
       </c>
       <c r="B84" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C84" t="s">
         <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E84" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F84" t="s">
+        <v>538</v>
+      </c>
+      <c r="G84" t="s">
+        <v>19</v>
+      </c>
+      <c r="H84" t="s">
         <v>550</v>
       </c>
-      <c r="G84" t="s">
-        <v>19</v>
-      </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>551</v>
       </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
+        <v>52</v>
+      </c>
+      <c r="K84" t="s">
         <v>552</v>
       </c>
-      <c r="J84" t="s">
+      <c r="L84" t="s">
         <v>553</v>
       </c>
-      <c r="K84" t="s">
-        <v>554</v>
-      </c>
-      <c r="L84" t="s">
-        <v>555</v>
-      </c>
       <c r="M84" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="N84"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>20243574</v>
+        <v>20243609</v>
       </c>
       <c r="B85" t="s">
+        <v>554</v>
+      </c>
+      <c r="C85" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" t="s">
+        <v>555</v>
+      </c>
+      <c r="E85" t="s">
+        <v>17</v>
+      </c>
+      <c r="F85" t="s">
         <v>556</v>
       </c>
-      <c r="C85" t="s">
-        <v>39</v>
-      </c>
-      <c r="D85" t="s">
-        <v>240</v>
-      </c>
-      <c r="E85" t="s">
-        <v>214</v>
-      </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
+        <v>19</v>
+      </c>
+      <c r="H85" t="s">
         <v>557</v>
       </c>
-      <c r="G85" t="s">
-        <v>31</v>
-      </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>558</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>559</v>
-      </c>
-      <c r="J85" t="s">
-        <v>52</v>
       </c>
       <c r="K85" t="s">
         <v>560</v>
@@ -5969,13 +5989,13 @@
         <v>561</v>
       </c>
       <c r="M85" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="N85"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>20243557</v>
+        <v>20243574</v>
       </c>
       <c r="B86" t="s">
         <v>562</v>
@@ -5984,151 +6004,153 @@
         <v>39</v>
       </c>
       <c r="D86" t="s">
+        <v>248</v>
+      </c>
+      <c r="E86" t="s">
+        <v>222</v>
+      </c>
+      <c r="F86" t="s">
         <v>563</v>
       </c>
-      <c r="E86" t="s">
-        <v>214</v>
-      </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
+        <v>31</v>
+      </c>
+      <c r="H86" t="s">
         <v>564</v>
       </c>
-      <c r="G86" t="s">
-        <v>19</v>
-      </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>565</v>
-      </c>
-      <c r="I86" t="s">
-        <v>566</v>
       </c>
       <c r="J86" t="s">
         <v>52</v>
       </c>
       <c r="K86" t="s">
+        <v>566</v>
+      </c>
+      <c r="L86" t="s">
         <v>567</v>
       </c>
-      <c r="L86" t="s">
-        <v>568</v>
-      </c>
       <c r="M86" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="N86"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>20243471</v>
+        <v>20243557</v>
       </c>
       <c r="B87" t="s">
+        <v>568</v>
+      </c>
+      <c r="C87" t="s">
+        <v>39</v>
+      </c>
+      <c r="D87" t="s">
         <v>569</v>
       </c>
-      <c r="C87" t="s">
-        <v>15</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
+        <v>222</v>
+      </c>
+      <c r="F87" t="s">
         <v>570</v>
       </c>
-      <c r="E87"/>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
+        <v>19</v>
+      </c>
+      <c r="H87" t="s">
         <v>571</v>
       </c>
-      <c r="G87" t="s">
-        <v>19</v>
-      </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>572</v>
-      </c>
-      <c r="I87" t="s">
-        <v>573</v>
       </c>
       <c r="J87" t="s">
         <v>52</v>
       </c>
       <c r="K87" t="s">
+        <v>573</v>
+      </c>
+      <c r="L87" t="s">
         <v>574</v>
       </c>
-      <c r="L87" t="s">
-        <v>575</v>
-      </c>
       <c r="M87" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="N87"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>20243468</v>
+        <v>20243471</v>
       </c>
       <c r="B88" t="s">
+        <v>575</v>
+      </c>
+      <c r="C88" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" t="s">
         <v>576</v>
-      </c>
-      <c r="C88" t="s">
-        <v>71</v>
-      </c>
-      <c r="D88" t="s">
-        <v>577</v>
       </c>
       <c r="E88"/>
       <c r="F88" t="s">
+        <v>577</v>
+      </c>
+      <c r="G88" t="s">
+        <v>19</v>
+      </c>
+      <c r="H88" t="s">
         <v>578</v>
       </c>
-      <c r="G88" t="s">
-        <v>19</v>
-      </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>579</v>
       </c>
-      <c r="I88" t="s">
+      <c r="J88" t="s">
+        <v>52</v>
+      </c>
+      <c r="K88" t="s">
         <v>580</v>
       </c>
-      <c r="J88" t="s">
-        <v>187</v>
-      </c>
-      <c r="K88" t="s">
+      <c r="L88" t="s">
         <v>581</v>
       </c>
-      <c r="L88" t="s">
-        <v>582</v>
-      </c>
       <c r="M88" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="N88"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>20243467</v>
+        <v>20243468</v>
       </c>
       <c r="B89" t="s">
+        <v>582</v>
+      </c>
+      <c r="C89" t="s">
+        <v>81</v>
+      </c>
+      <c r="D89" t="s">
         <v>583</v>
-      </c>
-      <c r="C89" t="s">
-        <v>15</v>
-      </c>
-      <c r="D89" t="s">
-        <v>584</v>
       </c>
       <c r="E89"/>
       <c r="F89" t="s">
+        <v>584</v>
+      </c>
+      <c r="G89" t="s">
+        <v>19</v>
+      </c>
+      <c r="H89" t="s">
         <v>585</v>
       </c>
-      <c r="G89" t="s">
-        <v>31</v>
-      </c>
-      <c r="H89" t="s">
+      <c r="I89" t="s">
         <v>586</v>
       </c>
-      <c r="I89" t="s">
+      <c r="J89" t="s">
+        <v>195</v>
+      </c>
+      <c r="K89" t="s">
         <v>587</v>
       </c>
-      <c r="J89" t="s">
-        <v>52</v>
-      </c>
-      <c r="K89" t="s">
+      <c r="L89" t="s">
         <v>588</v>
-      </c>
-      <c r="L89" t="s">
-        <v>589</v>
       </c>
       <c r="M89" t="s">
         <v>55</v>
@@ -6137,61 +6159,59 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>20243318</v>
+        <v>20243467</v>
       </c>
       <c r="B90" t="s">
+        <v>589</v>
+      </c>
+      <c r="C90" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" t="s">
         <v>590</v>
       </c>
-      <c r="C90" t="s">
-        <v>39</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="E90"/>
+      <c r="F90" t="s">
         <v>591</v>
       </c>
-      <c r="E90" t="s">
-        <v>41</v>
-      </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
+        <v>31</v>
+      </c>
+      <c r="H90" t="s">
         <v>592</v>
       </c>
-      <c r="G90" t="s">
-        <v>19</v>
-      </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>593</v>
       </c>
-      <c r="I90" t="s">
+      <c r="J90" t="s">
+        <v>52</v>
+      </c>
+      <c r="K90" t="s">
         <v>594</v>
       </c>
-      <c r="J90" t="s">
-        <v>22</v>
-      </c>
-      <c r="K90" t="s">
+      <c r="L90" t="s">
         <v>595</v>
       </c>
-      <c r="L90" t="s">
-        <v>596</v>
-      </c>
       <c r="M90" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N90"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>20243234</v>
+        <v>20243318</v>
       </c>
       <c r="B91" t="s">
+        <v>596</v>
+      </c>
+      <c r="C91" t="s">
+        <v>39</v>
+      </c>
+      <c r="D91" t="s">
         <v>597</v>
       </c>
-      <c r="C91" t="s">
-        <v>15</v>
-      </c>
-      <c r="D91" t="s">
-        <v>299</v>
-      </c>
       <c r="E91" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F91" t="s">
         <v>598</v>
@@ -6206,7 +6226,7 @@
         <v>600</v>
       </c>
       <c r="J91" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="K91" t="s">
         <v>601</v>
@@ -6215,28 +6235,28 @@
         <v>602</v>
       </c>
       <c r="M91" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N91"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>20243259</v>
+        <v>20243234</v>
       </c>
       <c r="B92" t="s">
         <v>603</v>
       </c>
       <c r="C92" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D92" t="s">
+        <v>307</v>
+      </c>
+      <c r="E92" t="s">
+        <v>17</v>
+      </c>
+      <c r="F92" t="s">
         <v>604</v>
-      </c>
-      <c r="E92" t="s">
-        <v>73</v>
-      </c>
-      <c r="F92" t="s">
-        <v>598</v>
       </c>
       <c r="G92" t="s">
         <v>19</v>
@@ -6263,40 +6283,40 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>20243169</v>
+        <v>20243259</v>
       </c>
       <c r="B93" t="s">
         <v>609</v>
       </c>
       <c r="C93" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D93" t="s">
         <v>610</v>
       </c>
       <c r="E93" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="F93" t="s">
+        <v>604</v>
+      </c>
+      <c r="G93" t="s">
+        <v>19</v>
+      </c>
+      <c r="H93" t="s">
         <v>611</v>
       </c>
-      <c r="G93" t="s">
-        <v>19</v>
-      </c>
-      <c r="H93" t="s">
+      <c r="I93" t="s">
         <v>612</v>
-      </c>
-      <c r="I93" t="s">
-        <v>613</v>
       </c>
       <c r="J93" t="s">
         <v>52</v>
       </c>
       <c r="K93" t="s">
+        <v>613</v>
+      </c>
+      <c r="L93" t="s">
         <v>614</v>
-      </c>
-      <c r="L93" t="s">
-        <v>615</v>
       </c>
       <c r="M93" t="s">
         <v>55</v>
@@ -6305,61 +6325,61 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>20247112</v>
+        <v>20243169</v>
       </c>
       <c r="B94" t="s">
+        <v>615</v>
+      </c>
+      <c r="C94" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" t="s">
         <v>616</v>
       </c>
-      <c r="C94" t="s">
-        <v>47</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
+        <v>17</v>
+      </c>
+      <c r="F94" t="s">
         <v>617</v>
       </c>
-      <c r="E94" t="s">
-        <v>58</v>
-      </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
+        <v>19</v>
+      </c>
+      <c r="H94" t="s">
         <v>618</v>
       </c>
-      <c r="G94" t="s">
-        <v>19</v>
-      </c>
-      <c r="H94" t="s">
+      <c r="I94" t="s">
         <v>619</v>
-      </c>
-      <c r="I94" t="s">
-        <v>620</v>
       </c>
       <c r="J94" t="s">
         <v>52</v>
       </c>
       <c r="K94" t="s">
+        <v>620</v>
+      </c>
+      <c r="L94" t="s">
         <v>621</v>
       </c>
-      <c r="L94" t="s">
-        <v>622</v>
-      </c>
       <c r="M94" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N94"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>20247015</v>
+        <v>20247112</v>
       </c>
       <c r="B95" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C95" t="s">
         <v>47</v>
       </c>
       <c r="D95" t="s">
-        <v>267</v>
+        <v>623</v>
       </c>
       <c r="E95" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="F95" t="s">
         <v>624</v>
@@ -6383,25 +6403,25 @@
         <v>628</v>
       </c>
       <c r="M95" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="N95"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>20234494</v>
+        <v>20247015</v>
       </c>
       <c r="B96" t="s">
         <v>629</v>
       </c>
       <c r="C96" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D96" t="s">
-        <v>140</v>
+        <v>275</v>
       </c>
       <c r="E96" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="F96" t="s">
         <v>630</v>
@@ -6431,7 +6451,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>20234461</v>
+        <v>20234494</v>
       </c>
       <c r="B97" t="s">
         <v>635</v>
@@ -6440,7 +6460,7 @@
         <v>39</v>
       </c>
       <c r="D97" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="E97" t="s">
         <v>58</v>
@@ -6467,13 +6487,13 @@
         <v>640</v>
       </c>
       <c r="M97" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="N97"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>20234375</v>
+        <v>20234461</v>
       </c>
       <c r="B98" t="s">
         <v>641</v>
@@ -6482,118 +6502,160 @@
         <v>39</v>
       </c>
       <c r="D98" t="s">
+        <v>108</v>
+      </c>
+      <c r="E98" t="s">
+        <v>58</v>
+      </c>
+      <c r="F98" t="s">
         <v>642</v>
       </c>
-      <c r="E98" t="s">
-        <v>17</v>
-      </c>
-      <c r="F98" t="s">
+      <c r="G98" t="s">
+        <v>19</v>
+      </c>
+      <c r="H98" t="s">
         <v>643</v>
       </c>
-      <c r="G98" t="s">
-        <v>19</v>
-      </c>
-      <c r="H98" t="s">
+      <c r="I98" t="s">
         <v>644</v>
-      </c>
-      <c r="I98" t="s">
-        <v>645</v>
       </c>
       <c r="J98" t="s">
         <v>52</v>
       </c>
       <c r="K98" t="s">
+        <v>645</v>
+      </c>
+      <c r="L98" t="s">
         <v>646</v>
       </c>
-      <c r="L98" t="s">
-        <v>647</v>
-      </c>
       <c r="M98" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="N98"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>20234353</v>
+        <v>20234375</v>
       </c>
       <c r="B99" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C99" t="s">
         <v>39</v>
       </c>
       <c r="D99" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E99" t="s">
         <v>17</v>
       </c>
       <c r="F99" t="s">
+        <v>649</v>
+      </c>
+      <c r="G99" t="s">
+        <v>19</v>
+      </c>
+      <c r="H99" t="s">
         <v>650</v>
       </c>
-      <c r="G99" t="s">
-        <v>19</v>
-      </c>
-      <c r="H99" t="s">
+      <c r="I99" t="s">
         <v>651</v>
-      </c>
-      <c r="I99" t="s">
-        <v>652</v>
       </c>
       <c r="J99" t="s">
         <v>52</v>
       </c>
       <c r="K99" t="s">
+        <v>652</v>
+      </c>
+      <c r="L99" t="s">
         <v>653</v>
       </c>
-      <c r="L99" t="s">
-        <v>654</v>
-      </c>
       <c r="M99" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="N99"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>20234346</v>
+        <v>20234353</v>
       </c>
       <c r="B100" t="s">
+        <v>654</v>
+      </c>
+      <c r="C100" t="s">
+        <v>39</v>
+      </c>
+      <c r="D100" t="s">
         <v>655</v>
       </c>
-      <c r="C100" t="s">
-        <v>15</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
+        <v>17</v>
+      </c>
+      <c r="F100" t="s">
         <v>656</v>
       </c>
-      <c r="E100"/>
-      <c r="F100" t="s">
+      <c r="G100" t="s">
+        <v>19</v>
+      </c>
+      <c r="H100" t="s">
         <v>657</v>
       </c>
-      <c r="G100" t="s">
-        <v>31</v>
-      </c>
-      <c r="H100" t="s">
+      <c r="I100" t="s">
         <v>658</v>
-      </c>
-      <c r="I100" t="s">
-        <v>659</v>
       </c>
       <c r="J100" t="s">
         <v>52</v>
       </c>
       <c r="K100" t="s">
+        <v>659</v>
+      </c>
+      <c r="L100" t="s">
         <v>660</v>
       </c>
-      <c r="L100" t="s">
+      <c r="M100" t="s">
+        <v>55</v>
+      </c>
+      <c r="N100"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>20234346</v>
+      </c>
+      <c r="B101" t="s">
         <v>661</v>
       </c>
-      <c r="M100" t="s">
+      <c r="C101" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" t="s">
+        <v>662</v>
+      </c>
+      <c r="E101"/>
+      <c r="F101" t="s">
+        <v>663</v>
+      </c>
+      <c r="G101" t="s">
+        <v>31</v>
+      </c>
+      <c r="H101" t="s">
+        <v>664</v>
+      </c>
+      <c r="I101" t="s">
+        <v>665</v>
+      </c>
+      <c r="J101" t="s">
+        <v>52</v>
+      </c>
+      <c r="K101" t="s">
+        <v>666</v>
+      </c>
+      <c r="L101" t="s">
+        <v>667</v>
+      </c>
+      <c r="M101" t="s">
         <v>37</v>
       </c>
-      <c r="N100"/>
+      <c r="N101"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Objets_parlementaires_CDF_EFK.xlsx
+++ b/Objets_parlementaires_CDF_EFK.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="673">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -608,15 +608,36 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253941</t>
   </si>
   <si>
+    <t xml:space="preserve">25.450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wyssmann Rémy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finma dem Öffentlichkeitsprinzip unterstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le principe de la transparence doit aussi s’appliquer à la Finma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beratung in Kommission des Nationalrates abgeschlossen / Fin des discussions en commission du Conseil national</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20250450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20250450</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.3835</t>
   </si>
   <si>
     <t xml:space="preserve">Silberschmidt Andri</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-06-20</t>
-  </si>
-  <si>
     <t xml:space="preserve">Förderung sicherer und nachhaltiger Chemikalien</t>
   </si>
   <si>
@@ -767,9 +788,6 @@
     <t xml:space="preserve">Mesures contraignantes en cas de hausse excessive des coûts, y compris pour les tarifs "officiels" définis dans la LAMal</t>
   </si>
   <si>
-    <t xml:space="preserve">Beratung in Kommission des Nationalrates abgeschlossen / Fin des discussions en commission du Conseil national</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253637</t>
   </si>
   <si>
@@ -857,6 +875,1068 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253444</t>
   </si>
   <si>
+    <t xml:space="preserve">25.3309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-03-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Trauerspiel "Aufklärungsdrohne ADS 15" stoppen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drones de reconnaissance ADS 15. Un gâchis auquel il faut mettre fin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schmezer Ueli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2-Verordnung. Erleichterungsmassnahmen für die Autobranche? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordonnance sur le CO2. Des mesures d'allègement pour la branche automobile ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zybach Ursula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Bundesrat soll gemeinsam Verantwortung für die Governance des VBS übernehmen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pour que le Conseil fédéral assume la gouvernance du DDPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burgherr Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abgestufte Anpassung der Bundesratsrente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adaptation progressive des retraites des conseillers fédéraux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graf Maya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-03-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vernehmlassungsvorlage zum Entlastungspaket 27 und Änderung des Subventionsgesetzes. Auswirkungen und effektives Sparpotenzial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultation concernant le programme d'allègement budgétaire 2027 et la modification de la loi sur les subventions. Conséquences et potentiel d'économies effectif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20251011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20251011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z'graggen Heidi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klärung der Kompetenzverteilung im Bereich der inneren Sicherheit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clarifier la répartition des compétences en matière de sécurité intérieure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blunschy Dominik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der AHV-Fonds darf nicht zum Selbstbedienungsladen der Bundesverwaltung verkommen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le fonds AVS ne doit pas devenir un libre-service de l'administration fédérale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regazzi Fabio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handel und Konsum von Kokain und Crack in der Schweiz. Ein Phänomen, das zunehmend Sorge bereitet und das es zu bekämpfen gilt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trafic et consommation de cocaïne et de crack en Suisse. Un phénomène de plus en plus inquiétant qu'il faut combattre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verlässliche Grundlagen für die Gesetzgebung in der AHV sind zwingend notwendig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Législation sur l'AVS. Des bases fiables sont impératives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friedl Claudia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-03-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emissionshandel. Fragwürdige Gratisemissionsrechte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Échange de quotas d'émission. Les droits d'émission à titre gratuit soulèvent des questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-03-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nimmt der Bundesrat die Finanzkontrolle ernst? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Conseil fédéral prend-il au sérieux le Contrôle fédéral des finances ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-03-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das EJPD muss die Bundeskriminalpolizei unverzüglich verstärken, damit die Unterwanderung durch die Mafia und andere Straftaten bekämpft werden können</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le DFJP doit renforcer sans tarder la Police judiciaire fédérale pour combattre l'infiltration par la mafia et d'autres crimes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUAG-Betrugsskandal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraude chez RUAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist der Kaufpreis für die F-35 fix? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le prix d’achat des F-35, est-il fixe ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fridez Pierre-Alain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veruntreuung bei Ruag und Information des Bundesrates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malversations chez Ruag et information du Conseil fédéral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vontobel Erich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-03-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transparenz und Zweckbindung bei der NGO-Finanzierung. Wo steht der Bund?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment garantir que le financement des ONG par la Confédération soit transparent et ne soit pas détourné ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reimann Lukas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whistleblowing Meldestelle Korruption für Private und für Bundesangestellte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corruption. Bureau de communication pour les lanceurs d’alerte ouvert aux particuliers et aux employés de la Confédération</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commission de l'économie et des redevances Conseil national</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweizer Depotbank für die Ausgleichfonds von AHV, IV und EO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banque dépositaire pour les fonds de compensation AVS/AI/APG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rechsteiner Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Von E-Health 2.0 zu Digisanté. Sind die Kantone adäquat ins Programm eingebunden?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suite de la Stratégie Cybersanté Suisse 2.0 et Digisanté. Les cantons sont-ils suffisamment associés au programme ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geldspielgesetz. Was hat es gebracht?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loi fédérale sur les jeux d'argent. Quels ont été les bénéfices?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaufmann Pius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETH-Top vs. ETH-Baumanagement-Flop </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPFZ. Un top et un flop </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20248043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20248043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prelicz-Huber Katharina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recht auf Grundschulung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Droit à un enseignement de base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wyss Sarah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steuervergünstigungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allègements fiscaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verwaltung der Schweizer Vorsorgegelder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administration des fonds de prévoyance suisses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glättli Balthasar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umfang und Wirkungseffizienz der Finanzhilfen in Form von steuerlichen Vergünstigungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montant et efficacité des aides financières sous forme d'allègements fiscaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planetare Grenzen chemischer Stoffe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produits chimiques et limites planétaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risikomanagement des Bundes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestion des risques à la Confédération</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verursacherprinzip rechtlich stärken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renforcer dans la loi le principe du pollueur-payeur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brenzikofer Florence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PFAS. Handelt der Bund?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PFAS. La Confédération prend-elle des mesures?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zopfi Mathias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erneuerung der Antikorruptions-Strategie des Bundesrates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renouvellement de la stratégie anticorruption du Conseil fédéral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gute Governance und Beseitigung von Redundanzen bei den Aktivitäten des Bundes im Bereich AHV/IV/EO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonne gouvernance et suppression de doublons dans les activités de la Confédération en matière d’AVS/AI/APG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sozialpartnerschaft-Transparenz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transparence du partenariat social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluation der Strukturverbesserungsbeiträge: Bis wann werden die vorgeschlagenen Massnahmen zum Schutz der Biodiversität umgesetzt?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Évaluation des contributions aux améliorations structurelles. D’ici à quand les mesures proposées destinées à la protection de la biodiversité seront-elles mises en œuvre ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluation der Strukturverbesserungsbeiträge: Weshalb wurden im Zuge der Fallstudien keine Biodiversitätsexpert:innen befragt?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Évaluation des contributions aux améliorations structurelles. Pourquoi n’a-t-on pas interrogé de spécialistes de la biodiversité dans le cadre des études de cas ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pahud Yvan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AHV. Rechenfehler oder Staatsskandal?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVS. Erreur de calculs ou scandale d'Etat?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matter Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wechsel der Wertschriftenverwaltung vom Inland (UBS) ins Ausland (State Street) für die Ausgleichsfonds von AHV, IV und EO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfert de la Suisse (UBS) vers l'étranger (State Street) de la gestion des titres des fonds de compensation AVS/AI/APG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ressourcenüberprüfung Fedpol?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Examen des ressources de Fedpol ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theiler Heinz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kickbacks an Gewerkschaften</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rétrocessions en faveur des syndicats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Candan Hasan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welche Schlüsse zieht der Bundesrat aus dem Synthesebericht der Eidgenössischen Finanzkontrolle zur Subventionsüberprüfung?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapport de synthèse du Contrôle fédéral des finances sur l'examen des subventions. Quelles conclusions le Conseil fédéral en tire-t-il?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bertschy Kathrin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investitionskredite Landwirtschaft. In Rentabilität und Einkommensverbesserung statt in die Verschuldung "investieren"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crédits d'investissement agricoles. Bien investir, pour la rentabilité et l'amélioration des revenus plutôt que l'endettement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keine teuren biodiversitätsschädigenden Subventionen. Die  Mineralölsteuer-Rückerstattung ist aufzuheben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non aux subventions coûteuses qui nuisent à la biodiversité. Supprimer le remboursement de l'impôt sur les huiles minérales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egger Mike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verbesserung der Zusammenarbeit seitens der Kantone bei der Ausschaffung von abgewiesenen Asylbewerbern</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Améliorer la coopération de la part des cantons en matière de renvoi de requérants d'asile déboutés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beratung in Kommission des Ständerates abgeschlossen / Fin des discussions en commission du Conseil des Etats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mehr Kostenrealität im KVG. Verlässliche Daten für faire Tarife</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAMal. Mieux refléter les coûts réels en fixant des tarifs équitables sur la base de données fiables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lohr Christian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnötige Leistungen im Gesundheitswesen vermeiden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Système de santé. Eviter les prestations inutiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commission de la sécurité sociale et de la santé publique Conseil national</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kostentransparenz in der zweiten Säule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transparence des coûts dans le deuxième pilier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commission des transports et des télécommunications Conseil national</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stand der Umsetzung des Seilbahngesetzes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etat des lieux de la mise en oeuvre de la loi sur les installations à câbles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gredig Corina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sparpotenzial bei biodiversitätsschädigenden Subventionen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subventions nuisibles à la biodiversité. Un possible gisement d'économies?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renten und Privilegien der Bundesräte reduzieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réduire les rentes et les privilèges des conseillers fédéraux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schläfli Nina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie setzt sich die Schweiz für eine menschenrechtskonforme Verwendung der BMVI-Gelder ein?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De quelle manière la Suisse s'engage-t-elle en faveur d'une utilisation du fonds BMVI qui soit conforme aux droits de l'homme?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knutti Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruhegehalt von alt Bundesräten für die 13. AHV-Rente einsetzen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utiliser la retraite des anciens conseillers fédéraux pour financer la 13e rente AVS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michaud Gigon Sophie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Berichte der Eidgenössischen Finanzkontrolle (EFK) und der Geschäftsprüfungskommission des Ständerats (GPK-S) zur Kostenwahrheit im Bericht über die Postulate Giacometti Schneider berücksichtigen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prendre en compte les rapports du CDF et de la CdG-E sur la vérité des coûts dans le rapport sur les po Giacometti/Schneider.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unterstellung von Organisationen ausserhalb der Bundesverwaltung unter die Aufsicht durch die Eidgenössische Finanzkontrolle. Wann wird der Bundesrat seinen Bericht veröffentlichen? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assujettissement des organisations externes à l’administration au Contrôle fédéral des finances. Quand le Conseil fédéral publiera-t-il son rapport ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biodiversitätsschädigende Wirkungen der Neuen Regionalpolitik. Wie plant das zuständige Bundesamt vorzugehen?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effet néfaste de la nouvelle politique régionale sur la biodiversité. Comment l'office fédéral compétent procède-t-il?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20234494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20234494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unterschiedliche Auffassungen und Zielsetzungen zwischen dem Nationale Zentrum für Cybersicherheit und dem Nachrichtendienst des Bundes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCSC et SRC. Des conceptions et des objectifs divergents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20234461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20234461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haab Martin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liefer- und Versorgungsengpässe im Tierarzneimittelbereich. Wie weiter im Schweizer Markt?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruptures de livraison et d'approvisionnement affectant les médicaments vétérinaires. Quid du marché suisse?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grüter Franz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doppelt so hohe Gebühren für gemeinnützige Stiftungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surveillance des fondations d’utilité publique. Multiplication par deux des émoluments perçus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20234353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20234353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commission des institutions politiques Conseil des États</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fonds für Demokratie und Rechtsstaatlichkeit im Gedenken an 1848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fonds pour la démocratie et l'état de droit en commémoration de 1848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20234346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20234346</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.3425</t>
   </si>
   <si>
@@ -878,171 +1958,6 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253425</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-03-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Das Trauerspiel "Aufklärungsdrohne ADS 15" stoppen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drones de reconnaissance ADS 15. Un gâchis auquel il faut mettre fin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schmezer Ueli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO2-Verordnung. Erleichterungsmassnahmen für die Autobranche? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordonnance sur le CO2. Des mesures d'allègement pour la branche automobile ? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zybach Ursula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Der Bundesrat soll gemeinsam Verantwortung für die Governance des VBS übernehmen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pour que le Conseil fédéral assume la gouvernance du DDPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burgherr Thomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abgestufte Anpassung der Bundesratsrente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adaptation progressive des retraites des conseillers fédéraux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graf Maya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-03-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vernehmlassungsvorlage zum Entlastungspaket 27 und Änderung des Subventionsgesetzes. Auswirkungen und effektives Sparpotenzial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultation concernant le programme d'allègement budgétaire 2027 et la modification de la loi sur les subventions. Conséquences et potentiel d'économies effectif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20251011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20251011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z'graggen Heidi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klärung der Kompetenzverteilung im Bereich der inneren Sicherheit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clarifier la répartition des compétences en matière de sécurité intérieure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blunschy Dominik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Der AHV-Fonds darf nicht zum Selbstbedienungsladen der Bundesverwaltung verkommen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le fonds AVS ne doit pas devenir un libre-service de l'administration fédérale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regazzi Fabio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handel und Konsum von Kokain und Crack in der Schweiz. Ein Phänomen, das zunehmend Sorge bereitet und das es zu bekämpfen gilt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trafic et consommation de cocaïne et de crack en Suisse. Un phénomène de plus en plus inquiétant qu'il faut combattre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verlässliche Grundlagen für die Gesetzgebung in der AHV sind zwingend notwendig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Législation sur l'AVS. Des bases fiables sont impératives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253214</t>
-  </si>
-  <si>
     <t xml:space="preserve">25.3246</t>
   </si>
   <si>
@@ -1061,219 +1976,12 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253246</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friedl Claudia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-03-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emissionshandel. Fragwürdige Gratisemissionsrechte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Échange de quotas d'émission. Les droits d'émission à titre gratuit soulèvent des questions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-03-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nimmt der Bundesrat die Finanzkontrolle ernst? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le Conseil fédéral prend-il au sérieux le Contrôle fédéral des finances ? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-03-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Das EJPD muss die Bundeskriminalpolizei unverzüglich verstärken, damit die Unterwanderung durch die Mafia und andere Straftaten bekämpft werden können</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le DFJP doit renforcer sans tarder la Police judiciaire fédérale pour combattre l'infiltration par la mafia et d'autres crimes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUAG-Betrugsskandal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fraude chez RUAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ist der Kaufpreis für die F-35 fix? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le prix d’achat des F-35, est-il fixe ? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fridez Pierre-Alain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veruntreuung bei Ruag und Information des Bundesrates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malversations chez Ruag et information du Conseil fédéral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vontobel Erich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UDF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-03-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transparenz und Zweckbindung bei der NGO-Finanzierung. Wo steht der Bund?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment garantir que le financement des ONG par la Confédération soit transparent et ne soit pas détourné ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reimann Lukas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whistleblowing Meldestelle Korruption für Private und für Bundesangestellte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corruption. Bureau de communication pour les lanceurs d’alerte ouvert aux particuliers et aux employés de la Confédération</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commission de l'économie et des redevances Conseil national</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweizer Depotbank für die Ausgleichfonds von AHV, IV und EO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banque dépositaire pour les fonds de compensation AVS/AI/APG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rechsteiner Thomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-12-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Von E-Health 2.0 zu Digisanté. Sind die Kantone adäquat ins Programm eingebunden?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suite de la Stratégie Cybersanté Suisse 2.0 et Digisanté. Les cantons sont-ils suffisamment associés au programme ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geldspielgesetz. Was hat es gebracht?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loi fédérale sur les jeux d'argent. Quels ont été les bénéfices?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244419</t>
-  </si>
-  <si>
     <t xml:space="preserve">24.7975</t>
   </si>
   <si>
     <t xml:space="preserve">Schnyder Markus</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-12-11</t>
-  </si>
-  <si>
     <t xml:space="preserve">Politische Einflussnahme der Verwaltung. Ist das korrekt?</t>
   </si>
   <si>
@@ -1286,174 +1994,12 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247975</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaufmann Pius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETH-Top vs. ETH-Baumanagement-Flop </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPFZ. Un top et un flop </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20248043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20248043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4290</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prelicz-Huber Katharina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-12-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recht auf Grundschulung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Droit à un enseignement de base</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244290</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244290</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wyss Sarah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-12-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steuervergünstigungen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allègements fiscaux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-09-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verwaltung der Schweizer Vorsorgegelder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administration des fonds de prévoyance suisses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glättli Balthasar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Umfang und Wirkungseffizienz der Finanzhilfen in Form von steuerlichen Vergünstigungen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montant et efficacité des aides financières sous forme d'allègements fiscaux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planetare Grenzen chemischer Stoffe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produits chimiques et limites planétaires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Risikomanagement des Bundes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestion des risques à la Confédération</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verursacherprinzip rechtlich stärken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renforcer dans la loi le principe du pollueur-payeur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brenzikofer Florence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PFAS. Handelt der Bund?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PFAS. La Confédération prend-elle des mesures?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244137</t>
-  </si>
-  <si>
     <t xml:space="preserve">24.3937</t>
   </si>
   <si>
     <t xml:space="preserve">Fässler Daniel</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-09-23</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wegweisungsverfügungen sind rascher und konsequenter zu vollziehen</t>
   </si>
   <si>
@@ -1466,321 +2012,6 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243937</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zopfi Mathias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erneuerung der Antikorruptions-Strategie des Bundesrates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renouvellement de la stratégie anticorruption du Conseil fédéral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7720</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-09-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gute Governance und Beseitigung von Redundanzen bei den Aktivitäten des Bundes im Bereich AHV/IV/EO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonne gouvernance et suppression de doublons dans les activités de la Confédération en matière d’AVS/AI/APG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247720</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247720</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sozialpartnerschaft-Transparenz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transparence du partenariat social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluation der Strukturverbesserungsbeiträge: Bis wann werden die vorgeschlagenen Massnahmen zum Schutz der Biodiversität umgesetzt?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Évaluation des contributions aux améliorations structurelles. D’ici à quand les mesures proposées destinées à la protection de la biodiversité seront-elles mises en œuvre ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluation der Strukturverbesserungsbeiträge: Weshalb wurden im Zuge der Fallstudien keine Biodiversitätsexpert:innen befragt?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Évaluation des contributions aux améliorations structurelles. Pourquoi n’a-t-on pas interrogé de spécialistes de la biodiversité dans le cadre des études de cas ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pahud Yvan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-09-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AHV. Rechenfehler oder Staatsskandal?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVS. Erreur de calculs ou scandale d'Etat?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matter Thomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wechsel der Wertschriftenverwaltung vom Inland (UBS) ins Ausland (State Street) für die Ausgleichsfonds von AHV, IV und EO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transfert de la Suisse (UBS) vers l'étranger (State Street) de la gestion des titres des fonds de compensation AVS/AI/APG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-09-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ressourcenüberprüfung Fedpol?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Examen des ressources de Fedpol ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Theiler Heinz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kickbacks an Gewerkschaften</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rétrocessions en faveur des syndicats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Candan Hasan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-06-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Welche Schlüsse zieht der Bundesrat aus dem Synthesebericht der Eidgenössischen Finanzkontrolle zur Subventionsüberprüfung?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rapport de synthèse du Contrôle fédéral des finances sur l'examen des subventions. Quelles conclusions le Conseil fédéral en tire-t-il?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bertschy Kathrin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investitionskredite Landwirtschaft. In Rentabilität und Einkommensverbesserung statt in die Verschuldung "investieren"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crédits d'investissement agricoles. Bien investir, pour la rentabilité et l'amélioration des revenus plutôt que l'endettement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keine teuren biodiversitätsschädigenden Subventionen. Die  Mineralölsteuer-Rückerstattung ist aufzuheben</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non aux subventions coûteuses qui nuisent à la biodiversité. Supprimer le remboursement de l'impôt sur les huiles minérales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egger Mike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-06-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Verbesserung der Zusammenarbeit seitens der Kantone bei der Ausschaffung von abgewiesenen Asylbewerbern</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Améliorer la coopération de la part des cantons en matière de renvoi de requérants d'asile déboutés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beratung in Kommission des Ständerates abgeschlossen / Fin des discussions en commission du Conseil des Etats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-06-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mehr Kostenrealität im KVG. Verlässliche Daten für faire Tarife</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAMal. Mieux refléter les coûts réels en fixant des tarifs équitables sur la base de données fiables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lohr Christian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-06-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnötige Leistungen im Gesundheitswesen vermeiden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Système de santé. Eviter les prestations inutiles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commission de la sécurité sociale et de la santé publique Conseil national</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-05-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kostentransparenz in der zweiten Säule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transparence des coûts dans le deuxième pilier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commission des transports et des télécommunications Conseil national</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-04-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stand der Umsetzung des Seilbahngesetzes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etat des lieux de la mise en oeuvre de la loi sur les installations à câbles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243468</t>
-  </si>
-  <si>
     <t xml:space="preserve">24.3467</t>
   </si>
   <si>
@@ -1800,222 +2031,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gredig Corina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-03-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sparpotenzial bei biodiversitätsschädigenden Subventionen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subventions nuisibles à la biodiversité. Un possible gisement d'économies?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-03-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renten und Privilegien der Bundesräte reduzieren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réduire les rentes et les privilèges des conseillers fédéraux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schläfli Nina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wie setzt sich die Schweiz für eine menschenrechtskonforme Verwendung der BMVI-Gelder ein?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De quelle manière la Suisse s'engage-t-elle en faveur d'une utilisation du fonds BMVI qui soit conforme aux droits de l'homme?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knutti Thomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-03-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruhegehalt von alt Bundesräten für die 13. AHV-Rente einsetzen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utiliser la retraite des anciens conseillers fédéraux pour financer la 13e rente AVS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michaud Gigon Sophie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-02-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Berichte der Eidgenössischen Finanzkontrolle (EFK) und der Geschäftsprüfungskommission des Ständerats (GPK-S) zur Kostenwahrheit im Bericht über die Postulate Giacometti Schneider berücksichtigen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prendre en compte les rapports du CDF et de la CdG-E sur la vérité des coûts dans le rapport sur les po Giacometti/Schneider.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-02-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unterstellung von Organisationen ausserhalb der Bundesverwaltung unter die Aufsicht durch die Eidgenössische Finanzkontrolle. Wann wird der Bundesrat seinen Bericht veröffentlichen? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assujettissement des organisations externes à l’administration au Contrôle fédéral des finances. Quand le Conseil fédéral publiera-t-il son rapport ? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biodiversitätsschädigende Wirkungen der Neuen Regionalpolitik. Wie plant das zuständige Bundesamt vorzugehen?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Effet néfaste de la nouvelle politique régionale sur la biodiversité. Comment l'office fédéral compétent procède-t-il?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20234494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20234494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unterschiedliche Auffassungen und Zielsetzungen zwischen dem Nationale Zentrum für Cybersicherheit und dem Nachrichtendienst des Bundes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCSC et SRC. Des conceptions et des objectifs divergents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20234461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20234461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haab Martin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liefer- und Versorgungsengpässe im Tierarzneimittelbereich. Wie weiter im Schweizer Markt?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruptures de livraison et d'approvisionnement affectant les médicaments vétérinaires. Quid du marché suisse?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grüter Franz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doppelt so hohe Gebühren für gemeinnützige Stiftungen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surveillance des fondations d’utilité publique. Multiplication par deux des émoluments perçus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20234353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20234353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commission des institutions politiques Conseil des États</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-11-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonds für Demokratie und Rechtsstaatlichkeit im Gedenken an 1848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonds pour la démocratie et l'état de droit en commémoration de 1848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20234346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20234346</t>
   </si>
 </sst>
 </file>
@@ -2074,8 +2089,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:N101" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:N101"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:N102" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:N102"/>
   <tableColumns count="14">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Numéro"/>
@@ -3521,19 +3536,19 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>20253835</v>
+        <v>20250450</v>
       </c>
       <c r="B27" t="s">
         <v>198</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="D27" t="s">
         <v>199</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F27" t="s">
         <v>200</v>
@@ -3547,35 +3562,37 @@
       <c r="I27" t="s">
         <v>202</v>
       </c>
-      <c r="J27" t="s">
-        <v>163</v>
+      <c r="J27" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="K27" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L27" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M27" t="s">
         <v>37</v>
       </c>
-      <c r="N27"/>
+      <c r="N27" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>20253845</v>
+        <v>20253835</v>
       </c>
       <c r="B28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="E28" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="F28" t="s">
         <v>200</v>
@@ -3584,124 +3601,130 @@
         <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I28" t="s">
-        <v>207</v>
-      </c>
-      <c r="J28" t="s">
-        <v>22</v>
+        <v>209</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="K28" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L28" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M28" t="s">
         <v>37</v>
       </c>
-      <c r="N28"/>
+      <c r="N28" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>20253855</v>
+        <v>20253845</v>
       </c>
       <c r="B29" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>211</v>
+        <v>148</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="F29" t="s">
         <v>200</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I29" t="s">
-        <v>202</v>
-      </c>
-      <c r="J29" t="s">
-        <v>163</v>
+        <v>214</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="K29" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L29" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M29" t="s">
         <v>37</v>
       </c>
-      <c r="N29"/>
+      <c r="N29" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>20253880</v>
+        <v>20253855</v>
       </c>
       <c r="B30" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E30" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F30" t="s">
         <v>200</v>
       </c>
       <c r="G30" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H30" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="I30" t="s">
-        <v>217</v>
-      </c>
-      <c r="J30" t="s">
-        <v>22</v>
+        <v>209</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="K30" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L30" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M30" t="s">
         <v>37</v>
       </c>
-      <c r="N30"/>
+      <c r="N30" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>20253892</v>
+        <v>20253880</v>
       </c>
       <c r="B31" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C31" t="s">
         <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E31" t="s">
-        <v>222</v>
+        <v>17</v>
       </c>
       <c r="F31" t="s">
         <v>200</v>
@@ -3715,7 +3738,7 @@
       <c r="I31" t="s">
         <v>224</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K31" t="s">
@@ -3727,23 +3750,25 @@
       <c r="M31" t="s">
         <v>37</v>
       </c>
-      <c r="N31"/>
+      <c r="N31" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>20253893</v>
+        <v>20253892</v>
       </c>
       <c r="B32" t="s">
         <v>227</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="D32" t="s">
         <v>228</v>
       </c>
       <c r="E32" t="s">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="F32" t="s">
         <v>200</v>
@@ -3752,43 +3777,45 @@
         <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I32" t="s">
-        <v>230</v>
-      </c>
-      <c r="J32" t="s">
+        <v>231</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K32" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L32" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M32" t="s">
-        <v>25</v>
-      </c>
-      <c r="N32"/>
+        <v>37</v>
+      </c>
+      <c r="N32" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>20253730</v>
+        <v>20253893</v>
       </c>
       <c r="B33" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="D33" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E33" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="F33" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="G33" t="s">
         <v>19</v>
@@ -3799,7 +3826,7 @@
       <c r="I33" t="s">
         <v>237</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K33" t="s">
@@ -3809,31 +3836,33 @@
         <v>239</v>
       </c>
       <c r="M33" t="s">
-        <v>55</v>
-      </c>
-      <c r="N33"/>
+        <v>25</v>
+      </c>
+      <c r="N33" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>20253630</v>
+        <v>20253730</v>
       </c>
       <c r="B34" t="s">
         <v>240</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
         <v>241</v>
       </c>
       <c r="E34" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="F34" t="s">
         <v>242</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H34" t="s">
         <v>243</v>
@@ -3841,8 +3870,8 @@
       <c r="I34" t="s">
         <v>244</v>
       </c>
-      <c r="J34" t="s">
-        <v>52</v>
+      <c r="J34" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="K34" t="s">
         <v>245</v>
@@ -3851,40 +3880,42 @@
         <v>246</v>
       </c>
       <c r="M34" t="s">
-        <v>37</v>
-      </c>
-      <c r="N34"/>
+        <v>55</v>
+      </c>
+      <c r="N34" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>20253637</v>
+        <v>20253630</v>
       </c>
       <c r="B35" t="s">
         <v>247</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D35" t="s">
         <v>248</v>
       </c>
       <c r="E35" t="s">
-        <v>222</v>
+        <v>29</v>
       </c>
       <c r="F35" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="G35" t="s">
         <v>31</v>
       </c>
       <c r="H35" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I35" t="s">
-        <v>250</v>
-      </c>
-      <c r="J35" t="s">
         <v>251</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="K35" t="s">
         <v>252</v>
@@ -3893,70 +3924,74 @@
         <v>253</v>
       </c>
       <c r="M35" t="s">
-        <v>55</v>
-      </c>
-      <c r="N35"/>
+        <v>37</v>
+      </c>
+      <c r="N35" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>20257355</v>
+        <v>20253637</v>
       </c>
       <c r="B36" t="s">
         <v>254</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
         <v>255</v>
       </c>
       <c r="E36" t="s">
-        <v>17</v>
+        <v>229</v>
       </c>
       <c r="F36" t="s">
+        <v>249</v>
+      </c>
+      <c r="G36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" t="s">
         <v>256</v>
       </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>257</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K36" t="s">
         <v>258</v>
       </c>
-      <c r="J36" t="s">
-        <v>52</v>
-      </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>259</v>
-      </c>
-      <c r="L36" t="s">
-        <v>260</v>
       </c>
       <c r="M36" t="s">
         <v>55</v>
       </c>
-      <c r="N36"/>
+      <c r="N36" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>20257419</v>
+        <v>20257355</v>
       </c>
       <c r="B37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C37" t="s">
         <v>47</v>
       </c>
       <c r="D37" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E37" t="s">
         <v>17</v>
       </c>
       <c r="F37" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="G37" t="s">
         <v>19</v>
@@ -3967,7 +4002,7 @@
       <c r="I37" t="s">
         <v>264</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K37" t="s">
@@ -3979,138 +4014,148 @@
       <c r="M37" t="s">
         <v>55</v>
       </c>
-      <c r="N37"/>
+      <c r="N37" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>20253479</v>
+        <v>20257419</v>
       </c>
       <c r="B38" t="s">
         <v>267</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s">
         <v>268</v>
       </c>
       <c r="E38" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="F38" t="s">
+        <v>262</v>
+      </c>
+      <c r="G38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" t="s">
         <v>269</v>
       </c>
-      <c r="G38" t="s">
-        <v>19</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>270</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K38" t="s">
         <v>271</v>
       </c>
-      <c r="J38" t="s">
-        <v>22</v>
-      </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>272</v>
       </c>
-      <c r="L38" t="s">
-        <v>273</v>
-      </c>
       <c r="M38" t="s">
-        <v>37</v>
-      </c>
-      <c r="N38"/>
+        <v>55</v>
+      </c>
+      <c r="N38" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>20253444</v>
+        <v>20253479</v>
       </c>
       <c r="B39" t="s">
+        <v>273</v>
+      </c>
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" t="s">
         <v>274</v>
       </c>
-      <c r="C39" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" t="s">
         <v>275</v>
       </c>
-      <c r="E39" t="s">
-        <v>29</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" t="s">
         <v>276</v>
       </c>
-      <c r="G39" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>277</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39" t="s">
         <v>278</v>
       </c>
-      <c r="J39" t="s">
-        <v>22</v>
-      </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>279</v>
       </c>
-      <c r="L39" t="s">
-        <v>280</v>
-      </c>
       <c r="M39" t="s">
-        <v>25</v>
-      </c>
-      <c r="N39"/>
+        <v>37</v>
+      </c>
+      <c r="N39" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>20253425</v>
+        <v>20253444</v>
       </c>
       <c r="B40" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C40" t="s">
         <v>15</v>
       </c>
       <c r="D40" t="s">
+        <v>281</v>
+      </c>
+      <c r="E40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" t="s">
         <v>282</v>
       </c>
-      <c r="E40"/>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" t="s">
         <v>283</v>
       </c>
-      <c r="G40" t="s">
-        <v>19</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>284</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K40" t="s">
         <v>285</v>
       </c>
-      <c r="J40" t="s">
-        <v>22</v>
-      </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>286</v>
       </c>
-      <c r="L40" t="s">
-        <v>287</v>
-      </c>
       <c r="M40" t="s">
-        <v>37</v>
-      </c>
-      <c r="N40"/>
+        <v>25</v>
+      </c>
+      <c r="N40" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>20253309</v>
       </c>
       <c r="B41" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C41" t="s">
         <v>15</v>
@@ -4122,637 +4167,667 @@
         <v>142</v>
       </c>
       <c r="F41" t="s">
+        <v>288</v>
+      </c>
+      <c r="G41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" t="s">
         <v>289</v>
       </c>
-      <c r="G41" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>290</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K41" t="s">
         <v>291</v>
       </c>
-      <c r="J41" t="s">
-        <v>22</v>
-      </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>292</v>
-      </c>
-      <c r="L41" t="s">
-        <v>293</v>
       </c>
       <c r="M41" t="s">
         <v>37</v>
       </c>
-      <c r="N41"/>
+      <c r="N41" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>20253399</v>
       </c>
       <c r="B42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C42" t="s">
         <v>39</v>
       </c>
       <c r="D42" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E42" t="s">
         <v>83</v>
       </c>
       <c r="F42" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G42" t="s">
         <v>19</v>
       </c>
       <c r="H42" t="s">
+        <v>295</v>
+      </c>
+      <c r="I42" t="s">
         <v>296</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K42" t="s">
         <v>297</v>
       </c>
-      <c r="J42" t="s">
-        <v>22</v>
-      </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>298</v>
-      </c>
-      <c r="L42" t="s">
-        <v>299</v>
       </c>
       <c r="M42" t="s">
         <v>25</v>
       </c>
-      <c r="N42"/>
+      <c r="N42" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>20253404</v>
       </c>
       <c r="B43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C43" t="s">
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E43" t="s">
         <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G43" t="s">
         <v>19</v>
       </c>
       <c r="H43" t="s">
+        <v>301</v>
+      </c>
+      <c r="I43" t="s">
         <v>302</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K43" t="s">
         <v>303</v>
       </c>
-      <c r="J43" t="s">
-        <v>22</v>
-      </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>304</v>
-      </c>
-      <c r="L43" t="s">
-        <v>305</v>
       </c>
       <c r="M43" t="s">
         <v>55</v>
       </c>
-      <c r="N43"/>
+      <c r="N43" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>20253417</v>
       </c>
       <c r="B44" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C44" t="s">
         <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E44" t="s">
         <v>17</v>
       </c>
       <c r="F44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G44" t="s">
         <v>19</v>
       </c>
       <c r="H44" t="s">
+        <v>307</v>
+      </c>
+      <c r="I44" t="s">
         <v>308</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K44" t="s">
         <v>309</v>
       </c>
-      <c r="J44" t="s">
-        <v>22</v>
-      </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>310</v>
-      </c>
-      <c r="L44" t="s">
-        <v>311</v>
       </c>
       <c r="M44" t="s">
         <v>55</v>
       </c>
-      <c r="N44"/>
+      <c r="N44" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>20251011</v>
       </c>
       <c r="B45" t="s">
+        <v>311</v>
+      </c>
+      <c r="C45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" t="s">
         <v>312</v>
-      </c>
-      <c r="C45" t="s">
-        <v>313</v>
-      </c>
-      <c r="D45" t="s">
-        <v>314</v>
       </c>
       <c r="E45" t="s">
         <v>58</v>
       </c>
       <c r="F45" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G45" t="s">
         <v>31</v>
       </c>
       <c r="H45" t="s">
+        <v>314</v>
+      </c>
+      <c r="I45" t="s">
+        <v>315</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K45" t="s">
         <v>316</v>
       </c>
-      <c r="I45" t="s">
+      <c r="L45" t="s">
         <v>317</v>
-      </c>
-      <c r="J45" t="s">
-        <v>52</v>
-      </c>
-      <c r="K45" t="s">
-        <v>318</v>
-      </c>
-      <c r="L45" t="s">
-        <v>319</v>
       </c>
       <c r="M45" t="s">
         <v>55</v>
       </c>
-      <c r="N45"/>
+      <c r="N45" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>20253194</v>
       </c>
       <c r="B46" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C46" t="s">
         <v>39</v>
       </c>
       <c r="D46" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E46" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="F46" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G46" t="s">
         <v>31</v>
       </c>
       <c r="H46" t="s">
+        <v>320</v>
+      </c>
+      <c r="I46" t="s">
+        <v>321</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K46" t="s">
         <v>322</v>
       </c>
-      <c r="I46" t="s">
+      <c r="L46" t="s">
         <v>323</v>
-      </c>
-      <c r="J46" t="s">
-        <v>52</v>
-      </c>
-      <c r="K46" t="s">
-        <v>324</v>
-      </c>
-      <c r="L46" t="s">
-        <v>325</v>
       </c>
       <c r="M46" t="s">
         <v>55</v>
       </c>
-      <c r="N46"/>
+      <c r="N46" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>20253203</v>
       </c>
       <c r="B47" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C47" t="s">
         <v>39</v>
       </c>
       <c r="D47" t="s">
+        <v>325</v>
+      </c>
+      <c r="E47" t="s">
+        <v>229</v>
+      </c>
+      <c r="F47" t="s">
+        <v>313</v>
+      </c>
+      <c r="G47" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" t="s">
+        <v>326</v>
+      </c>
+      <c r="I47" t="s">
         <v>327</v>
       </c>
-      <c r="E47" t="s">
-        <v>222</v>
-      </c>
-      <c r="F47" t="s">
-        <v>315</v>
-      </c>
-      <c r="G47" t="s">
-        <v>19</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="J47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K47" t="s">
         <v>328</v>
       </c>
-      <c r="I47" t="s">
+      <c r="L47" t="s">
         <v>329</v>
-      </c>
-      <c r="J47" t="s">
-        <v>52</v>
-      </c>
-      <c r="K47" t="s">
-        <v>330</v>
-      </c>
-      <c r="L47" t="s">
-        <v>331</v>
       </c>
       <c r="M47" t="s">
         <v>25</v>
       </c>
-      <c r="N47"/>
+      <c r="N47" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>20253213</v>
       </c>
       <c r="B48" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C48" t="s">
         <v>39</v>
       </c>
       <c r="D48" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E48" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="F48" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G48" t="s">
         <v>31</v>
       </c>
       <c r="H48" t="s">
+        <v>332</v>
+      </c>
+      <c r="I48" t="s">
+        <v>333</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K48" t="s">
         <v>334</v>
       </c>
-      <c r="I48" t="s">
+      <c r="L48" t="s">
         <v>335</v>
-      </c>
-      <c r="J48" t="s">
-        <v>52</v>
-      </c>
-      <c r="K48" t="s">
-        <v>336</v>
-      </c>
-      <c r="L48" t="s">
-        <v>337</v>
       </c>
       <c r="M48" t="s">
         <v>55</v>
       </c>
-      <c r="N48"/>
+      <c r="N48" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>20253214</v>
       </c>
       <c r="B49" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C49" t="s">
         <v>39</v>
       </c>
       <c r="D49" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E49" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="F49" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G49" t="s">
         <v>19</v>
       </c>
       <c r="H49" t="s">
+        <v>337</v>
+      </c>
+      <c r="I49" t="s">
+        <v>338</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K49" t="s">
         <v>339</v>
       </c>
-      <c r="I49" t="s">
+      <c r="L49" t="s">
         <v>340</v>
-      </c>
-      <c r="J49" t="s">
-        <v>52</v>
-      </c>
-      <c r="K49" t="s">
-        <v>341</v>
-      </c>
-      <c r="L49" t="s">
-        <v>342</v>
       </c>
       <c r="M49" t="s">
         <v>55</v>
       </c>
-      <c r="N49"/>
+      <c r="N49" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>20253246</v>
+        <v>20253093</v>
       </c>
       <c r="B50" t="s">
+        <v>341</v>
+      </c>
+      <c r="C50" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" t="s">
+        <v>342</v>
+      </c>
+      <c r="E50" t="s">
+        <v>83</v>
+      </c>
+      <c r="F50" t="s">
         <v>343</v>
       </c>
-      <c r="C50" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="G50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" t="s">
         <v>344</v>
       </c>
-      <c r="E50" t="s">
-        <v>17</v>
-      </c>
-      <c r="F50" t="s">
-        <v>315</v>
-      </c>
-      <c r="G50" t="s">
-        <v>19</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>345</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K50" t="s">
         <v>346</v>
       </c>
-      <c r="J50" t="s">
-        <v>163</v>
-      </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>347</v>
-      </c>
-      <c r="L50" t="s">
-        <v>348</v>
       </c>
       <c r="M50" t="s">
         <v>37</v>
       </c>
-      <c r="N50"/>
+      <c r="N50" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>20253093</v>
+        <v>20257213</v>
       </c>
       <c r="B51" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C51" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D51" t="s">
-        <v>350</v>
+        <v>294</v>
       </c>
       <c r="E51" t="s">
         <v>83</v>
       </c>
       <c r="F51" t="s">
+        <v>349</v>
+      </c>
+      <c r="G51" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" t="s">
+        <v>350</v>
+      </c>
+      <c r="I51" t="s">
         <v>351</v>
       </c>
-      <c r="G51" t="s">
-        <v>19</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="J51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K51" t="s">
         <v>352</v>
       </c>
-      <c r="I51" t="s">
+      <c r="L51" t="s">
         <v>353</v>
-      </c>
-      <c r="J51" t="s">
-        <v>22</v>
-      </c>
-      <c r="K51" t="s">
-        <v>354</v>
-      </c>
-      <c r="L51" t="s">
-        <v>355</v>
       </c>
       <c r="M51" t="s">
         <v>37</v>
       </c>
-      <c r="N51"/>
+      <c r="N51" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>20257213</v>
+        <v>20253054</v>
       </c>
       <c r="B52" t="s">
+        <v>354</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" t="s">
+        <v>73</v>
+      </c>
+      <c r="F52" t="s">
+        <v>355</v>
+      </c>
+      <c r="G52" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" t="s">
         <v>356</v>
       </c>
-      <c r="C52" t="s">
-        <v>47</v>
-      </c>
-      <c r="D52" t="s">
-        <v>295</v>
-      </c>
-      <c r="E52" t="s">
-        <v>83</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="I52" t="s">
         <v>357</v>
       </c>
-      <c r="G52" t="s">
-        <v>19</v>
-      </c>
-      <c r="H52" t="s">
+      <c r="J52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K52" t="s">
         <v>358</v>
       </c>
-      <c r="I52" t="s">
+      <c r="L52" t="s">
         <v>359</v>
       </c>
-      <c r="J52" t="s">
-        <v>52</v>
-      </c>
-      <c r="K52" t="s">
-        <v>360</v>
-      </c>
-      <c r="L52" t="s">
-        <v>361</v>
-      </c>
       <c r="M52" t="s">
-        <v>37</v>
-      </c>
-      <c r="N52"/>
+        <v>55</v>
+      </c>
+      <c r="N52" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>20253054</v>
+        <v>20257102</v>
       </c>
       <c r="B53" t="s">
+        <v>360</v>
+      </c>
+      <c r="C53" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" t="s">
+        <v>127</v>
+      </c>
+      <c r="E53" t="s">
+        <v>83</v>
+      </c>
+      <c r="F53" t="s">
+        <v>355</v>
+      </c>
+      <c r="G53" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" t="s">
+        <v>361</v>
+      </c>
+      <c r="I53" t="s">
         <v>362</v>
       </c>
-      <c r="C53" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" t="s">
-        <v>72</v>
-      </c>
-      <c r="E53" t="s">
-        <v>73</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="J53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K53" t="s">
         <v>363</v>
       </c>
-      <c r="G53" t="s">
-        <v>19</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="L53" t="s">
         <v>364</v>
-      </c>
-      <c r="I53" t="s">
-        <v>365</v>
-      </c>
-      <c r="J53" t="s">
-        <v>22</v>
-      </c>
-      <c r="K53" t="s">
-        <v>366</v>
-      </c>
-      <c r="L53" t="s">
-        <v>367</v>
       </c>
       <c r="M53" t="s">
         <v>55</v>
       </c>
-      <c r="N53"/>
+      <c r="N53" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>20257102</v>
+        <v>20257129</v>
       </c>
       <c r="B54" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C54" t="s">
         <v>47</v>
       </c>
       <c r="D54" t="s">
-        <v>127</v>
+        <v>281</v>
       </c>
       <c r="E54" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="F54" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="G54" t="s">
         <v>19</v>
       </c>
       <c r="H54" t="s">
+        <v>366</v>
+      </c>
+      <c r="I54" t="s">
+        <v>367</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K54" t="s">
+        <v>368</v>
+      </c>
+      <c r="L54" t="s">
         <v>369</v>
       </c>
-      <c r="I54" t="s">
-        <v>370</v>
-      </c>
-      <c r="J54" t="s">
-        <v>52</v>
-      </c>
-      <c r="K54" t="s">
-        <v>371</v>
-      </c>
-      <c r="L54" t="s">
-        <v>372</v>
-      </c>
       <c r="M54" t="s">
-        <v>55</v>
-      </c>
-      <c r="N54"/>
+        <v>37</v>
+      </c>
+      <c r="N54" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>20257129</v>
+        <v>20257138</v>
       </c>
       <c r="B55" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C55" t="s">
         <v>47</v>
       </c>
       <c r="D55" t="s">
-        <v>275</v>
+        <v>371</v>
       </c>
       <c r="E55" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="F55" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="G55" t="s">
         <v>19</v>
       </c>
       <c r="H55" t="s">
+        <v>372</v>
+      </c>
+      <c r="I55" t="s">
+        <v>373</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K55" t="s">
         <v>374</v>
       </c>
-      <c r="I55" t="s">
+      <c r="L55" t="s">
         <v>375</v>
       </c>
-      <c r="J55" t="s">
-        <v>52</v>
-      </c>
-      <c r="K55" t="s">
-        <v>376</v>
-      </c>
-      <c r="L55" t="s">
-        <v>377</v>
-      </c>
       <c r="M55" t="s">
-        <v>37</v>
-      </c>
-      <c r="N55"/>
+        <v>55</v>
+      </c>
+      <c r="N55" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>20257138</v>
+        <v>20253031</v>
       </c>
       <c r="B56" t="s">
+        <v>376</v>
+      </c>
+      <c r="C56" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" t="s">
+        <v>377</v>
+      </c>
+      <c r="E56" t="s">
         <v>378</v>
       </c>
-      <c r="C56" t="s">
-        <v>47</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="F56" t="s">
         <v>379</v>
-      </c>
-      <c r="E56" t="s">
-        <v>83</v>
-      </c>
-      <c r="F56" t="s">
-        <v>363</v>
       </c>
       <c r="G56" t="s">
         <v>19</v>
@@ -4763,8 +4838,8 @@
       <c r="I56" t="s">
         <v>381</v>
       </c>
-      <c r="J56" t="s">
-        <v>52</v>
+      <c r="J56" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="K56" t="s">
         <v>382</v>
@@ -4775,276 +4850,290 @@
       <c r="M56" t="s">
         <v>55</v>
       </c>
-      <c r="N56"/>
+      <c r="N56" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>20253031</v>
+        <v>20257012</v>
       </c>
       <c r="B57" t="s">
         <v>384</v>
       </c>
       <c r="C57" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D57" t="s">
         <v>385</v>
       </c>
       <c r="E57" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" t="s">
+        <v>379</v>
+      </c>
+      <c r="G57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" t="s">
         <v>386</v>
       </c>
-      <c r="F57" t="s">
+      <c r="I57" t="s">
         <v>387</v>
       </c>
-      <c r="G57" t="s">
-        <v>19</v>
-      </c>
-      <c r="H57" t="s">
+      <c r="J57" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K57" t="s">
         <v>388</v>
       </c>
-      <c r="I57" t="s">
+      <c r="L57" t="s">
         <v>389</v>
       </c>
-      <c r="J57" t="s">
-        <v>22</v>
-      </c>
-      <c r="K57" t="s">
-        <v>390</v>
-      </c>
-      <c r="L57" t="s">
-        <v>391</v>
-      </c>
       <c r="M57" t="s">
-        <v>55</v>
-      </c>
-      <c r="N57"/>
+        <v>25</v>
+      </c>
+      <c r="N57" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>20257012</v>
+        <v>20253008</v>
       </c>
       <c r="B58" t="s">
+        <v>390</v>
+      </c>
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" t="s">
+        <v>391</v>
+      </c>
+      <c r="E58"/>
+      <c r="F58" t="s">
         <v>392</v>
       </c>
-      <c r="C58" t="s">
-        <v>47</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="G58" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" t="s">
         <v>393</v>
       </c>
-      <c r="E58" t="s">
-        <v>17</v>
-      </c>
-      <c r="F58" t="s">
-        <v>387</v>
-      </c>
-      <c r="G58" t="s">
-        <v>19</v>
-      </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>394</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K58" t="s">
         <v>395</v>
       </c>
-      <c r="J58" t="s">
-        <v>52</v>
-      </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>396</v>
       </c>
-      <c r="L58" t="s">
-        <v>397</v>
-      </c>
       <c r="M58" t="s">
-        <v>25</v>
-      </c>
-      <c r="N58"/>
+        <v>55</v>
+      </c>
+      <c r="N58" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>20253008</v>
+        <v>20244404</v>
       </c>
       <c r="B59" t="s">
+        <v>397</v>
+      </c>
+      <c r="C59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" t="s">
         <v>398</v>
       </c>
-      <c r="C59" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
+        <v>229</v>
+      </c>
+      <c r="F59" t="s">
         <v>399</v>
       </c>
-      <c r="E59"/>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" t="s">
         <v>400</v>
       </c>
-      <c r="G59" t="s">
-        <v>19</v>
-      </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>401</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K59" t="s">
         <v>402</v>
       </c>
-      <c r="J59" t="s">
-        <v>52</v>
-      </c>
-      <c r="K59" t="s">
+      <c r="L59" t="s">
         <v>403</v>
-      </c>
-      <c r="L59" t="s">
-        <v>404</v>
       </c>
       <c r="M59" t="s">
         <v>55</v>
       </c>
-      <c r="N59"/>
+      <c r="N59" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>20244404</v>
+        <v>20244419</v>
       </c>
       <c r="B60" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C60" t="s">
         <v>39</v>
       </c>
       <c r="D60" t="s">
+        <v>248</v>
+      </c>
+      <c r="E60" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" t="s">
+        <v>399</v>
+      </c>
+      <c r="G60" t="s">
+        <v>31</v>
+      </c>
+      <c r="H60" t="s">
+        <v>405</v>
+      </c>
+      <c r="I60" t="s">
         <v>406</v>
       </c>
-      <c r="E60" t="s">
-        <v>222</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="J60" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K60" t="s">
         <v>407</v>
       </c>
-      <c r="G60" t="s">
-        <v>19</v>
-      </c>
-      <c r="H60" t="s">
+      <c r="L60" t="s">
         <v>408</v>
-      </c>
-      <c r="I60" t="s">
-        <v>409</v>
-      </c>
-      <c r="J60" t="s">
-        <v>52</v>
-      </c>
-      <c r="K60" t="s">
-        <v>410</v>
-      </c>
-      <c r="L60" t="s">
-        <v>411</v>
       </c>
       <c r="M60" t="s">
         <v>55</v>
       </c>
-      <c r="N60"/>
+      <c r="N60" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>20244419</v>
+        <v>20248043</v>
       </c>
       <c r="B61" t="s">
+        <v>409</v>
+      </c>
+      <c r="C61" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" t="s">
+        <v>410</v>
+      </c>
+      <c r="E61" t="s">
+        <v>229</v>
+      </c>
+      <c r="F61" t="s">
+        <v>411</v>
+      </c>
+      <c r="G61" t="s">
+        <v>19</v>
+      </c>
+      <c r="H61" t="s">
         <v>412</v>
       </c>
-      <c r="C61" t="s">
-        <v>39</v>
-      </c>
-      <c r="D61" t="s">
-        <v>241</v>
-      </c>
-      <c r="E61" t="s">
-        <v>29</v>
-      </c>
-      <c r="F61" t="s">
-        <v>407</v>
-      </c>
-      <c r="G61" t="s">
-        <v>31</v>
-      </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>413</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K61" t="s">
         <v>414</v>
       </c>
-      <c r="J61" t="s">
-        <v>52</v>
-      </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>415</v>
       </c>
-      <c r="L61" t="s">
-        <v>416</v>
-      </c>
       <c r="M61" t="s">
-        <v>55</v>
-      </c>
-      <c r="N61"/>
+        <v>37</v>
+      </c>
+      <c r="N61" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>20247975</v>
+        <v>20244290</v>
       </c>
       <c r="B62" t="s">
+        <v>416</v>
+      </c>
+      <c r="C62" t="s">
+        <v>39</v>
+      </c>
+      <c r="D62" t="s">
         <v>417</v>
       </c>
-      <c r="C62" t="s">
-        <v>47</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
+        <v>58</v>
+      </c>
+      <c r="F62" t="s">
         <v>418</v>
       </c>
-      <c r="E62" t="s">
-        <v>17</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
+        <v>19</v>
+      </c>
+      <c r="H62" t="s">
         <v>419</v>
       </c>
-      <c r="G62" t="s">
-        <v>19</v>
-      </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>420</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K62" t="s">
         <v>421</v>
       </c>
-      <c r="J62" t="s">
-        <v>52</v>
-      </c>
-      <c r="K62" t="s">
+      <c r="L62" t="s">
         <v>422</v>
       </c>
-      <c r="L62" t="s">
-        <v>423</v>
-      </c>
       <c r="M62" t="s">
-        <v>37</v>
-      </c>
-      <c r="N62"/>
+        <v>55</v>
+      </c>
+      <c r="N62" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>20248043</v>
+        <v>20244278</v>
       </c>
       <c r="B63" t="s">
+        <v>423</v>
+      </c>
+      <c r="C63" t="s">
+        <v>39</v>
+      </c>
+      <c r="D63" t="s">
         <v>424</v>
       </c>
-      <c r="C63" t="s">
-        <v>47</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
+        <v>83</v>
+      </c>
+      <c r="F63" t="s">
         <v>425</v>
-      </c>
-      <c r="E63" t="s">
-        <v>222</v>
-      </c>
-      <c r="F63" t="s">
-        <v>419</v>
       </c>
       <c r="G63" t="s">
         <v>19</v>
@@ -5055,8 +5144,8 @@
       <c r="I63" t="s">
         <v>427</v>
       </c>
-      <c r="J63" t="s">
-        <v>52</v>
+      <c r="J63" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="K63" t="s">
         <v>428</v>
@@ -5067,11 +5156,13 @@
       <c r="M63" t="s">
         <v>37</v>
       </c>
-      <c r="N63"/>
+      <c r="N63" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>20244290</v>
+        <v>20244082</v>
       </c>
       <c r="B64" t="s">
         <v>430</v>
@@ -5080,907 +5171,947 @@
         <v>39</v>
       </c>
       <c r="D64" t="s">
+        <v>306</v>
+      </c>
+      <c r="E64" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" t="s">
         <v>431</v>
       </c>
-      <c r="E64" t="s">
-        <v>58</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
+        <v>19</v>
+      </c>
+      <c r="H64" t="s">
         <v>432</v>
       </c>
-      <c r="G64" t="s">
-        <v>19</v>
-      </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>433</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K64" t="s">
         <v>434</v>
       </c>
-      <c r="J64" t="s">
-        <v>22</v>
-      </c>
-      <c r="K64" t="s">
+      <c r="L64" t="s">
         <v>435</v>
-      </c>
-      <c r="L64" t="s">
-        <v>436</v>
       </c>
       <c r="M64" t="s">
         <v>55</v>
       </c>
-      <c r="N64"/>
+      <c r="N64" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>20244278</v>
+        <v>20244112</v>
       </c>
       <c r="B65" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C65" t="s">
         <v>39</v>
       </c>
       <c r="D65" t="s">
+        <v>437</v>
+      </c>
+      <c r="E65" t="s">
+        <v>58</v>
+      </c>
+      <c r="F65" t="s">
+        <v>431</v>
+      </c>
+      <c r="G65" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65" t="s">
         <v>438</v>
       </c>
-      <c r="E65" t="s">
-        <v>83</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="I65" t="s">
         <v>439</v>
       </c>
-      <c r="G65" t="s">
-        <v>19</v>
-      </c>
-      <c r="H65" t="s">
+      <c r="J65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K65" t="s">
         <v>440</v>
       </c>
-      <c r="I65" t="s">
+      <c r="L65" t="s">
         <v>441</v>
       </c>
-      <c r="J65" t="s">
-        <v>22</v>
-      </c>
-      <c r="K65" t="s">
-        <v>442</v>
-      </c>
-      <c r="L65" t="s">
-        <v>443</v>
-      </c>
       <c r="M65" t="s">
-        <v>37</v>
-      </c>
-      <c r="N65"/>
+        <v>25</v>
+      </c>
+      <c r="N65" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>20244082</v>
+        <v>20244131</v>
       </c>
       <c r="B66" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C66" t="s">
         <v>39</v>
       </c>
       <c r="D66" t="s">
-        <v>307</v>
+        <v>57</v>
       </c>
       <c r="E66" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="F66" t="s">
+        <v>431</v>
+      </c>
+      <c r="G66" t="s">
+        <v>19</v>
+      </c>
+      <c r="H66" t="s">
+        <v>443</v>
+      </c>
+      <c r="I66" t="s">
+        <v>444</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K66" t="s">
         <v>445</v>
       </c>
-      <c r="G66" t="s">
-        <v>19</v>
-      </c>
-      <c r="H66" t="s">
+      <c r="L66" t="s">
         <v>446</v>
-      </c>
-      <c r="I66" t="s">
-        <v>447</v>
-      </c>
-      <c r="J66" t="s">
-        <v>22</v>
-      </c>
-      <c r="K66" t="s">
-        <v>448</v>
-      </c>
-      <c r="L66" t="s">
-        <v>449</v>
       </c>
       <c r="M66" t="s">
         <v>55</v>
       </c>
-      <c r="N66"/>
+      <c r="N66" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>20244112</v>
+        <v>20244132</v>
       </c>
       <c r="B67" t="s">
+        <v>447</v>
+      </c>
+      <c r="C67" t="s">
+        <v>81</v>
+      </c>
+      <c r="D67" t="s">
+        <v>141</v>
+      </c>
+      <c r="E67" t="s">
+        <v>142</v>
+      </c>
+      <c r="F67" t="s">
+        <v>431</v>
+      </c>
+      <c r="G67" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67" t="s">
+        <v>448</v>
+      </c>
+      <c r="I67" t="s">
+        <v>449</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K67" t="s">
         <v>450</v>
       </c>
-      <c r="C67" t="s">
-        <v>39</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="L67" t="s">
         <v>451</v>
-      </c>
-      <c r="E67" t="s">
-        <v>58</v>
-      </c>
-      <c r="F67" t="s">
-        <v>445</v>
-      </c>
-      <c r="G67" t="s">
-        <v>19</v>
-      </c>
-      <c r="H67" t="s">
-        <v>452</v>
-      </c>
-      <c r="I67" t="s">
-        <v>453</v>
-      </c>
-      <c r="J67" t="s">
-        <v>22</v>
-      </c>
-      <c r="K67" t="s">
-        <v>454</v>
-      </c>
-      <c r="L67" t="s">
-        <v>455</v>
       </c>
       <c r="M67" t="s">
         <v>25</v>
       </c>
-      <c r="N67"/>
+      <c r="N67" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>20244131</v>
+        <v>20244133</v>
       </c>
       <c r="B68" t="s">
+        <v>452</v>
+      </c>
+      <c r="C68" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" t="s">
+        <v>141</v>
+      </c>
+      <c r="E68" t="s">
+        <v>142</v>
+      </c>
+      <c r="F68" t="s">
+        <v>431</v>
+      </c>
+      <c r="G68" t="s">
+        <v>19</v>
+      </c>
+      <c r="H68" t="s">
+        <v>453</v>
+      </c>
+      <c r="I68" t="s">
+        <v>454</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K68" t="s">
+        <v>455</v>
+      </c>
+      <c r="L68" t="s">
         <v>456</v>
       </c>
-      <c r="C68" t="s">
-        <v>39</v>
-      </c>
-      <c r="D68" t="s">
-        <v>57</v>
-      </c>
-      <c r="E68" t="s">
-        <v>58</v>
-      </c>
-      <c r="F68" t="s">
-        <v>445</v>
-      </c>
-      <c r="G68" t="s">
-        <v>19</v>
-      </c>
-      <c r="H68" t="s">
-        <v>457</v>
-      </c>
-      <c r="I68" t="s">
-        <v>458</v>
-      </c>
-      <c r="J68" t="s">
-        <v>22</v>
-      </c>
-      <c r="K68" t="s">
-        <v>459</v>
-      </c>
-      <c r="L68" t="s">
-        <v>460</v>
-      </c>
       <c r="M68" t="s">
-        <v>55</v>
-      </c>
-      <c r="N68"/>
+        <v>25</v>
+      </c>
+      <c r="N68" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>20244132</v>
+        <v>20244137</v>
       </c>
       <c r="B69" t="s">
+        <v>457</v>
+      </c>
+      <c r="C69" t="s">
+        <v>39</v>
+      </c>
+      <c r="D69" t="s">
+        <v>458</v>
+      </c>
+      <c r="E69" t="s">
+        <v>58</v>
+      </c>
+      <c r="F69" t="s">
+        <v>431</v>
+      </c>
+      <c r="G69" t="s">
+        <v>19</v>
+      </c>
+      <c r="H69" t="s">
+        <v>459</v>
+      </c>
+      <c r="I69" t="s">
+        <v>460</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K69" t="s">
         <v>461</v>
       </c>
-      <c r="C69" t="s">
-        <v>81</v>
-      </c>
-      <c r="D69" t="s">
-        <v>141</v>
-      </c>
-      <c r="E69" t="s">
-        <v>142</v>
-      </c>
-      <c r="F69" t="s">
-        <v>445</v>
-      </c>
-      <c r="G69" t="s">
-        <v>19</v>
-      </c>
-      <c r="H69" t="s">
+      <c r="L69" t="s">
         <v>462</v>
-      </c>
-      <c r="I69" t="s">
-        <v>463</v>
-      </c>
-      <c r="J69" t="s">
-        <v>22</v>
-      </c>
-      <c r="K69" t="s">
-        <v>464</v>
-      </c>
-      <c r="L69" t="s">
-        <v>465</v>
       </c>
       <c r="M69" t="s">
         <v>25</v>
       </c>
-      <c r="N69"/>
+      <c r="N69" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>20244133</v>
+        <v>20243948</v>
       </c>
       <c r="B70" t="s">
+        <v>463</v>
+      </c>
+      <c r="C70" t="s">
+        <v>39</v>
+      </c>
+      <c r="D70" t="s">
+        <v>464</v>
+      </c>
+      <c r="E70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F70" t="s">
+        <v>465</v>
+      </c>
+      <c r="G70" t="s">
+        <v>31</v>
+      </c>
+      <c r="H70" t="s">
         <v>466</v>
       </c>
-      <c r="C70" t="s">
-        <v>15</v>
-      </c>
-      <c r="D70" t="s">
-        <v>141</v>
-      </c>
-      <c r="E70" t="s">
-        <v>142</v>
-      </c>
-      <c r="F70" t="s">
-        <v>445</v>
-      </c>
-      <c r="G70" t="s">
-        <v>19</v>
-      </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>467</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K70" t="s">
         <v>468</v>
       </c>
-      <c r="J70" t="s">
-        <v>22</v>
-      </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>469</v>
       </c>
-      <c r="L70" t="s">
-        <v>470</v>
-      </c>
       <c r="M70" t="s">
-        <v>25</v>
-      </c>
-      <c r="N70"/>
+        <v>55</v>
+      </c>
+      <c r="N70" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>20244137</v>
+        <v>20247720</v>
       </c>
       <c r="B71" t="s">
+        <v>470</v>
+      </c>
+      <c r="C71" t="s">
+        <v>47</v>
+      </c>
+      <c r="D71" t="s">
+        <v>281</v>
+      </c>
+      <c r="E71" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71" t="s">
         <v>471</v>
       </c>
-      <c r="C71" t="s">
-        <v>39</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="G71" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71" t="s">
         <v>472</v>
       </c>
-      <c r="E71" t="s">
-        <v>58</v>
-      </c>
-      <c r="F71" t="s">
-        <v>445</v>
-      </c>
-      <c r="G71" t="s">
-        <v>19</v>
-      </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>473</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K71" t="s">
         <v>474</v>
       </c>
-      <c r="J71" t="s">
-        <v>22</v>
-      </c>
-      <c r="K71" t="s">
+      <c r="L71" t="s">
         <v>475</v>
       </c>
-      <c r="L71" t="s">
-        <v>476</v>
-      </c>
       <c r="M71" t="s">
-        <v>25</v>
-      </c>
-      <c r="N71"/>
+        <v>37</v>
+      </c>
+      <c r="N71" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>20243937</v>
+        <v>20247726</v>
       </c>
       <c r="B72" t="s">
+        <v>476</v>
+      </c>
+      <c r="C72" t="s">
+        <v>47</v>
+      </c>
+      <c r="D72" t="s">
+        <v>306</v>
+      </c>
+      <c r="E72" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72" t="s">
+        <v>471</v>
+      </c>
+      <c r="G72" t="s">
+        <v>19</v>
+      </c>
+      <c r="H72" t="s">
         <v>477</v>
       </c>
-      <c r="C72" t="s">
-        <v>15</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="I72" t="s">
         <v>478</v>
       </c>
-      <c r="E72" t="s">
-        <v>222</v>
-      </c>
-      <c r="F72" t="s">
+      <c r="J72" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K72" t="s">
         <v>479</v>
       </c>
-      <c r="G72" t="s">
-        <v>31</v>
-      </c>
-      <c r="H72" t="s">
+      <c r="L72" t="s">
         <v>480</v>
       </c>
-      <c r="I72" t="s">
-        <v>481</v>
-      </c>
-      <c r="J72" t="s">
-        <v>195</v>
-      </c>
-      <c r="K72" t="s">
-        <v>482</v>
-      </c>
-      <c r="L72" t="s">
-        <v>483</v>
-      </c>
       <c r="M72" t="s">
-        <v>37</v>
-      </c>
-      <c r="N72"/>
+        <v>55</v>
+      </c>
+      <c r="N72" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>20243948</v>
+        <v>20247773</v>
       </c>
       <c r="B73" t="s">
+        <v>481</v>
+      </c>
+      <c r="C73" t="s">
+        <v>47</v>
+      </c>
+      <c r="D73" t="s">
+        <v>134</v>
+      </c>
+      <c r="E73" t="s">
+        <v>135</v>
+      </c>
+      <c r="F73" t="s">
+        <v>471</v>
+      </c>
+      <c r="G73" t="s">
+        <v>19</v>
+      </c>
+      <c r="H73" t="s">
+        <v>482</v>
+      </c>
+      <c r="I73" t="s">
+        <v>483</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K73" t="s">
         <v>484</v>
       </c>
-      <c r="C73" t="s">
-        <v>39</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="L73" t="s">
         <v>485</v>
       </c>
-      <c r="E73" t="s">
-        <v>58</v>
-      </c>
-      <c r="F73" t="s">
-        <v>479</v>
-      </c>
-      <c r="G73" t="s">
-        <v>31</v>
-      </c>
-      <c r="H73" t="s">
-        <v>486</v>
-      </c>
-      <c r="I73" t="s">
-        <v>487</v>
-      </c>
-      <c r="J73" t="s">
-        <v>52</v>
-      </c>
-      <c r="K73" t="s">
-        <v>488</v>
-      </c>
-      <c r="L73" t="s">
-        <v>489</v>
-      </c>
       <c r="M73" t="s">
-        <v>55</v>
-      </c>
-      <c r="N73"/>
+        <v>25</v>
+      </c>
+      <c r="N73" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>20247720</v>
+        <v>20247774</v>
       </c>
       <c r="B74" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C74" t="s">
         <v>47</v>
       </c>
       <c r="D74" t="s">
-        <v>275</v>
+        <v>134</v>
       </c>
       <c r="E74" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="F74" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="G74" t="s">
         <v>19</v>
       </c>
       <c r="H74" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="I74" t="s">
-        <v>493</v>
-      </c>
-      <c r="J74" t="s">
+        <v>488</v>
+      </c>
+      <c r="J74" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K74" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="L74" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="M74" t="s">
-        <v>37</v>
-      </c>
-      <c r="N74"/>
+        <v>25</v>
+      </c>
+      <c r="N74" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>20247726</v>
+        <v>20243858</v>
       </c>
       <c r="B75" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C75" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D75" t="s">
-        <v>307</v>
+        <v>492</v>
       </c>
       <c r="E75" t="s">
         <v>17</v>
       </c>
       <c r="F75" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="G75" t="s">
         <v>19</v>
       </c>
       <c r="H75" t="s">
+        <v>494</v>
+      </c>
+      <c r="I75" t="s">
+        <v>495</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K75" t="s">
+        <v>496</v>
+      </c>
+      <c r="L75" t="s">
         <v>497</v>
       </c>
-      <c r="I75" t="s">
-        <v>498</v>
-      </c>
-      <c r="J75" t="s">
-        <v>52</v>
-      </c>
-      <c r="K75" t="s">
-        <v>499</v>
-      </c>
-      <c r="L75" t="s">
-        <v>500</v>
-      </c>
       <c r="M75" t="s">
-        <v>55</v>
-      </c>
-      <c r="N75"/>
+        <v>37</v>
+      </c>
+      <c r="N75" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>20247773</v>
+        <v>20243877</v>
       </c>
       <c r="B76" t="s">
+        <v>498</v>
+      </c>
+      <c r="C76" t="s">
+        <v>39</v>
+      </c>
+      <c r="D76" t="s">
+        <v>499</v>
+      </c>
+      <c r="E76" t="s">
+        <v>17</v>
+      </c>
+      <c r="F76" t="s">
+        <v>493</v>
+      </c>
+      <c r="G76" t="s">
+        <v>19</v>
+      </c>
+      <c r="H76" t="s">
+        <v>500</v>
+      </c>
+      <c r="I76" t="s">
         <v>501</v>
       </c>
-      <c r="C76" t="s">
-        <v>47</v>
-      </c>
-      <c r="D76" t="s">
-        <v>134</v>
-      </c>
-      <c r="E76" t="s">
-        <v>135</v>
-      </c>
-      <c r="F76" t="s">
-        <v>491</v>
-      </c>
-      <c r="G76" t="s">
-        <v>19</v>
-      </c>
-      <c r="H76" t="s">
+      <c r="J76" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K76" t="s">
         <v>502</v>
       </c>
-      <c r="I76" t="s">
+      <c r="L76" t="s">
         <v>503</v>
       </c>
-      <c r="J76" t="s">
-        <v>52</v>
-      </c>
-      <c r="K76" t="s">
-        <v>504</v>
-      </c>
-      <c r="L76" t="s">
-        <v>505</v>
-      </c>
       <c r="M76" t="s">
-        <v>25</v>
-      </c>
-      <c r="N76"/>
+        <v>55</v>
+      </c>
+      <c r="N76" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>20247774</v>
+        <v>20247622</v>
       </c>
       <c r="B77" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C77" t="s">
         <v>47</v>
       </c>
       <c r="D77" t="s">
-        <v>134</v>
+        <v>57</v>
       </c>
       <c r="E77" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="F77" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="G77" t="s">
         <v>19</v>
       </c>
       <c r="H77" t="s">
+        <v>506</v>
+      </c>
+      <c r="I77" t="s">
         <v>507</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K77" t="s">
         <v>508</v>
       </c>
-      <c r="J77" t="s">
-        <v>52</v>
-      </c>
-      <c r="K77" t="s">
+      <c r="L77" t="s">
         <v>509</v>
       </c>
-      <c r="L77" t="s">
-        <v>510</v>
-      </c>
       <c r="M77" t="s">
-        <v>25</v>
-      </c>
-      <c r="N77"/>
+        <v>55</v>
+      </c>
+      <c r="N77" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>20243858</v>
+        <v>20247649</v>
       </c>
       <c r="B78" t="s">
+        <v>510</v>
+      </c>
+      <c r="C78" t="s">
+        <v>47</v>
+      </c>
+      <c r="D78" t="s">
         <v>511</v>
       </c>
-      <c r="C78" t="s">
-        <v>39</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
+        <v>29</v>
+      </c>
+      <c r="F78" t="s">
+        <v>505</v>
+      </c>
+      <c r="G78" t="s">
+        <v>19</v>
+      </c>
+      <c r="H78" t="s">
         <v>512</v>
       </c>
-      <c r="E78" t="s">
-        <v>17</v>
-      </c>
-      <c r="F78" t="s">
+      <c r="I78" t="s">
         <v>513</v>
       </c>
-      <c r="G78" t="s">
-        <v>19</v>
-      </c>
-      <c r="H78" t="s">
+      <c r="J78" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K78" t="s">
         <v>514</v>
       </c>
-      <c r="I78" t="s">
+      <c r="L78" t="s">
         <v>515</v>
       </c>
-      <c r="J78" t="s">
-        <v>22</v>
-      </c>
-      <c r="K78" t="s">
-        <v>516</v>
-      </c>
-      <c r="L78" t="s">
-        <v>517</v>
-      </c>
       <c r="M78" t="s">
-        <v>37</v>
-      </c>
-      <c r="N78"/>
+        <v>55</v>
+      </c>
+      <c r="N78" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>20243877</v>
+        <v>20243709</v>
       </c>
       <c r="B79" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C79" t="s">
         <v>39</v>
       </c>
       <c r="D79" t="s">
+        <v>517</v>
+      </c>
+      <c r="E79" t="s">
+        <v>83</v>
+      </c>
+      <c r="F79" t="s">
+        <v>518</v>
+      </c>
+      <c r="G79" t="s">
+        <v>19</v>
+      </c>
+      <c r="H79" t="s">
         <v>519</v>
       </c>
-      <c r="E79" t="s">
-        <v>17</v>
-      </c>
-      <c r="F79" t="s">
-        <v>513</v>
-      </c>
-      <c r="G79" t="s">
-        <v>19</v>
-      </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>520</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K79" t="s">
         <v>521</v>
       </c>
-      <c r="J79" t="s">
-        <v>22</v>
-      </c>
-      <c r="K79" t="s">
+      <c r="L79" t="s">
         <v>522</v>
       </c>
-      <c r="L79" t="s">
-        <v>523</v>
-      </c>
       <c r="M79" t="s">
-        <v>55</v>
-      </c>
-      <c r="N79"/>
+        <v>25</v>
+      </c>
+      <c r="N79" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>20247622</v>
+        <v>20243773</v>
       </c>
       <c r="B80" t="s">
+        <v>523</v>
+      </c>
+      <c r="C80" t="s">
+        <v>39</v>
+      </c>
+      <c r="D80" t="s">
         <v>524</v>
       </c>
-      <c r="C80" t="s">
-        <v>47</v>
-      </c>
-      <c r="D80" t="s">
-        <v>57</v>
-      </c>
       <c r="E80" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="F80" t="s">
+        <v>518</v>
+      </c>
+      <c r="G80" t="s">
+        <v>19</v>
+      </c>
+      <c r="H80" t="s">
         <v>525</v>
       </c>
-      <c r="G80" t="s">
-        <v>19</v>
-      </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>526</v>
       </c>
-      <c r="I80" t="s">
+      <c r="J80" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K80" t="s">
         <v>527</v>
       </c>
-      <c r="J80" t="s">
-        <v>52</v>
-      </c>
-      <c r="K80" t="s">
+      <c r="L80" t="s">
         <v>528</v>
-      </c>
-      <c r="L80" t="s">
-        <v>529</v>
       </c>
       <c r="M80" t="s">
         <v>55</v>
       </c>
-      <c r="N80"/>
+      <c r="N80" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>20247649</v>
+        <v>20243776</v>
       </c>
       <c r="B81" t="s">
+        <v>529</v>
+      </c>
+      <c r="C81" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" t="s">
+        <v>524</v>
+      </c>
+      <c r="E81" t="s">
+        <v>41</v>
+      </c>
+      <c r="F81" t="s">
+        <v>518</v>
+      </c>
+      <c r="G81" t="s">
+        <v>19</v>
+      </c>
+      <c r="H81" t="s">
         <v>530</v>
       </c>
-      <c r="C81" t="s">
-        <v>47</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="I81" t="s">
         <v>531</v>
       </c>
-      <c r="E81" t="s">
-        <v>29</v>
-      </c>
-      <c r="F81" t="s">
-        <v>525</v>
-      </c>
-      <c r="G81" t="s">
-        <v>19</v>
-      </c>
-      <c r="H81" t="s">
+      <c r="J81" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K81" t="s">
         <v>532</v>
       </c>
-      <c r="I81" t="s">
+      <c r="L81" t="s">
         <v>533</v>
       </c>
-      <c r="J81" t="s">
-        <v>52</v>
-      </c>
-      <c r="K81" t="s">
-        <v>534</v>
-      </c>
-      <c r="L81" t="s">
-        <v>535</v>
-      </c>
       <c r="M81" t="s">
-        <v>55</v>
-      </c>
-      <c r="N81"/>
+        <v>37</v>
+      </c>
+      <c r="N81" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>20243709</v>
+        <v>20243609</v>
       </c>
       <c r="B82" t="s">
+        <v>534</v>
+      </c>
+      <c r="C82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" t="s">
+        <v>535</v>
+      </c>
+      <c r="E82" t="s">
+        <v>17</v>
+      </c>
+      <c r="F82" t="s">
         <v>536</v>
       </c>
-      <c r="C82" t="s">
-        <v>39</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="G82" t="s">
+        <v>19</v>
+      </c>
+      <c r="H82" t="s">
         <v>537</v>
       </c>
-      <c r="E82" t="s">
-        <v>83</v>
-      </c>
-      <c r="F82" t="s">
+      <c r="I82" t="s">
         <v>538</v>
       </c>
-      <c r="G82" t="s">
-        <v>19</v>
-      </c>
-      <c r="H82" t="s">
+      <c r="J82" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="I82" t="s">
+      <c r="K82" t="s">
         <v>540</v>
       </c>
-      <c r="J82" t="s">
-        <v>22</v>
-      </c>
-      <c r="K82" t="s">
+      <c r="L82" t="s">
         <v>541</v>
       </c>
-      <c r="L82" t="s">
-        <v>542</v>
-      </c>
       <c r="M82" t="s">
-        <v>25</v>
-      </c>
-      <c r="N82"/>
+        <v>55</v>
+      </c>
+      <c r="N82" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>20243773</v>
+        <v>20243574</v>
       </c>
       <c r="B83" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C83" t="s">
         <v>39</v>
       </c>
       <c r="D83" t="s">
+        <v>255</v>
+      </c>
+      <c r="E83" t="s">
+        <v>229</v>
+      </c>
+      <c r="F83" t="s">
+        <v>543</v>
+      </c>
+      <c r="G83" t="s">
+        <v>31</v>
+      </c>
+      <c r="H83" t="s">
         <v>544</v>
       </c>
-      <c r="E83" t="s">
-        <v>41</v>
-      </c>
-      <c r="F83" t="s">
-        <v>538</v>
-      </c>
-      <c r="G83" t="s">
-        <v>19</v>
-      </c>
-      <c r="H83" t="s">
+      <c r="I83" t="s">
         <v>545</v>
       </c>
-      <c r="I83" t="s">
+      <c r="J83" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K83" t="s">
         <v>546</v>
       </c>
-      <c r="J83" t="s">
-        <v>22</v>
-      </c>
-      <c r="K83" t="s">
+      <c r="L83" t="s">
         <v>547</v>
       </c>
-      <c r="L83" t="s">
-        <v>548</v>
-      </c>
       <c r="M83" t="s">
-        <v>55</v>
-      </c>
-      <c r="N83"/>
+        <v>37</v>
+      </c>
+      <c r="N83" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>20243776</v>
+        <v>20243557</v>
       </c>
       <c r="B84" t="s">
+        <v>548</v>
+      </c>
+      <c r="C84" t="s">
+        <v>39</v>
+      </c>
+      <c r="D84" t="s">
         <v>549</v>
       </c>
-      <c r="C84" t="s">
-        <v>15</v>
-      </c>
-      <c r="D84" t="s">
-        <v>544</v>
-      </c>
       <c r="E84" t="s">
-        <v>41</v>
+        <v>229</v>
       </c>
       <c r="F84" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="G84" t="s">
         <v>19</v>
       </c>
       <c r="H84" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="I84" t="s">
-        <v>551</v>
-      </c>
-      <c r="J84" t="s">
+        <v>552</v>
+      </c>
+      <c r="J84" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K84" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L84" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M84" t="s">
-        <v>37</v>
-      </c>
-      <c r="N84"/>
+        <v>55</v>
+      </c>
+      <c r="N84" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>20243609</v>
+        <v>20243471</v>
       </c>
       <c r="B85" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C85" t="s">
         <v>15</v>
       </c>
       <c r="D85" t="s">
-        <v>555</v>
-      </c>
-      <c r="E85" t="s">
-        <v>17</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="E85"/>
       <c r="F85" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G85" t="s">
         <v>19</v>
       </c>
       <c r="H85" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="I85" t="s">
-        <v>558</v>
-      </c>
-      <c r="J85" t="s">
         <v>559</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="K85" t="s">
         <v>560</v>
@@ -5989,108 +6120,114 @@
         <v>561</v>
       </c>
       <c r="M85" t="s">
-        <v>55</v>
-      </c>
-      <c r="N85"/>
+        <v>37</v>
+      </c>
+      <c r="N85" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>20243574</v>
+        <v>20243468</v>
       </c>
       <c r="B86" t="s">
         <v>562</v>
       </c>
       <c r="C86" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="D86" t="s">
-        <v>248</v>
-      </c>
-      <c r="E86" t="s">
-        <v>222</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="E86"/>
       <c r="F86" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H86" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="I86" t="s">
-        <v>565</v>
-      </c>
-      <c r="J86" t="s">
-        <v>52</v>
+        <v>566</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="K86" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L86" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M86" t="s">
-        <v>37</v>
-      </c>
-      <c r="N86"/>
+        <v>55</v>
+      </c>
+      <c r="N86" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>20243557</v>
+        <v>20243318</v>
       </c>
       <c r="B87" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C87" t="s">
         <v>39</v>
       </c>
       <c r="D87" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E87" t="s">
-        <v>222</v>
+        <v>41</v>
       </c>
       <c r="F87" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="G87" t="s">
         <v>19</v>
       </c>
       <c r="H87" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="I87" t="s">
-        <v>572</v>
-      </c>
-      <c r="J87" t="s">
-        <v>52</v>
+        <v>573</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="K87" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L87" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M87" t="s">
-        <v>55</v>
-      </c>
-      <c r="N87"/>
+        <v>25</v>
+      </c>
+      <c r="N87" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>20243471</v>
+        <v>20243234</v>
       </c>
       <c r="B88" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C88" t="s">
         <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>576</v>
-      </c>
-      <c r="E88"/>
+        <v>306</v>
+      </c>
+      <c r="E88" t="s">
+        <v>17</v>
+      </c>
       <c r="F88" t="s">
         <v>577</v>
       </c>
@@ -6103,7 +6240,7 @@
       <c r="I88" t="s">
         <v>579</v>
       </c>
-      <c r="J88" t="s">
+      <c r="J88" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K88" t="s">
@@ -6113,363 +6250,383 @@
         <v>581</v>
       </c>
       <c r="M88" t="s">
-        <v>37</v>
-      </c>
-      <c r="N88"/>
+        <v>55</v>
+      </c>
+      <c r="N88" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>20243468</v>
+        <v>20243259</v>
       </c>
       <c r="B89" t="s">
         <v>582</v>
       </c>
       <c r="C89" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="D89" t="s">
         <v>583</v>
       </c>
-      <c r="E89"/>
+      <c r="E89" t="s">
+        <v>83</v>
+      </c>
       <c r="F89" t="s">
+        <v>577</v>
+      </c>
+      <c r="G89" t="s">
+        <v>19</v>
+      </c>
+      <c r="H89" t="s">
         <v>584</v>
       </c>
-      <c r="G89" t="s">
-        <v>19</v>
-      </c>
-      <c r="H89" t="s">
+      <c r="I89" t="s">
         <v>585</v>
       </c>
-      <c r="I89" t="s">
+      <c r="J89" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K89" t="s">
         <v>586</v>
       </c>
-      <c r="J89" t="s">
-        <v>195</v>
-      </c>
-      <c r="K89" t="s">
+      <c r="L89" t="s">
         <v>587</v>
-      </c>
-      <c r="L89" t="s">
-        <v>588</v>
       </c>
       <c r="M89" t="s">
         <v>55</v>
       </c>
-      <c r="N89"/>
+      <c r="N89" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>20243467</v>
+        <v>20243169</v>
       </c>
       <c r="B90" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C90" t="s">
         <v>15</v>
       </c>
       <c r="D90" t="s">
+        <v>589</v>
+      </c>
+      <c r="E90" t="s">
+        <v>17</v>
+      </c>
+      <c r="F90" t="s">
         <v>590</v>
       </c>
-      <c r="E90"/>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
+        <v>19</v>
+      </c>
+      <c r="H90" t="s">
         <v>591</v>
       </c>
-      <c r="G90" t="s">
-        <v>31</v>
-      </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>592</v>
       </c>
-      <c r="I90" t="s">
+      <c r="J90" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K90" t="s">
         <v>593</v>
       </c>
-      <c r="J90" t="s">
-        <v>52</v>
-      </c>
-      <c r="K90" t="s">
+      <c r="L90" t="s">
         <v>594</v>
-      </c>
-      <c r="L90" t="s">
-        <v>595</v>
       </c>
       <c r="M90" t="s">
         <v>55</v>
       </c>
-      <c r="N90"/>
+      <c r="N90" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>20243318</v>
+        <v>20247112</v>
       </c>
       <c r="B91" t="s">
+        <v>595</v>
+      </c>
+      <c r="C91" t="s">
+        <v>47</v>
+      </c>
+      <c r="D91" t="s">
         <v>596</v>
       </c>
-      <c r="C91" t="s">
-        <v>39</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
+        <v>58</v>
+      </c>
+      <c r="F91" t="s">
         <v>597</v>
       </c>
-      <c r="E91" t="s">
-        <v>41</v>
-      </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
+        <v>19</v>
+      </c>
+      <c r="H91" t="s">
         <v>598</v>
       </c>
-      <c r="G91" t="s">
-        <v>19</v>
-      </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>599</v>
       </c>
-      <c r="I91" t="s">
+      <c r="J91" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K91" t="s">
         <v>600</v>
       </c>
-      <c r="J91" t="s">
-        <v>22</v>
-      </c>
-      <c r="K91" t="s">
+      <c r="L91" t="s">
         <v>601</v>
-      </c>
-      <c r="L91" t="s">
-        <v>602</v>
       </c>
       <c r="M91" t="s">
         <v>25</v>
       </c>
-      <c r="N91"/>
+      <c r="N91" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>20243234</v>
+        <v>20247015</v>
       </c>
       <c r="B92" t="s">
+        <v>602</v>
+      </c>
+      <c r="C92" t="s">
+        <v>47</v>
+      </c>
+      <c r="D92" t="s">
+        <v>281</v>
+      </c>
+      <c r="E92" t="s">
+        <v>29</v>
+      </c>
+      <c r="F92" t="s">
         <v>603</v>
       </c>
-      <c r="C92" t="s">
-        <v>15</v>
-      </c>
-      <c r="D92" t="s">
-        <v>307</v>
-      </c>
-      <c r="E92" t="s">
-        <v>17</v>
-      </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
+        <v>19</v>
+      </c>
+      <c r="H92" t="s">
         <v>604</v>
       </c>
-      <c r="G92" t="s">
-        <v>19</v>
-      </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>605</v>
       </c>
-      <c r="I92" t="s">
+      <c r="J92" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K92" t="s">
         <v>606</v>
       </c>
-      <c r="J92" t="s">
-        <v>52</v>
-      </c>
-      <c r="K92" t="s">
+      <c r="L92" t="s">
         <v>607</v>
       </c>
-      <c r="L92" t="s">
-        <v>608</v>
-      </c>
       <c r="M92" t="s">
-        <v>55</v>
-      </c>
-      <c r="N92"/>
+        <v>37</v>
+      </c>
+      <c r="N92" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>20243259</v>
+        <v>20234494</v>
       </c>
       <c r="B93" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C93" t="s">
         <v>39</v>
       </c>
       <c r="D93" t="s">
+        <v>148</v>
+      </c>
+      <c r="E93" t="s">
+        <v>58</v>
+      </c>
+      <c r="F93" t="s">
+        <v>609</v>
+      </c>
+      <c r="G93" t="s">
+        <v>19</v>
+      </c>
+      <c r="H93" t="s">
         <v>610</v>
       </c>
-      <c r="E93" t="s">
-        <v>83</v>
-      </c>
-      <c r="F93" t="s">
-        <v>604</v>
-      </c>
-      <c r="G93" t="s">
-        <v>19</v>
-      </c>
-      <c r="H93" t="s">
+      <c r="I93" t="s">
         <v>611</v>
       </c>
-      <c r="I93" t="s">
+      <c r="J93" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K93" t="s">
         <v>612</v>
       </c>
-      <c r="J93" t="s">
-        <v>52</v>
-      </c>
-      <c r="K93" t="s">
+      <c r="L93" t="s">
         <v>613</v>
       </c>
-      <c r="L93" t="s">
-        <v>614</v>
-      </c>
       <c r="M93" t="s">
-        <v>55</v>
-      </c>
-      <c r="N93"/>
+        <v>37</v>
+      </c>
+      <c r="N93" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>20243169</v>
+        <v>20234461</v>
       </c>
       <c r="B94" t="s">
+        <v>614</v>
+      </c>
+      <c r="C94" t="s">
+        <v>39</v>
+      </c>
+      <c r="D94" t="s">
+        <v>108</v>
+      </c>
+      <c r="E94" t="s">
+        <v>58</v>
+      </c>
+      <c r="F94" t="s">
         <v>615</v>
       </c>
-      <c r="C94" t="s">
-        <v>15</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="G94" t="s">
+        <v>19</v>
+      </c>
+      <c r="H94" t="s">
         <v>616</v>
       </c>
-      <c r="E94" t="s">
-        <v>17</v>
-      </c>
-      <c r="F94" t="s">
+      <c r="I94" t="s">
         <v>617</v>
       </c>
-      <c r="G94" t="s">
-        <v>19</v>
-      </c>
-      <c r="H94" t="s">
+      <c r="J94" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K94" t="s">
         <v>618</v>
       </c>
-      <c r="I94" t="s">
+      <c r="L94" t="s">
         <v>619</v>
-      </c>
-      <c r="J94" t="s">
-        <v>52</v>
-      </c>
-      <c r="K94" t="s">
-        <v>620</v>
-      </c>
-      <c r="L94" t="s">
-        <v>621</v>
       </c>
       <c r="M94" t="s">
         <v>55</v>
       </c>
-      <c r="N94"/>
+      <c r="N94" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>20247112</v>
+        <v>20234375</v>
       </c>
       <c r="B95" t="s">
+        <v>620</v>
+      </c>
+      <c r="C95" t="s">
+        <v>39</v>
+      </c>
+      <c r="D95" t="s">
+        <v>621</v>
+      </c>
+      <c r="E95" t="s">
+        <v>17</v>
+      </c>
+      <c r="F95" t="s">
         <v>622</v>
       </c>
-      <c r="C95" t="s">
-        <v>47</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="G95" t="s">
+        <v>19</v>
+      </c>
+      <c r="H95" t="s">
         <v>623</v>
       </c>
-      <c r="E95" t="s">
-        <v>58</v>
-      </c>
-      <c r="F95" t="s">
+      <c r="I95" t="s">
         <v>624</v>
       </c>
-      <c r="G95" t="s">
-        <v>19</v>
-      </c>
-      <c r="H95" t="s">
+      <c r="J95" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K95" t="s">
         <v>625</v>
       </c>
-      <c r="I95" t="s">
+      <c r="L95" t="s">
         <v>626</v>
       </c>
-      <c r="J95" t="s">
-        <v>52</v>
-      </c>
-      <c r="K95" t="s">
-        <v>627</v>
-      </c>
-      <c r="L95" t="s">
-        <v>628</v>
-      </c>
       <c r="M95" t="s">
-        <v>25</v>
-      </c>
-      <c r="N95"/>
+        <v>37</v>
+      </c>
+      <c r="N95" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>20247015</v>
+        <v>20234353</v>
       </c>
       <c r="B96" t="s">
+        <v>627</v>
+      </c>
+      <c r="C96" t="s">
+        <v>39</v>
+      </c>
+      <c r="D96" t="s">
+        <v>628</v>
+      </c>
+      <c r="E96" t="s">
+        <v>17</v>
+      </c>
+      <c r="F96" t="s">
         <v>629</v>
       </c>
-      <c r="C96" t="s">
-        <v>47</v>
-      </c>
-      <c r="D96" t="s">
-        <v>275</v>
-      </c>
-      <c r="E96" t="s">
-        <v>29</v>
-      </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
+        <v>19</v>
+      </c>
+      <c r="H96" t="s">
         <v>630</v>
       </c>
-      <c r="G96" t="s">
-        <v>19</v>
-      </c>
-      <c r="H96" t="s">
+      <c r="I96" t="s">
         <v>631</v>
       </c>
-      <c r="I96" t="s">
+      <c r="J96" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K96" t="s">
         <v>632</v>
       </c>
-      <c r="J96" t="s">
-        <v>52</v>
-      </c>
-      <c r="K96" t="s">
+      <c r="L96" t="s">
         <v>633</v>
       </c>
-      <c r="L96" t="s">
-        <v>634</v>
-      </c>
       <c r="M96" t="s">
-        <v>37</v>
-      </c>
-      <c r="N96"/>
+        <v>55</v>
+      </c>
+      <c r="N96" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>20234494</v>
+        <v>20234346</v>
       </c>
       <c r="B97" t="s">
+        <v>634</v>
+      </c>
+      <c r="C97" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" t="s">
         <v>635</v>
       </c>
-      <c r="C97" t="s">
-        <v>39</v>
-      </c>
-      <c r="D97" t="s">
-        <v>148</v>
-      </c>
-      <c r="E97" t="s">
-        <v>58</v>
-      </c>
+      <c r="E97"/>
       <c r="F97" t="s">
         <v>636</v>
       </c>
       <c r="G97" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H97" t="s">
         <v>637</v>
@@ -6477,7 +6634,7 @@
       <c r="I97" t="s">
         <v>638</v>
       </c>
-      <c r="J97" t="s">
+      <c r="J97" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K97" t="s">
@@ -6489,68 +6646,68 @@
       <c r="M97" t="s">
         <v>37</v>
       </c>
-      <c r="N97"/>
+      <c r="N97" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>20234461</v>
+        <v>20253425</v>
       </c>
       <c r="B98" t="s">
         <v>641</v>
       </c>
       <c r="C98" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D98" t="s">
-        <v>108</v>
-      </c>
-      <c r="E98" t="s">
-        <v>58</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="E98"/>
       <c r="F98" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G98" t="s">
         <v>19</v>
       </c>
       <c r="H98" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="I98" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="J98" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="K98" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="L98" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="M98" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="N98"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>20234375</v>
+        <v>20253246</v>
       </c>
       <c r="B99" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C99" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D99" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E99" t="s">
         <v>17</v>
       </c>
       <c r="F99" t="s">
-        <v>649</v>
+        <v>313</v>
       </c>
       <c r="G99" t="s">
         <v>19</v>
@@ -6562,7 +6719,7 @@
         <v>651</v>
       </c>
       <c r="J99" t="s">
-        <v>52</v>
+        <v>163</v>
       </c>
       <c r="K99" t="s">
         <v>652</v>
@@ -6577,13 +6734,13 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>20234353</v>
+        <v>20247975</v>
       </c>
       <c r="B100" t="s">
         <v>654</v>
       </c>
       <c r="C100" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D100" t="s">
         <v>655</v>
@@ -6592,70 +6749,112 @@
         <v>17</v>
       </c>
       <c r="F100" t="s">
+        <v>411</v>
+      </c>
+      <c r="G100" t="s">
+        <v>19</v>
+      </c>
+      <c r="H100" t="s">
         <v>656</v>
       </c>
-      <c r="G100" t="s">
-        <v>19</v>
-      </c>
-      <c r="H100" t="s">
+      <c r="I100" t="s">
         <v>657</v>
-      </c>
-      <c r="I100" t="s">
-        <v>658</v>
       </c>
       <c r="J100" t="s">
         <v>52</v>
       </c>
       <c r="K100" t="s">
+        <v>658</v>
+      </c>
+      <c r="L100" t="s">
         <v>659</v>
       </c>
-      <c r="L100" t="s">
-        <v>660</v>
-      </c>
       <c r="M100" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="N100"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>20234346</v>
+        <v>20243937</v>
       </c>
       <c r="B101" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C101" t="s">
         <v>15</v>
       </c>
       <c r="D101" t="s">
-        <v>662</v>
-      </c>
-      <c r="E101"/>
+        <v>661</v>
+      </c>
+      <c r="E101" t="s">
+        <v>229</v>
+      </c>
       <c r="F101" t="s">
-        <v>663</v>
+        <v>465</v>
       </c>
       <c r="G101" t="s">
         <v>31</v>
       </c>
       <c r="H101" t="s">
+        <v>662</v>
+      </c>
+      <c r="I101" t="s">
+        <v>663</v>
+      </c>
+      <c r="J101" t="s">
+        <v>195</v>
+      </c>
+      <c r="K101" t="s">
         <v>664</v>
       </c>
-      <c r="I101" t="s">
+      <c r="L101" t="s">
         <v>665</v>
-      </c>
-      <c r="J101" t="s">
-        <v>52</v>
-      </c>
-      <c r="K101" t="s">
-        <v>666</v>
-      </c>
-      <c r="L101" t="s">
-        <v>667</v>
       </c>
       <c r="M101" t="s">
         <v>37</v>
       </c>
       <c r="N101"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>20243467</v>
+      </c>
+      <c r="B102" t="s">
+        <v>666</v>
+      </c>
+      <c r="C102" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" t="s">
+        <v>667</v>
+      </c>
+      <c r="E102"/>
+      <c r="F102" t="s">
+        <v>668</v>
+      </c>
+      <c r="G102" t="s">
+        <v>31</v>
+      </c>
+      <c r="H102" t="s">
+        <v>669</v>
+      </c>
+      <c r="I102" t="s">
+        <v>670</v>
+      </c>
+      <c r="J102" t="s">
+        <v>52</v>
+      </c>
+      <c r="K102" t="s">
+        <v>671</v>
+      </c>
+      <c r="L102" t="s">
+        <v>672</v>
+      </c>
+      <c r="M102" t="s">
+        <v>55</v>
+      </c>
+      <c r="N102"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Objets_parlementaires_CDF_EFK.xlsx
+++ b/Objets_parlementaires_CDF_EFK.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="674">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -92,544 +92,547 @@
     <t xml:space="preserve">Élu &amp; Conseil fédéral</t>
   </si>
   <si>
+    <t xml:space="preserve">2026-02-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michel Matthias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-12-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daten der Bundesverwaltung mehrfach nutzbar machen – als Basis für vertrauenswürdige KI in der Schweiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Favoriser la fiabilité de l’IA en Suisse en rendant réutilisables les données de l’administration fédérale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eingereicht / Déposé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Élu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ip.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grossen Jürg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pvl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transparenz bei der Fördereffizienz aller erneuerbaren Technologien herstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assurer la transparence quant à l'efficacité des subventions accordées à toutes les technologies renouvelables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolly Nicolas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-12-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medizinische Bildgebung in der Westschweiz: Wie hängen Moratorien, Untersuchungsvolumen und Kosten zusammen?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imagerie médicale en Suisse romande : quel lien entre moratoires, volume d’examens et coûts ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erledigt / Liquidé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20258194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20258194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conseil fédéral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trede Aline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VERT-E-S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kostendeckende Erträge aus dem Artenschutz? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Des revenus couvrant les coûts liés à la protection des espèces ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20258273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20258273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wettstein Felix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-12-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drei weitere Aufgabenbereiche für das Projekt Entflechtung 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trois nouveaux groupes de tâches pour le projet "Désenchevêtrement 27"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pa. Iv.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golay Roger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genug Bürokratie! Für einen Frühlingsputz der Gesetze und Verordnungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trop de bureaucratie ! Pour un grand ménage dans les lois et ordonnances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zugewiesen an die behandelnde Kommission / Attribué à la commission compétente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20250479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20250479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Po.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuosto Brenda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wirksamere Koordination der Verkehrsmittel im Rahmen von Agglomerationsprogrammen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordination plus efficace des moyens de transport dans le cadre des programmes d'agglomération</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobler Marcel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stärkung der Aufsicht über die SRG unter Wahrung der Programmautonomie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renforcer la surveillance de la SSR tout en préservant l'autonomie des programmes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gapany Johanna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Für gesunde Bundesfinanzen. Subventionsüberprüfung optimieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimiser l'examen des subventions pour garantir la santé des finances fédérales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schmid Martin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Versorgungssicherheit und raschen Zugang zu innovativen Medikamenten gewährleisten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garantir la sécurité de l'approvisionnement et un accès rapide aux médicaments innovants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schlatter Marionna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giftiger Rasen. Warum sind toxische PFAS-Pestizide ausgerechnet zur Anwendung auf Spiel- und Sportplätzen oder in Wohnquartieren zugelassen? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gazon toxique. Pourquoi les pesticides PFAS sont-ils autorisés sur les terrains de jeux et de sport ainsi que dans les quartiers résidentiels ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alijaj Islam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finanzhilfen nach Artikel 74 IVG und Bedarfs- und Innovationsorientierung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adapter les subventions allouées en vertu de l'article 74 LAI aux besoins des bénéficiaires et à l'innovation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dittli Josef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heim- versus Nutztier bei Equiden. Wieso diese Sonderregelung und wieso so viel Food Waste?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animaux de rente et de compagnie chez les équidés. Pourquoi ce régime spécial et pourquoi tant de gaspillage alimentaire ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zryd Andrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grossprojekte im VBS an externe Dienstleister. Was für eine Strategie wird verfolgt?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le DDPS confie de grands projets à des externes. Quel est l'objectif stratégique ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gugger Niklaus-Samuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steuerdebakel Waadt: Finanzausgleich betroffen?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Débâcle fiscale vaudoise. Conséquences sur la péréquation financière ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weichelt Manuela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wann wird der Zwischenbericht des Gutachtens zur RUAG öffentlich?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quand le rapport d’enquête intermédiaire sur RUAG sera-t-il publié ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clivaz Christophe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rolle des Bundes bei der Sanierung der Deponie Gamsenried </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rôle de la Confédération dans l’assainissement de la décharge de Gamsenried </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grünliberale Fraktion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wirtschaft entlasten durch Vereinfachung des Steuersystems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alléger l'économie en simplifiant le système fiscal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FDP-Liberale Fraktion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Kommission des Ständerats / En commission du Conseil des Etats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruag: Anwaltskosten in Millionenhöhe statt Munition für unsere Armee?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUAG : des millions pour des avocats au lieu de munition pour notre armée ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De Ventura Linda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Untersuchungskosten Ruag-Skandal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coûts de l’enquête sur le scandale RUAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broulis Pascal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kostenunterdeckung bei der Zeitungszustellung der Post. Wo bleibt die Transparenz?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Déficit de la Poste pour la distribution des journaux. Quelle transparence ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesetzliche Grundlage zum Monitoring von Effekten der Anwendung von problematischen Stoffen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bases légales pour surveiller les effets de l’utilisation de substances problématiques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sicherheitspolitische Kommission Nationalrat-Nationalrat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strategische Aufstockung des Personalbestands des Fedpol. Nur so kann die nationale Sicherheit gewährleistet werden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renforcement stratégique des effectifs de Fedpol. Une nécessité pour la sécurité nationale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Überwiesen an den Bundesrat / Transmis au Conseil fédéral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wyssmann Rémy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finma dem Öffentlichkeitsprinzip unterstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le principe de la transparence doit aussi s’appliquer à la Finma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beratung in Kommission des Nationalrates abgeschlossen / Fin des discussions en commission du Conseil national</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20250450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20250450</t>
+  </si>
+  <si>
     <t xml:space="preserve">2026-02-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4620</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michel Matthias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-12-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daten der Bundesverwaltung mehrfach nutzbar machen – als Basis für vertrauenswürdige KI in der Schweiz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Favoriser la fiabilité de l’IA en Suisse en rendant réutilisables les données de l’administration fédérale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eingereicht / Déposé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254620</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254620</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Élu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ip.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grossen Jürg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pvl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transparenz bei der Fördereffizienz aller erneuerbaren Technologien herstellen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assurer la transparence quant à l'efficacité des subventions accordées à toutes les technologies renouvelables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fra.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kolly Nicolas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-12-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medizinische Bildgebung in der Westschweiz: Wie hängen Moratorien, Untersuchungsvolumen und Kosten zusammen?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imagerie médicale en Suisse romande : quel lien entre moratoires, volume d’examens et coûts ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erledigt / Liquidé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20258194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20258194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conseil fédéral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trede Aline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VERT-E-S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kostendeckende Erträge aus dem Artenschutz? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Des revenus couvrant les coûts liés à la protection des espèces ? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20258273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20258273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wettstein Felix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-12-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drei weitere Aufgabenbereiche für das Projekt Entflechtung 27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trois nouveaux groupes de tâches pour le projet "Désenchevêtrement 27"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pa. Iv.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golay Roger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-09-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genug Bürokratie! Für einen Frühlingsputz der Gesetze und Verordnungen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trop de bureaucratie ! Pour un grand ménage dans les lois et ordonnances</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zugewiesen an die behandelnde Kommission / Attribué à la commission compétente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20250479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20250479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Po.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuosto Brenda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wirksamere Koordination der Verkehrsmittel im Rahmen von Agglomerationsprogrammen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coordination plus efficace des moyens de transport dans le cadre des programmes d'agglomération</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobler Marcel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stärkung der Aufsicht über die SRG unter Wahrung der Programmautonomie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renforcer la surveillance de la SSR tout en préservant l'autonomie des programmes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gapany Johanna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-09-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Für gesunde Bundesfinanzen. Subventionsüberprüfung optimieren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimiser l'examen des subventions pour garantir la santé des finances fédérales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schmid Martin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Versorgungssicherheit und raschen Zugang zu innovativen Medikamenten gewährleisten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garantir la sécurité de l'approvisionnement et un accès rapide aux médicaments innovants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schlatter Marionna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giftiger Rasen. Warum sind toxische PFAS-Pestizide ausgerechnet zur Anwendung auf Spiel- und Sportplätzen oder in Wohnquartieren zugelassen? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gazon toxique. Pourquoi les pesticides PFAS sont-ils autorisés sur les terrains de jeux et de sport ainsi que dans les quartiers résidentiels ? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alijaj Islam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finanzhilfen nach Artikel 74 IVG und Bedarfs- und Innovationsorientierung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adapter les subventions allouées en vertu de l'article 74 LAI aux besoins des bénéficiaires et à l'innovation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dittli Josef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-09-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heim- versus Nutztier bei Equiden. Wieso diese Sonderregelung und wieso so viel Food Waste?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animaux de rente et de compagnie chez les équidés. Pourquoi ce régime spécial et pourquoi tant de gaspillage alimentaire ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zryd Andrea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-09-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grossprojekte im VBS an externe Dienstleister. Was für eine Strategie wird verfolgt?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le DDPS confie de grands projets à des externes. Quel est l'objectif stratégique ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gugger Niklaus-Samuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steuerdebakel Waadt: Finanzausgleich betroffen?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Débâcle fiscale vaudoise. Conséquences sur la péréquation financière ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weichelt Manuela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Al</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wann wird der Zwischenbericht des Gutachtens zur RUAG öffentlich?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quand le rapport d’enquête intermédiaire sur RUAG sera-t-il publié ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7890</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clivaz Christophe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rolle des Bundes bei der Sanierung der Deponie Gamsenried </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rôle de la Confédération dans l’assainissement de la décharge de Gamsenried </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257890</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257890</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grünliberale Fraktion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-09-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wirtschaft entlasten durch Vereinfachung des Steuersystems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alléger l'économie en simplifiant le système fiscal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FDP-Liberale Fraktion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-09-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Kommission des Ständerats / En commission du Conseil des Etats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruag: Anwaltskosten in Millionenhöhe statt Munition für unsere Armee?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUAG : des millions pour des avocats au lieu de munition pour notre armée ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De Ventura Linda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Untersuchungskosten Ruag-Skandal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coûts de l’enquête sur le scandale RUAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Broulis Pascal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-09-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kostenunterdeckung bei der Zeitungszustellung der Post. Wo bleibt die Transparenz?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Déficit de la Poste pour la distribution des journaux. Quelle transparence ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-09-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gesetzliche Grundlage zum Monitoring von Effekten der Anwendung von problematischen Stoffen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bases légales pour surveiller les effets de l’utilisation de substances problématiques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sicherheitspolitische Kommission Nationalrat-Nationalrat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-06-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strategische Aufstockung des Personalbestands des Fedpol. Nur so kann die nationale Sicherheit gewährleistet werden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renforcement stratégique des effectifs de Fedpol. Une nécessité pour la sécurité nationale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Überwiesen an den Bundesrat / Transmis au Conseil fédéral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.450</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wyssmann Rémy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-06-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finma dem Öffentlichkeitsprinzip unterstellen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le principe de la transparence doit aussi s’appliquer à la Finma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beratung in Kommission des Nationalrates abgeschlossen / Fin des discussions en commission du Conseil national</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20250450</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20250450</t>
   </si>
   <si>
     <t xml:space="preserve">25.3835</t>
@@ -2038,7 +2041,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2046,23 +2049,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006400"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <bgColor rgb="FF90EE90"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2077,9 +2070,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2468,7 +2460,7 @@
       <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>22</v>
       </c>
       <c r="K2" t="s">
@@ -2512,7 +2504,7 @@
       <c r="I3" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" t="s">
         <v>34</v>
       </c>
       <c r="K3" t="s">
@@ -2556,7 +2548,7 @@
       <c r="I4" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" t="s">
         <v>22</v>
       </c>
       <c r="K4" t="s">
@@ -2600,7 +2592,7 @@
       <c r="I5" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" t="s">
         <v>52</v>
       </c>
       <c r="K5" t="s">
@@ -2644,7 +2636,7 @@
       <c r="I6" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" t="s">
         <v>52</v>
       </c>
       <c r="K6" t="s">
@@ -2688,7 +2680,7 @@
       <c r="I7" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" t="s">
         <v>22</v>
       </c>
       <c r="K7" t="s">
@@ -2732,7 +2724,7 @@
       <c r="I8" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" t="s">
         <v>77</v>
       </c>
       <c r="K8" t="s">
@@ -2776,7 +2768,7 @@
       <c r="I9" t="s">
         <v>85</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" t="s">
         <v>22</v>
       </c>
       <c r="K9" t="s">
@@ -2820,7 +2812,7 @@
       <c r="I10" t="s">
         <v>91</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" t="s">
         <v>22</v>
       </c>
       <c r="K10" t="s">
@@ -2864,7 +2856,7 @@
       <c r="I11" t="s">
         <v>98</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" t="s">
         <v>52</v>
       </c>
       <c r="K11" t="s">
@@ -2908,7 +2900,7 @@
       <c r="I12" t="s">
         <v>104</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" t="s">
         <v>77</v>
       </c>
       <c r="K12" t="s">
@@ -2952,7 +2944,7 @@
       <c r="I13" t="s">
         <v>110</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" t="s">
         <v>22</v>
       </c>
       <c r="K13" t="s">
@@ -2996,7 +2988,7 @@
       <c r="I14" t="s">
         <v>116</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" t="s">
         <v>52</v>
       </c>
       <c r="K14" t="s">
@@ -3040,7 +3032,7 @@
       <c r="I15" t="s">
         <v>123</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" t="s">
         <v>52</v>
       </c>
       <c r="K15" t="s">
@@ -3084,7 +3076,7 @@
       <c r="I16" t="s">
         <v>130</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" t="s">
         <v>22</v>
       </c>
       <c r="K16" t="s">
@@ -3128,7 +3120,7 @@
       <c r="I17" t="s">
         <v>137</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" t="s">
         <v>52</v>
       </c>
       <c r="K17" t="s">
@@ -3172,7 +3164,7 @@
       <c r="I18" t="s">
         <v>144</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" t="s">
         <v>52</v>
       </c>
       <c r="K18" t="s">
@@ -3216,7 +3208,7 @@
       <c r="I19" t="s">
         <v>150</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" t="s">
         <v>52</v>
       </c>
       <c r="K19" t="s">
@@ -3258,7 +3250,7 @@
       <c r="I20" t="s">
         <v>157</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" t="s">
         <v>22</v>
       </c>
       <c r="K20" t="s">
@@ -3300,7 +3292,7 @@
       <c r="I21" t="s">
         <v>98</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" t="s">
         <v>163</v>
       </c>
       <c r="K21" t="s">
@@ -3344,7 +3336,7 @@
       <c r="I22" t="s">
         <v>168</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" t="s">
         <v>52</v>
       </c>
       <c r="K22" t="s">
@@ -3388,7 +3380,7 @@
       <c r="I23" t="s">
         <v>174</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" t="s">
         <v>52</v>
       </c>
       <c r="K23" t="s">
@@ -3432,7 +3424,7 @@
       <c r="I24" t="s">
         <v>181</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" t="s">
         <v>52</v>
       </c>
       <c r="K24" t="s">
@@ -3476,7 +3468,7 @@
       <c r="I25" t="s">
         <v>187</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" t="s">
         <v>52</v>
       </c>
       <c r="K25" t="s">
@@ -3518,7 +3510,7 @@
       <c r="I26" t="s">
         <v>194</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" t="s">
         <v>195</v>
       </c>
       <c r="K26" t="s">
@@ -3562,7 +3554,7 @@
       <c r="I27" t="s">
         <v>202</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" t="s">
         <v>203</v>
       </c>
       <c r="K27" t="s">
@@ -3575,7 +3567,7 @@
         <v>37</v>
       </c>
       <c r="N27" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28">
@@ -3583,13 +3575,13 @@
         <v>20253835</v>
       </c>
       <c r="B28" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C28" t="s">
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E28" t="s">
         <v>29</v>
@@ -3601,25 +3593,25 @@
         <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I28" t="s">
-        <v>209</v>
-      </c>
-      <c r="J28" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J28" t="s">
         <v>163</v>
       </c>
       <c r="K28" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L28" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M28" t="s">
         <v>37</v>
       </c>
       <c r="N28" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29">
@@ -3627,7 +3619,7 @@
         <v>20253845</v>
       </c>
       <c r="B29" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C29" t="s">
         <v>39</v>
@@ -3645,25 +3637,25 @@
         <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I29" t="s">
-        <v>214</v>
-      </c>
-      <c r="J29" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J29" t="s">
         <v>22</v>
       </c>
       <c r="K29" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M29" t="s">
         <v>37</v>
       </c>
       <c r="N29" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30">
@@ -3671,13 +3663,13 @@
         <v>20253855</v>
       </c>
       <c r="B30" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E30" t="s">
         <v>29</v>
@@ -3689,25 +3681,25 @@
         <v>31</v>
       </c>
       <c r="H30" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I30" t="s">
-        <v>209</v>
-      </c>
-      <c r="J30" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J30" t="s">
         <v>163</v>
       </c>
       <c r="K30" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L30" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M30" t="s">
         <v>37</v>
       </c>
       <c r="N30" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31">
@@ -3715,13 +3707,13 @@
         <v>20253880</v>
       </c>
       <c r="B31" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C31" t="s">
         <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E31" t="s">
         <v>17</v>
@@ -3733,25 +3725,25 @@
         <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I31" t="s">
-        <v>224</v>
-      </c>
-      <c r="J31" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="J31" t="s">
         <v>22</v>
       </c>
       <c r="K31" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L31" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M31" t="s">
         <v>37</v>
       </c>
       <c r="N31" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32">
@@ -3759,16 +3751,16 @@
         <v>20253892</v>
       </c>
       <c r="B32" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F32" t="s">
         <v>200</v>
@@ -3777,25 +3769,25 @@
         <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I32" t="s">
-        <v>231</v>
-      </c>
-      <c r="J32" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J32" t="s">
         <v>22</v>
       </c>
       <c r="K32" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L32" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M32" t="s">
         <v>37</v>
       </c>
       <c r="N32" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33">
@@ -3803,13 +3795,13 @@
         <v>20253893</v>
       </c>
       <c r="B33" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C33" t="s">
         <v>81</v>
       </c>
       <c r="D33" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E33" t="s">
         <v>29</v>
@@ -3821,25 +3813,25 @@
         <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I33" t="s">
-        <v>237</v>
-      </c>
-      <c r="J33" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J33" t="s">
         <v>22</v>
       </c>
       <c r="K33" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L33" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M33" t="s">
         <v>25</v>
       </c>
       <c r="N33" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34">
@@ -3847,43 +3839,43 @@
         <v>20253730</v>
       </c>
       <c r="B34" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C34" t="s">
         <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E34" t="s">
         <v>58</v>
       </c>
       <c r="F34" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G34" t="s">
         <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I34" t="s">
-        <v>244</v>
-      </c>
-      <c r="J34" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="J34" t="s">
         <v>22</v>
       </c>
       <c r="K34" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L34" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M34" t="s">
         <v>55</v>
       </c>
       <c r="N34" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35">
@@ -3891,43 +3883,43 @@
         <v>20253630</v>
       </c>
       <c r="B35" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C35" t="s">
         <v>39</v>
       </c>
       <c r="D35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E35" t="s">
         <v>29</v>
       </c>
       <c r="F35" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G35" t="s">
         <v>31</v>
       </c>
       <c r="H35" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I35" t="s">
-        <v>251</v>
-      </c>
-      <c r="J35" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="J35" t="s">
         <v>52</v>
       </c>
       <c r="K35" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L35" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M35" t="s">
         <v>37</v>
       </c>
       <c r="N35" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36">
@@ -3935,43 +3927,43 @@
         <v>20253637</v>
       </c>
       <c r="B36" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C36" t="s">
         <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E36" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F36" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G36" t="s">
         <v>31</v>
       </c>
       <c r="H36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I36" t="s">
-        <v>257</v>
-      </c>
-      <c r="J36" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="J36" t="s">
         <v>203</v>
       </c>
       <c r="K36" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L36" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M36" t="s">
         <v>55</v>
       </c>
       <c r="N36" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37">
@@ -3979,43 +3971,43 @@
         <v>20257355</v>
       </c>
       <c r="B37" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C37" t="s">
         <v>47</v>
       </c>
       <c r="D37" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E37" t="s">
         <v>17</v>
       </c>
       <c r="F37" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G37" t="s">
         <v>19</v>
       </c>
       <c r="H37" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I37" t="s">
-        <v>264</v>
-      </c>
-      <c r="J37" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J37" t="s">
         <v>52</v>
       </c>
       <c r="K37" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L37" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M37" t="s">
         <v>55</v>
       </c>
       <c r="N37" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38">
@@ -4023,43 +4015,43 @@
         <v>20257419</v>
       </c>
       <c r="B38" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C38" t="s">
         <v>47</v>
       </c>
       <c r="D38" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E38" t="s">
         <v>17</v>
       </c>
       <c r="F38" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G38" t="s">
         <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I38" t="s">
-        <v>270</v>
-      </c>
-      <c r="J38" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="J38" t="s">
         <v>52</v>
       </c>
       <c r="K38" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L38" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M38" t="s">
         <v>55</v>
       </c>
       <c r="N38" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39">
@@ -4067,43 +4059,43 @@
         <v>20253479</v>
       </c>
       <c r="B39" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C39" t="s">
         <v>39</v>
       </c>
       <c r="D39" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E39" t="s">
         <v>83</v>
       </c>
       <c r="F39" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G39" t="s">
         <v>19</v>
       </c>
       <c r="H39" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I39" t="s">
-        <v>277</v>
-      </c>
-      <c r="J39" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="J39" t="s">
         <v>22</v>
       </c>
       <c r="K39" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L39" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M39" t="s">
         <v>37</v>
       </c>
       <c r="N39" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40">
@@ -4111,43 +4103,43 @@
         <v>20253444</v>
       </c>
       <c r="B40" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C40" t="s">
         <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E40" t="s">
         <v>29</v>
       </c>
       <c r="F40" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G40" t="s">
         <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I40" t="s">
-        <v>284</v>
-      </c>
-      <c r="J40" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="J40" t="s">
         <v>22</v>
       </c>
       <c r="K40" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L40" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M40" t="s">
         <v>25</v>
       </c>
       <c r="N40" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41">
@@ -4155,7 +4147,7 @@
         <v>20253309</v>
       </c>
       <c r="B41" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C41" t="s">
         <v>15</v>
@@ -4167,31 +4159,31 @@
         <v>142</v>
       </c>
       <c r="F41" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G41" t="s">
         <v>19</v>
       </c>
       <c r="H41" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I41" t="s">
-        <v>290</v>
-      </c>
-      <c r="J41" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J41" t="s">
         <v>22</v>
       </c>
       <c r="K41" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L41" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M41" t="s">
         <v>37</v>
       </c>
       <c r="N41" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42">
@@ -4199,43 +4191,43 @@
         <v>20253399</v>
       </c>
       <c r="B42" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C42" t="s">
         <v>39</v>
       </c>
       <c r="D42" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E42" t="s">
         <v>83</v>
       </c>
       <c r="F42" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G42" t="s">
         <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I42" t="s">
-        <v>296</v>
-      </c>
-      <c r="J42" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="J42" t="s">
         <v>22</v>
       </c>
       <c r="K42" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L42" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M42" t="s">
         <v>25</v>
       </c>
       <c r="N42" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43">
@@ -4243,43 +4235,43 @@
         <v>20253404</v>
       </c>
       <c r="B43" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C43" t="s">
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E43" t="s">
         <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G43" t="s">
         <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I43" t="s">
-        <v>302</v>
-      </c>
-      <c r="J43" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="J43" t="s">
         <v>22</v>
       </c>
       <c r="K43" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L43" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M43" t="s">
         <v>55</v>
       </c>
       <c r="N43" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44">
@@ -4287,43 +4279,43 @@
         <v>20253417</v>
       </c>
       <c r="B44" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C44" t="s">
         <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E44" t="s">
         <v>17</v>
       </c>
       <c r="F44" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G44" t="s">
         <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I44" t="s">
-        <v>308</v>
-      </c>
-      <c r="J44" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J44" t="s">
         <v>22</v>
       </c>
       <c r="K44" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L44" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M44" t="s">
         <v>55</v>
       </c>
       <c r="N44" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45">
@@ -4331,43 +4323,43 @@
         <v>20251011</v>
       </c>
       <c r="B45" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C45" t="s">
         <v>47</v>
       </c>
       <c r="D45" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E45" t="s">
         <v>58</v>
       </c>
       <c r="F45" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G45" t="s">
         <v>31</v>
       </c>
       <c r="H45" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I45" t="s">
-        <v>315</v>
-      </c>
-      <c r="J45" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J45" t="s">
         <v>52</v>
       </c>
       <c r="K45" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L45" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M45" t="s">
         <v>55</v>
       </c>
       <c r="N45" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46">
@@ -4375,43 +4367,43 @@
         <v>20253194</v>
       </c>
       <c r="B46" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C46" t="s">
         <v>39</v>
       </c>
       <c r="D46" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E46" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F46" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G46" t="s">
         <v>31</v>
       </c>
       <c r="H46" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I46" t="s">
-        <v>321</v>
-      </c>
-      <c r="J46" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="J46" t="s">
         <v>52</v>
       </c>
       <c r="K46" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L46" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M46" t="s">
         <v>55</v>
       </c>
       <c r="N46" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47">
@@ -4419,43 +4411,43 @@
         <v>20253203</v>
       </c>
       <c r="B47" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C47" t="s">
         <v>39</v>
       </c>
       <c r="D47" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E47" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F47" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G47" t="s">
         <v>19</v>
       </c>
       <c r="H47" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I47" t="s">
-        <v>327</v>
-      </c>
-      <c r="J47" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J47" t="s">
         <v>52</v>
       </c>
       <c r="K47" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L47" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M47" t="s">
         <v>25</v>
       </c>
       <c r="N47" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48">
@@ -4463,43 +4455,43 @@
         <v>20253213</v>
       </c>
       <c r="B48" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C48" t="s">
         <v>39</v>
       </c>
       <c r="D48" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E48" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F48" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G48" t="s">
         <v>31</v>
       </c>
       <c r="H48" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I48" t="s">
-        <v>333</v>
-      </c>
-      <c r="J48" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="J48" t="s">
         <v>52</v>
       </c>
       <c r="K48" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L48" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M48" t="s">
         <v>55</v>
       </c>
       <c r="N48" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49">
@@ -4507,43 +4499,43 @@
         <v>20253214</v>
       </c>
       <c r="B49" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C49" t="s">
         <v>39</v>
       </c>
       <c r="D49" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E49" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F49" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G49" t="s">
         <v>19</v>
       </c>
       <c r="H49" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I49" t="s">
-        <v>338</v>
-      </c>
-      <c r="J49" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J49" t="s">
         <v>52</v>
       </c>
       <c r="K49" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L49" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M49" t="s">
         <v>55</v>
       </c>
       <c r="N49" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="50">
@@ -4551,43 +4543,43 @@
         <v>20253093</v>
       </c>
       <c r="B50" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C50" t="s">
         <v>39</v>
       </c>
       <c r="D50" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E50" t="s">
         <v>83</v>
       </c>
       <c r="F50" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G50" t="s">
         <v>19</v>
       </c>
       <c r="H50" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I50" t="s">
-        <v>345</v>
-      </c>
-      <c r="J50" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="J50" t="s">
         <v>22</v>
       </c>
       <c r="K50" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L50" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M50" t="s">
         <v>37</v>
       </c>
       <c r="N50" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51">
@@ -4595,43 +4587,43 @@
         <v>20257213</v>
       </c>
       <c r="B51" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C51" t="s">
         <v>47</v>
       </c>
       <c r="D51" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E51" t="s">
         <v>83</v>
       </c>
       <c r="F51" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G51" t="s">
         <v>19</v>
       </c>
       <c r="H51" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I51" t="s">
-        <v>351</v>
-      </c>
-      <c r="J51" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J51" t="s">
         <v>52</v>
       </c>
       <c r="K51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L51" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M51" t="s">
         <v>37</v>
       </c>
       <c r="N51" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52">
@@ -4639,7 +4631,7 @@
         <v>20253054</v>
       </c>
       <c r="B52" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C52" t="s">
         <v>15</v>
@@ -4651,31 +4643,31 @@
         <v>73</v>
       </c>
       <c r="F52" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G52" t="s">
         <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I52" t="s">
-        <v>357</v>
-      </c>
-      <c r="J52" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J52" t="s">
         <v>22</v>
       </c>
       <c r="K52" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L52" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M52" t="s">
         <v>55</v>
       </c>
       <c r="N52" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53">
@@ -4683,7 +4675,7 @@
         <v>20257102</v>
       </c>
       <c r="B53" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C53" t="s">
         <v>47</v>
@@ -4695,31 +4687,31 @@
         <v>83</v>
       </c>
       <c r="F53" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G53" t="s">
         <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I53" t="s">
-        <v>362</v>
-      </c>
-      <c r="J53" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="J53" t="s">
         <v>52</v>
       </c>
       <c r="K53" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L53" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M53" t="s">
         <v>55</v>
       </c>
       <c r="N53" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="54">
@@ -4727,43 +4719,43 @@
         <v>20257129</v>
       </c>
       <c r="B54" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C54" t="s">
         <v>47</v>
       </c>
       <c r="D54" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E54" t="s">
         <v>29</v>
       </c>
       <c r="F54" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G54" t="s">
         <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I54" t="s">
-        <v>367</v>
-      </c>
-      <c r="J54" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="J54" t="s">
         <v>52</v>
       </c>
       <c r="K54" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M54" t="s">
         <v>37</v>
       </c>
       <c r="N54" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="55">
@@ -4771,43 +4763,43 @@
         <v>20257138</v>
       </c>
       <c r="B55" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C55" t="s">
         <v>47</v>
       </c>
       <c r="D55" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E55" t="s">
         <v>83</v>
       </c>
       <c r="F55" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G55" t="s">
         <v>19</v>
       </c>
       <c r="H55" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I55" t="s">
-        <v>373</v>
-      </c>
-      <c r="J55" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="J55" t="s">
         <v>52</v>
       </c>
       <c r="K55" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L55" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M55" t="s">
         <v>55</v>
       </c>
       <c r="N55" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="56">
@@ -4815,43 +4807,43 @@
         <v>20253031</v>
       </c>
       <c r="B56" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C56" t="s">
         <v>39</v>
       </c>
       <c r="D56" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E56" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F56" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G56" t="s">
         <v>19</v>
       </c>
       <c r="H56" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I56" t="s">
-        <v>381</v>
-      </c>
-      <c r="J56" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="J56" t="s">
         <v>22</v>
       </c>
       <c r="K56" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L56" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M56" t="s">
         <v>55</v>
       </c>
       <c r="N56" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57">
@@ -4859,43 +4851,43 @@
         <v>20257012</v>
       </c>
       <c r="B57" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C57" t="s">
         <v>47</v>
       </c>
       <c r="D57" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E57" t="s">
         <v>17</v>
       </c>
       <c r="F57" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G57" t="s">
         <v>19</v>
       </c>
       <c r="H57" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I57" t="s">
-        <v>387</v>
-      </c>
-      <c r="J57" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="J57" t="s">
         <v>52</v>
       </c>
       <c r="K57" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L57" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M57" t="s">
         <v>25</v>
       </c>
       <c r="N57" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58">
@@ -4903,41 +4895,41 @@
         <v>20253008</v>
       </c>
       <c r="B58" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C58" t="s">
         <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E58"/>
       <c r="F58" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G58" t="s">
         <v>19</v>
       </c>
       <c r="H58" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I58" t="s">
-        <v>394</v>
-      </c>
-      <c r="J58" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="J58" t="s">
         <v>52</v>
       </c>
       <c r="K58" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L58" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M58" t="s">
         <v>55</v>
       </c>
       <c r="N58" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="59">
@@ -4945,43 +4937,43 @@
         <v>20244404</v>
       </c>
       <c r="B59" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C59" t="s">
         <v>39</v>
       </c>
       <c r="D59" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E59" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F59" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G59" t="s">
         <v>19</v>
       </c>
       <c r="H59" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I59" t="s">
-        <v>401</v>
-      </c>
-      <c r="J59" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J59" t="s">
         <v>52</v>
       </c>
       <c r="K59" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L59" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M59" t="s">
         <v>55</v>
       </c>
       <c r="N59" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="60">
@@ -4989,43 +4981,43 @@
         <v>20244419</v>
       </c>
       <c r="B60" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C60" t="s">
         <v>39</v>
       </c>
       <c r="D60" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E60" t="s">
         <v>29</v>
       </c>
       <c r="F60" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G60" t="s">
         <v>31</v>
       </c>
       <c r="H60" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I60" t="s">
-        <v>406</v>
-      </c>
-      <c r="J60" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="J60" t="s">
         <v>52</v>
       </c>
       <c r="K60" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L60" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M60" t="s">
         <v>55</v>
       </c>
       <c r="N60" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="61">
@@ -5033,43 +5025,43 @@
         <v>20248043</v>
       </c>
       <c r="B61" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C61" t="s">
         <v>47</v>
       </c>
       <c r="D61" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E61" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F61" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G61" t="s">
         <v>19</v>
       </c>
       <c r="H61" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I61" t="s">
-        <v>413</v>
-      </c>
-      <c r="J61" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="J61" t="s">
         <v>52</v>
       </c>
       <c r="K61" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L61" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M61" t="s">
         <v>37</v>
       </c>
       <c r="N61" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="62">
@@ -5077,43 +5069,43 @@
         <v>20244290</v>
       </c>
       <c r="B62" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C62" t="s">
         <v>39</v>
       </c>
       <c r="D62" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E62" t="s">
         <v>58</v>
       </c>
       <c r="F62" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G62" t="s">
         <v>19</v>
       </c>
       <c r="H62" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I62" t="s">
-        <v>420</v>
-      </c>
-      <c r="J62" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="J62" t="s">
         <v>22</v>
       </c>
       <c r="K62" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L62" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M62" t="s">
         <v>55</v>
       </c>
       <c r="N62" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63">
@@ -5121,43 +5113,43 @@
         <v>20244278</v>
       </c>
       <c r="B63" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C63" t="s">
         <v>39</v>
       </c>
       <c r="D63" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E63" t="s">
         <v>83</v>
       </c>
       <c r="F63" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G63" t="s">
         <v>19</v>
       </c>
       <c r="H63" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I63" t="s">
-        <v>427</v>
-      </c>
-      <c r="J63" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="J63" t="s">
         <v>22</v>
       </c>
       <c r="K63" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L63" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M63" t="s">
         <v>37</v>
       </c>
       <c r="N63" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="64">
@@ -5165,43 +5157,43 @@
         <v>20244082</v>
       </c>
       <c r="B64" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C64" t="s">
         <v>39</v>
       </c>
       <c r="D64" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E64" t="s">
         <v>17</v>
       </c>
       <c r="F64" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G64" t="s">
         <v>19</v>
       </c>
       <c r="H64" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I64" t="s">
-        <v>433</v>
-      </c>
-      <c r="J64" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="J64" t="s">
         <v>22</v>
       </c>
       <c r="K64" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L64" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M64" t="s">
         <v>55</v>
       </c>
       <c r="N64" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="65">
@@ -5209,43 +5201,43 @@
         <v>20244112</v>
       </c>
       <c r="B65" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C65" t="s">
         <v>39</v>
       </c>
       <c r="D65" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E65" t="s">
         <v>58</v>
       </c>
       <c r="F65" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G65" t="s">
         <v>19</v>
       </c>
       <c r="H65" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I65" t="s">
-        <v>439</v>
-      </c>
-      <c r="J65" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="J65" t="s">
         <v>22</v>
       </c>
       <c r="K65" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L65" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M65" t="s">
         <v>25</v>
       </c>
       <c r="N65" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="66">
@@ -5253,7 +5245,7 @@
         <v>20244131</v>
       </c>
       <c r="B66" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C66" t="s">
         <v>39</v>
@@ -5265,31 +5257,31 @@
         <v>58</v>
       </c>
       <c r="F66" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G66" t="s">
         <v>19</v>
       </c>
       <c r="H66" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I66" t="s">
-        <v>444</v>
-      </c>
-      <c r="J66" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="J66" t="s">
         <v>22</v>
       </c>
       <c r="K66" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L66" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M66" t="s">
         <v>55</v>
       </c>
       <c r="N66" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="67">
@@ -5297,7 +5289,7 @@
         <v>20244132</v>
       </c>
       <c r="B67" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C67" t="s">
         <v>81</v>
@@ -5309,31 +5301,31 @@
         <v>142</v>
       </c>
       <c r="F67" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G67" t="s">
         <v>19</v>
       </c>
       <c r="H67" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="I67" t="s">
-        <v>449</v>
-      </c>
-      <c r="J67" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="J67" t="s">
         <v>22</v>
       </c>
       <c r="K67" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L67" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M67" t="s">
         <v>25</v>
       </c>
       <c r="N67" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="68">
@@ -5341,7 +5333,7 @@
         <v>20244133</v>
       </c>
       <c r="B68" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C68" t="s">
         <v>15</v>
@@ -5353,31 +5345,31 @@
         <v>142</v>
       </c>
       <c r="F68" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G68" t="s">
         <v>19</v>
       </c>
       <c r="H68" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="I68" t="s">
-        <v>454</v>
-      </c>
-      <c r="J68" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="J68" t="s">
         <v>22</v>
       </c>
       <c r="K68" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L68" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M68" t="s">
         <v>25</v>
       </c>
       <c r="N68" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69">
@@ -5385,43 +5377,43 @@
         <v>20244137</v>
       </c>
       <c r="B69" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C69" t="s">
         <v>39</v>
       </c>
       <c r="D69" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E69" t="s">
         <v>58</v>
       </c>
       <c r="F69" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G69" t="s">
         <v>19</v>
       </c>
       <c r="H69" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I69" t="s">
-        <v>460</v>
-      </c>
-      <c r="J69" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="J69" t="s">
         <v>22</v>
       </c>
       <c r="K69" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L69" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M69" t="s">
         <v>25</v>
       </c>
       <c r="N69" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="70">
@@ -5429,43 +5421,43 @@
         <v>20243948</v>
       </c>
       <c r="B70" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C70" t="s">
         <v>39</v>
       </c>
       <c r="D70" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E70" t="s">
         <v>58</v>
       </c>
       <c r="F70" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G70" t="s">
         <v>31</v>
       </c>
       <c r="H70" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="I70" t="s">
-        <v>467</v>
-      </c>
-      <c r="J70" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="J70" t="s">
         <v>52</v>
       </c>
       <c r="K70" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L70" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M70" t="s">
         <v>55</v>
       </c>
       <c r="N70" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="71">
@@ -5473,43 +5465,43 @@
         <v>20247720</v>
       </c>
       <c r="B71" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C71" t="s">
         <v>47</v>
       </c>
       <c r="D71" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E71" t="s">
         <v>29</v>
       </c>
       <c r="F71" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G71" t="s">
         <v>19</v>
       </c>
       <c r="H71" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I71" t="s">
-        <v>473</v>
-      </c>
-      <c r="J71" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="J71" t="s">
         <v>52</v>
       </c>
       <c r="K71" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L71" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M71" t="s">
         <v>37</v>
       </c>
       <c r="N71" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="72">
@@ -5517,43 +5509,43 @@
         <v>20247726</v>
       </c>
       <c r="B72" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C72" t="s">
         <v>47</v>
       </c>
       <c r="D72" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E72" t="s">
         <v>17</v>
       </c>
       <c r="F72" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G72" t="s">
         <v>19</v>
       </c>
       <c r="H72" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="I72" t="s">
-        <v>478</v>
-      </c>
-      <c r="J72" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="J72" t="s">
         <v>52</v>
       </c>
       <c r="K72" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L72" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M72" t="s">
         <v>55</v>
       </c>
       <c r="N72" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="73">
@@ -5561,7 +5553,7 @@
         <v>20247773</v>
       </c>
       <c r="B73" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C73" t="s">
         <v>47</v>
@@ -5573,31 +5565,31 @@
         <v>135</v>
       </c>
       <c r="F73" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G73" t="s">
         <v>19</v>
       </c>
       <c r="H73" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="I73" t="s">
-        <v>483</v>
-      </c>
-      <c r="J73" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="J73" t="s">
         <v>52</v>
       </c>
       <c r="K73" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L73" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M73" t="s">
         <v>25</v>
       </c>
       <c r="N73" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="74">
@@ -5605,7 +5597,7 @@
         <v>20247774</v>
       </c>
       <c r="B74" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C74" t="s">
         <v>47</v>
@@ -5617,31 +5609,31 @@
         <v>135</v>
       </c>
       <c r="F74" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G74" t="s">
         <v>19</v>
       </c>
       <c r="H74" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="I74" t="s">
-        <v>488</v>
-      </c>
-      <c r="J74" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="J74" t="s">
         <v>52</v>
       </c>
       <c r="K74" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L74" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M74" t="s">
         <v>25</v>
       </c>
       <c r="N74" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="75">
@@ -5649,43 +5641,43 @@
         <v>20243858</v>
       </c>
       <c r="B75" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C75" t="s">
         <v>39</v>
       </c>
       <c r="D75" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E75" t="s">
         <v>17</v>
       </c>
       <c r="F75" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G75" t="s">
         <v>19</v>
       </c>
       <c r="H75" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I75" t="s">
-        <v>495</v>
-      </c>
-      <c r="J75" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="J75" t="s">
         <v>22</v>
       </c>
       <c r="K75" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L75" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M75" t="s">
         <v>37</v>
       </c>
       <c r="N75" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="76">
@@ -5693,43 +5685,43 @@
         <v>20243877</v>
       </c>
       <c r="B76" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C76" t="s">
         <v>39</v>
       </c>
       <c r="D76" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E76" t="s">
         <v>17</v>
       </c>
       <c r="F76" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G76" t="s">
         <v>19</v>
       </c>
       <c r="H76" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I76" t="s">
-        <v>501</v>
-      </c>
-      <c r="J76" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="J76" t="s">
         <v>22</v>
       </c>
       <c r="K76" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L76" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M76" t="s">
         <v>55</v>
       </c>
       <c r="N76" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="77">
@@ -5737,7 +5729,7 @@
         <v>20247622</v>
       </c>
       <c r="B77" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C77" t="s">
         <v>47</v>
@@ -5749,31 +5741,31 @@
         <v>58</v>
       </c>
       <c r="F77" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G77" t="s">
         <v>19</v>
       </c>
       <c r="H77" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="I77" t="s">
-        <v>507</v>
-      </c>
-      <c r="J77" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="J77" t="s">
         <v>52</v>
       </c>
       <c r="K77" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L77" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M77" t="s">
         <v>55</v>
       </c>
       <c r="N77" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="78">
@@ -5781,43 +5773,43 @@
         <v>20247649</v>
       </c>
       <c r="B78" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C78" t="s">
         <v>47</v>
       </c>
       <c r="D78" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E78" t="s">
         <v>29</v>
       </c>
       <c r="F78" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G78" t="s">
         <v>19</v>
       </c>
       <c r="H78" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I78" t="s">
-        <v>513</v>
-      </c>
-      <c r="J78" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="J78" t="s">
         <v>52</v>
       </c>
       <c r="K78" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L78" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M78" t="s">
         <v>55</v>
       </c>
       <c r="N78" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79">
@@ -5825,43 +5817,43 @@
         <v>20243709</v>
       </c>
       <c r="B79" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C79" t="s">
         <v>39</v>
       </c>
       <c r="D79" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E79" t="s">
         <v>83</v>
       </c>
       <c r="F79" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G79" t="s">
         <v>19</v>
       </c>
       <c r="H79" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="I79" t="s">
-        <v>520</v>
-      </c>
-      <c r="J79" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="J79" t="s">
         <v>22</v>
       </c>
       <c r="K79" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L79" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M79" t="s">
         <v>25</v>
       </c>
       <c r="N79" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="80">
@@ -5869,43 +5861,43 @@
         <v>20243773</v>
       </c>
       <c r="B80" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C80" t="s">
         <v>39</v>
       </c>
       <c r="D80" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E80" t="s">
         <v>41</v>
       </c>
       <c r="F80" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G80" t="s">
         <v>19</v>
       </c>
       <c r="H80" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="I80" t="s">
-        <v>526</v>
-      </c>
-      <c r="J80" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="J80" t="s">
         <v>22</v>
       </c>
       <c r="K80" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L80" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M80" t="s">
         <v>55</v>
       </c>
       <c r="N80" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="81">
@@ -5913,43 +5905,43 @@
         <v>20243776</v>
       </c>
       <c r="B81" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C81" t="s">
         <v>15</v>
       </c>
       <c r="D81" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E81" t="s">
         <v>41</v>
       </c>
       <c r="F81" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G81" t="s">
         <v>19</v>
       </c>
       <c r="H81" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="I81" t="s">
-        <v>531</v>
-      </c>
-      <c r="J81" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="J81" t="s">
         <v>52</v>
       </c>
       <c r="K81" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L81" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M81" t="s">
         <v>37</v>
       </c>
       <c r="N81" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="82">
@@ -5957,43 +5949,43 @@
         <v>20243609</v>
       </c>
       <c r="B82" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C82" t="s">
         <v>15</v>
       </c>
       <c r="D82" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E82" t="s">
         <v>17</v>
       </c>
       <c r="F82" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G82" t="s">
         <v>19</v>
       </c>
       <c r="H82" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="I82" t="s">
-        <v>538</v>
-      </c>
-      <c r="J82" s="1" t="s">
         <v>539</v>
       </c>
+      <c r="J82" t="s">
+        <v>540</v>
+      </c>
       <c r="K82" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L82" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M82" t="s">
         <v>55</v>
       </c>
       <c r="N82" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="83">
@@ -6001,43 +5993,43 @@
         <v>20243574</v>
       </c>
       <c r="B83" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C83" t="s">
         <v>39</v>
       </c>
       <c r="D83" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E83" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F83" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G83" t="s">
         <v>31</v>
       </c>
       <c r="H83" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="I83" t="s">
-        <v>545</v>
-      </c>
-      <c r="J83" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="J83" t="s">
         <v>52</v>
       </c>
       <c r="K83" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="L83" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M83" t="s">
         <v>37</v>
       </c>
       <c r="N83" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="84">
@@ -6045,43 +6037,43 @@
         <v>20243557</v>
       </c>
       <c r="B84" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C84" t="s">
         <v>39</v>
       </c>
       <c r="D84" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E84" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F84" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G84" t="s">
         <v>19</v>
       </c>
       <c r="H84" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I84" t="s">
-        <v>552</v>
-      </c>
-      <c r="J84" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="J84" t="s">
         <v>52</v>
       </c>
       <c r="K84" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L84" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M84" t="s">
         <v>55</v>
       </c>
       <c r="N84" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="85">
@@ -6089,41 +6081,41 @@
         <v>20243471</v>
       </c>
       <c r="B85" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C85" t="s">
         <v>15</v>
       </c>
       <c r="D85" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E85"/>
       <c r="F85" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G85" t="s">
         <v>19</v>
       </c>
       <c r="H85" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="I85" t="s">
-        <v>559</v>
-      </c>
-      <c r="J85" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="J85" t="s">
         <v>52</v>
       </c>
       <c r="K85" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L85" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M85" t="s">
         <v>37</v>
       </c>
       <c r="N85" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86">
@@ -6131,41 +6123,41 @@
         <v>20243468</v>
       </c>
       <c r="B86" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C86" t="s">
         <v>81</v>
       </c>
       <c r="D86" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E86"/>
       <c r="F86" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G86" t="s">
         <v>19</v>
       </c>
       <c r="H86" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="I86" t="s">
-        <v>566</v>
-      </c>
-      <c r="J86" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="J86" t="s">
         <v>195</v>
       </c>
       <c r="K86" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L86" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M86" t="s">
         <v>55</v>
       </c>
       <c r="N86" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87">
@@ -6173,43 +6165,43 @@
         <v>20243318</v>
       </c>
       <c r="B87" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C87" t="s">
         <v>39</v>
       </c>
       <c r="D87" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E87" t="s">
         <v>41</v>
       </c>
       <c r="F87" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G87" t="s">
         <v>19</v>
       </c>
       <c r="H87" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="I87" t="s">
-        <v>573</v>
-      </c>
-      <c r="J87" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="J87" t="s">
         <v>22</v>
       </c>
       <c r="K87" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="L87" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="M87" t="s">
         <v>25</v>
       </c>
       <c r="N87" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88">
@@ -6217,43 +6209,43 @@
         <v>20243234</v>
       </c>
       <c r="B88" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C88" t="s">
         <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E88" t="s">
         <v>17</v>
       </c>
       <c r="F88" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G88" t="s">
         <v>19</v>
       </c>
       <c r="H88" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="I88" t="s">
-        <v>579</v>
-      </c>
-      <c r="J88" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="J88" t="s">
         <v>52</v>
       </c>
       <c r="K88" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="L88" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M88" t="s">
         <v>55</v>
       </c>
       <c r="N88" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89">
@@ -6261,43 +6253,43 @@
         <v>20243259</v>
       </c>
       <c r="B89" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C89" t="s">
         <v>39</v>
       </c>
       <c r="D89" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E89" t="s">
         <v>83</v>
       </c>
       <c r="F89" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G89" t="s">
         <v>19</v>
       </c>
       <c r="H89" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="I89" t="s">
-        <v>585</v>
-      </c>
-      <c r="J89" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="J89" t="s">
         <v>52</v>
       </c>
       <c r="K89" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L89" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M89" t="s">
         <v>55</v>
       </c>
       <c r="N89" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90">
@@ -6305,43 +6297,43 @@
         <v>20243169</v>
       </c>
       <c r="B90" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C90" t="s">
         <v>15</v>
       </c>
       <c r="D90" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E90" t="s">
         <v>17</v>
       </c>
       <c r="F90" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G90" t="s">
         <v>19</v>
       </c>
       <c r="H90" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="I90" t="s">
-        <v>592</v>
-      </c>
-      <c r="J90" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="J90" t="s">
         <v>52</v>
       </c>
       <c r="K90" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="L90" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M90" t="s">
         <v>55</v>
       </c>
       <c r="N90" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91">
@@ -6349,43 +6341,43 @@
         <v>20247112</v>
       </c>
       <c r="B91" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C91" t="s">
         <v>47</v>
       </c>
       <c r="D91" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E91" t="s">
         <v>58</v>
       </c>
       <c r="F91" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="G91" t="s">
         <v>19</v>
       </c>
       <c r="H91" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="I91" t="s">
-        <v>599</v>
-      </c>
-      <c r="J91" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="J91" t="s">
         <v>52</v>
       </c>
       <c r="K91" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="L91" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M91" t="s">
         <v>25</v>
       </c>
       <c r="N91" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92">
@@ -6393,43 +6385,43 @@
         <v>20247015</v>
       </c>
       <c r="B92" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C92" t="s">
         <v>47</v>
       </c>
       <c r="D92" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E92" t="s">
         <v>29</v>
       </c>
       <c r="F92" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="G92" t="s">
         <v>19</v>
       </c>
       <c r="H92" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I92" t="s">
-        <v>605</v>
-      </c>
-      <c r="J92" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="J92" t="s">
         <v>52</v>
       </c>
       <c r="K92" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="L92" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M92" t="s">
         <v>37</v>
       </c>
       <c r="N92" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="93">
@@ -6437,7 +6429,7 @@
         <v>20234494</v>
       </c>
       <c r="B93" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C93" t="s">
         <v>39</v>
@@ -6449,31 +6441,31 @@
         <v>58</v>
       </c>
       <c r="F93" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G93" t="s">
         <v>19</v>
       </c>
       <c r="H93" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="I93" t="s">
-        <v>611</v>
-      </c>
-      <c r="J93" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="J93" t="s">
         <v>52</v>
       </c>
       <c r="K93" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L93" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M93" t="s">
         <v>37</v>
       </c>
       <c r="N93" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="94">
@@ -6481,7 +6473,7 @@
         <v>20234461</v>
       </c>
       <c r="B94" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C94" t="s">
         <v>39</v>
@@ -6493,31 +6485,31 @@
         <v>58</v>
       </c>
       <c r="F94" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G94" t="s">
         <v>19</v>
       </c>
       <c r="H94" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="I94" t="s">
-        <v>617</v>
-      </c>
-      <c r="J94" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="J94" t="s">
         <v>52</v>
       </c>
       <c r="K94" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="L94" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="M94" t="s">
         <v>55</v>
       </c>
       <c r="N94" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="95">
@@ -6525,43 +6517,43 @@
         <v>20234375</v>
       </c>
       <c r="B95" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C95" t="s">
         <v>39</v>
       </c>
       <c r="D95" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E95" t="s">
         <v>17</v>
       </c>
       <c r="F95" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G95" t="s">
         <v>19</v>
       </c>
       <c r="H95" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="I95" t="s">
-        <v>624</v>
-      </c>
-      <c r="J95" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="J95" t="s">
         <v>52</v>
       </c>
       <c r="K95" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="L95" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="M95" t="s">
         <v>37</v>
       </c>
       <c r="N95" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="96">
@@ -6569,43 +6561,43 @@
         <v>20234353</v>
       </c>
       <c r="B96" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C96" t="s">
         <v>39</v>
       </c>
       <c r="D96" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E96" t="s">
         <v>17</v>
       </c>
       <c r="F96" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G96" t="s">
         <v>19</v>
       </c>
       <c r="H96" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="I96" t="s">
-        <v>631</v>
-      </c>
-      <c r="J96" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="J96" t="s">
         <v>52</v>
       </c>
       <c r="K96" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="L96" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="M96" t="s">
         <v>55</v>
       </c>
       <c r="N96" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="97">
@@ -6613,41 +6605,41 @@
         <v>20234346</v>
       </c>
       <c r="B97" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C97" t="s">
         <v>15</v>
       </c>
       <c r="D97" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E97"/>
       <c r="F97" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="G97" t="s">
         <v>31</v>
       </c>
       <c r="H97" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="I97" t="s">
-        <v>638</v>
-      </c>
-      <c r="J97" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="J97" t="s">
         <v>52</v>
       </c>
       <c r="K97" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="L97" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="M97" t="s">
         <v>37</v>
       </c>
       <c r="N97" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="98">
@@ -6655,35 +6647,35 @@
         <v>20253425</v>
       </c>
       <c r="B98" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C98" t="s">
         <v>15</v>
       </c>
       <c r="D98" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E98"/>
       <c r="F98" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G98" t="s">
         <v>19</v>
       </c>
       <c r="H98" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="I98" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="J98" t="s">
         <v>22</v>
       </c>
       <c r="K98" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="L98" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="M98" t="s">
         <v>37</v>
@@ -6695,37 +6687,37 @@
         <v>20253246</v>
       </c>
       <c r="B99" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C99" t="s">
         <v>15</v>
       </c>
       <c r="D99" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E99" t="s">
         <v>17</v>
       </c>
       <c r="F99" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G99" t="s">
         <v>19</v>
       </c>
       <c r="H99" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="I99" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J99" t="s">
         <v>163</v>
       </c>
       <c r="K99" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="L99" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="M99" t="s">
         <v>37</v>
@@ -6737,37 +6729,37 @@
         <v>20247975</v>
       </c>
       <c r="B100" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C100" t="s">
         <v>47</v>
       </c>
       <c r="D100" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E100" t="s">
         <v>17</v>
       </c>
       <c r="F100" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G100" t="s">
         <v>19</v>
       </c>
       <c r="H100" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I100" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J100" t="s">
         <v>52</v>
       </c>
       <c r="K100" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="L100" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="M100" t="s">
         <v>37</v>
@@ -6779,37 +6771,37 @@
         <v>20243937</v>
       </c>
       <c r="B101" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C101" t="s">
         <v>15</v>
       </c>
       <c r="D101" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E101" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F101" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G101" t="s">
         <v>31</v>
       </c>
       <c r="H101" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="I101" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="J101" t="s">
         <v>195</v>
       </c>
       <c r="K101" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="L101" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="M101" t="s">
         <v>37</v>
@@ -6821,35 +6813,35 @@
         <v>20243467</v>
       </c>
       <c r="B102" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C102" t="s">
         <v>15</v>
       </c>
       <c r="D102" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E102"/>
       <c r="F102" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="G102" t="s">
         <v>31</v>
       </c>
       <c r="H102" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="I102" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="J102" t="s">
         <v>52</v>
       </c>
       <c r="K102" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="L102" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="M102" t="s">
         <v>55</v>

--- a/Objets_parlementaires_CDF_EFK.xlsx
+++ b/Objets_parlementaires_CDF_EFK.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="726">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -56,6 +56,12 @@
     <t xml:space="preserve">Date_MAJ</t>
   </si>
   <si>
+    <t xml:space="preserve">Texte_FR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texte_DE</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.4785</t>
   </si>
   <si>
@@ -92,7 +98,13 @@
     <t xml:space="preserve">Élu &amp; Conseil fédéral</t>
   </si>
   <si>
-    <t xml:space="preserve">2026-02-17</t>
+    <t xml:space="preserve">2026-02-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Le Conseil fédéral est chargé de prendre les dispositions nécessaires pour que les montants que la Confédération encaissera en exécution des accords respectivement conclu avec le canton de Genève et à conclure avec celui de Bâle-Ville pour rémunérer l'engagement de personnels de l'OFDF dans les contrôles aux frontières dans les aéroports de Genève et de Bâle soient intégralement affectés à l'OFDF, en sus du budget ordinaire dudit Office, et non pas versés dans la caisse générale de la Confédération.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Der Bund nimmt aufgrund der mit dem Kanton Genf abgeschlossenen bzw. der mit dem Kanton Basel-Stadt abzuschliessenden Vereinbarung zur Vergütung des Einsatzes von BAZG-Personal bei den Grenzkontrollen an den Flughäfen Genf und Basel Geld ein. Der Bundesrat wird beauftragt, dafür zu sorgen, dass diese Beträge vollumfänglich dem BAZG zugewiesen werden, und zwar zusätzlich zum ordentlichen Budget des Amtes; die Einnahmen sollen nicht in die allgemeine Bundeskasse fliessen.&lt;/p&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">25.4620</t>
@@ -128,6 +140,12 @@
     <t xml:space="preserve">Élu</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Le Conseil fédéral est chargé de créer les bases légales nécessaires pour que l’administration fédérale puisse fournir aussi rapidement que possible des données structurées de qualité, à jour et surtout interopérables et comparables à l’échelle internationale qui puissent être réutilisées (notamment par l’intelligence artificielle [IA]) à des fins de recherche, de planification et de pilotage. Les normes contraignantes en la matière pour l’administration fédérale devront être édictées. Le Conseil fédéral est en outre chargé de désigner les données administratives qui devront être ainsi harmonisées, normalisées et rendues techniquement accessibles en priorité. Il faudra notamment examiner l’opportunité de fournir au public des données de registre supplémentaires. Les projets pilotes visés à l’art.&amp;nbsp;15 de la loi fédérale du 17&amp;nbsp;mars 2023 sur l’utilisation des moyens électroniques pour l’exécution des tâches des autorités (RS&amp;nbsp;172.019) sont susceptibles d’accélérer ce processus et devront être proposés par le Conseil fédéral avec les ressources nécessaires.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Der Bundesrat wird beauftragt, die rechtlichen Grundlagen zu erlassen, damit baldmöglichst&amp;nbsp; qualitätsgesicherte, aktuelle und insbesondere international anschlussfähige und vergleichbare strukturierte Daten der Bundesverwaltung zur Mehrfachnutzung (unter anderem durch KI) für Forschung, Planung und Steuerung zur Verfügung gestellt werden.&amp;nbsp;Diesbezügliche verbindliche Standards für die Bundesverwaltung sind zu erlassen.&amp;nbsp;Der Bundesrat wird zudem beauftragt, eine prioritäre Auswahl jener Verwaltungsdaten zu definieren, die für eine zügige und KI-taugliche Mehrfachnutzung zuerst harmonisiert, standardisiert und technisch zugänglich gemacht werden sollen.&amp;nbsp;Insbesondere die öffentliche Bereitstellung weiterer Registerdaten ist zu prüfen. Gezielte Pilotversuche nach Art. 15 EMBAG können dies beschleunigen und sind vom Bundesrat mit den benötigten Mitteln zu beantragen.&lt;/p&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.4696</t>
   </si>
   <si>
@@ -152,6 +170,12 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254696</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;L'efficacité des subventions, à savoir le rapport entre les montants versés et l'énergie supplémentaire effectivement produite ou fournie au cours de l'année, en particulier en hiver, est essentielle pour mener une discussion factuelle sur la politique énergétique. Certes, les dépenses du fonds alimenté par le supplément réseau sont détaillées dans le compte d’État et l’augmentation des capacités de production est répertoriée dans les statistiques de l'Office fédéral de l'énergie (OFEN). Cependant, aucune vue d'ensemble systématique de ces données n'est fournie par la Confédération, alors qu’un tel instrument permettrait aux responsables politiques et au grand public de mieux cerner l'efficacité du soutien accordé aux différentes technologies.&lt;/p&gt;&lt;p&gt;Dans le cadre de son audit de 2023 concernant l’impact des subventions allouées aux grandes installations photovoltaïques, le Contrôle fédéral des finances a explicitement demandé que l’OFEN publie d'ici à fin 2025 une étude sur l'efficacité des subventions accordées à la technologie photovoltaïque. Si l’OFEN a annoncé dans son rapport son intention de publier cet indicateur dans le « Cockpit RU » de Pronovo à partir de 2024, il ne l’a pas encore fait. La Confédération reconnaît la pertinence d’une évaluation transparente de l’utilisation des fonds.&lt;/p&gt;&lt;p&gt;Pour des raisons d'égalité de traitement, de crédibilité de la politique d'encouragement et de capacité de pilotage stratégique, il est néanmoins nécessaire d'assurer cette transparence pour toutes les technologies encouragées, et pas seulement pour le photovoltaïque. La Confédération dispose déjà des données nécessaires. L’OFEN peut publier les données concernant l’efficacité du soutien en se fondant sur les bases légales en vigueur et n’a pas besoin d’un mandat spécifique à cet effet.&lt;/p&gt;&lt;p&gt;Je prie dès lors le Conseil fédéral de répondre aux questions suivantes :&lt;/p&gt;&lt;ol style="list-style-type:decimal;"&gt;&lt;li&gt;Est-il disposé à publier régulièrement et de manière standardisée les données concernant l'efficacité des subventions pour tous les instruments de promotion et toutes les technologies (photovoltaïque, force hydraulique, biomasse, énergie éolienne, etc.) ?&lt;/li&gt;&lt;li&gt;Si non, quelles sont les raisons juridiques ou organisationnelles qui s'y opposent, alors que les montants versés et les nouvelles installations sont déjà intégralement recensés aujourd'hui ?&lt;/li&gt;&lt;li&gt;Le Conseil fédéral partage-t-il l'avis selon lequel une présentation transparente de l'efficacité des subventions est nécessaire au pilotage politique de la transition énergétique, notamment pour ce qui concerne les incitations ciblées, la transparence des coûts et l’adhésion de la population ?&lt;/li&gt;&lt;li&gt;Comment peut-il garantir que l'obligation de publier à partir de 2026 les données relatives à l'efficacité des subventions allouées au photovoltaïque sera mise en œuvre de manière complète et rapide dans le « cockpit RU » ?&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Die Fördereffizienz – also das Verhältnis zwischen ausgerichteten Fördermitteln und der tatsächlich produzierten oder zusätzlich bereitgestellten Energie über das Jahr - und insbesondere im Winter – ist zentral für eine faktenbasierte energiepolitische Diskussion. Heute werden zwar die einzelnen Ausgaben des Netzzuschlagsfonds in der Staatsrechnung detailliert offengelegt und der Zubau an Produktionskapazitäten in den Statistiken des Bundesamtes für Energie (BFE) ausgewiesen. Was jedoch fehlt, ist eine systematische Übersicht dieser Daten durch den Bund, so dass die Fördereffizienz der einzelnen Technologien für Politik und Öffentlichkeit nachvollziehbar wird.&lt;/p&gt;&lt;p&gt;Die EFK hat 2023 im Rahmen ihrer Prüfung «Wirkung der Subventionen an grosse Photovoltaikanlagen» explizit festgehalten, dass das BFE bis Ende 2025 die Fördereffizienz für die PV-Technologie veröffentlicht muss. Das BFE hat im Bericht angekündigt, diese Kennzahl im «Cockpit EIV» von Pronovo ab 2024 auszuweisen, was bisher aber nicht erfolgt ist. Der Bund anerkennt die Relevanz einer transparenten Beurteilung des Mitteleinsatzes im Grundsatz.&lt;/p&gt;&lt;p&gt;Aus Gründen der Gleichbehandlung, der Glaubwürdigkeit der Förderpolitik und der strategischen Steuerungsfähigkeit ist es jedoch notwendig, diese Transparenz für alle geförderten Technologien herzustellen – nicht nur für die Photovoltaik. Die erforderlichen Daten liegen beim Bund bereits vor. Eine Veröffentlichung der Fördereffizienz kann vom BFE gestützt auf geltende Verordnungen und Gesetzesgrundlagen vorgenommen werden und erfordert keinen zusätzlichen gesetzlichen Auftrag.&lt;/p&gt;&lt;p&gt;Ich bitte den Bundesrat, folgende Fragen zu beantworten:&lt;/p&gt;&lt;ol style="list-style-type:decimal;"&gt;&lt;li&gt;Ist der Bundesrat bereit, die Fördereffizienz für sämtliche Förderinstrumente und Technologien (PV, Wasserkraft, Biomasse, Wind usw.) regelmässig und standardisiert zu veröffentlichen?&lt;/li&gt;&lt;li&gt;Falls nein: Welche rechtlichen oder organisatorischen Gründe sprechen dagegen, obwohl die Auszahlungen und der Zubau bereits heute vollständig erhoben werden?&lt;/li&gt;&lt;li&gt;Teilt der Bundesrat die Ansicht, dass eine transparente Darstellung der Fördereffizienz für die politische Steuerung der Energiewende notwendig ist – gerade im Hinblick auf zielgerichtete Anreize, Kostenwahrheit und Akzeptanz der Bevölkerung?&lt;/li&gt;&lt;li&gt;Wie stellt der Bundesrat sicher, dass die Veröffentlichungspflicht der Fördereffizienz für die PV ab 2026 im Cockpit EIV vollständig und zeitnah umgesetzt wird?&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.8194</t>
   </si>
   <si>
@@ -182,6 +206,12 @@
     <t xml:space="preserve">Conseil fédéral</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Plusieurs cantons romands, dont Fribourg, appliquent depuis des années un moratoire sur les nouveaux équipements médicaux lourds (IRM, CT-Scan), alors qu’ils comptent parmi ceux où les coûts de la santé par habitant sont les plus élevés.&amp;nbsp;&lt;br&gt;- La Confédération dispose-t-elle d’analyses et de chiffres sur l’efficacité de ces moratoires?&amp;nbsp;&lt;br&gt;- Ces moratoires ont-ils réduit le volume d’imagerie et les coûts?&amp;nbsp;&lt;br&gt;- Les cantons avec le plus d’équipements par habitant réalisent-ils davantage d’imagerie par habitant ?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Mehrere Westschweizer Kantone, darunter Freiburg, haben vor Jahren ein Moratorium für neue medizinische Grossgeräte&amp;nbsp;(MRI, CT) verhängt, und trotzdem gehören sie zu den Kantonen mit den höchsten Gesundheitskosten pro Einwohnerin und Einwohner.&amp;nbsp;&lt;br&gt;– Verfügt der Bund über Analysen und Zahlen zur Wirksamkeit dieser Moratorien?&amp;nbsp;&lt;br&gt;– Haben diese Moratorien das Leistungsvolumen der medizinischen Bildgebung sowie die Kosten verringert?&amp;nbsp;&lt;br&gt;– Führen die Kantone mit den meisten Geräten pro Einwohnerin und Einwohner mehr bildgebende Verfahren durch?&lt;/p&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.8273</t>
   </si>
   <si>
@@ -203,6 +233,12 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20258273</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Chaque année, la Suisse délivre environ 100&amp;nbsp;000 autorisations pour le commerce d'espèces végétales et animales menacées et effectue quelque 20&amp;nbsp;000 contrôles à l'importation. Elle perçoit à cet effet des émoluments d'environ 4&amp;nbsp;millions de francs. Selon le CDF, ces émoluments ne couvriraient pas les coûts et constitueraient donc une subvention dommageable à la biodiversité.&lt;br&gt;Compte tenu des débats en cours concernant le budget,&lt;br&gt;le Conseil fédéral est-il prêt à introduire des émoluments couvrant les coûts dans ce domaine&amp;nbsp;?&lt;br&gt;Si oui, quand&amp;nbsp;?&lt;br&gt;Si non, pourquoi&amp;nbsp;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Die Schweiz stellt jährlich rund 100’000 Bewilligungen für den Handel mit gefährdeten Pflanzen- und Tierarten aus und führt gegen 20’000 Einfuhrkontrollen durch. Dafür erhebt sie Gebühren von ca. CHF 4 Mio. Laut EFK dürften diese Gebühren nicht kostendeckend und damit eine Subvention mit biodiversitätsschädigender Wirkung sein.&lt;br&gt;Angesichts der laufenden Debatten um den Finanzhaushalt:&lt;br&gt;Ist der Bundesrat bereit,&amp;nbsp;hier&amp;nbsp;kostendeckende Gebühren einzuführen?&lt;br&gt;Wenn ja, bis wann?&lt;br&gt;Wenn&amp;nbsp;nein, warum nicht?&lt;/p&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.4463</t>
   </si>
   <si>
@@ -224,6 +260,12 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254463</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Le Conseil fédéral est chargé de proposer à la Conférence des gouvernements cantonaux (CdC) d’inclure dans le projet «&amp;nbsp;Désenchevêtrement&amp;nbsp;27 – Répartition des tâches entre la Confédération et les cantons&amp;nbsp;» les trois groupes de tâches supplémentaires suivants&amp;nbsp;: a) registres nationaux, b) infrastructures touristiques, et c) prévention des dangers naturels. Le mandat commun de la Confédération et de la CdC devra être modifié en conséquence.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Der Bundesrat wird beauftragt, der Konferenz der Kantonsregierungen zu beantragen, die drei folgenden Aufgabenbereiche zusätzlich in das Projekt «Entflechtung 27 – Aufgabenteilung Bund-Kantone» aufzunehmen: a) Gesamtschweizerische Register, b) Tourismus-Infrastruktur, c) Prävention von Naturgefahren. Das gemeinsame Mandat von Bund und KdK sei entsprechend zu ergänzen.&lt;/p&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.479</t>
   </si>
   <si>
@@ -254,6 +296,12 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20250479</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;i&gt;L’art.&amp;nbsp;10 du règlement du Conseil national est complété de manière qu’une Commission d’examen de la réglementation (CdER) soit mise sur pied. Le nouvel article est le suivant&amp;nbsp;:&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;i&gt;Le conseil compte les commissions permanentes suivantes&amp;nbsp;:&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt; 1. Commission des finances (CdF)&amp;nbsp;;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt; 2. Commission de gestion (CdG)&amp;nbsp;;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt; 3. Commission de politique extérieure (CPE)&amp;nbsp;;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt; 4. Commission de la science, de l’éducation et de la culture (CSEC)&amp;nbsp;;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt; 5. Commission de la sécurité sociale et de la santé publique (CSSS)&amp;nbsp;;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt; 6. Commission de l’environnement, de l’aménagement du territoire et de l’énergie (CEATE)&amp;nbsp;;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt; 7. Commission de la politique de sécurité (CPS)&amp;nbsp;;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt; 8. Commission des transports et des télécommunications (CTT)&amp;nbsp;;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt; 9. Commission de l’économie et des redevances (CER)&amp;nbsp;;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt;10. Commission des institutions politiques (CIP)&amp;nbsp;;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt;11. Commission des affaires juridiques (CAJ)&amp;nbsp;;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt;12. Commission de l’immunité (CdI)&amp;nbsp;;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt;13. Commission d’examen de la réglementation (CdER).&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;i&gt;L’art.&amp;nbsp;2, al.&amp;nbsp;1, de la loi sur le Parlement (LParl) est complété par la phrase suivante&amp;nbsp;:&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt;«&amp;nbsp;Une fois par an, pendant l’une des sessions ordinaires, la Commission d’examen de la réglementation de chaque conseil soumet à ce même conseil les résultats de ses travaux ainsi que ses propositions de loi.&amp;nbsp;»&lt;/i&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;i&gt;Art. 10 des Geschäftsreglements des Nationalrates (GRN) wird dahingehend ergänzt, dass eine ständige Regulierungsprüfungskommission (RPK) eingesetzt wird. Der neue Artikel lautet:&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;i&gt;Es bestehen folgende ständige Kommissionen:&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt; 1. Finanzkommission (FK);&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt; 2. Geschäftsprüfungskommission (GPK);&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt; 3. Aussenpolitische Kommission (APK);&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt; 4. Kommission für Wissenschaft, Bildung und Kultur (WBK);&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt; 5. Kommission für soziale Sicherheit und Gesundheit (SGK);&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt; 6. Kommission für Umwelt, Raumplanung und Energie (UREK);&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt; 7. Sicherheitspolitische Kommission (SiK);&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt; 8. Kommission für Verkehr und Fernmeldewesen (KVF);&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt; 9. Kommission für Wirtschaft und Abgaben (WAK);&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt;10. Staatspolitische Kommission (SPK);&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt;11. Kommission für Rechtsfragen (RK);&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt;12.Immunitätskommission (IK);&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt;13. Regulierungsprüfungskommission (RPK);&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;i&gt;Art. 2 Abs. 1 des Parlamentsgesetzes (ParlG) wird durch folgenden Satz ergänzt:&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt;«Einmal jährlich, während einer der ordentlichen Sessionen, unterbreitet die Regulierungsprüfungskommission (RPK) jedes Rates ebendiesem ihre Arbeitsergebnisse sowie ihre Gesetzesvorschläge.»&lt;/i&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.4281</t>
   </si>
   <si>
@@ -278,6 +326,12 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254281</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Le Conseil fédéral est chargé de procéder à un examen et de présenter des pistes pour développer les programmes d’agglomération avec les objectifs suivants :&amp;nbsp;&lt;/p&gt;&lt;ul style="list-style-type:disc;"&gt;&lt;li&gt;Une meilleure coordination entre les planifications de la Confédération, des cantons et des communes, et donc une intégration plus complète des projets fédéraux dans les programmes d’agglomération, par exemple au moyen d’instances de planification inter-gouvernementales ;&lt;/li&gt;&lt;li&gt;Une meilleure coordination entre les différents modes de transport ainsi qu’entre aménagement du territoire et mobilité&amp;nbsp;&lt;/li&gt;&lt;li&gt;Un processus de planification optimisé et un contrôle de l’efficacité renforcé.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Der Bundesrat wird beauftragt, die&amp;nbsp;Agglomerationsprogramme&amp;nbsp;zu prüfen und Wege aufzuzeigen, wie sie auf folgende Ziele hin weiterentwickelt werden können:&amp;nbsp;&lt;/p&gt;&lt;ul style="list-style-type:disc;"&gt;&lt;li&gt;bessere Koordination zwischen den Planungen von Bund, Kantonen und Gemeinden und damit eine umfassendere Integration von Bundesprojekten in die Agglomerationsprogramme, z.B. durch Planungsgremien, in denen alle staatlichen Ebenen vertreten sind;&lt;/li&gt;&lt;li&gt;bessere Koordination zwischen den verschiedenen Verkehrsmitteln sowie zwischen Raumplanung und Mobilität;&amp;nbsp;&lt;/li&gt;&lt;li&gt;Optimierung des Planungsprozesses und verstärkte Wirksamkeitskontrolle.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.4317</t>
   </si>
   <si>
@@ -296,6 +350,12 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254317</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Le Conseil fédéral est chargé de présenter une modification de la loi fédérale sur la radio et la télévision (LRTV) afin de soumettre la SSR à la haute surveillance financière du Contrôle fédéral des finances (CDF) sans porter atteinte à l’autonomie des programmes.&lt;/p&gt;&lt;p&gt;Il respectera les principes suivants :&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;1. Garantir l’autonomie dans la conception des programmes visée à l’art. 93, al. 3, Cst.&lt;/p&gt;&lt;p&gt;L’indépendance de la SSR dans la conception des programmes et dans ses activités rédactionnelles restera entièrement garantie.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;2. Éviter les doublons&lt;/p&gt;&lt;p&gt;La répartition des tâches entre l’OFCOM, le DETEC, l’organe de révision interne de la SSR et le CDF doit être clairement harmonisée et coordonnée, comme c’est le cas pour des entreprises comparables qui sont soumises à la surveillance du CDF (par ex. la Poste, Swisscom et les CFF). Il conviendra d’éviter les doublons lors des contrôles afin de maintenir l’efficacité du processus de contrôle. L’indépendance du CDF, telle qu’elle est définie dans la loi sur le Contrôle des finances, sera garantie en permanence.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;3. Assurer une surveillance complémentaire par le CDF&lt;/p&gt;&lt;p&gt;La surveillance actuelle par le DETEC et l’OFCOM et le contrôle des états financiers selon le droit de la société anonyme seront maintenus sans être remplacés. Lors du contrôle, le CDF agira de manière complémentaire et ciblée et interviendra de manière autonome et indépendante là où sa position particulière et sa spécialisation (par ex. contrôles de l’économicité) lui permettent de créer une plus-value, comme c’est le cas par rapport aux révisions internes, quand il définit lui-même l’accent qu’il va mettre.&amp;nbsp;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Der Bundesrat wird beauftragt, eine Änderung des Bundesgesetzes über Radio und Fernsehen (RTVG) vorzulegen, damit die SRG der finanziellen Oberaufsicht der eidgenössischen Finanzkontrolle (EFK) ohne Beeinträchtigung der Programmautonomie, unterstellt wird.&lt;/p&gt;&lt;p&gt;Folgende Bedingungen sollen dabei berücksichtigt werden:&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;1. Programmautonomie gemäss Bundesverfassung (Art. 93 Abs. 3 BV):&lt;/p&gt;&lt;p&gt;Die Unabhängigkeit der SRG in der Programmgestaltung und redaktionellen Tätigkeit bleibt vollständig gewährleistet.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;2. Vermeidung von Doppelspurigkeiten:&lt;/p&gt;&lt;p&gt;Die Aufgabenverteilung zwischen BAKOM, UVEK, interner Revision SRG und EFK ist klar abzustimmen und zu koordinieren, wie das bei vergleichbaren Unternehmen, welche der Aufsicht der EFK unterstehen (z.B. Post, Swisscom, SBB der Fall ist. Doppelspurigkeiten bei der Prüfung sollen vermieden werden, um den Prüfungsprozess effizient zu halten. Die Unabhängigkeit der EFK gemäss Finanzkontrollgesetz bleibt hierbei jederzeit gewahrt.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;3. Ergänzende Aufsicht durch die EFK:&lt;/p&gt;&lt;p&gt;Die bestehende Aufsicht durch UVEK/BAKOM und die aktienrechtliche Abschlussprüfung bleiben erhalten und werden nicht ersetzt. Die EFK wirkt bei der Prüfung gezielt ergänzend und wird selbständig und unabhängig dort eingesetzt, wo sie durch ihre Sonderstellung und Spezialisierung (z.B. Wirtschaftlichkeitsprüfungen) einen Mehrwert schaffen kann, wie zum Beispiel gegenüber internen Revisionen wo der Fokus selbst definiert wird.&amp;nbsp;&lt;/p&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.4145</t>
   </si>
   <si>
@@ -317,6 +377,12 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254145</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Le Conseil fédéral est chargé d’adapter l’examen des subventions tel qu’il est réglé dans la loi sur les subventions (LSu) de manière à mettre en place un ensemble de mesures permettant de réduire les subventions nuisibles.&amp;nbsp;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Der Bundesrat wird beauftragt, die Subventionsprüfung gemäss Subventionsgesetz (SuG) so anzupassen, dass daraus ein Paket für einen Abbau von schädlichen Subventionen hervorgeht.&amp;nbsp;&lt;/p&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.4188</t>
   </si>
   <si>
@@ -335,6 +401,12 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254188</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Le Conseil fédéral est chargé d'adapter le cadre légal et réglementaire de sorte que les patients aient un accès rapide aux dernières innovations et à un large éventail de médicaments en Suisse. L'objectif sera de renforcer la sécurité de l'approvisionnement et de raccourcir le délai entre l'autorisation d'un médicament et sa disponibilité effective pour les patients.&lt;/p&gt;&lt;p&gt;La Suisse devra atteindre au moins le niveau de l'Allemagne en ce qui concerne la disponibilité de nouveaux traitements, mesurée par la disponibilité totale dans tous les domaines thérapeutiques selon l’indicateur Patients W.A.I.T. de l'EFPIA.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Der Bundesrat wird beauftragt, die regulatorischen und gesetzlichen Rahmenbedingungen so anzupassen, dass der rasche und breite Zugang für Patientinnen und Patienten in der Schweiz zu neuen, innovativen Medikamenten sichergestellt ist. Ziel ist es, die Versorgungssicherheit zu stärken und die Zeitspanne zwischen der Zulassung eines Medikaments und seiner tatsächlichen Verfügbarkeit für die Patientinnen und Patienten zu verkürzen.&lt;/p&gt;&lt;p&gt;Dabei soll die Schweiz bezüglich der Verfügbarkeit neuer Therapien mindestens das Niveau von Deutschland erreichen, gemessen an der vollen Verfügbarkeit über alle Therapiegebiete» im EFPIA Patients W.A.I.T. Indicator.&lt;/p&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.4225</t>
   </si>
   <si>
@@ -353,6 +425,12 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254225</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Le Conseil fédéral a répondu à ma question 25.7494 que les pesticides contenant des PFAS sont autorisés pour des utilisations agricoles et non agricoles très spécifiques, par exemple sur les pelouses et les terrains de sport ou sur les platebandes ornementales.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Il affirme que les avantages et les risques liés à l’utilisation des produits phytosanitaires sont examinés lors de la procédure d’homologation. L’autorisation serait accordée si les dangers et les risques pour les êtres humains, les animaux et l’environnement sont jugés acceptables. Or, selon diverses sources, moins de 1 % des PFAS ont été étudiés à l’échelon mondial quant à leurs effets sur la santé et ceux qui ont été étudiés ont pratiquement tous révélé une toxicité à long terme pour les êtres humains.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Le Conseil fédéral ne dispose pas d'une vue d'ensemble des lieux où les produits phytosanitaires sont utilisés. Cependant, les pesticides contenant des PFAS sont de toute évidence autorisés dans des lieux fréquentés par des enfants : sur les pelouses des terrains de sport, dans les parcs, les aires de jeux, les quartiers résidentiels, etc. Les personnes qui utilisent ces produits dans l'agriculture ou dans les jardins sont également susceptibles d'être exposées à des risques pour leur santé.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Je prie dès lors le Conseil fédéral de répondre aux questions suivantes :&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;ol&gt;&lt;li&gt;Est-il exact que moins de 1 % des PFAS ont été testés à l’échelle mondiale quant à leurs effets sur la santé et que ceux qui ont fait l’objet de recherches se sont pratiquement toujours révélés toxiques pour l’être humain à long terme ? Si oui, sur quelle base la Confédération peut-elle procéder à une évaluation fiable des risques et à une pesée des intérêts dans le cadre de la procédure d'homologation ? Où ces informations sont-elles présentées de manière transparente ?&lt;/li&gt;&lt;li&gt;Comment le Conseil fédéral justifie-t-il l’homologation de pesticides contenant des PFAS pour des utilisations à proximité immédiate d'enfants, par exemple sur des terrains de sport, des aires de jeux ou dans des quartiers résidentiels, alors que les PFAS étudiés se sont presque toujours révélés toxiques à long terme ?&lt;/li&gt;&lt;li&gt;Comment le Conseil fédéral évalue-t-il les conséquences potentielles à long terme des pesticides contenant des PFAS sur les êtres humains, les animaux et l'environnement sans recourir à une biosurveillance systématique de la population ?&lt;/li&gt;&lt;li&gt;Pourquoi ne dispose-t-on pas d'une vue d'ensemble des endroits où les pesticides contenant des PFAS sont effectivement utilisés en Suisse ? Un système tel que digiFLUX pourrait-il garantir cette transparence à l'avenir et quels avantages le public et les autorités pourraient-ils en tirer ?&lt;/li&gt;&lt;li&gt;Quels enseignements le Conseil fédéral tire-t-il des critiques formulées à maintes reprises, notamment dans le rapport d'audit CDF-23489, concernant sa pratique en matière d'homologation ? Quelles améliorations sont prévues, à quelle échéance ?&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Der Bundesrat antwortet auf meine Frage 25.7494 Pestizide mit PFAS würden für «sehr spezifische Anwendungen zugelassen», in der Landwirtschaft und im nichtlandwirtschaftlichen Bereich, etwa in Zier- und Sportrasen oder in Zierpflanzen.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Bei der Zulassung würden «der Nutzen und die mit der Anwendung verbundenen Risiken» geprüft. Eine Zulassung werde erteilt, wenn die Gefahren und Risiken für Mensch, Tier und Umwelt als akzeptierbar beurteilt würden. Laut verschiedenen Quellen wurden weltweit jedoch weniger als 1% aller PFAS auf ihre gesundheitlichen Auswirkungen untersucht. Bei den untersuchten PFAS zeigte sich offenbar fast immer eine chronische Toxizität für Menschen.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Der Bundesrat verfügt über keinen systematischen Überblick darüber, wo PSM ausgebracht werden. PFAS-Pestizide sind aber offenbar für die Anwendung in nächster Nähe von Kindern zugelassen: In Rasen von Sportplätzen, Pärken, Kinderspielplätzen, Wohnquartieren usw. Auch Menschen, die die Mittel in der Landwirtschaft oder in Gärten anwenden, dürften Gesundheitsrisiken ausgesetzt sein.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Ich bitte den Bundesrat, folgende Fragen zu beantworten:&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;ol&gt;&lt;li&gt;Ist es korrekt, dass weltweit weniger als 1% aller PFAS überhaupt auf gesundheitliche Auswirkungen geprüft wurden und sich bei jenen, die erforscht wurden, fast immer eine chronische Giftigkeit für Menschen zeigte? Falls ja: Auf welcher Basis kann der Bund in der Zulassungspraxis eine verlässliche Risikoabschätzung und Interessenabwägung vornehmen und wo sind sie transparent dargelegt?&lt;/li&gt;&lt;li&gt;Wie begründet der Bundesrat die Zulassung von PFAS-Pestiziden für Anwendungen in unmittelbarer Nähe von Kindern, etwa auf Sportplätzen, Spielwiesen oder in Wohnquartieren, wenn bei den untersuchten PFAS fast immer eine chronische Giftigkeit nachgewiesen wurde?&lt;/li&gt;&lt;li&gt;Wie prüft der Bundesrat die möglichen Langzeitfolgen von PFAS-Pestiziden für Menschen, Tiere und Umwelt ohne ein systematisches Human-Biomonitoring?&lt;/li&gt;&lt;li&gt;Warum gibt es keinen Überblick darüber, wo PFAS-haltige Pestizide in der Schweiz tatsächlich eingesetzt werden? Könnte ein System wie digiFLUX diese Transparenz künftig gewährleisten und welchen konkreten Nutzen hätten Öffentlichkeit und Behörden davon?&lt;/li&gt;&lt;li&gt;Welche Lehren zieht der Bundesrat aus der wiederholten Kritik, etwa im Prüfbericht EFK-23489, an seiner Zulassungspraxis, und welche konkreten Verbesserungen sind bis wann geplant?&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.4234</t>
   </si>
   <si>
@@ -371,6 +449,12 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254234</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Le Conseil fédéral est chargé de modifier le règlement sur l’assurance-invalidité de manière à ce que les subventions allouées aux organisations d’aide privée aux invalides en vertu de l’art.&amp;nbsp;74 LAI soient adaptées aux besoins des bénéficiaires sans modification de leur montant.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Les fonds ainsi libérés pourront être utilisés pour financer des prestations dont le besoin est avéré mais qui ne sont pas couvertes à l’heure actuelle, ainsi que pour promouvoir l’innovation.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Der Bundesrat soll mittels Verordnungsänderung dafür sorgen, dass die ausgerichteten Finanzhilfen nach Art. 74 des Invalidenversicherungsgesetzes an die Organisationen der privaten Behindertenhilfe sich bei gleichbleibendem Umfang am Bedarf orientieren.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Die freiwerdenden Mittel können für heute nicht gedeckte Leistungen mit ausgewiesenem Bedarf und zur Innovationsförderung eingesetzt werden.&lt;/p&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.4071</t>
   </si>
   <si>
@@ -392,6 +476,12 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254071</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;En Suisse, les chevaux ont une particularité&amp;nbsp;: ils sont enregistrés soit comme animaux de compagnie, soit comme animaux de rente. L'année dernière pour la première fois, davantage de chevaux ont été enregistrés comme animaux de compagnie plutôt que comme animaux de rente. Cette pratique conduit à l'incinération de très nombreux animaux après leur mort. Plusieurs milliers de tonnes de protéines animales sont ainsi perdues chaque année.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Au vu des discussions sur le développement durable, l'économie circulaire et le gaspillage alimentaire, on peut s'interroger sur la pertinence de cette réglementation, d'autant plus qu'un cheval enregistré comme animal de rente peut également être incinéré pour des raisons émotionnelles&amp;nbsp;: faire cette distinction perd donc également de sa clarté et de sa pertinence de ce point de vue.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;La question du rôle que le cheval jouera à l’avenir dans l'agriculture revêt de l’importance dans le cadre de la politique agricole 2030 (PA2030). Traditionnellement, le cheval était considéré comme un animal de travail et de rente, mais aujourd'hui, c'est l'utilisation comme animal de loisirs et de sport qui prévaut. Quelles en sont les conséquences pour l'agriculture, la politique relative à la détention d’animaux et l'utilisation des ressources&amp;nbsp;?&lt;br&gt;&lt;br&gt;&amp;nbsp;Je prie le Conseil fédéral de répondre aux questions suivantes&amp;nbsp;:&lt;br&gt;&amp;nbsp;&lt;/p&gt;&lt;ol style="list-style-type:decimal;"&gt;&lt;li&gt;Pourquoi la Suisse maintient-elle cette réglementation spéciale pour les chevaux (animal de compagnie vs animal de rente), alors que les pays voisins y renoncent&amp;nbsp;?&lt;br&gt;&amp;nbsp;&lt;/li&gt;&lt;li&gt;Quelles mesures concrètes le Conseil fédéral examine-t-il ou prend-il pour supprimer cette distinction ou pour l'harmoniser avec les normes internationales&amp;nbsp;?&lt;br&gt;&amp;nbsp;&lt;/li&gt;&lt;li&gt;Est-il lui aussi d’avis que le système actuel constitue une forme de gaspillage alimentaire, étant donné que de grandes quantités de protéines sont brûlées chaque année sans être utilisées&amp;nbsp;?&lt;br&gt;&amp;nbsp;&lt;/li&gt;&lt;li&gt;Sur quelles bases de la médecine vétérinaire ou de la législation sur les denrées alimentaires cette distinction se fonde-t-elle&amp;nbsp;? Sont-elles encore justifiées aujourd’hui d'un point de vue scientifique&amp;nbsp;?&lt;br&gt;&amp;nbsp;&lt;/li&gt;&lt;li&gt;Le Conseil fédéral est-il prêt à examiner des solutions autres que l'incinération dans l'esprit de l'économie circulaire (par ex. utilisation pour l'alimentation animale, les aliments spéciaux ou à des fins pharmaceutiques) afin de mieux valoriser les ressources&amp;nbsp;?&lt;br&gt;&amp;nbsp;&lt;/li&gt;&lt;li&gt;Comment évalue-t-il les obstacles administratifs et financiers auxquels sont actuellement confrontés les détenteurs d'animaux qui souhaitent enregistrer leur cheval comme animal de rente, et estime-t-il qu'une réforme soit nécessaire en la matière&amp;nbsp;?&lt;br&gt;&amp;nbsp;&lt;/li&gt;&lt;li&gt;Quelle importance accorde-t-il aux équidés dans la PA2030&amp;nbsp;? Quel rôle les chevaux doivent-ils encore jouer dans l'agriculture à l'avenir&amp;nbsp;?&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;In der Schweiz gilt bei Pferden eine Besonderheit: Sie werden entweder als Heim- oder als Nutztiere registriert. Im vergangenen Jahr waren erstmals mehr Pferde als Heim- statt Nutztiere eingetragen. Diese Praxis führt dazu, dass sehr viele Tiere nach ihrem Tod kremiert werden. Damit gehen jährlich mehrere tausend Tonnen an tierischem Protein verloren.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Angesichts der Diskussionen über Nachhaltigkeit, Kreislaufwirtschaft und Food Waste stellt sich die Frage nach der Sinnhaftigkeit dieser Regelung. Zumal ein als Nutztier registriertes Pferd aus emotionalen Gründen ebenfalls kremiert werden darf – die Unterscheidung verliert also auch aus dieser Perspektive an Klarheit und Relevanz.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Zudem ist die Frage nach der künftigen Rolle des Pferdes in der Landwirtschaft im Rahmen der Agrarpolitik 2030 (AP2030) von Bedeutung. Traditionell wurde das Pferd als Arbeits- und Nutztier verstanden, heute dominiert jedoch die Nutzung als Freizeit- und Sporttier. Welche Konsequenzen ergeben sich daraus für die Landwirtschaft, die Tierhaltungspolitik und die Ressourcennutzung?&lt;br&gt;&lt;br&gt;&amp;nbsp;Ich bitte den Bundesrat um die Beantwortung folgender Fragen:&lt;br&gt;&amp;nbsp;&lt;/p&gt;&lt;ol style="list-style-type:decimal;"&gt;&lt;li&gt;Weshalb hält die Schweiz an dieser Sonderregelung (Heim- vs. Nutztier bei Pferden) fest, während umliegende Länder darauf verzichten?&lt;br&gt;&amp;nbsp;&lt;/li&gt;&lt;li&gt;Welche konkreten Schritte prüft oder unternimmt der Bundesrat, um diese Unterscheidung aufzuheben oder mit internationalen Standards zu harmonisieren?&lt;br&gt;&amp;nbsp;&lt;/li&gt;&lt;li&gt;Teilt der Bundesrat die Einschätzung, dass es sich beim heutigen System um eine Form von Food Waste handelt, weil jährlich grosse Mengen an Proteinen ungenutzt verbrannt werden?&lt;br&gt;&amp;nbsp;&lt;/li&gt;&lt;li&gt;Auf welche veterinärmedizinischen oder lebensmittelrechtlichen Grundlagen stützt sich die Unterscheidung? Sind diese aus heutiger wissenschaftlicher Sicht noch gerechtfertigt?&lt;br&gt;&amp;nbsp;&lt;/li&gt;&lt;li&gt;Ist der Bundesrat bereit, im Sinne der Kreislaufwirtschaft Alternativen zur Verbrennung zu prüfen (z. B. Nutzung für Tierfutter, Spezialnahrung oder pharmazeutische Zwecke), um Ressourcen besser zu verwerten?&lt;br&gt;&amp;nbsp;&lt;/li&gt;&lt;li&gt;Wie beurteilt der Bundesrat die heutigen administrativen und finanziellen Hürden für Tierhalterinnen und Tierhalter, die ihr Pferd als Nutztier registrieren möchten, und sieht er hier Reformbedarf?&lt;br&gt;&amp;nbsp;&lt;/li&gt;&lt;li&gt;Welche Bedeutung misst der Bundesrat den Equiden in der künftigen Agrarpolitik 2030 bei? Welche Rolle sollen Pferde in der Landwirtschaft künftig noch spielen?&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.4024</t>
   </si>
   <si>
@@ -413,6 +503,12 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254024</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;1. Pourquoi le DDPS externalise-t-il intégralement la gestion des risques et de la qualité de ses grands projets au lieu de renforcer des services internes tels que le Contrôle fédéral des finances ou la révision interne&amp;nbsp;?&lt;/p&gt;&lt;p&gt;2. À combien sont estimés les coûts des nouveaux contrats-cadres conclus pour une durée de douze ans&amp;nbsp;? Comment s’assure-t-on que les coûts ne dérapent pas&amp;nbsp;?&lt;/p&gt;&lt;p&gt;3. Pourquoi avoir choisi une durée de contrat aussi longue&amp;nbsp;? Est-il possible de modifier ou de résilier les contrats en cas de besoin&amp;nbsp;?&lt;/p&gt;&lt;p&gt;4. Quels critères ont déterminé le choix des prestataires externes&amp;nbsp;? Comment éviter les conflits d’intérêts et garantir l’indépendance&amp;nbsp;?&lt;/p&gt;&lt;p&gt;5. Quelles leçons le DDPS tire-t-il de précédentes expertises réalisées par des externes comme celle du cabinet d’avocat Homburger sur le F-35, qui a été taxée d’être un rapport de complaisance&amp;nbsp;? Comment la transparence sera-t-il garantie&amp;nbsp;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;1. Weshalb lagert das VBS das Qualitäts- und Risikomanagement bei seinen Grossprojekten vollständig an Externe aus, anstatt interne Stellen wie die EFK oder die interne Revision zu stärken?&lt;/p&gt;&lt;p&gt;2. Wie hoch werden die Kosten der neuen Rahmenverträge über zwölf Jahre geschätzt, und wie wird sichergestellt, dass diese nicht aus dem Ruder laufen?&lt;/p&gt;&lt;p&gt;3. Weshalb wurde eine so lange Vertragsdauer gewählt, und welche Möglichkeiten bestehen, Verträge bei Bedarf anzupassen oder zu beenden?&lt;/p&gt;&lt;p&gt;4. Nach welchen Kriterien werden die externen Dienstleister ausgewählt, und wie wird verhindert, dass Interessenkonflikte entstehen oder die Unabhängigkeit beeinträchtigt wird?&lt;/p&gt;&lt;p&gt;5. Welche Lehren zieht das VBS aus früheren externen Gutachten wie jenen der Kanzlei Homburger zum F-35, die als Gefälligkeitsgutachten kritisiert wurden, und wie wird künftig Transparenz garantiert?&lt;/p&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.7863</t>
   </si>
   <si>
@@ -434,6 +530,12 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257863</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Des rapports datant du printemps critiquent le calcul erroné de l’impôt sur la fortune dans le canton de Vaud qui a engendré une perte pouvant se chiffrer en millions de francs. Le canton de Vaud bénéficiant de la péréquation financière nationale, les erreurs pourraient avoir des répercussions sur les autres cantons et la Confédération.&lt;br&gt;- Est-ce que le Conseil fédéral partage cette analyse&amp;nbsp;?&lt;br&gt;- Les paiements compensatoires déjà effectués peuvent-ils être corrigés&amp;nbsp;?&lt;br&gt;- Quelles mesures entend prendre le Conseil fédéral pour éviter, à l’avenir, de telles erreurs&amp;nbsp;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Berichte aus dem Frühjahr kritisieren die fehlerhafte Vermögenssteuerberechnung im Kanton Waadt, die ihm mutmasslich mehrere Millionen Franken kostete. Da Waadt Nehmerkanton im nationalen Finanzausgleich ist, könnten die Fehler auch andere Kantone und den Bund betreffen.&lt;br&gt;- Teilt der Bundesrat diese Einschätzung?&lt;br&gt;- Können bereits geleistete Ausgleichszahlungen korrigiert werden?&lt;br&gt;- Welche Massnahmen plant er, um solche Fehler künftig zu verhindern?&lt;/p&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.7888</t>
   </si>
   <si>
@@ -455,6 +557,12 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257888</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Quand le Parlement recevra-t-il le rapport d’enquête intermédiaire sur RUAG (mandaté au cabinet Niederer Kraft Frey), sur lequel se fonde l’audit du CDF&amp;nbsp;?&amp;nbsp;&lt;br&gt;Quand ce rapport sera-t-il porté à la connaissance du public&amp;nbsp;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Wann erhält das Parlament und wann die Öffentlichkeit den Zwischenbericht des Gutachtens zur RUAG (Auftragnehmer Niederer Kraft Frey), der auch dem EFK Bericht zugrunde liegt?&lt;/p&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.7890</t>
   </si>
   <si>
@@ -473,6 +581,12 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257890</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Concernant le suivi de l’assainissement de cette décharge, le Contrôle fédéral des finances (CDF) souligne «&amp;nbsp;l’absence d’une vision d’ensemble des risques et d’un suivi coordonné des différentes entités fédérales&amp;nbsp;».&lt;br&gt;- Comment le Conseil fédéral réagit-il aux critiques du CDF?&lt;br&gt;- Entend-il réaliser une analyse globale des risques, en tenant compte des interfaces avec l'A9 et la correction du Rhône puis, sur cette base, établir un concept de surveillance avec des responsabilités clairement définies?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Die Eidgenössische Finanzkontrolle (EFK) hat das Sanierungsprojekt geprüft und betont, es gebe «keine Gesamtübersicht über die Risiken und keine koordinierte Aufsicht durch die verschiedenen involvierten Bundesstellen».&lt;br&gt;- Wie reagiert der Bundesrat auf die Kritik der EFK?&lt;br&gt;- Plant er, die Risiken unter Einbezug der A9 und der Rhonekorrektion umfassend zu analysieren und gestützt darauf ein Aufsichtskonzept mit klar definierten Zuständigkeiten zu entwickeln?&lt;/p&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.4003</t>
   </si>
   <si>
@@ -494,6 +608,12 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254003</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Le Conseil fédéral est chargé de présenter au Parlement un rapport qui clarifie&amp;nbsp;: (i) quels sont les allégements fiscaux au niveau de la Confédération et dans quelle mesure les taux d’imposition pourraient être réduits si les allégements fiscaux étaient supprimés, (ii) lesquels des allégements génèrent une charge administrative élevée et (iii) lesquels sont en conflit avec le but d’une croissance durable. Sur la base de cette analyse, le Conseil fédéral devra élaborer des propositions pour une simplification du système fiscal sans incidence sur les recettes.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Der Bundesrat wird beauftragt, dem Parlament einen Bericht vorzulegen, der darlegt, (i) welche Steuervergünstigungen auf Ebene Bund bestehen und wie stark die jeweiligen Steuersätze gesenkt werden könnten, wenn die Vergünstigungen aufgehoben werden, (ii) welche der Vergünstigungen zudem einen hohen administrativen Aufwand generieren und (iii) welche in Konflikt mit dem Ziel eines nachhaltigen Wachstums stehen. Basierend auf dieser Analyse soll der Bundesrat Vorschläge für eine ertragsneutrale Vereinfachung des Steuersystems erarbeiten.&lt;/p&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.3984</t>
   </si>
   <si>
@@ -512,6 +632,12 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253984</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Le Conseil fédéral est chargé d’adapter l’examen des subventions tel qu’il est réglé dans la loi sur les subventions (LSu) de manière à mettre en place un ensemble de mesures permettant de réduire les subventions nuisibles.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Der Bundesrat wird beauftragt, die Subventionsprüfung gemäss Subventionsgesetz (SuG) so anzupassen, dass daraus ein Paket für einen Abbau von schädlichen Subventionen hervorgeht.&lt;/p&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.7663</t>
   </si>
   <si>
@@ -527,6 +653,12 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257663</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;RUAG, entre autres en lien avec certaines irrégularités, aurait engagé plus de 10 millions de francs en frais d'avocats &lt;a href="https://www.blick.ch/politik/neues-ungemach-bei-ruag-bundesfirma-gibt-ueber-10-millionen-franken-fuer-gutachten-aus-id21203936.html."&gt;https://www.blick.ch/politik/neues-ungemach-bei-ruag-bundesfirma-gibt-ueber-10-millionen-franken-fuer-gutachten-aus-id21203936.html.&lt;/a&gt;&lt;br&gt;- Le Conseil fédéral tolère-t-il cette manière de sous-traiter à grands frais des tâches de gouvernance d'entreprise ?&lt;br&gt;- Entend-il prendre des mesures ?&lt;br&gt;- Ces honoraires faramineux ne seraient-ils pas mieux investis dans l'acquisition de munition ?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Die Ruag soll unter anderem im Zusammenhang mit bestimmten Unregelmässigkeiten mehr als 10 Millionen Franken für Anwaltskosten ausgegeben haben &lt;a href="https://www.blick.ch/politik/neues-ungemach-bei-ruag-bundesfirma-gibt-ueber-10-millionen-franken-fuer-gutachten-aus-id21203936.html."&gt;(https://www.blick.ch/politik/neues-ungemach-bei-ruag-bundesfirma-gibt-ueber-10-millionen-franken-fuer-gutachten-aus-id21203936.html).&lt;/a&gt;&lt;br&gt;– Duldet der Bundesrat diese Art der kostspieligen Auslagerung von Aufgaben der Corporate Governance?&lt;br&gt;– Beabsichtigt der Bundesrat, Massnahmen zu ergreifen?&lt;br&gt;– Wäre es nicht besser, diese enormen Beträge in den Kauf von Munition zu investieren?&lt;/p&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.7698</t>
   </si>
   <si>
@@ -545,6 +677,12 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257698</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;D’après la presse, les coûts de l’enquête externe sur le scandale RUAG se montent aujourd’hui à plus de 10&amp;nbsp;millions de francs.&lt;br&gt;- Quel est le montant des coûts engagés jusqu’à présent et à qui cet argent a-t-il été versé&amp;nbsp;?&lt;br&gt;- Le Conseil fédéral juge-t-il ces coûts raisonnables&amp;nbsp;? Comment justifie-t-il une telle dépense&amp;nbsp;?&lt;br&gt;- Comment explique-t-il l’évidente faillite des mécanismes de contrôle internes, à la fois dans l’entreprise RUAG et au DDPS, qui a imposé cette enquête externe&amp;nbsp;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Gemäss Medienberichten belaufen sich die Kosten für die externe Untersuchung des RUAG-Skandals inzwischen auf über CHF 10 Millionen.&lt;br&gt;- Wie hoch sind die bisherigen Kosten der Untersuchung und an wen wurden diese Mittel ausbezahlt?&lt;br&gt;- Hält der Bundesrat diese Kosten für verhältnismässig und wie rechtfertigt er sie?&lt;br&gt;- Wie erklärt der Bundesrat das offensichtliche Versagen der internen Kontrollmechanismen innerhalb der RUAG sowie im VBS, das dazu führte, dass diese externe Untersuchung notwendig&amp;nbsp;wurde?&lt;/p&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.3971</t>
   </si>
   <si>
@@ -566,6 +704,12 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253971</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Le Conseil fédéral est prié de répondre aux questions suivantes :&lt;br&gt;1. Comment La Poste calcule-t-elle le déficit annuel lié à la distribution postale des journaux, sachant que cette dernière se fait en même temps que celle des lettres ?&lt;br&gt;2. Quels postes de coûts sont inclus dans le calcul concluant à l’existence d’un déficit dans le cadre de la distribution postale des journaux ?&lt;br&gt;3. Ce déficit est-il vérifié ou audité par une instance externe, et si oui, par laquelle ? Dans le cas contraire, le Conseil fédéral envisage-t-il de faire auditer les chiffres avancés par la Poste par une instance neutre et à rendre publics ces derniers&amp;nbsp;?&lt;br&gt;4. Si cette question ne fait pas l’objet d’un audit actuellement, le Conseil fédéral entend-il permettre aux Commissions de gestion du Conseil national et du Conseil des Etats d’accéder aux chiffres avancés par la Poste pour justifier l’existence d’un déficit dans la distribution postale des journaux&amp;nbsp;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Der Bundesrat wird gebeten, folgende Fragen zu beantworten:&lt;br&gt;1. Wie berechnet die Post die jährliche Kostenunterdeckung bei der Zeitungszustellung, wenn berücksichtigt wird, dass die Zeitungen gleichzeitig mit der Briefpost zugestellt werden?&lt;br&gt;2. Welche Kostenpositionen sind in der Berechnung enthalten, die zum Egebnis führt, dass die Zeitungszustellung defizitär ist?&lt;br&gt;3. Wird die Kostenunterdeckung von einer externen Stelle geprüft oder auditiert, und wenn ja, von welcher? Wenn nein, beabsichtigt der Bundesrat, die Zahlen der Post von einer neutralen Instanz prüfen zu lassen und zu veröffentlichen?&lt;br&gt;4. Falls diese Frage derzeit nicht auditiert wird: Wird der Bundesrat den Geschäftsprüfungskommissionen des National- und Ständerats Zugang zu den Zahlen gewähren, mit denen die Post die defizitäre Zeitungszustellung belegt?&lt;/p&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.7601</t>
   </si>
   <si>
@@ -584,6 +728,12 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257601</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;À la suite de sa réponse à mon intervention 25.3875:&lt;br&gt;- Le Conseil fédéral a-t-il vérifié s’il existait des bases légales qui obligeraient la Confédération, en tant que responsable de l’octroi des autorisations de mise sur le marché de substances potentiellement dangereuses, à surveiller les effets concrets de leur utilisation et à comparer les résultats constatés dans la pratique avec les effets «&amp;nbsp;pronostiqués&amp;nbsp;» au moment de l’autorisation&amp;nbsp;?&lt;br&gt;Dans l’affirmative, à quelles conclusions parvient-il&amp;nbsp;?&lt;br&gt;Dans la négative, pourquoi ne l’a-t-il pas fait&amp;nbsp;?&lt;br&gt;- Quelles sont les recommandations du CDF concernant le biomonitoring humain dans son rapport d’audit 23489&amp;nbsp;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Nach der Antwort des Bundesrates auf meine Ip. 25.3875:&lt;br&gt;- Hat er geprüft, ob eine gesetzliche Grundlage besteht, die den Bund als Zulassungsbehörde für potenziell problematische Stoffe verpflichtet, ein Monitoring der tatsächlichen Effekte ihrer Anwendung in der Praxis zu betreiben und die Ergebnisse mit den in der Zulassung «prognostizierten» Effekten zu vergleichen?&lt;br&gt;Wenn ja, zu welchem Schluss kommt er?&lt;br&gt;Wenn nein, warum nicht?&lt;br&gt;- Was empfiehlt die EFK im Prüfbericht 23489 zum Human-Biomonitoring?&lt;/p&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.3941</t>
   </si>
   <si>
@@ -606,6 +756,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Le Conseil fédéral est chargé d’augmenter progressivement les effectifs de FEDPOL à raison de 10 à 20 postes supplémentaires par année pendant 10 ans, soit un total de 100 à 200 postes additionnels d'ici 2035, incluant des enquêteurs, des analystes, des spécialistes en forensique numérique et des experts en coopération internationale, afin de garantir l'efficacité de la lutte contre la criminalité grave au niveau fédéral.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Une minorité de la commission (Gartmann, Heimgartner, Hess Erich, Hurter Thomas, Tuena, Riner, Walliser, Zuberbühler) propose de rejeter la motion.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Der Bundesrat wird beauftragt, den Personalbestand des Fedpol über einen Zeitraum von zehn Jahren schrittweise um 10 bis 20&amp;nbsp;Stellen pro Jahr aufzustocken und somit bis 2035 100 bis 200 zusätzliche Stellen zu schaffen. Diese umfassen Ermittlerinnen und Ermittler, Analystinnen und Analysten, Fachpersonen für IT-Forensik sowie Fachpersonen für internationale Zusammenarbeit. Ziel ist es, eine wirksame Bekämpfung der schweren Kriminalität auf Bundesebene sicherzustellen.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Eine Minderheit der Kommission (Gartmann, Heimgartner, Hess Erich, Hurter Thomas, Tuena, Riner, Walliser, Zuberbühler) beantragt, die Motion abzulehnen.&lt;/p&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">25.450</t>
@@ -2081,9 +2237,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:N102" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:N102"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:P102" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:P102"/>
+  <tableColumns count="16">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Numéro"/>
     <tableColumn id="3" name="Type"/>
@@ -2098,6 +2254,8 @@
     <tableColumn id="12" name="Lien_FR"/>
     <tableColumn id="13" name="Mention"/>
     <tableColumn id="14" name="Date_MAJ"/>
+    <tableColumn id="15" name="Texte_FR"/>
+    <tableColumn id="16" name="Texte_DE"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2431,49 +2589,61 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>20254785</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -2481,43 +2651,49 @@
         <v>20254620</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" t="s">
-        <v>26</v>
+      <c r="O3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4">
@@ -2525,43 +2701,49 @@
         <v>20254696</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="L4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5">
@@ -2569,43 +2751,49 @@
         <v>20258194</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N5" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -2613,43 +2801,49 @@
         <v>20258273</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" t="s">
         <v>57</v>
       </c>
-      <c r="E6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" t="s">
-        <v>49</v>
-      </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="I6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" t="s">
         <v>60</v>
       </c>
-      <c r="J6" t="s">
-        <v>52</v>
-      </c>
       <c r="K6" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="L6" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="M6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N6" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="7">
@@ -2657,43 +2851,49 @@
         <v>20254463</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="L7" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="M7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N7" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -2701,43 +2901,49 @@
         <v>20250479</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="I8" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="J8" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="K8" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="M8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N8" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O8" t="s">
+        <v>94</v>
+      </c>
+      <c r="P8" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="9">
@@ -2745,43 +2951,49 @@
         <v>20254281</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="I9" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N9" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O9" t="s">
+        <v>104</v>
+      </c>
+      <c r="P9" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="10">
@@ -2789,43 +3001,49 @@
         <v>20254317</v>
       </c>
       <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
         <v>88</v>
       </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>74</v>
-      </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="I10" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="M10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N10" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O10" t="s">
+        <v>112</v>
+      </c>
+      <c r="P10" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="11">
@@ -2833,43 +3051,49 @@
         <v>20254145</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="I11" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="J11" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K11" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M11" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N11" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O11" t="s">
+        <v>121</v>
+      </c>
+      <c r="P11" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="12">
@@ -2877,43 +3101,49 @@
         <v>20254188</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="I12" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="J12" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="K12" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="L12" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="M12" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N12" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O12" t="s">
+        <v>129</v>
+      </c>
+      <c r="P12" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="13">
@@ -2921,43 +3151,49 @@
         <v>20254225</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="I13" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="J13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K13" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="M13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N13" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O13" t="s">
+        <v>137</v>
+      </c>
+      <c r="P13" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="14">
@@ -2965,43 +3201,49 @@
         <v>20254234</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="F14" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H14" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="I14" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="J14" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K14" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="M14" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N14" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O14" t="s">
+        <v>145</v>
+      </c>
+      <c r="P14" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="15">
@@ -3009,43 +3251,49 @@
         <v>20254071</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="I15" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="J15" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K15" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="L15" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="M15" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N15" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O15" t="s">
+        <v>154</v>
+      </c>
+      <c r="P15" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="16">
@@ -3053,43 +3301,49 @@
         <v>20254024</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="F16" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H16" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="I16" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="J16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K16" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="L16" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="M16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N16" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O16" t="s">
+        <v>163</v>
+      </c>
+      <c r="P16" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="17">
@@ -3097,43 +3351,49 @@
         <v>20257863</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="E17" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="F17" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H17" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="I17" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="J17" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K17" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="L17" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="M17" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N17" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O17" t="s">
+        <v>172</v>
+      </c>
+      <c r="P17" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="18">
@@ -3141,43 +3401,49 @@
         <v>20257888</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="E18" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="F18" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="G18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H18" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="I18" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="J18" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K18" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="L18" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="M18" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N18" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O18" t="s">
+        <v>181</v>
+      </c>
+      <c r="P18" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="19">
@@ -3185,43 +3451,49 @@
         <v>20257890</v>
       </c>
       <c r="B19" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F19" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="G19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H19" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="I19" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="J19" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K19" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="L19" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="M19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N19" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O19" t="s">
+        <v>189</v>
+      </c>
+      <c r="P19" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="20">
@@ -3229,41 +3501,47 @@
         <v>20254003</v>
       </c>
       <c r="B20" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="G20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H20" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="I20" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="J20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K20" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="L20" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="M20" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N20" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O20" t="s">
+        <v>198</v>
+      </c>
+      <c r="P20" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="21">
@@ -3271,41 +3549,47 @@
         <v>20253984</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="G21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H21" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="I21" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="J21" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="K21" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="L21" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="M21" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N21" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O21" t="s">
+        <v>206</v>
+      </c>
+      <c r="P21" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="22">
@@ -3313,43 +3597,49 @@
         <v>20257663</v>
       </c>
       <c r="B22" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="G22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H22" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="I22" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="J22" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K22" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="L22" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="M22" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N22" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O22" t="s">
+        <v>213</v>
+      </c>
+      <c r="P22" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="23">
@@ -3357,43 +3647,49 @@
         <v>20257698</v>
       </c>
       <c r="B23" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="F23" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="G23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H23" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="I23" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="J23" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K23" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="L23" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="M23" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N23" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O23" t="s">
+        <v>221</v>
+      </c>
+      <c r="P23" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="24">
@@ -3401,43 +3697,49 @@
         <v>20253971</v>
       </c>
       <c r="B24" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H24" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="I24" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="J24" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K24" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="L24" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
       <c r="M24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N24" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O24" t="s">
+        <v>230</v>
+      </c>
+      <c r="P24" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="25">
@@ -3445,43 +3747,49 @@
         <v>20257601</v>
       </c>
       <c r="B25" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="E25" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="F25" t="s">
-        <v>185</v>
+        <v>233</v>
       </c>
       <c r="G25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H25" t="s">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="I25" t="s">
-        <v>187</v>
+        <v>235</v>
       </c>
       <c r="J25" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K25" t="s">
-        <v>188</v>
+        <v>236</v>
       </c>
       <c r="L25" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="M25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N25" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O25" t="s">
+        <v>238</v>
+      </c>
+      <c r="P25" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="26">
@@ -3489,41 +3797,47 @@
         <v>20253941</v>
       </c>
       <c r="B26" t="s">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>191</v>
+        <v>241</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="s">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="G26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H26" t="s">
-        <v>193</v>
+        <v>243</v>
       </c>
       <c r="I26" t="s">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c r="J26" t="s">
-        <v>195</v>
+        <v>245</v>
       </c>
       <c r="K26" t="s">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c r="L26" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="M26" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N26" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O26" t="s">
+        <v>248</v>
+      </c>
+      <c r="P26" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="27">
@@ -3531,3322 +3845,3474 @@
         <v>20250450</v>
       </c>
       <c r="B27" t="s">
-        <v>198</v>
+        <v>250</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>199</v>
+        <v>251</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="G27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H27" t="s">
-        <v>201</v>
+        <v>253</v>
       </c>
       <c r="I27" t="s">
-        <v>202</v>
+        <v>254</v>
       </c>
       <c r="J27" t="s">
-        <v>203</v>
+        <v>255</v>
       </c>
       <c r="K27" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="L27" t="s">
-        <v>205</v>
+        <v>257</v>
       </c>
       <c r="M27" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N27" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O27"/>
+      <c r="P27"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>20253835</v>
       </c>
       <c r="B28" t="s">
-        <v>207</v>
+        <v>259</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="G28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H28" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="I28" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="J28" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="K28" t="s">
-        <v>211</v>
+        <v>263</v>
       </c>
       <c r="L28" t="s">
-        <v>212</v>
+        <v>264</v>
       </c>
       <c r="M28" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N28" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O28"/>
+      <c r="P28"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>20253845</v>
       </c>
       <c r="B29" t="s">
-        <v>213</v>
+        <v>265</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D29" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="E29" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F29" t="s">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="G29" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H29" t="s">
-        <v>214</v>
+        <v>266</v>
       </c>
       <c r="I29" t="s">
-        <v>215</v>
+        <v>267</v>
       </c>
       <c r="J29" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K29" t="s">
-        <v>216</v>
+        <v>268</v>
       </c>
       <c r="L29" t="s">
-        <v>217</v>
+        <v>269</v>
       </c>
       <c r="M29" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N29" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O29"/>
+      <c r="P29"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>20253855</v>
       </c>
       <c r="B30" t="s">
-        <v>218</v>
+        <v>270</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>219</v>
+        <v>271</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F30" t="s">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H30" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="I30" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="J30" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="K30" t="s">
-        <v>220</v>
+        <v>272</v>
       </c>
       <c r="L30" t="s">
-        <v>221</v>
+        <v>273</v>
       </c>
       <c r="M30" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N30" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O30"/>
+      <c r="P30"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>20253880</v>
       </c>
       <c r="B31" t="s">
-        <v>222</v>
+        <v>274</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D31" t="s">
-        <v>223</v>
+        <v>275</v>
       </c>
       <c r="E31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F31" t="s">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="G31" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H31" t="s">
-        <v>224</v>
+        <v>276</v>
       </c>
       <c r="I31" t="s">
-        <v>225</v>
+        <v>277</v>
       </c>
       <c r="J31" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K31" t="s">
-        <v>226</v>
+        <v>278</v>
       </c>
       <c r="L31" t="s">
-        <v>227</v>
+        <v>279</v>
       </c>
       <c r="M31" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N31" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O31"/>
+      <c r="P31"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>20253892</v>
       </c>
       <c r="B32" t="s">
-        <v>228</v>
+        <v>280</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>229</v>
+        <v>281</v>
       </c>
       <c r="E32" t="s">
-        <v>230</v>
+        <v>282</v>
       </c>
       <c r="F32" t="s">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="G32" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H32" t="s">
-        <v>231</v>
+        <v>283</v>
       </c>
       <c r="I32" t="s">
-        <v>232</v>
+        <v>284</v>
       </c>
       <c r="J32" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K32" t="s">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="L32" t="s">
-        <v>234</v>
+        <v>286</v>
       </c>
       <c r="M32" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N32" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O32"/>
+      <c r="P32"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>20253893</v>
       </c>
       <c r="B33" t="s">
-        <v>235</v>
+        <v>287</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D33" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="G33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H33" t="s">
-        <v>237</v>
+        <v>289</v>
       </c>
       <c r="I33" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="J33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K33" t="s">
-        <v>239</v>
+        <v>291</v>
       </c>
       <c r="L33" t="s">
-        <v>240</v>
+        <v>292</v>
       </c>
       <c r="M33" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N33" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O33"/>
+      <c r="P33"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>20253730</v>
       </c>
       <c r="B34" t="s">
-        <v>241</v>
+        <v>293</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D34" t="s">
-        <v>242</v>
+        <v>294</v>
       </c>
       <c r="E34" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F34" t="s">
-        <v>243</v>
+        <v>295</v>
       </c>
       <c r="G34" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H34" t="s">
-        <v>244</v>
+        <v>296</v>
       </c>
       <c r="I34" t="s">
-        <v>245</v>
+        <v>297</v>
       </c>
       <c r="J34" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K34" t="s">
-        <v>246</v>
+        <v>298</v>
       </c>
       <c r="L34" t="s">
-        <v>247</v>
+        <v>299</v>
       </c>
       <c r="M34" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N34" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O34"/>
+      <c r="P34"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>20253630</v>
       </c>
       <c r="B35" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D35" t="s">
-        <v>249</v>
+        <v>301</v>
       </c>
       <c r="E35" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F35" t="s">
-        <v>250</v>
+        <v>302</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H35" t="s">
-        <v>251</v>
+        <v>303</v>
       </c>
       <c r="I35" t="s">
-        <v>252</v>
+        <v>304</v>
       </c>
       <c r="J35" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K35" t="s">
-        <v>253</v>
+        <v>305</v>
       </c>
       <c r="L35" t="s">
-        <v>254</v>
+        <v>306</v>
       </c>
       <c r="M35" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N35" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O35"/>
+      <c r="P35"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>20253637</v>
       </c>
       <c r="B36" t="s">
+        <v>307</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s">
+        <v>308</v>
+      </c>
+      <c r="E36" t="s">
+        <v>282</v>
+      </c>
+      <c r="F36" t="s">
+        <v>302</v>
+      </c>
+      <c r="G36" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" t="s">
+        <v>309</v>
+      </c>
+      <c r="I36" t="s">
+        <v>310</v>
+      </c>
+      <c r="J36" t="s">
         <v>255</v>
       </c>
-      <c r="C36" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" t="s">
-        <v>256</v>
-      </c>
-      <c r="E36" t="s">
-        <v>230</v>
-      </c>
-      <c r="F36" t="s">
-        <v>250</v>
-      </c>
-      <c r="G36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H36" t="s">
-        <v>257</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="K36" t="s">
+        <v>311</v>
+      </c>
+      <c r="L36" t="s">
+        <v>312</v>
+      </c>
+      <c r="M36" t="s">
+        <v>63</v>
+      </c>
+      <c r="N36" t="s">
         <v>258</v>
       </c>
-      <c r="J36" t="s">
-        <v>203</v>
-      </c>
-      <c r="K36" t="s">
-        <v>259</v>
-      </c>
-      <c r="L36" t="s">
-        <v>260</v>
-      </c>
-      <c r="M36" t="s">
-        <v>55</v>
-      </c>
-      <c r="N36" t="s">
-        <v>206</v>
-      </c>
+      <c r="O36"/>
+      <c r="P36"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>20257355</v>
       </c>
       <c r="B37" t="s">
-        <v>261</v>
+        <v>313</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D37" t="s">
-        <v>262</v>
+        <v>314</v>
       </c>
       <c r="E37" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F37" t="s">
-        <v>263</v>
+        <v>315</v>
       </c>
       <c r="G37" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H37" t="s">
-        <v>264</v>
+        <v>316</v>
       </c>
       <c r="I37" t="s">
-        <v>265</v>
+        <v>317</v>
       </c>
       <c r="J37" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K37" t="s">
-        <v>266</v>
+        <v>318</v>
       </c>
       <c r="L37" t="s">
-        <v>267</v>
+        <v>319</v>
       </c>
       <c r="M37" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N37" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O37"/>
+      <c r="P37"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>20257419</v>
       </c>
       <c r="B38" t="s">
-        <v>268</v>
+        <v>320</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D38" t="s">
-        <v>269</v>
+        <v>321</v>
       </c>
       <c r="E38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F38" t="s">
-        <v>263</v>
+        <v>315</v>
       </c>
       <c r="G38" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H38" t="s">
-        <v>270</v>
+        <v>322</v>
       </c>
       <c r="I38" t="s">
-        <v>271</v>
+        <v>323</v>
       </c>
       <c r="J38" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K38" t="s">
-        <v>272</v>
+        <v>324</v>
       </c>
       <c r="L38" t="s">
-        <v>273</v>
+        <v>325</v>
       </c>
       <c r="M38" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N38" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O38"/>
+      <c r="P38"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>20253479</v>
       </c>
       <c r="B39" t="s">
-        <v>274</v>
+        <v>326</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D39" t="s">
-        <v>275</v>
+        <v>327</v>
       </c>
       <c r="E39" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="F39" t="s">
-        <v>276</v>
+        <v>328</v>
       </c>
       <c r="G39" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H39" t="s">
-        <v>277</v>
+        <v>329</v>
       </c>
       <c r="I39" t="s">
-        <v>278</v>
+        <v>330</v>
       </c>
       <c r="J39" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K39" t="s">
-        <v>279</v>
+        <v>331</v>
       </c>
       <c r="L39" t="s">
-        <v>280</v>
+        <v>332</v>
       </c>
       <c r="M39" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N39" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O39"/>
+      <c r="P39"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>20253444</v>
       </c>
       <c r="B40" t="s">
-        <v>281</v>
+        <v>333</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D40" t="s">
-        <v>282</v>
+        <v>334</v>
       </c>
       <c r="E40" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F40" t="s">
-        <v>283</v>
+        <v>335</v>
       </c>
       <c r="G40" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H40" t="s">
-        <v>284</v>
+        <v>336</v>
       </c>
       <c r="I40" t="s">
-        <v>285</v>
+        <v>337</v>
       </c>
       <c r="J40" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K40" t="s">
-        <v>286</v>
+        <v>338</v>
       </c>
       <c r="L40" t="s">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="M40" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N40" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O40"/>
+      <c r="P40"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>20253309</v>
       </c>
       <c r="B41" t="s">
-        <v>288</v>
+        <v>340</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D41" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="E41" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="F41" t="s">
-        <v>289</v>
+        <v>341</v>
       </c>
       <c r="G41" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H41" t="s">
-        <v>290</v>
+        <v>342</v>
       </c>
       <c r="I41" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
       <c r="J41" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K41" t="s">
-        <v>292</v>
+        <v>344</v>
       </c>
       <c r="L41" t="s">
-        <v>293</v>
+        <v>345</v>
       </c>
       <c r="M41" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N41" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O41"/>
+      <c r="P41"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>20253399</v>
       </c>
       <c r="B42" t="s">
-        <v>294</v>
+        <v>346</v>
       </c>
       <c r="C42" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>295</v>
+        <v>347</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="F42" t="s">
-        <v>289</v>
+        <v>341</v>
       </c>
       <c r="G42" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H42" t="s">
-        <v>296</v>
+        <v>348</v>
       </c>
       <c r="I42" t="s">
-        <v>297</v>
+        <v>349</v>
       </c>
       <c r="J42" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K42" t="s">
-        <v>298</v>
+        <v>350</v>
       </c>
       <c r="L42" t="s">
-        <v>299</v>
+        <v>351</v>
       </c>
       <c r="M42" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N42" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O42"/>
+      <c r="P42"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>20253404</v>
       </c>
       <c r="B43" t="s">
-        <v>300</v>
+        <v>352</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D43" t="s">
-        <v>301</v>
+        <v>353</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="F43" t="s">
-        <v>289</v>
+        <v>341</v>
       </c>
       <c r="G43" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H43" t="s">
-        <v>302</v>
+        <v>354</v>
       </c>
       <c r="I43" t="s">
-        <v>303</v>
+        <v>355</v>
       </c>
       <c r="J43" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K43" t="s">
-        <v>304</v>
+        <v>356</v>
       </c>
       <c r="L43" t="s">
-        <v>305</v>
+        <v>357</v>
       </c>
       <c r="M43" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N43" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O43"/>
+      <c r="P43"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>20253417</v>
       </c>
       <c r="B44" t="s">
-        <v>306</v>
+        <v>358</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D44" t="s">
-        <v>307</v>
+        <v>359</v>
       </c>
       <c r="E44" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F44" t="s">
-        <v>289</v>
+        <v>341</v>
       </c>
       <c r="G44" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H44" t="s">
-        <v>308</v>
+        <v>360</v>
       </c>
       <c r="I44" t="s">
-        <v>309</v>
+        <v>361</v>
       </c>
       <c r="J44" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K44" t="s">
-        <v>310</v>
+        <v>362</v>
       </c>
       <c r="L44" t="s">
-        <v>311</v>
+        <v>363</v>
       </c>
       <c r="M44" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N44" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O44"/>
+      <c r="P44"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>20251011</v>
       </c>
       <c r="B45" t="s">
-        <v>312</v>
+        <v>364</v>
       </c>
       <c r="C45" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D45" t="s">
-        <v>313</v>
+        <v>365</v>
       </c>
       <c r="E45" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F45" t="s">
-        <v>314</v>
+        <v>366</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H45" t="s">
-        <v>315</v>
+        <v>367</v>
       </c>
       <c r="I45" t="s">
-        <v>316</v>
+        <v>368</v>
       </c>
       <c r="J45" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K45" t="s">
-        <v>317</v>
+        <v>369</v>
       </c>
       <c r="L45" t="s">
-        <v>318</v>
+        <v>370</v>
       </c>
       <c r="M45" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N45" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O45"/>
+      <c r="P45"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>20253194</v>
       </c>
       <c r="B46" t="s">
-        <v>319</v>
+        <v>371</v>
       </c>
       <c r="C46" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D46" t="s">
-        <v>320</v>
+        <v>372</v>
       </c>
       <c r="E46" t="s">
-        <v>230</v>
+        <v>282</v>
       </c>
       <c r="F46" t="s">
-        <v>314</v>
+        <v>366</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H46" t="s">
-        <v>321</v>
+        <v>373</v>
       </c>
       <c r="I46" t="s">
-        <v>322</v>
+        <v>374</v>
       </c>
       <c r="J46" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K46" t="s">
-        <v>323</v>
+        <v>375</v>
       </c>
       <c r="L46" t="s">
-        <v>324</v>
+        <v>376</v>
       </c>
       <c r="M46" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N46" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O46"/>
+      <c r="P46"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>20253203</v>
       </c>
       <c r="B47" t="s">
-        <v>325</v>
+        <v>377</v>
       </c>
       <c r="C47" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>326</v>
+        <v>378</v>
       </c>
       <c r="E47" t="s">
-        <v>230</v>
+        <v>282</v>
       </c>
       <c r="F47" t="s">
-        <v>314</v>
+        <v>366</v>
       </c>
       <c r="G47" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H47" t="s">
-        <v>327</v>
+        <v>379</v>
       </c>
       <c r="I47" t="s">
-        <v>328</v>
+        <v>380</v>
       </c>
       <c r="J47" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K47" t="s">
-        <v>329</v>
+        <v>381</v>
       </c>
       <c r="L47" t="s">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="M47" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N47" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O47"/>
+      <c r="P47"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>20253213</v>
       </c>
       <c r="B48" t="s">
-        <v>331</v>
+        <v>383</v>
       </c>
       <c r="C48" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D48" t="s">
-        <v>332</v>
+        <v>384</v>
       </c>
       <c r="E48" t="s">
-        <v>230</v>
+        <v>282</v>
       </c>
       <c r="F48" t="s">
-        <v>314</v>
+        <v>366</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H48" t="s">
-        <v>333</v>
+        <v>385</v>
       </c>
       <c r="I48" t="s">
-        <v>334</v>
+        <v>386</v>
       </c>
       <c r="J48" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K48" t="s">
-        <v>335</v>
+        <v>387</v>
       </c>
       <c r="L48" t="s">
-        <v>336</v>
+        <v>388</v>
       </c>
       <c r="M48" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N48" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O48"/>
+      <c r="P48"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>20253214</v>
       </c>
       <c r="B49" t="s">
-        <v>337</v>
+        <v>389</v>
       </c>
       <c r="C49" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D49" t="s">
-        <v>326</v>
+        <v>378</v>
       </c>
       <c r="E49" t="s">
-        <v>230</v>
+        <v>282</v>
       </c>
       <c r="F49" t="s">
-        <v>314</v>
+        <v>366</v>
       </c>
       <c r="G49" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H49" t="s">
-        <v>338</v>
+        <v>390</v>
       </c>
       <c r="I49" t="s">
-        <v>339</v>
+        <v>391</v>
       </c>
       <c r="J49" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K49" t="s">
-        <v>340</v>
+        <v>392</v>
       </c>
       <c r="L49" t="s">
-        <v>341</v>
+        <v>393</v>
       </c>
       <c r="M49" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N49" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O49"/>
+      <c r="P49"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>20253093</v>
       </c>
       <c r="B50" t="s">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="C50" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D50" t="s">
-        <v>343</v>
+        <v>395</v>
       </c>
       <c r="E50" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="F50" t="s">
-        <v>344</v>
+        <v>396</v>
       </c>
       <c r="G50" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H50" t="s">
-        <v>345</v>
+        <v>397</v>
       </c>
       <c r="I50" t="s">
-        <v>346</v>
+        <v>398</v>
       </c>
       <c r="J50" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K50" t="s">
-        <v>347</v>
+        <v>399</v>
       </c>
       <c r="L50" t="s">
-        <v>348</v>
+        <v>400</v>
       </c>
       <c r="M50" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N50" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O50"/>
+      <c r="P50"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>20257213</v>
       </c>
       <c r="B51" t="s">
-        <v>349</v>
+        <v>401</v>
       </c>
       <c r="C51" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D51" t="s">
-        <v>295</v>
+        <v>347</v>
       </c>
       <c r="E51" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="F51" t="s">
-        <v>350</v>
+        <v>402</v>
       </c>
       <c r="G51" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H51" t="s">
-        <v>351</v>
+        <v>403</v>
       </c>
       <c r="I51" t="s">
-        <v>352</v>
+        <v>404</v>
       </c>
       <c r="J51" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K51" t="s">
-        <v>353</v>
+        <v>405</v>
       </c>
       <c r="L51" t="s">
-        <v>354</v>
+        <v>406</v>
       </c>
       <c r="M51" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N51" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O51"/>
+      <c r="P51"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>20253054</v>
       </c>
       <c r="B52" t="s">
-        <v>355</v>
+        <v>407</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D52" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E52" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F52" t="s">
-        <v>356</v>
+        <v>408</v>
       </c>
       <c r="G52" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H52" t="s">
-        <v>357</v>
+        <v>409</v>
       </c>
       <c r="I52" t="s">
-        <v>358</v>
+        <v>410</v>
       </c>
       <c r="J52" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K52" t="s">
-        <v>359</v>
+        <v>411</v>
       </c>
       <c r="L52" t="s">
-        <v>360</v>
+        <v>412</v>
       </c>
       <c r="M52" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N52" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O52"/>
+      <c r="P52"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>20257102</v>
       </c>
       <c r="B53" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="C53" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D53" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="E53" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="F53" t="s">
-        <v>356</v>
+        <v>408</v>
       </c>
       <c r="G53" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H53" t="s">
-        <v>362</v>
+        <v>414</v>
       </c>
       <c r="I53" t="s">
-        <v>363</v>
+        <v>415</v>
       </c>
       <c r="J53" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K53" t="s">
-        <v>364</v>
+        <v>416</v>
       </c>
       <c r="L53" t="s">
-        <v>365</v>
+        <v>417</v>
       </c>
       <c r="M53" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N53" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O53"/>
+      <c r="P53"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>20257129</v>
       </c>
       <c r="B54" t="s">
-        <v>366</v>
+        <v>418</v>
       </c>
       <c r="C54" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D54" t="s">
-        <v>282</v>
+        <v>334</v>
       </c>
       <c r="E54" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F54" t="s">
-        <v>356</v>
+        <v>408</v>
       </c>
       <c r="G54" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H54" t="s">
-        <v>367</v>
+        <v>419</v>
       </c>
       <c r="I54" t="s">
-        <v>368</v>
+        <v>420</v>
       </c>
       <c r="J54" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K54" t="s">
-        <v>369</v>
+        <v>421</v>
       </c>
       <c r="L54" t="s">
-        <v>370</v>
+        <v>422</v>
       </c>
       <c r="M54" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N54" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O54"/>
+      <c r="P54"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>20257138</v>
       </c>
       <c r="B55" t="s">
-        <v>371</v>
+        <v>423</v>
       </c>
       <c r="C55" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D55" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="E55" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="F55" t="s">
-        <v>356</v>
+        <v>408</v>
       </c>
       <c r="G55" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H55" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="I55" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
       <c r="J55" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K55" t="s">
-        <v>375</v>
+        <v>427</v>
       </c>
       <c r="L55" t="s">
-        <v>376</v>
+        <v>428</v>
       </c>
       <c r="M55" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N55" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O55"/>
+      <c r="P55"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>20253031</v>
       </c>
       <c r="B56" t="s">
-        <v>377</v>
+        <v>429</v>
       </c>
       <c r="C56" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D56" t="s">
-        <v>378</v>
+        <v>430</v>
       </c>
       <c r="E56" t="s">
-        <v>379</v>
+        <v>431</v>
       </c>
       <c r="F56" t="s">
-        <v>380</v>
+        <v>432</v>
       </c>
       <c r="G56" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H56" t="s">
-        <v>381</v>
+        <v>433</v>
       </c>
       <c r="I56" t="s">
-        <v>382</v>
+        <v>434</v>
       </c>
       <c r="J56" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K56" t="s">
-        <v>383</v>
+        <v>435</v>
       </c>
       <c r="L56" t="s">
-        <v>384</v>
+        <v>436</v>
       </c>
       <c r="M56" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N56" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O56"/>
+      <c r="P56"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>20257012</v>
       </c>
       <c r="B57" t="s">
-        <v>385</v>
+        <v>437</v>
       </c>
       <c r="C57" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D57" t="s">
-        <v>386</v>
+        <v>438</v>
       </c>
       <c r="E57" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F57" t="s">
-        <v>380</v>
+        <v>432</v>
       </c>
       <c r="G57" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H57" t="s">
-        <v>387</v>
+        <v>439</v>
       </c>
       <c r="I57" t="s">
-        <v>388</v>
+        <v>440</v>
       </c>
       <c r="J57" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K57" t="s">
-        <v>389</v>
+        <v>441</v>
       </c>
       <c r="L57" t="s">
-        <v>390</v>
+        <v>442</v>
       </c>
       <c r="M57" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N57" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O57"/>
+      <c r="P57"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>20253008</v>
       </c>
       <c r="B58" t="s">
-        <v>391</v>
+        <v>443</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D58" t="s">
-        <v>392</v>
+        <v>444</v>
       </c>
       <c r="E58"/>
       <c r="F58" t="s">
-        <v>393</v>
+        <v>445</v>
       </c>
       <c r="G58" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H58" t="s">
-        <v>394</v>
+        <v>446</v>
       </c>
       <c r="I58" t="s">
-        <v>395</v>
+        <v>447</v>
       </c>
       <c r="J58" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K58" t="s">
-        <v>396</v>
+        <v>448</v>
       </c>
       <c r="L58" t="s">
-        <v>397</v>
+        <v>449</v>
       </c>
       <c r="M58" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N58" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O58"/>
+      <c r="P58"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>20244404</v>
       </c>
       <c r="B59" t="s">
-        <v>398</v>
+        <v>450</v>
       </c>
       <c r="C59" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D59" t="s">
-        <v>399</v>
+        <v>451</v>
       </c>
       <c r="E59" t="s">
-        <v>230</v>
+        <v>282</v>
       </c>
       <c r="F59" t="s">
-        <v>400</v>
+        <v>452</v>
       </c>
       <c r="G59" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H59" t="s">
-        <v>401</v>
+        <v>453</v>
       </c>
       <c r="I59" t="s">
-        <v>402</v>
+        <v>454</v>
       </c>
       <c r="J59" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K59" t="s">
-        <v>403</v>
+        <v>455</v>
       </c>
       <c r="L59" t="s">
-        <v>404</v>
+        <v>456</v>
       </c>
       <c r="M59" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N59" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O59"/>
+      <c r="P59"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>20244419</v>
       </c>
       <c r="B60" t="s">
-        <v>405</v>
+        <v>457</v>
       </c>
       <c r="C60" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D60" t="s">
-        <v>249</v>
+        <v>301</v>
       </c>
       <c r="E60" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F60" t="s">
-        <v>400</v>
+        <v>452</v>
       </c>
       <c r="G60" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H60" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="I60" t="s">
-        <v>407</v>
+        <v>459</v>
       </c>
       <c r="J60" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K60" t="s">
-        <v>408</v>
+        <v>460</v>
       </c>
       <c r="L60" t="s">
-        <v>409</v>
+        <v>461</v>
       </c>
       <c r="M60" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N60" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O60"/>
+      <c r="P60"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>20248043</v>
       </c>
       <c r="B61" t="s">
-        <v>410</v>
+        <v>462</v>
       </c>
       <c r="C61" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D61" t="s">
-        <v>411</v>
+        <v>463</v>
       </c>
       <c r="E61" t="s">
-        <v>230</v>
+        <v>282</v>
       </c>
       <c r="F61" t="s">
-        <v>412</v>
+        <v>464</v>
       </c>
       <c r="G61" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H61" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="I61" t="s">
-        <v>414</v>
+        <v>466</v>
       </c>
       <c r="J61" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K61" t="s">
-        <v>415</v>
+        <v>467</v>
       </c>
       <c r="L61" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
       <c r="M61" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N61" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O61"/>
+      <c r="P61"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>20244290</v>
       </c>
       <c r="B62" t="s">
-        <v>417</v>
+        <v>469</v>
       </c>
       <c r="C62" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D62" t="s">
-        <v>418</v>
+        <v>470</v>
       </c>
       <c r="E62" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F62" t="s">
-        <v>419</v>
+        <v>471</v>
       </c>
       <c r="G62" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H62" t="s">
-        <v>420</v>
+        <v>472</v>
       </c>
       <c r="I62" t="s">
-        <v>421</v>
+        <v>473</v>
       </c>
       <c r="J62" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K62" t="s">
-        <v>422</v>
+        <v>474</v>
       </c>
       <c r="L62" t="s">
-        <v>423</v>
+        <v>475</v>
       </c>
       <c r="M62" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N62" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O62"/>
+      <c r="P62"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>20244278</v>
       </c>
       <c r="B63" t="s">
-        <v>424</v>
+        <v>476</v>
       </c>
       <c r="C63" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D63" t="s">
-        <v>425</v>
+        <v>477</v>
       </c>
       <c r="E63" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="F63" t="s">
-        <v>426</v>
+        <v>478</v>
       </c>
       <c r="G63" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H63" t="s">
-        <v>427</v>
+        <v>479</v>
       </c>
       <c r="I63" t="s">
-        <v>428</v>
+        <v>480</v>
       </c>
       <c r="J63" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K63" t="s">
-        <v>429</v>
+        <v>481</v>
       </c>
       <c r="L63" t="s">
-        <v>430</v>
+        <v>482</v>
       </c>
       <c r="M63" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N63" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O63"/>
+      <c r="P63"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>20244082</v>
       </c>
       <c r="B64" t="s">
-        <v>431</v>
+        <v>483</v>
       </c>
       <c r="C64" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D64" t="s">
-        <v>307</v>
+        <v>359</v>
       </c>
       <c r="E64" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F64" t="s">
-        <v>432</v>
+        <v>484</v>
       </c>
       <c r="G64" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H64" t="s">
-        <v>433</v>
+        <v>485</v>
       </c>
       <c r="I64" t="s">
-        <v>434</v>
+        <v>486</v>
       </c>
       <c r="J64" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K64" t="s">
-        <v>435</v>
+        <v>487</v>
       </c>
       <c r="L64" t="s">
-        <v>436</v>
+        <v>488</v>
       </c>
       <c r="M64" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N64" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O64"/>
+      <c r="P64"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>20244112</v>
       </c>
       <c r="B65" t="s">
-        <v>437</v>
+        <v>489</v>
       </c>
       <c r="C65" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D65" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="E65" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F65" t="s">
-        <v>432</v>
+        <v>484</v>
       </c>
       <c r="G65" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H65" t="s">
-        <v>439</v>
+        <v>491</v>
       </c>
       <c r="I65" t="s">
-        <v>440</v>
+        <v>492</v>
       </c>
       <c r="J65" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K65" t="s">
-        <v>441</v>
+        <v>493</v>
       </c>
       <c r="L65" t="s">
-        <v>442</v>
+        <v>494</v>
       </c>
       <c r="M65" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N65" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O65"/>
+      <c r="P65"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>20244131</v>
       </c>
       <c r="B66" t="s">
-        <v>443</v>
+        <v>495</v>
       </c>
       <c r="C66" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D66" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E66" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F66" t="s">
-        <v>432</v>
+        <v>484</v>
       </c>
       <c r="G66" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H66" t="s">
-        <v>444</v>
+        <v>496</v>
       </c>
       <c r="I66" t="s">
-        <v>445</v>
+        <v>497</v>
       </c>
       <c r="J66" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K66" t="s">
-        <v>446</v>
+        <v>498</v>
       </c>
       <c r="L66" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="M66" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N66" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O66"/>
+      <c r="P66"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>20244132</v>
       </c>
       <c r="B67" t="s">
-        <v>448</v>
+        <v>500</v>
       </c>
       <c r="C67" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D67" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="E67" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="F67" t="s">
-        <v>432</v>
+        <v>484</v>
       </c>
       <c r="G67" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H67" t="s">
-        <v>449</v>
+        <v>501</v>
       </c>
       <c r="I67" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
       <c r="J67" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K67" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
       <c r="L67" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
       <c r="M67" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N67" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O67"/>
+      <c r="P67"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>20244133</v>
       </c>
       <c r="B68" t="s">
-        <v>453</v>
+        <v>505</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D68" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="E68" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="F68" t="s">
-        <v>432</v>
+        <v>484</v>
       </c>
       <c r="G68" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H68" t="s">
-        <v>454</v>
+        <v>506</v>
       </c>
       <c r="I68" t="s">
-        <v>455</v>
+        <v>507</v>
       </c>
       <c r="J68" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K68" t="s">
-        <v>456</v>
+        <v>508</v>
       </c>
       <c r="L68" t="s">
-        <v>457</v>
+        <v>509</v>
       </c>
       <c r="M68" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N68" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O68"/>
+      <c r="P68"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>20244137</v>
       </c>
       <c r="B69" t="s">
-        <v>458</v>
+        <v>510</v>
       </c>
       <c r="C69" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D69" t="s">
-        <v>459</v>
+        <v>511</v>
       </c>
       <c r="E69" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>432</v>
+        <v>484</v>
       </c>
       <c r="G69" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H69" t="s">
-        <v>460</v>
+        <v>512</v>
       </c>
       <c r="I69" t="s">
-        <v>461</v>
+        <v>513</v>
       </c>
       <c r="J69" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K69" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="L69" t="s">
-        <v>463</v>
+        <v>515</v>
       </c>
       <c r="M69" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N69" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O69"/>
+      <c r="P69"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>20243948</v>
       </c>
       <c r="B70" t="s">
-        <v>464</v>
+        <v>516</v>
       </c>
       <c r="C70" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D70" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
       <c r="E70" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F70" t="s">
-        <v>466</v>
+        <v>518</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H70" t="s">
-        <v>467</v>
+        <v>519</v>
       </c>
       <c r="I70" t="s">
-        <v>468</v>
+        <v>520</v>
       </c>
       <c r="J70" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K70" t="s">
-        <v>469</v>
+        <v>521</v>
       </c>
       <c r="L70" t="s">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="M70" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N70" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O70"/>
+      <c r="P70"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>20247720</v>
       </c>
       <c r="B71" t="s">
-        <v>471</v>
+        <v>523</v>
       </c>
       <c r="C71" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D71" t="s">
-        <v>282</v>
+        <v>334</v>
       </c>
       <c r="E71" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F71" t="s">
-        <v>472</v>
+        <v>524</v>
       </c>
       <c r="G71" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H71" t="s">
-        <v>473</v>
+        <v>525</v>
       </c>
       <c r="I71" t="s">
-        <v>474</v>
+        <v>526</v>
       </c>
       <c r="J71" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K71" t="s">
-        <v>475</v>
+        <v>527</v>
       </c>
       <c r="L71" t="s">
-        <v>476</v>
+        <v>528</v>
       </c>
       <c r="M71" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N71" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O71"/>
+      <c r="P71"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>20247726</v>
       </c>
       <c r="B72" t="s">
-        <v>477</v>
+        <v>529</v>
       </c>
       <c r="C72" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D72" t="s">
-        <v>307</v>
+        <v>359</v>
       </c>
       <c r="E72" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F72" t="s">
-        <v>472</v>
+        <v>524</v>
       </c>
       <c r="G72" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H72" t="s">
-        <v>478</v>
+        <v>530</v>
       </c>
       <c r="I72" t="s">
-        <v>479</v>
+        <v>531</v>
       </c>
       <c r="J72" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K72" t="s">
-        <v>480</v>
+        <v>532</v>
       </c>
       <c r="L72" t="s">
-        <v>481</v>
+        <v>533</v>
       </c>
       <c r="M72" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N72" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O72"/>
+      <c r="P72"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>20247773</v>
       </c>
       <c r="B73" t="s">
-        <v>482</v>
+        <v>534</v>
       </c>
       <c r="C73" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D73" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="E73" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="F73" t="s">
-        <v>472</v>
+        <v>524</v>
       </c>
       <c r="G73" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H73" t="s">
-        <v>483</v>
+        <v>535</v>
       </c>
       <c r="I73" t="s">
-        <v>484</v>
+        <v>536</v>
       </c>
       <c r="J73" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K73" t="s">
-        <v>485</v>
+        <v>537</v>
       </c>
       <c r="L73" t="s">
-        <v>486</v>
+        <v>538</v>
       </c>
       <c r="M73" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N73" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O73"/>
+      <c r="P73"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>20247774</v>
       </c>
       <c r="B74" t="s">
-        <v>487</v>
+        <v>539</v>
       </c>
       <c r="C74" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D74" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="E74" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="F74" t="s">
-        <v>472</v>
+        <v>524</v>
       </c>
       <c r="G74" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H74" t="s">
-        <v>488</v>
+        <v>540</v>
       </c>
       <c r="I74" t="s">
-        <v>489</v>
+        <v>541</v>
       </c>
       <c r="J74" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K74" t="s">
-        <v>490</v>
+        <v>542</v>
       </c>
       <c r="L74" t="s">
-        <v>491</v>
+        <v>543</v>
       </c>
       <c r="M74" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N74" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O74"/>
+      <c r="P74"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>20243858</v>
       </c>
       <c r="B75" t="s">
-        <v>492</v>
+        <v>544</v>
       </c>
       <c r="C75" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D75" t="s">
-        <v>493</v>
+        <v>545</v>
       </c>
       <c r="E75" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F75" t="s">
-        <v>494</v>
+        <v>546</v>
       </c>
       <c r="G75" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H75" t="s">
-        <v>495</v>
+        <v>547</v>
       </c>
       <c r="I75" t="s">
-        <v>496</v>
+        <v>548</v>
       </c>
       <c r="J75" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K75" t="s">
-        <v>497</v>
+        <v>549</v>
       </c>
       <c r="L75" t="s">
-        <v>498</v>
+        <v>550</v>
       </c>
       <c r="M75" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N75" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O75"/>
+      <c r="P75"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>20243877</v>
       </c>
       <c r="B76" t="s">
-        <v>499</v>
+        <v>551</v>
       </c>
       <c r="C76" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D76" t="s">
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="E76" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F76" t="s">
-        <v>494</v>
+        <v>546</v>
       </c>
       <c r="G76" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H76" t="s">
-        <v>501</v>
+        <v>553</v>
       </c>
       <c r="I76" t="s">
-        <v>502</v>
+        <v>554</v>
       </c>
       <c r="J76" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K76" t="s">
-        <v>503</v>
+        <v>555</v>
       </c>
       <c r="L76" t="s">
-        <v>504</v>
+        <v>556</v>
       </c>
       <c r="M76" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N76" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O76"/>
+      <c r="P76"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>20247622</v>
       </c>
       <c r="B77" t="s">
-        <v>505</v>
+        <v>557</v>
       </c>
       <c r="C77" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D77" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E77" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F77" t="s">
-        <v>506</v>
+        <v>558</v>
       </c>
       <c r="G77" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H77" t="s">
-        <v>507</v>
+        <v>559</v>
       </c>
       <c r="I77" t="s">
-        <v>508</v>
+        <v>560</v>
       </c>
       <c r="J77" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K77" t="s">
-        <v>509</v>
+        <v>561</v>
       </c>
       <c r="L77" t="s">
-        <v>510</v>
+        <v>562</v>
       </c>
       <c r="M77" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N77" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O77"/>
+      <c r="P77"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>20247649</v>
       </c>
       <c r="B78" t="s">
-        <v>511</v>
+        <v>563</v>
       </c>
       <c r="C78" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D78" t="s">
-        <v>512</v>
+        <v>564</v>
       </c>
       <c r="E78" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F78" t="s">
-        <v>506</v>
+        <v>558</v>
       </c>
       <c r="G78" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H78" t="s">
-        <v>513</v>
+        <v>565</v>
       </c>
       <c r="I78" t="s">
-        <v>514</v>
+        <v>566</v>
       </c>
       <c r="J78" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K78" t="s">
-        <v>515</v>
+        <v>567</v>
       </c>
       <c r="L78" t="s">
-        <v>516</v>
+        <v>568</v>
       </c>
       <c r="M78" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N78" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O78"/>
+      <c r="P78"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>20243709</v>
       </c>
       <c r="B79" t="s">
-        <v>517</v>
+        <v>569</v>
       </c>
       <c r="C79" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D79" t="s">
-        <v>518</v>
+        <v>570</v>
       </c>
       <c r="E79" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="F79" t="s">
-        <v>519</v>
+        <v>571</v>
       </c>
       <c r="G79" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H79" t="s">
-        <v>520</v>
+        <v>572</v>
       </c>
       <c r="I79" t="s">
-        <v>521</v>
+        <v>573</v>
       </c>
       <c r="J79" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K79" t="s">
-        <v>522</v>
+        <v>574</v>
       </c>
       <c r="L79" t="s">
-        <v>523</v>
+        <v>575</v>
       </c>
       <c r="M79" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N79" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O79"/>
+      <c r="P79"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>20243773</v>
       </c>
       <c r="B80" t="s">
-        <v>524</v>
+        <v>576</v>
       </c>
       <c r="C80" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D80" t="s">
-        <v>525</v>
+        <v>577</v>
       </c>
       <c r="E80" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F80" t="s">
-        <v>519</v>
+        <v>571</v>
       </c>
       <c r="G80" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H80" t="s">
-        <v>526</v>
+        <v>578</v>
       </c>
       <c r="I80" t="s">
-        <v>527</v>
+        <v>579</v>
       </c>
       <c r="J80" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K80" t="s">
-        <v>528</v>
+        <v>580</v>
       </c>
       <c r="L80" t="s">
-        <v>529</v>
+        <v>581</v>
       </c>
       <c r="M80" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N80" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O80"/>
+      <c r="P80"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>20243776</v>
       </c>
       <c r="B81" t="s">
-        <v>530</v>
+        <v>582</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D81" t="s">
-        <v>525</v>
+        <v>577</v>
       </c>
       <c r="E81" t="s">
+        <v>47</v>
+      </c>
+      <c r="F81" t="s">
+        <v>571</v>
+      </c>
+      <c r="G81" t="s">
+        <v>21</v>
+      </c>
+      <c r="H81" t="s">
+        <v>583</v>
+      </c>
+      <c r="I81" t="s">
+        <v>584</v>
+      </c>
+      <c r="J81" t="s">
+        <v>60</v>
+      </c>
+      <c r="K81" t="s">
+        <v>585</v>
+      </c>
+      <c r="L81" t="s">
+        <v>586</v>
+      </c>
+      <c r="M81" t="s">
         <v>41</v>
       </c>
-      <c r="F81" t="s">
-        <v>519</v>
-      </c>
-      <c r="G81" t="s">
-        <v>19</v>
-      </c>
-      <c r="H81" t="s">
-        <v>531</v>
-      </c>
-      <c r="I81" t="s">
-        <v>532</v>
-      </c>
-      <c r="J81" t="s">
-        <v>52</v>
-      </c>
-      <c r="K81" t="s">
-        <v>533</v>
-      </c>
-      <c r="L81" t="s">
-        <v>534</v>
-      </c>
-      <c r="M81" t="s">
-        <v>37</v>
-      </c>
       <c r="N81" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O81"/>
+      <c r="P81"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>20243609</v>
       </c>
       <c r="B82" t="s">
-        <v>535</v>
+        <v>587</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D82" t="s">
-        <v>536</v>
+        <v>588</v>
       </c>
       <c r="E82" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F82" t="s">
-        <v>537</v>
+        <v>589</v>
       </c>
       <c r="G82" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H82" t="s">
-        <v>538</v>
+        <v>590</v>
       </c>
       <c r="I82" t="s">
-        <v>539</v>
+        <v>591</v>
       </c>
       <c r="J82" t="s">
-        <v>540</v>
+        <v>592</v>
       </c>
       <c r="K82" t="s">
-        <v>541</v>
+        <v>593</v>
       </c>
       <c r="L82" t="s">
-        <v>542</v>
+        <v>594</v>
       </c>
       <c r="M82" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N82" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O82"/>
+      <c r="P82"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>20243574</v>
       </c>
       <c r="B83" t="s">
-        <v>543</v>
+        <v>595</v>
       </c>
       <c r="C83" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D83" t="s">
-        <v>256</v>
+        <v>308</v>
       </c>
       <c r="E83" t="s">
-        <v>230</v>
+        <v>282</v>
       </c>
       <c r="F83" t="s">
-        <v>544</v>
+        <v>596</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H83" t="s">
-        <v>545</v>
+        <v>597</v>
       </c>
       <c r="I83" t="s">
-        <v>546</v>
+        <v>598</v>
       </c>
       <c r="J83" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K83" t="s">
-        <v>547</v>
+        <v>599</v>
       </c>
       <c r="L83" t="s">
-        <v>548</v>
+        <v>600</v>
       </c>
       <c r="M83" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N83" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O83"/>
+      <c r="P83"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>20243557</v>
       </c>
       <c r="B84" t="s">
-        <v>549</v>
+        <v>601</v>
       </c>
       <c r="C84" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D84" t="s">
-        <v>550</v>
+        <v>602</v>
       </c>
       <c r="E84" t="s">
-        <v>230</v>
+        <v>282</v>
       </c>
       <c r="F84" t="s">
-        <v>551</v>
+        <v>603</v>
       </c>
       <c r="G84" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H84" t="s">
-        <v>552</v>
+        <v>604</v>
       </c>
       <c r="I84" t="s">
-        <v>553</v>
+        <v>605</v>
       </c>
       <c r="J84" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K84" t="s">
-        <v>554</v>
+        <v>606</v>
       </c>
       <c r="L84" t="s">
-        <v>555</v>
+        <v>607</v>
       </c>
       <c r="M84" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N84" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O84"/>
+      <c r="P84"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>20243471</v>
       </c>
       <c r="B85" t="s">
-        <v>556</v>
+        <v>608</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D85" t="s">
-        <v>557</v>
+        <v>609</v>
       </c>
       <c r="E85"/>
       <c r="F85" t="s">
-        <v>558</v>
+        <v>610</v>
       </c>
       <c r="G85" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H85" t="s">
-        <v>559</v>
+        <v>611</v>
       </c>
       <c r="I85" t="s">
-        <v>560</v>
+        <v>612</v>
       </c>
       <c r="J85" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K85" t="s">
-        <v>561</v>
+        <v>613</v>
       </c>
       <c r="L85" t="s">
-        <v>562</v>
+        <v>614</v>
       </c>
       <c r="M85" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N85" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O85"/>
+      <c r="P85"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>20243468</v>
       </c>
       <c r="B86" t="s">
-        <v>563</v>
+        <v>615</v>
       </c>
       <c r="C86" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D86" t="s">
-        <v>564</v>
+        <v>616</v>
       </c>
       <c r="E86"/>
       <c r="F86" t="s">
-        <v>565</v>
+        <v>617</v>
       </c>
       <c r="G86" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H86" t="s">
-        <v>566</v>
+        <v>618</v>
       </c>
       <c r="I86" t="s">
-        <v>567</v>
+        <v>619</v>
       </c>
       <c r="J86" t="s">
-        <v>195</v>
+        <v>245</v>
       </c>
       <c r="K86" t="s">
-        <v>568</v>
+        <v>620</v>
       </c>
       <c r="L86" t="s">
-        <v>569</v>
+        <v>621</v>
       </c>
       <c r="M86" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N86" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O86"/>
+      <c r="P86"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>20243318</v>
       </c>
       <c r="B87" t="s">
-        <v>570</v>
+        <v>622</v>
       </c>
       <c r="C87" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D87" t="s">
-        <v>571</v>
+        <v>623</v>
       </c>
       <c r="E87" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F87" t="s">
-        <v>572</v>
+        <v>624</v>
       </c>
       <c r="G87" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H87" t="s">
-        <v>573</v>
+        <v>625</v>
       </c>
       <c r="I87" t="s">
-        <v>574</v>
+        <v>626</v>
       </c>
       <c r="J87" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K87" t="s">
-        <v>575</v>
+        <v>627</v>
       </c>
       <c r="L87" t="s">
-        <v>576</v>
+        <v>628</v>
       </c>
       <c r="M87" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N87" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O87"/>
+      <c r="P87"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>20243234</v>
       </c>
       <c r="B88" t="s">
-        <v>577</v>
+        <v>629</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D88" t="s">
-        <v>307</v>
+        <v>359</v>
       </c>
       <c r="E88" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F88" t="s">
-        <v>578</v>
+        <v>630</v>
       </c>
       <c r="G88" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H88" t="s">
-        <v>579</v>
+        <v>631</v>
       </c>
       <c r="I88" t="s">
-        <v>580</v>
+        <v>632</v>
       </c>
       <c r="J88" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K88" t="s">
-        <v>581</v>
+        <v>633</v>
       </c>
       <c r="L88" t="s">
-        <v>582</v>
+        <v>634</v>
       </c>
       <c r="M88" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N88" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O88"/>
+      <c r="P88"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>20243259</v>
       </c>
       <c r="B89" t="s">
-        <v>583</v>
+        <v>635</v>
       </c>
       <c r="C89" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D89" t="s">
-        <v>584</v>
+        <v>636</v>
       </c>
       <c r="E89" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="F89" t="s">
-        <v>578</v>
+        <v>630</v>
       </c>
       <c r="G89" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H89" t="s">
-        <v>585</v>
+        <v>637</v>
       </c>
       <c r="I89" t="s">
-        <v>586</v>
+        <v>638</v>
       </c>
       <c r="J89" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K89" t="s">
-        <v>587</v>
+        <v>639</v>
       </c>
       <c r="L89" t="s">
-        <v>588</v>
+        <v>640</v>
       </c>
       <c r="M89" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N89" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O89"/>
+      <c r="P89"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>20243169</v>
       </c>
       <c r="B90" t="s">
-        <v>589</v>
+        <v>641</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D90" t="s">
-        <v>590</v>
+        <v>642</v>
       </c>
       <c r="E90" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F90" t="s">
-        <v>591</v>
+        <v>643</v>
       </c>
       <c r="G90" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H90" t="s">
-        <v>592</v>
+        <v>644</v>
       </c>
       <c r="I90" t="s">
-        <v>593</v>
+        <v>645</v>
       </c>
       <c r="J90" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K90" t="s">
-        <v>594</v>
+        <v>646</v>
       </c>
       <c r="L90" t="s">
-        <v>595</v>
+        <v>647</v>
       </c>
       <c r="M90" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N90" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O90"/>
+      <c r="P90"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>20247112</v>
       </c>
       <c r="B91" t="s">
-        <v>596</v>
+        <v>648</v>
       </c>
       <c r="C91" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D91" t="s">
-        <v>597</v>
+        <v>649</v>
       </c>
       <c r="E91" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F91" t="s">
-        <v>598</v>
+        <v>650</v>
       </c>
       <c r="G91" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H91" t="s">
-        <v>599</v>
+        <v>651</v>
       </c>
       <c r="I91" t="s">
-        <v>600</v>
+        <v>652</v>
       </c>
       <c r="J91" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K91" t="s">
-        <v>601</v>
+        <v>653</v>
       </c>
       <c r="L91" t="s">
-        <v>602</v>
+        <v>654</v>
       </c>
       <c r="M91" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N91" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O91"/>
+      <c r="P91"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>20247015</v>
       </c>
       <c r="B92" t="s">
-        <v>603</v>
+        <v>655</v>
       </c>
       <c r="C92" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D92" t="s">
-        <v>282</v>
+        <v>334</v>
       </c>
       <c r="E92" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F92" t="s">
-        <v>604</v>
+        <v>656</v>
       </c>
       <c r="G92" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H92" t="s">
-        <v>605</v>
+        <v>657</v>
       </c>
       <c r="I92" t="s">
-        <v>606</v>
+        <v>658</v>
       </c>
       <c r="J92" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K92" t="s">
-        <v>607</v>
+        <v>659</v>
       </c>
       <c r="L92" t="s">
-        <v>608</v>
+        <v>660</v>
       </c>
       <c r="M92" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N92" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O92"/>
+      <c r="P92"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>20234494</v>
       </c>
       <c r="B93" t="s">
-        <v>609</v>
+        <v>661</v>
       </c>
       <c r="C93" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D93" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="E93" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F93" t="s">
-        <v>610</v>
+        <v>662</v>
       </c>
       <c r="G93" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H93" t="s">
-        <v>611</v>
+        <v>663</v>
       </c>
       <c r="I93" t="s">
-        <v>612</v>
+        <v>664</v>
       </c>
       <c r="J93" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K93" t="s">
-        <v>613</v>
+        <v>665</v>
       </c>
       <c r="L93" t="s">
-        <v>614</v>
+        <v>666</v>
       </c>
       <c r="M93" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N93" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O93"/>
+      <c r="P93"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>20234461</v>
       </c>
       <c r="B94" t="s">
-        <v>615</v>
+        <v>667</v>
       </c>
       <c r="C94" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D94" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="E94" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F94" t="s">
-        <v>616</v>
+        <v>668</v>
       </c>
       <c r="G94" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H94" t="s">
-        <v>617</v>
+        <v>669</v>
       </c>
       <c r="I94" t="s">
-        <v>618</v>
+        <v>670</v>
       </c>
       <c r="J94" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K94" t="s">
-        <v>619</v>
+        <v>671</v>
       </c>
       <c r="L94" t="s">
-        <v>620</v>
+        <v>672</v>
       </c>
       <c r="M94" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N94" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O94"/>
+      <c r="P94"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>20234375</v>
       </c>
       <c r="B95" t="s">
-        <v>621</v>
+        <v>673</v>
       </c>
       <c r="C95" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D95" t="s">
-        <v>622</v>
+        <v>674</v>
       </c>
       <c r="E95" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F95" t="s">
-        <v>623</v>
+        <v>675</v>
       </c>
       <c r="G95" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H95" t="s">
-        <v>624</v>
+        <v>676</v>
       </c>
       <c r="I95" t="s">
-        <v>625</v>
+        <v>677</v>
       </c>
       <c r="J95" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K95" t="s">
-        <v>626</v>
+        <v>678</v>
       </c>
       <c r="L95" t="s">
-        <v>627</v>
+        <v>679</v>
       </c>
       <c r="M95" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N95" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O95"/>
+      <c r="P95"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>20234353</v>
       </c>
       <c r="B96" t="s">
-        <v>628</v>
+        <v>680</v>
       </c>
       <c r="C96" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D96" t="s">
-        <v>629</v>
+        <v>681</v>
       </c>
       <c r="E96" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F96" t="s">
-        <v>630</v>
+        <v>682</v>
       </c>
       <c r="G96" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H96" t="s">
-        <v>631</v>
+        <v>683</v>
       </c>
       <c r="I96" t="s">
-        <v>632</v>
+        <v>684</v>
       </c>
       <c r="J96" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K96" t="s">
-        <v>633</v>
+        <v>685</v>
       </c>
       <c r="L96" t="s">
-        <v>634</v>
+        <v>686</v>
       </c>
       <c r="M96" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N96" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O96"/>
+      <c r="P96"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>20234346</v>
       </c>
       <c r="B97" t="s">
-        <v>635</v>
+        <v>687</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D97" t="s">
-        <v>636</v>
+        <v>688</v>
       </c>
       <c r="E97"/>
       <c r="F97" t="s">
-        <v>637</v>
+        <v>689</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H97" t="s">
-        <v>638</v>
+        <v>690</v>
       </c>
       <c r="I97" t="s">
-        <v>639</v>
+        <v>691</v>
       </c>
       <c r="J97" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K97" t="s">
-        <v>640</v>
+        <v>692</v>
       </c>
       <c r="L97" t="s">
-        <v>641</v>
+        <v>693</v>
       </c>
       <c r="M97" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N97" t="s">
-        <v>206</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O97"/>
+      <c r="P97"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>20253425</v>
       </c>
       <c r="B98" t="s">
-        <v>642</v>
+        <v>694</v>
       </c>
       <c r="C98" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D98" t="s">
-        <v>643</v>
+        <v>695</v>
       </c>
       <c r="E98"/>
       <c r="F98" t="s">
-        <v>644</v>
+        <v>696</v>
       </c>
       <c r="G98" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H98" t="s">
-        <v>645</v>
+        <v>697</v>
       </c>
       <c r="I98" t="s">
-        <v>646</v>
+        <v>698</v>
       </c>
       <c r="J98" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K98" t="s">
-        <v>647</v>
+        <v>699</v>
       </c>
       <c r="L98" t="s">
-        <v>648</v>
+        <v>700</v>
       </c>
       <c r="M98" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N98"/>
+      <c r="O98"/>
+      <c r="P98"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>20253246</v>
       </c>
       <c r="B99" t="s">
-        <v>649</v>
+        <v>701</v>
       </c>
       <c r="C99" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D99" t="s">
-        <v>650</v>
+        <v>702</v>
       </c>
       <c r="E99" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F99" t="s">
-        <v>314</v>
+        <v>366</v>
       </c>
       <c r="G99" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H99" t="s">
-        <v>651</v>
+        <v>703</v>
       </c>
       <c r="I99" t="s">
-        <v>652</v>
+        <v>704</v>
       </c>
       <c r="J99" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="K99" t="s">
-        <v>653</v>
+        <v>705</v>
       </c>
       <c r="L99" t="s">
-        <v>654</v>
+        <v>706</v>
       </c>
       <c r="M99" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N99"/>
+      <c r="O99"/>
+      <c r="P99"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>20247975</v>
       </c>
       <c r="B100" t="s">
-        <v>655</v>
+        <v>707</v>
       </c>
       <c r="C100" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D100" t="s">
-        <v>656</v>
+        <v>708</v>
       </c>
       <c r="E100" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F100" t="s">
-        <v>412</v>
+        <v>464</v>
       </c>
       <c r="G100" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H100" t="s">
-        <v>657</v>
+        <v>709</v>
       </c>
       <c r="I100" t="s">
-        <v>658</v>
+        <v>710</v>
       </c>
       <c r="J100" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K100" t="s">
-        <v>659</v>
+        <v>711</v>
       </c>
       <c r="L100" t="s">
-        <v>660</v>
+        <v>712</v>
       </c>
       <c r="M100" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N100"/>
+      <c r="O100"/>
+      <c r="P100"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>20243937</v>
       </c>
       <c r="B101" t="s">
-        <v>661</v>
+        <v>713</v>
       </c>
       <c r="C101" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D101" t="s">
-        <v>662</v>
+        <v>714</v>
       </c>
       <c r="E101" t="s">
-        <v>230</v>
+        <v>282</v>
       </c>
       <c r="F101" t="s">
-        <v>466</v>
+        <v>518</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H101" t="s">
-        <v>663</v>
+        <v>715</v>
       </c>
       <c r="I101" t="s">
-        <v>664</v>
+        <v>716</v>
       </c>
       <c r="J101" t="s">
-        <v>195</v>
+        <v>245</v>
       </c>
       <c r="K101" t="s">
-        <v>665</v>
+        <v>717</v>
       </c>
       <c r="L101" t="s">
-        <v>666</v>
+        <v>718</v>
       </c>
       <c r="M101" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N101"/>
+      <c r="O101"/>
+      <c r="P101"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>20243467</v>
       </c>
       <c r="B102" t="s">
-        <v>667</v>
+        <v>719</v>
       </c>
       <c r="C102" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D102" t="s">
-        <v>668</v>
+        <v>720</v>
       </c>
       <c r="E102"/>
       <c r="F102" t="s">
-        <v>669</v>
+        <v>721</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H102" t="s">
-        <v>670</v>
+        <v>722</v>
       </c>
       <c r="I102" t="s">
-        <v>671</v>
+        <v>723</v>
       </c>
       <c r="J102" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K102" t="s">
-        <v>672</v>
+        <v>724</v>
       </c>
       <c r="L102" t="s">
-        <v>673</v>
+        <v>725</v>
       </c>
       <c r="M102" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N102"/>
+      <c r="O102"/>
+      <c r="P102"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Objets_parlementaires_CDF_EFK.xlsx
+++ b/Objets_parlementaires_CDF_EFK.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="743">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -62,6 +62,9 @@
     <t xml:space="preserve">Texte_DE</t>
   </si>
   <si>
+    <t xml:space="preserve">Titre_IT</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.4785</t>
   </si>
   <si>
@@ -107,6 +110,9 @@
     <t xml:space="preserve">&lt;p&gt;Der Bund nimmt aufgrund der mit dem Kanton Genf abgeschlossenen bzw. der mit dem Kanton Basel-Stadt abzuschliessenden Vereinbarung zur Vergütung des Einsatzes von BAZG-Personal bei den Grenzkontrollen an den Flughäfen Genf und Basel Geld ein. Der Bundesrat wird beauftragt, dafür zu sorgen, dass diese Beträge vollumfänglich dem BAZG zugewiesen werden, und zwar zusätzlich zum ordentlichen Budget des Amtes; die Einnahmen sollen nicht in die allgemeine Bundeskasse fliessen.&lt;/p&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">La remunerazione dei compiti affidati all’Ufficio federale della dogana e della sicurezza dei confini (UDSC) negli aeroporti di Ginevra e di Basilea deve essere a favore dell’UDSC!</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.4620</t>
   </si>
   <si>
@@ -146,6 +152,9 @@
     <t xml:space="preserve">&lt;p&gt;Der Bundesrat wird beauftragt, die rechtlichen Grundlagen zu erlassen, damit baldmöglichst&amp;nbsp; qualitätsgesicherte, aktuelle und insbesondere international anschlussfähige und vergleichbare strukturierte Daten der Bundesverwaltung zur Mehrfachnutzung (unter anderem durch KI) für Forschung, Planung und Steuerung zur Verfügung gestellt werden.&amp;nbsp;Diesbezügliche verbindliche Standards für die Bundesverwaltung sind zu erlassen.&amp;nbsp;Der Bundesrat wird zudem beauftragt, eine prioritäre Auswahl jener Verwaltungsdaten zu definieren, die für eine zügige und KI-taugliche Mehrfachnutzung zuerst harmonisiert, standardisiert und technisch zugänglich gemacht werden sollen.&amp;nbsp;Insbesondere die öffentliche Bereitstellung weiterer Registerdaten ist zu prüfen. Gezielte Pilotversuche nach Art. 15 EMBAG können dies beschleunigen und sind vom Bundesrat mit den benötigten Mitteln zu beantragen.&lt;/p&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">Permettere l’utilizzo multiplo dei dati dell’Amministrazione federale quale base per un’IA affidabile in Svizzera</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.4696</t>
   </si>
   <si>
@@ -176,6 +185,9 @@
     <t xml:space="preserve">&lt;p&gt;Die Fördereffizienz – also das Verhältnis zwischen ausgerichteten Fördermitteln und der tatsächlich produzierten oder zusätzlich bereitgestellten Energie über das Jahr - und insbesondere im Winter – ist zentral für eine faktenbasierte energiepolitische Diskussion. Heute werden zwar die einzelnen Ausgaben des Netzzuschlagsfonds in der Staatsrechnung detailliert offengelegt und der Zubau an Produktionskapazitäten in den Statistiken des Bundesamtes für Energie (BFE) ausgewiesen. Was jedoch fehlt, ist eine systematische Übersicht dieser Daten durch den Bund, so dass die Fördereffizienz der einzelnen Technologien für Politik und Öffentlichkeit nachvollziehbar wird.&lt;/p&gt;&lt;p&gt;Die EFK hat 2023 im Rahmen ihrer Prüfung «Wirkung der Subventionen an grosse Photovoltaikanlagen» explizit festgehalten, dass das BFE bis Ende 2025 die Fördereffizienz für die PV-Technologie veröffentlicht muss. Das BFE hat im Bericht angekündigt, diese Kennzahl im «Cockpit EIV» von Pronovo ab 2024 auszuweisen, was bisher aber nicht erfolgt ist. Der Bund anerkennt die Relevanz einer transparenten Beurteilung des Mitteleinsatzes im Grundsatz.&lt;/p&gt;&lt;p&gt;Aus Gründen der Gleichbehandlung, der Glaubwürdigkeit der Förderpolitik und der strategischen Steuerungsfähigkeit ist es jedoch notwendig, diese Transparenz für alle geförderten Technologien herzustellen – nicht nur für die Photovoltaik. Die erforderlichen Daten liegen beim Bund bereits vor. Eine Veröffentlichung der Fördereffizienz kann vom BFE gestützt auf geltende Verordnungen und Gesetzesgrundlagen vorgenommen werden und erfordert keinen zusätzlichen gesetzlichen Auftrag.&lt;/p&gt;&lt;p&gt;Ich bitte den Bundesrat, folgende Fragen zu beantworten:&lt;/p&gt;&lt;ol style="list-style-type:decimal;"&gt;&lt;li&gt;Ist der Bundesrat bereit, die Fördereffizienz für sämtliche Förderinstrumente und Technologien (PV, Wasserkraft, Biomasse, Wind usw.) regelmässig und standardisiert zu veröffentlichen?&lt;/li&gt;&lt;li&gt;Falls nein: Welche rechtlichen oder organisatorischen Gründe sprechen dagegen, obwohl die Auszahlungen und der Zubau bereits heute vollständig erhoben werden?&lt;/li&gt;&lt;li&gt;Teilt der Bundesrat die Ansicht, dass eine transparente Darstellung der Fördereffizienz für die politische Steuerung der Energiewende notwendig ist – gerade im Hinblick auf zielgerichtete Anreize, Kostenwahrheit und Akzeptanz der Bevölkerung?&lt;/li&gt;&lt;li&gt;Wie stellt der Bundesrat sicher, dass die Veröffentlichungspflicht der Fördereffizienz für die PV ab 2026 im Cockpit EIV vollständig und zeitnah umgesetzt wird?&lt;/li&gt;&lt;/ol&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">Garantire la trasparenza dei dati relativi all’efficienza della promozione di tutte le tecnologie rinnovabili</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.8194</t>
   </si>
   <si>
@@ -266,6 +278,9 @@
     <t xml:space="preserve">&lt;p&gt;Der Bundesrat wird beauftragt, der Konferenz der Kantonsregierungen zu beantragen, die drei folgenden Aufgabenbereiche zusätzlich in das Projekt «Entflechtung 27 – Aufgabenteilung Bund-Kantone» aufzunehmen: a) Gesamtschweizerische Register, b) Tourismus-Infrastruktur, c) Prävention von Naturgefahren. Das gemeinsame Mandat von Bund und KdK sei entsprechend zu ergänzen.&lt;/p&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">Progetto "Dissociazione 27". Integrare altri tre settori di compiti</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.479</t>
   </si>
   <si>
@@ -302,6 +317,9 @@
     <t xml:space="preserve">&lt;p&gt;&lt;i&gt;Art. 10 des Geschäftsreglements des Nationalrates (GRN) wird dahingehend ergänzt, dass eine ständige Regulierungsprüfungskommission (RPK) eingesetzt wird. Der neue Artikel lautet:&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;i&gt;Es bestehen folgende ständige Kommissionen:&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt; 1. Finanzkommission (FK);&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt; 2. Geschäftsprüfungskommission (GPK);&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt; 3. Aussenpolitische Kommission (APK);&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt; 4. Kommission für Wissenschaft, Bildung und Kultur (WBK);&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt; 5. Kommission für soziale Sicherheit und Gesundheit (SGK);&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt; 6. Kommission für Umwelt, Raumplanung und Energie (UREK);&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt; 7. Sicherheitspolitische Kommission (SiK);&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt; 8. Kommission für Verkehr und Fernmeldewesen (KVF);&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt; 9. Kommission für Wirtschaft und Abgaben (WAK);&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt;10. Staatspolitische Kommission (SPK);&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt;11. Kommission für Rechtsfragen (RK);&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt;12.Immunitätskommission (IK);&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt;13. Regulierungsprüfungskommission (RPK);&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;i&gt;Art. 2 Abs. 1 des Parlamentsgesetzes (ParlG) wird durch folgenden Satz ergänzt:&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt;«Einmal jährlich, während einer der ordentlichen Sessionen, unterbreitet die Regulierungsprüfungskommission (RPK) jedes Rates ebendiesem ihre Arbeitsergebnisse sowie ihre Gesetzesvorschläge.»&lt;/i&gt;&lt;/p&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">Stop alla burocrazia! Per una pulizia di primavera di leggi e ordinanze</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.4281</t>
   </si>
   <si>
@@ -332,6 +350,9 @@
     <t xml:space="preserve">&lt;p&gt;Der Bundesrat wird beauftragt, die&amp;nbsp;Agglomerationsprogramme&amp;nbsp;zu prüfen und Wege aufzuzeigen, wie sie auf folgende Ziele hin weiterentwickelt werden können:&amp;nbsp;&lt;/p&gt;&lt;ul style="list-style-type:disc;"&gt;&lt;li&gt;bessere Koordination zwischen den Planungen von Bund, Kantonen und Gemeinden und damit eine umfassendere Integration von Bundesprojekten in die Agglomerationsprogramme, z.B. durch Planungsgremien, in denen alle staatlichen Ebenen vertreten sind;&lt;/li&gt;&lt;li&gt;bessere Koordination zwischen den verschiedenen Verkehrsmitteln sowie zwischen Raumplanung und Mobilität;&amp;nbsp;&lt;/li&gt;&lt;li&gt;Optimierung des Planungsprozesses und verstärkte Wirksamkeitskontrolle.&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">Coordinamento più efficace dei mezzi di trasporto nel quadro dei programmi d'agglomerato</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.4317</t>
   </si>
   <si>
@@ -356,6 +377,9 @@
     <t xml:space="preserve">&lt;p&gt;Der Bundesrat wird beauftragt, eine Änderung des Bundesgesetzes über Radio und Fernsehen (RTVG) vorzulegen, damit die SRG der finanziellen Oberaufsicht der eidgenössischen Finanzkontrolle (EFK) ohne Beeinträchtigung der Programmautonomie, unterstellt wird.&lt;/p&gt;&lt;p&gt;Folgende Bedingungen sollen dabei berücksichtigt werden:&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;1. Programmautonomie gemäss Bundesverfassung (Art. 93 Abs. 3 BV):&lt;/p&gt;&lt;p&gt;Die Unabhängigkeit der SRG in der Programmgestaltung und redaktionellen Tätigkeit bleibt vollständig gewährleistet.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;2. Vermeidung von Doppelspurigkeiten:&lt;/p&gt;&lt;p&gt;Die Aufgabenverteilung zwischen BAKOM, UVEK, interner Revision SRG und EFK ist klar abzustimmen und zu koordinieren, wie das bei vergleichbaren Unternehmen, welche der Aufsicht der EFK unterstehen (z.B. Post, Swisscom, SBB der Fall ist. Doppelspurigkeiten bei der Prüfung sollen vermieden werden, um den Prüfungsprozess effizient zu halten. Die Unabhängigkeit der EFK gemäss Finanzkontrollgesetz bleibt hierbei jederzeit gewahrt.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;3. Ergänzende Aufsicht durch die EFK:&lt;/p&gt;&lt;p&gt;Die bestehende Aufsicht durch UVEK/BAKOM und die aktienrechtliche Abschlussprüfung bleiben erhalten und werden nicht ersetzt. Die EFK wirkt bei der Prüfung gezielt ergänzend und wird selbständig und unabhängig dort eingesetzt, wo sie durch ihre Sonderstellung und Spezialisierung (z.B. Wirtschaftlichkeitsprüfungen) einen Mehrwert schaffen kann, wie zum Beispiel gegenüber internen Revisionen wo der Fokus selbst definiert wird.&amp;nbsp;&lt;/p&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">Rafforzare la vigilanza sulla SSR nel rispetto dell'autonomia in materia di programmi</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.4145</t>
   </si>
   <si>
@@ -383,6 +407,9 @@
     <t xml:space="preserve">&lt;p&gt;Der Bundesrat wird beauftragt, die Subventionsprüfung gemäss Subventionsgesetz (SuG) so anzupassen, dass daraus ein Paket für einen Abbau von schädlichen Subventionen hervorgeht.&amp;nbsp;&lt;/p&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">Per finanze federali sane. Ottimizzare l'esame dei sussidi</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.4188</t>
   </si>
   <si>
@@ -407,6 +434,9 @@
     <t xml:space="preserve">&lt;p&gt;Der Bundesrat wird beauftragt, die regulatorischen und gesetzlichen Rahmenbedingungen so anzupassen, dass der rasche und breite Zugang für Patientinnen und Patienten in der Schweiz zu neuen, innovativen Medikamenten sichergestellt ist. Ziel ist es, die Versorgungssicherheit zu stärken und die Zeitspanne zwischen der Zulassung eines Medikaments und seiner tatsächlichen Verfügbarkeit für die Patientinnen und Patienten zu verkürzen.&lt;/p&gt;&lt;p&gt;Dabei soll die Schweiz bezüglich der Verfügbarkeit neuer Therapien mindestens das Niveau von Deutschland erreichen, gemessen an der vollen Verfügbarkeit über alle Therapiegebiete» im EFPIA Patients W.A.I.T. Indicator.&lt;/p&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">Garantire la sicurezza dell'approvvigionamento e un accesso rapido a farmaci innovativi</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.4225</t>
   </si>
   <si>
@@ -431,6 +461,9 @@
     <t xml:space="preserve">&lt;p&gt;Der Bundesrat antwortet auf meine Frage 25.7494 Pestizide mit PFAS würden für «sehr spezifische Anwendungen zugelassen», in der Landwirtschaft und im nichtlandwirtschaftlichen Bereich, etwa in Zier- und Sportrasen oder in Zierpflanzen.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Bei der Zulassung würden «der Nutzen und die mit der Anwendung verbundenen Risiken» geprüft. Eine Zulassung werde erteilt, wenn die Gefahren und Risiken für Mensch, Tier und Umwelt als akzeptierbar beurteilt würden. Laut verschiedenen Quellen wurden weltweit jedoch weniger als 1% aller PFAS auf ihre gesundheitlichen Auswirkungen untersucht. Bei den untersuchten PFAS zeigte sich offenbar fast immer eine chronische Toxizität für Menschen.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Der Bundesrat verfügt über keinen systematischen Überblick darüber, wo PSM ausgebracht werden. PFAS-Pestizide sind aber offenbar für die Anwendung in nächster Nähe von Kindern zugelassen: In Rasen von Sportplätzen, Pärken, Kinderspielplätzen, Wohnquartieren usw. Auch Menschen, die die Mittel in der Landwirtschaft oder in Gärten anwenden, dürften Gesundheitsrisiken ausgesetzt sein.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Ich bitte den Bundesrat, folgende Fragen zu beantworten:&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;ol&gt;&lt;li&gt;Ist es korrekt, dass weltweit weniger als 1% aller PFAS überhaupt auf gesundheitliche Auswirkungen geprüft wurden und sich bei jenen, die erforscht wurden, fast immer eine chronische Giftigkeit für Menschen zeigte? Falls ja: Auf welcher Basis kann der Bund in der Zulassungspraxis eine verlässliche Risikoabschätzung und Interessenabwägung vornehmen und wo sind sie transparent dargelegt?&lt;/li&gt;&lt;li&gt;Wie begründet der Bundesrat die Zulassung von PFAS-Pestiziden für Anwendungen in unmittelbarer Nähe von Kindern, etwa auf Sportplätzen, Spielwiesen oder in Wohnquartieren, wenn bei den untersuchten PFAS fast immer eine chronische Giftigkeit nachgewiesen wurde?&lt;/li&gt;&lt;li&gt;Wie prüft der Bundesrat die möglichen Langzeitfolgen von PFAS-Pestiziden für Menschen, Tiere und Umwelt ohne ein systematisches Human-Biomonitoring?&lt;/li&gt;&lt;li&gt;Warum gibt es keinen Überblick darüber, wo PFAS-haltige Pestizide in der Schweiz tatsächlich eingesetzt werden? Könnte ein System wie digiFLUX diese Transparenz künftig gewährleisten und welchen konkreten Nutzen hätten Öffentlichkeit und Behörden davon?&lt;/li&gt;&lt;li&gt;Welche Lehren zieht der Bundesrat aus der wiederholten Kritik, etwa im Prüfbericht EFK-23489, an seiner Zulassungspraxis, und welche konkreten Verbesserungen sind bis wann geplant?&lt;/li&gt;&lt;/ol&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">Superfici erbose inquinate. Perché i pesticidi tossici contenenti PFAS sono omologati per l'uso sui campi sportivi e da gioco e nei quartieri residenziali?</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.4234</t>
   </si>
   <si>
@@ -455,6 +488,9 @@
     <t xml:space="preserve">&lt;p&gt;Der Bundesrat soll mittels Verordnungsänderung dafür sorgen, dass die ausgerichteten Finanzhilfen nach Art. 74 des Invalidenversicherungsgesetzes an die Organisationen der privaten Behindertenhilfe sich bei gleichbleibendem Umfang am Bedarf orientieren.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Die freiwerdenden Mittel können für heute nicht gedeckte Leistungen mit ausgewiesenem Bedarf und zur Innovationsförderung eingesetzt werden.&lt;/p&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">Aiuti finanziari in base all'articolo 74 LAI. Promuovere l'orientamento al bisogno e all'innovazione</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.4071</t>
   </si>
   <si>
@@ -482,6 +518,9 @@
     <t xml:space="preserve">&lt;p&gt;In der Schweiz gilt bei Pferden eine Besonderheit: Sie werden entweder als Heim- oder als Nutztiere registriert. Im vergangenen Jahr waren erstmals mehr Pferde als Heim- statt Nutztiere eingetragen. Diese Praxis führt dazu, dass sehr viele Tiere nach ihrem Tod kremiert werden. Damit gehen jährlich mehrere tausend Tonnen an tierischem Protein verloren.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Angesichts der Diskussionen über Nachhaltigkeit, Kreislaufwirtschaft und Food Waste stellt sich die Frage nach der Sinnhaftigkeit dieser Regelung. Zumal ein als Nutztier registriertes Pferd aus emotionalen Gründen ebenfalls kremiert werden darf – die Unterscheidung verliert also auch aus dieser Perspektive an Klarheit und Relevanz.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Zudem ist die Frage nach der künftigen Rolle des Pferdes in der Landwirtschaft im Rahmen der Agrarpolitik 2030 (AP2030) von Bedeutung. Traditionell wurde das Pferd als Arbeits- und Nutztier verstanden, heute dominiert jedoch die Nutzung als Freizeit- und Sporttier. Welche Konsequenzen ergeben sich daraus für die Landwirtschaft, die Tierhaltungspolitik und die Ressourcennutzung?&lt;br&gt;&lt;br&gt;&amp;nbsp;Ich bitte den Bundesrat um die Beantwortung folgender Fragen:&lt;br&gt;&amp;nbsp;&lt;/p&gt;&lt;ol style="list-style-type:decimal;"&gt;&lt;li&gt;Weshalb hält die Schweiz an dieser Sonderregelung (Heim- vs. Nutztier bei Pferden) fest, während umliegende Länder darauf verzichten?&lt;br&gt;&amp;nbsp;&lt;/li&gt;&lt;li&gt;Welche konkreten Schritte prüft oder unternimmt der Bundesrat, um diese Unterscheidung aufzuheben oder mit internationalen Standards zu harmonisieren?&lt;br&gt;&amp;nbsp;&lt;/li&gt;&lt;li&gt;Teilt der Bundesrat die Einschätzung, dass es sich beim heutigen System um eine Form von Food Waste handelt, weil jährlich grosse Mengen an Proteinen ungenutzt verbrannt werden?&lt;br&gt;&amp;nbsp;&lt;/li&gt;&lt;li&gt;Auf welche veterinärmedizinischen oder lebensmittelrechtlichen Grundlagen stützt sich die Unterscheidung? Sind diese aus heutiger wissenschaftlicher Sicht noch gerechtfertigt?&lt;br&gt;&amp;nbsp;&lt;/li&gt;&lt;li&gt;Ist der Bundesrat bereit, im Sinne der Kreislaufwirtschaft Alternativen zur Verbrennung zu prüfen (z. B. Nutzung für Tierfutter, Spezialnahrung oder pharmazeutische Zwecke), um Ressourcen besser zu verwerten?&lt;br&gt;&amp;nbsp;&lt;/li&gt;&lt;li&gt;Wie beurteilt der Bundesrat die heutigen administrativen und finanziellen Hürden für Tierhalterinnen und Tierhalter, die ihr Pferd als Nutztier registrieren möchten, und sieht er hier Reformbedarf?&lt;br&gt;&amp;nbsp;&lt;/li&gt;&lt;li&gt;Welche Bedeutung misst der Bundesrat den Equiden in der künftigen Agrarpolitik 2030 bei? Welche Rolle sollen Pferde in der Landwirtschaft künftig noch spielen?&lt;/li&gt;&lt;/ol&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">Equidi. Animali da compagnia e da reddito. Perché questa regolamentazione speciale e perché così tanto spreco alimentare?</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.4024</t>
   </si>
   <si>
@@ -509,6 +548,9 @@
     <t xml:space="preserve">&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;1. Weshalb lagert das VBS das Qualitäts- und Risikomanagement bei seinen Grossprojekten vollständig an Externe aus, anstatt interne Stellen wie die EFK oder die interne Revision zu stärken?&lt;/p&gt;&lt;p&gt;2. Wie hoch werden die Kosten der neuen Rahmenverträge über zwölf Jahre geschätzt, und wie wird sichergestellt, dass diese nicht aus dem Ruder laufen?&lt;/p&gt;&lt;p&gt;3. Weshalb wurde eine so lange Vertragsdauer gewählt, und welche Möglichkeiten bestehen, Verträge bei Bedarf anzupassen oder zu beenden?&lt;/p&gt;&lt;p&gt;4. Nach welchen Kriterien werden die externen Dienstleister ausgewählt, und wie wird verhindert, dass Interessenkonflikte entstehen oder die Unabhängigkeit beeinträchtigt wird?&lt;/p&gt;&lt;p&gt;5. Welche Lehren zieht das VBS aus früheren externen Gutachten wie jenen der Kanzlei Homburger zum F-35, die als Gefälligkeitsgutachten kritisiert wurden, und wie wird künftig Transparenz garantiert?&lt;/p&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">Progetti di grande portata nel DDPS a fornitori di prestazioni esterni. Quale strategia viene seguita?</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.7863</t>
   </si>
   <si>
@@ -614,6 +656,9 @@
     <t xml:space="preserve">&lt;p&gt;Der Bundesrat wird beauftragt, dem Parlament einen Bericht vorzulegen, der darlegt, (i) welche Steuervergünstigungen auf Ebene Bund bestehen und wie stark die jeweiligen Steuersätze gesenkt werden könnten, wenn die Vergünstigungen aufgehoben werden, (ii) welche der Vergünstigungen zudem einen hohen administrativen Aufwand generieren und (iii) welche in Konflikt mit dem Ziel eines nachhaltigen Wachstums stehen. Basierend auf dieser Analyse soll der Bundesrat Vorschläge für eine ertragsneutrale Vereinfachung des Steuersystems erarbeiten.&lt;/p&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">Sgravare l'economia semplificando il sistema fiscale</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.3984</t>
   </si>
   <si>
@@ -710,6 +755,9 @@
     <t xml:space="preserve">&lt;p&gt;Der Bundesrat wird gebeten, folgende Fragen zu beantworten:&lt;br&gt;1. Wie berechnet die Post die jährliche Kostenunterdeckung bei der Zeitungszustellung, wenn berücksichtigt wird, dass die Zeitungen gleichzeitig mit der Briefpost zugestellt werden?&lt;br&gt;2. Welche Kostenpositionen sind in der Berechnung enthalten, die zum Egebnis führt, dass die Zeitungszustellung defizitär ist?&lt;br&gt;3. Wird die Kostenunterdeckung von einer externen Stelle geprüft oder auditiert, und wenn ja, von welcher? Wenn nein, beabsichtigt der Bundesrat, die Zahlen der Post von einer neutralen Instanz prüfen zu lassen und zu veröffentlichen?&lt;br&gt;4. Falls diese Frage derzeit nicht auditiert wird: Wird der Bundesrat den Geschäftsprüfungskommissionen des National- und Ständerats Zugang zu den Zahlen gewähren, mit denen die Post die defizitäre Zeitungszustellung belegt?&lt;/p&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">Deficit della Posta per la distribuzione di giornali. Quale trasparenza?</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.7601</t>
   </si>
   <si>
@@ -762,6 +810,9 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;p&gt;Der Bundesrat wird beauftragt, den Personalbestand des Fedpol über einen Zeitraum von zehn Jahren schrittweise um 10 bis 20&amp;nbsp;Stellen pro Jahr aufzustocken und somit bis 2035 100 bis 200 zusätzliche Stellen zu schaffen. Diese umfassen Ermittlerinnen und Ermittler, Analystinnen und Analysten, Fachpersonen für IT-Forensik sowie Fachpersonen für internationale Zusammenarbeit. Ziel ist es, eine wirksame Bekämpfung der schweren Kriminalität auf Bundesebene sicherzustellen.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Eine Minderheit der Kommission (Gartmann, Heimgartner, Hess Erich, Hurter Thomas, Tuena, Riner, Walliser, Zuberbühler) beantragt, die Motion abzulehnen.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aumento strategico dell'effettivo del personale di fedpol. Una misura necessaria per la sicurezza nazionale</t>
   </si>
   <si>
     <t xml:space="preserve">25.450</t>
@@ -2237,9 +2288,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:P102" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:P102"/>
-  <tableColumns count="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q102" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:Q102"/>
+  <tableColumns count="17">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Numéro"/>
     <tableColumn id="3" name="Type"/>
@@ -2256,6 +2307,7 @@
     <tableColumn id="14" name="Date_MAJ"/>
     <tableColumn id="15" name="Texte_FR"/>
     <tableColumn id="16" name="Texte_DE"/>
+    <tableColumn id="17" name="Titre_IT"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2595,55 +2647,61 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>20254785</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -2651,49 +2709,52 @@
         <v>20254620</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P3" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4">
@@ -2701,49 +2762,52 @@
         <v>20254696</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P4" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5">
@@ -2751,149 +2815,154 @@
         <v>20258194</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="P5" t="s">
-        <v>65</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="Q5"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>20258273</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P6" t="s">
-        <v>74</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="Q6"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>20254463</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>83</v>
+        <v>87</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="8">
@@ -2901,49 +2970,52 @@
         <v>20250479</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H8" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="M8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O8" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="P8" t="s">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="9">
@@ -2951,49 +3023,52 @@
         <v>20254281</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="M9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="P9" t="s">
-        <v>105</v>
+        <v>111</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="10">
@@ -3001,49 +3076,52 @@
         <v>20254317</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="L10" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="P10" t="s">
-        <v>113</v>
+        <v>120</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="11">
@@ -3051,49 +3129,52 @@
         <v>20254145</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="J11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K11" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="L11" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="M11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O11" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="P11" t="s">
-        <v>122</v>
+        <v>130</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="12">
@@ -3101,49 +3182,52 @@
         <v>20254188</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
         <v>124</v>
       </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" t="s">
-        <v>116</v>
-      </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="I12" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="J12" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K12" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="L12" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="M12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O12" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="P12" t="s">
-        <v>130</v>
+        <v>139</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="13">
@@ -3151,49 +3235,52 @@
         <v>20254225</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H13" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="I13" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="J13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K13" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="L13" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="M13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O13" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="P13" t="s">
-        <v>138</v>
+        <v>148</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="14">
@@ -3201,49 +3288,52 @@
         <v>20254234</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F14" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="G14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H14" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="I14" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="J14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K14" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="L14" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="M14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O14" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="P14" t="s">
-        <v>146</v>
+        <v>157</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="15">
@@ -3251,49 +3341,52 @@
         <v>20254071</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H15" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="I15" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="J15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K15" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="L15" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="M15" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O15" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="P15" t="s">
-        <v>155</v>
+        <v>167</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="16">
@@ -3301,49 +3394,52 @@
         <v>20254024</v>
       </c>
       <c r="B16" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F16" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="G16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H16" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="I16" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="J16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K16" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="M16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O16" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="P16" t="s">
-        <v>164</v>
+        <v>177</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="17">
@@ -3351,197 +3447,203 @@
         <v>20257863</v>
       </c>
       <c r="B17" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="E17" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="F17" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="G17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H17" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="I17" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="J17" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K17" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="M17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O17" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="P17" t="s">
-        <v>173</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="Q17"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>20257888</v>
       </c>
       <c r="B18" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="E18" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="F18" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H18" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="I18" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="J18" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K18" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="L18" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O18" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="P18" t="s">
-        <v>182</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="Q18"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>20257890</v>
       </c>
       <c r="B19" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="G19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H19" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="I19" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="J19" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K19" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="L19" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="M19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O19" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="P19" t="s">
-        <v>190</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="Q19"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>20254003</v>
       </c>
       <c r="B20" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="G20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H20" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="I20" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="J20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K20" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="L20" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="M20" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O20" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="P20" t="s">
-        <v>199</v>
+        <v>213</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="21">
@@ -3549,47 +3651,50 @@
         <v>20253984</v>
       </c>
       <c r="B21" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="G21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H21" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="I21" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="J21" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="K21" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="L21" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O21" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="P21" t="s">
-        <v>207</v>
+        <v>222</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="22">
@@ -3597,149 +3702,154 @@
         <v>20257663</v>
       </c>
       <c r="B22" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="G22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H22" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="I22" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="J22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K22" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="L22" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="M22" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O22" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="P22" t="s">
-        <v>214</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="Q22"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>20257698</v>
       </c>
       <c r="B23" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="E23" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F23" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="G23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H23" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="I23" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="J23" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K23" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="L23" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="M23" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O23" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="P23" t="s">
-        <v>222</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="Q23"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>20253971</v>
       </c>
       <c r="B24" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H24" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="I24" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="J24" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K24" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="L24" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="M24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O24" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="P24" t="s">
-        <v>231</v>
+        <v>246</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="25">
@@ -3747,97 +3857,101 @@
         <v>20257601</v>
       </c>
       <c r="B25" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="E25" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="F25" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="G25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H25" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="I25" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="J25" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K25" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="L25" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="M25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O25" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="P25" t="s">
-        <v>239</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="Q25"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>20253941</v>
       </c>
       <c r="B26" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="G26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H26" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="I26" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="J26" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="K26" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="L26" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="M26" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O26" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="P26" t="s">
-        <v>249</v>
+        <v>265</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="27">
@@ -3845,3474 +3959,3550 @@
         <v>20250450</v>
       </c>
       <c r="B27" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="G27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H27" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="I27" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="J27" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="K27" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="L27" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="M27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N27" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O27"/>
       <c r="P27"/>
+      <c r="Q27"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>20253835</v>
       </c>
       <c r="B28" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F28" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="G28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H28" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="I28" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="J28" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="K28" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="L28" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="M28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N28" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O28"/>
       <c r="P28"/>
+      <c r="Q28"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>20253845</v>
       </c>
       <c r="B29" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D29" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="E29" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F29" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="G29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H29" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="I29" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="J29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K29" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="L29" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="M29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N29" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O29"/>
       <c r="P29"/>
+      <c r="Q29"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>20253855</v>
       </c>
       <c r="B30" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F30" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H30" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="I30" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="J30" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="K30" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="L30" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="M30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N30" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O30"/>
       <c r="P30"/>
+      <c r="Q30"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>20253880</v>
       </c>
       <c r="B31" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D31" t="s">
+        <v>292</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
+        <v>269</v>
+      </c>
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" t="s">
+        <v>293</v>
+      </c>
+      <c r="I31" t="s">
+        <v>294</v>
+      </c>
+      <c r="J31" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" t="s">
+        <v>295</v>
+      </c>
+      <c r="L31" t="s">
+        <v>296</v>
+      </c>
+      <c r="M31" t="s">
+        <v>43</v>
+      </c>
+      <c r="N31" t="s">
         <v>275</v>
-      </c>
-      <c r="E31" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" t="s">
-        <v>252</v>
-      </c>
-      <c r="G31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" t="s">
-        <v>276</v>
-      </c>
-      <c r="I31" t="s">
-        <v>277</v>
-      </c>
-      <c r="J31" t="s">
-        <v>24</v>
-      </c>
-      <c r="K31" t="s">
-        <v>278</v>
-      </c>
-      <c r="L31" t="s">
-        <v>279</v>
-      </c>
-      <c r="M31" t="s">
-        <v>41</v>
-      </c>
-      <c r="N31" t="s">
-        <v>258</v>
       </c>
       <c r="O31"/>
       <c r="P31"/>
+      <c r="Q31"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>20253892</v>
       </c>
       <c r="B32" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D32" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="E32" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="F32" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="G32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H32" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="I32" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="J32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K32" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="L32" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="M32" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N32" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O32"/>
       <c r="P32"/>
+      <c r="Q32"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>20253893</v>
       </c>
       <c r="B33" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D33" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="G33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H33" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="I33" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K33" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="L33" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="M33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N33" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O33"/>
       <c r="P33"/>
+      <c r="Q33"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>20253730</v>
       </c>
       <c r="B34" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="E34" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F34" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="G34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H34" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="I34" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="J34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K34" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="L34" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="M34" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N34" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O34"/>
       <c r="P34"/>
+      <c r="Q34"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>20253630</v>
       </c>
       <c r="B35" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H35" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="I35" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="J35" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K35" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="L35" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="M35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N35" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O35"/>
       <c r="P35"/>
+      <c r="Q35"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>20253637</v>
       </c>
       <c r="B36" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="E36" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="F36" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H36" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="I36" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="J36" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="K36" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="L36" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="M36" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N36" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O36"/>
       <c r="P36"/>
+      <c r="Q36"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>20257355</v>
       </c>
       <c r="B37" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="C37" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D37" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="E37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="G37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H37" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="I37" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="J37" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K37" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="L37" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="M37" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N37" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O37"/>
       <c r="P37"/>
+      <c r="Q37"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>20257419</v>
       </c>
       <c r="B38" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D38" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="E38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F38" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="G38" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H38" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="I38" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="J38" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K38" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="L38" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="M38" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N38" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O38"/>
       <c r="P38"/>
+      <c r="Q38"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>20253479</v>
       </c>
       <c r="B39" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D39" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="E39" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F39" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="G39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H39" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="I39" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="J39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K39" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="L39" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="M39" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N39" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O39"/>
       <c r="P39"/>
+      <c r="Q39"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>20253444</v>
       </c>
       <c r="B40" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="E40" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F40" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="G40" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H40" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="I40" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="J40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K40" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="L40" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="M40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N40" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O40"/>
       <c r="P40"/>
+      <c r="Q40"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>20253309</v>
       </c>
       <c r="B41" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="E41" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="F41" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="G41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H41" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="I41" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="J41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K41" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="L41" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="M41" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N41" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O41"/>
       <c r="P41"/>
+      <c r="Q41"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>20253399</v>
       </c>
       <c r="B42" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D42" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="E42" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F42" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="G42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H42" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="I42" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="J42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K42" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="L42" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="M42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N42" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O42"/>
       <c r="P42"/>
+      <c r="Q42"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>20253404</v>
       </c>
       <c r="B43" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="E43" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F43" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="G43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H43" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="I43" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="J43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K43" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="L43" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="M43" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N43" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O43"/>
       <c r="P43"/>
+      <c r="Q43"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>20253417</v>
       </c>
       <c r="B44" t="s">
+        <v>375</v>
+      </c>
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" t="s">
+        <v>376</v>
+      </c>
+      <c r="E44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" t="s">
         <v>358</v>
       </c>
-      <c r="C44" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" t="s">
-        <v>359</v>
-      </c>
-      <c r="E44" t="s">
-        <v>19</v>
-      </c>
-      <c r="F44" t="s">
-        <v>341</v>
-      </c>
       <c r="G44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H44" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="I44" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="J44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K44" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="L44" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="M44" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N44" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O44"/>
       <c r="P44"/>
+      <c r="Q44"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>20251011</v>
       </c>
       <c r="B45" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D45" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="E45" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F45" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H45" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="I45" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="J45" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K45" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="L45" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="M45" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N45" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O45"/>
       <c r="P45"/>
+      <c r="Q45"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>20253194</v>
       </c>
       <c r="B46" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="C46" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D46" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="E46" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="F46" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H46" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="I46" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="J46" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K46" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="L46" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="M46" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N46" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O46"/>
       <c r="P46"/>
+      <c r="Q46"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>20253203</v>
       </c>
       <c r="B47" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="C47" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D47" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="E47" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="F47" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="G47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H47" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="I47" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="J47" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K47" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="L47" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="M47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N47" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O47"/>
       <c r="P47"/>
+      <c r="Q47"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>20253213</v>
       </c>
       <c r="B48" t="s">
+        <v>400</v>
+      </c>
+      <c r="C48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" t="s">
+        <v>401</v>
+      </c>
+      <c r="E48" t="s">
+        <v>299</v>
+      </c>
+      <c r="F48" t="s">
         <v>383</v>
       </c>
-      <c r="C48" t="s">
-        <v>45</v>
-      </c>
-      <c r="D48" t="s">
-        <v>384</v>
-      </c>
-      <c r="E48" t="s">
-        <v>282</v>
-      </c>
-      <c r="F48" t="s">
-        <v>366</v>
-      </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H48" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="I48" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="J48" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K48" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="L48" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="M48" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N48" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O48"/>
       <c r="P48"/>
+      <c r="Q48"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>20253214</v>
       </c>
       <c r="B49" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="C49" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="E49" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="F49" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="G49" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H49" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="I49" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="J49" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K49" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="L49" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="M49" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N49" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O49"/>
       <c r="P49"/>
+      <c r="Q49"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>20253093</v>
       </c>
       <c r="B50" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="C50" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D50" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F50" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="G50" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H50" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="I50" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="J50" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K50" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="L50" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="M50" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N50" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O50"/>
       <c r="P50"/>
+      <c r="Q50"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>20257213</v>
       </c>
       <c r="B51" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D51" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F51" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="G51" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H51" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="I51" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="J51" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K51" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="L51" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="M51" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N51" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O51"/>
       <c r="P51"/>
+      <c r="Q51"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>20253054</v>
       </c>
       <c r="B52" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E52" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F52" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="G52" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H52" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="I52" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="J52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K52" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="L52" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="M52" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N52" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O52"/>
       <c r="P52"/>
+      <c r="Q52"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>20257102</v>
       </c>
       <c r="B53" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="C53" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D53" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="E53" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F53" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="G53" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H53" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="I53" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="J53" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K53" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="L53" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="M53" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N53" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O53"/>
       <c r="P53"/>
+      <c r="Q53"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>20257129</v>
       </c>
       <c r="B54" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="C54" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D54" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="E54" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F54" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="G54" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H54" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="I54" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="J54" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K54" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="L54" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="M54" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N54" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O54"/>
       <c r="P54"/>
+      <c r="Q54"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>20257138</v>
       </c>
       <c r="B55" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="C55" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D55" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="E55" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="G55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H55" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="I55" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="J55" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K55" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="L55" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="M55" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N55" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O55"/>
       <c r="P55"/>
+      <c r="Q55"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>20253031</v>
       </c>
       <c r="B56" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="C56" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D56" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="E56" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="F56" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="G56" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H56" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="I56" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="J56" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K56" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="L56" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="M56" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N56" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O56"/>
       <c r="P56"/>
+      <c r="Q56"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>20257012</v>
       </c>
       <c r="B57" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="C57" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D57" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="E57" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F57" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="G57" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H57" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="I57" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="J57" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K57" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="L57" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="M57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N57" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O57"/>
       <c r="P57"/>
+      <c r="Q57"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>20253008</v>
       </c>
       <c r="B58" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="E58"/>
       <c r="F58" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="G58" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H58" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="I58" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="J58" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K58" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="L58" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="M58" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N58" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O58"/>
       <c r="P58"/>
+      <c r="Q58"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>20244404</v>
       </c>
       <c r="B59" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="C59" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D59" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="E59" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="F59" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="G59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H59" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="I59" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="J59" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K59" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="L59" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="M59" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N59" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O59"/>
       <c r="P59"/>
+      <c r="Q59"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>20244419</v>
       </c>
       <c r="B60" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="C60" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D60" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="E60" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F60" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H60" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="I60" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="J60" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K60" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="L60" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="M60" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N60" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O60"/>
       <c r="P60"/>
+      <c r="Q60"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>20248043</v>
       </c>
       <c r="B61" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="C61" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D61" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="E61" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="F61" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="G61" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H61" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="I61" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="J61" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K61" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="L61" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="M61" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N61" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O61"/>
       <c r="P61"/>
+      <c r="Q61"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>20244290</v>
       </c>
       <c r="B62" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="C62" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D62" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="E62" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F62" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="G62" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H62" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="I62" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="J62" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K62" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="L62" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="M62" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N62" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O62"/>
       <c r="P62"/>
+      <c r="Q62"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>20244278</v>
       </c>
       <c r="B63" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="C63" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D63" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="E63" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F63" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="G63" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H63" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="I63" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="J63" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K63" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="L63" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="M63" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N63" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O63"/>
       <c r="P63"/>
+      <c r="Q63"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>20244082</v>
       </c>
       <c r="B64" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="C64" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D64" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="E64" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F64" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="G64" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H64" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="I64" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="J64" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K64" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="L64" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="M64" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N64" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O64"/>
       <c r="P64"/>
+      <c r="Q64"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>20244112</v>
       </c>
       <c r="B65" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="C65" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D65" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="E65" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F65" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="G65" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H65" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="I65" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="J65" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K65" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="L65" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="M65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N65" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O65"/>
       <c r="P65"/>
+      <c r="Q65"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>20244131</v>
       </c>
       <c r="B66" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="C66" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D66" t="s">
+        <v>71</v>
+      </c>
+      <c r="E66" t="s">
+        <v>72</v>
+      </c>
+      <c r="F66" t="s">
+        <v>501</v>
+      </c>
+      <c r="G66" t="s">
+        <v>22</v>
+      </c>
+      <c r="H66" t="s">
+        <v>513</v>
+      </c>
+      <c r="I66" t="s">
+        <v>514</v>
+      </c>
+      <c r="J66" t="s">
+        <v>25</v>
+      </c>
+      <c r="K66" t="s">
+        <v>515</v>
+      </c>
+      <c r="L66" t="s">
+        <v>516</v>
+      </c>
+      <c r="M66" t="s">
         <v>67</v>
       </c>
-      <c r="E66" t="s">
-        <v>68</v>
-      </c>
-      <c r="F66" t="s">
-        <v>484</v>
-      </c>
-      <c r="G66" t="s">
-        <v>21</v>
-      </c>
-      <c r="H66" t="s">
-        <v>496</v>
-      </c>
-      <c r="I66" t="s">
-        <v>497</v>
-      </c>
-      <c r="J66" t="s">
-        <v>24</v>
-      </c>
-      <c r="K66" t="s">
-        <v>498</v>
-      </c>
-      <c r="L66" t="s">
-        <v>499</v>
-      </c>
-      <c r="M66" t="s">
-        <v>63</v>
-      </c>
       <c r="N66" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O66"/>
       <c r="P66"/>
+      <c r="Q66"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>20244132</v>
       </c>
       <c r="B67" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="C67" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D67" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="E67" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="F67" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="G67" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H67" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="I67" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="J67" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K67" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="L67" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="M67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N67" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O67"/>
       <c r="P67"/>
+      <c r="Q67"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>20244133</v>
       </c>
       <c r="B68" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="E68" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="F68" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="G68" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H68" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="I68" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="J68" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K68" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="L68" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
       <c r="M68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N68" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O68"/>
       <c r="P68"/>
+      <c r="Q68"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>20244137</v>
       </c>
       <c r="B69" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="C69" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D69" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="E69" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F69" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="G69" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H69" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="I69" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="J69" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K69" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
       <c r="L69" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
       <c r="M69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N69" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O69"/>
       <c r="P69"/>
+      <c r="Q69"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>20243948</v>
       </c>
       <c r="B70" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="C70" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D70" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="E70" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F70" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
       <c r="G70" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H70" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="I70" t="s">
-        <v>520</v>
+        <v>537</v>
       </c>
       <c r="J70" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K70" t="s">
-        <v>521</v>
+        <v>538</v>
       </c>
       <c r="L70" t="s">
-        <v>522</v>
+        <v>539</v>
       </c>
       <c r="M70" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N70" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O70"/>
       <c r="P70"/>
+      <c r="Q70"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>20247720</v>
       </c>
       <c r="B71" t="s">
-        <v>523</v>
+        <v>540</v>
       </c>
       <c r="C71" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D71" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="E71" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F71" t="s">
-        <v>524</v>
+        <v>541</v>
       </c>
       <c r="G71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H71" t="s">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="I71" t="s">
-        <v>526</v>
+        <v>543</v>
       </c>
       <c r="J71" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K71" t="s">
-        <v>527</v>
+        <v>544</v>
       </c>
       <c r="L71" t="s">
-        <v>528</v>
+        <v>545</v>
       </c>
       <c r="M71" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N71" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O71"/>
       <c r="P71"/>
+      <c r="Q71"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>20247726</v>
       </c>
       <c r="B72" t="s">
-        <v>529</v>
+        <v>546</v>
       </c>
       <c r="C72" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D72" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="E72" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F72" t="s">
-        <v>524</v>
+        <v>541</v>
       </c>
       <c r="G72" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H72" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="I72" t="s">
-        <v>531</v>
+        <v>548</v>
       </c>
       <c r="J72" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K72" t="s">
-        <v>532</v>
+        <v>549</v>
       </c>
       <c r="L72" t="s">
-        <v>533</v>
+        <v>550</v>
       </c>
       <c r="M72" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N72" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O72"/>
       <c r="P72"/>
+      <c r="Q72"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>20247773</v>
       </c>
       <c r="B73" t="s">
-        <v>534</v>
+        <v>551</v>
       </c>
       <c r="C73" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D73" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="E73" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="F73" t="s">
-        <v>524</v>
+        <v>541</v>
       </c>
       <c r="G73" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H73" t="s">
-        <v>535</v>
+        <v>552</v>
       </c>
       <c r="I73" t="s">
-        <v>536</v>
+        <v>553</v>
       </c>
       <c r="J73" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K73" t="s">
-        <v>537</v>
+        <v>554</v>
       </c>
       <c r="L73" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="M73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N73" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O73"/>
       <c r="P73"/>
+      <c r="Q73"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>20247774</v>
       </c>
       <c r="B74" t="s">
-        <v>539</v>
+        <v>556</v>
       </c>
       <c r="C74" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D74" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="E74" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="F74" t="s">
-        <v>524</v>
+        <v>541</v>
       </c>
       <c r="G74" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H74" t="s">
-        <v>540</v>
+        <v>557</v>
       </c>
       <c r="I74" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
       <c r="J74" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K74" t="s">
-        <v>542</v>
+        <v>559</v>
       </c>
       <c r="L74" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
       <c r="M74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N74" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O74"/>
       <c r="P74"/>
+      <c r="Q74"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>20243858</v>
       </c>
       <c r="B75" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
       <c r="C75" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D75" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
       <c r="E75" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F75" t="s">
-        <v>546</v>
+        <v>563</v>
       </c>
       <c r="G75" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H75" t="s">
-        <v>547</v>
+        <v>564</v>
       </c>
       <c r="I75" t="s">
-        <v>548</v>
+        <v>565</v>
       </c>
       <c r="J75" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K75" t="s">
-        <v>549</v>
+        <v>566</v>
       </c>
       <c r="L75" t="s">
-        <v>550</v>
+        <v>567</v>
       </c>
       <c r="M75" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N75" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O75"/>
       <c r="P75"/>
+      <c r="Q75"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>20243877</v>
       </c>
       <c r="B76" t="s">
-        <v>551</v>
+        <v>568</v>
       </c>
       <c r="C76" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D76" t="s">
-        <v>552</v>
+        <v>569</v>
       </c>
       <c r="E76" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F76" t="s">
-        <v>546</v>
+        <v>563</v>
       </c>
       <c r="G76" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H76" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
       <c r="I76" t="s">
-        <v>554</v>
+        <v>571</v>
       </c>
       <c r="J76" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K76" t="s">
-        <v>555</v>
+        <v>572</v>
       </c>
       <c r="L76" t="s">
-        <v>556</v>
+        <v>573</v>
       </c>
       <c r="M76" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N76" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O76"/>
       <c r="P76"/>
+      <c r="Q76"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>20247622</v>
       </c>
       <c r="B77" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
       <c r="C77" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D77" t="s">
+        <v>71</v>
+      </c>
+      <c r="E77" t="s">
+        <v>72</v>
+      </c>
+      <c r="F77" t="s">
+        <v>575</v>
+      </c>
+      <c r="G77" t="s">
+        <v>22</v>
+      </c>
+      <c r="H77" t="s">
+        <v>576</v>
+      </c>
+      <c r="I77" t="s">
+        <v>577</v>
+      </c>
+      <c r="J77" t="s">
+        <v>64</v>
+      </c>
+      <c r="K77" t="s">
+        <v>578</v>
+      </c>
+      <c r="L77" t="s">
+        <v>579</v>
+      </c>
+      <c r="M77" t="s">
         <v>67</v>
       </c>
-      <c r="E77" t="s">
-        <v>68</v>
-      </c>
-      <c r="F77" t="s">
-        <v>558</v>
-      </c>
-      <c r="G77" t="s">
-        <v>21</v>
-      </c>
-      <c r="H77" t="s">
-        <v>559</v>
-      </c>
-      <c r="I77" t="s">
-        <v>560</v>
-      </c>
-      <c r="J77" t="s">
-        <v>60</v>
-      </c>
-      <c r="K77" t="s">
-        <v>561</v>
-      </c>
-      <c r="L77" t="s">
-        <v>562</v>
-      </c>
-      <c r="M77" t="s">
-        <v>63</v>
-      </c>
       <c r="N77" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O77"/>
       <c r="P77"/>
+      <c r="Q77"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>20247649</v>
       </c>
       <c r="B78" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="C78" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D78" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="E78" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F78" t="s">
-        <v>558</v>
+        <v>575</v>
       </c>
       <c r="G78" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H78" t="s">
-        <v>565</v>
+        <v>582</v>
       </c>
       <c r="I78" t="s">
-        <v>566</v>
+        <v>583</v>
       </c>
       <c r="J78" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K78" t="s">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="L78" t="s">
-        <v>568</v>
+        <v>585</v>
       </c>
       <c r="M78" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N78" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O78"/>
       <c r="P78"/>
+      <c r="Q78"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>20243709</v>
       </c>
       <c r="B79" t="s">
-        <v>569</v>
+        <v>586</v>
       </c>
       <c r="C79" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D79" t="s">
-        <v>570</v>
+        <v>587</v>
       </c>
       <c r="E79" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F79" t="s">
-        <v>571</v>
+        <v>588</v>
       </c>
       <c r="G79" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H79" t="s">
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="I79" t="s">
-        <v>573</v>
+        <v>590</v>
       </c>
       <c r="J79" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K79" t="s">
-        <v>574</v>
+        <v>591</v>
       </c>
       <c r="L79" t="s">
-        <v>575</v>
+        <v>592</v>
       </c>
       <c r="M79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N79" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O79"/>
       <c r="P79"/>
+      <c r="Q79"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>20243773</v>
       </c>
       <c r="B80" t="s">
-        <v>576</v>
+        <v>593</v>
       </c>
       <c r="C80" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D80" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="E80" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F80" t="s">
-        <v>571</v>
+        <v>588</v>
       </c>
       <c r="G80" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H80" t="s">
-        <v>578</v>
+        <v>595</v>
       </c>
       <c r="I80" t="s">
-        <v>579</v>
+        <v>596</v>
       </c>
       <c r="J80" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K80" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
       <c r="L80" t="s">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="M80" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N80" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O80"/>
       <c r="P80"/>
+      <c r="Q80"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>20243776</v>
       </c>
       <c r="B81" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="C81" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D81" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="E81" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F81" t="s">
-        <v>571</v>
+        <v>588</v>
       </c>
       <c r="G81" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H81" t="s">
-        <v>583</v>
+        <v>600</v>
       </c>
       <c r="I81" t="s">
-        <v>584</v>
+        <v>601</v>
       </c>
       <c r="J81" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K81" t="s">
-        <v>585</v>
+        <v>602</v>
       </c>
       <c r="L81" t="s">
-        <v>586</v>
+        <v>603</v>
       </c>
       <c r="M81" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N81" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O81"/>
       <c r="P81"/>
+      <c r="Q81"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>20243609</v>
       </c>
       <c r="B82" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
       <c r="C82" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D82" t="s">
-        <v>588</v>
+        <v>605</v>
       </c>
       <c r="E82" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F82" t="s">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="G82" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H82" t="s">
-        <v>590</v>
+        <v>607</v>
       </c>
       <c r="I82" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
       <c r="J82" t="s">
-        <v>592</v>
+        <v>609</v>
       </c>
       <c r="K82" t="s">
-        <v>593</v>
+        <v>610</v>
       </c>
       <c r="L82" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="M82" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N82" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O82"/>
       <c r="P82"/>
+      <c r="Q82"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>20243574</v>
       </c>
       <c r="B83" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
       <c r="C83" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D83" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="E83" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="F83" t="s">
-        <v>596</v>
+        <v>613</v>
       </c>
       <c r="G83" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H83" t="s">
-        <v>597</v>
+        <v>614</v>
       </c>
       <c r="I83" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
       <c r="J83" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K83" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
       <c r="L83" t="s">
-        <v>600</v>
+        <v>617</v>
       </c>
       <c r="M83" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N83" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O83"/>
       <c r="P83"/>
+      <c r="Q83"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>20243557</v>
       </c>
       <c r="B84" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
       <c r="C84" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D84" t="s">
-        <v>602</v>
+        <v>619</v>
       </c>
       <c r="E84" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="F84" t="s">
-        <v>603</v>
+        <v>620</v>
       </c>
       <c r="G84" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H84" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
       <c r="I84" t="s">
-        <v>605</v>
+        <v>622</v>
       </c>
       <c r="J84" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K84" t="s">
-        <v>606</v>
+        <v>623</v>
       </c>
       <c r="L84" t="s">
-        <v>607</v>
+        <v>624</v>
       </c>
       <c r="M84" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N84" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O84"/>
       <c r="P84"/>
+      <c r="Q84"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>20243471</v>
       </c>
       <c r="B85" t="s">
-        <v>608</v>
+        <v>625</v>
       </c>
       <c r="C85" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D85" t="s">
-        <v>609</v>
+        <v>626</v>
       </c>
       <c r="E85"/>
       <c r="F85" t="s">
-        <v>610</v>
+        <v>627</v>
       </c>
       <c r="G85" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H85" t="s">
-        <v>611</v>
+        <v>628</v>
       </c>
       <c r="I85" t="s">
-        <v>612</v>
+        <v>629</v>
       </c>
       <c r="J85" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K85" t="s">
-        <v>613</v>
+        <v>630</v>
       </c>
       <c r="L85" t="s">
-        <v>614</v>
+        <v>631</v>
       </c>
       <c r="M85" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N85" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O85"/>
       <c r="P85"/>
+      <c r="Q85"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>20243468</v>
       </c>
       <c r="B86" t="s">
-        <v>615</v>
+        <v>632</v>
       </c>
       <c r="C86" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D86" t="s">
-        <v>616</v>
+        <v>633</v>
       </c>
       <c r="E86"/>
       <c r="F86" t="s">
-        <v>617</v>
+        <v>634</v>
       </c>
       <c r="G86" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H86" t="s">
-        <v>618</v>
+        <v>635</v>
       </c>
       <c r="I86" t="s">
-        <v>619</v>
+        <v>636</v>
       </c>
       <c r="J86" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="K86" t="s">
-        <v>620</v>
+        <v>637</v>
       </c>
       <c r="L86" t="s">
-        <v>621</v>
+        <v>638</v>
       </c>
       <c r="M86" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N86" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O86"/>
       <c r="P86"/>
+      <c r="Q86"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>20243318</v>
       </c>
       <c r="B87" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="C87" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D87" t="s">
-        <v>623</v>
+        <v>640</v>
       </c>
       <c r="E87" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F87" t="s">
-        <v>624</v>
+        <v>641</v>
       </c>
       <c r="G87" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H87" t="s">
-        <v>625</v>
+        <v>642</v>
       </c>
       <c r="I87" t="s">
-        <v>626</v>
+        <v>643</v>
       </c>
       <c r="J87" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K87" t="s">
-        <v>627</v>
+        <v>644</v>
       </c>
       <c r="L87" t="s">
-        <v>628</v>
+        <v>645</v>
       </c>
       <c r="M87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N87" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O87"/>
       <c r="P87"/>
+      <c r="Q87"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>20243234</v>
       </c>
       <c r="B88" t="s">
-        <v>629</v>
+        <v>646</v>
       </c>
       <c r="C88" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D88" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="E88" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F88" t="s">
-        <v>630</v>
+        <v>647</v>
       </c>
       <c r="G88" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H88" t="s">
-        <v>631</v>
+        <v>648</v>
       </c>
       <c r="I88" t="s">
-        <v>632</v>
+        <v>649</v>
       </c>
       <c r="J88" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K88" t="s">
-        <v>633</v>
+        <v>650</v>
       </c>
       <c r="L88" t="s">
-        <v>634</v>
+        <v>651</v>
       </c>
       <c r="M88" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N88" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O88"/>
       <c r="P88"/>
+      <c r="Q88"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>20243259</v>
       </c>
       <c r="B89" t="s">
-        <v>635</v>
+        <v>652</v>
       </c>
       <c r="C89" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D89" t="s">
-        <v>636</v>
+        <v>653</v>
       </c>
       <c r="E89" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F89" t="s">
-        <v>630</v>
+        <v>647</v>
       </c>
       <c r="G89" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H89" t="s">
-        <v>637</v>
+        <v>654</v>
       </c>
       <c r="I89" t="s">
-        <v>638</v>
+        <v>655</v>
       </c>
       <c r="J89" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K89" t="s">
-        <v>639</v>
+        <v>656</v>
       </c>
       <c r="L89" t="s">
-        <v>640</v>
+        <v>657</v>
       </c>
       <c r="M89" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N89" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O89"/>
       <c r="P89"/>
+      <c r="Q89"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>20243169</v>
       </c>
       <c r="B90" t="s">
-        <v>641</v>
+        <v>658</v>
       </c>
       <c r="C90" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D90" t="s">
-        <v>642</v>
+        <v>659</v>
       </c>
       <c r="E90" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F90" t="s">
-        <v>643</v>
+        <v>660</v>
       </c>
       <c r="G90" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H90" t="s">
-        <v>644</v>
+        <v>661</v>
       </c>
       <c r="I90" t="s">
-        <v>645</v>
+        <v>662</v>
       </c>
       <c r="J90" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K90" t="s">
-        <v>646</v>
+        <v>663</v>
       </c>
       <c r="L90" t="s">
-        <v>647</v>
+        <v>664</v>
       </c>
       <c r="M90" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N90" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O90"/>
       <c r="P90"/>
+      <c r="Q90"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>20247112</v>
       </c>
       <c r="B91" t="s">
-        <v>648</v>
+        <v>665</v>
       </c>
       <c r="C91" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D91" t="s">
-        <v>649</v>
+        <v>666</v>
       </c>
       <c r="E91" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F91" t="s">
-        <v>650</v>
+        <v>667</v>
       </c>
       <c r="G91" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H91" t="s">
-        <v>651</v>
+        <v>668</v>
       </c>
       <c r="I91" t="s">
-        <v>652</v>
+        <v>669</v>
       </c>
       <c r="J91" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K91" t="s">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="L91" t="s">
-        <v>654</v>
+        <v>671</v>
       </c>
       <c r="M91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N91" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O91"/>
       <c r="P91"/>
+      <c r="Q91"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>20247015</v>
       </c>
       <c r="B92" t="s">
-        <v>655</v>
+        <v>672</v>
       </c>
       <c r="C92" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D92" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="E92" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F92" t="s">
-        <v>656</v>
+        <v>673</v>
       </c>
       <c r="G92" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H92" t="s">
-        <v>657</v>
+        <v>674</v>
       </c>
       <c r="I92" t="s">
-        <v>658</v>
+        <v>675</v>
       </c>
       <c r="J92" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K92" t="s">
-        <v>659</v>
+        <v>676</v>
       </c>
       <c r="L92" t="s">
-        <v>660</v>
+        <v>677</v>
       </c>
       <c r="M92" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N92" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O92"/>
       <c r="P92"/>
+      <c r="Q92"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>20234494</v>
       </c>
       <c r="B93" t="s">
-        <v>661</v>
+        <v>678</v>
       </c>
       <c r="C93" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D93" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="E93" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F93" t="s">
-        <v>662</v>
+        <v>679</v>
       </c>
       <c r="G93" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H93" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="I93" t="s">
-        <v>664</v>
+        <v>681</v>
       </c>
       <c r="J93" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K93" t="s">
-        <v>665</v>
+        <v>682</v>
       </c>
       <c r="L93" t="s">
-        <v>666</v>
+        <v>683</v>
       </c>
       <c r="M93" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N93" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O93"/>
       <c r="P93"/>
+      <c r="Q93"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>20234461</v>
       </c>
       <c r="B94" t="s">
-        <v>667</v>
+        <v>684</v>
       </c>
       <c r="C94" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D94" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E94" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F94" t="s">
-        <v>668</v>
+        <v>685</v>
       </c>
       <c r="G94" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H94" t="s">
-        <v>669</v>
+        <v>686</v>
       </c>
       <c r="I94" t="s">
-        <v>670</v>
+        <v>687</v>
       </c>
       <c r="J94" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K94" t="s">
-        <v>671</v>
+        <v>688</v>
       </c>
       <c r="L94" t="s">
-        <v>672</v>
+        <v>689</v>
       </c>
       <c r="M94" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N94" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O94"/>
       <c r="P94"/>
+      <c r="Q94"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>20234375</v>
       </c>
       <c r="B95" t="s">
-        <v>673</v>
+        <v>690</v>
       </c>
       <c r="C95" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D95" t="s">
-        <v>674</v>
+        <v>691</v>
       </c>
       <c r="E95" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F95" t="s">
-        <v>675</v>
+        <v>692</v>
       </c>
       <c r="G95" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H95" t="s">
-        <v>676</v>
+        <v>693</v>
       </c>
       <c r="I95" t="s">
-        <v>677</v>
+        <v>694</v>
       </c>
       <c r="J95" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K95" t="s">
-        <v>678</v>
+        <v>695</v>
       </c>
       <c r="L95" t="s">
-        <v>679</v>
+        <v>696</v>
       </c>
       <c r="M95" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N95" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O95"/>
       <c r="P95"/>
+      <c r="Q95"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>20234353</v>
       </c>
       <c r="B96" t="s">
-        <v>680</v>
+        <v>697</v>
       </c>
       <c r="C96" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D96" t="s">
-        <v>681</v>
+        <v>698</v>
       </c>
       <c r="E96" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F96" t="s">
-        <v>682</v>
+        <v>699</v>
       </c>
       <c r="G96" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H96" t="s">
-        <v>683</v>
+        <v>700</v>
       </c>
       <c r="I96" t="s">
-        <v>684</v>
+        <v>701</v>
       </c>
       <c r="J96" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K96" t="s">
-        <v>685</v>
+        <v>702</v>
       </c>
       <c r="L96" t="s">
-        <v>686</v>
+        <v>703</v>
       </c>
       <c r="M96" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N96" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O96"/>
       <c r="P96"/>
+      <c r="Q96"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>20234346</v>
       </c>
       <c r="B97" t="s">
-        <v>687</v>
+        <v>704</v>
       </c>
       <c r="C97" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D97" t="s">
-        <v>688</v>
+        <v>705</v>
       </c>
       <c r="E97"/>
       <c r="F97" t="s">
-        <v>689</v>
+        <v>706</v>
       </c>
       <c r="G97" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H97" t="s">
-        <v>690</v>
+        <v>707</v>
       </c>
       <c r="I97" t="s">
-        <v>691</v>
+        <v>708</v>
       </c>
       <c r="J97" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K97" t="s">
-        <v>692</v>
+        <v>709</v>
       </c>
       <c r="L97" t="s">
-        <v>693</v>
+        <v>710</v>
       </c>
       <c r="M97" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N97" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O97"/>
       <c r="P97"/>
+      <c r="Q97"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>20253425</v>
       </c>
       <c r="B98" t="s">
-        <v>694</v>
+        <v>711</v>
       </c>
       <c r="C98" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D98" t="s">
-        <v>695</v>
+        <v>712</v>
       </c>
       <c r="E98"/>
       <c r="F98" t="s">
-        <v>696</v>
+        <v>713</v>
       </c>
       <c r="G98" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H98" t="s">
-        <v>697</v>
+        <v>714</v>
       </c>
       <c r="I98" t="s">
-        <v>698</v>
+        <v>715</v>
       </c>
       <c r="J98" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K98" t="s">
-        <v>699</v>
+        <v>716</v>
       </c>
       <c r="L98" t="s">
-        <v>700</v>
+        <v>717</v>
       </c>
       <c r="M98" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N98"/>
       <c r="O98"/>
       <c r="P98"/>
+      <c r="Q98"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>20253246</v>
       </c>
       <c r="B99" t="s">
-        <v>701</v>
+        <v>718</v>
       </c>
       <c r="C99" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D99" t="s">
-        <v>702</v>
+        <v>719</v>
       </c>
       <c r="E99" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F99" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="G99" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H99" t="s">
-        <v>703</v>
+        <v>720</v>
       </c>
       <c r="I99" t="s">
-        <v>704</v>
+        <v>721</v>
       </c>
       <c r="J99" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="K99" t="s">
-        <v>705</v>
+        <v>722</v>
       </c>
       <c r="L99" t="s">
-        <v>706</v>
+        <v>723</v>
       </c>
       <c r="M99" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N99"/>
       <c r="O99"/>
       <c r="P99"/>
+      <c r="Q99"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>20247975</v>
       </c>
       <c r="B100" t="s">
-        <v>707</v>
+        <v>724</v>
       </c>
       <c r="C100" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D100" t="s">
-        <v>708</v>
+        <v>725</v>
       </c>
       <c r="E100" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F100" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="G100" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H100" t="s">
-        <v>709</v>
+        <v>726</v>
       </c>
       <c r="I100" t="s">
-        <v>710</v>
+        <v>727</v>
       </c>
       <c r="J100" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K100" t="s">
-        <v>711</v>
+        <v>728</v>
       </c>
       <c r="L100" t="s">
-        <v>712</v>
+        <v>729</v>
       </c>
       <c r="M100" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N100"/>
       <c r="O100"/>
       <c r="P100"/>
+      <c r="Q100"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>20243937</v>
       </c>
       <c r="B101" t="s">
-        <v>713</v>
+        <v>730</v>
       </c>
       <c r="C101" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D101" t="s">
-        <v>714</v>
+        <v>731</v>
       </c>
       <c r="E101" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="F101" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
       <c r="G101" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H101" t="s">
-        <v>715</v>
+        <v>732</v>
       </c>
       <c r="I101" t="s">
-        <v>716</v>
+        <v>733</v>
       </c>
       <c r="J101" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="K101" t="s">
-        <v>717</v>
+        <v>734</v>
       </c>
       <c r="L101" t="s">
-        <v>718</v>
+        <v>735</v>
       </c>
       <c r="M101" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N101"/>
       <c r="O101"/>
       <c r="P101"/>
+      <c r="Q101"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>20243467</v>
       </c>
       <c r="B102" t="s">
-        <v>719</v>
+        <v>736</v>
       </c>
       <c r="C102" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D102" t="s">
-        <v>720</v>
+        <v>737</v>
       </c>
       <c r="E102"/>
       <c r="F102" t="s">
-        <v>721</v>
+        <v>738</v>
       </c>
       <c r="G102" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H102" t="s">
-        <v>722</v>
+        <v>739</v>
       </c>
       <c r="I102" t="s">
-        <v>723</v>
+        <v>740</v>
       </c>
       <c r="J102" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K102" t="s">
-        <v>724</v>
+        <v>741</v>
       </c>
       <c r="L102" t="s">
-        <v>725</v>
+        <v>742</v>
       </c>
       <c r="M102" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N102"/>
       <c r="O102"/>
       <c r="P102"/>
+      <c r="Q102"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Objets_parlementaires_CDF_EFK.xlsx
+++ b/Objets_parlementaires_CDF_EFK.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="750">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -65,6 +65,9 @@
     <t xml:space="preserve">Titre_IT</t>
   </si>
   <si>
+    <t xml:space="preserve">Département</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.4785</t>
   </si>
   <si>
@@ -113,6 +116,9 @@
     <t xml:space="preserve">La remunerazione dei compiti affidati all’Ufficio federale della dogana e della sicurezza dei confini (UDSC) negli aeroporti di Ginevra e di Basilea deve essere a favore dell’UDSC!</t>
   </si>
   <si>
+    <t xml:space="preserve">EFD</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.4620</t>
   </si>
   <si>
@@ -155,6 +161,9 @@
     <t xml:space="preserve">Permettere l’utilizzo multiplo dei dati dell’Amministrazione federale quale base per un’IA affidabile in Svizzera</t>
   </si>
   <si>
+    <t xml:space="preserve">EDI</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.4696</t>
   </si>
   <si>
@@ -188,6 +197,9 @@
     <t xml:space="preserve">Garantire la trasparenza dei dati relativi all’efficienza della promozione di tutte le tecnologie rinnovabili</t>
   </si>
   <si>
+    <t xml:space="preserve">UVEK</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.8194</t>
   </si>
   <si>
@@ -320,6 +332,9 @@
     <t xml:space="preserve">Stop alla burocrazia! Per una pulizia di primavera di leggi e ordinanze</t>
   </si>
   <si>
+    <t xml:space="preserve">Parl</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.4281</t>
   </si>
   <si>
@@ -551,6 +566,9 @@
     <t xml:space="preserve">Progetti di grande portata nel DDPS a fornitori di prestazioni esterni. Quale strategia viene seguita?</t>
   </si>
   <si>
+    <t xml:space="preserve">VBS</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.7863</t>
   </si>
   <si>
@@ -813,6 +831,9 @@
   </si>
   <si>
     <t xml:space="preserve">Aumento strategico dell'effettivo del personale di fedpol. Una misura necessaria per la sicurezza nazionale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EJPD</t>
   </si>
   <si>
     <t xml:space="preserve">25.450</t>
@@ -2288,9 +2309,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q102" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:Q102"/>
-  <tableColumns count="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:R102" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:R102"/>
+  <tableColumns count="18">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Numéro"/>
     <tableColumn id="3" name="Type"/>
@@ -2308,6 +2329,7 @@
     <tableColumn id="15" name="Texte_FR"/>
     <tableColumn id="16" name="Texte_DE"/>
     <tableColumn id="17" name="Titre_IT"/>
+    <tableColumn id="18" name="Département"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2650,58 +2672,64 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>20254785</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="R2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -2709,52 +2737,55 @@
         <v>20254620</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q3" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="R3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -2762,52 +2793,55 @@
         <v>20254696</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Q4" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="R4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -2815,154 +2849,163 @@
         <v>20258194</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="Q5"/>
+      <c r="R5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>20258273</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q6"/>
+      <c r="R6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>20254463</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q7" t="s">
-        <v>88</v>
+        <v>92</v>
+      </c>
+      <c r="R7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -2970,52 +3013,55 @@
         <v>20250479</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O8" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="P8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Q8" t="s">
-        <v>101</v>
+        <v>105</v>
+      </c>
+      <c r="R8" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="9">
@@ -3023,52 +3069,55 @@
         <v>20254281</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E9" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="J9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K9" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="M9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O9" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="P9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="Q9" t="s">
-        <v>112</v>
+        <v>117</v>
+      </c>
+      <c r="R9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="10">
@@ -3076,52 +3125,55 @@
         <v>20254317</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="I10" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="J10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="L10" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="M10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O10" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="P10" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="Q10" t="s">
-        <v>121</v>
+        <v>126</v>
+      </c>
+      <c r="R10" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -3129,52 +3181,55 @@
         <v>20254145</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H11" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="I11" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="J11" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K11" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="M11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="P11" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Q11" t="s">
-        <v>131</v>
+        <v>136</v>
+      </c>
+      <c r="R11" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12">
@@ -3182,52 +3237,55 @@
         <v>20254188</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H12" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="I12" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="J12" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K12" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="L12" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M12" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O12" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="P12" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q12" t="s">
-        <v>140</v>
+        <v>145</v>
+      </c>
+      <c r="R12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13">
@@ -3235,52 +3293,55 @@
         <v>20254225</v>
       </c>
       <c r="B13" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H13" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="I13" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="J13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K13" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="L13" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="M13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O13" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="P13" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q13" t="s">
-        <v>149</v>
+        <v>154</v>
+      </c>
+      <c r="R13" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14">
@@ -3288,52 +3349,55 @@
         <v>20254234</v>
       </c>
       <c r="B14" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F14" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H14" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="I14" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="J14" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K14" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="L14" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="M14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O14" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="P14" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q14" t="s">
-        <v>158</v>
+        <v>163</v>
+      </c>
+      <c r="R14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15">
@@ -3341,52 +3405,55 @@
         <v>20254071</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H15" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="I15" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="J15" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K15" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O15" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="P15" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q15" t="s">
-        <v>168</v>
+        <v>173</v>
+      </c>
+      <c r="R15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16">
@@ -3394,52 +3461,55 @@
         <v>20254024</v>
       </c>
       <c r="B16" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E16" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H16" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="I16" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="J16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K16" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O16" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="P16" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q16" t="s">
-        <v>178</v>
+        <v>183</v>
+      </c>
+      <c r="R16" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="17">
@@ -3447,203 +3517,215 @@
         <v>20257863</v>
       </c>
       <c r="B17" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E17" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F17" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H17" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="I17" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="J17" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K17" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L17" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O17" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="P17" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q17"/>
+      <c r="R17" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>20257888</v>
       </c>
       <c r="B18" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E18" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="F18" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H18" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="I18" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="J18" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K18" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="L18" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="M18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O18" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="P18" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q18"/>
+      <c r="R18" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>20257890</v>
       </c>
       <c r="B19" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H19" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="I19" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J19" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K19" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="L19" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O19" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="P19" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q19"/>
+      <c r="R19" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>20254003</v>
       </c>
       <c r="B20" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D20" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="G20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H20" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="I20" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="J20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K20" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="L20" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M20" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O20" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="P20" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q20" t="s">
-        <v>214</v>
+        <v>220</v>
+      </c>
+      <c r="R20" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21">
@@ -3651,50 +3733,53 @@
         <v>20253984</v>
       </c>
       <c r="B21" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="G21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H21" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="I21" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="J21" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="K21" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="L21" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="M21" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O21" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="P21" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q21" t="s">
-        <v>131</v>
+        <v>136</v>
+      </c>
+      <c r="R21" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -3702,154 +3787,163 @@
         <v>20257663</v>
       </c>
       <c r="B22" t="s">
+        <v>229</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
         <v>223</v>
       </c>
-      <c r="C22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" t="s">
-        <v>217</v>
-      </c>
       <c r="G22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H22" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="I22" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="J22" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K22" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="L22" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="M22" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O22" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="P22" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q22"/>
+      <c r="R22" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>20257698</v>
       </c>
       <c r="B23" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="E23" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F23" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="G23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H23" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="I23" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="J23" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K23" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="L23" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="M23" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O23" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="P23" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q23"/>
+      <c r="R23" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>20253971</v>
       </c>
       <c r="B24" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H24" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="I24" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="J24" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K24" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="L24" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O24" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="P24" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q24" t="s">
-        <v>247</v>
+        <v>253</v>
+      </c>
+      <c r="R24" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="25">
@@ -3857,101 +3951,107 @@
         <v>20257601</v>
       </c>
       <c r="B25" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E25" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="F25" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="G25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H25" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="I25" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="J25" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K25" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="L25" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="M25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O25" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="P25" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q25"/>
+      <c r="R25" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>20253941</v>
       </c>
       <c r="B26" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="G26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H26" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="I26" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="J26" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="K26" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="L26" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="M26" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O26" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="P26" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q26" t="s">
-        <v>266</v>
+        <v>272</v>
+      </c>
+      <c r="R26" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="27">
@@ -3959,3550 +4059,3626 @@
         <v>20250450</v>
       </c>
       <c r="B27" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D27" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="E27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="G27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H27" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="I27" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="J27" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="K27" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="L27" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="M27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N27" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O27"/>
       <c r="P27"/>
       <c r="Q27"/>
+      <c r="R27"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>20253835</v>
       </c>
       <c r="B28" t="s">
+        <v>283</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>284</v>
+      </c>
+      <c r="E28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" t="s">
         <v>276</v>
       </c>
-      <c r="C28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" t="s">
-        <v>277</v>
-      </c>
-      <c r="E28" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" t="s">
-        <v>269</v>
-      </c>
       <c r="G28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H28" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="I28" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="J28" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="K28" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="L28" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="M28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N28" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O28"/>
       <c r="P28"/>
       <c r="Q28"/>
+      <c r="R28"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>20253845</v>
       </c>
       <c r="B29" t="s">
+        <v>289</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" t="s">
+        <v>276</v>
+      </c>
+      <c r="G29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" t="s">
+        <v>290</v>
+      </c>
+      <c r="I29" t="s">
+        <v>291</v>
+      </c>
+      <c r="J29" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29" t="s">
+        <v>292</v>
+      </c>
+      <c r="L29" t="s">
+        <v>293</v>
+      </c>
+      <c r="M29" t="s">
+        <v>45</v>
+      </c>
+      <c r="N29" t="s">
         <v>282</v>
-      </c>
-      <c r="C29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" t="s">
-        <v>198</v>
-      </c>
-      <c r="E29" t="s">
-        <v>72</v>
-      </c>
-      <c r="F29" t="s">
-        <v>269</v>
-      </c>
-      <c r="G29" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" t="s">
-        <v>283</v>
-      </c>
-      <c r="I29" t="s">
-        <v>284</v>
-      </c>
-      <c r="J29" t="s">
-        <v>25</v>
-      </c>
-      <c r="K29" t="s">
-        <v>285</v>
-      </c>
-      <c r="L29" t="s">
-        <v>286</v>
-      </c>
-      <c r="M29" t="s">
-        <v>43</v>
-      </c>
-      <c r="N29" t="s">
-        <v>275</v>
       </c>
       <c r="O29"/>
       <c r="P29"/>
       <c r="Q29"/>
+      <c r="R29"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>20253855</v>
       </c>
       <c r="B30" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H30" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="I30" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="J30" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="K30" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="L30" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="M30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N30" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O30"/>
       <c r="P30"/>
       <c r="Q30"/>
+      <c r="R30"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>20253880</v>
       </c>
       <c r="B31" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D31" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="E31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="G31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H31" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="I31" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="J31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K31" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="L31" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="M31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N31" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O31"/>
       <c r="P31"/>
       <c r="Q31"/>
+      <c r="R31"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>20253892</v>
       </c>
       <c r="B32" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D32" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="E32" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="F32" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="G32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H32" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="I32" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="J32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K32" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="L32" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="M32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N32" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O32"/>
       <c r="P32"/>
       <c r="Q32"/>
+      <c r="R32"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>20253893</v>
       </c>
       <c r="B33" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F33" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="G33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H33" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="I33" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="J33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K33" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="L33" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="M33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N33" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O33"/>
       <c r="P33"/>
       <c r="Q33"/>
+      <c r="R33"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>20253730</v>
       </c>
       <c r="B34" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="E34" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F34" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="G34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H34" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="I34" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="J34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K34" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="L34" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="M34" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N34" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O34"/>
       <c r="P34"/>
       <c r="Q34"/>
+      <c r="R34"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>20253630</v>
       </c>
       <c r="B35" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D35" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="E35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F35" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="G35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H35" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="I35" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="J35" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K35" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="L35" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="M35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N35" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O35"/>
       <c r="P35"/>
       <c r="Q35"/>
+      <c r="R35"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>20253637</v>
       </c>
       <c r="B36" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="E36" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="F36" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H36" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="I36" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="J36" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="K36" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="L36" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="M36" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N36" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O36"/>
       <c r="P36"/>
       <c r="Q36"/>
+      <c r="R36"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>20257355</v>
       </c>
       <c r="B37" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="C37" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D37" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="E37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="G37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H37" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="I37" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="J37" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K37" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="L37" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="M37" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N37" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O37"/>
       <c r="P37"/>
       <c r="Q37"/>
+      <c r="R37"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>20257419</v>
       </c>
       <c r="B38" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C38" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D38" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="E38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F38" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="G38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H38" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="I38" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="J38" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K38" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="L38" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="M38" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N38" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O38"/>
       <c r="P38"/>
       <c r="Q38"/>
+      <c r="R38"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>20253479</v>
       </c>
       <c r="B39" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D39" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="E39" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F39" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="G39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H39" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="I39" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="J39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K39" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="L39" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="M39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N39" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O39"/>
       <c r="P39"/>
       <c r="Q39"/>
+      <c r="R39"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>20253444</v>
       </c>
       <c r="B40" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="E40" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F40" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="G40" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H40" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="I40" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="J40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K40" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="L40" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="M40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N40" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O40"/>
       <c r="P40"/>
       <c r="Q40"/>
+      <c r="R40"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>20253309</v>
       </c>
       <c r="B41" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E41" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="F41" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="G41" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H41" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="I41" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="J41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K41" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="L41" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="M41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N41" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O41"/>
       <c r="P41"/>
       <c r="Q41"/>
+      <c r="R41"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>20253399</v>
       </c>
       <c r="B42" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="C42" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D42" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="E42" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F42" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="G42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H42" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="I42" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="J42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K42" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="L42" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="M42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N42" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O42"/>
       <c r="P42"/>
       <c r="Q42"/>
+      <c r="R42"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>20253404</v>
       </c>
       <c r="B43" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="E43" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F43" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="G43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H43" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="I43" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="J43" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K43" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="L43" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="M43" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N43" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O43"/>
       <c r="P43"/>
       <c r="Q43"/>
+      <c r="R43"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>20253417</v>
       </c>
       <c r="B44" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D44" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="E44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F44" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="G44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H44" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="I44" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="J44" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K44" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="L44" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="M44" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N44" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O44"/>
       <c r="P44"/>
       <c r="Q44"/>
+      <c r="R44"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>20251011</v>
       </c>
       <c r="B45" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D45" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="E45" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F45" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="G45" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H45" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="I45" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="J45" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K45" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="L45" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="M45" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N45" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O45"/>
       <c r="P45"/>
       <c r="Q45"/>
+      <c r="R45"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>20253194</v>
       </c>
       <c r="B46" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="C46" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D46" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="E46" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="F46" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H46" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="I46" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="J46" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K46" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="L46" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="M46" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N46" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O46"/>
       <c r="P46"/>
       <c r="Q46"/>
+      <c r="R46"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>20253203</v>
       </c>
       <c r="B47" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="C47" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D47" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="E47" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="F47" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="G47" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H47" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="I47" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="J47" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K47" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="L47" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="M47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N47" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O47"/>
       <c r="P47"/>
       <c r="Q47"/>
+      <c r="R47"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>20253213</v>
       </c>
       <c r="B48" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="C48" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D48" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="E48" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="F48" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="G48" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H48" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="I48" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="J48" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K48" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="L48" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="M48" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N48" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O48"/>
       <c r="P48"/>
       <c r="Q48"/>
+      <c r="R48"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>20253214</v>
       </c>
       <c r="B49" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="C49" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D49" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="E49" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="F49" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="G49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H49" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="I49" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="J49" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K49" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="L49" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="M49" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N49" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O49"/>
       <c r="P49"/>
       <c r="Q49"/>
+      <c r="R49"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>20253093</v>
       </c>
       <c r="B50" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="C50" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D50" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="E50" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F50" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="G50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H50" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="I50" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="J50" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K50" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="L50" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="M50" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N50" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O50"/>
       <c r="P50"/>
       <c r="Q50"/>
+      <c r="R50"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>20257213</v>
       </c>
       <c r="B51" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="C51" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D51" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="E51" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F51" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="G51" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H51" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="I51" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="J51" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K51" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="L51" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="M51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N51" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O51"/>
       <c r="P51"/>
       <c r="Q51"/>
+      <c r="R51"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>20253054</v>
       </c>
       <c r="B52" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E52" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F52" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="G52" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H52" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="I52" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="J52" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K52" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="L52" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="M52" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N52" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O52"/>
       <c r="P52"/>
       <c r="Q52"/>
+      <c r="R52"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>20257102</v>
       </c>
       <c r="B53" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="C53" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D53" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F53" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="G53" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H53" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="I53" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="J53" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K53" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="L53" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="M53" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N53" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O53"/>
       <c r="P53"/>
       <c r="Q53"/>
+      <c r="R53"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>20257129</v>
       </c>
       <c r="B54" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="C54" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D54" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="E54" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F54" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="G54" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H54" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="I54" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="J54" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K54" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="L54" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="M54" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N54" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O54"/>
       <c r="P54"/>
       <c r="Q54"/>
+      <c r="R54"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>20257138</v>
       </c>
       <c r="B55" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="C55" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D55" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F55" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="G55" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H55" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="I55" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="J55" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K55" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="L55" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="M55" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N55" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O55"/>
       <c r="P55"/>
       <c r="Q55"/>
+      <c r="R55"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>20253031</v>
       </c>
       <c r="B56" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="C56" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D56" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="E56" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="F56" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="G56" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H56" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I56" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="J56" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K56" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="L56" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="M56" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N56" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O56"/>
       <c r="P56"/>
       <c r="Q56"/>
+      <c r="R56"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>20257012</v>
       </c>
       <c r="B57" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="C57" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D57" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="E57" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F57" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="G57" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H57" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="I57" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="J57" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K57" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="L57" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="M57" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N57" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O57"/>
       <c r="P57"/>
       <c r="Q57"/>
+      <c r="R57"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>20253008</v>
       </c>
       <c r="B58" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D58" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="E58"/>
       <c r="F58" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="G58" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H58" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="I58" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="J58" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K58" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="L58" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="M58" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N58" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O58"/>
       <c r="P58"/>
       <c r="Q58"/>
+      <c r="R58"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>20244404</v>
       </c>
       <c r="B59" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="C59" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D59" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="E59" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="F59" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="G59" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H59" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="I59" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="J59" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K59" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="L59" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="M59" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N59" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O59"/>
       <c r="P59"/>
       <c r="Q59"/>
+      <c r="R59"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>20244419</v>
       </c>
       <c r="B60" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="C60" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D60" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="E60" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F60" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="G60" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H60" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="I60" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="J60" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K60" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="L60" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="M60" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N60" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O60"/>
       <c r="P60"/>
       <c r="Q60"/>
+      <c r="R60"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>20248043</v>
       </c>
       <c r="B61" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="C61" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D61" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="E61" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="F61" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="G61" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H61" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="I61" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="J61" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K61" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="L61" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="M61" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N61" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O61"/>
       <c r="P61"/>
       <c r="Q61"/>
+      <c r="R61"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>20244290</v>
       </c>
       <c r="B62" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="C62" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D62" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="E62" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F62" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="G62" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H62" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="I62" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="J62" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K62" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="L62" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="M62" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N62" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O62"/>
       <c r="P62"/>
       <c r="Q62"/>
+      <c r="R62"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>20244278</v>
       </c>
       <c r="B63" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="C63" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D63" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="E63" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F63" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="G63" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H63" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="I63" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="J63" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K63" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="L63" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="M63" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N63" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O63"/>
       <c r="P63"/>
       <c r="Q63"/>
+      <c r="R63"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>20244082</v>
       </c>
       <c r="B64" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="C64" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D64" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="E64" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F64" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="G64" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H64" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="I64" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="J64" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K64" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="L64" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="M64" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N64" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O64"/>
       <c r="P64"/>
       <c r="Q64"/>
+      <c r="R64"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>20244112</v>
       </c>
       <c r="B65" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="C65" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D65" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="E65" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F65" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="G65" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H65" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="I65" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="J65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K65" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="L65" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="M65" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N65" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O65"/>
       <c r="P65"/>
       <c r="Q65"/>
+      <c r="R65"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>20244131</v>
       </c>
       <c r="B66" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="C66" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D66" t="s">
+        <v>75</v>
+      </c>
+      <c r="E66" t="s">
+        <v>76</v>
+      </c>
+      <c r="F66" t="s">
+        <v>508</v>
+      </c>
+      <c r="G66" t="s">
+        <v>23</v>
+      </c>
+      <c r="H66" t="s">
+        <v>520</v>
+      </c>
+      <c r="I66" t="s">
+        <v>521</v>
+      </c>
+      <c r="J66" t="s">
+        <v>26</v>
+      </c>
+      <c r="K66" t="s">
+        <v>522</v>
+      </c>
+      <c r="L66" t="s">
+        <v>523</v>
+      </c>
+      <c r="M66" t="s">
         <v>71</v>
       </c>
-      <c r="E66" t="s">
-        <v>72</v>
-      </c>
-      <c r="F66" t="s">
-        <v>501</v>
-      </c>
-      <c r="G66" t="s">
-        <v>22</v>
-      </c>
-      <c r="H66" t="s">
-        <v>513</v>
-      </c>
-      <c r="I66" t="s">
-        <v>514</v>
-      </c>
-      <c r="J66" t="s">
-        <v>25</v>
-      </c>
-      <c r="K66" t="s">
-        <v>515</v>
-      </c>
-      <c r="L66" t="s">
-        <v>516</v>
-      </c>
-      <c r="M66" t="s">
-        <v>67</v>
-      </c>
       <c r="N66" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O66"/>
       <c r="P66"/>
       <c r="Q66"/>
+      <c r="R66"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>20244132</v>
       </c>
       <c r="B67" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="C67" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D67" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E67" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="F67" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="G67" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H67" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="I67" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="J67" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K67" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="L67" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="M67" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N67" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O67"/>
       <c r="P67"/>
       <c r="Q67"/>
+      <c r="R67"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>20244133</v>
       </c>
       <c r="B68" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="C68" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D68" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E68" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="F68" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="G68" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H68" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="I68" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="J68" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K68" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="L68" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="M68" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N68" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O68"/>
       <c r="P68"/>
       <c r="Q68"/>
+      <c r="R68"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>20244137</v>
       </c>
       <c r="B69" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="C69" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D69" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="E69" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F69" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="G69" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H69" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="I69" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="J69" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K69" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="L69" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="M69" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N69" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O69"/>
       <c r="P69"/>
       <c r="Q69"/>
+      <c r="R69"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>20243948</v>
       </c>
       <c r="B70" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="C70" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D70" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="E70" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F70" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="G70" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H70" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="I70" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="J70" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K70" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="L70" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="M70" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N70" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O70"/>
       <c r="P70"/>
       <c r="Q70"/>
+      <c r="R70"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>20247720</v>
       </c>
       <c r="B71" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="C71" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D71" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="E71" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F71" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="G71" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H71" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="I71" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="J71" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K71" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="L71" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="M71" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N71" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O71"/>
       <c r="P71"/>
       <c r="Q71"/>
+      <c r="R71"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>20247726</v>
       </c>
       <c r="B72" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="C72" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D72" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="E72" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F72" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="G72" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H72" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="I72" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="J72" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K72" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="L72" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="M72" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N72" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O72"/>
       <c r="P72"/>
       <c r="Q72"/>
+      <c r="R72"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>20247773</v>
       </c>
       <c r="B73" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="C73" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D73" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E73" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F73" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="G73" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H73" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="I73" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="J73" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K73" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="L73" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="M73" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N73" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O73"/>
       <c r="P73"/>
       <c r="Q73"/>
+      <c r="R73"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>20247774</v>
       </c>
       <c r="B74" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="C74" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D74" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E74" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F74" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="G74" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H74" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="I74" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="J74" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K74" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="L74" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="M74" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N74" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O74"/>
       <c r="P74"/>
       <c r="Q74"/>
+      <c r="R74"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>20243858</v>
       </c>
       <c r="B75" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="C75" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D75" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="E75" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F75" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="G75" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H75" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="I75" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="J75" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K75" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="L75" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="M75" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N75" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O75"/>
       <c r="P75"/>
       <c r="Q75"/>
+      <c r="R75"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>20243877</v>
       </c>
       <c r="B76" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="C76" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D76" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="E76" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F76" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="G76" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H76" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="I76" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="J76" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K76" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="L76" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="M76" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N76" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O76"/>
       <c r="P76"/>
       <c r="Q76"/>
+      <c r="R76"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>20247622</v>
       </c>
       <c r="B77" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="C77" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D77" t="s">
+        <v>75</v>
+      </c>
+      <c r="E77" t="s">
+        <v>76</v>
+      </c>
+      <c r="F77" t="s">
+        <v>582</v>
+      </c>
+      <c r="G77" t="s">
+        <v>23</v>
+      </c>
+      <c r="H77" t="s">
+        <v>583</v>
+      </c>
+      <c r="I77" t="s">
+        <v>584</v>
+      </c>
+      <c r="J77" t="s">
+        <v>68</v>
+      </c>
+      <c r="K77" t="s">
+        <v>585</v>
+      </c>
+      <c r="L77" t="s">
+        <v>586</v>
+      </c>
+      <c r="M77" t="s">
         <v>71</v>
       </c>
-      <c r="E77" t="s">
-        <v>72</v>
-      </c>
-      <c r="F77" t="s">
-        <v>575</v>
-      </c>
-      <c r="G77" t="s">
-        <v>22</v>
-      </c>
-      <c r="H77" t="s">
-        <v>576</v>
-      </c>
-      <c r="I77" t="s">
-        <v>577</v>
-      </c>
-      <c r="J77" t="s">
-        <v>64</v>
-      </c>
-      <c r="K77" t="s">
-        <v>578</v>
-      </c>
-      <c r="L77" t="s">
-        <v>579</v>
-      </c>
-      <c r="M77" t="s">
-        <v>67</v>
-      </c>
       <c r="N77" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O77"/>
       <c r="P77"/>
       <c r="Q77"/>
+      <c r="R77"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>20247649</v>
       </c>
       <c r="B78" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="C78" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D78" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="E78" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F78" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="G78" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H78" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="I78" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="J78" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K78" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="L78" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="M78" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N78" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O78"/>
       <c r="P78"/>
       <c r="Q78"/>
+      <c r="R78"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>20243709</v>
       </c>
       <c r="B79" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="C79" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D79" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="E79" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F79" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="G79" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H79" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="I79" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="J79" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K79" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="L79" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="M79" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N79" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O79"/>
       <c r="P79"/>
       <c r="Q79"/>
+      <c r="R79"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>20243773</v>
       </c>
       <c r="B80" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="C80" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D80" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="E80" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F80" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="G80" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H80" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="I80" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="J80" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K80" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="L80" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="M80" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N80" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O80"/>
       <c r="P80"/>
       <c r="Q80"/>
+      <c r="R80"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>20243776</v>
       </c>
       <c r="B81" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="C81" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D81" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="E81" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F81" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="G81" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H81" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="I81" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="J81" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K81" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="L81" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="M81" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N81" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O81"/>
       <c r="P81"/>
       <c r="Q81"/>
+      <c r="R81"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>20243609</v>
       </c>
       <c r="B82" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="C82" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D82" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="E82" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F82" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="G82" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H82" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="I82" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="J82" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="K82" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="L82" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="M82" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N82" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O82"/>
       <c r="P82"/>
       <c r="Q82"/>
+      <c r="R82"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>20243574</v>
       </c>
       <c r="B83" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="C83" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D83" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="E83" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="F83" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="G83" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H83" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="I83" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="J83" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K83" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="L83" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="M83" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N83" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O83"/>
       <c r="P83"/>
       <c r="Q83"/>
+      <c r="R83"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>20243557</v>
       </c>
       <c r="B84" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="C84" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D84" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="E84" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="F84" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="G84" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H84" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="I84" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="J84" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K84" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="L84" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="M84" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N84" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O84"/>
       <c r="P84"/>
       <c r="Q84"/>
+      <c r="R84"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>20243471</v>
       </c>
       <c r="B85" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="C85" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D85" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="E85"/>
       <c r="F85" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="G85" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H85" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="I85" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="J85" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K85" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="L85" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="M85" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N85" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O85"/>
       <c r="P85"/>
       <c r="Q85"/>
+      <c r="R85"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>20243468</v>
       </c>
       <c r="B86" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="C86" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D86" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="E86"/>
       <c r="F86" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="G86" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H86" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="I86" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="J86" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="K86" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="L86" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="M86" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N86" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O86"/>
       <c r="P86"/>
       <c r="Q86"/>
+      <c r="R86"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>20243318</v>
       </c>
       <c r="B87" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="C87" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D87" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="E87" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F87" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="G87" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H87" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="I87" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="J87" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K87" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="L87" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="M87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N87" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O87"/>
       <c r="P87"/>
       <c r="Q87"/>
+      <c r="R87"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>20243234</v>
       </c>
       <c r="B88" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="C88" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D88" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="E88" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F88" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="G88" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H88" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="I88" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="J88" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K88" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="L88" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="M88" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N88" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O88"/>
       <c r="P88"/>
       <c r="Q88"/>
+      <c r="R88"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>20243259</v>
       </c>
       <c r="B89" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="C89" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D89" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="E89" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F89" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="G89" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H89" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="I89" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="J89" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K89" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="L89" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="M89" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N89" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O89"/>
       <c r="P89"/>
       <c r="Q89"/>
+      <c r="R89"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>20243169</v>
       </c>
       <c r="B90" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="C90" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D90" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="E90" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F90" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="G90" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H90" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="I90" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="J90" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K90" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="L90" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="M90" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N90" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O90"/>
       <c r="P90"/>
       <c r="Q90"/>
+      <c r="R90"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>20247112</v>
       </c>
       <c r="B91" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="C91" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D91" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="E91" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F91" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="G91" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H91" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="I91" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="J91" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K91" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="L91" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="M91" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N91" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O91"/>
       <c r="P91"/>
       <c r="Q91"/>
+      <c r="R91"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>20247015</v>
       </c>
       <c r="B92" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="C92" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D92" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="E92" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F92" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="G92" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H92" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="I92" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="J92" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K92" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="L92" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="M92" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N92" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O92"/>
       <c r="P92"/>
       <c r="Q92"/>
+      <c r="R92"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>20234494</v>
       </c>
       <c r="B93" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="C93" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D93" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="E93" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F93" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="G93" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H93" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="I93" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="J93" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K93" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="L93" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="M93" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N93" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O93"/>
       <c r="P93"/>
       <c r="Q93"/>
+      <c r="R93"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>20234461</v>
       </c>
       <c r="B94" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="C94" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D94" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E94" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F94" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="G94" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H94" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="I94" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="J94" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K94" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="L94" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="M94" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N94" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O94"/>
       <c r="P94"/>
       <c r="Q94"/>
+      <c r="R94"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>20234375</v>
       </c>
       <c r="B95" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="C95" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D95" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="E95" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F95" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="G95" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H95" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="I95" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="J95" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K95" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="L95" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="M95" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N95" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O95"/>
       <c r="P95"/>
       <c r="Q95"/>
+      <c r="R95"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>20234353</v>
       </c>
       <c r="B96" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="C96" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D96" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="E96" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F96" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="G96" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H96" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="I96" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="J96" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K96" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="L96" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="M96" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N96" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O96"/>
       <c r="P96"/>
       <c r="Q96"/>
+      <c r="R96"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>20234346</v>
       </c>
       <c r="B97" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="C97" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D97" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="E97"/>
       <c r="F97" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="G97" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H97" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="I97" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="J97" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K97" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="L97" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="M97" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N97" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O97"/>
       <c r="P97"/>
       <c r="Q97"/>
+      <c r="R97"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>20253425</v>
       </c>
       <c r="B98" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="C98" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D98" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="E98"/>
       <c r="F98" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="G98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H98" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="I98" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="J98" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K98" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="L98" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="M98" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N98"/>
       <c r="O98"/>
       <c r="P98"/>
       <c r="Q98"/>
+      <c r="R98"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>20253246</v>
       </c>
       <c r="B99" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="C99" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D99" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="E99" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F99" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="G99" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H99" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="I99" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="J99" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="K99" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="L99" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="M99" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N99"/>
       <c r="O99"/>
       <c r="P99"/>
       <c r="Q99"/>
+      <c r="R99"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>20247975</v>
       </c>
       <c r="B100" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="C100" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D100" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="E100" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F100" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="G100" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H100" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="I100" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="J100" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K100" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="L100" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="M100" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N100"/>
       <c r="O100"/>
       <c r="P100"/>
       <c r="Q100"/>
+      <c r="R100"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>20243937</v>
       </c>
       <c r="B101" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="C101" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D101" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="E101" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="F101" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H101" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
       <c r="I101" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="J101" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="K101" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="L101" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
       <c r="M101" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N101"/>
       <c r="O101"/>
       <c r="P101"/>
       <c r="Q101"/>
+      <c r="R101"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>20243467</v>
       </c>
       <c r="B102" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="C102" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D102" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="E102"/>
       <c r="F102" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="G102" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H102" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="I102" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="J102" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K102" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="L102" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="M102" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N102"/>
       <c r="O102"/>
       <c r="P102"/>
       <c r="Q102"/>
+      <c r="R102"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Objets_parlementaires_CDF_EFK.xlsx
+++ b/Objets_parlementaires_CDF_EFK.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="963">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -860,7 +860,13 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20250450</t>
   </si>
   <si>
-    <t xml:space="preserve">2026-02-16</t>
+    <t xml:space="preserve">&lt;p&gt;L’art.&amp;nbsp;2, al.&amp;nbsp;2, de la loi sur la transparence (LTrans, RS 152.3) doit être reformulé comme suit&amp;nbsp;:&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;La présente loi ne s’applique pas à la Banque nationale suisse.&amp;nbsp;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Das Bundesgesetz über das Öffentlichkeitsprinzip in der Verwaltung (BGÖ, SR 152.3) ist in Artikel 2 Absatz 2 neu wie folgt zu fassen:&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Das Gesetz gilt nicht für die Schweizerische Nationalbank.&amp;nbsp;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subordinare la Finma al principio di trasparenza</t>
   </si>
   <si>
     <t xml:space="preserve">25.3835</t>
@@ -881,6 +887,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253835</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Le Conseil fédéral est chargé de renforcer de façon ciblée l’encouragement de produits chimiques sûrs et durables. Il veillera à cet égard à la cohérence par rapport aux standards internationaux, à la compétitivité de l’économie suisse et à la capacité d'innovation des entreprises. Il devra concrètement&amp;nbsp;:&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;1. créer un cadre stratégique qui encourage la mise au point, la fabrication et l’utilisation de produits chimiques durables;&lt;/p&gt;&lt;p&gt;2. examiner et adapter les instruments d'aide existants en les orientant vers les principes du développement durable (en particulier dans les domaines de la formation, de la recherche et de l’innovation);&lt;/p&gt;&lt;p&gt;3. créer des incitations visant à améliorer l’innovation et la compétitivité des produits chimiques durables dans les projets industriels;&lt;/p&gt;&lt;p&gt;4. participer activement à la coordination internationale dans la mise au point de produits chimiques durables;&lt;/p&gt;&lt;p&gt;5. jeter les bases favorisant une fabrication et une utilisation plus sûres de produits chimiques et élaborer des critères permettant d’en évaluer la durabilité. À partir de ces éléments, il établira une feuille de route pour le remplacement des substances problématiques par des alternatives sûres et durables.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Der Bundesrat wird beauftragt, die Förderung sicherer und nachhaltiger Chemikalien gezielt zu stärken. Dabei ist auf eine kohärente Ausgestaltung im Einklang mit internationalen Standards hinzuwirken und die Wettbewerbsfähigkeit der Schweizer Wirtschaft sowie die unternehmerische Innovationskraft zu festigen. Konkret soll er:&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;1. einen strategischen Rahmen schaffen, der Entwicklung, Herstellung, Verwendung nachhaltiger Chemikalien fördert&lt;/p&gt;&lt;p&gt;2. bestehende Förderinstrumente auf Ausrichtung an Entwicklungsprinzipien mit nachhaltigem Fokus überprüfen und anpassen (insbeso. Bildungs-, Forschungs-, Innovationsbereich)&lt;/p&gt;&lt;p&gt;3. für Industrieprojekte Anreize schaffen, welche Innovation und Wettbewerbsfähigkeit nachhaltiger Chemieprodukte erhöhen;&lt;/p&gt;&lt;p&gt;4. internationale Koordination in der Entwicklung nachhaltiger Chemikalien aktiv mitgestalten&lt;/p&gt;&lt;p&gt;5. Grundlagen zur sichereren Herstellung und Verwendung von Chemikalien schaffen und Kriterien erarbeiten, welche eine Nachhaltigkeitsbeurteilung ermöglichen. Daraus soll er einen Fahrplan für den Ersatz problematischer Stoffe durch sichere und nachhaltige Alternativen ableiten.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promuovere prodotti chimici sicuri e sostenibili</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.3845</t>
   </si>
   <si>
@@ -896,6 +911,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253845</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Un rapport mandaté par le Valais a évalué l’exposition de 206 enfants vivant à proximité de vignes et de vergers à des pesticides présents dans l’air. Réalisée sur une période de six mois en 2024, l’étude révèle une exposition généralisée: en moyenne, 14 pesticides différents ont été détectés par enfant. Les concentrations augmentaient au printemps, période de pulvérisation, et avec la proximité aux cultures, jusqu’à un kilomètre. De plus, 6 substances interdites en Suisse depuis 2020 ont été retrouvées chez de nombreux enfants.&lt;/p&gt;&lt;p&gt;La taille réduite de l’échantillon, la durée de l’étude, ainsi que l’exclusion de certains pesticides pourtant couramment utilisés ne permettent pas de conclure à des liens entre exposition aux pesticides et symptômes respiratoires aigus. L’étude permet encore moins de tirer des conclusions sur l’innocuité ou la nocivité chronique et à long terme de l’exposition aux pesticides.&lt;/p&gt;&lt;p&gt;Face à ces constats, le rapport recommande d’intensifier, au niveau national, la recherche sur la surveillance de l’exposition aux pesticides et ses effets sur la santé, notamment pour les populations vulnérables. Il préconise des études plus larges et menées sur des durées plus longues. Le rapport souligne également la nécessité de mieux comprendre les effets à long terme ainsi que les impacts des mélanges de substances, souvent appelés "effet cocktail".&lt;/p&gt;&lt;p&gt;Depuis 2008, un projet de cohorte nationale de santé est sur la table du Conseil fédéral (&lt;a href="https://che01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.parlament.ch%2Ffr%2Fratsbetrieb%2Fsuche-curia-vista%2Fgeschaeft%3FAffairId%3D20083223&amp;amp;data=05%7C02%7Cchristophe.clivaz%40parl.ch%7C90e27fa71b614780a7c008ddaea1936c%7C0cf3ddc638a5480885f1cae22925a1b0%7C0%7C0%7C638858731179061251%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;amp;sdata=hoOsK34Q6po%2Bv0ANrpAtEMNnz8TZPFi7j2D%2BLJfgJsQ%3D&amp;amp;reserved=0"&gt;&lt;u&gt;Po. 08.3223&lt;/u&gt;&lt;/a&gt;). En 2024, le CDF a fortement recommandé la mise en place d’une telle structure (rapport 23489).&lt;/p&gt;&lt;p&gt;1. Que prévoit le Conseil fédéral afin de renforcer la compréhension des effets à long terme de l’exposition aux pesticides et de l’effet cocktail? Une étude au niveau national telle que préconisée par les chercheurs et appelée par le Canton du Valais est-elle envisagée?&lt;/p&gt;&lt;p&gt;2. Que fait-il pour renforcer la confiance dans le système d’homologation?&lt;/p&gt;&lt;p&gt;3. Au vu de l’exposition importante des enfants riverains, est-il d’avis que les dispositions concernant la dérive des pesticides sont suffisantes? Un réexamen des distances, par exemple dans le cas des pulvérisations avec des drones, est-il envisagé?&lt;/p&gt;&lt;p&gt;4. Pour quelles raisons les 6 substances mentionnés plus haut ont-elles été interdites en Suisse? Qu’indique le fait qu’elles aient été détectées dans une étude menée plusieurs années après leur interdiction?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Eine Studie im Auftrag des Kantons Wallis bewertete, wie stark 206&amp;nbsp;in der Nähe von Weinbergen und Obstplantagen wohnhafte Kinder durch Pestizide in der Luft belastet waren. Die im Jahr 2024 über einen Zeitraum von 6&amp;nbsp;Monaten durchgeführte Studie zeigte eine umfassende Exposition: Im Durchschnitt wurden 14 verschiedene Pestizide pro Kind nachgewiesen. Im Umkreis von bis zu einem Kilometer um die Anbauflächen stiegen die Konzentrationen im Frühjahr, der Zeit des Sprühens, und mit zunehmender Nähe zu den Kulturen an. Überdies wurden bei vielen Kindern 6 in der Schweiz seit 2020 verbotene Substanzen nachgewiesen.&lt;/p&gt;&lt;p&gt;Aufgrund der geringen Anzahl der Probandinnen und Probanden, des kurzen Studienzeitraums und der Ausklammerung einiger Pestizide, die häufig verwendet werden, kann kein Zusammenhang zwischen der Pestizidexposition und akuten Atemwegssymptomen hergestellt werden. Noch weniger lässt die Studie Rückschlüsse darauf zu, ob die Pestizidexposition langfristig chronische Beeinträchtigungen zur Folge hat.&lt;/p&gt;&lt;p&gt;Der Bericht zur Studie legt deshalb nahe, auf nationaler Ebene die Forschung zur Pestizidexposition und ihren Auswirkungen auf die Gesundheit, insbesondere gefährdeter Bevölkerungsgruppen, zu intensivieren. Er empfiehlt umfassendere und über längere Zeiträume durchgeführte Studien. Der Bericht betont auch die Notwendigkeit, Spätfolgen der Pestizidexposition und Auswirkungen von Pestizidgemischen, die oft als «Cocktaileffekt» bezeichnet werden, besser zu verstehen.&lt;/p&gt;&lt;p&gt;Seit 2008 steht ein Projekt für eine nationale gesundheitsbezogene Umweltbeobachtung auf der Agenda des Bundesrats (&lt;a href="https://che01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.parlament.ch%2Ffr%2Fratsbetrieb%2Fsuche-curia-vista%2Fgeschaeft%3FAffairId%3D20083223&amp;amp;data=05%7C02%7Cchristophe.clivaz%40parl.ch%7C90e27fa71b614780a7c008ddaea1936c%7C0cf3ddc638a5480885f1cae22925a1b0%7C0%7C0%7C638858731179061251%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;amp;sdata=hoOsK34Q6po%2Bv0ANrpAtEMNnz8TZPFi7j2D%2BLJfgJsQ%3D&amp;amp;reserved=0"&gt;&lt;u&gt;Po.&amp;nbsp;08.3223&lt;/u&gt;&lt;/a&gt;). Im Jahr 2024 hat die Eidgenössische Finanzkontrolle (EFK) die Einrichtung eines solchen Instruments dringend empfohlen (Bericht EFK-23489).&lt;/p&gt;&lt;p&gt;1. Wie will der Bundesrat das Verständnis der Spätfolgen der Pestizidexposition und des Cocktaileffekts erhöhen? Ist eine nationale Studie geplant, wie sie im Bericht zur erwähnten Studie empfohlen und vom Kanton Wallis gefordert wird?&lt;/p&gt;&lt;p&gt;2. Was tut der Bundesrat, um das Vertrauen in das Zulassungsverfahren zu stärken?&lt;/p&gt;&lt;p&gt;3. Erachtet er die Bestimmungen zur Pestizidabdrift angesichts der umfassenden Exposition von Kindern, die in der Nähe von Weinbergen und Obstplantagen wohnen, als ausreichend? Zieht der Bundesrat eine Überprüfung der Abstände, z.&amp;nbsp;B. beim Sprühen mit Drohnen, in Betracht?&lt;/p&gt;&lt;p&gt;4. Warum wurden die 6 oben genannten Substanzen in der Schweiz verboten? Was bedeutet es, dass sie mehrere Jahre nach ihrem Verbot in einer Studie nachgewiesen wurden?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proteggere i nostri bambini dai pesticidi rafforzando la ricerca e le misure di prevenzione</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.3855</t>
   </si>
   <si>
@@ -908,6 +932,12 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253855</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Le Conseil fédéral est chargé de renforcer de façon ciblée l’encouragement de produits chimiques sûrs et durables. Il veillera à cet égard à la cohérence par rapport aux standards internationaux, à la compétitivité de l’économie suisse et à la capacité d'innovation des entreprises. Il devra concrètement&amp;nbsp;:&lt;/p&gt;&lt;p&gt;1. créer un cadre stratégique qui encourage la mise au point, la fabrication et l’utilisation de produits chimiques durables;&lt;/p&gt;&lt;p&gt;2. examiner et adapter les instruments d'aide existants en les orientant vers les principes du développement durable (en particulier dans les domaines de la formation, de la recherche et de l’innovation);&lt;/p&gt;&lt;p&gt;3. créer des incitations visant à améliorer l’innovation et la compétitivité des produits chimiques durables dans les projets industriels;&lt;/p&gt;&lt;p&gt;4. participer activement à la coordination internationale dans la mise au point de produits chimiques durables;&lt;/p&gt;&lt;p&gt;5. jeter les bases favorisant une fabrication et une utilisation plus sûres de produits chimiques et élaborer des critères permettant d’en évaluer la durabilité. À partir de ces éléments, il établira une feuille de route pour le remplacement des substances problématiques par des alternatives sûres et durables.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Der Bundesrat wird beauftragt, die Förderung sicherer und nachhaltiger Chemikalien gezielt zu stärken. Dabei ist auf eine kohärente Ausgestaltung im Einklang mit internationalen Standards hinzuwirken und die Wettbewerbsfähigkeit der Schweizer Wirtschaft sowie die unternehmerische Innovationskraft zu festigen. Konkret soll er:&lt;/p&gt;&lt;p&gt;1. einen strategischen Rahmen schaffen, der Entwicklung, Herstellung, Verwendung nachhaltiger Chemikalien fördert&lt;/p&gt;&lt;p&gt;2. bestehende Förderinstrumente auf Ausrichtung an Entwicklungsprinzipien mit nachhaltigem Fokus überprüfen und anpassen (insbeso. Bildungs-, Forschungs-, Innovationsbereich)&lt;/p&gt;&lt;p&gt;3. für Industrieprojekte Anreize schaffen, welche Innovation und Wettbewerbsfähigkeit nachhaltiger Chemieprodukte erhöhen;&lt;/p&gt;&lt;p&gt;4. internationale Koordination in der Entwicklung nachhaltiger Chemikalien aktiv mitgestalten&lt;/p&gt;&lt;p&gt;5. Grundlagen zur sichereren Herstellung und Verwendung von Chemikalien schaffen und Kriterien erarbeiten, welche eine Nachhaltigkeitsbeurteilung ermöglichen. Daraus soll er einen Fahrplan für den Ersatz problematischer Stoffe durch sichere und nachhaltige Alternativen ableiten.&lt;/p&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.3880</t>
   </si>
   <si>
@@ -926,6 +956,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253880</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;TARDOC et les forfaits ambulatoires seront introduits au 1&lt;sup&gt;er&lt;/sup&gt; janvier 2026. Le Conseil fédéral est prié de répondre aux questions suivantes, à propos de la problématique des coûts dans l’assurance obligatoire des soins (AOS) :&lt;/p&gt;&lt;p&gt;1.&amp;nbsp;&amp;nbsp;&amp;nbsp; Quels acteurs ont la responsabilité de protéger les payeurs de primes contre des coûts injustifiés (augmentation du volume des prestations), des tarifs trop élevés (structures tarifaires) ou des prix excessifs (tarifs officiels), et de quelle manière ?&lt;/p&gt;&lt;p&gt;2.&amp;nbsp;&amp;nbsp;&amp;nbsp; Qui veille à ce que lesdits acteurs de la question 1 remplissent correctement leur mission ?&lt;/p&gt;&lt;p&gt;3.&amp;nbsp;&amp;nbsp;&amp;nbsp; Quelles sont les tâches du Conseil fédéral dans le cadre des questions 1 et 2 ?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Tardoc und die ambulanten Pauschalen werden am 1.&amp;nbsp;Januar 2026 eingeführt.&lt;sup&gt;&lt;/sup&gt; Der Bundesrat wird gebeten, folgende Fragen zur Kostenproblematik in der obligatorischen Krankenpflegeversicherung zu beantworten:&lt;/p&gt;&lt;p&gt;1.    Welche Akteure sind dafür verantwortlich, die Prämienzahlerinnen und -zahler vor ungerechtfertigten Kosten (Zunahme der Leistungen), zu hohen Tarifen (Tarifstrukturen) oder überhöhten Preisen (offizielle Tarife) zu schützen, und wie erfolgt dieser Schutz?&lt;/p&gt;&lt;p&gt;2.    Wer sorgt dafür, dass die in der Frage 1 erwähnten Akteure ihre Aufgaben ordnungsgemäss erfüllen?&lt;/p&gt;&lt;p&gt;3.    Welche Aufgaben hat der Bundesrat im Zusammenhang mit den Fragen 1 und 2?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Via libera al Tardoc. Come si tutela chi paga i premi? (1)</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.3892</t>
   </si>
   <si>
@@ -947,6 +986,16 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253892</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Si elle est bien menée et porte sur les bons sujets, l’évaluation des technologies de la santé (ETS) peut réduire considérablement les coûts.&amp;nbsp;&lt;/p&gt;&lt;p&gt;Il ressort pourtant d’un communiqué du Contrôle fédéral des finances du 14 janvier 2025 que l’évaluation des médicaments et des prestations médicales au regard de leur efficacité, de leur adéquation et de leur économicité (critères EAE) n’apporte pas les résultats escomptés et que le potentiel de cet instrument n’est pas exploité de manière rigoureuse.&lt;/p&gt;&lt;p&gt;Selon les termes d’un communiqué publié le 26 février 2025, l’OFSP a pourtant décidé que le programme ETS ferait partie des domaines qui subiraient des coupes en raison des mesures d’économie imposées à l’administration fédérale.&amp;nbsp;&lt;/p&gt;&lt;p&gt;Il apparaît donc qu’au lieu d’utiliser cet instrument de manière plus judicieuse, l’OFSP compte faire des économies dans ce domaine.&amp;nbsp;
+Je prie le Conseil fédéral de répondre aux questions suivantes :&amp;nbsp;&lt;/p&gt;&lt;ol&gt;&lt;li&gt;Quel regard porte-t-il sur la contradiction entre ces deux communiqués ?&lt;/li&gt;&lt;li&gt;Quelles conséquences auront les mesures d’économie prévues dans le domaine du programme ETS sur l’examen différencié des médicaments et des prestations médicales sous l’angle des critères EAE ?&lt;/li&gt;&lt;li&gt;Comment l’ETS pourrait-elle être mise à profit plus efficacement à l’avenir ?&lt;/li&gt;&lt;li&gt;Comment les thèmes proposés dans le cadre du programme ETS sont-ils choisis et quelles sont les possibilités d'amélioration dans ce domaine ?&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Gut durchgeführte Health Technologie Assessments (HTA) mit den richtigen Themen haben einen erheblich kostendämpfenden Effekt.&amp;nbsp;&lt;/p&gt;&lt;p&gt;Einer Medienmitteilung der eidgenössischen Finanzkontrolle vom 14. Januar 2025 ist nun zu entnehmen, dass das Instrument im Bereich der WZW-Anwendung nicht die erwarteten Resultate und Einsparungen bringt bzw. das Potenzial nicht konsequent ausgeschöpft wird.&lt;/p&gt;&lt;p&gt;Gemäss Medienmitteilung vom 26. Februar 2025 identifiziert das BAG die HTA gleichzeitig als einen Bereich, in dem Kürzungen aufgrund der Sparmassnahmen in der Bundesverwaltung vorgenommen werden sollen.&amp;nbsp;&lt;/p&gt;&lt;p&gt;Somit will das BAG hier offenbar Einsparungen vornehmen, statt das Instrument nutzbringender einzusetzen.&amp;nbsp;&lt;/p&gt;&lt;ol&gt;&lt;li&gt;Wie stellt sich der Bundesrat zum Widerspruch zwischen diesen beiden Medienmitteilungen?&lt;/li&gt;&lt;li&gt;Welchen Effekt haben die vorgesehenen Sparmassnahmen bei den HTA auf die Durchführung der differenzierten WZW-Prüfung?&lt;/li&gt;&lt;li&gt;Wie kann aus Sicht des Bundesrates das Instrument HTA künftig wirkungsvoller eingesetzt werden?&lt;/li&gt;&lt;li&gt;Wie findet die Auswahl der Themen der HTA statt und wo sieht der Bundesrat hier Verbesserungspotential?&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTA. Migliorare l’impiego di questo importante strumento</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.3893</t>
   </si>
   <si>
@@ -965,6 +1014,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253893</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Le Conseil fédéral est chargé de présenter un rapport détaillé sur les réserves financières importantes de la SUVA (Caisse nationale suisse d’assurance en cas d’accidents), en précisant :&lt;/p&gt;&lt;ol style="list-style-type:decimal;"&gt;&lt;li&gt;Le montant total des réserves actuelles et leur évolution sur les dix dernières années.&lt;/li&gt;&lt;li&gt;Les critères utilisés pour déterminer le niveau adéquat de ces réserves.&lt;/li&gt;&lt;li&gt;Les mécanismes de gouvernance et de surveillance appliqués à la gestion de ces fonds.&lt;/li&gt;&lt;li&gt;Les éventuelles mesures envisagées pour garantir que ces réserves soient utilisées dans l’intérêt des assurés et des employeurs, notamment en matière de réduction des primes.&lt;/li&gt;&lt;/ol&gt;&lt;p&gt;Ce postulat vise à renforcer la transparence financière d’une institution publique autonome, financée par les cotisations des assurés et des entreprises, et à garantir une gestion conforme à l’intérêt public.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Der Bundesrat wird beauftragt, einen detaillierten Bericht über die erheblichen finanziellen Reserven der schweizerischen Unfallversicherung Suva vorzulegen, der Folgendes präzisiert:&lt;/p&gt;&lt;ol style="list-style-type:decimal;"&gt;&lt;li&gt;die Summe der derzeitigen Reserven und ihre Entwicklung in den letzten zehn Jahren;&lt;/li&gt;&lt;li&gt;die Kriterien zur Bestimmung der angemessenen Höhe der Reserven;&lt;/li&gt;&lt;li&gt;die Steuerungs- und Überwachungsmechanismen, die bei der Verwaltung dieser Gelder angewandt werden;&lt;/li&gt;&lt;li&gt;die allfällig geplanten Massnahmen, die sicherstellen sollen, dass die Reserven im Interesse der Versicherten und der Arbeitgeber verwendet werden, insbesondere im Hinblick auf die Prämiensenkungen.&lt;/li&gt;&lt;/ol&gt;&lt;p&gt;Dieses Postulat zielt darauf ab, die finanzielle Transparenz einer autonomen, öffentlich-rechtlichen Anstalt, die durch die Beiträge der Versicherten und Unternehmen finanziert wird, zu steigern und ihre Verwaltung im öffentlichen Interesse sicherzustellen.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trasparenza e giustificazione delle riserve finanziarie della Suva e controllo del CDF</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.3730</t>
   </si>
   <si>
@@ -986,6 +1044,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253730</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Le Conseil fédéral est chargé de :&lt;/p&gt;&lt;ol style="list-style-type:decimal;"&gt;&lt;li&gt;&lt;strong&gt;I&lt;/strong&gt;dentifier et tenir un registre des entreprises responsables de la production, de l'importation, de l'utilisation ou de la mise sur le marché de substances per- et polyfluoroalkylées (PFAS) ayant conduit à des contaminations environnementales.&lt;/li&gt;&lt;li&gt;Mettre en œuvre et renforcer les instruments juridiques existants (principe du pollueur-payeur, droit de l’environnement, droit civil) pour intégrer les entreprises concernées dans le financement des opérations d’assainissement des sites contaminés par les PFAS.&lt;/li&gt;&lt;li&gt;Adapter la législation en vigueur, notamment l’ordonnance sur l’assainissement des sites pollués (OSites), afin de garantir que les coûts d’assainissement ne soient en aucun cas supportés par les collectivités publiques en l'absence de faute de leur part.&lt;/li&gt;&lt;li&gt;Assurer la transparence quant aux responsabilités et aux coûts liés à l’assainissement, en publiant régulièrement des rapports détaillant les sites contaminés, les entreprises impliquées et les mesures prises.&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Der Bundesrat wird beauftragt:&lt;/p&gt;&lt;ol style="list-style-type:decimal;"&gt;&lt;li&gt;&lt;strong&gt;&lt;/strong&gt;die Unternehmen, die für die Herstellung, die Einfuhr, die Verwendung und das Inverkehrbringen von per- und polyfluoralkylierten Alkylverbindungen (PFAS), die zu Umweltkontaminationen geführt haben, verantwortlich sind, in einem Register zu erfassen und dieses Register zu führen;&lt;/li&gt;&lt;li&gt;die verfügbaren rechtlichen Instrumente (Verursacherprinzip, Umweltrecht, Zivilrecht) umzusetzen und strenger anzuwenden, um zu erreichen, dass sich die betroffenen Unternehmen an den Kosten für die Sanierung der mit PFAS belasteten Standorte beteiligen ;&lt;/li&gt;&lt;li&gt;die geltende Gesetzgebung, insbesondere die Altlasten-Verordnung, anzupassen, um sicherzustellen, dass die Kosten für die Sanierung unter keinen Umständen von der öffentlichen Hand übernommen werden müssen, wenn sie kein Verschulden trifft;&lt;/li&gt;&lt;li&gt;für Transparenz hinsichtlich der Verantwortlichkeiten und der Kosten für die Sanierung zu sorgen, indem er regelmässig Berichte veröffentlicht, in denen die belasteten Standorte, die beteiligten Unternehmen und die ergriffenen Massnahmen detailliert aufgeführt sind.&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risanamento dei siti contaminati da PFAS. Applicazione effettiva del principio di causalità ("chi inquina paga")</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.3630</t>
   </si>
   <si>
@@ -1007,6 +1074,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253630</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;En 1999, la Commission européenne a lancé le projet Ciel unique européen (SES, pour Single European Sky). En mai 2006, le Conseil fédéral a décidé d'adhérer au SES. Depuis cette adhésion, les règles du SES sont devenues contraignantes pour le système de navigation aérienne suisse. L'optimisation opérationnelle de l'espace aérien européen constitue l'objectif principal du SES. Cependant, le projet vise aussi une harmonisation financière des redevances de navigation aérienne à l'échelle européenne. Les prescriptions du SES prévoient la possibilité de limiter, au moyen d'une dérogation, cette harmonisation aux aéroports comptant plus de 50&amp;nbsp;000 mouvements commerciaux par an. Si la Suisse avait fait usage de cette possibilité, seuls les services de navigation aérienne des aéroports de Zurich et de Genève auraient été concernés par l'harmonisation financière. Les autres aérodromes suisses dotés de services de navigation aérienne (Berne, Lugano, Saint-Gall-Altenrhein, Buochs, Granges, Les Éplatures, Samedan et Sion) auraient été exclus du système SES. Comme la Suisse n'a pas fait usage de cette possibilité, les aérodromes régionaux ne sont plus en mesure depuis 2016 de couvrir entièrement les coûts locaux de la navigation aérienne.&amp;nbsp;&lt;/p&gt;&lt;p&gt;Avant l'adhésion au système SES, la pratique consistait à financer de manière croisée les services locaux de navigation aérienne des aérodromes régionaux (d'une part, avec les redevances perçues par les services de navigation aérienne effectuant des contrôles de route et, d'autre part, avec les redevances des aéroports nationaux). Depuis l'adhésion, cette pratique n'est plus autorisée. La participation de la Suisse au SES devait permettre à moyen terme de réduire considérablement les coûts du service de navigation aérienne de la Confédération Skyguide et d'obtenir des gains d'efficacité considérables. Ces attentes ne se sont pas concrétisées&amp;nbsp;: le rapport du Contrôle fédéral des finances du 31&amp;nbsp;janvier 2025 qualifie la situation financière de Skyguide de délicate et de préoccupante. Par ailleurs, l'Assemblée fédérale a chargé le Conseil fédéral de pérenniser les infrastructures clés que sont les aérodromes régionaux (motion 20.4412).&lt;/p&gt;&lt;p&gt;J'invite le Conseil fédéral à répondre aux questions suivantes:&lt;/p&gt;&lt;ul style="list-style-type:disc;"&gt;&lt;li&gt;Comment envisage-t-il d'améliorer la situation financière des services locaux de navigation aérienne dans les aérodromes régionaux ?&lt;/li&gt;&lt;li&gt;Pourquoi l'option d'exclure les aérodromes régionaux suisses qui ont des services de navigation aérienne (Berne, Lugano, Saint-Gall-Altenrhein, Buochs, Granges, Les Éplatures, Samedan et Sion) du SES n'a-t-elle pas été retenue&amp;nbsp;? Le Conseil fédéral a-t-il l'intention de remédier à cette situation&amp;nbsp;?&amp;nbsp;&lt;/li&gt;&lt;li&gt;La séparation des services suisses de navigation aérienne en un service national et un service international constitue-t-elle, pour le Conseil fédéral, une réponse possible aux problèmes de coûts auxquels sont confrontés les aérodromes régionaux&amp;nbsp;?&lt;/li&gt;&lt;li&gt;Le Conseil fédéral convient-il que la réduction des coûts de Skyguide attendue depuis l'adhésion de la Suisse au système SES ne se concrétisera pas et qu'il faudrait à présent agir rapidement pour assurer la pérennité des infrastructures clés que sont les aérodromes régionaux en prenant des mesures axées sur la concurrence ?&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Im Jahr 1999 lancierte die EU-Kommission das «Single European Sky»-Projekt (SES). Der Bundesrat beschloss im Mai 2006, dem SES beizutreten, wodurch dessen Regelungen auch für das Schweizer Flugsicherungssystem verbindlich wurden. Neben der hauptsächlich angestrebten operationellen Optimierung des europäischen Luftraums sollte dabei auch eine europaweite finanzielle Harmonisierung bei den Gebühren der Flugsicherung erreicht werden. Allerdings hätte gemäss den Vorgaben des SES mittels einer Ausnahmeregelung die finanzielle Harmonisierung auf Flughäfen mit mehr als 50'000 kommerziellen Flugbewegungen pro Jahr limitiert werden können. Für die Schweiz hätte dies bedeutet, dass lediglich die Flugsicherung der Flughäfen Zürich und Genf betroffen gewesen wäre. Alle anderen Schweizer Flugplätze mit Flugsicherung (Bern, Lugano, St. Gallen-Altenrhein, Buochs, Grenchen, Les Éplatures, Samedan und Sion) hätten zwangsläufig nicht in das SES-System einbezogen werden müssen. Weil die Ausnahmeregelung von der Schweiz nicht in Anspruch genommen wurde, sind seit dem Jahr 2016 die regionalen Flugplätze mit einer Kostenunterdeckung für die Finanzierung der lokalen Flugsicherungskosten belastet.&amp;nbsp;&lt;/p&gt;&lt;p&gt;Die vor dem Beitritt zum SES-System praktizierte Usanz der Querfinazierung der lokalen Flugsicherung auf den Regionalflugplätzen (zum einen aus den Gebühreneinnahmen der Streckenflugsicherung sowie zum anderen aus den erhobenen Gebühren der Landesflughäfen) ist seither nicht mehr erlaubt. Mit dem Beitritt der Schweiz zum SES waren mittelfristig wesentliche Kostenreduktionen bei der Flugsicherung Skyguide sowie erhebliche Effizienzsteigerungen erwartet worden. Diese Erwartungen sind nicht eingetreten und im jüngst veröffentlichten Bericht der Eidgenössischen Finanzkontrolle EFK vom 31.01.2025 wird die finanzielle Situation von Skyguide als «heikel» und «besorgniserregend» beschrieben. Gleichzeit liegt der Auftrag der Eidgenössischen Räte an den Bundesrat vor, die Regionalflugplätze als Schlüsselinfrastrukturen zu sichern (Motion 20.4412).&lt;/p&gt;&lt;p&gt;In diesem Zusammenhang ergeben sich die folgenden Fragen:&lt;/p&gt;&lt;ul style="list-style-type:disc;"&gt;&lt;li&gt;Wie gedenkt der Gesamtbundesrat, die finanzielle Situation bei der lokalen Flugsicherung auf den Regionalflugplätzen zu verbessern?&lt;/li&gt;&lt;li&gt;Wieso wurde die Option «die regionalen Schweizer Flugplätze mit Flugsicherung (Bern, Lugano, St. Gallen-Altenrhein, Buochs, Grenchen, Les Éplatures, Samedan und Sion) vom SES auszunehmen» nicht gewählt? Ist der Gesamtbundesrat gewillt, diesen Umstand zu korrigieren?&amp;nbsp;&lt;/li&gt;&lt;li&gt;Ist eine Unterteilung der Schweizer Flugsicherung in eine «Nationale Flugsicherung» und eine «Internationale Flugsicherung» für den Gesamtbundesrat eine Möglichkeit, der Kostenproblematik für die regionalen Flugplätze zu begegnen?&lt;/li&gt;&lt;li&gt;Teilt der Gesamtbundesrat die Ansicht, dass sich die seit dem Beitritt der Schweiz zum SES-System erwarteten Kostenreduktionen beim bundeseigenen Flugsicherungsanbieter Skyguide auch künftig nicht materialisieren werden und nun mittels wettbewerbsorientierter Massnahmen für die Sicherung der regionalen Flugplätze als Schlüsselinfrastrukturen rasch Abhilfe geschaffen werden sollte?&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garantire agli aerodromi regionali svizzeri una sicurezza finanziaria sostenibile a lungo termine</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.3637</t>
   </si>
   <si>
@@ -1025,6 +1101,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253637</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Le Conseil fédéral est chargé de compléter la LAMal de sorte que, par analogie avec la surveillance exercée par les partenaires tarifaires en vertu de l'art. 47c, les tarifs officiels puissent eux aussi être surveillés (cette fois donc par la Confédération) en cas de hausse excessive.&amp;nbsp;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Der Bundesrat wird beauftragt, das KVG derart zu ergänzen, dass analog zu Art. 47c durch die Tarifpartner auch bei den Amtstarifen – hier dann durch den Bund – eine Überwachung der Kosten stattfindet, wenn diese übermässig steigen.&amp;nbsp;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Misure vincolanti in caso d'incremento eccessivo dei costi anche per le "tariffe ufficiali" della LAMal</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.7355</t>
   </si>
   <si>
@@ -1046,6 +1131,12 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257355</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;En Italie, 96&amp;nbsp;chars de combat Leopard I sont stationnés sur un site appartenant à RUAG. Selon des informations relayées par la presse, la propriété de vingt-cinq de ces chars n’a pas été déterminée.&lt;br&gt;Comment une telle situation a-t-elle pu se produire, et comment fait-on actuellement pour déterminer à qui appartiennent ces véhicules&amp;nbsp;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;In Italien stehen auf einem Gelände der RUAG 96 Leopard I Kampfpanzer. Von diesen ist laut Medienberichte die Eigentümerschaft von 25 Panzern nicht geklärt.&lt;br&gt;Wie kam es zu diesem ungeklärten Zustand und wie wird diese Eigentümerschaft nun ermittelt?&lt;/p&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.7419</t>
   </si>
   <si>
@@ -1064,6 +1155,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257419</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;-&amp;nbsp;Qu’advient-il des 71&amp;nbsp;chars Leopard&amp;nbsp;1 vendus par RUAG à l’Allemagne&amp;nbsp;? Sont-ils modernisés sur le territoire allemand afin d’être ensuite revendus&amp;nbsp;?&lt;br&gt;- Si tel est le cas, à quels pays ou acteurs une telle revente est-elle envisagée&amp;nbsp;?&lt;br&gt;- Cette vente s’inscrit-elle dans un dispositif d’échange circulaire au bénéfice de l’Ukraine, notamment par l’intermédiaire d’États tiers&amp;nbsp;?&lt;br&gt;- À quel prix unitaire ces chars sont-ils vendus, et quel était leur prix d’acquisition initial, notamment s’ils proviennent de stocks italiens&amp;nbsp;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;- Was geschieht mit den 71 Leopard-1-Panzern, die von der RUAG nach Deutschland verkauft werden? Werden diese in Deutschland kampfwertgesteigert und anschliessend weiterverkauft?&lt;br&gt;- Wenn ja, an welche Länder oder Akteure ist ein solcher Weiterverkauf vorgesehen?&lt;br&gt;- Erfolgt der Verkauf im Rahmen eines Ringtauschs zugunsten der Ukraine, etwa über Drittstaaten?&lt;br&gt;- Zu welchem Stückpreis werden die Panzer veräussert, und wie hoch war der ursprüngliche Einkaufspreis, etwa aus italienischen Beständen?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titolo segue</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.3479</t>
   </si>
   <si>
@@ -1085,6 +1185,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253479</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Voici mes questions&amp;nbsp;:&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;1. À combien s'est élevé le financement annuel de la chaussée roulante par le Conseil fédéral au cours des cinq dernières années&amp;nbsp;?&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;2. Le crédit disponible suffit-il à couvrir les pertes d'exploitation dues à la diminution du nombre de transports induite par des annulations&amp;nbsp;?&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;3. Compte tenu de l'augmentation du trafic des poids lourds —&amp;nbsp;960&amp;nbsp;000 courses en 2024&amp;nbsp;— le Conseil fédéral ne pense-t-il pas qu'il vaille mieux maintenir ce service jusqu'en 2028 avec les moyens financiers disponibles plutôt que de le supprimer&amp;nbsp;?&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;4. A-t-on envisagé de remplacer le terminal de Fribourg-en-Brisgau par celui de Bâle, qui a été en service jusqu'en 2019, de manière à éviter les tronçons ferroviaires situés en Allemagne&amp;nbsp;?&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;5. Quelles mesures concrètes ont été prévues pour éviter que les 80&amp;nbsp;000 poids lourds qui empruntent actuellement la chaussée roulante ne se déversent sur la route&amp;nbsp;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Ich bitte den Bundesrat um die Beantwortung folgender Fragen:&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;1. Wie viel hat die Rollende Landstrasse (RoLa) den Bund in den letzten fünf Jahren pro Jahr gekostet?&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;2. Wegen Annullierungen wurden weniger Transporte durchgeführt. Können die dadurch verursachten Betriebsverluste über den verfügbaren Kredit gedeckt werden?&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;3. Ist der Bundesrat nicht auch der Ansicht, dass bei der steigenden Tendenz im Schwerverkehr - 960.000 Transits im Jahr 2024 - das Angebot mit den bis 2028 verfügbaren Mitteln aufrechterhalten werden sollte, anstatt es einzustellen?&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;4. Wurde, um Bahnstrecken in Deutschland zu vermeiden, in Erwägung gezogen, den Terminal in Freiburg im Breisgau durch den Basler Terminal zu ersetzen, der bis 2019 in Betrieb war?&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;5. Welche konkreten Massnahmen sind geplant, um zu verhindern, dass die derzeit 80.000 Lastwagen, die die RoLa nutzen, wieder auf die Strasse gelangen?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anacronistica ed inopportuna decisione di chiudere l'autostrada viaggiante a fine anno ci coglie di sorpresa</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.3444</t>
   </si>
   <si>
@@ -1106,6 +1215,45 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253444</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Le Conseil fédéral est chargé d’adapter la législation sur la Poste afin de garantir le respect de l’interdiction des subventions croisées et de faciliter la surveillance en la matière, conformément aux recommandations du CDF.&amp;nbsp;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Der Bundesrat wird beauftragt, gemäss den Empfehlungen der Eidgenössischen Finanzkontrolle (EFK) die Postgesetzgebung anzupassen, um die Einhaltung des Quersubventionierungsverbots sicherzustellen und die Aufsicht in diesem Bereich zu vereinfachen.&amp;nbsp;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garantire il rispetto da parte della Posta del divieto di sovvenzionamento trasversale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commission des finances Conseil national</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temporäre Ausgleichszahlungen im Zusammenhang mit dem Kantonswechsel der Gemeinde Moutier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paiements compensatoires temporaires dans le contexte du changement de canton de la commune de Moutier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Le Conseil fédéral est chargé de présenter un projet d'acte garantissant que le canton du Jura reçoive 13 millions de francs par an de 2027 à 2031, en lien avec le changement de canton de la commune de Moutier et en complément du Concordat entre le canton de Berne et la République et Canton du Jura. À cet effet, il examinera toutes les options qui permettent de trouver une solution en temps utile, y compris un ajout à la modification de la loi fédérale sur la péréquation financière et la compensation des charges (PFCC ; RS 613.2) prévue dans le cadre de l’avant-projet sur le programme d’allégement budgétaire 2027.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Une minorité de la commission (Schilliger, Bürgi Roman, Farinelli, Gafner, Giacometti, Götte, Guggisberg, Nause, Sollberger, Theiler, Zybach) propose de rejeter la motion.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Der Bundesrat wird beauftragt, einen Erlassentwurf vorzulegen, der dafür sorgt, dass der Kanton Jura in den Jahren 2027 bis 2031 im Zusammenhang mit dem Kantonswechsel der Gemeinde Moutier und in Ergänzung zum bilateralen Abkommen zwischen den Kantonen Bern und Jura jährlich 13 Millionen Franken erhält.&amp;nbsp;Dazu prüft er alle Optionen, die eine zeitgerechte Lösung erlauben, insbesondere auch eine Ergänzung der im Vorentwurf zum Entlastungspaket 2027 vorgesehenen Änderung des Bundesgesetzes über den Finanz- und Lastenausgleich (FiLaG; SR 613.2).&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Eine Minderheit der Kommission (Schilliger, Bürgi Roman, Farinelli, Gafner, Giacometti, Götte, Guggisberg, Nause, Sollberger, Theiler, Zybach) beantragt, die Motion abzulehnen.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Versamenti di compensazione temporanei in relazione al cambiamento di Cantone di Moutier</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.3309</t>
   </si>
   <si>
@@ -1124,6 +1272,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253309</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Le Conseil fédéral est chargé de mettre fin immédiatement au projet de drones de reconnaissance ADS&amp;nbsp;15, de ne pas investir un franc de plus dans ce projet et de liquider le matériel déjà livré, en le vendant si possible à une autre armée.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Der Bundesrat wird beauftragt, das Projekt «Aufklärungsdrohne ADS 15» sofort zu stoppen, keinen weiteren Franken in dieses Projekt zu zahlen und das bereits gelieferte Material zu liquidieren, indem es – falls möglich - an eine andere Armee verkauft wird.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fermare subito la sciagura dei "droni da ricognizione ADS 15"</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.3399</t>
   </si>
   <si>
@@ -1142,6 +1299,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253399</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;La révision, ou plus précisément l’adaptation de l’ordonnance sur le CO2 faisant suite à la révision de la loi sur le CO2 (en vigueur depuis le 1.1.2025), revêt une grande importance pour la réalisation des objectifs légaux en matière d'émissions. Cela concerne en particulier les dispositions d'exécution pour les voitures de tourisme.&amp;nbsp;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Le 17 mars 2025, le Conseil fédéral a laissé entendre pendant l’heure des questions qu'il « adopterait l'ordonnance lors d'une prochaine séance ». Il a répondu de façon évasive aux questions sur cette ordonnance.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;La présente interpellation s’intéresse aux mesures d'allègement des sanctions pécuniaires qui pourraient éventuellement être (une nouvelle fois) accordées à la branche automobile lorsque celle-ci ne parvient pas à atteindre les valeurs cibles.&amp;nbsp;&lt;/p&gt;&lt;p&gt;Concrètement, l’ordonnance sur le CO2 soulève les questions suivantes.&amp;nbsp;&lt;br&gt;&amp;nbsp;&lt;/p&gt;&lt;ol&gt;&lt;li&gt;La procédure de consultation s’est achevée le 17 octobre 2024. Pourquoi cette ordonnance dont nous avons urgemment besoin n'est-elle pas entrée en vigueur en mars 2025&amp;nbsp;? Quels sont les facteurs qui ont conduit à ce retard.&amp;nbsp;&lt;br&gt;&amp;nbsp;&lt;/li&gt;&lt;li&gt;Le projet envoyé en consultation ne prévoyait pas d'alléger les sanctions. Sur les 202 prises de position annoncées par le Conseil fédéral, combien demandaient, dans le délai imparti par la procédure, des allégements en cas de non-respect des objectifs ? Quels étaient leurs principaux arguments ?&amp;nbsp;&lt;br&gt;&amp;nbsp;&lt;/li&gt;&lt;li&gt;Le Contrôle fédéral des finances (CDF) a évalué l'efficacité des sanctions en matière de CO2 pour les voitures de tourisme neuves : il est clair pour lui qu'il faut renoncer à des mesures d'allégement si les objectifs ne sont pas atteints.&amp;nbsp;&lt;br&gt;Le Conseil fédéral partage-t-il l'appréciation du CDF ? Si ce n'est pas le cas, quels sont ses arguments ?&lt;br&gt;&amp;nbsp;&lt;/li&gt;&lt;li&gt;Par le passé (notamment en 2015 et en 2020), des dispositions prévoyant des allégements (supercrédits, phase d’introduction) ont été introduites pour réduire les montants des sanctions en cas de dépassement des objectifs d'émission. Quel est le montant cumulé des dépassements d'objectifs non sanctionnés depuis 2010 en Suisse&amp;nbsp;?&amp;nbsp;&lt;br&gt;&amp;nbsp;&lt;/li&gt;&lt;li&gt;Si le Conseil fédéral introduit des mesures d'allégement dans l'ordonnance : combien de millions de francs d’exonérations cela représentera-t-il pour la branche&amp;nbsp;?&lt;br&gt;&amp;nbsp;&lt;/li&gt;&lt;li&gt;Si le Conseil fédéral introduit des mesures d'allégement dans l'ordonnance : comment sera-t-il possible, d’après lui, d’atteindre les valeurs cibles prévues par la loi&amp;nbsp;?&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Die Revision bzw. die konkrete Ausgestaltung der CO2-Verordnung zum revidierten CO2-Gesetz (in Kraft seit 1.1.25), ist von grosser Bedeutung für die Erreichung der gesetzlichen Emissionsziele. Insbesondere betrifft dies die Ausführungsbestimmungen für Personenwagen.&amp;nbsp;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Der Bundesrat hat am 17. März 2025 in der Fragestunde in Aussicht gestellt, er werde die Verordnung «an einer der nächsten Sitzungen verabschieden». Die Fragen zum Thema CO2-Verordnung hat er nur pauschal beantwortet.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Im Fokus dieser Interpellation stehen mögliche Erleichterungsmassnahmen bezüglich Sanktionszahlungen bei Nichterreichen der Zielwerte, die der Autobranche (erneut) gewährt werden könnten.&amp;nbsp;&lt;/p&gt;&lt;p&gt;Konkret stellen sich zur CO2-Verordnung die folgenden Fragen:&amp;nbsp;&lt;br&gt;&amp;nbsp;&lt;/p&gt;&lt;ol&gt;&lt;li&gt;Die Vernehmlassung zur Verordnung wurde am 17. Oktober 2024 abgeschlossen. Wieso war per März 2025 die dringend benötigte Verordnung noch nicht in Kraft?&amp;nbsp;Welche Faktoren haben zu dieser Verzögerung geführt?&amp;nbsp;&lt;br&gt;&amp;nbsp;&lt;/li&gt;&lt;li&gt;Im Entwurf waren keine Erleichterungen bei Sanktionsabgaben vorgesehen. Wie viele der gemäss Bundesrat 202 im Rahmen der Vernehmlassung eingegangenen Stellungnahmen haben sich innert der Vernehmlassungsfrist für Erleichterungen bei Zielverfehlung ausgesprochen? Welches sind deren Hauptargumente?&amp;nbsp;&lt;br&gt;&amp;nbsp;&lt;/li&gt;&lt;li&gt;Die Eidgenössische Finanzkontrolle hat die Wirksamkeit der CO2-Sanktionen für neue Personenwagen evaluiert und kommt explizit zum Schluss, dass von Erleichterungsmassnahmen bei Zielverfehlung abzusehen sei.&amp;nbsp;&lt;br&gt;Teilt der Bundesrat die Einschätzung der EFK? Falls er dies nicht tut, welches sind seine seine Argumente?&lt;br&gt;&amp;nbsp;&lt;/li&gt;&lt;li&gt;In der Vergangenheit (insbesondere 2015 und 2020) wurden erleichternde Einführungsbestimmungen (Supercredits, Phasing-In) eingeführt, welche die Sanktionsbeträge bei Emissionszielüberschreitungen reduzierten. Wie hoch sind (kumuliert) die sanktionsfreien Zielvorgabenüberschreitungen seit 2010 in der Schweiz?&amp;nbsp;&lt;br&gt;&amp;nbsp;&lt;/li&gt;&lt;li&gt;Falls der Bundesrat in der Verordnung Erleichterungsmassnahmen vorsieht: Wie viele Millionen Franken erlässt er der Branche?&lt;br&gt;&amp;nbsp;&lt;/li&gt;&lt;li&gt;Falls der Bundesrat in der Verordnung Erleichterungsmassnahmen vorsieht: Wie sollen in seiner Vorstellung die gesetzlichen Zielwerte erreicht werden?&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordinanza sul CO2. Misure di agevolazione per il settore automobilistico? </t>
+  </si>
+  <si>
     <t xml:space="preserve">25.3404</t>
   </si>
   <si>
@@ -1160,6 +1326,18 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253404</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Le Conseil fédéral est chargé, en tant que collège, d’assumer la responsabilité de la gouvernance en ce qui concerne les graves problèmes au sein du DDPS. Il créera une délégation de surveillance du DDPS et contribuera ainsi à renforcer la direction du DDPS au plus haut niveau. La surveillance se concentrera sur les principaux problèmes et sur les défis à ce niveau de conduite.&amp;nbsp;&lt;/p&gt;&lt;p&gt;L’objectif est de faire en sorte qu’une délégation compétente indépendante puisse évaluer les progrès réalisés par rapport aux principaux problèmes et qu’elle puisse apporter une aide et orienter l’action du département en accord avec le Conseil fédéral. Elle commencera ses travaux le plus vite possible.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Der Bundesrat wird aufgefordert, als Gremium gemeinsam die Verantwortung für die Governance der anstehenden massiven Probleme im VBS zu übernehmen. Er soll einen Aufsichtsausschuss über das VBS etablieren und damit zur Stärkung der obersten Führungsebene des VBS beitragen. Fokus der Aufsicht ist auf die dort angesiedelten Schlüsselprobleme und Herausforderungen zu legen.&amp;nbsp;&lt;/p&gt;&lt;p&gt;Ziel ist, als unabhängiger, kompetenter Ausschuss den Fortschritt bei den Schlüsselproblemen zu beurteilen und in Abstimmung mit dem Bundesrat lenkend und unterstützend einzugreifen. Die Arbeit ist rasch möglichst aufzunehmen.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il Consiglio federale deve assumersi la responsabilità congiunta della governance del DDPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BK</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.3417</t>
   </si>
   <si>
@@ -1178,6 +1356,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253417</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Le régime de retraite des conseillers fédéraux doit être adapté de sorte que ceux-ci soient assujettis à la LPP et reçoivent les prestations ordinaires de retraite et d’AVS ; ils bénéficieraient toutefois de la rente forfaitaire en vigueur jusqu’ici pendant les deux premières années suivant leur départ du Conseil fédéral, afin de disposer d’une période transitoire tant qu’ils n’ont pas atteint l’âge de la retraite.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Das Rentensystem für Bundesräte soll so angepasst werden, dass Bundesräte dem BVG unterstellt werden und reguläre PK- und AHV-Leistungen erhalten, jedoch die ersten zwei Jahre nach dem Rücktritt oder nach der Abwahl die bisherige Pauschalrente bekommen, um eine Übergangszeit zu gewährleisten, sofern sie das Rentenalter noch nicht erreicht haben.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adeguamento graduale delle rendite dei consiglieri federali</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.1011</t>
   </si>
   <si>
@@ -1199,6 +1386,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20251011</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Dans le projet envoyé en consultation concernant le programme d’allégement budgétaire 2027, le Conseil fédéral propose que les aides financières ne puissent pas dépasser 50 % des coûts de la tâche subventionnée (complément à l’art. 7 de la loi sur les subventions Les indications contenues dans son rapport explicatif ne permettent pas d’en déduire les conséquences ni les économies effectives. Cela serait pourtant nécessaire pour pouvoir juger de cette proposition. Je prie donc le Conseil fédéral de répondre aux questions suivantes :&amp;nbsp;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;ul style="list-style-type:disc;"&gt;&lt;li&gt;Au cours des deux dernières années, quel a été le nombre de subventions pour lesquelles la Confédération a assumé plus de 50 % des coûs ?&amp;nbsp;&lt;/li&gt;&lt;li&gt;Dans quels domaines ces subventions ont-elles été octroyées, et quels ont été les montants versés ?&lt;/li&gt;&lt;li&gt;À combien le Conseil fédéral estime-t-il le potentiel d’économies (étant donné que des exceptions à la règle restent possibles même après une éventuelle modification de la loi) ?&amp;nbsp;&lt;/li&gt;&lt;li&gt;À combien estime-t-il les économies effectives si la réduction des taux dans certains domaines permet d’encourager un plus grand nombre de projets, mais que la charge administrative du service adjudicateur s’alourdit ?&lt;/li&gt;&lt;li&gt;Comment le Conseil fédéral en vient-il à penser que la révision de la loi permettrait d’éviter les effets d’aubaine ? Ne court-on pas plutôt le risque de voir certains projets abandonnés ?&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Im Rahmen der Vernehmlassungsvorlage zum Entlastungspaket 27 (EP27) macht der Bundesrat den Vorschlag das Finanzhilfen im Grundsatz 50 Prozent der Kosten der unterstützten Aufgabe nicht übersteigen sollen (Ergänzung von Art. 7 des Subventionsgesetzes). Mit den Angaben im erläuternden Bericht des Bundesrates ist es unmöglich die Auswirkungen und die effektiven Einsparungen dieses Vorschlages zu eruieren. Um den Vorschlag zu beurteilen, ist dies aber notwendig. Ich bitte den Bundesrat deshalb, folgende Fragen zu beantworten:&amp;nbsp;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;ul style="list-style-type:disc;"&gt;&lt;li&gt;Wie hoch war in den letzten zwei Jahren die Zahl der Finanzhilfen, bei denen der Bund mehr als 50 % der Kosten getragen hat?&amp;nbsp;&lt;/li&gt;&lt;li&gt;In welchen Bereichen wurden solche Finanzhilfen mit welchen Beiträgen gewährt?&lt;/li&gt;&lt;li&gt;Wie gross schätzt der Bundesrat das Sparpotential ein (wenn er berücksichtigt, dass auch nach einer möglichen Anpassung des Gesetzes noch Ausnahmen zur neuen Regelung gewährt werden können).&amp;nbsp;&lt;/li&gt;&lt;li&gt;Wie gross schätzt der Bundesrat die Einsparungen tätsächlich ein, wenn mit der Reduktion der Subventionssätze in gewissen Bereichen mehr Projekte gefördert werden, damit aber der administrative Aufwand bei den Vergabestellen steigt?&lt;/li&gt;&lt;li&gt;Wie kommt der Bundesrat zur Auffassung, dass mit der Gesetzesänderung Mitnahmeeffekte vermieden werden. Besteht nicht eher die Gefahr, dass gewisse Projekt gar nicht mehr realisiert werden können?&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avamprogetto sulle misure di sgravio applicabili dal 2027 e modifica della legge sui sussidi. Ripercussioni e potenziale effettivo di risparmio</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.3194</t>
   </si>
   <si>
@@ -1217,6 +1413,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253194</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;En 2012, le Conseil fédéral a présenté un rapport sur l’architecture de sécurité de la Suisse dans le but de régler plus clairement la répartition des compétences entre la Confédération et les cantons en la matière. Le rapport contenait des propositions d’adaptation des bases légales concernant la protection de l’État, l’appui de l’armée aux autorités civiles, la répartition des tâches de police judiciaire et de police criminelle et la répartition des tâches douanières et de surveillance des frontières. Ces réformes avaient pour but d’éliminer les ambiguïtés juridiques et de permettre une meilleure collaboration entre la Confédération et les cantons. L’architecture de la sécurité en Suisse reste malgré tout complexe.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Je pose dès lors les questions suivantes au Conseil fédéral&amp;nbsp;:&lt;/p&gt;&lt;ol style="list-style-type:decimal;"&gt;&lt;li&gt;Quelles mesures de réforme concernant la répartition des compétences entre la Confédération et les cantons a-t-il mises en œuvre depuis le rapport de 2012&amp;nbsp;?&lt;/li&gt;&lt;li&gt;Quelles expériences ces mesures ont-elles permis de faire et quel effet ont-elles eu sur l’efficacité de la sécurité intérieure&amp;nbsp;?&lt;/li&gt;&lt;li&gt;Y a-t-il encore des chevauchements non réglés dans la délimitation des compétences entre la Confédération et les cantons, qui rendent plus compliquée la collaboration dans le domaine de la sécurité intérieure&amp;nbsp;?&lt;/li&gt;&lt;li&gt;Quels sont selon le Conseil fédéral les défis que pose la mise en œuvre pratique de la répartition des compétences&amp;nbsp;?&lt;/li&gt;&lt;li&gt;La situation juridique dans le domaine de la sécurité intérieure est-elle aujourd’hui réglée de manière à éviter les chevauchements et les contradictions&amp;nbsp;?&lt;/li&gt;&lt;li&gt;Quels sont les moyens financiers nécessaires à la mise en œuvre des réformes de la sécurité à tous les niveaux&amp;nbsp;?&amp;nbsp;&lt;/li&gt;&lt;li&gt;Comment le Conseil fédéral envisage-t-il de les mettre à disposition&amp;nbsp;?&amp;nbsp;&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Der Bundesrat legte 2012 einen Bericht zur Sicherheitsarchitektur der Schweiz vor, mit dem Ziel, die Kompetenzverteilung im Bereich der inneren Sicherheit zwischen Bund und Kantonen klarer zu regeln. Der Bericht enthielt Vorschläge zur rechtlichen Absicherung des Staatsschutzes, zur zivilen Unterstützung durch die Armee, zu den kriminalpolizeilichen Aufgaben des Bundes sowie zu den Sicherheitsaufgaben im Zoll- und Grenzbereich. Diese Reformen sollten rechtliche Unklarheiten beseitigen und eine bessere Zusammenarbeit zwischen Bund und Kantonen ermöglichen. Dennoch bleibt die Sicherheitsarchitektur in der Schweiz komplex.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Fragen an den Bundesrat:&lt;/p&gt;&lt;ol style="list-style-type:decimal;"&gt;&lt;li&gt;Welche konkreten Reformmassnahmen zur Kompetenzverteilung zwischen Bund und Kantonen hat der Bundesrat seit dem Bericht von 2012 tatsächlich umgesetzt?&lt;/li&gt;&lt;li&gt;Welche Erfahrungen wurden mit den umgesetzten Massnahmen gemacht, und wie haben sich diese auf die Effizienz der inneren Sicherheit ausgewirkt?&lt;/li&gt;&lt;li&gt;Gibt es nach wie vor ungeklärte Schnittstellen oder Überschneidungen bei der Kompetenzabgrenzung zwischen Bund und Kantonen, die die Zusammenarbeit im Bereich der inneren Sicherheit erschweren?&lt;/li&gt;&lt;li&gt;Welche Herausforderungen sieht der Bundesrat bei der praktischen Umsetzung der Kompetenzaufteilung zwischen Bund und Kantonen?&lt;/li&gt;&lt;li&gt;Ist die Rechtslage im Bereich der inneren Sicherheit mittlerweile so geregelt, dass Überschneidungen und Widersprüche vermieden werden?&lt;/li&gt;&lt;li&gt;Welche finanziellen Mittel sind für die Umsetzung der Sicherheitsreformen auf allen Ebenen erforderlich?&amp;nbsp;&lt;/li&gt;&lt;li&gt;Wie beabsichtigt der Bundesrat, diese Mittel bereitzustellen?&amp;nbsp;&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiarire la ripartizione delle competenze nell'ambito della sicurezza interna</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.3203</t>
   </si>
   <si>
@@ -1235,6 +1440,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253203</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Le Conseil fédéral est prié de bien vouloir répondre aux questions suivantes :&lt;/p&gt;&lt;ol&gt;&lt;li&gt;Le Contrôle fédéral des finances (CDF) reproche à l’administration fédérale d’avoir refacturé au fonds AVS des coûts d’exploitation de l’informatique «&amp;nbsp;sans que la base légale en vigueur ne le mentionne explicitement&amp;nbsp;». Cela a-t-il été le cas en 2023 ?&lt;/li&gt;&lt;li&gt;Comment le Conseil fédéral règle-t-il les «&amp;nbsp;modalités de remboursement&amp;nbsp;» demandées par le CDF pour la facturation, qui semble avoir été effectuée en l’absence de base légale ?&amp;nbsp;&lt;/li&gt;&lt;li&gt;L’OFAS investit manifestement beaucoup d’argent dans des projets et du personnel touchant à l’informatique sans disposer des bases légales nécessaires. Ces projets informatiques de l’OFAS respectent-ils l’art. 95 LAVS et l’art. 211&lt;sup&gt;quinquies&lt;/sup&gt; RAVS, y compris la consultation des organes d’exécution ?&lt;/li&gt;&lt;li&gt;Selon le droit fédéral en vigueur, l’OFAS, en tant qu’autorité de surveillance, n’a pas la compétence juridique de développer ou d’exploiter des systèmes informatiques pour la mise en œuvre. Par conséquent, pourquoi l’OFAS finance-t-il malgré tout des investissements informatiques considérables au moyen du fonds AVS ?&amp;nbsp;&lt;/li&gt;&lt;li&gt;Ces décisions d’investissement de l’OFAS s’appuient-elles sur des dispositions légales « planifiées », n’ayant dès lors, de facto, pas de base légale claire ?&amp;nbsp;&lt;/li&gt;&lt;li&gt;Le conseil d’administration de Compenswiss ne devrait-il pas, dans le souci d’assurer l’équilibre des pouvoirs, être consulté sur tous les prélèvements de ce type effectués par l’administration fédérale dans le fonds AVS ?&amp;nbsp;&lt;/li&gt;&lt;li&gt;Le Conseil fédéral est-il d’avis que le fonds AVS doit être un libre-service pour des «&amp;nbsp;projets sans base légale&amp;nbsp;» lancés par l’autorité de surveillance ?&amp;nbsp;&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Wir ersuchen den Bundesrat um die Beantwortung folgender Fragen:&lt;/p&gt;&lt;ol&gt;&lt;li&gt;Die EFK rügt, dass die Bundesverwaltung ICT-Betriebskosten "ohne explizite Erwähnung in der gesetzlichen Grundlage" an den AHV-Fonds weiterverrechnet hat. War dies 2023 der Fall?&lt;/li&gt;&lt;li&gt;Wie regelt der Bundesrat die von der EFK erfragte "Modalitäten der Rückerstattung" für die Verrechnung, welche offenbar ohne Rechtsgrundlage erfolgte?&amp;nbsp;&lt;/li&gt;&lt;li&gt;Offenbar investiert das BSV ohne heute bestehende rechtliche Grundlagen viel Geld in ICT-Projekte und ICT-Personal. Wird bei diesen ICT-Projekten des BSV Art. Art. 95 AHVG und Art. 211&lt;sup&gt;quinquies&lt;/sup&gt; AHVV samt Konsultation mit den Durchführungsstellen eingehalten?&lt;/li&gt;&lt;li&gt;Das BSV als Aufsichtsbehörde hat gemäss geltendem Bundesrecht keine rechtliche Zuständigkeit, um ICT-Systeme für die Durchführung zu entwickeln oder zu betreiben. Weshalb finanziert das BSV dann dennoch erhebliche ICT-Investitionen aus dem AHV-Fonds?&amp;nbsp;&lt;/li&gt;&lt;li&gt;Stützen sich diese Investitionsentscheide des BSV auf 'geplantes' Recht und sind damit heute faktisch ohne klare rechtliche Grundlage?&amp;nbsp;&lt;/li&gt;&lt;li&gt;Sollte nicht der Verwaltungsrat von Compenswiss im Sinn von 'checks and balances' zu allen solchen Entnahmen der Bundesverwaltung aus dem AHV-Fonds angehört werden?&amp;nbsp;&lt;/li&gt;&lt;li&gt;Ist der Bundesrat der Ansicht, dass der AHV-Fonds ein Selbstbedienungsladen für 'Projekte ohne Rechtsgrundlagen' der Aufsichtsbehörde sein soll?&amp;nbsp;&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il Fondo AVS non deve diventare il self-service dell'Amministrazione federale</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.3213</t>
   </si>
   <si>
@@ -1253,6 +1467,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253213</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Le Conseil fédéral est prié de répondre aux questions suivantes&amp;nbsp;:&lt;/p&gt;&lt;p&gt;1. Que pense-t-il de l'évolution du trafic et de la consommation de cocaïne et de crack en Suisse&amp;nbsp;? En particulier, peut-il confirmer qu'il s'agit d'un phénomène qui prend de l’ampleur&amp;nbsp;?&lt;/p&gt;&lt;p&gt;2. Existe-t-il une cartographie des organisations criminelles actives en Suisse dans le trafic de ces substances&amp;nbsp;?&lt;/p&gt;&lt;p&gt;3. Outre le travail normal des enquêteurs au niveau cantonal, la Confédération a-t-elle pris ou entend-elle prendre des mesures pour faire face à ce phénomène préoccupant&amp;nbsp;? Dans l'affirmative, de quelle manière&amp;nbsp;?&lt;/p&gt;&lt;p&gt;4. Comment les cantons collaborent-ils pour lutter contre ce phénomène&amp;nbsp;? Les autorités fédérales disposent-elles d’une marge de manœuvre pour mieux soutenir et coordonner le travail des cantons, compte tenu également du fait que le trafic de stupéfiants se déroule à un niveau transnational&amp;nbsp;?&lt;/p&gt;&lt;p&gt;5. Est-il envisageable d'augmenter les effectifs et les moyens de Fedpol pour renforcer l'efficacité de la lutte contre le trafic de drogue, comme le demande un récent rapport de l'Autorité de surveillance du Ministère public de la Confédération&amp;nbsp;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Ich bitte den Bundesrat um die Beantwortung folgender Fragen:&lt;/p&gt;&lt;p&gt;1) Wie beurteilt er die Entwicklung des Handels und des Konsums von Kokain und Crack in der Schweiz? Kann er insbesondere bestätigen, dass es sich um ein wachsendes Phänomen handelt?&lt;/p&gt;&lt;p&gt;2) Gibt es eine Kartierung der kriminellen Organisationen in der Schweiz, die im Handel dieser Substanzen tätig sind?&lt;/p&gt;&lt;p&gt;3) Hat der Bund, um diesem beunruhigenden Phänomen zu begegnen, Massnahmen ergriffen oder beabsichtigt er, Massnahmen zu ergreifen, die über die übliche Arbeit der Fahndungsbehörden auf kantonaler Ebene hinausgehen? Wenn ja, welche?&lt;/p&gt;&lt;p&gt;4) Wie arbeiten die Kantone zur Bekämpfung dieses Phänomens zusammen? Gibt es Möglichkeiten für die Bundesbehörden, die Arbeit der Kantone besser zu unterstützen und zu koordinieren, auch in Anbetracht der Tatsache, dass der Drogenhandel keinen Halt vor den Landesgrenzen macht?&lt;/p&gt;&lt;p&gt;5) Ist es denkbar, das Fedpol personell und finanziell aufzustocken, um die Wirksamkeit des Kampfes gegen den Drogenhandel zu verstärken, wie dies in einem kürzlich erschienenen Bericht der Aufsichtsbehörde über die Bundesanwaltschaft (AB-BA) gefordert wird?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spaccio e consumo di cocaina e di crack in Svizzera. Un fenomeno sempre più allarmante che deve essere contrastato</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.3214</t>
   </si>
   <si>
@@ -1268,6 +1491,42 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253214</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Le Conseil fédéral est prié de répondre aux questions suivantes&amp;nbsp;:&amp;nbsp;&lt;/p&gt;&lt;ol&gt;&lt;li&gt;Quelles mesures compte-t-il prendre pour garantir que des perspectives financières fiables seront désormais élaborées s’agissant du système social&amp;nbsp;?&amp;nbsp;&lt;/li&gt;&lt;li&gt;Le Parlement a imposé par la loi aux organes d’exécution l’obligation, à partir de 2024, de mettre en œuvre une gestion des risques, une gestion de la qualité, un système de contrôle interne et une révision externe professionnelle. Est-il prévu que l’autorité de surveillance, à savoir l’OFAS, mette elle aussi enfin en œuvre ces instruments&amp;nbsp;?&lt;/li&gt;&lt;li&gt;Si oui, quel est le calendrier du Conseil fédéral&amp;nbsp;?&amp;nbsp;&lt;/li&gt;&lt;li&gt;Le rapport final du 28&amp;nbsp;janvier 2025 sur l’enquête administrative concernant les perspectives financières de l’AVS mentionne à plusieurs reprises un présumé manque de ressources en personnel. C’est étonnant, puisque apparemment, l’OFAS utilise ses ressources pour des projets informatiques liés à la mise en œuvre plutôt que de les consacrer à l’élaboration de perspectives financières valables. Combien de postes sont affectés à ces projets et quels ont été les moyens financiers qui leur ont été alloués en 2024&amp;nbsp;?&lt;/li&gt;&lt;li&gt;Ces projets sont-ils financés par le fonds AVS&amp;nbsp;?&amp;nbsp;&lt;/li&gt;&lt;li&gt;L’art.&amp;nbsp;211&lt;sup&gt;quinquies&lt;/sup&gt;, al.&amp;nbsp;2, RAVS est-il ici respecté&amp;nbsp;?&lt;/li&gt;&lt;li&gt;Combien de postes et de moyens financiers ont été consacrés à l’élaboration des perspectives financières de l’AVS au cours de cette même période (2024)&amp;nbsp;?&amp;nbsp;&lt;/li&gt;&lt;li&gt;Le Conseil fédéral est-il prêt à faire de la nécessité exprimée par le Parlement une priorité, c’est-à-dire disposer de perspectives financières valables concernant le système social&amp;nbsp;?&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Wir ersuchen den Bundesrat um die Beantwortung folgender Fragen:&amp;nbsp;&lt;/p&gt;&lt;ol&gt;&lt;li&gt;Mit welchen Massnahmen gedenkt der Bundesrat sicherzustellen, dass künftig verlässliche Finanzperspektiven für die Sozialwerke erstellt werden können?&amp;nbsp;&lt;/li&gt;&lt;li&gt;Das Parlament hat die Durchführungsstellen ab 2024 gesetzlich verpflichtet, die Instrumente Risikomanagement, Qualitätsmanagement, internes Kontrollsystem und externe Fachrevision umzusetzen. Ist vorgesehen, dass endlich auch die Aufsichtsbehörde BSV solche Instrumente implementiert?&lt;/li&gt;&lt;li&gt;Wenn Ja: Wie sieht der Fahrplan des Bundesrates dafür aus?&amp;nbsp;&lt;/li&gt;&lt;li&gt;Im Schlussbericht vom 28. Januar 2025 zur entsprechenden Administrativuntersuchung wurde wiederholt auf angeblich mangelnde personelle Ressourcen hingewiesen. Das erstaunt: Offenbar setzt das BSV seine Ressourcen statt für die Erarbeitung valabler Finanzperspektiven fälschlicherweise für ICT-Projekte ein, welche die Durchführung betreffen. Wie viele Stellen werden für solche Projekte eingesetzt und welche Finanzmittel waren dies im Jahr 2024?&lt;/li&gt;&lt;li&gt;Werden solche Projekte für Durchführungsthemen aus dem AHV-Fonds finanziert?&amp;nbsp;&lt;/li&gt;&lt;li&gt;Wird dabei Art. 211&lt;sup&gt;quinquies&lt;/sup&gt; Abs. 2 AHVV eingehalten?&lt;/li&gt;&lt;li&gt;Wie viele Stellen und Finanzmittel waren es im Vergleichszeitraum 2024 für die Erarbeitung der Finanzperspektiven für die AHV?&amp;nbsp;&lt;/li&gt;&lt;li&gt;Ist der Bundesrat bereit, eine Priorisierung zugunsten der ausgewiesenen Bedürfnisse des Parlamentes in Sachen valabler Finanzperspektiven der Sozialwerke durchzusetzen?&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sono assolutamente necessarie basi attendibili per la legislazione nell'AVS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aeschi Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einführung einer Obergrenze für die Anzahl Personal-Vollzeitäquivalente (FTE) beim Bund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instauration d'un plafond pour le nombre d'employés en équivalents plein temps à la Confédération</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Le Conseil fédéral est chargé d’instaurer un plafond qui fixe le nombre d’employés en équivalents plein temps, comme demandé par le président du PLR Thierry Burkart dans le journal Sonntagsblick du 16 mars 2025.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Der Bundesrat wird beauftragt, gemäss der Forderung von FDP-Parteipräsident Thierry Burkart im Sonntagsblick vom 16. März 2025 eine fixe Obergrenze für die Anzahl Personal-Vollzeitäquivalente (FTE) einzuführen.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduzione di un limite massimo per il numero di collaboratori in equivalenti a tempo pieno (ETP) presso l'Amministrazione federale</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.3093</t>
   </si>
   <si>
@@ -1289,6 +1548,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253093</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Certaines entreprises ont obtenu, dans le cadre de subventions, plus de droits d’émission à titre gratuit qu'elles n'en avaient besoin pour leurs émissions de gaz à effet de serre. Elles peuvent donc en tirer profit en les revendant. Si elles avaient dû payer la taxe sur le CO2 pour toutes leurs émissions, comme les ménages et les PME suisses, cela leur aurait coûté 2,9 milliards de francs. La réduction des émissions de gaz à effet de serre a été faible et peu d'investissements bénéfiques pour le climat ont été réalisés.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;1. Depuis le lancement du marché du carbone (ou système d'échange de quotas d'émission), diverses entreprises ont obtenu au fil des ans plus de droits d'émission à titre gratuit qu'elles n’affichaient d'émissions. Comment le Conseil fédéral explique-t-il que l’État subventionne systématiquement des entreprises à forte intensité d'émissions&amp;nbsp;? Comment explique-t-il que l’on ait ainsi sapé les incitations à réduire les émissions et que l’on continue de le faire&amp;nbsp;?&amp;nbsp;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;2. Sous la forme de droits d'émission à titre gratuit, la Confédération a subventionné des entreprises à forte intensité d'émission afin d'empêcher qu'elles ne quittent la Suisse. Grâce à cette pratique, de nombreuses entreprises ont accumulé des droits d'émission, qu’elles ont conservés jusqu'à aujourd'hui. Elles pourront les utiliser dans les années à venir, et ainsi ne pas payer pour le CO2 qu’elles émettent, ou les revendre. La valeur des droits d'émission a augmenté au fil des ans. Quelle est la contre-valeur actuelle estimée de ces droits d’émission attribués à titre gratuit&amp;nbsp;? Combien de temps les entreprises concernées pourront-elles ne pas payer pour leurs émissions effectives grâce à ces droits d'émission accumulés&amp;nbsp;?&amp;nbsp;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;3. Selon les estimations du CDF, les entreprises participant au système d'échange de quotas d'émission ont reçu entre 2013 et 2020 environ 15&amp;nbsp;millions au titre de la redistribution de la taxe sur le CO2 par le biais d'une redistribution aux entreprises et à la population, bien qu'elles soient exemptées de cette taxe. Comment le Conseil fédéral explique-t-il ce subventionnement supplémentaire des entreprises participant au système d'échange de quotas d'émission&amp;nbsp;? N’estime-t-il pas que les PME qui paient des taxes sur le CO2 sont ainsi désavantagées&amp;nbsp;? La redistribution de la taxe d'incitation sur le CO2 aux plus gros pollueurs n'est-elle pas contraire au principe même de la taxe sur le CO2&amp;nbsp;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Einige Firmen erhielten im Rahmen von Subventionen mehr Gratisrechte, als sie für ihre Treibhausgasemissionen benötigten. Diese können sie nun gewinnbringend verkaufen. Müssten sie wie die Schweizer Haushalte und KMUs für all ihre Emissionen die CO2-Abgabe bezahlen, hätte sie das 2,9 Milliarden Franken gekostet. Die Reduktion der Treibhausgasemissionen war gering, und es wurden wenig transformative Klimainvestitionen getätigt.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;1. Seit Beginn des EHM (Emissionshandelsmarkt oder EHS für Emissionshandelssysteme) erhielten diverse Unternehmen über die Jahre mehr Gratisemissionsrechte als sie an Emissionen auswiesen. Wie erklärt der Bundesrat diese systematische, staatliche Subvention emissionsintensiver Unternehmen? Wie erklärt der Bundesrat, dass durch diese Praxis die Anreize zur Emissionsminderung ausgehebelt wurden und bis heute werden?&amp;nbsp;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;2. In Form von Gratisemissionsrechten hat der Bund emissionsintensive Unternehmen subventioniert, um deren Abwanderung aus der Schweiz zu verhindern. Viele Unternehmen haben im Zuge dieser Praxis Emissionsrechte angesammelt und bis heute behalten. Sie können diese in den kommenden Jahren verwenden und müssen entsprechend keinen CO2-Preis bezahlen oder sie könne sie weiterverkaufen. Der Wert der Emissionsrechte hat über die Jahre dazugewonnen. Was ist der geschätzte aktuelle Gegenwert dieser angesparten Gratiszuteilungen? Wie lange werden die angesammelten Emissionsrechte die Firmen davor bewahren, tatsächlich etwas für ihre Emissionen zu bezahlen?&amp;nbsp;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;3. Laut Schätzungen der EFK haben die EHS-Firmen von 2013 bis 2020 rund 15 Millionen an Rückverteilung aus der CO2-Abgabe durch Rückverteilung an die Wirtschaft und Bevölkerung erhalten,&amp;nbsp;obwohl sie von dieser Abgabe befreit sind. Wie erklärt der Bundesrat diese zusätzliche Subventionierung der EHS-Unternehmen? Werden aus Sicht des Bundesrats damit nicht KMUs, welche CO2 Abgaben bezahlen, benachteiligt?&amp;nbsp;Widerspricht die Rückverteilung der CO2-Lenkungsabgabe an die grössten Verschmutzer nicht der Grundidee der CO2-Abgabe?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scambio di quote di emissioni. Discutibili diritti di emissione gratuiti</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.7213</t>
   </si>
   <si>
@@ -1307,6 +1575,12 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257213</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;L'élaboration de l'ordonnance sur le CO2 revêt une grande importance pour la réalisation des objectifs légaux en matière d'émissions, en particulier les dispositions d'exécution pour les voitures de tourisme.&lt;br&gt;Le Contrôle fédéral des finances a évalué l'efficacité des sanctions en matière de CO2 pour les voitures de tourisme neuves&amp;nbsp;: il est clair pour lui qu'il faut renoncer à des mesures d'allègement si les objectifs ne sont pas atteints.&lt;br&gt;Le Conseil fédéral partage-t-il l'avis du Contrôle fédéral des finances&amp;nbsp;? Dans la négative, pour quelles raisons&amp;nbsp;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Die Ausgestaltung der CO2-Verordnung ist von grosser Bedeutung für die Erreichung der gesetzlichen Emissionsziele, insbesondere sind es die Ausführungsbestimmungen für Personenwagen.&lt;br&gt;Die Eidgenössische Finanzkontrolle hat die Wirksamkeit der CO2-Sanktionen für neue Personenwagen evaluiert und kommt explizit zum Schluss, dass von Erleichterungsmassnahmen bei Zielverfehlung abzusehen sei.&lt;br&gt;Teilt der Bundesrat die Meinung der EFK und falls nicht, aus welchen Gründen?&lt;/p&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.3054</t>
   </si>
   <si>
@@ -1325,6 +1599,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253054</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Pour donner suite à la recommandation de l’Autorité de surveillance du Ministère public de la Confédération, le DFJP est chargé de prendre les mesures organisationnelles nécessaires pour que le Ministère public de la Confédération définisse les domaines d’infractions au sujet desquels il attend des investigations et dénonciations spontanées plus nombreuses de la part de la Police judiciaire fédérale, ce grâce à une augmentation à réaliser des effectifs d'enquête. L'accent sera mis sur l'activité criminelle d'organisations structurées ainsi que sur les crimes portant atteinte à la stabilité de l'État.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Im Sinne der Empfehlungen der Aufsichtsbehörde über die Bundesanwaltschaft (AB-BA) wird das EJPD beauftragt, die notwendigen organisatorischen Massnahmen zu treffen, damit die Bundesanwaltschaft (BA) jene Deliktsfelder definiert, in denen die BKP mit mehr Ermittlungspersonal mehr Strafuntersuchungen durchführen und mehr Anzeigen zur Einleitung von Strafverfahren einreichen könnte. Im Zentrum stehen sollen Verbrechen strukturierter Organisationen und Straftaten, welche die Stabilität des Staates untergraben.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il DFGP deve potenziare senza indugio la Polizia giudiziaria federale per combattere l'infiltrazione della mafia e altri reati</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.7102</t>
   </si>
   <si>
@@ -1340,6 +1623,12 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257102</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Selon le Conseil fédéral, en tant que propriétaire de RUAG, quelles sont les responsabilités en ce qui concerne les activités potentiellement condamnables de l’entreprise et le préjudice financier qui s’élève à plusieurs millions de francs&amp;nbsp;?&amp;nbsp;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Welche Verantwortung sieht der Bundesrat als Eigner von RUAG bezüglich der potenziell strafrechtlichen Aktivitäten und der entstandenen finanziellen Schäden in Höhe mehrerer Millionen Franken?&amp;nbsp;&lt;/p&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.7129</t>
   </si>
   <si>
@@ -1355,6 +1644,12 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257129</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Selon les informations régulièrement transmises par le DDPS, les Etats-Unis se sont engagés à fournir les 36 F-35 acquis par la Suisse à un prix d’achat fixe. Mais selon un avis du Contrôle fédéral des finances émis le 8 juillet 2022, il n’existe aucune garantie juridique à ce sujet.&lt;br&gt;A notre connaissance, cette dernière information n’a jamais été démentie par le Conseil fédéral.&lt;br&gt;Le Conseil fédéral la confirme-t-il ?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Gemäss den Informationen, die regelmässig vom Eidgenössischen Departement für Verteidigung, Bevölkerungsschutz und Sport mitgeteilt werden, haben sich die Vereinigten Staaten dazu verpflichtet, die 36 F-35, welche die Schweiz erwerben wird, zu einem fixen Preis zu liefern. Aber laut einer Stellungnahme der Eidgenössischen Finanzkontrolle vom 8. Juli 2022 existieren diesbezüglich keinerlei rechtliche Garantien.&lt;br&gt;Soweit wir wissen, ist Letzteres vom Bundesrat nie dementiert worden.&lt;br&gt;Kann der Bundesrat dies bestätigen?&amp;nbsp;&lt;/p&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.7138</t>
   </si>
   <si>
@@ -1373,6 +1668,12 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257138</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Dans quelle mesure le Conseil fédéral était-il informé par le DDPS des affaires suspectes liées au commerce des chars Leopard et, le cas échéant, peut-il nous renseigner sur les mesures prises à l'époque pour limiter au maximum les conséquences et les pertes financières liées à ces malversations?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Inwieweit wurde der Bundesrat vom VBS über verdächtige Machenschaften im Zusammenhang mit dem Geschäft mit Leopard-Panzern informiert?&amp;nbsp;&lt;br&gt;Wenn er informiert wurde, kann er Auskunft darüber geben, welche Massnahmen damals ergriffen wurden, um die Folgen und finanziellen Verluste im Zusammenhang mit der Veruntreuung so gering wie möglich zu halten?&lt;/p&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.3031</t>
   </si>
   <si>
@@ -1397,6 +1698,18 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253031</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;En Suisse, le budget des organisations non gouvernementales (ONG) repose en grande ou en majeure partie sur des fonds publics. Malgré tout, les ONG font du lobbying et mènent des campagnes politiques par exemple à l’approche du vote sur le financement de l’Office de secours et de travaux des Nations Unies pour les réfugiés de Palestine dans le Proche-Orient (UNRWA).&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Le Conseil fédéral a rejeté une motion du conseiller national Beat Walti qui exigeait, sur la question des ONG, une séparation claire entre les activités d’utilité publique et les autres activités – notamment politiques.&amp;nbsp;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Dans ce contexte, un certain nombre de questions se posent&amp;nbsp;:&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;ol style="list-style-type:decimal;"&gt;&lt;li&gt;&lt;strong&gt;Soutien financier&lt;/strong&gt;&lt;br&gt;a) Quels montants la Confédération a-t-elle versés annuellement aux ONG ces cinq dernières années&amp;nbsp;?&lt;br&gt;b) Le Conseil fédéral peut-il fournir des données ventilées sur ces versements par année, montant, département et type de soutien (par ex. financement de projet, contributions institutionnelles)&amp;nbsp;?&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Transparence&lt;/strong&gt;&lt;br&gt;a) Quelles dispositions légales ou administratives garantissent la transparence pour l’octroi de deniers publics à des ONG&amp;nbsp;?&lt;br&gt;b) Les ONG sont-elles tenues à la transparence de leurs sources de financement, en particulier pour ce qui est des contributions publiques&amp;nbsp;?&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Recensement centralisé des versements&lt;/strong&gt;&lt;br&gt;a) Existe-t-il une base de données accessible à la population qui recense tous les versements de la part de l’État à des ONG&amp;nbsp;?&lt;br&gt;b) Si elle n’existe pas, prévoit-on de la mettre en place&amp;nbsp;? Si non, pourquoi&amp;nbsp;?&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Contrôle&lt;/strong&gt;&lt;br&gt;a) Quelles mesures prend la Confédération pour garantir que les deniers publics ne sont pas détournés au profit d’activités politiques ou de lobby&amp;nbsp;?&lt;br&gt;b) Y a-t-il des contrôles en place pour garantir le respect de ces règles&amp;nbsp;? Si oui, sous quelle forme se présentent-ils&amp;nbsp;?&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Conflits d’intérêts&lt;/strong&gt;&lt;br&gt;a) De nombreux collaborateurs de la Confédération, en particulier ceux appartenant à la Direction du développement et de la coopération (DDC), ont travaillé dans des ONG. Comment la Confédération s’assure-t-elle qu’il n’y ait pas de conflits d’intérêts&amp;nbsp;?&lt;br&gt;b) Quelles règles ou quelles mesures garantissent que les financements à des projets soient octroyés selon une procédure impartiale et transparente&amp;nbsp;?&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;In der Schweiz tätige Nichtregierungsorganisationen (NGOs) finanzieren einen erheblichen Teil oder sogar die Mehrheit ihres Budgets aus öffentlichen Geldern. Gleichzeitig betreiben sie Lobbying und politische Kampagnen, beispielsweise im Zusammenhang mit der anstehenden Abstimmung über die Zahlungen an das Hilfswerk der Vereinten Nationen für Palästina-Flüchtlinge im Nahen Osten (UNRWA).&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Der Bundesrat lehnt eine Motion von Nationalrat Beat Walti ab, die eine klare Trennung zwischen gemeinnützigen und anderen – insbesondere politischen – Aktivitäten von NGOs fordert.&amp;nbsp;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Vor diesem Hintergrund stellen sich folgende Fragen:&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;ol style="list-style-type:decimal;"&gt;&lt;li&gt;&lt;strong&gt;Finanzielle Zuwendungen&lt;/strong&gt;&lt;br&gt;a) Wie hoch waren die jährlichen Zahlungen des Bundes an NGOs in den letzten fünf Jahren?&lt;br&gt;b) Kann der Bundesrat eine Aufschlüsselung dieser Zahlungen nach Jahr, Höhe, Departement und Art der Unterstützung (z.B. Projektgelder, institutionelle Beiträge) vorlegen?&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Transparenzregelungen&lt;/strong&gt;&lt;br&gt;a) Welche bestehenden gesetzlichen und administrativen Vorschriften gewährleisten Transparenz bei der Vergabe staatlicher Mittel an NGOs?&lt;br&gt;b) Sind NGOs verpflichtet, ihre Finanzierung offenzulegen, insbesondere im Hinblick auf staatliche Zuwendungen?&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Zentrale Erfassung und Kontrolle&lt;/strong&gt;&lt;br&gt;a) Existiert eine zentrale, öffentlich zugängliche Datenbank, in der sämtliche staatlichen Zuwendungen an NGOs erfasst sind?&lt;br&gt;b) Falls eine solche Datenbank nicht existiert: Gibt es Pläne für deren Einführung? Falls nein, weshalb nicht?&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Sicherstellung der Zweckbindung&lt;/strong&gt;&lt;br&gt;a) Welche Massnahmen ergreift der Bund, um sicherzustellen, dass öffentliche Gelder nicht für politische oder Lobbying-Tätigkeiten zweckentfremdet werden?&lt;br&gt;b) Werden Kontrollen durchgeführt, um die Einhaltung dieser Vorgaben zu gewährleisten? Falls ja, in welcher Form?&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Interessenkonflikte&lt;/strong&gt;&lt;br&gt;a) Viele Mitarbeiter des Bundes, insbesondere im Bereich der Direktion für Entwicklung und Zusammenarbeit (DEZA), waren zuvor bei NGOs tätig. Wie stellt der Bund sicher, dass hier keine Interessenkonflikte entstehen?&lt;br&gt;b) Welche Regeln oder Massnahmen bestehen, um eine unvoreingenommene und transparente Projektvergabe zu gewährleisten?&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trasparenza e destinazione vincolata dei fondi per le ONG. Qual è la posizione della Confederazione?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDA</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.7012</t>
   </si>
   <si>
@@ -1415,6 +1728,12 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257012</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Sur pression du Parlement, le CDF a créé un bureau de communication auquel peuvent être signalés les soupçons d’irrégularités et d’actes de corruption commis dans des unités administratives de la Confédération.&lt;br&gt;1. A-t-on informé, directement ou indirectement, le personnel de la Confédération de l’existence de ce bureau de communication&amp;nbsp;?&lt;br&gt;2. Combien d’annonces le bureau de communication a-t-il reçues depuis sa création (ventilation par an)&amp;nbsp;?&lt;br&gt;3. Quelles sont les ressources disponibles pour examiner sérieusement les annonces reçues et prendre les mesures nécessaires&amp;nbsp;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Dank parlamentarischem Druck betreibt die EFK für Verdachtsmeldungen von Unregelmässigkeiten und Korruptionshandlungen in Verwaltungseinheiten des Bundes eine «Whistleblowing-Meldestelle».&amp;nbsp;&lt;br&gt;1. Wurde die Meldestelle bei direkt oder indirekt beim Bund angestellten Personen je beworben oder bekannt gemacht?&lt;br&gt;2. Wie viele Meldungen gingen seit Bestehen der Meldestelle (aufgeschlüsselt nach Jahr) ein?&lt;br&gt;3. Welche Ressourcen bestehen, um eingehende Verdachtsmeldungen seriös zu prüfen und zu handeln?&lt;/p&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.3008</t>
   </si>
   <si>
@@ -1436,6 +1755,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253008</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Les fonds de compensation AVS/AI/APG sont responsables de la gestion des liquidités et de la fortune de ces trois assurances. En décembre&amp;nbsp;2023, le conseil d’administration de Compenswiss, l’autorité compétente, a décidé de confier le mandat de banque dépositaire, qui était alors assumé par UBS, à un établissement bancaire américain, la State Street Bank International GmbH. Le transfert à la nouvelle banque dépositaire a eu lieu fin juillet&amp;nbsp;2024.&lt;/p&gt;&lt;p&gt;Le Conseil fédéral est chargé d’encourager Compenswiss à résilier le mandat confié à la State Street Bank International GmbH pour le remettre à une banque suisse. Si, pour des raisons juridiques, cela n’est pas possible, le Conseil fédéral est chargé de créer les conditions légales nécessaires.&lt;/p&gt;&lt;p&gt;Une minorité (Bertschy, Grossen Jürg, Roth David, Ryser, Walti Beat, Wermuth, Widmer Céline) propose de rejeter la motion.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Die Ausgleichsfonds AHV/IV/EO sind für die Geld- und Vermögensverwaltung dieser drei Versicherungen zuständig. Im Dezember 2023 entschied der Verwaltungsrat der zuständigen Behörde Compenswiss, die UBS von ihrem Mandat der Depotbank zu entbinden und die US-amerikanische State Street Bank International GmbH damit zu betrauen. Der Wechsel zur neuen Depotbank fand Ende Juli 2024 statt.&lt;/p&gt;&lt;p&gt;Der Bundesrat wird beauftragt, Compenswiss dazu anzuhalten, das Depotbankmandat der State Street Bank International GmbH aufzulösen und eine Schweizer Bank damit zu betrauen. Sollte dies aus rechtlichen Gründen nicht möglich sein, wird der Bundesrat beauftragt, die rechtlichen Voraussetzungen dafür zu schaffen.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Eine Minderheit (Bertschy, Grossen Jürg, Roth David, Ryser, Walti Beat, Wermuth, Widmer Céline) beantragt, die Motion abzulehnen.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banca depositaria svizzera per i fondi di compensazione AVS, AI e IPG </t>
+  </si>
+  <si>
     <t xml:space="preserve">24.4404</t>
   </si>
   <si>
@@ -1457,6 +1785,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244404</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;DigiSanté est un vaste programme développé par le DFI pour encourager la transformation numérique du système de santé. Il vise principalement à améliorer l’échange de données par voie numérique, à rendre les différents systèmes interopérables et à mettre en œuvre le principe de la collecte unique des données lors de la saisie de celles-ci. Doté d’un budget de près de 400&amp;nbsp;millions de francs, il comprend quelque 50&amp;nbsp;projets.&amp;nbsp;&lt;/p&gt;&lt;p&gt;Sa phase de lancement court jusqu’à fin&amp;nbsp;2024. DigiSanté étant un projet clé de l’administration fédérale, l’unité administrative qui en est responsable doit présenter deux fois l’an un rapport de situation au secteur Transformation numérique et gouvernance de l’informatique de la Chancellerie fédérale. Le programme sera lancé officiellement début&amp;nbsp;2025 et durera dix&amp;nbsp;ans.&lt;/p&gt;&lt;p&gt;La Stratégie Cybersanté Suisse&amp;nbsp;2.0 s’étend, elle, de 2018 à fin&amp;nbsp;2024. Le Conseil fédéral n’a pas publié de stratégie Cybersanté Suisse&amp;nbsp;3.0 pour les années&amp;nbsp;2025 et suivantes ni de stratégie DigiSanté.&lt;/p&gt;&lt;p&gt;L’index principal des patients (master patient index, MPI) et le répertoire des organisations de santé (health provider directory, HPD) du dossier électronique du patient sont les composants de base de l’architecture informatique globale de DigiSanté. Or, ils ne peuvent actuellement être utilisés qu’au sein du dossier électronique du patient et les fournisseurs de prestations ne peuvent pas y recourir pour s’échanger des informations. Aussi les responsables du programme DigiSanté sont-ils en train de préparer une modification des bases légales.&lt;/p&gt;&lt;p&gt;Dans ce contexte, je prie le Conseil fédéral de répondre aux questions suivantes&amp;nbsp;:&lt;/p&gt;&lt;ol&gt;&lt;li&gt;Les rapports de situation de DigiSanté seront-ils publiés&amp;nbsp;? Dans la négative, pour quelle raison&amp;nbsp;? Les membres du comité de branche DigiSanté reçoivent-ils les rapports en question&amp;nbsp;?&lt;/li&gt;&lt;li&gt;Existe-t-il une stratégie qui succédera à la Stratégie Cybersanté&amp;nbsp;2.0&amp;nbsp;? Dans la négative, pour quelle raison&amp;nbsp;? Y aura-t-il une stratégie DigiSanté&amp;nbsp;? Dans l’affirmative, quand la consultation sera-t-elle ouverte&amp;nbsp;?&lt;/li&gt;&lt;li&gt;Le MPI et le HPD sont essentiels pour les applications permettant aux entreprises d’échanger entre elles. Quand les bases légales permettront-elles de les utiliser en dehors du dossier électronique du patient&amp;nbsp;?&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;DigiSanté ist ein umfassendes Programm des EDI zur Förderung der digitalen Transformation im Gesundheitswesen. Hauptziele sind die Verbesserung des digitalen Datenaustauschs, die Schaffung von Interoperabilität zwischen verschiedenen Systemen und die Umsetzung des Once-Only-Prinzips bei der Datenerfassung. Das Programm umfasst rund 50 verschiedene Vorhaben mit einem Gesamtbudget von knapp 400 Millionen Franken.&amp;nbsp;&lt;/p&gt;&lt;p&gt;Die Initialisierungsphase von DigiSanté läuft bis Ende 2024. DigiSanté ist ein sogenanntes Schlüsselprojekt der Bundesverwaltung. Für diese muss die federführende Verwaltungseinheit zweimal jährlich einen Statusbericht an den Bereich Digitale Transformation und IKT-Steuerung (DTI) der Bundeskanzlei übermitteln. DigiSanté startet offiziell Anfang 2025 und ist auf 10 Jahre angelegt.&lt;/p&gt;&lt;p&gt;Die Strategie eHealth Schweiz 2.0 läuft von 2018 bis Ende 2024. Der Bundesrat hat weder eine Nachfolgestrategie eHealth Schweiz 3.0 ab 2025 noch eine Strategie DigiSanté veröffentlicht.&lt;/p&gt;&lt;p&gt;Grundlegende Komponenten der Gesamtarchitektur von DigiSanté sind der Master Patient Index (MPI) und das Health Provider Directory (HPD) des elektronischen Patientendossiers. Sie dürfen derzeit nur innerhalb des elektronischen Patientendossiers verwendet werden und können nicht für den Informationsaustausch zwischen Leistungserbringern (B2B) eingesetzt werden. DigiSanté bereitet eine Anpassung der rechtlichen Grundlagen vor.&lt;/p&gt;&lt;p&gt;In diesem Zusammenhang stelle ich dem Bundesrat folgende Fragen:&lt;/p&gt;&lt;ol&gt;&lt;li&gt;Werden die Statusberichte von DigiSanté veröffentlicht? Falls Nein, weshalb nicht? Erhalten die Mitglieder des Branchengremiums von DigiSanté die Berichte?&lt;/li&gt;&lt;li&gt;Gibt es eine Nachfolgestrategie für eHealth 2.0? Wenn nein, warum nicht? Wird es eine Strategie DigiSanté geben? Wenn ja, wann wird eine Vernehmlassung eröffnet?&lt;/li&gt;&lt;li&gt;Der MPI und das HPD sind für B2B-Anwendungen zentral. Wann wird es rechtlich möglich sein, den MPI und den HPD auch ausserhalb des EPD-Kontextes zu nutzen?&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dalla Strategia eHealth 2.0 a Digisanté. I Cantoni sono sufficientemente coinvolti nel programma?</t>
+  </si>
+  <si>
     <t xml:space="preserve">24.4419</t>
   </si>
   <si>
@@ -1472,6 +1809,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244419</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;La nouvelle loi sur les jeux d’argent (LJAr) a été adoptée en votation populaire le 10&amp;nbsp;juin 2018. Les nouvelles dispositions, ainsi que les ordonnances en la matière, sont entrées en vigueur au 1er&amp;nbsp;janvier 2019. Les expectatives vis-à-vis de cette nouvelle loi étaient élevées. Il s’agissait notamment de renforcer la protection contre la dépendance au jeu, le blanchiment d’argent et la manipulation des paris&amp;nbsp;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Je prie le Conseil fédéral de répondre aux questions suivantes&amp;nbsp;:&lt;/p&gt;&lt;ol&gt;&lt;li&gt;Quelles expériences a-t-il faites avec la LJAr au cours des cinq dernières années&amp;nbsp;?&lt;/li&gt;&lt;li&gt;Conformément à l’art.&amp;nbsp;119 LJAr, la Confédération perçoit un impôt sur les maisons de jeu qui est affecté à l’AVS. À combien s’élève le montant des impôts prélevés annuellement de 2019 à 2023 et versé chaque année à l’AVS par la Commission fédérale des maisons de jeu&amp;nbsp;?&lt;/li&gt;&lt;li&gt;Les art.&amp;nbsp;71 ss LJAr prévoient des mesures incombant aux exploitants de jeux d’argent pour protéger les personnes contre la dépendance au jeu et au jeu excessif. De quelle façon la surveillance effectuée par les autorités compétentes est-elle organisée afin d’éviter des pertes excessives&amp;nbsp;? Quels ont été les constats de cette surveillance&amp;nbsp;?&lt;/li&gt;&lt;li&gt;Comment le Conseil fédéral évalue-t-il l’efficacité des mesures prises contre la dépendance au jeu et le jeu excessif&amp;nbsp;?&lt;/li&gt;&lt;li&gt;La Commission fédérale des maisons de jeux et l’autorité intercantonale ont pour tâches de lutter contre les jeux d’argent illégaux (art.&amp;nbsp;97 et 107 LJAr). De quelle façon les soupçons d’exploitation illégale de jeux sont-ils clarifiés et qui paie ces investigations&amp;nbsp;? Si des perquisitions sont effectuées, qui les ordonne et qui paie l’intervention&amp;nbsp;? De quelle façon les personnes concernées sont-elles informées de l’état d’avancement des procédures&amp;nbsp;? Quelle est la durée moyenne de ces procédures&amp;nbsp;?&lt;/li&gt;&lt;li&gt;Comment le Conseil fédéral évalue-t-il l’efficience et l’efficacité des procédures concernant les soupçons visés à la question&amp;nbsp;5&amp;nbsp;?&lt;/li&gt;&lt;li&gt;Y a-t-il eu des cas graves de jeu illégal au cours des cinq dernières années&amp;nbsp;?&lt;/li&gt;&lt;li&gt;La Commission fédérale des maisons de jeux dispose de pouvoirs étendus conformément aux art.&amp;nbsp;94 ss LJAr et exerce ses activités en toute indépendance. Elle est rattachée administrativement au DFJP (art.&amp;nbsp;96, al. 1, LJAr). Cette Commission est-elle contrôlée et si oui, de quelle façon est-ce réglementé&amp;nbsp;?&amp;nbsp;&lt;/li&gt;&lt;li&gt;Conformément l’art.&amp;nbsp;99 LJAr, la Comission fédérale des maisons de jeux perçoit des émoluments et une taxe de surveillance. Les conditions pour fixer ces émoluments figurent aux art.&amp;nbsp;102 ss de l’ordonnance sur les jeux d’argent. Quels ont été les montants des coûts et des recettes de la Commission fédérale des maisons de jeux pour les années&amp;nbsp;2019 à 2023&amp;nbsp;?&amp;nbsp;&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Im Rahmen einer Volksabstimmung wurde am 10. Juni 2018 das neue Bundesgesetz über Geldspiele (Geldspielgesetz, BGS) angenommen. Am 1. Januar 2019 ist dieses mit den entsprechenden Verordnungen in Kraft getreten. Die Erwartungen an das neue Gesetz waren hoch. Unter anderem sollte der Schutz vor Spielsucht, Geldwäscherei und Wettkampfmanipulation erhöht werden.&amp;nbsp;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Ich danke dem Bundesrat für die Beantwortung der folgenden Fragen:&lt;/p&gt;&lt;ol&gt;&lt;li&gt;Welche Erfahrungen hat der Bundesrat mit dem BGS in den vergangenen fünf Jahren gemacht?&lt;/li&gt;&lt;li&gt;Gemäss Art. 119 BGS wird eine Spielbankenabgabe erhoben, welche für die AHV bestimmt ist. Wie hoch sind die Beträge der Jahre 2019 bis 2023, welche jährlich als Abgabe erhoben und von der Spielbankenkommission jährlich an die AHV abgeführt wurden?&lt;/li&gt;&lt;li&gt;Die Art. 71 ff. BGS sehen Massnahmen vor, welche die Veranstalterinnen von Geldspielen treffen müssen, um Personen vor Spielsucht und exzessivem Geldspiel zu schützen. Wie ist die Aufsicht der zuständigen Behörden geregelt, um übermässige Verluste zu vermeiden? Was sind die Erkenntnisse dieser Aufsicht?&lt;/li&gt;&lt;li&gt;Wie beurteilt der Bundesrat die Effektivität der Massnahmen gegen Spielsucht und exzessivem Geldspiel.&lt;/li&gt;&lt;li&gt;Die Eidgenössische Spielbankenkommission (ESBK) und die Interkantonale Geldspielaufsicht (Gespa) sind gemäss Art. 97 und 107 BGS für die Bekämpfung des illegalen Geldspiels zuständig. Wie werden Verdachtsmomente bezüglich illegaler Spielbetriebe abgeklärt und wer bezahlt diese Abklärungen? Falls Hausdurchsuchungen erfolgen: Wer ordnet diese an und wer bezahlt den Einsatz? Wie werden die betroffenen Personen über den Stand der Verfahren informiert? Wie lange dauern durchschnittlich derartige Verfahren?&lt;/li&gt;&lt;li&gt;Wie beurteilt der Bundesrat die Effizienz und Effektivität der Verfahren bezüglich den Verdachtsmomenten gemäss Punkt 5?&lt;/li&gt;&lt;li&gt;Gab es in den vergangenen fünf Jahren gravierende Fälle illegalen Spielbetriebs?&lt;/li&gt;&lt;li&gt;Die ESBK besitzt gemäss Art. 94 ff. BGS weitreichende Befugnisse. Dabei übt sie ihre Tätigkeit unabhängig aus, ist aber administrativ dem EJPD zugeordnet (Art. 96 Abs. 1). Gibt es eine Kontrolle über die ESBK und wenn ja, wie ist diese geregelt?&amp;nbsp;&lt;/li&gt;&lt;li&gt;Gemäss Art. 99 BGS wird die ESBK über Gebühren und die Aufsichtsabgabe finanziert. Die Rahmenbedingungen dafür sind in Art. 102 ff. der Geldspielverordnung (GSV) geregelt. Wie hoch waren die Kosten und die Einnahmen der ESBK in den Jahren 2019 bis 2023?&amp;nbsp;&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legge federale sui giochi in denaro. Quali sono stati i suoi risultati?</t>
+  </si>
+  <si>
     <t xml:space="preserve">24.8043</t>
   </si>
   <si>
@@ -1493,6 +1839,39 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20248043</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Top&amp;nbsp;: 7e place dans le classement mondial des universités 2025. Flop&amp;nbsp;: l’EPFZ comme maître d’ouvrage. 2019&amp;nbsp;: rapport du CDF à propos du projet BSS (Bâle)&amp;nbsp;: «&amp;nbsp;la direction du projet BSS n’a pas mis en œuvre de processus valables pour la gestion du changement&amp;nbsp;»&amp;nbsp;; «&amp;nbsp;il n’existe pas d’instruments continus pour le pilotage financier de l’ensemble du projet ». 2023-2024&amp;nbsp;: projet GLC (Zurich)&amp;nbsp;: une centaine de PME et d’entreprises générales attendent encore le versement de plusieurs millions de francs. L’EPFZ refuse de donner suite aux demandes d’entretien des entreprises générales en vue de résoudre le problème.&lt;br&gt;Que fait le Conseil fédéral pour protéger les entreprises concernées et la réputation de l’EPFZ&amp;nbsp;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Top: Uni-Weltranking 2025, Rang 7. Flop: ETH als Bauherrin. 2019: EFK zum Management des BSS/Basel – «keine gültigen Prozesse für Änderungsmanagement»; «für finanzielle Steuerung des Gesamtprojekts existieren keine durchgängigen Instrumente». 2023/24: GLC/Zürich, rund hundert KMU und GU warten auf Millionen. Vom GU angebotene Lösungsgespräch werden abgelehnt.&lt;br&gt;Was tut der Bundesrat zum Schutz der betroffenen Firmen und der ETH-Reputation?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WBF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schnyder Markus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Politische Einflussnahme der Verwaltung. Ist das korrekt?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Est-il acceptable que l’administration tente d’influencer les processus politiques ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;En amont des débats concernant le budget 2025 au Conseil national, la CFBE a adressé un courrier à divers parlementaires dans lequel elle les appelait avec insistance à rejeter une proposition de la CdF-N. Imprimé sur le papier officiel de la Confédération (mais contenant toutefois plusieurs fautes d’orthographe dans son en-tête), ce courrier était signé par des professeurs de différentes universités.&lt;br&gt;Que pense le Conseil fédéral de cette tentative d’influencer les processus politiques de la part d’acteurs faisant partie de l’administration&amp;nbsp;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Vor der Beratung des Budgets 2025 im NR wurden diverse Mitglieder des Parlaments von der ESKAS angeschrieben. In diesem Schreiben wurde mit Nachdruck auf Ablehnung eines Antrages der FK-N hingewirkt. Dieses Schreiben wurde auf offiziellem Papier der Eidgenossenschaft versandt (wenn auch mit mehreren Schreibfehlern im Briefkopf). Unterzeichnet wurde es von Professoren mehrerer Universitäten.&lt;br&gt;Wie beurteilt der Bundesrat diese Einflussnahme in den politischen Prozess durch Teile der Verwaltung?&lt;/p&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">24.4290</t>
   </si>
   <si>
@@ -1514,6 +1893,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244290</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;ul style="list-style-type:disc;"&gt;&lt;li&gt;La Constitution consacre le droit à un enseignement de base suffisant (art. 19 et 62, al. 2, Cst.). D’après le Conseil fédéral, quelle est la durée minimale d’un enseignement de base « suffisant »&amp;nbsp;? Un enseignement de 4 jours pour un total de 16 heures par semaine est-il compatible avec la Constitution&amp;nbsp;?&lt;/li&gt;&lt;li&gt;Comment et à quel intervalle la Confédération contrôle-t-elle le respect des conventions, notamment en ce qui concerne le nombre d’heures d’enseignement par semaine ainsi que le lieu et les locaux dans lesquels les cours sont dispensés&amp;nbsp;?&lt;/li&gt;&lt;li&gt;L’art. 62, al. 3, Cst. garantit une formation spéciale suffisante pour les enfants et adolescents handicapés jusqu’à leur 20e anniversaire. Les conventions conclues entre les autorités cantonales et le Secrétariat d’État aux migrations (SEM) contiennent-elles des dispositions à ce sujet&amp;nbsp;? Dans l’affirmative, que prévoient-elles&amp;nbsp;?&lt;/li&gt;&lt;li&gt;L’Agenda Intégration Suisse insiste particulièrement sur l’encouragement linguistique précoce. Comment ce dernier est-il pris en compte dans les conventions conclues entre les cantons et la Confédération au sujet des centres fédéraux pour requérants d’asile ?&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ul style="list-style-type:disc;"&gt;&lt;li&gt;Die Bundesverfassung garantiert das Recht auf ausreichenden Grundschulunterricht (Art. 19 und Art. 62 Abs.2). Welche untere Grenze ist aus Sicht des Bundesrats als «ausreichend» zu betrachten? Sind aus seiner Sicht 4 Tage und 16 Wochenstunden Unterricht als vereinbar mit der Bundesverfassung zu erachten?&lt;/li&gt;&lt;li&gt;Wie und in welcher Regelmässigkeit kontrolliert der Bund die Einhaltung der getroffenen Vereinbarungen, insbesondere auf den Umfang der Kurse in Wochenstunden, den Ort und die Räumlichkeiten?&lt;/li&gt;&lt;li&gt;Art. 62 Abs. 3 garantiert eine ausreichende Sonderschulung für Kinder und Jugendliche mit Behinderung bis zum 20. Altersjahr. Sind diesbezüglich in den Vereinbarungen zwischen kantonalen Behörden und SEM auch Bestimmungen enthalten? Wenn ja, wie sehen sie aus?&lt;/li&gt;&lt;li&gt;Die Integrationsagenda Schweiz legt einen spezifischen Fokus auf die frühkindliche Sprachförderung. Wie wird diesem Umstand in den Vereinbarungen zwischen Kantonen und Bund zu den Bundesasylzentren Rechnung getragen?&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diritto all’istruzione scolastica di base</t>
+  </si>
+  <si>
     <t xml:space="preserve">24.4278</t>
   </si>
   <si>
@@ -1535,6 +1923,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244278</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Dans le rapport d’experts demandé par le Conseil fédéral &lt;i&gt;(annexe&amp;nbsp;1 «&amp;nbsp;résultats de l’examen relatif aux subventions et aux allégements fiscaux&amp;nbsp;», à partir de la page&amp;nbsp;16)&lt;/i&gt;, les allégements fiscaux sont évalués selon la systématique fiscale. Il en ressort qu’environ 40&amp;nbsp;subventions fiscales sont considérées comme n’étant ni justifiées par la systématique fiscale ni proportionnées comme mesures extrafiscales (catégorie rouge) et, que pour environ 80 d’entre elles, il est difficile de dire si elles réussiraient un test de proportionnalité (catégorie jaune). Parallèlement, le groupe d’experts estime que les mesures d’augmentation des recettes ne sont pas prioritaires.&lt;/p&gt;&lt;p&gt;D’où les questions suivantes&amp;nbsp;:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Selon un rapport du CDF de mai 2005, les allégements fiscaux sont des subventions, et sont donc assimilables à des dépenses. Dans le rapport d’experts, ils sont traités comme des recettes. Le Conseil fédéral est-il prêt à considérer ces mesures comme des dépenses&amp;nbsp;? Si oui, pourquoi n’en a-t-il quasiment pas tenu compte dans le programme d’allégement du 20&amp;nbsp;septembre 2024&amp;nbsp;?&lt;/li&gt;&lt;li&gt;Étant donné que plusieurs interventions (&lt;i&gt;notamment l’interpellation&amp;nbsp;23.4116&lt;/i&gt;) ont déjà demandé une quantification des coûts des allégements fiscaux (pas de mise à jour de ces coûts depuis 2011), le Conseil fédéral est-il prêt à fournir des chiffres pour tous les allégements fiscaux considérés comme jaune et rouge dans le rapport d’experts&amp;nbsp;? Si non, pourquoi&amp;nbsp;?&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Im vom Bundesrat in Auftrag gegebenen Expertenbericht &lt;i&gt;(Beilage 1 Prüfungsergebnisse Subventionen und Steuervergünstigungen, ab Seite 16)&lt;/i&gt; werden die Steuervergünstigungen nach der Steuersystematik bewertet. Rund 40 Steuersubventionen werden als weder steuersystematisch gerechtfertigt noch ausserfiskalisch verhältnismässig eingeschätzt (Kategorie rot), zu rund 80 wird festgehalten, dass es zumindest unklar sei, ob diese einer Verhältnismässigkeitsprüfung standhalten würden (Kategorie gelb). Gleichzeitig findet die Expertengruppe, dass die «einnahmeseitigen Massnahmen nicht prioritär» seien.&lt;/p&gt;&lt;p&gt;Die Interpellantin bittet um die Beantwortung folgender Fragen:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Gemäss einem Bericht der EFK vom Mai 2005 sind Steuervergünstigungen Subventionen, und damit Ausgaben gleichzustellen. Im Expertenbericht sind sie unter der Einnahmeseite deklariert. Ist der Bundesrat bereit, diese Massnahmen als Ausgaben zu deklarieren? Falls ja, weshalb hat er praktisch keine davon ins «Entlastungspaket» vom 20.9.2024 integriert?&lt;/li&gt;&lt;li&gt;Im Wissen darum, dass bereits in mehreren Vorstössen nach der Quantifizierung (&lt;i&gt;unter anderem Interpellation 23.4116&lt;/i&gt;) der Kosten der Steuervergünstigungen gefragt wurde (es gibt keine Aufdatierung dieser Kosten seit 2011): Ist der Bundesrat bereit, alle Steuervergünstigungen, welche im Expertenbericht der Kategorie gelb oder rot zugeteilt wurden, mit Zahlen zu hinterlegen? Falls nicht, weshalb nicht?&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agevolazioni fiscali</t>
+  </si>
+  <si>
     <t xml:space="preserve">24.4082</t>
   </si>
   <si>
@@ -1553,6 +1950,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244082</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;L’administration du fonds de compensation de l’AVS, assurée pendant plus de 25 ans par UBS, a récemment été confiée à une banque américaine. Plus de 40 milliards de francs sont en jeu, soit nos réserves pour l’AVS, l’AI et le régime des APG.&lt;/p&gt;&lt;p&gt;Le Conseil fédéral est prié de répondre aux questions suivantes :&lt;/p&gt;&lt;p&gt;1. Des critères politiques ont-ils été pris en compte lors de l’appel d’offres, en plus des critères techniques et des critères de prix ? Les fonds concernés sont après tout de l’argent public et ne constituent rien de moins que les réserves des trois plus grandes assurances sociales de Suisse.&lt;/p&gt;&lt;p&gt;2. A-t-on élaboré des scénarios permettant d’anticiper les turbulences juridiques et politiques qu’entraînerait une faillite de la banque américaine ? Ces risques sont-ils comparables à ceux qui existeraient si le mandat avait été confié à un administrateur suisse ?&lt;/p&gt;&lt;p&gt;3. De quelle manière les impératifs de prudence et de souveraineté nationale, qui voudraient que les actifs des institutions publiques suisses restent exclusivement en Suisse et soient soumis à la réglementation suisse, ont-ils été pris en compte lors de l’appel d’offres et de l’adjudication du mandat&amp;nbsp;?&lt;/p&gt;&lt;p&gt;4. De quelle manière la question de la protection des données a-t-elle été prise en compte&amp;nbsp;? Les autorités américaines pourront notamment savoir plus facilement comment l’argent suisse est investi. Or, les exigences en matière de protection des données ne sont pas les mêmes aux États-Unis qu’en Suisse.&lt;/p&gt;&lt;p&gt;5. Quelles mesures ont été prises pour éviter les conflits d’intérêts entre différents établissements bancaires suisses au sein des organes de décision lors de cette adjudication&amp;nbsp;?&lt;/p&gt;&lt;p&gt;6. Quels sont désormais nos liens de dépendance avec le marché américain et les autorités américaines, notamment dans l’hypothèse de nouvelles tensions géopolitiques et perturbations de l’économie mondiale&amp;nbsp;?&lt;/p&gt;&lt;p&gt;7. En Europe, quels fonds de compensation ou autres institutions comparables confient eux aussi des mandats de ce type à l’étranger&amp;nbsp;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Mehr als 25 Jahre lang hat die UBS den AHV-Ausgleichsfonds des Bundes verwaltet. Der Auftrag wurde neu an eine US-Bank vergeben. Es geht um mehr als 40 Milliarden Franken. Das sind unsere Reserven für die Altersvorsorge, Invalidenversicherung und Erwerbsersatzordnung (EO).&lt;/p&gt;&lt;p&gt;Der Bundesrat wird gebeten folgende Fragen zu beantworten:&lt;/p&gt;&lt;p&gt;1. Wurden neben technischen und preislichen Kriterien auch politische Kriterien bei der Ausschreibung beachtet? Immerhin geht es um öffentliche Gelder und die Reserven der drei grössten Sozialversicherungen der Schweiz.&lt;/p&gt;&lt;p&gt;2. Wurden Szenarien durchgespielt, was bei juristischen und politischen Verwerfungen bei einem Konkurs der amerikanischen Firma passieren würde? Wie stehen diese Risiken im Vergleich zu einem Szenario, wenn ein Schweizer Vermögensverwalter dieses Mandat bekommen hätte?&lt;/p&gt;&lt;p&gt;3. Wie wurde das grundlegende Erfordernisse der Vorsicht und nationalen Souveränität, dass die Vermögenswerte von schweizerischen öffentlichen Einrichtungen ausschliesslich in der Schweiz verbleiben und schweizerischen Vorschriften unterstehen, bei dieser Ausschreibung und Vergabe berücksichtigt?&lt;/p&gt;&lt;p&gt;4. Wie wurde der Bereich Datenschutz berücksichtigt? Für US-Behörden dürfte es nun beispielsweise einfacher sein, nachzuvollziehen wie dieses Schweizer Geld investiert wird. Der US-Datenschutz entspricht nicht dem Schweizerischen.&lt;/p&gt;&lt;p&gt;5. Mit welchen Massnahmen wurden bei dieser Vergabe Interessenkonflikte in den Entscheidungsgremien zwischen unterschiedlichen Schweizer Bankeninstituten vermieden?&lt;/p&gt;&lt;p&gt;6. Welche Abhängigkeiten bestehen nun in den amerikanischen Markt und zu den US-amerikanischen Behörden, insbesondere unter der Annahme weiterer geopolitischer Spannungen und Verwerfungen in der Weltwirtschaft?&lt;/p&gt;&lt;p&gt;7. Welche ähnlichen Ausgleichsfonds oder Institutionen in Europa vergeben solche Aufgaben ebenfalls ins Ausland?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amministrazione dei fondi previdenziali svizzeri</t>
+  </si>
+  <si>
     <t xml:space="preserve">24.4112</t>
   </si>
   <si>
@@ -1571,6 +1977,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244112</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;ol&gt;&lt;li&gt;Le Conseil fédéral est prié de dresser la liste des 40 allégements fiscaux qui entraînent le plus de pertes pour la caisse fédérale. Il précisera le montant de chacun de ces allégements pour les années 2016, 2018, 2020 et 2022. En outre, il indiquera la base légale en vigueur.&lt;/li&gt;&lt;li&gt;Lorsque ces allégements entraînent des pertes de recettes pour les cantons ou les communes, il fournira une estimation du montant de ces pertes.&amp;nbsp;&lt;/li&gt;&lt;li&gt;Pour chacun des allégements fiscaux visés, le Conseil fédéral répondra aux questions suivantes&amp;nbsp;:&lt;ol&gt;&lt;li&gt;Quels sont les effets escomptés de ces aides financières sous forme d'allégements fiscaux&amp;nbsp;?&lt;/li&gt;&lt;li&gt;La Confédération, le Contrôle fédéral des finances ou d'autres organes ont-ils mené des études sur les effets de ces aides et l'ampleur des effets d'aubaine ? Si oui, quels en sont les résultats&amp;nbsp;?&lt;/li&gt;&lt;li&gt;Le Conseil fédéral a-t-il déjà envisagé de remplacer ces subventions indirectes par des subventions directes, comme le prévoit l'art.&amp;nbsp;7, let.&amp;nbsp;g, de la loi sur les subventions&amp;nbsp;?&lt;/li&gt;&lt;/ol&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ol&gt;&lt;li&gt;Der Bundesrat wird gebeten, die 40 steuerlichen Vergünstigungen mit den höchsten resultierenden Ausfällen für die Bundeskasse aufzulisten. Bitte um Auflistung der Vergünstigungen samt ihrem jeweiligen finanziellem Umfang für die Jahre 2016, 2018, 2020, 2022 und Verweis auf die aktuell gültige Gesetzesgrundlage&lt;/li&gt;&lt;li&gt;Wo diese Vergünstigungen auch Einnahmeausfälle bei Kantonen und/oder Gemeinden zur Folge haben, soll der Umfang der Ausfälle für diese Ebenen geschätzt werden.&amp;nbsp;&lt;/li&gt;&lt;li&gt;Der Bundesrat wird gebeten, für obige steuerliche Vergünstigungen jeweils anzuführen:&lt;ol&gt;&lt;li&gt;welches sind die eigentlich angestrebten Wirkungen dieser Finanzhilfen in Form von steuerlichen Vergünstigungen?&lt;/li&gt;&lt;li&gt;wurden vom Bund, von der Finanzkontrolle oder auch von anderen Untersuchungen über die Wirkung und die Höhe von Mitnahmeeffekten durchgeführt? Wenn ja: mit welchem Resultat?&lt;/li&gt;&lt;li&gt;Hat der Bund je geprüft, diese indirekten Subventionen durch direkte Subventionen zu ersetzen, wie das im Subventionsgesetz Art. 7 lit. g als eigentlich als Grundsatz angelegt ist?&lt;/li&gt;&lt;/ol&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portata ed efficacia degli aiuti in forma di agevolazioni fiscali</t>
+  </si>
+  <si>
     <t xml:space="preserve">24.4131</t>
   </si>
   <si>
@@ -1586,6 +2001,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244131</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Depuis 1950, la quantité de produits chimiques sur le marché, dont on dénombre 350&amp;nbsp;000&amp;nbsp;sortes actuellement, s’est multipliée par 50. On estime qu’il risque de tripler d’ici 2050 par rapport au volume de 2010.&lt;/p&gt;&lt;p&gt;En 2022, un groupe de recherche a pour la première fois défini la limite planétaire en matière de pollution chimique. Il a démontré que la production de presque toutes les substances chimiques importantes consommait plus de ressources que la Terre ne peut offrir à long terme. Plus de 99&amp;nbsp;% des substances les plus produites sont fabriquées à partir de matières premières d’origine fossile et ne sont donc pas durables. Selon cette étude, la limite planétaire en matière de pollution chimique a déjà été franchie.&lt;/p&gt;&lt;p&gt;Je prie le Conseil fédéral de répondre aux questions suivantes&amp;nbsp;:&lt;/p&gt;&lt;p&gt;1.&amp;nbsp;Quels sont les critères qui indiquent que les limites planétaires en matière de produits chimiques ont été franchies&amp;nbsp;? Quelles mesures doivent être prises&amp;nbsp;?&lt;/p&gt;&lt;p&gt;2.&amp;nbsp;Quelles sont les alternatives aux produits chimiques fabriqués à partir de matières premières non renouvelables&amp;nbsp;?&lt;/p&gt;&lt;p&gt;3.&amp;nbsp;Quels scénarios sont envisagés par le Conseil fédéral pour la production de produits chimiques conventionnels et alternatifs&amp;nbsp;? Quels sont les objectifs concrets qu’il poursuit et que met-il en œuvre pour les atteindre&amp;nbsp;?&lt;/p&gt;&lt;p&gt;4.&amp;nbsp;L’OFEV a écrit&amp;nbsp;: «&amp;nbsp;L’industrie chimique et pharmaceutique suisse a plus que triplé ses exportations depuis 1995, pour atteindre environ 99&amp;nbsp;milliards de francs en 2017. Cette industrie est ainsi devenue le premier secteur d’exportation du pays. Dans ce domaine, la Suisse compte parmi les cinq plus grandes nations exportatrices.&amp;nbsp;» La fabrication de produits chimiques nuit démesurément à l’environnement. Comment la Suisse assume-t-elle sa responsabilité à cet égard&amp;nbsp;?&lt;/p&gt;&lt;p&gt;5.&amp;nbsp;Conformément aux obligations qui encadrent la mise sur le marché des produits chimiques, lesquels ne comprennent pas les biocides et les produits phytosanitaires, les fabricants et les importateurs doivent évaluer par eux-mêmes la dangerosité de leurs produits sur la santé humaine et l’environnement (page Web de l’OFEV). Pourquoi le Conseil fédéral se décharge-t-il de cette responsabilité&amp;nbsp;? Planifie-t-il une réglementation en la matière&amp;nbsp;?&lt;/p&gt;&lt;p&gt;6.&amp;nbsp;Qui paiera dans les cas où les polluants chimiques détériorent l’environnement et provoquent de la souffrance et des maladies&amp;nbsp;?&lt;/p&gt;&lt;p&gt;7.&amp;nbsp;Dans sa stratégie en matière de produits chimiques, la Confédération tient-elle compte du fait qu’il faille agir pour la protection des ressources naturelles&amp;nbsp;? Si tel est le cas, comment&amp;nbsp;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Mit 350’000 hat sich die Anzahl an Chemikalien auf dem Markt seit 1950 weltweit mehr als verfünzigfacht. Es wird davon ausgegangen, dass sie sich nochmals verdreifachen wird gegenüber 2010.&lt;/p&gt;&lt;p&gt;Forschende haben 2022 erstmals eine planetare Belastungsgrenze für Chemikalien definiert und zeigen auf, dass die Herstellung fast aller wichtigen Chemikalien mehr Ressourcen verbraucht, als die Erde langfristig zur Verfügung stellen kann. Über 99% der meistproduzierten Chemikalien basieren auf fossilen Rohstoffen und sind nicht nachhaltig. Die planetare Grenze der chemischen Verschmutzung sei bereits überschritten.&lt;/p&gt;&lt;p&gt;Ich bitte den Bundesrat um die Beantwortung folgender Fragen:&lt;/p&gt;&lt;p&gt;1.&amp;nbsp;Welche Kriterien weisen darauf hin, dass die planetaren Grenzen für Chemikalien überschritten sind? Welche Massnahmen sind dann erforderlich?&lt;/p&gt;&lt;p&gt;2.&amp;nbsp;Was sind Alternativen zum Einsatz von chemischen Stoffen, die auf endlichen, klimaschädlichen Rohstoffen basieren?&lt;/p&gt;&lt;p&gt;3.&amp;nbsp;Welche Zukunftsszenarien sieht er bezüglich Herstellung von konventionellen bzw. alternativen Chemikalien? Welche konkreten Ziele verfolgt er und wie setzt er diese um?&lt;/p&gt;&lt;p&gt;4.&amp;nbsp;Das BAFU schreibt: «Die chemische und pharmazeutische Industrie der Schweiz hat ihre Exporte im Jahr 2017 auf rund CHF 99 Mrd./Jahr gesteigert und damit seit 1995 mehr als verdreifacht. Sie ist damit die wichtigste Exportbranche der Schweiz. Und die Schweiz zählt in diesem Bereich zu den fünf grössten Exportnationen der Welt». Wie nimmt die Schweiz Ihre Verantwortung in Bezug auf die übermässige Belastung der Umwelt durch die Herstellung chemischer Stoffe wahr?&lt;/p&gt;&lt;p&gt;5.&amp;nbsp;Auf der Webseite des BAFU wird bezüglich Massnahmen erklärt, dass Chemikalien, ausgenommen Biozide und Pflanzenschutzmittel, die unter die Chemikaliengesetzgebung fallen, von den Herstellern und Importeuren in Eigenverantwortung hinsichtlich ihrer Gefährlichkeit für die menschliche Gesundheit und die Umwelt beurteilt werden müssen. Wieso gibt der Bundesrat diese Verantwortung ab? Ist eine Regulierung geplant?&lt;/p&gt;&lt;p&gt;6.&amp;nbsp;Wer bezahlt im Falle von Schäden, etwa bei Umweltverschmutzungen oder bei durch Chemikalien ausgelösten Leiden und Krankheiten?&lt;/p&gt;&lt;p&gt;7.&amp;nbsp;Wird dem Handlungsbedarf zum Schutz der natürlichen Ressourcen in der Chemikalienstrategie des Bundes Rechnung getragen? Wenn ja, wie?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limiti del pianeta relativi alle sostanze chimiche</t>
+  </si>
+  <si>
     <t xml:space="preserve">24.4132</t>
   </si>
   <si>
@@ -1601,6 +2025,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244132</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Le Conseil fédéral est chargé d’examiner l’opportunité de présenter un projet d’acte législatif à l’Assemblée fédérale ou de prendre une mesure visant à introduire, dans le système actuel de gestion des risques de la Confédération, un nouveau risque «&amp;nbsp;erreurs de la Confédération dans la gestion des substances problématiques&amp;nbsp;», et de présenter les résultats de cet examen dans un rapport.&amp;nbsp;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Der Bundesrat wird beauftragt, zu prüfen und Bericht zu erstatten, ob ein Entwurf zu einem Erlass der Bundesversammlung vorzulegen oder eine Massnahme zu treffen sei, um ein neues Risiko «Fehleranfälliger Umgang des Bundes mit problematischen Stoffen» im bestehenden Risikomanagement des Bundes einzuführen.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestione dei rischi da parte della Confederazione</t>
+  </si>
+  <si>
     <t xml:space="preserve">24.4133</t>
   </si>
   <si>
@@ -1616,6 +2049,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244133</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Le Conseil fédéral est chargé de veiller, au moyen d’une révision de la loi sur la protection de l’environnement (&lt;a href="https://www.fedlex.admin.ch/eli/cc/1984/1122_1122_1122/de"&gt;LPE&lt;/a&gt;), à ce que, lorsque des sites sont contaminés par des substances problématiques, les fabricants et les importateurs contribuent davantage aux frais de réparation des dommages.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Der Bundesrat wird beauftragt mit einer Revision des Umweltschutzgesetzes (&lt;a href="https://www.fedlex.admin.ch/eli/cc/1984/1122_1122_1122/de"&gt;USG&lt;/a&gt;) dafür zu sorgen, dass bei mit problematischen Stoffen kontaminierten Standorten die Herstellerinnen und Importeurinnen finanziell stärker an der Behebung von Schäden beteiligt werden.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafforzare il principio di causalità dal punto di vista giuridico</t>
+  </si>
+  <si>
     <t xml:space="preserve">24.4137</t>
   </si>
   <si>
@@ -1634,6 +2076,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244137</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Les questions suivantes se posent&amp;nbsp;:&amp;nbsp;&lt;/p&gt;&lt;ol&gt;&lt;li&gt;Un nombre croissant de cantons analysent les PFAS, et l’institut Eawag effectue lui aussi des mesures. La Confédération peut-elle veiller à ce que des mesures soient faites dans toutes les régions de Suisse, que ces mesures soient effectuées de façon comparable et qu’elles soient publiées de manière transparente&amp;nbsp;? Quand une vue d’ensemble sera-t-elle disponible&amp;nbsp;?&amp;nbsp;&lt;/li&gt;&lt;li&gt;La Confédération a institué une «&amp;nbsp;task force&amp;nbsp;» en vue d’une meilleure gestion des PFAS. De qui ce groupe se compose-t-il et quels sont les progrès réalisés&amp;nbsp;?&amp;nbsp;&lt;/li&gt;&lt;li&gt;Quels rapports la Confédération prévoit-elle d’effectuer elle-même sur la pollution par des PFAS en Suisse&amp;nbsp;? Dans quels domaines la responsabilité d’informer le public incombe-t-elle aux cantons&amp;nbsp;?&amp;nbsp;&lt;/li&gt;&lt;li&gt;Quand l’UE va-t-elle introduire de nouvelles réglementations concernant l’homologation des PFAS et dans quel délai la Suisse les reprendra-t-elle&amp;nbsp;?&lt;/li&gt;&lt;li&gt;Le Contrôle fédéral des finances a tancé la Confédération pour sa gestion des sites contaminés. Quelles conclusions le Conseil fédéral en tire-t-il&amp;nbsp;? Prend-il ces critiques au sérieux&amp;nbsp;?&lt;/li&gt;&lt;li&gt;Quelles conséquences les nouvelles connaissances sur la pollution par des PFAS ont-elles pour le fonds OTAS pour les sites contaminés&amp;nbsp;? Faut-il de nouvelles ressources financières pour l’assainissement des sites contaminés&amp;nbsp;?&amp;nbsp;&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Es stellen sich folgende Fragen:&amp;nbsp;&lt;/p&gt;&lt;ol&gt;&lt;li&gt;Immer mehr Kantone führen PFAS-Analysen durch. Gleichzeitig führt auch das EAWAG Messungen durch. Kann der Bund sicherstellen, dass in allen Regionen der Schweiz die entsprechenden Messungen gemacht werden, konsistent sind und transparent veröffentlicht werden? Bis wann liegen entsprechende Übersichten vor?&amp;nbsp;&lt;/li&gt;&lt;li&gt;Der Bund hat eine Task-Force zum besseren Umgang geschaffen. Wie sieht die Zusammensetzung dieser Gruppe aus und welche Fortschritte konnte sie schon erzielen?&amp;nbsp;&lt;/li&gt;&lt;li&gt;Welche eigenen Berichte zu den PFAS-Belastungen in der Schweiz plant der Bund. In welchem Bereich liegt die Informationshoheit bei den Kantonen?&amp;nbsp;&lt;/li&gt;&lt;li&gt;Wann wird die EU im Bereich der Zulassungen von PFAS neue Regulierungen einführen und wie schnell wird die Schweiz diese übernehmen?&lt;/li&gt;&lt;li&gt;Die eidgenössische Finanzkontrolle hat den Umgang des Bundes mit Altlasten gerügt, welche Schlüsse zieht der Bundesrat daraus? Nimmt der Bundesrat die Kritik ernst?&lt;/li&gt;&lt;li&gt;Welche Auswirkung haben die neuen Erkenntnisse über die PFAS-Belastung auf den VASA-Altlasten-Fonds? Braucht es neue Finanzmittel im Bereich der Altlastensanierung?&amp;nbsp;&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PFAS. La Confederazione sta agendo?</t>
+  </si>
+  <si>
     <t xml:space="preserve">24.3948</t>
   </si>
   <si>
@@ -1655,6 +2106,42 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243948</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;La première stratégie du Conseil fédéral contre la corruption a été édictée en 2020. Elle expire le 1er janvier 2025 et devra être renouvelée. L’objectif doit être de prévenir et de combattre la corruption au moyen de mesures appropriées. Cette tâche permanente et transversale nécessite une approche systématique s’étendant à toute l’action du gouvernement et de l’administration. Au niveau international, les principales mesures suivantes se sont établies&amp;nbsp;:&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;analyse des risques&amp;nbsp;;&lt;/li&gt;&lt;li&gt;mesures adaptées aux risques&amp;nbsp;;&lt;/li&gt;&lt;li&gt;ancrage organisationnel (mise en place de processus et définition des responsabilités)&amp;nbsp;;&lt;/li&gt;&lt;li&gt;contrôle et procédure en cas de soupçons (vérification systématique et périodique du respect des mesures)&amp;nbsp;;&lt;/li&gt;&lt;li&gt;formation et information (sensibilisation et formation régulières sur la prévention et le combat de la corruption).&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Si les directives sur la politique de gestion des risques de la Confédération et leur mise en œuvre cadrent fondamentalement avec les mesures précitées, la stratégie anticorruption du Conseil fédéral en vigueur ne suit toutefois pas cette approche systématique. Son renouvellement est l’occasion de traiter le risque de corruption en Suisse à un niveau stratégique pluriannuel et de manière plus systématique qu’aujourd’hui.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Dans ce contexte, je prie le Conseil fédéral de répondre aux questions suivantes&amp;nbsp;:&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;ol style="list-style-type:decimal;"&gt;&lt;li&gt;Quelles sont les unités administratives (conférence des secrétaires généraux, service de coordination Gestion des risques à l’Administration fédérale des finances, départements, offices fédéraux) qui appliquent systématiquement aux risques de corruption les directives sur la politique de gestion des risques menée par la Confédération&amp;nbsp;?&lt;/li&gt;&lt;li&gt;Le Conseil fédéral convient-il que lutter contre la corruption et la prévenir de manière efficace exigent une approche systématique et que les directives précitées doivent être appliquées systématiquement aux risques de corruption&amp;nbsp;?&lt;/li&gt;&lt;li&gt;Estime-t-il que sa stratégie anticorruption, qui doit être renouvelée, est l’instrument approprié, au sens d’un dispositif global systématique, pour prévenir et combattre la corruption dans les prochaines années&amp;nbsp;? A-t-il l’intention de suivre cette approche systématique&amp;nbsp;?&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Der Bundesrat erliess im Jahr 2020 erstmals eine Anti-Korruptionsstrategie. Diese läuft am 1. Januar 2025 aus und wird erneuert werden müssen. Ziel muss sein, die Korruption so gut wie möglich zu verhindern. Dafür müssen beim Bundesrat und der Bundesverwaltung geeignete Massnahmen zur Prävention und Bekämpfung von Korruption getroffen werden. Es handelt sich um eine Dauer- und um eine Querschnittsaufgabe, die eine systematische Herangehensweise erfordert, welche sich auf das gesamte Regierungs- und Verwaltungshandeln erstreckt. International haben sich folgende Hauptmassnahmen etabliert:&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Risikoanalyse&lt;/li&gt;&lt;li&gt;Risikogerechte Massnahmen&lt;/li&gt;&lt;li&gt;organisatorische Verankerung (Einrichtung von Prozessen und die Bezeichnung von Zuständigkeiten)&lt;/li&gt;&lt;li&gt;Kontrolle und Vorgehen bei Verdachtsfällen (systematische und periodische Überprüfung von Einhaltung der Massnahmen)&lt;/li&gt;&lt;li&gt;Schulung und Information (Regelmässige Sensibilisierung und Schulung über Korruptionsprävention und -bekämpfung)&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Die Weisungen über die Risikopolitik des Bundes und deren Umsetzung stimmen mit den oben skizzierten Massnahmen zur Korruptionsprävention und -bekämpfung grundsätzlich überein. Die noch geltende Anti-Korruptionsstrategie des Bundesrates verfolgt diesen systematischen Ansatz allerdings nicht. Die Erneuerung stellt eine Chance dar, dem Korruptionsrisiko in der Schweiz auf mehrjähriger strategischer Ebene und auf eine systematischere Art zu begegnen, als es heute der Fall ist.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Ich bitte den Bundesrat deshalb um die Beantwortung folgender Fragen:&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;ol style="list-style-type:decimal;"&gt;&lt;li&gt;Von welchen Verwaltungseinheiten (Generalsekretärinnenkonferenz, Koordinationsstelle Risikomanagement in der EFV, einzelne Departemente, einzelne Bundesämter) werden die Vorgaben über die Risikopolitik und das Risikomanagement des Bundes systematisch auch auf Korruptionsrisiken angewendet?&lt;/li&gt;&lt;li&gt;Teilt der Bundesrat die Einschätzung, dass eine effektive Korruptionsprävention und -bekämpfung eine systematische Herangehensweise verlangt und Vorgaben aus den Weisungen über die Risikopolitik des Bundes systematisch auch auf Korruptionsrisiken anzuwenden sind?&lt;/li&gt;&lt;li&gt;Teilt der Bundesrat die Einschätzung, dass die zu erneuernde Anti-Korruptionsstrategie des Bundesrates das geeignete Instrument ist, um innerhalb der nächsten Jahre ein systematisches Gesamtdispositiv zur Korruptionsprävention und -bekämpfung zu erreichen? Hat der Bundesrat vor, diesen systematischen Ansatz zu verfolgen?&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rinnovo della Strategia del Consiglio federale contro la corruzione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fässler Daniel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wegweisungsverfügungen sind rascher und konsequenter zu vollziehen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les décisions de renvoi doivent être exécutées plus rapidement et plus systématiquement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Le Conseil fédéral est chargé de prendre des mesures pour garantir que les décisions de renvoi du SEM soient exécutées par les cantons dans les délais fixés par la loi.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Der Bundesrat wird beauftragt, die nötigen Massnahmen zu ergreifen, um sicherzustellen, dass die Wegweisungsverfügungen des SEM durch die Kantone innert der gesetzlich vorgegebenen Ausreisefristen vollzogen werden.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esecuzione più rapida e sistematica delle decisioni di allontanamento</t>
+  </si>
+  <si>
     <t xml:space="preserve">24.7720</t>
   </si>
   <si>
@@ -1673,6 +2160,12 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247720</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;La Commission des finances du Conseil national, dans son co-rapport du 4 octobre 2021 concernant la modernisation de la surveillance dans l'AVS (19.080), a proposé de regrouper la Centrale de compensation et compenswiss et de transférer cette nouvelle structure dans un établissement fédéral d’assurances sociales. La commission s’est inspirée du rapport de révision du 10 mai 2021 du Contrôle fédéral des finances.&lt;br&gt;Le Conseil fédéral, travaille-t-il sur la mise en oeuvre de cette proposition?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Die Finanzkommission des Nationalrates hat in ihrem Mitbericht vom 4. Oktober 2021 zur Modernisierung der Aufsicht in der 1. Säule (19.080) beantragt, die Zentrale Ausgleichsstelle und die Compenswiss zusammenzulegen und diese neue Struktur in eine Sozialversicherungsanstalt des Bundes zu übertragen. Die Kommission hat sich dabei vom Nachprüfbericht der Eidgenössischen Finanzkontrolle vom 10. Mai 2021 inspirieren lassen.&lt;br&gt;Arbeitet der Bundesrat an der Umsetzung dieses Antrags?&lt;/p&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">24.7726</t>
   </si>
   <si>
@@ -1688,6 +2181,12 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247726</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Dans le cadre de l'exécution des CCT déclarées de force obligatoire, les remboursements sont transférés aux syndicats par le biais de programmes de rabais.&lt;br&gt;Les fonds sont collectés de manière obligatoire auprès des travailleurs et des employeurs d'une branche, l'objectif étant qu'ils soient utilisés pour la protection des salaires ainsi que pour la formation et la formation continue.&lt;br&gt;Peut-on tolérer que l'argent destiné à la protection des salaires et à la formation continue soit reversés aux membres des syndicats par le biais de fonds paritaires&amp;nbsp;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Im Vollzug von allg. verbindlich erklärten GAV werden Rückerstattungen über Rabattierungsprogramme an die Gewerkschaften transferiert.&lt;br&gt;Die Gelder werden von Arbeitnehmern und Arbeitgebern einer Branche verbindlich eingezogen mit der Zweckbestimmung, dass diese für den Lohnschutz sowie für die Aus- und Weiterbildung eingesetzt werden.&lt;br&gt;Ist es zulässig, dass Gelder für den Lohnschutz und die Weiterbildung aus den paritätischen Fonds an die Mitglieder der Gewerkschaften zurückfliessen?&lt;/p&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">24.7773</t>
   </si>
   <si>
@@ -1703,6 +2202,12 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247773</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;L’évaluation du 6&amp;nbsp;mars 2024 sur contributions aux améliorations structurelles contient une analyse de mesures et une série de recommandations. En juin 2022, le CDF avait déjà fait des recommandations dans son rapport d’audit sur les subventions en faveur des améliorations structurelles.&lt;br&gt;- Où en est la Confédération dans la mise en œuvre des mesures proposées par le CDF en 2022 ?&lt;br&gt;- Quelles sont les recommandations qui se recoupent et quelles sont celles qui complètent celles qui figurent dans l’évaluation ?&lt;br&gt;- Quand la Confédération compte-t-elle mettre en œuvre des recommandations ?&lt;br&gt;- Quelles sont les recommandations du CDF qu’elle ne va pas mettre en oeuvre et pourquoi ?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;In der Evaluation zu den Strukturverbesserungsbeiträgen vom 6.3.24 werden Massnahmen analysiert und Handlungsempfehlungen aufgezeigt. Bereits im Juni 2022 wurden im Prüfbericht der EFK zu den Strukturverbesserungssubventionen Empfehlungen abgegeben.&lt;br&gt;- Wo steht der Bund bei der Umsetzung der EFK-Massnahmen von 2022?&lt;br&gt;- Welche Empfehlungen überschneiden und welche ergänzen jene der Evaluation?&lt;br&gt;- Bis wann will er Empfehlungen umsetzen?&lt;br&gt;- Welche Empfehlungen der EFK setzt er nicht um und weshalb?&lt;/p&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">24.7774</t>
   </si>
   <si>
@@ -1718,6 +2223,12 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247774</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Dans son évaluation datée du 6&amp;nbsp;mars 2024, l’OFAG a examiné les effets des contributions aux améliorations structurelles sur la biodiversité.&lt;br&gt;Il ressort cependant de l’annexe qu’aucun spécialiste de la biodiversité n’a été interrogé dans le cadre de cette analyse.&lt;br&gt;- Est-ce exact ? Si oui, pourquoi ? Si non, quel a été le rôle du ou des spécialistes interrogés ?&lt;br&gt;- Pourquoi l’OFAG a-t-il rédigé un nouveau rapport sur les améliorations structurelles dommageables, alors que le CDF avait déjà enquêté sur ce sujet en 2022 ?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;In der Evaluation des BLW zu den Strukturverbesserungsbeiträgen vom 6.3.24 wurden Auswirkungen auf die Biodiversität untersucht.&lt;br&gt;Gemäss Anhang wurden für diese Analyse jedoch keine Biodiversitätsexpert:innen befragt.&lt;br&gt;- Ist dies korrekt? Wenn ja, warum? Wenn nein, was war ihre Rolle?&lt;br&gt;- Warum erstellte das BLW nochmals einen Bericht zu den schädigenden Strukturverbesserungen, obwohl die EFK dies bereits 2022 untersuchte?&lt;/p&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">24.3858</t>
   </si>
   <si>
@@ -1739,6 +2250,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243858</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;AVS, erreur de calculs ou scandale d’Etat&amp;nbsp;?&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;L’erreur de calculs de l’OFAS concernant l’AVS met à mal la crédibilité de la population envers nos institutions, l’administration, mais surtout envers le monde politique.&lt;/p&gt;&lt;p&gt;Malgré la mise en place d’une enquête administrative qui devra faire la lumière sur les raisons techniques de cette erreur, reste à faire la lumière sur les responsabilités politiques de cette erreur qui entache nos institutions et qui auront des répercussions sur les prochaines votations, mais également dans la confiance de la population envers le Conseil fédéral et le parlement.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;De plus, il est regrettable que le CF informe les médias avant les commissions de surveillances du parlement.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Questions&amp;nbsp;:&amp;nbsp;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Pourquoi le CF ainsi que l’OFAS ont attendu plus de deux mois pour informer de cette erreur majeure&amp;nbsp;?&lt;/li&gt;&lt;li&gt;Et pourquoi le CF a informé les médias avant d’informer les commissions de surveillances comme la CdF, CdG, et la CSSS&amp;nbsp;?&lt;/li&gt;&lt;li&gt;A quel date l’OFAS a informé le CF, respectivement Madame la CF Baume-Schneider de cette erreur&amp;nbsp;?&lt;/li&gt;&lt;li&gt;A quel date le directeur de l’OFAS a-t-il été informé de cette erreur de calcul&amp;nbsp;?&lt;/li&gt;&lt;li&gt;Combien coûte par année et combien de collaborateurs de l'administration sont affectés au calculs et statistiques pour la prévoyance vieillesse et quel est le coût de cette analyse qui s’est avéré faux ?&lt;/li&gt;&lt;li&gt;L'administration a-t-elle les capacités et les compétences pour faire ces calculs cruciaux ou devrait-elle faire appel à des organes externes, sachant que lorsque l’on mandate des organes ou entreprises externes, lors d’erreurs ont est en droit de demander des explications et de ne pas payer la facture ?&lt;/li&gt;&lt;li&gt;Si l’erreur de calcul est apparue sous la responsabilité de la CF Baume-Schneider, quelle responsabilité porte l’ancien CF Berset&amp;nbsp;en charge lors de l’erreur ?&lt;/li&gt;&lt;li&gt;L’erreur de calcul a-t-elle été communiquée que tardivement afin de préserver la candidature de l’ancien CF Berset au Conseil de l’Europe&amp;nbsp;?&lt;/li&gt;&lt;li&gt;Quelles mesures le CF entend-il prendre pour redonner confiance à la population envers nos institutions et principalement dans l'OFAS ? Dans ce but envisage-t-il le départ de ou des personnes qui ont la responsabilité de cet office ?&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;AHV: Rechenfehler oder Staatsskandal?&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Der Rechenfehler des BSV in Zusammenhang mit der AHV schadet dem Vertrauen der Bevölkerung in unsere Institutionen, in die Verwaltung und vor allem in die Politik.&lt;/p&gt;&lt;p&gt;Es wird zwar eine Administrativuntersuchung durchgeführt, die die technischen Gründe für diesen Fehler aufklären soll, aber auch die politische Verantwortung für diesen Fehler muss geklärt werden, da er dem Ruf unserer Institutionen schadet und sich auf zukünftige Abstimmungen sowie auf das Vertrauen der Bevölkerung in den Bundesrat und das Parlament auswirkt.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Ausserdem ist es bedauerlich, dass der Bundesrat zuerst die Medien und erst dann die Aufsichtskommissionen des Parlaments informiert hat.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Fragen:&amp;nbsp;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Warum haben der Bundesrat und das BSV mehr als zwei Monate gewartet, um über diesen schwerwiegenden Fehler zu informieren?&lt;/li&gt;&lt;li&gt;Und warum hat der Bundesrat zuerst die Medien informiert und erst dann die Aufsichtskommissionen wie die FK, die GPK und die SGK?&lt;/li&gt;&lt;li&gt;An welchem Datum hat das BSV den Bundesrat bzw. Bundesrätin Baume-Schneider über den Fehler informiert?&lt;/li&gt;&lt;li&gt;An welchem Datum wurde der Direktor des BSV über den Fehler informiert?&lt;/li&gt;&lt;li&gt;Wie hoch sind die jährlichen Kosten für die Berechnungen und Statistiken im Bereich der Altersvorsorge und wie viele Mitarbeitende der Bundesverwaltung sind daran beteiligt? Wie hoch waren die Kosten für die Analyse, die sich als falsch erwiesen hat?&lt;/li&gt;&lt;li&gt;Hat die Bundesverwaltung die Kapazitäten und die Kompetenzen, um solche wichtigen Berechnungen durchzuführen, oder müsste sie externe Stellen oder Unternehmen beauftragen? Denn wenn diese Fehler machen, kann sie eine Erklärung verlangen und müsste die Kosten nicht übernehmen.&lt;/li&gt;&lt;li&gt;Der Rechenfehler ist zwar ans Licht gekommen, als bereits Bundesrätin Baume-Schneider das EDI leitete, aber welche Verantwortung trägt der ehemalige Bundesrat Berset, der Zum Zeitpunkt, zu dem der Fehler gemacht wurden, Vorsteher des EDI war?&lt;/li&gt;&lt;li&gt;Wurde der Rechenfehler erst spät publik gemacht, um die Kandidatur des ehemaligen Bundesrats Berset als Generalsekretär des Europarats nicht zu gefährden?&lt;/li&gt;&lt;li&gt;Was gedenkt der Bundesrat zu unternehmen, um das Vertrauen der Bevölkerung in unsere Institutionen und vor allem in das BSV wieder herzustellen? Erwägt er in diesem Zusammenhang, die im Amt für den Fehler verantwortlichen Personen zu entlassen?&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVS. Errore di calcolo o scandalo di Stato?</t>
+  </si>
+  <si>
     <t xml:space="preserve">24.3877</t>
   </si>
   <si>
@@ -1757,6 +2277,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243877</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Les fonds de compensation AVS/AI/APG sont responsables de la gestion des fonds et de la fortune de ces trois assurances. L’autorité compétente Compenswiss a retiré à l’UBS le mandat de gérer ces titres (qui représentent un montant d’un peu plus de 40&amp;nbsp;milliards de francs) et l’a confié à l’institution américaine State Street.&lt;/p&gt;&lt;p&gt;Dans ce contexte, je prie le Conseil fédéral de répondre aux questions suivantes&amp;nbsp;:&lt;/p&gt;&lt;p&gt;1. Estime-t-il qu’il est approprié que l’UBS ait perdu son mandat de dépositaire global («&amp;nbsp;global custodian&amp;nbsp;») des avoirs des assurances sociales suisses que sont l’AVS, l’AI et l’APG et que ces avoirs aient été transférés à l’institution américaine State Street&amp;nbsp;?&lt;/p&gt;&lt;p&gt;Dans l’affirmative, pourquoi&amp;nbsp;?&lt;/p&gt;&lt;p&gt;2. Les titres des fonds de compensation AVS/AI/APG seront-ils désormais tous déposés auprès de l’institution américaine State&amp;nbsp;Street (comme dépositaire global)&amp;nbsp;?&lt;/p&gt;&lt;p&gt;3. Pourquoi la Confédération a-t-elle retiré à l’UBS son mandat de dépositaire global, alors qu’elle avait été enchantée de l’acquisition du CS par l’UBS en mars 2023 après le naufrage de ce dernier&amp;nbsp;?&lt;/p&gt;&lt;p&gt;4. Ne serait-il pas plus judicieux, pour garantir la sécurité des avoirs de la population (premier pilier) auprès des assurances sociales suisses que sont l’AVS, l’AI et l’APG, de désigner une banque suisse comme dépositaire global pour leur gestion&amp;nbsp;?&lt;/p&gt;&lt;p&gt;5. En quoi la qualité des prestations de l’institution américaine State Street en tant que dépositaire global est-elle meilleure que celle des prestations de l’UBS&amp;nbsp;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Die Ausgleichsfonds AHV/IV/EO sind für die Geld- und Vermögensverwaltung dieser drei Versicherungen zuständig. Die zuständige Behörde Compenswiss hat die UBS von der entsprechenden Wertschriftenverwaltung über gut 40 Milliarden Franken entbunden und sie an die US-amerikanische State Street übertragen.&lt;/p&gt;&lt;p&gt;In diesem Zusammenhang ersuche ich den Bundesrat um Beantwortung folgender Fragen:&lt;/p&gt;&lt;p&gt;1. Erachtet es der Bundesrat als zweckmässig, dass die UBS ihr Mandat als Global Custodian der schweizerischen Sozialwerke AHV, IV und EO verloren hat und dieses an die US-amerikanische State Street übertragen wurde?&lt;/p&gt;&lt;p&gt;Wenn ja, warum?&lt;/p&gt;&lt;p&gt;2. Werden künftig sämtliche Wertschriften der Ausgleichsfonds AHV/IV/EO bei der US-amerikanischen State&amp;nbsp;Street als Global Custodian hinterlegt?&lt;/p&gt;&lt;p&gt;3. Warum hat der Bund die Rolle des Global Custodian der UBS entzogen, nachdem derselbe Bund überaus froh war, dass die UBS im März 2023 die untergegangene CS übernommen hat?&lt;/p&gt;&lt;p&gt;4 Wäre es aus Gründen der Sicherheit unseres Volksvermögens (1. Säule) für die Schweizer Sozialwerke AHV, IV und EO nicht sinnvoller, deren Verwaltung als Global Custodian bei einer Schweizer Bank anzusiedeln?&lt;/p&gt;&lt;p&gt;5. Inwiefern unterscheidet sich die Qualität der Dienstleistung des US-amerikanischen State Street als Global Custodian positiv von jener der UBS?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trasferimento della gestione dei titoli dalla Svizzera (UBS) all'estero (State Street) per i fondi di compensazione AVS/AI/IPG</t>
+  </si>
+  <si>
     <t xml:space="preserve">24.7622</t>
   </si>
   <si>
@@ -1775,6 +2304,12 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247622</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Le Conseil national a approuvé en février 2024 le postulat &lt;a href="https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20234349"&gt;23.4349 de la Commission des finances&lt;/a&gt; concernant l'examen externe des ressources de Fedpol.&lt;br&gt;Qui le Conseil fédéral a-t-il mandaté pour l'examen externe et quand le Conseil national peut-il s'attendre à recevoir le rapport en question ?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Der Nationalrat hat das &lt;a href="https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20234349"&gt;Postulat der Finanzkommission 23.4349&lt;/a&gt; betreffend externer Ressourcenüberprüfung beim Fedpol im Februar 2024 gutgeheissen.&lt;br&gt;Wen hat das Bundesrat mit der externen Prüfung beauftragt und bis wann kann der Nationalrat mit dem Bericht rechnen?&lt;/p&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">24.7649</t>
   </si>
   <si>
@@ -1793,6 +2328,12 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247649</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Lorsqu’une convention collective de travail (CCT) est déclarée de force obligatoire, tous les travailleurs et tous les employeurs versent des contributions destinées à assurer l’exécution de la CCT et à financer des cours de formation et de formation continue. Or, des programmes de rabais sur les cotisations de leurs membres permettent aux syndicats de toucher des millions de francs grâce à la rétrocession de ces contributions.&lt;br&gt;Qu’est-ce qui empêche le SECO d’exiger que les éventuels problèmes de paiements à double soient réglés par la facturation des cotisations syndicales au lieu d’accepter des transferts d’argent passant par des fonds de force obligatoire générale&amp;nbsp;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Im Vollzug von allgemein verbindlich erklärten GAV werden Rückerstattungen in Millionenhöhe über Rabattierungsprogramme an die Gewerkschaften transferiert. Die Gelder werden von allen AN und AG eingezogen und sollen für den Vollzug sowie die Aus- und Weiterbildung eingesetzt werden.&lt;br&gt;Was hindert das Seco daran, die Koordination solcher allfälliger Doppelbelastungen über die Rechnung der Mitgliederbeitrage zu verlangen, anstatt hier Geldflüsse über allgemein verbindliche Fonds zu akzeptieren?&lt;/p&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">24.3709</t>
   </si>
   <si>
@@ -1814,6 +2355,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243709</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Le Contrôle fédéral des finances (CDF) a rédigé un rapport de synthèse de 36 rapports d’audit concernant les subventions fédérales (2018-2021) et a relevé un potentiel d’optimisation. La plupart des dépenses fédérales sont des subventions (48,5&amp;nbsp;milliards de francs, soit quelque 60&amp;nbsp;%). Selon le CDF, des améliorations dans les domaines de la conception, de la mise en œuvre et de l’impact des subventions pourraient rendre leur octroi plus efficace, augmenter leur efficience et ainsi alléger le budget fédéral.&amp;nbsp;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Pour ce qui est de la conception des subventions, le CDF recommande à l’Administration fédérale des finances (AFD) «&amp;nbsp;d’adapter le guide d’élaboration des rapports sur les subventions dans les messages, afin d’accorder plus d’importance à la prévention des effets d’aubaine, et de s’assurer que les bénéficiaires fournissent une prestation propre correspondant à leur capacité économique&amp;nbsp;». Les offices chargés d’allouer les subventions devraient en outre renforcer l’orientation vers les résultats.&amp;nbsp;&lt;/p&gt;&lt;p&gt;Pour ce qui est de la mise en œuvre, le CDF a observé à plusieurs reprises que les tâches subventionnées n’étaient pas assez clairement dissociées des tâches non subventionnées, ce qui a conduit à la prise en charge d’un trop grand nombre de prestations par la Confédération ou à la violation du principe de subsidiarité. Des améliorations sont également nécessaires en ce qui concerne la surveillance exercée par les offices allouant les subventions et le pilotage des projets et programmes subventionnés.&amp;nbsp;&lt;/p&gt;&lt;p&gt;S’agissant de l’impact des subventions, le CDF voit un potentiel d’amélioration dans le contrôle de l’efficacité. «&amp;nbsp;Pour ce faire, l’office allouant la subvention doit clairement comprendre l’impact de la subvention dès sa conception et prévoir des chiffres clés pour vérifier si les objectifs ont été atteints.&amp;nbsp;»&amp;nbsp;&lt;/p&gt;&lt;p&gt;L’administration des finances écrit quant à elle qu’elle prendra en compte la recommandation et mettra en œuvre les mesures nécessaires dans les meilleurs délais.&amp;nbsp;&lt;/p&gt;&lt;p&gt;Je prie le Conseil fédéral de répondre aux questions suivantes&amp;nbsp;:&amp;nbsp;&lt;/p&gt;&lt;ol&gt;&lt;li&gt;Quelles conclusions tire-t-il du rapport du CDF concernant la conception, la mise en œuvre et l’impact des subventions&amp;nbsp;?&amp;nbsp;&lt;/li&gt;&lt;li&gt;Quelles conclusions en tire-t-il concernant les subventions ayant un effet néfaste sur la biodiversité ou le climat&amp;nbsp;?&amp;nbsp;&lt;/li&gt;&lt;li&gt;Quelles propositions du CDF doivent être mises en œuvre rapidement&amp;nbsp;? Pour quand&amp;nbsp;? Quand un examen sera-t-il fait&amp;nbsp;?&amp;nbsp;&lt;/li&gt;&lt;li&gt;Le groupe d’experts mandaté pour un audit des tâches et des subventions a-t-il connaissance de cette analyse et échange-t-il avec le CDF&amp;nbsp;? Si non, pourquoi&amp;nbsp;?&amp;nbsp;&lt;/li&gt;&lt;li&gt;Comment le Conseil fédéral va-t-il procéder pour mettre en œuvre les propositions du groupe d’experts&amp;nbsp;?&amp;nbsp;&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Die Eidgenössische Finanzverwaltung EFK hat für 36 Prüfberichte mit Bezug auf Bundessubventionen (2018 –2021) einen Synthesebericht erstellt und Optimierungspotenzial festgestellt. Mit CHF 48.5 Milliarden, also rund 60%, sind die meisten Bundesausgaben Subventionen. Laut EFK könnten Verbesserungen in den Bereichen Konzeption, Umsetzung und Wirkung von Subventionen die Ausrichtung von Subventionen effizienter gestalten, ihre Wirksamkeit erhöhen und somit den Bundeshaushalt entlasten.&amp;nbsp;&amp;nbsp;&lt;/p&gt;&lt;p&gt;In Bezug auf die Konzeption empfiehlt die EFK, dass die Eidgenössische Finanzverwaltung den Leitfaden zur Subventionsberichterstattung in Botschaften so anpasst, dass “mehr Wert auf die Vermeidung von Mitnahmeeffekten gelegt wird und die Eigenleistungen der Empfänger gemäss ihrer wirtschaftlichen Leistungsfähigkeit sichergestellt werden.» Zudem sollen die Subventionsämter die Ergebnisorientierung verstärken.&amp;nbsp;&lt;/p&gt;&lt;p&gt;Bezüglich Umsetzung&amp;nbsp;beobachtete die EFK mehrmals, dass subventionierte Aufgaben zu wenig klar von anderen, nicht subventionierten Aufgaben abgegrenzt waren und somit zu viele Leistungen über den Bund abgerechnet wurden bzw. das Subsidiaritätsprinzip verletzt wurde. Auch bei der Aufsicht der Subventionsämter sowie der Steuerung von subventionierten Projekten und Programmen gibt es Verbesserungsbedarf.&amp;nbsp;&lt;/p&gt;&lt;p&gt;Bei der Wirkung von Subventionen sieht die EFK ein Verbesserungspotenzial&amp;nbsp;bei der Erfolgskontrolle. «Dafür muss aber ein Subventionsamt bereits bei der Konzipierung der Subvention ein klares Verständnis ihrer Wirkungsweise gewinnen und Kennzahlen zur Überprüfung der Zielerreichung vorsehen.»&amp;nbsp;&lt;/p&gt;&lt;p&gt;Die Finanzverwaltung schreibt im Bericht, sie nehme die Empfehlung entgegen und werde die notwendigen Massnahmen zeitnah umsetzen.&amp;nbsp;&lt;/p&gt;&lt;p&gt;Ich bitte den Bundesrat, folgende Fragen zu beantworten:&amp;nbsp;&lt;/p&gt;&lt;ol&gt;&lt;li&gt;Welchen Schluss zieht er aus dem Bericht der EFK, bezüglich der Konzeption, Umsetzung und Wirkung von Subventionen?&amp;nbsp;&lt;/li&gt;&lt;li&gt;Welchen Schluss zieht er&amp;nbsp;in Bezug auf Subventionen mit biodiversitätsschädigender resp. klimaschädlicher Wirkung?&amp;nbsp;&lt;/li&gt;&lt;li&gt;Welche Vorschläge der EFK sollen zeitnah umgesetzt werden? Bis wann und wann wird das überprüft?&amp;nbsp;&lt;/li&gt;&lt;li&gt;Hat die mit einer Aufgaben- und Subventionsüberprüfung mandatierte Expertengruppe Kenntnis von dieser Analyse und steht sie im Austausch mit der EFK? Wenn nein, warum?&amp;nbsp;&lt;/li&gt;&lt;li&gt;Wie wird der Bundesrat bezüglich der Umsetzung der Vorschläge der Expertengruppe vorgehen?&amp;nbsp;&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quali conclusioni trae il Consiglio federale dal rapporto di sintesi del Controllo federale delle finanze sulle precedenti verifiche dei sussidi?</t>
+  </si>
+  <si>
     <t xml:space="preserve">24.3773</t>
   </si>
   <si>
@@ -1832,6 +2382,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243773</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Le rapport du Conseil fédéral sur les revenus des familles paysannes (https://www.newsd.admin.ch/newsd/message/attachments/86422.pdf), publié le 1er&amp;nbsp;mars 2024, montre que le revenu du travail dans l'agriculture est très bas dans de nombreuses exploitations (en moyenne 16,30&amp;nbsp;francs par heure). Les exploitations agricoles suisses sont par ailleurs les plus endettées d'Europe (par hectare de SAU). La Confédération soutient depuis longtemps les améliorations structurelles dans l’agriculture au moyen de crédits d’investissement. L'octroi de crédits est une affaire cantonale dont les modalités varient en fonction des caisses de crédit agricole. Il suffit souvent que les crédits pour les constructions agricoles soient «&amp;nbsp;supportables&amp;nbsp;», c'est-à-dire remboursables, et ce même s’il faut recourir au revenu externe de la famille paysanne. La rentabilité de l'exploitation ne s'améliore ainsi pas du tout grâce au crédit&amp;nbsp;; bien au contraire, la situation des revenus (salaire horaire de chaque travailleur sur l'exploitation) se détériore. Il est évident qu'il manque des directives fédérales claires prévoyant des critères précis pour l'attribution des mesures de soutien en faveur d'une amélioration de la rentabilité.&lt;/p&gt;&lt;p&gt;Les questions suivantes se posent&amp;nbsp;:&amp;nbsp;&lt;br&gt;- Le Conseil fédéral est-il conscient que les crédits d'investissement sont synonymes de non-rentabilité, d’utilisation inefficace des moyens et d'appauvrissement des exploitations agricoles&amp;nbsp;?&lt;/p&gt;&lt;p&gt;- A-t-il pris connaissance de l’analyse de la HAFL « Betriebsvoranschläge und deren Tragbarkeits- und Wirtschaftlichkeitsberechnung » &amp;nbsp;du 11 août 2023 https://www.bfh.ch/dam/jcr:e4d66fde-8bc7-40de-9bfb-3bac98ee206f/Betschon_Gregor_BScThesis_230922.pdf&amp;nbsp;?&lt;/p&gt;&lt;p&gt;- Quelles conclusions en tire-t-il et quelles adaptations envisage-t-il&amp;nbsp;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Der am 1. März 2024 veröffentlichte Bericht des Bundesrats zu den Einkommen der Bauernfamilien (https://www.newsd.admin.ch/newsd/message/attachments/86421.pdf) &amp;nbsp;zeigt, dass die Arbeitsverdienste in der Landwirtschaft auf vielen Betrieben sehr tief sind (im Mittel 16.30 pro Stunde). Schweizer Landwirtschaftsbetriebe sind zudem europaweit am stärksten verschuldet (pro Hektare LN). Seit langem unterstützt der Bund landwirtschaftliche Strukturverbesserungen mit Investitionskrediten. Die Kreditvergabe wird in den Kantonen vorgenommen und von den Agrarkreditkassen unterschiedlich gehandhabt. Es reicht oftmals, wenn die Kredite für landwirtschaftliche Bauten «tragbar» sind – also rückzahlbar sind, selbst wenn dafür das externe Einkommen der Bäuerin nötig ist. Und sich die Rentabilität des Betriebs durch den Kredit keineswegs verbessert, sondern im Gegenteil: Sich die Einkommenssituation (Stundenlohn jeder Arbeitskraft auf dem Betrieb) sogar verschlechtert. Es ist offensichtlich, dass klare Bundesvorgaben fehlen, welche für die Vergabe der Unterstützungsmassnahmen klare Kriterien zu Gunsten einer Verbesserung der Wirtschaftlichkeit vorsehen.&lt;/p&gt;&lt;p&gt;Fragen:&amp;nbsp;&lt;br&gt;- Ist sich der Bundesrat bewusst, dass mit Investitionskrediten in die Unrentabilität, Unwirtschaftlichkeit &amp;nbsp;und Verarmung der Bauernbetriebe «investiert»?&lt;/p&gt;&lt;p&gt;- Hat der Bundesrat Kenntnis der HAFL-Arbeit "Betriebsvoranschläge und deren Tragbarkeits- und Wirtschaftlichkeitsberechnung" vom 11. August 2023 https://www.bfh.ch/dam/jcr:e4d66fde-8bc7-40de-9bfb-3bac98ee206f/Betschon_Gregor_BScThesis_230922.pdf?&lt;/p&gt;&lt;p&gt;- Welche Schlussfolgerungen zieht er daraus und welche Anpassungen&amp;nbsp;gedenkt er vorzunehmen?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crediti di investimento nell'agricoltura. «Investire» nella redditività e nel miglioramento del reddito anziché nell'indebitamento</t>
+  </si>
+  <si>
     <t xml:space="preserve">24.3776</t>
   </si>
   <si>
@@ -1847,6 +2406,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243776</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Le Conseil fédéral est chargé de proposer une modification de loi visant à supprimer le remboursement de l'impôt sur les huiles minérales pour&amp;nbsp;:&amp;nbsp;&lt;/p&gt;&lt;ol&gt;&lt;li&gt;les dameuses de pistes&amp;nbsp;;&amp;nbsp;&lt;/li&gt;&lt;li&gt;l’agriculture et la sylviculture&amp;nbsp;;&amp;nbsp;&lt;/li&gt;&lt;li&gt;l'extraction de pierre de taille naturelle&amp;nbsp;;&amp;nbsp;&lt;/li&gt;&lt;li&gt;la pêche professionnelle&amp;nbsp;;&amp;nbsp;&lt;/li&gt;&lt;li&gt;les entreprises de navigation titulaires d’une concession fédérale.&amp;nbsp;&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Der Bundesrat wird beauftragt, eine Gesetzesänderung vorzulegen, mit der die Rückerstattung der Mineralölsteuer aufgehoben wird für:&amp;nbsp;&lt;/p&gt;&lt;ol&gt;&lt;li&gt;Pistenfahrzeuge;&amp;nbsp;&lt;/li&gt;&lt;li&gt;Land- und Forstwirtschaft;&amp;nbsp;&lt;/li&gt;&lt;li&gt;Naturwerkstein-Abbau;&amp;nbsp;&lt;/li&gt;&lt;li&gt;Berufsfischerei;&amp;nbsp;&lt;/li&gt;&lt;li&gt;Personenbeförderung durch vom Bund konzessionierte Schifffahrtsunternehmen.&amp;nbsp;&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No a sussidi costosi e dannosi per la biodiversità. La restituzione dell'imposta sugli oli minerali deve essere abolita</t>
+  </si>
+  <si>
     <t xml:space="preserve">24.3609</t>
   </si>
   <si>
@@ -1871,6 +2439,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243609</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Le Conseil fédéral est chargé de créer une base légale pour mettre en place un système de bonus-malus financier pour les cantons afin de les inciter à mieux coopérer au renvoi des requérants d'asile déboutés.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Der Bundesrat wird beauftragt, die gesetzliche Grundlage zu schaffen, um ein finanzielles Bonus/Malus System für die Kantone im Bereich der Ausschaffung von abgewiesenen Asylbewerbern einzuführen mit dem Ziel, die Kooperation der Kantone zu fördern.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Migliorare la collaborazione dei Cantoni nell’espulsione dei richiedenti l’asilo respinti</t>
+  </si>
+  <si>
     <t xml:space="preserve">24.3574</t>
   </si>
   <si>
@@ -1889,6 +2466,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243574</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;span style="color:black;"&gt;Je prie le Conseil fédéral de répondre aux questions suivantes :&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:black;"&gt;1. Est-il correct de dire que les prix et tarifs pratiqués dans l’assurance obligatoire des soins doivent être le meilleur marché possible, mais qu’ils ne peuvent être remboursés s’ils sont supérieurs à ceux d’une prestation fournie de manière &lt;i&gt;efficiente&lt;/i&gt; ?&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:black;"&gt;2. Selon certains experts, toutes les structures tarifaires dans le secteur ambulatoire présentent de graves lacunes : elles ne se fonderaient pas suffisamment sur des données et ne seraient ni assez représentatives ni assez vérifiables. Le Conseil fédéral partage-t-il cette appréciation ? Dans l’affirmative, quelles structures tarifaires présentent, selon lui, les plus graves lacunes sous l’angle des données, en particulier s’agissant de leur qualité ? Qu’est-ce qui l’explique ?&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:black;"&gt;3. Selon certains experts, disposer d’une base de données fiable comme pour la structure tarifaire SwissDRG serait actuellement le meilleur moyen pour remédier aux lacunes dont souffre la tarification dans le secteur ambulatoire et mieux refléter à l’avenir la réalité des coûts. Le Conseil fédéral partage-t-il cette appréciation ?&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:black;"&gt;4. Juge-t-il acceptable que, dans le domaine de la LAMal, des éléments centraux pour la tarification soient déclarés « secret d’affaires » et qu’ils ne puissent être fournis aux partenaires tarifaires pour élaborer une tarification transparente ?&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:black;"&gt;5. Est-il disposé à examiner l’opportunité de procéder à des déductions sur certains tarifs pour manque de transparence lorsque les données demandées ne sont pas rendues accessibles ou ne le sont pas suffisamment ?&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:black;"&gt;6. Est-il disposé à soumettre une (nouvelle) révision de la législation afin de préciser dans le détail (quantité et qualité) quels jeux de données doivent être fournis, en particulier pour les tarifs ambulatoires ?&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:black;"&gt;7.	Dans la négative pour les questions 5 et 6 :&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:black;"&gt;a. Quelles autres mesures le Conseil fédéral est-il disposé à prendre pour que les tarifs tiennent globalement compte, et donc mieux qu’aujourd’hui, des critères d’équité et d’économicité imposés par la loi, en particulier dans le secteur ambulatoire ?&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:black;"&gt;b. Que compte-t-il faire pour garantir à l’avenir une adaptation continue de tous les tarifs ambulatoires à la réalité des coûts, notamment lorsque les gains d’efficacité découlant des progrès médico-techniques rendent des baisses nécessaires ?&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;span style="color:black;"&gt;Der Bundesrat wird gebeten, folgende Fragen zu beantworten:&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:black;"&gt;1. Ist es korrekt, dass in der OKP möglichst günstige, aber keine Tarife bzw. Preise bezahlt werden dürfen, die eine &lt;i&gt;effiziente&lt;/i&gt; Leistungserbringung überschreiten?&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:black;"&gt;2. Teilt der Bundesrat die Einschätzung von Experten, dass derzeit alle Tarifstrukturen im ambulanten Bereich punkto datenbasierter Abstützung, Repräsentanz und Überprüfbarkeit wesentliche Defizite aufweisen? Falls ja: Bei welchen Tarifstrukturen sieht der Bundesrat derzeit die grössten Mängel punkto Datenbasis, inkl. -qualität? Weshalb?&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:black;"&gt;3. Teilt&amp;nbsp;der Bundesrat&amp;nbsp;die Einschätzung von Experten, dass eine verlässliche Datenbasis à la SwissDRG die notwendige und derzeit beste Grundlage ist, um die heutigen Mängel bei der Tarifierung im ambulanten Bereich zu beheben und um die Kostenrealität künftig besser abzubilden?&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:black;"&gt;4. Ist es aus Sicht des BR akzeptabel, wenn im Bereich des KVG zentrale Tarifgrundlagen als "Geschäftsgeheimnis" deklariert und der transparenten Tarifierung den Partnern vorenthalten werden?&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:black;"&gt;5. Ist der Bundesrat bereit, künftige Intransparenz-Abzüge für jene Tarife zu prüfen, bei welchen die geforderten Daten nicht oder nur ungenügend zugänglich gemacht werden?&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:black;"&gt;6. Ist der Bundesrat bereit, (allenfalls erneut) eine Revision vorzulegen, welche im Detail präzisiert, in welcher Quantität und Qualität die Datengrundlagen insbesondere für ambulante Tarife vorliegen müssen?&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:black;"&gt;7. Falls der BR die Fragen 5 - 6 verneint:&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:black;"&gt;a. Welche alternativen Massnahmen ist er bereit zu ergreifen, damit den gesetzlichen Kriterien von Wirtschaftlichkeit und Billigkeit bei der Tarifierung umfassend und damit – v.a. im ambulanten Bereich – besser als heute Rechnung getragen wird?&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:black;"&gt;b. Was wird der Bundesrat unternehmen, um kontinuierliche Anpassungen an die Kostenrealität, insb. notwendige Einsparungen in Folge medizinisch-technischer Effizienzgewinne, bei allen künftigen ambulanten Tarifen, laufend sicherzustellen?&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maggiore aderenza alla realtà dei costi nella LAMal. Dati attendibili per tariffe eque</t>
+  </si>
+  <si>
     <t xml:space="preserve">24.3557</t>
   </si>
   <si>
@@ -1910,6 +2496,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243557</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Dans sa stratégie&amp;nbsp;Santé2020, le Conseil fédéral a constaté qu’il serait possible de réaliser des gains d’efficacité de 20&amp;nbsp;% dans le système de santé. Cette estimation est régulièrement citée.&lt;/p&gt;&lt;p&gt;Les grandes réformes qui permettraient d’exploiter ce potentiel n’ont malheureusement toujours pas abouti.&lt;/p&gt;&lt;p&gt;Je me permets dès lors de demander au Conseil fédéral quelles mesures seraient selon lui nécessaires, adéquates et judicieuses pour enfin exploiter ce potentiel compte tenu de la forte hausse des coûts.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Quelle pourrait être la contribution des nouvelles technologies&amp;nbsp;?&lt;/li&gt;&lt;li&gt;Comment devrait-on adapter les structures de soins&amp;nbsp;?&lt;/li&gt;&lt;li&gt;Faut-il procéder sur certains sujets à un transfert de compétences des cantons (qui cumulent plusieurs rôles) à la Confédération&amp;nbsp;?&lt;/li&gt;&lt;li&gt;Comment remédier aux inefficacités du système et mieux utiliser les ressources&amp;nbsp;?&lt;/li&gt;&lt;li&gt;Faut-il adapter les incitations destinées aux fournisseurs de prestations et aux assurés&amp;nbsp;? Dans l’affirmative, lesquelles&amp;nbsp;?&lt;/li&gt;&lt;li&gt;Comment éviter les traitements inutiles voire les traitements à double&amp;nbsp;?&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;In seiner Gesamtstrategie Gesundheit2020 stelle der Bundesrat ein Effizienzgewinnpotential im Schweizer Gesundheitswesen von 20% fest. Seitdem wurde diese Einschätzung immer wieder erwähnt.&lt;/p&gt;&lt;p&gt;Es muss leider festgestellt werden, dass die grossen Reformen, mit denen dieses Potenzial ausgeschöpft werden kann, noch immer fehlen.&lt;/p&gt;&lt;p&gt;Ich erlaube mir deswegen, den Bundesrat zu fragen, welche Massnahmen seiner Meinung nach notwendig, adäquat und sinnvoll wären, um dieses Potenzial angesichts der enormen Kostenentwicklung endlich auszuschöpfen.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Welchen Beitrag können dabei neue Technologien leisten?&lt;/li&gt;&lt;li&gt;Wie müssten die bestehenden Versorgungsstrukturen angepasst werden?&lt;/li&gt;&lt;li&gt;Bedarf es in gewissen Themen einer Kompetenzverschiebung von den Kantonen hin zum Bund (Thema Mehrfachrolle der Kantone)?&lt;/li&gt;&lt;li&gt;Wie können Ineffizienzen im System wirksam bekämpft und die Ressourcen effizienter verwendet werden?&lt;/li&gt;&lt;li&gt;Bedarf es seitens der Leistungserbringer und der versicherten Personen eine Anpassung der Anreizsysteme und wenn ja, welche?&lt;/li&gt;&lt;li&gt;Wie können unnötige oder gar doppelte Behandlungen für die Patienten vermieden werden?&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evitare prestazioni inutili nel sistema sanitario</t>
+  </si>
+  <si>
     <t xml:space="preserve">24.3471</t>
   </si>
   <si>
@@ -1931,6 +2526,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243471</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Le Conseil fédéral est chargé d’adapter les bases légales de sorte que les institutions de prévoyance du 2&lt;sup&gt;e&lt;/sup&gt;&amp;nbsp;pilier soient tenues de publier leurs frais administratifs.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Une minorité de la commission (Sauter, Aellen,&amp;nbsp;de Courten, Hess Lorenz, Lohr, Rechsteiner Thomas, Roduit, Thalmann-Bieri, Vietze) propose de rejeter la motion.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Der Bundesrat wird beauftragt, die gesetzlichen Grundlagen dahingehend anzupassen, dass Vorsorgeeinrichtungen der zweiten Säule verpflichtet werden, ihre Verwaltungskosten offenzulegen.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Eine Minderheit der Kommission (Sauter, Aellen,&amp;nbsp;de Courten, Hess Lorenz, Lohr, Rechsteiner Thomas, Roduit, Thalmann-Bieri, Vietze) beantragt, die Motion abzulehnen.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trasparenza dei costi nel secondo pilastro</t>
+  </si>
+  <si>
     <t xml:space="preserve">24.3468</t>
   </si>
   <si>
@@ -1952,6 +2556,45 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243468</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;span style="color:#212121;"&gt;Le Conseil fédéral est chargé de présenter dans un rapport une évaluation globale de la mise en œuvre de la loi sur les installations à câble adoptée en 2006. Dans ce cadre, il examinera notamment l’application au plan fédéral et dans les cantons de l’obligation faite aux propriétaires de démanteler les installations à câble lorsqu’elles sont définitivement abandonnées. Il pourra, au besoin, présenter différentes mesures alternatives pour assurer le financement de ces démantèlements.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:#212121;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;Une minorité de la commission (Umbricht Pieren, Giezendanner, Hurter Thomas, Imark, Kutter, Quadri, Rutz Gregor, Schnyder, Sollberger) propose de rejeter le postulat.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;span style="color:black;"&gt;Der Bundesrat wird beauftragt, in einem Bericht eine Gesamtbeurteilung der Umsetzung des Seilbahngesetzes von 2006 vorzunehmen. Dabei soll insbesondere die Umsetzung der Pflicht der Eigentümerinnen und Eigentümer von Seilbahnanlagen, definitiv stillgelegte Anlagen zurückzubauen, auf föderaler und kantonaler Ebene geprüft werden. Der Bundesrat kann falls notwendig verschiedene Massnahmen zur Finanzierung des Rückbaus dieser Anlagen präsentieren.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Eine Minderheit der Kommission (Umbricht Pieren, Giezendanner, Hurter Thomas, Imark, Kutter, Quadri, Rutz Gregor, Schnyder, Sollberger) beantragt, das Postulat abzulehnen.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stato di attuazione della legge sugli impianti a fune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commission de la politique de sécurité Conseil des États</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schaffung eines Bundesgesetzes über einen ausserordentlichen Beitrag für die Sicherheit der Schweiz und den Frieden in Europa angesichts des Krieges gegen die Ukraine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création d'une loi fédérale concernant une contribution extraordinaire pour la sécurité de la Suisse et la paix en Europe dans le contexte de la guerre menée contre l'Ukraine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;span style="color:#212121;"&gt;Compte tenu de la guerre que la Russie continue de mener contre l’Ukraine, de la menace qu’elle fait peser sur l’ordre européen en matière de paix et de sécurité et des conséquences imprévues que cela entraîne pour la Suisse, le Conseil fédéral est chargé de soumettre au Parlement un projet de loi fédérale concernant une contribution extraordinaire pour la sécurité de la Suisse et la paix en Europe.&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;span style="color:#212121;"&gt;Il y réglera les modalités de la création d’un fonds temporaire régi par une loi spéciale sur la base de l’art. 126, al. 3, Cst. Ce fonds permettra de financer l’ensemble des besoins financiers supplémentaires à partir de 2025 de 10,1 milliards de francs pour la mise à niveau de l’armement de l’armée jusqu’en 2030 ainsi que la contribution suisse de 5 milliards de francs pour le soutien à la reconstruction et la remise en état des infrastructures nécessaires à la vie quotidienne et à la survie en Ukraine. Le fonds est autorisé à s’endetter temporairement.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;span style="color:black;"&gt;Une minorité de la commission (Dittli, Broulis, Poggia, Salzmann, Wicki) &amp;nbsp;propose de rejeter la motion.&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;span style="color:#212121;"&gt;Angesichts des anhaltenden Krieges Russlands gegen die Ukraine und der damit verbundenen Bedrohung für die europäische Friedens- und Sicherheitsordnung, die auch unvorhergesehene Auswirkungen auf die Schweiz haben, wird der Bundesrat beauftragt, dem Parlament einen Entwurf für ein Bundesgesetz über einen ausserordentlichen Beitrag für die Sicherheit der Schweiz und den Frieden in Europa vorzulegen.&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;span style="color:black;"&gt;Darin regelt er die Modalitäten zur Schaffung eines befristeten Fonds, der gestützt auf Art. 126 Abs. 3 BV spezialgesetzlich geregelt ist. Mit dem Fonds wird der gesamte finanzielle Zusatzbedarf ab 2025 von 10,1 Milliarden Franken für die Nachrüstung der Armee bis 2030 und der Schweizer Beitrag für die Unterstützung des Wiederaufbaus und Instandhaltung der für das tägliche Leben und Überleben notwendigen Infrastruktur in der Ukraine im Umfang von 5 Milliarden finanziert. &lt;/span&gt;&lt;span style="color:#212121;"&gt;Der Fonds darf sich vorübergehend verschulden.&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;span style="color:black;"&gt;Eine Minderheit der Kommission (Dittli, Broulis, Poggia, Salzmann, Wicki) &amp;nbsp;beantragt, die Motion abzulehnen.&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creazione di una legge federale concernente un contributo straordinario per la sicurezza della Svizzera e la pace in Europa alla luce della guerra in atto contro l'Ucraina</t>
+  </si>
+  <si>
     <t xml:space="preserve">24.3318</t>
   </si>
   <si>
@@ -1973,6 +2616,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243318</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Le Conseil fédéral a annoncé le 8 mars 2024 qu’il chargeait un groupe d’experts de cinq personnes de passer au crible les tâches et les subventions fédérales et de lui soumettre avant la fin de l’été des propositions susceptibles de résorber les déficits structurels de la Confédération de façon qu’il puisse présenter un budget conforme au frein à l’endettement.&amp;nbsp;&lt;/p&gt;&lt;p&gt;L’Institut fédéral de recherches sur la forêt, la neige et le paysage (FNP) et l’Académie suisse des sciences naturelles (SCNAT) ont publié à l’été 2020 une étude qui identifiait plus de 160 subventions et mesures d’incitation fédérales nuisibles à la biodiversité, dont le coût serait de quelque 40 milliards de francs par an. Plusieurs de ces subventions avaient déjà été réexaminées et mises en cause par le Contrôle fédéral des finances (CDF) au cours des années précédentes, comme la promotion des ventes ou les contributions aux améliorations structurelles.&lt;/p&gt;&lt;p&gt;De fait, les incitations et les subventions qui ont des effets nuisibles pèsent doublement sur le budget de la Confédération et donc sur le contribuable : une première fois, lorsqu’il faut les financer, qu’elles soient directes ou indirectes, et une seconde fois, lorsqu’il faut financer la réparation des dommages qu’elles ont causés, par exemple à la biodiversité, au climat ou sur le plan sanitaire.&lt;/p&gt;&lt;p&gt;Je prie en conséquence le Conseil fédéral de bien vouloir répondre aux questions suivantes :&lt;/p&gt;&lt;ol&gt;&lt;li&gt;Est-il lui aussi d’avis que les mesures d’incitation ou de subventionnement prises dans les domaines de la biodiversité, du climat ou de la santé peuvent avoir des effets nuisibles ? Si non, pourquoi ?&lt;/li&gt;&lt;li&gt;Si oui, est-il également d’avis qu’on peut trouver là un gisement possible d’économies qui pourrait bénéficier au budget de la Confédération ? Si non, pourquoi ?&lt;/li&gt;&lt;li&gt;Le groupe d’experts précité analysera-t-il sous l’angle du gisement d’économies qu’elles représentent les subventions que le PNF et la SCNAT ont identifiées comme étant nuisibles pour la biodiversité ? Si oui, comment s’y prendra-t-il ? Si non, pourquoi ?&lt;/li&gt;&lt;li&gt;Prendra-t-il également en considération les rapports d’audit que le CDF a consacrés à plusieurs des incitations et subventions concernées ?&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Am 8. März 2024 verkündete der Bundesrat, er setze eine fünfköpfige Expertengruppe ein, um die Aufgaben und Subventionen des Bundes zu überprüfen. Die Gruppe solle ihm bis im Spätsommer Vorschläge unterbreiten, wie die strukturellen Defizite des Bundes beseitigt und ein schuldenbremsenkonformer Haushalt erreicht werden könne.&amp;nbsp;&lt;/p&gt;&lt;p&gt;Im Sommer 2020 hatten WSL und SCNAT eine Studie publiziert, in deren Rahmen über 160 Anreize und Subventionen des Bundes mit biodiversitätsschädigender Wirkung identifiziert worden waren. Pro Jahr würden diese Anreize und Subventionen Kosten von rund 40 Mia. Franken verursachen. Diverse dieser Subventionen waren in früheren Jahren bereits von der eidgenössischen Finanzkontrolle überprüft und bemängelt worden, etwa die Absatzförderung oder die Strukturverbesserungsbeiträge.&lt;/p&gt;&lt;p&gt;Tatsächlich belasten Anreize und Subventionen mit schädigender Wirkung den Bundeshaushalt und die Steuerzahlenden doppelt: Zum ersten Mal, wenn direkte und indirekte Anreize und Subventionen finanziert werden; zum zweiten Mal, wenn die Behebung ihrer schädigenden Wirkung, etwa in den Bereichen Biodiversität, Klima oder Gesundheit, Kosten verursachen.&lt;/p&gt;&lt;p&gt;Ich bitte den Bundesrat um die Beantwortung folgender Fragen:&lt;/p&gt;&lt;ol&gt;&lt;li&gt;Ist der Bundesrat ebenfalls der Ansicht, dass Anreize und Subventionen in den Bereichen Biodiversität, Klima und Gesundheit schädigende Wirkungen entfalten können? Wenn nein, warum nicht?&lt;/li&gt;&lt;li&gt;Wenn ja, ist er ebenfalls der Ansicht, dass sich daraus ein Sparpotential ergeben kann für den Bundeshaushalt? Wenn nein, warum nicht?&lt;/li&gt;&lt;li&gt;Wird die genannte Expertengruppe die von WSL und SCNAT identifizierten Subventionen mit biodiversitätsschädigender Wirkung auf ihr Sparpotential hin analysieren? Wenn ja, wie? Wenn nein, warum nicht?&lt;/li&gt;&lt;li&gt;Wird sie dabei auch die Prüfberichte der EFK zu solchen Anreizen und Subventionen analysieren?&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potenziale di risparmio nell’ambito dei sussidi dannosi per la biodiversità</t>
+  </si>
+  <si>
     <t xml:space="preserve">24.3234</t>
   </si>
   <si>
@@ -1991,6 +2643,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243234</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Le Conseil fédéral est chargé de réduire les privilèges dont jouissent ses membres, tels que la rente à vie équivalant à la moitié du traitement d'un membre du gouvernement en fonction et les rentes de survivants versées à vie, ainsi que les petits privilèges, tels que les abonnements de ski financés par le contribuable.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Der Bundesrat wird aufgefordert, die bundesrätlichen Privilegien wie etwa lebenslange Rente von der Hälfte des Gehalts eines amtierenden Regierungsmitglieds und lebenslange Hinterlassenenrenten sowie Kleinprivilegien wie Steuerzahler finanzierte Ski-Abonnemente zu reduzieren.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ridurre le rendite e i privilegi dei consiglieri federali</t>
+  </si>
+  <si>
     <t xml:space="preserve">24.3259</t>
   </si>
   <si>
@@ -2009,6 +2670,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243259</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Le Conseil national et le Conseil des États ont adopté l’objet 23.059 « Développements de l’acquis de Schengen. Soutien financier à la gestion des frontières et de la politique des visas » qui concernait la participation de la Suisse à la création du fonds BMVI (Border Management and Visa Policy Instrument). Comme une politique migratoire efficace et respectueuse des droits de l’homme doit nécessairement être menée au niveau européen et que les États Schengen soumis à une très forte pression migratoire ont besoin d’être financièrement soutenus, on ne peut que se féliciter de l’établissement d’un tel fonds de solidarité. En même temps, il est évident que la politique migratoire européenne doit être conforme aux droits de l’homme et aux droits fondamentaux. Aussi prié-je le Conseil fédéral de bien vouloir répondre aux questions suivantes :&lt;/p&gt;&lt;p&gt;&lt;br&gt;1.&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;De quelle manière s’engage-t-il au niveau européen pour s’assurer qu’aucune violation des droits de l’homme et des droits fondamentaux ne soit cofinancée par l’intermédiaire du fonds BMVI ?&lt;/p&gt;&lt;p&gt;&lt;br&gt;2.&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;A-t-il l’intention de s’engager au niveau européen pour s’assurer que les moyens alloués au fonds BMVI seront principalement utilisés pour garantir que les procédures d’asile dans les pays d’arrivée soient menées dans le respect de l’État de droit et des droits fondamentaux ?&lt;/p&gt;&lt;p&gt;&lt;br&gt;3.&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;Peut-il assurer qu’il est procédé à une évaluation de l’utilisation effective des moyens du fonds FSI en Suisse et dans l’espace Schengen et qu’une même évaluation sera effectuée demain pour l’utilisation des moyens alloués au fonds BMVI ? Quel est le poids accordé dans ces évaluations aux droits fondamentaux et aux droits de l’homme ? Le Conseil fédéral soumettra-t-il ces évaluations aux commissions parlementaires compétentes ?&lt;/p&gt;&lt;p&gt;&lt;br&gt;4.&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;S’engagera-t-il en faveur d’une structure de conformité indépendante pour le fonds BMVI qui aura pour missions de constater les détournements de fonds et de proposer des mesures permettant de les prévenir ?&lt;br&gt;&amp;nbsp;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;National- und Ständerat haben dem Geschäft 23.059 «Weiterentwicklungen des Schengen-Besitzstandes. Finanzielle Hilfe im Bereich Grenzverwaltung und Visumspolitik» zur Schaffung des Border Management and Visa Policy Instrument-Fonds, kurz BMVI-Fonds, zugestimmt. Da eine effektive und menschenrechtskonforme Migrationspolitik auf europäischer Ebene erfolgen muss und besonders belastete Schengen-Staaten die Unterstützung durch einen Solidaritätsfonds brauchen, ist dies zu begrüssen. Gleichzeitig ist klar, dass sich die europäische Migrationspolitik an den Menschen- und Grundrechten orientieren muss. In diesem Zusammenhang bitte ich den Bundesrat um die Beantwortung folgender Fragen:&lt;/p&gt;&lt;p&gt;&lt;br&gt;1.&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;Wie setzt sich der Bundesrat auf europäischer Ebene dafür ein, dass über den BMVI-Fonds keine Verletzungen von Menschen- und Grundrechten mitfinanziert werden?&lt;/p&gt;&lt;p&gt;&lt;br&gt;2.&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;Gedenkt der Bundesrat, sich auf europäischer Ebene dafür einzusetzen, dass die Mittel des BMVI-Fonds massgeblich dafür eingesetzt werden, dass Asylverfahren in den Ankunftsländern rechtsstaatlich und grundrechtskonform durchgeführt werden?&lt;/p&gt;&lt;p&gt;&lt;br&gt;3.&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;Kann der Bundesrat versichern, dass eine Evaluation der konkreten Verwendung der Mittel des ISF in der Schweiz und im Schengen-Raum stattfindet und dass eine entsprechende Evaluation zukünftig im Zusammenhang mit der Verwendung der Mittel des BMVI-Fonds durchgeführt wird? Welches Gewicht enthält in diesen Evaluationen des BMVI-Fonds die Thematik der Grund- und Menschenrechte? Wird der Bundesrat diese Evaluationen den zuständigen Parlamentskommissionen unterbreiten?&lt;/p&gt;&lt;p&gt;&lt;br&gt;4.&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;Wird sich der Bundesrat für eine unabhängige Compliance-Struktur des BMVI-Fonds einsetzen, welche Zweckentfremdungen der Gelder feststellen und entsprechende Massnahmen zu deren Verhinderung vorschlagen soll?&lt;br&gt;&amp;nbsp;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In che modo la Svizzera si adopera a favore di un impiego del Fondo BMVI conforme ai diritti umani?</t>
+  </si>
+  <si>
     <t xml:space="preserve">24.3169</t>
   </si>
   <si>
@@ -2030,6 +2700,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243169</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Le Conseil fédéral est chargé de réduire la retraite annuelle des anciens conseillers fédéraux de 220&amp;nbsp;000 à 100 000 francs et d'affecter la différence à l'assurance-vieillesse et survivants (AVS).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Der Bundesrat wird beauftragt, das jährliche Ruhegehalt der alt Bundesräte von Fr. 220 000.- ist auf Fr. 100 000.- zu senken und den Überschuss der Alters- und Hinterlassen-Versicherung AHV zuzuschreiben.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usare le pensioni degli ex consiglieri federali per finanziare la 13a mensilità AVS</t>
+  </si>
+  <si>
     <t xml:space="preserve">24.7112</t>
   </si>
   <si>
@@ -2051,6 +2730,12 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247112</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Le Conseil national a clairement adopté les postulats&amp;nbsp;22.4440&amp;nbsp;et&amp;nbsp;22.4556&amp;nbsp;sur la transparence et la vérité des coûts.&lt;br&gt;- Dans quelles publications de la Confédération ces aspects sont-ils mentionnés en lien avec le système agro-alimentaire?&lt;br&gt;- Dans quelles réponses à des interventions le Conseil fédéral s'exprime-t-il à ce sujet?&lt;br&gt;- Les conclusions du&amp;nbsp;CDF sur la promotion des ventes&amp;nbsp;et celles de la&amp;nbsp;CdG-E sur la protection de la biodiversité, seront-elles intégrées dans le rapport de postulat?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Der Nationalrat hat die Postulate 22.4440&amp;nbsp;und&amp;nbsp;22.4556&amp;nbsp;zur Transparenz und Kostenwahrheit klar angenommen.&lt;br&gt;- In welchen Publikationen des Bundes werden diese Aspekte im Zusammenhang mit dem Agrar- und dem Ernährungssystem erwähnt?&lt;br&gt;- In welchen Antworten auf Vorstösse äussert sich der Bundesrat zu diesem Thema?&lt;br&gt;- Werden die Schlussfolgerungen der&amp;nbsp;EFK zur Absatzförderung&amp;nbsp;und der GPK-S zum Schutz der Biodiversität in den Bericht über die Postulate aufgenommen?&lt;/p&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">24.7015</t>
   </si>
   <si>
@@ -2069,6 +2754,12 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247015</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Le postulat 15.4112 intitulé «&amp;nbsp;Examen des critères selon lesquels les organisations externes à l’administration doivent être soumises à la surveillance du Contrôle fédéral des finances&amp;nbsp;» a été accepté par le Conseil national le 18 mars 2016. En réponse à la question 19.5385, le Conseil fédéral a indiqué que le rapport demandé par le postulat serait publié à la fin de l’année 2019. Pour l’heure, le rapport n’a pas encore été publié.&lt;br&gt;Quand le sera-t-il&amp;nbsp;?&amp;nbsp;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Das Postulat 15.4112 mit dem Titel «Aufsicht durch die Eidgenössische Finanzkontrolle. Prüfung der Kriterien für die Unterstellung von Organisationen ausserhalb der Bundesverwaltung» wurde am 18. März 2016 vom Nationalrat angenommen. In seiner Antwort auf die Frage 19.5385 erklärte der Bundesrat, dass der im Postulat geforderte Bericht Ende 2019 veröffentlicht werde. Die Publikation des Berichts ist noch ausstehend.&lt;br&gt;Wann wird der Bericht publiziert?&lt;/p&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">23.4494</t>
   </si>
   <si>
@@ -2087,6 +2778,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20234494</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;En juin 2022, le Conseil fédéral a publié une étude préliminaire des subventions ayant un impact négatif sur la biodiversité. L'une des subventions identifiées qui doit faire l’objet d’une analyse approfondie concerne la Nouvelle politique régionale (NPR), et porte sur les "impacts en matière d’utilisation des surfaces, d’imperméabilisation des sols et de mitage".&amp;nbsp;&lt;/p&gt;&lt;p&gt;L’analyse approfondie permettrait notamment "d’examiner les possibilités d’optimiser les processus internes à l’administration". Pour ce faire, l’analyse pourra "s’appuyer sur divers travaux préparatoires et évaluations", en particulier sur l’audit 20028 du Contrôle fédéral des finances (CDF).&lt;/p&gt;&lt;p&gt;L'étude préliminaire recommande "d’élaborer des propositions de réforme pertinentes et réalistes". Différentes voies seront examinées - de la suppression à l'optimisation ou à la transformation. Par ailleurs, "les offices fédéraux concernés, [l’OFEV] et les services spécialisés cantonaux œuvrent ensemble à l’analyse des propositions de réforme et étudient plusieurs pistes de transformation".&lt;/p&gt;&lt;p&gt;Étant donné que la Confédération n'a pas réussi à remplir l'objectif 3 d'Aichi d'ici à 2020 et qu'une priorisation a désormais été effectuée au lieu d'un examen et d'une adaptation de toutes les subventions néfaste pour la biodiversité, il est d'autant plus urgent de "définir des mesures concrètes et de les mettre en œuvre", en élaborant, pour chaque subvention, un "catalogue de mesures dont la mise en application au niveau politique a la plus grande chance de réussite". Je prie dans ce cadre le Conseil fédéral de répondre aux questions suivantes concernant les subventions NPR&amp;nbsp;:&lt;/p&gt;&lt;ol&gt;&lt;li&gt;Comment la pluralité des pistes de transformation étudiées est-elle garantie?&lt;/li&gt;&lt;li&gt;Quels sont les offices fédéraux et les services cantonaux qui participent à cette analyse?&amp;nbsp;&lt;/li&gt;&lt;li&gt;Quels sont les autres acteurs impliqués dans l'analyse approfondie et sur quels critères sont-ils choisis?&lt;/li&gt;&lt;li&gt;Comment l'élaboration dans les meilleurs délais d'un catalogue de mesures concrètes et leur mise en œuvre sont-elles assurées?&lt;/li&gt;&lt;li&gt;Quels autres "travaux préparatoires et évaluations" seront pris en considération dans l’analyse et l’évaluation?&lt;/li&gt;&lt;/ol&gt;&lt;p&gt;L'analyse tient-elle également compte du concept "Développement durable dans la NPR" du SECO et des services cantonaux spécialisés, ainsi que de l'input d'experts de l'Université de Berne en réponse au Postulat Brand 15.3228?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Im Juni 2022 veröffentlichte der Bundesrat eine Vorstudie zur negativen Wirkung verschiedener Subventionen auf die Biodiversität. Eine der Subventionen, die vertieft untersucht werden soll, betrifft die Neue Regionalpolitik (NRP); geprüft werden sollen «Auswirkungen auf Flächenverbrauch, Versiegelung der Böden und Zersiedelung».&amp;nbsp;&lt;/p&gt;&lt;p&gt;Die vertiefte Untersuchung wird insbesondere ermöglichen, die «Optimierung der verwaltungsinternen Abläufe [zu] prüfen». Dabei kann sie «auf verschiedene Vorarbeiten und Evaluationen» aufbauen, insbesondere auf den Prüfauftrag 20028 der Eidgenössischen Finanzkontrolle (EFK).&lt;/p&gt;&lt;p&gt;In der Vorstudie wird empfohlen, «sinnvolle und realistische Reformvorschläge zu erarbeiten». Die «Reformvorschläge [sollen] ergebnisoffen und in Zusammenarbeit zwischen den betroffenen Bundesämtern, dem BAFU und kantonalen Fachstellen analysiert werden. Verschiedene Pfade – von der Abschaffung bis zur Optimierung oder Umgestaltung einer Subvention – sollen geprüft werden.»&lt;/p&gt;&lt;p&gt;Da die Schweiz das Aichi-Ziel 3 bis 2020 nicht erreicht hat und nun eine Priorisierung gemacht wurde anstelle einer Überprüfung und Anpassung aller biodiversitätsschädigenden Subventionen, ist es umso dringender, konkrete Massnahmen zu erarbeiten und umzusetzen, indem «pro ausgewählte Subvention ein Massnahmenkatalog definiert [wird], dessen politische Durchsetzung möglichst erfolgsversprechend ist». Ich bitte den Bundesrat, folgende Fragen bezüglich der NRP-Subventionen zu beantworten:&lt;/p&gt;&lt;ol&gt;&lt;li&gt;Wie wird sichergestellt, dass die verschiedenen Möglichkeiten bei der Umgestaltung geprüft werden?&lt;/li&gt;&lt;li&gt;Welche Bundesämter und kantonalen Fachstellen sind an der Untersuchung beteiligt?&amp;nbsp;&lt;/li&gt;&lt;li&gt;Welche anderen Akteure sind an der vertieften Untersuchung beteiligt und nach welchen Kriterien werden sie ausgewählt?&lt;/li&gt;&lt;li&gt;Wie wird sichergestellt, dass so rasch wie möglich konkrete Massnahmen erarbeitet und umgesetzt werden?&lt;/li&gt;&lt;li&gt;Welche anderen «Vorarbeiten und Evaluationen» werden bei dieser Untersuchung und Evaluation berücksichtigt?&lt;/li&gt;&lt;/ol&gt;&lt;p&gt;Werden das Konzept «Nachhaltige Entwicklung in der Neuen Regionalpolitik» des Staatssekretariats für Wirtschaft und der kantonalen Fachstellen sowie der in die Beantwortung des Postulats Brand 15.3228 eingeflossene Bericht von Expertinnen und Experten der Universität Bern bei dieser Untersuchung berücksichtigt?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effetti nefasti della nuova politica regionale sulla biodiversità. Cosa conta di fare l'ufficio federale competente?</t>
+  </si>
+  <si>
     <t xml:space="preserve">23.4461</t>
   </si>
   <si>
@@ -2105,6 +2805,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20234461</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;En 2022, les résultats de l’enquête administrative Oberholzer sur les collectes d’informations du Service de renseignement de la Confédération (SRC) dans le domaine Cyber ont donné lieu à des comptes rendus médiatiques. Juste avant, le Conseil fédéral avait décidé de rattacher le Centre national pour la cybersécurité (NCSC) au DDPS à partir du 1er&amp;nbsp;janvier 2024.&lt;/p&gt;&lt;p&gt;Le rapport Oberholzer recommandait de réfléchir à la possibilité de détacher complètement le domaine Cyber du SRC et de créer un pool d’experts indépendant chargé d’analyser les données issues du trafic réseau. Il estimait judicieux de rattacher ce pool au NCSC et de le mettre à la disposition de toutes les unités organisationnelles de la Confédération qui s’occupent de cybersécurité.&amp;nbsp;&lt;/p&gt;&lt;p&gt;Le 7&amp;nbsp;décembre 2023, peu avant le transfert du NCSC au DDPS, des médias ont annoncé une vague de démissions parmi les experts&amp;nbsp;: six des neuf spécialistes du groupe d’intervention en cas d’urgence informatique (GovCERT) ont décidé de ne pas rejoindre le DDPS, 20&amp;nbsp;% des effectifs du NCSC ont préféré démissionner. Des conflits éthiques ont été invoqués, étant donné que les collaborateurs du NCSC s’efforcent de combler les failles de sécurité pour la société civile et l’économie, alors que le SRC et le DDPS auraient un intérêt à maintenir certaines failles qu’ils veulent utiliser pour la collecte d’informations.&amp;nbsp;&lt;/p&gt;&lt;p&gt;Dans l’enquête administrative de 2022, on pouvait lire qu’à l’époque le chef du domaine Cyber du SRC avait fait preuve de peu de compréhension pour les directives légales et les procédures institutionnalisées au sein des services étatiques et que son chef l’avait laissé faire.&lt;/p&gt;&lt;ol&gt;&lt;li&gt;Le Conseil fédéral a-t-il sous-estimé les divergences entre les objectifs du NCSC et ceux du SRC/DDPS ainsi que les différentes cultures d’entreprise qui en découlent&amp;nbsp;?&lt;/li&gt;&lt;li&gt;Comment s’assure-t-il que, sous la conduite du DDPS, le NCSC préservera les intérêts de la société civile et de l’économie en se concentrant sur la détection et l’élimination des failles de sécurité dans le réseau, et ne défendra pas les intérêts opportunistes du SRC qui entend utiliser ces failles&amp;nbsp;?&amp;nbsp;&lt;/li&gt;&lt;li&gt;Comment l’interface entre le NCSC et le SRC est-elle organisée et surveillée en ce qui concerne l’échange automatisé de données&amp;nbsp;?&lt;/li&gt;&lt;li&gt;Comment le Conseil fédéral s’assure-t-il que les spécialistes du NCSC pourront transmettre de manière sûre et rapide à l’autorité de surveillance compétente (AS-Rens, DélCdG) les éventuelles erreurs d’interprétation des bases légales dans le domaine Cyber du SRC&amp;nbsp;?&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;2022 wurde über die Resultate der Administrativuntersuchung Oberholzer im Zusammenhang mit Informationsbeschaffungen des Nachrichtendienstes des Bundes (NDB) im Bereich Cyber berichtet. Kurz vorher hatte der Bundesrat entschieden, das Nationale Zentrum für Cybersicherheit (NCSC) ab 1.1.2024 im VBS anzusiedeln.&lt;/p&gt;&lt;p&gt;Im Bericht Oberholzer wurde empfohlen, über eine «vollständige Herauslösung des Ressorts Cyber NDB aus dem NDB und die Schaffung eines eigenständigen Expertenpools für die Analyse von Daten des Netzwerkverkehrs» nachzudenken. Diese sei «sinnvollerweise wohl beim NCSC anzusiedeln und stünde so allen Organisationseinheiten des Bundes, die im Bereich der Cybersicherheit tätig sind, zur Verfügung.»&amp;nbsp;&lt;/p&gt;&lt;p&gt;Am 7.12.2023, kurz vor der Übersiedlung des NCSC ins VBS, vermelden Medien, dass es zu einem wahren Exodus der Top-Experten gekommen sei: 6 von 9 Spezialisten der Cyber-Schnell-Eingreifgruppe «GovCERT» machen den Wechsel ins VBS nicht mit, insgesamt verlassen gut 20% der Angestellten das NCSC. Es würden sich «ethische Konflikte» zeigen, die Mitarbeitenden des NCSC seien darum bemüht, Sicherheitslücken zum Schutz der Zivilgesellschaft und der Wirtschaft zu schliessen. Der NDB und das VBS hätten jedoch Interesse daran, Sicherheitslücken offen zu lassen, weil sie diese zur Informationsgewinnung nutzen wollten.&amp;nbsp;&lt;/p&gt;&lt;p&gt;In der Administrativuntersuchung wurde 2022 gesagt, der damalige Chef des Ressorts Cyber NDB habe «für rechtliche Vorgaben und institutionalisierte Prozessabläufe innerhalb eines staatlichen Dienstes wenig Verständnis» gezeigt und dessen Chef habe ihn gewähren lassen.&lt;/p&gt;&lt;ol&gt;&lt;li&gt;Hat der Bundesrat die unterschiedlichen Zielsetzungen und damit verbundene unterschiedliche Unternehmenskulturen vom NCSC und dem NDB/VBS unterschätzt?&lt;/li&gt;&lt;li&gt;Wie stellt der Bundesrat sicher, dass das NCSC unter der Führung des VBS die Interessen der Zivilgesellschaft und der Wirtschaft zur Schliessung von Sicherheitslücken im Netz - und nicht die opportunistischen Interessen des NDB zur Nutzung von Sicherheitslücken - ins Zentrum stellt?&amp;nbsp;&lt;/li&gt;&lt;li&gt;Wir wird die Schnittstelle zwischen dem NCSC und dem NDB bezüglich automatisiertem Datenaustausch organisiert und überwacht?&lt;/li&gt;&lt;li&gt;Wie stellt der Bundesrat sicher, dass Spezialist*innen des NCSC allfällig entdeckte Fehlinterpretationen der gesetzlichen Grundlagen im NDB Bereich Cyber auf sichere und rasche Art an die zuständige Aufsicht (AB-NDB, GPDel) übermitteln können?&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divergenze di obiettivi e di interpretazioni tra il Centro nazionale per la cibersicurezza (NCSC) e il Servizio delle attività informative della Confederazione (SIC)</t>
+  </si>
+  <si>
     <t xml:space="preserve">23.4375</t>
   </si>
   <si>
@@ -2126,6 +2835,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20234375</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Je prie le Conseil fédéral de répondre aux questions suivantes&amp;nbsp;:&lt;/p&gt;&lt;ol&gt;&lt;li&gt;Que pense-t-il de l’approvisionnement en médicaments vétérinaires&amp;nbsp;?&lt;/li&gt;&lt;li&gt;Quand le bureau de notification obligatoire pour les ruptures de livraison et d’approvisionnement affectant les médicaments vétérinaires sera-t-il créé, conformément à la recommandation du Contrôle fédéral des finances&amp;nbsp;? Le Conseil fédéral peut-il présenter un plan de projet contraignant comprenant les étapes clés de sa mise en place&amp;nbsp;? Le bureau de notification pour les médicaments vétérinaires sera-t-il intégré dans le projet de nouveau bureau de notification moderne et indépendant pour les médicaments à usage humain et les normes de ce dernier s’y appliqueront-elles&amp;nbsp;?&lt;/li&gt;&lt;li&gt;Le Conseil fédéral peut-il envisager que la Suisse reprenne automatiquement les autorisations délivrées par l’Union européenne dans le domaine des médicaments vétérinaires&amp;nbsp;?&lt;/li&gt;&lt;li&gt;Comment compte-t-il encourager la production indigène, et garantir ainsi un approvisionnement plus sûr en médicaments vétérinaires pour les animaux de rente, si les entreprises sont soumises aux mêmes exigences de qualité applicables aux médicaments à usage humain et que, de ce fait, la production n’est plus possible pour des raisons économiques&amp;nbsp;?&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Ich bitte den Bundesrat um Beantwortung der folgenden Fragen:&lt;/p&gt;&lt;ol&gt;&lt;li&gt;Wie beurteilt der Bundesrat die Versorgung mit Tierarzneimitteln?&lt;/li&gt;&lt;li&gt;Wann wird die obligatorische Meldestelle für Liefer- und Versorgungsengpässe bei Tierarzneimittel entsprechend der Empfehlung der Eidgenössischen Finanzkontrolle umgesetzt? Kann der Bundesrat einen verbindlichen Projektplan mit Meilensteinen vorlegen? Wird die Meldestelle Tierarzneimittel in das Projekt zur neuen, unabhängigen modernen Meldestelle für Humanarzneimittel einbezogen und auf diesem Standard umgesetzt?&lt;/li&gt;&lt;li&gt;Kann sich der Bundesrat vorstellen, dass die Schweiz EU-Zulassungen im Tierarzneimittelbereich automatisch übernimmt?&lt;/li&gt;&lt;li&gt;Wie will der Bundesrat die inländische Produktion und damit die sicherere Versorgung mit Tierarzneimitteln für Nutztiere fördern, wenn diese Firmen dieselben Qualitätsanforderungen wie in der Humanmedizin erfüllen müssen, so dass eine Produktion aus wirtschaftlichen Gründen nicht mehr möglich ist?&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difficoltà con le forniture e l'approvvigionamento di medicamenti a uso veterinario. Quali prospettive per il mercato svizzero?</t>
+  </si>
+  <si>
     <t xml:space="preserve">23.4353</t>
   </si>
   <si>
@@ -2147,6 +2865,15 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20234353</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Le Conseil fédéral a révisé le 1er novembre 2023 l’ordonnance sur les émoluments perçus par l’autorité fédérale de surveillance des fondations (OEmol-ASF), dont la nouvelle mouture entrera en vigueur le 1er janvier 2024. L’élément central de ce texte est une nouvelle augmentation des émoluments, qui aura des conséquences financières massives pour les fondations concernées. Ce qui m’amène à poser les questions suivantes :&amp;nbsp;&lt;br&gt;- Pourquoi n’est-il pas possible de passer d’un contrôle annuel de comptes annuels déjà révisés à un rythme pluriannuel assorti de contrôles approfondis en cas de suspicion, ce qui permettrait de réduire les dépenses de l’Autorité fédérale de surveillance des fondations (ASF) et par voie de conséquence la charge administrative et financière des fondations ?&lt;br&gt;- Le Conseil fédéral serait-il prêt à réserver un traitement à part aux fondations d’utilité publique dont le total du bilan est faible (&lt; 5 millions de CHF) et à prévoir pour elles une catégorie d’émoluments distincte et plus avantageuse assortie d’un rythme de révision plus lent (par ex. tous les 3 à 5 ans) ?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Der Bundesrat hat am 01.11.2023 die Verordnung über die Gebühren der Eidgenössischen Stiftungsaufsicht (GebV-ESA) revidiert. Die neue Verordnung tritt auf den 01.01.2024 in Kraft. Der Kernpunkt der neuen Verordnung ist eine erneute Gebührenerhöhung – mit massiven finanziellen Auswirkungen für die betroffenen Stiftungen. Hierzu stellen sich folgende Fragen:&amp;nbsp;&lt;br&gt;- Warum kann der Aufwand der ESA und damit der finanzielle und administrative Aufwand der Stiftungen nicht reduziert werden, indem von einer alljährlichen Überprüfung bereits revidierter Jahresabschlüsse auf einen Mehrjahresrhythmus gewechselt wird und auf vertiefte Prüfungen in Verdachtsfällen?&lt;br&gt;- Wäre der Bundesrat bereit, gemeinnützigen Stiftungen mit geringer Bilanzsumme (&amp;lt; 5 Mio. CHF) differenziert zu behandeln und eine separate und günstigere Gebührenkategorie mit einem längeren Revisionsrhythmus einzuführen (z.B. alle 3 – 5 Jahre)?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raddoppiati in due anni gli emolumenti per le fondazioni d’interesse collettivo</t>
+  </si>
+  <si>
     <t xml:space="preserve">23.4346</t>
   </si>
   <si>
@@ -2168,100 +2895,13 @@
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20234346</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commission des finances Conseil national</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-04-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temporäre Ausgleichszahlungen im Zusammenhang mit dem Kantonswechsel der Gemeinde Moutier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paiements compensatoires temporaires dans le contexte du changement de canton de la commune de Moutier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aeschi Thomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einführung einer Obergrenze für die Anzahl Personal-Vollzeitäquivalente (FTE) beim Bund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instauration d'un plafond pour le nombre d'employés en équivalents plein temps à la Confédération</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schnyder Markus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Politische Einflussnahme der Verwaltung. Ist das korrekt?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est-il acceptable que l’administration tente d’influencer les processus politiques ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fässler Daniel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wegweisungsverfügungen sind rascher und konsequenter zu vollziehen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les décisions de renvoi doivent être exécutées plus rapidement et plus systématiquement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commission de la politique de sécurité Conseil des États</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-04-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schaffung eines Bundesgesetzes über einen ausserordentlichen Beitrag für die Sicherheit der Schweiz und den Frieden in Europa angesichts des Krieges gegen die Ukraine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Création d'une loi fédérale concernant une contribution extraordinaire pour la sécurité de la Suisse et la paix en Europe dans le contexte de la guerre menée contre l'Ukraine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243467</t>
+    <t xml:space="preserve">&lt;p&gt;Le Conseil fédéral est invité à élaborer les bases légales pour le financement d’un fonds pour la démocratie et l’État de droit. Ce fonds doit, d’une part, soutenir des activités pouvant renforcer la compréhension et l’engagement pour les institutions politiques de l’État fédéral suisse, en particulier chez les jeunes. D’autre part, afin de renforcer la cohésion de la Suisse, le fonds doit encourager la connaissance et la pratique des langues nationales.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Le fonds doit être géré par un comité indépendant du Parlement et de l’administration, composé de cinq à neuf personnes au maximum, nommées par le Conseil fédéral pour une durée de quatre ans et rééligibles deux fois au maximum. Les comptes annuels doivent être soumis au Contrôle fédéral des finances pour révision.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Der Bundesrat wird aufgefordert, die rechtlichen Grundlagen für die Finanzierung eines Fonds für Demokratie und Rechtsstaatlichkeit zu erarbeiten. Mit diesem Fonds sollen einerseits Aktivitäten unterstützt werden, welche geeignet sind, das Verständnis und das Engagement für die politischen Institutionen des schweizerischen Bundesstaates insbesondere bei der Jugend zu stärken. Andererseits soll der Fonds, um den Zusammenhalt der Schweiz zu stärken, die Kenntnisse und Anwendung der Landessprachen fördern.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Der Fonds soll von einem von Parlament und Verwaltung unabhängigen Gremium von fünf bis maximal neun Personen geleitet werden, die vom Bundesrat jeweils auf eine Dauer von vier Jahren gewählt werden und höchstens zweimal wiedergewählt werden dürfen. Die Jahresrechnungen sind der eidgenössischen Finanzkontrolle zur Revision zu unterbreiten.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fondo per la democrazia e lo Stato di diritto in commemorazione del 1848</t>
   </si>
 </sst>
 </file>
@@ -4095,25 +4735,33 @@
         <v>45</v>
       </c>
       <c r="N27" t="s">
+        <v>30</v>
+      </c>
+      <c r="O27" t="s">
         <v>282</v>
       </c>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
-      <c r="R27"/>
+      <c r="P27" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>284</v>
+      </c>
+      <c r="R27" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>20253835</v>
       </c>
       <c r="B28" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C28" t="s">
         <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E28" t="s">
         <v>37</v>
@@ -4125,37 +4773,45 @@
         <v>23</v>
       </c>
       <c r="H28" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I28" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J28" t="s">
         <v>224</v>
       </c>
       <c r="K28" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L28" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M28" t="s">
         <v>45</v>
       </c>
       <c r="N28" t="s">
-        <v>282</v>
-      </c>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
-      <c r="R28"/>
+        <v>30</v>
+      </c>
+      <c r="O28" t="s">
+        <v>291</v>
+      </c>
+      <c r="P28" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>293</v>
+      </c>
+      <c r="R28" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>20253845</v>
       </c>
       <c r="B29" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C29" t="s">
         <v>51</v>
@@ -4173,43 +4829,51 @@
         <v>23</v>
       </c>
       <c r="H29" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="I29" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="J29" t="s">
         <v>26</v>
       </c>
       <c r="K29" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L29" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="M29" t="s">
         <v>45</v>
       </c>
       <c r="N29" t="s">
-        <v>282</v>
-      </c>
-      <c r="O29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
-      <c r="R29"/>
+        <v>30</v>
+      </c>
+      <c r="O29" t="s">
+        <v>299</v>
+      </c>
+      <c r="P29" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>301</v>
+      </c>
+      <c r="R29" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>20253855</v>
       </c>
       <c r="B30" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="C30" t="s">
         <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="E30" t="s">
         <v>37</v>
@@ -4221,43 +4885,51 @@
         <v>39</v>
       </c>
       <c r="H30" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I30" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J30" t="s">
         <v>224</v>
       </c>
       <c r="K30" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="L30" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="M30" t="s">
         <v>45</v>
       </c>
       <c r="N30" t="s">
-        <v>282</v>
-      </c>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
-      <c r="R30"/>
+        <v>30</v>
+      </c>
+      <c r="O30" t="s">
+        <v>306</v>
+      </c>
+      <c r="P30" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>293</v>
+      </c>
+      <c r="R30" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>20253880</v>
       </c>
       <c r="B31" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="C31" t="s">
         <v>51</v>
       </c>
       <c r="D31" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="E31" t="s">
         <v>21</v>
@@ -4269,46 +4941,54 @@
         <v>23</v>
       </c>
       <c r="H31" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="I31" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="J31" t="s">
         <v>26</v>
       </c>
       <c r="K31" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="L31" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="M31" t="s">
         <v>45</v>
       </c>
       <c r="N31" t="s">
-        <v>282</v>
-      </c>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
-      <c r="R31"/>
+        <v>30</v>
+      </c>
+      <c r="O31" t="s">
+        <v>314</v>
+      </c>
+      <c r="P31" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>316</v>
+      </c>
+      <c r="R31" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>20253892</v>
       </c>
       <c r="B32" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="C32" t="s">
         <v>51</v>
       </c>
       <c r="D32" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="E32" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="F32" t="s">
         <v>276</v>
@@ -4317,43 +4997,51 @@
         <v>23</v>
       </c>
       <c r="H32" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="I32" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="J32" t="s">
         <v>26</v>
       </c>
       <c r="K32" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="L32" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="M32" t="s">
         <v>45</v>
       </c>
       <c r="N32" t="s">
-        <v>282</v>
-      </c>
-      <c r="O32"/>
-      <c r="P32"/>
-      <c r="Q32"/>
-      <c r="R32"/>
+        <v>30</v>
+      </c>
+      <c r="O32" t="s">
+        <v>324</v>
+      </c>
+      <c r="P32" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>326</v>
+      </c>
+      <c r="R32" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>20253893</v>
       </c>
       <c r="B33" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="C33" t="s">
         <v>108</v>
       </c>
       <c r="D33" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="E33" t="s">
         <v>37</v>
@@ -4365,3320 +5053,3858 @@
         <v>23</v>
       </c>
       <c r="H33" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="I33" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="J33" t="s">
         <v>26</v>
       </c>
       <c r="K33" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="L33" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="M33" t="s">
         <v>29</v>
       </c>
       <c r="N33" t="s">
-        <v>282</v>
-      </c>
-      <c r="O33"/>
-      <c r="P33"/>
-      <c r="Q33"/>
-      <c r="R33"/>
+        <v>30</v>
+      </c>
+      <c r="O33" t="s">
+        <v>333</v>
+      </c>
+      <c r="P33" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>335</v>
+      </c>
+      <c r="R33" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>20253730</v>
       </c>
       <c r="B34" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="C34" t="s">
         <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="E34" t="s">
         <v>76</v>
       </c>
       <c r="F34" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="G34" t="s">
         <v>23</v>
       </c>
       <c r="H34" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="I34" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="J34" t="s">
         <v>26</v>
       </c>
       <c r="K34" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="L34" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="M34" t="s">
         <v>71</v>
       </c>
       <c r="N34" t="s">
-        <v>282</v>
-      </c>
-      <c r="O34"/>
-      <c r="P34"/>
-      <c r="Q34"/>
-      <c r="R34"/>
+        <v>30</v>
+      </c>
+      <c r="O34" t="s">
+        <v>343</v>
+      </c>
+      <c r="P34" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>345</v>
+      </c>
+      <c r="R34" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>20253630</v>
       </c>
       <c r="B35" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="C35" t="s">
         <v>51</v>
       </c>
       <c r="D35" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="E35" t="s">
         <v>37</v>
       </c>
       <c r="F35" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="G35" t="s">
         <v>39</v>
       </c>
       <c r="H35" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="I35" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="J35" t="s">
         <v>68</v>
       </c>
       <c r="K35" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="L35" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="M35" t="s">
         <v>45</v>
       </c>
       <c r="N35" t="s">
-        <v>282</v>
-      </c>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
-      <c r="R35"/>
+        <v>30</v>
+      </c>
+      <c r="O35" t="s">
+        <v>353</v>
+      </c>
+      <c r="P35" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>355</v>
+      </c>
+      <c r="R35" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>20253637</v>
       </c>
       <c r="B36" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="C36" t="s">
         <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="E36" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="F36" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="G36" t="s">
         <v>39</v>
       </c>
       <c r="H36" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="I36" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="J36" t="s">
         <v>279</v>
       </c>
       <c r="K36" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="L36" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="M36" t="s">
         <v>71</v>
       </c>
       <c r="N36" t="s">
-        <v>282</v>
-      </c>
-      <c r="O36"/>
-      <c r="P36"/>
-      <c r="Q36"/>
-      <c r="R36"/>
+        <v>30</v>
+      </c>
+      <c r="O36" t="s">
+        <v>362</v>
+      </c>
+      <c r="P36" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>364</v>
+      </c>
+      <c r="R36" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>20257355</v>
       </c>
       <c r="B37" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="C37" t="s">
         <v>63</v>
       </c>
       <c r="D37" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="E37" t="s">
         <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="G37" t="s">
         <v>23</v>
       </c>
       <c r="H37" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="I37" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="J37" t="s">
         <v>68</v>
       </c>
       <c r="K37" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="L37" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="M37" t="s">
         <v>71</v>
       </c>
       <c r="N37" t="s">
-        <v>282</v>
-      </c>
-      <c r="O37"/>
-      <c r="P37"/>
+        <v>30</v>
+      </c>
+      <c r="O37" t="s">
+        <v>372</v>
+      </c>
+      <c r="P37" t="s">
+        <v>373</v>
+      </c>
       <c r="Q37"/>
-      <c r="R37"/>
+      <c r="R37" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>20257419</v>
       </c>
       <c r="B38" t="s">
-        <v>344</v>
+        <v>374</v>
       </c>
       <c r="C38" t="s">
         <v>63</v>
       </c>
       <c r="D38" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="E38" t="s">
         <v>21</v>
       </c>
       <c r="F38" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="G38" t="s">
         <v>23</v>
       </c>
       <c r="H38" t="s">
-        <v>346</v>
+        <v>376</v>
       </c>
       <c r="I38" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="J38" t="s">
         <v>68</v>
       </c>
       <c r="K38" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="L38" t="s">
-        <v>349</v>
+        <v>379</v>
       </c>
       <c r="M38" t="s">
         <v>71</v>
       </c>
       <c r="N38" t="s">
-        <v>282</v>
-      </c>
-      <c r="O38"/>
-      <c r="P38"/>
-      <c r="Q38"/>
-      <c r="R38"/>
+        <v>30</v>
+      </c>
+      <c r="O38" t="s">
+        <v>380</v>
+      </c>
+      <c r="P38" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>382</v>
+      </c>
+      <c r="R38" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>20253479</v>
       </c>
       <c r="B39" t="s">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="C39" t="s">
         <v>51</v>
       </c>
       <c r="D39" t="s">
-        <v>351</v>
+        <v>384</v>
       </c>
       <c r="E39" t="s">
         <v>110</v>
       </c>
       <c r="F39" t="s">
-        <v>352</v>
+        <v>385</v>
       </c>
       <c r="G39" t="s">
         <v>23</v>
       </c>
       <c r="H39" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="I39" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="J39" t="s">
         <v>26</v>
       </c>
       <c r="K39" t="s">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="L39" t="s">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="M39" t="s">
         <v>45</v>
       </c>
       <c r="N39" t="s">
-        <v>282</v>
-      </c>
-      <c r="O39"/>
-      <c r="P39"/>
-      <c r="Q39"/>
-      <c r="R39"/>
+        <v>30</v>
+      </c>
+      <c r="O39" t="s">
+        <v>390</v>
+      </c>
+      <c r="P39" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>392</v>
+      </c>
+      <c r="R39" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>20253444</v>
       </c>
       <c r="B40" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="C40" t="s">
         <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>358</v>
+        <v>394</v>
       </c>
       <c r="E40" t="s">
         <v>37</v>
       </c>
       <c r="F40" t="s">
-        <v>359</v>
+        <v>395</v>
       </c>
       <c r="G40" t="s">
         <v>23</v>
       </c>
       <c r="H40" t="s">
-        <v>360</v>
+        <v>396</v>
       </c>
       <c r="I40" t="s">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="J40" t="s">
         <v>26</v>
       </c>
       <c r="K40" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="L40" t="s">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="M40" t="s">
         <v>29</v>
       </c>
       <c r="N40" t="s">
-        <v>282</v>
-      </c>
-      <c r="O40"/>
-      <c r="P40"/>
-      <c r="Q40"/>
-      <c r="R40"/>
+        <v>30</v>
+      </c>
+      <c r="O40" t="s">
+        <v>400</v>
+      </c>
+      <c r="P40" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>402</v>
+      </c>
+      <c r="R40" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>20253309</v>
+        <v>20253425</v>
       </c>
       <c r="B41" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="C41" t="s">
         <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>195</v>
-      </c>
-      <c r="E41" t="s">
-        <v>196</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="E41"/>
       <c r="F41" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="G41" t="s">
         <v>23</v>
       </c>
       <c r="H41" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="I41" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="J41" t="s">
         <v>26</v>
       </c>
       <c r="K41" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="L41" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="M41" t="s">
         <v>45</v>
       </c>
       <c r="N41" t="s">
-        <v>282</v>
-      </c>
-      <c r="O41"/>
-      <c r="P41"/>
-      <c r="Q41"/>
-      <c r="R41"/>
+        <v>30</v>
+      </c>
+      <c r="O41" t="s">
+        <v>410</v>
+      </c>
+      <c r="P41" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>412</v>
+      </c>
+      <c r="R41" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>20253399</v>
+        <v>20253309</v>
       </c>
       <c r="B42" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="D42" t="s">
-        <v>371</v>
+        <v>195</v>
       </c>
       <c r="E42" t="s">
-        <v>110</v>
+        <v>196</v>
       </c>
       <c r="F42" t="s">
-        <v>365</v>
+        <v>414</v>
       </c>
       <c r="G42" t="s">
         <v>23</v>
       </c>
       <c r="H42" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
       <c r="I42" t="s">
-        <v>373</v>
+        <v>416</v>
       </c>
       <c r="J42" t="s">
         <v>26</v>
       </c>
       <c r="K42" t="s">
-        <v>374</v>
+        <v>417</v>
       </c>
       <c r="L42" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="M42" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="N42" t="s">
-        <v>282</v>
-      </c>
-      <c r="O42"/>
-      <c r="P42"/>
-      <c r="Q42"/>
-      <c r="R42"/>
+        <v>30</v>
+      </c>
+      <c r="O42" t="s">
+        <v>419</v>
+      </c>
+      <c r="P42" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>421</v>
+      </c>
+      <c r="R42" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>20253404</v>
+        <v>20253399</v>
       </c>
       <c r="B43" t="s">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D43" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
       <c r="E43" t="s">
         <v>110</v>
       </c>
       <c r="F43" t="s">
-        <v>365</v>
+        <v>414</v>
       </c>
       <c r="G43" t="s">
         <v>23</v>
       </c>
       <c r="H43" t="s">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="I43" t="s">
-        <v>379</v>
+        <v>425</v>
       </c>
       <c r="J43" t="s">
         <v>26</v>
       </c>
       <c r="K43" t="s">
-        <v>380</v>
+        <v>426</v>
       </c>
       <c r="L43" t="s">
-        <v>381</v>
+        <v>427</v>
       </c>
       <c r="M43" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="N43" t="s">
-        <v>282</v>
-      </c>
-      <c r="O43"/>
-      <c r="P43"/>
-      <c r="Q43"/>
-      <c r="R43"/>
+        <v>30</v>
+      </c>
+      <c r="O43" t="s">
+        <v>428</v>
+      </c>
+      <c r="P43" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>430</v>
+      </c>
+      <c r="R43" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>20253417</v>
+        <v>20253404</v>
       </c>
       <c r="B44" t="s">
-        <v>382</v>
+        <v>431</v>
       </c>
       <c r="C44" t="s">
         <v>19</v>
       </c>
       <c r="D44" t="s">
-        <v>383</v>
+        <v>432</v>
       </c>
       <c r="E44" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="F44" t="s">
-        <v>365</v>
+        <v>414</v>
       </c>
       <c r="G44" t="s">
         <v>23</v>
       </c>
       <c r="H44" t="s">
-        <v>384</v>
+        <v>433</v>
       </c>
       <c r="I44" t="s">
-        <v>385</v>
+        <v>434</v>
       </c>
       <c r="J44" t="s">
         <v>26</v>
       </c>
       <c r="K44" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="L44" t="s">
-        <v>387</v>
+        <v>436</v>
       </c>
       <c r="M44" t="s">
         <v>71</v>
       </c>
       <c r="N44" t="s">
-        <v>282</v>
-      </c>
-      <c r="O44"/>
-      <c r="P44"/>
-      <c r="Q44"/>
-      <c r="R44"/>
+        <v>30</v>
+      </c>
+      <c r="O44" t="s">
+        <v>437</v>
+      </c>
+      <c r="P44" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>439</v>
+      </c>
+      <c r="R44" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>20251011</v>
+        <v>20253417</v>
       </c>
       <c r="B45" t="s">
-        <v>388</v>
+        <v>441</v>
       </c>
       <c r="C45" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="E45" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="F45" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="G45" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="H45" t="s">
-        <v>391</v>
+        <v>443</v>
       </c>
       <c r="I45" t="s">
-        <v>392</v>
+        <v>444</v>
       </c>
       <c r="J45" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="K45" t="s">
-        <v>393</v>
+        <v>445</v>
       </c>
       <c r="L45" t="s">
-        <v>394</v>
+        <v>446</v>
       </c>
       <c r="M45" t="s">
         <v>71</v>
       </c>
       <c r="N45" t="s">
-        <v>282</v>
-      </c>
-      <c r="O45"/>
-      <c r="P45"/>
-      <c r="Q45"/>
-      <c r="R45"/>
+        <v>30</v>
+      </c>
+      <c r="O45" t="s">
+        <v>447</v>
+      </c>
+      <c r="P45" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>449</v>
+      </c>
+      <c r="R45" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>20253194</v>
+        <v>20251011</v>
       </c>
       <c r="B46" t="s">
-        <v>395</v>
+        <v>450</v>
       </c>
       <c r="C46" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D46" t="s">
-        <v>396</v>
+        <v>451</v>
       </c>
       <c r="E46" t="s">
-        <v>306</v>
+        <v>76</v>
       </c>
       <c r="F46" t="s">
-        <v>390</v>
+        <v>452</v>
       </c>
       <c r="G46" t="s">
         <v>39</v>
       </c>
       <c r="H46" t="s">
-        <v>397</v>
+        <v>453</v>
       </c>
       <c r="I46" t="s">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="J46" t="s">
         <v>68</v>
       </c>
       <c r="K46" t="s">
-        <v>399</v>
+        <v>455</v>
       </c>
       <c r="L46" t="s">
-        <v>400</v>
+        <v>456</v>
       </c>
       <c r="M46" t="s">
         <v>71</v>
       </c>
       <c r="N46" t="s">
-        <v>282</v>
-      </c>
-      <c r="O46"/>
-      <c r="P46"/>
-      <c r="Q46"/>
-      <c r="R46"/>
+        <v>30</v>
+      </c>
+      <c r="O46" t="s">
+        <v>457</v>
+      </c>
+      <c r="P46" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>459</v>
+      </c>
+      <c r="R46" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>20253203</v>
+        <v>20253194</v>
       </c>
       <c r="B47" t="s">
-        <v>401</v>
+        <v>460</v>
       </c>
       <c r="C47" t="s">
         <v>51</v>
       </c>
       <c r="D47" t="s">
-        <v>402</v>
+        <v>461</v>
       </c>
       <c r="E47" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="F47" t="s">
-        <v>390</v>
+        <v>452</v>
       </c>
       <c r="G47" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="H47" t="s">
-        <v>403</v>
+        <v>462</v>
       </c>
       <c r="I47" t="s">
-        <v>404</v>
+        <v>463</v>
       </c>
       <c r="J47" t="s">
         <v>68</v>
       </c>
       <c r="K47" t="s">
-        <v>405</v>
+        <v>464</v>
       </c>
       <c r="L47" t="s">
-        <v>406</v>
+        <v>465</v>
       </c>
       <c r="M47" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="N47" t="s">
-        <v>282</v>
-      </c>
-      <c r="O47"/>
-      <c r="P47"/>
-      <c r="Q47"/>
-      <c r="R47"/>
+        <v>30</v>
+      </c>
+      <c r="O47" t="s">
+        <v>466</v>
+      </c>
+      <c r="P47" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>468</v>
+      </c>
+      <c r="R47" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>20253213</v>
+        <v>20253203</v>
       </c>
       <c r="B48" t="s">
-        <v>407</v>
+        <v>469</v>
       </c>
       <c r="C48" t="s">
         <v>51</v>
       </c>
       <c r="D48" t="s">
-        <v>408</v>
+        <v>470</v>
       </c>
       <c r="E48" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="F48" t="s">
-        <v>390</v>
+        <v>452</v>
       </c>
       <c r="G48" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="H48" t="s">
-        <v>409</v>
+        <v>471</v>
       </c>
       <c r="I48" t="s">
-        <v>410</v>
+        <v>472</v>
       </c>
       <c r="J48" t="s">
         <v>68</v>
       </c>
       <c r="K48" t="s">
-        <v>411</v>
+        <v>473</v>
       </c>
       <c r="L48" t="s">
-        <v>412</v>
+        <v>474</v>
       </c>
       <c r="M48" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="N48" t="s">
-        <v>282</v>
-      </c>
-      <c r="O48"/>
-      <c r="P48"/>
-      <c r="Q48"/>
-      <c r="R48"/>
+        <v>30</v>
+      </c>
+      <c r="O48" t="s">
+        <v>475</v>
+      </c>
+      <c r="P48" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>477</v>
+      </c>
+      <c r="R48" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>20253214</v>
+        <v>20253213</v>
       </c>
       <c r="B49" t="s">
-        <v>413</v>
+        <v>478</v>
       </c>
       <c r="C49" t="s">
         <v>51</v>
       </c>
       <c r="D49" t="s">
-        <v>402</v>
+        <v>479</v>
       </c>
       <c r="E49" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="F49" t="s">
-        <v>390</v>
+        <v>452</v>
       </c>
       <c r="G49" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="H49" t="s">
-        <v>414</v>
+        <v>480</v>
       </c>
       <c r="I49" t="s">
-        <v>415</v>
+        <v>481</v>
       </c>
       <c r="J49" t="s">
         <v>68</v>
       </c>
       <c r="K49" t="s">
-        <v>416</v>
+        <v>482</v>
       </c>
       <c r="L49" t="s">
-        <v>417</v>
+        <v>483</v>
       </c>
       <c r="M49" t="s">
         <v>71</v>
       </c>
       <c r="N49" t="s">
-        <v>282</v>
-      </c>
-      <c r="O49"/>
-      <c r="P49"/>
-      <c r="Q49"/>
-      <c r="R49"/>
+        <v>30</v>
+      </c>
+      <c r="O49" t="s">
+        <v>484</v>
+      </c>
+      <c r="P49" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>486</v>
+      </c>
+      <c r="R49" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>20253093</v>
+        <v>20253214</v>
       </c>
       <c r="B50" t="s">
-        <v>418</v>
+        <v>487</v>
       </c>
       <c r="C50" t="s">
         <v>51</v>
       </c>
       <c r="D50" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="E50" t="s">
-        <v>110</v>
+        <v>319</v>
       </c>
       <c r="F50" t="s">
-        <v>420</v>
+        <v>452</v>
       </c>
       <c r="G50" t="s">
         <v>23</v>
       </c>
       <c r="H50" t="s">
-        <v>421</v>
+        <v>488</v>
       </c>
       <c r="I50" t="s">
-        <v>422</v>
+        <v>489</v>
       </c>
       <c r="J50" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="K50" t="s">
-        <v>423</v>
+        <v>490</v>
       </c>
       <c r="L50" t="s">
-        <v>424</v>
+        <v>491</v>
       </c>
       <c r="M50" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="N50" t="s">
-        <v>282</v>
-      </c>
-      <c r="O50"/>
-      <c r="P50"/>
-      <c r="Q50"/>
-      <c r="R50"/>
+        <v>30</v>
+      </c>
+      <c r="O50" t="s">
+        <v>492</v>
+      </c>
+      <c r="P50" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>494</v>
+      </c>
+      <c r="R50" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>20257213</v>
+        <v>20253246</v>
       </c>
       <c r="B51" t="s">
-        <v>425</v>
+        <v>495</v>
       </c>
       <c r="C51" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="D51" t="s">
-        <v>371</v>
+        <v>496</v>
       </c>
       <c r="E51" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="F51" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="G51" t="s">
         <v>23</v>
       </c>
       <c r="H51" t="s">
-        <v>427</v>
+        <v>497</v>
       </c>
       <c r="I51" t="s">
-        <v>428</v>
+        <v>498</v>
       </c>
       <c r="J51" t="s">
-        <v>68</v>
+        <v>224</v>
       </c>
       <c r="K51" t="s">
-        <v>429</v>
+        <v>499</v>
       </c>
       <c r="L51" t="s">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="M51" t="s">
         <v>45</v>
       </c>
       <c r="N51" t="s">
-        <v>282</v>
-      </c>
-      <c r="O51"/>
-      <c r="P51"/>
-      <c r="Q51"/>
-      <c r="R51"/>
+        <v>30</v>
+      </c>
+      <c r="O51" t="s">
+        <v>501</v>
+      </c>
+      <c r="P51" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>503</v>
+      </c>
+      <c r="R51" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>20253054</v>
+        <v>20253093</v>
       </c>
       <c r="B52" t="s">
-        <v>431</v>
+        <v>504</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D52" t="s">
-        <v>95</v>
+        <v>505</v>
       </c>
       <c r="E52" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="F52" t="s">
-        <v>432</v>
+        <v>506</v>
       </c>
       <c r="G52" t="s">
         <v>23</v>
       </c>
       <c r="H52" t="s">
-        <v>433</v>
+        <v>507</v>
       </c>
       <c r="I52" t="s">
-        <v>434</v>
+        <v>508</v>
       </c>
       <c r="J52" t="s">
         <v>26</v>
       </c>
       <c r="K52" t="s">
-        <v>435</v>
+        <v>509</v>
       </c>
       <c r="L52" t="s">
-        <v>436</v>
+        <v>510</v>
       </c>
       <c r="M52" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="N52" t="s">
-        <v>282</v>
-      </c>
-      <c r="O52"/>
-      <c r="P52"/>
-      <c r="Q52"/>
-      <c r="R52"/>
+        <v>30</v>
+      </c>
+      <c r="O52" t="s">
+        <v>511</v>
+      </c>
+      <c r="P52" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>513</v>
+      </c>
+      <c r="R52" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>20257102</v>
+        <v>20257213</v>
       </c>
       <c r="B53" t="s">
-        <v>437</v>
+        <v>514</v>
       </c>
       <c r="C53" t="s">
         <v>63</v>
       </c>
       <c r="D53" t="s">
-        <v>175</v>
+        <v>423</v>
       </c>
       <c r="E53" t="s">
         <v>110</v>
       </c>
       <c r="F53" t="s">
-        <v>432</v>
+        <v>515</v>
       </c>
       <c r="G53" t="s">
         <v>23</v>
       </c>
       <c r="H53" t="s">
-        <v>438</v>
+        <v>516</v>
       </c>
       <c r="I53" t="s">
-        <v>439</v>
+        <v>517</v>
       </c>
       <c r="J53" t="s">
         <v>68</v>
       </c>
       <c r="K53" t="s">
-        <v>440</v>
+        <v>518</v>
       </c>
       <c r="L53" t="s">
-        <v>441</v>
+        <v>519</v>
       </c>
       <c r="M53" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="N53" t="s">
-        <v>282</v>
-      </c>
-      <c r="O53"/>
-      <c r="P53"/>
+        <v>30</v>
+      </c>
+      <c r="O53" t="s">
+        <v>520</v>
+      </c>
+      <c r="P53" t="s">
+        <v>521</v>
+      </c>
       <c r="Q53"/>
-      <c r="R53"/>
+      <c r="R53" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>20257129</v>
+        <v>20253054</v>
       </c>
       <c r="B54" t="s">
-        <v>442</v>
+        <v>522</v>
       </c>
       <c r="C54" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>358</v>
+        <v>95</v>
       </c>
       <c r="E54" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="F54" t="s">
-        <v>432</v>
+        <v>523</v>
       </c>
       <c r="G54" t="s">
         <v>23</v>
       </c>
       <c r="H54" t="s">
-        <v>443</v>
+        <v>524</v>
       </c>
       <c r="I54" t="s">
-        <v>444</v>
+        <v>525</v>
       </c>
       <c r="J54" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="K54" t="s">
-        <v>445</v>
+        <v>526</v>
       </c>
       <c r="L54" t="s">
-        <v>446</v>
+        <v>527</v>
       </c>
       <c r="M54" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="N54" t="s">
-        <v>282</v>
-      </c>
-      <c r="O54"/>
-      <c r="P54"/>
-      <c r="Q54"/>
-      <c r="R54"/>
+        <v>30</v>
+      </c>
+      <c r="O54" t="s">
+        <v>528</v>
+      </c>
+      <c r="P54" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>530</v>
+      </c>
+      <c r="R54" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>20257138</v>
+        <v>20257102</v>
       </c>
       <c r="B55" t="s">
-        <v>447</v>
+        <v>531</v>
       </c>
       <c r="C55" t="s">
         <v>63</v>
       </c>
       <c r="D55" t="s">
-        <v>448</v>
+        <v>175</v>
       </c>
       <c r="E55" t="s">
         <v>110</v>
       </c>
       <c r="F55" t="s">
-        <v>432</v>
+        <v>523</v>
       </c>
       <c r="G55" t="s">
         <v>23</v>
       </c>
       <c r="H55" t="s">
-        <v>449</v>
+        <v>532</v>
       </c>
       <c r="I55" t="s">
-        <v>450</v>
+        <v>533</v>
       </c>
       <c r="J55" t="s">
         <v>68</v>
       </c>
       <c r="K55" t="s">
-        <v>451</v>
+        <v>534</v>
       </c>
       <c r="L55" t="s">
-        <v>452</v>
+        <v>535</v>
       </c>
       <c r="M55" t="s">
         <v>71</v>
       </c>
       <c r="N55" t="s">
-        <v>282</v>
-      </c>
-      <c r="O55"/>
-      <c r="P55"/>
+        <v>30</v>
+      </c>
+      <c r="O55" t="s">
+        <v>536</v>
+      </c>
+      <c r="P55" t="s">
+        <v>537</v>
+      </c>
       <c r="Q55"/>
-      <c r="R55"/>
+      <c r="R55" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>20253031</v>
+        <v>20257129</v>
       </c>
       <c r="B56" t="s">
-        <v>453</v>
+        <v>538</v>
       </c>
       <c r="C56" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D56" t="s">
-        <v>454</v>
+        <v>394</v>
       </c>
       <c r="E56" t="s">
-        <v>455</v>
+        <v>37</v>
       </c>
       <c r="F56" t="s">
-        <v>456</v>
+        <v>523</v>
       </c>
       <c r="G56" t="s">
         <v>23</v>
       </c>
       <c r="H56" t="s">
-        <v>457</v>
+        <v>539</v>
       </c>
       <c r="I56" t="s">
-        <v>458</v>
+        <v>540</v>
       </c>
       <c r="J56" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="K56" t="s">
-        <v>459</v>
+        <v>541</v>
       </c>
       <c r="L56" t="s">
-        <v>460</v>
+        <v>542</v>
       </c>
       <c r="M56" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="N56" t="s">
-        <v>282</v>
-      </c>
-      <c r="O56"/>
-      <c r="P56"/>
+        <v>30</v>
+      </c>
+      <c r="O56" t="s">
+        <v>543</v>
+      </c>
+      <c r="P56" t="s">
+        <v>544</v>
+      </c>
       <c r="Q56"/>
-      <c r="R56"/>
+      <c r="R56" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>20257012</v>
+        <v>20257138</v>
       </c>
       <c r="B57" t="s">
-        <v>461</v>
+        <v>545</v>
       </c>
       <c r="C57" t="s">
         <v>63</v>
       </c>
       <c r="D57" t="s">
-        <v>462</v>
+        <v>546</v>
       </c>
       <c r="E57" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="F57" t="s">
-        <v>456</v>
+        <v>523</v>
       </c>
       <c r="G57" t="s">
         <v>23</v>
       </c>
       <c r="H57" t="s">
-        <v>463</v>
+        <v>547</v>
       </c>
       <c r="I57" t="s">
-        <v>464</v>
+        <v>548</v>
       </c>
       <c r="J57" t="s">
         <v>68</v>
       </c>
       <c r="K57" t="s">
-        <v>465</v>
+        <v>549</v>
       </c>
       <c r="L57" t="s">
-        <v>466</v>
+        <v>550</v>
       </c>
       <c r="M57" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="N57" t="s">
-        <v>282</v>
-      </c>
-      <c r="O57"/>
-      <c r="P57"/>
+        <v>30</v>
+      </c>
+      <c r="O57" t="s">
+        <v>551</v>
+      </c>
+      <c r="P57" t="s">
+        <v>552</v>
+      </c>
       <c r="Q57"/>
-      <c r="R57"/>
+      <c r="R57" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>20253008</v>
+        <v>20253031</v>
       </c>
       <c r="B58" t="s">
-        <v>467</v>
+        <v>553</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D58" t="s">
-        <v>468</v>
-      </c>
-      <c r="E58"/>
+        <v>554</v>
+      </c>
+      <c r="E58" t="s">
+        <v>555</v>
+      </c>
       <c r="F58" t="s">
-        <v>469</v>
+        <v>556</v>
       </c>
       <c r="G58" t="s">
         <v>23</v>
       </c>
       <c r="H58" t="s">
-        <v>470</v>
+        <v>557</v>
       </c>
       <c r="I58" t="s">
-        <v>471</v>
+        <v>558</v>
       </c>
       <c r="J58" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="K58" t="s">
-        <v>472</v>
+        <v>559</v>
       </c>
       <c r="L58" t="s">
-        <v>473</v>
+        <v>560</v>
       </c>
       <c r="M58" t="s">
         <v>71</v>
       </c>
       <c r="N58" t="s">
-        <v>282</v>
-      </c>
-      <c r="O58"/>
-      <c r="P58"/>
-      <c r="Q58"/>
-      <c r="R58"/>
+        <v>30</v>
+      </c>
+      <c r="O58" t="s">
+        <v>561</v>
+      </c>
+      <c r="P58" t="s">
+        <v>562</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>563</v>
+      </c>
+      <c r="R58" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>20244404</v>
+        <v>20257012</v>
       </c>
       <c r="B59" t="s">
-        <v>474</v>
+        <v>565</v>
       </c>
       <c r="C59" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D59" t="s">
-        <v>475</v>
+        <v>566</v>
       </c>
       <c r="E59" t="s">
-        <v>306</v>
+        <v>21</v>
       </c>
       <c r="F59" t="s">
-        <v>476</v>
+        <v>556</v>
       </c>
       <c r="G59" t="s">
         <v>23</v>
       </c>
       <c r="H59" t="s">
-        <v>477</v>
+        <v>567</v>
       </c>
       <c r="I59" t="s">
-        <v>478</v>
+        <v>568</v>
       </c>
       <c r="J59" t="s">
         <v>68</v>
       </c>
       <c r="K59" t="s">
-        <v>479</v>
+        <v>569</v>
       </c>
       <c r="L59" t="s">
-        <v>480</v>
+        <v>570</v>
       </c>
       <c r="M59" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="N59" t="s">
-        <v>282</v>
-      </c>
-      <c r="O59"/>
-      <c r="P59"/>
+        <v>30</v>
+      </c>
+      <c r="O59" t="s">
+        <v>571</v>
+      </c>
+      <c r="P59" t="s">
+        <v>572</v>
+      </c>
       <c r="Q59"/>
-      <c r="R59"/>
+      <c r="R59" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>20244419</v>
+        <v>20253008</v>
       </c>
       <c r="B60" t="s">
-        <v>481</v>
+        <v>573</v>
       </c>
       <c r="C60" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="D60" t="s">
-        <v>325</v>
-      </c>
-      <c r="E60" t="s">
-        <v>37</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="E60"/>
       <c r="F60" t="s">
-        <v>476</v>
+        <v>575</v>
       </c>
       <c r="G60" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="H60" t="s">
-        <v>482</v>
+        <v>576</v>
       </c>
       <c r="I60" t="s">
-        <v>483</v>
+        <v>577</v>
       </c>
       <c r="J60" t="s">
         <v>68</v>
       </c>
       <c r="K60" t="s">
-        <v>484</v>
+        <v>578</v>
       </c>
       <c r="L60" t="s">
-        <v>485</v>
+        <v>579</v>
       </c>
       <c r="M60" t="s">
         <v>71</v>
       </c>
       <c r="N60" t="s">
-        <v>282</v>
-      </c>
-      <c r="O60"/>
-      <c r="P60"/>
-      <c r="Q60"/>
-      <c r="R60"/>
+        <v>30</v>
+      </c>
+      <c r="O60" t="s">
+        <v>580</v>
+      </c>
+      <c r="P60" t="s">
+        <v>581</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>582</v>
+      </c>
+      <c r="R60" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>20248043</v>
+        <v>20244404</v>
       </c>
       <c r="B61" t="s">
-        <v>486</v>
+        <v>583</v>
       </c>
       <c r="C61" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D61" t="s">
-        <v>487</v>
+        <v>584</v>
       </c>
       <c r="E61" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="F61" t="s">
-        <v>488</v>
+        <v>585</v>
       </c>
       <c r="G61" t="s">
         <v>23</v>
       </c>
       <c r="H61" t="s">
-        <v>489</v>
+        <v>586</v>
       </c>
       <c r="I61" t="s">
-        <v>490</v>
+        <v>587</v>
       </c>
       <c r="J61" t="s">
         <v>68</v>
       </c>
       <c r="K61" t="s">
-        <v>491</v>
+        <v>588</v>
       </c>
       <c r="L61" t="s">
-        <v>492</v>
+        <v>589</v>
       </c>
       <c r="M61" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="N61" t="s">
-        <v>282</v>
-      </c>
-      <c r="O61"/>
-      <c r="P61"/>
-      <c r="Q61"/>
-      <c r="R61"/>
+        <v>30</v>
+      </c>
+      <c r="O61" t="s">
+        <v>590</v>
+      </c>
+      <c r="P61" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>592</v>
+      </c>
+      <c r="R61" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>20244290</v>
+        <v>20244419</v>
       </c>
       <c r="B62" t="s">
-        <v>493</v>
+        <v>593</v>
       </c>
       <c r="C62" t="s">
         <v>51</v>
       </c>
       <c r="D62" t="s">
-        <v>494</v>
+        <v>347</v>
       </c>
       <c r="E62" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="F62" t="s">
-        <v>495</v>
+        <v>585</v>
       </c>
       <c r="G62" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="H62" t="s">
-        <v>496</v>
+        <v>594</v>
       </c>
       <c r="I62" t="s">
-        <v>497</v>
+        <v>595</v>
       </c>
       <c r="J62" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="K62" t="s">
-        <v>498</v>
+        <v>596</v>
       </c>
       <c r="L62" t="s">
-        <v>499</v>
+        <v>597</v>
       </c>
       <c r="M62" t="s">
         <v>71</v>
       </c>
       <c r="N62" t="s">
-        <v>282</v>
-      </c>
-      <c r="O62"/>
-      <c r="P62"/>
-      <c r="Q62"/>
-      <c r="R62"/>
+        <v>30</v>
+      </c>
+      <c r="O62" t="s">
+        <v>598</v>
+      </c>
+      <c r="P62" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>600</v>
+      </c>
+      <c r="R62" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>20244278</v>
+        <v>20248043</v>
       </c>
       <c r="B63" t="s">
-        <v>500</v>
+        <v>601</v>
       </c>
       <c r="C63" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D63" t="s">
-        <v>501</v>
+        <v>602</v>
       </c>
       <c r="E63" t="s">
-        <v>110</v>
+        <v>319</v>
       </c>
       <c r="F63" t="s">
-        <v>502</v>
+        <v>603</v>
       </c>
       <c r="G63" t="s">
         <v>23</v>
       </c>
       <c r="H63" t="s">
-        <v>503</v>
+        <v>604</v>
       </c>
       <c r="I63" t="s">
-        <v>504</v>
+        <v>605</v>
       </c>
       <c r="J63" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="K63" t="s">
-        <v>505</v>
+        <v>606</v>
       </c>
       <c r="L63" t="s">
-        <v>506</v>
+        <v>607</v>
       </c>
       <c r="M63" t="s">
         <v>45</v>
       </c>
       <c r="N63" t="s">
-        <v>282</v>
-      </c>
-      <c r="O63"/>
-      <c r="P63"/>
+        <v>30</v>
+      </c>
+      <c r="O63" t="s">
+        <v>608</v>
+      </c>
+      <c r="P63" t="s">
+        <v>609</v>
+      </c>
       <c r="Q63"/>
-      <c r="R63"/>
+      <c r="R63" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>20244082</v>
+        <v>20247975</v>
       </c>
       <c r="B64" t="s">
-        <v>507</v>
+        <v>611</v>
       </c>
       <c r="C64" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D64" t="s">
-        <v>383</v>
+        <v>612</v>
       </c>
       <c r="E64" t="s">
         <v>21</v>
       </c>
       <c r="F64" t="s">
-        <v>508</v>
+        <v>603</v>
       </c>
       <c r="G64" t="s">
         <v>23</v>
       </c>
       <c r="H64" t="s">
-        <v>509</v>
+        <v>613</v>
       </c>
       <c r="I64" t="s">
-        <v>510</v>
+        <v>614</v>
       </c>
       <c r="J64" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="K64" t="s">
-        <v>511</v>
+        <v>615</v>
       </c>
       <c r="L64" t="s">
-        <v>512</v>
+        <v>616</v>
       </c>
       <c r="M64" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="N64" t="s">
-        <v>282</v>
-      </c>
-      <c r="O64"/>
-      <c r="P64"/>
+        <v>30</v>
+      </c>
+      <c r="O64" t="s">
+        <v>617</v>
+      </c>
+      <c r="P64" t="s">
+        <v>618</v>
+      </c>
       <c r="Q64"/>
-      <c r="R64"/>
+      <c r="R64" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>20244112</v>
+        <v>20244290</v>
       </c>
       <c r="B65" t="s">
-        <v>513</v>
+        <v>619</v>
       </c>
       <c r="C65" t="s">
         <v>51</v>
       </c>
       <c r="D65" t="s">
-        <v>514</v>
+        <v>620</v>
       </c>
       <c r="E65" t="s">
         <v>76</v>
       </c>
       <c r="F65" t="s">
-        <v>508</v>
+        <v>621</v>
       </c>
       <c r="G65" t="s">
         <v>23</v>
       </c>
       <c r="H65" t="s">
-        <v>515</v>
+        <v>622</v>
       </c>
       <c r="I65" t="s">
-        <v>516</v>
+        <v>623</v>
       </c>
       <c r="J65" t="s">
         <v>26</v>
       </c>
       <c r="K65" t="s">
-        <v>517</v>
+        <v>624</v>
       </c>
       <c r="L65" t="s">
-        <v>518</v>
+        <v>625</v>
       </c>
       <c r="M65" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="N65" t="s">
-        <v>282</v>
-      </c>
-      <c r="O65"/>
-      <c r="P65"/>
-      <c r="Q65"/>
-      <c r="R65"/>
+        <v>30</v>
+      </c>
+      <c r="O65" t="s">
+        <v>626</v>
+      </c>
+      <c r="P65" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>628</v>
+      </c>
+      <c r="R65" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>20244131</v>
+        <v>20244278</v>
       </c>
       <c r="B66" t="s">
-        <v>519</v>
+        <v>629</v>
       </c>
       <c r="C66" t="s">
         <v>51</v>
       </c>
       <c r="D66" t="s">
-        <v>75</v>
+        <v>630</v>
       </c>
       <c r="E66" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F66" t="s">
-        <v>508</v>
+        <v>631</v>
       </c>
       <c r="G66" t="s">
         <v>23</v>
       </c>
       <c r="H66" t="s">
-        <v>520</v>
+        <v>632</v>
       </c>
       <c r="I66" t="s">
-        <v>521</v>
+        <v>633</v>
       </c>
       <c r="J66" t="s">
         <v>26</v>
       </c>
       <c r="K66" t="s">
-        <v>522</v>
+        <v>634</v>
       </c>
       <c r="L66" t="s">
-        <v>523</v>
+        <v>635</v>
       </c>
       <c r="M66" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="N66" t="s">
-        <v>282</v>
-      </c>
-      <c r="O66"/>
-      <c r="P66"/>
-      <c r="Q66"/>
-      <c r="R66"/>
+        <v>30</v>
+      </c>
+      <c r="O66" t="s">
+        <v>636</v>
+      </c>
+      <c r="P66" t="s">
+        <v>637</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>638</v>
+      </c>
+      <c r="R66" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>20244132</v>
+        <v>20244082</v>
       </c>
       <c r="B67" t="s">
-        <v>524</v>
+        <v>639</v>
       </c>
       <c r="C67" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="D67" t="s">
-        <v>195</v>
+        <v>442</v>
       </c>
       <c r="E67" t="s">
-        <v>196</v>
+        <v>21</v>
       </c>
       <c r="F67" t="s">
-        <v>508</v>
+        <v>640</v>
       </c>
       <c r="G67" t="s">
         <v>23</v>
       </c>
       <c r="H67" t="s">
-        <v>525</v>
+        <v>641</v>
       </c>
       <c r="I67" t="s">
-        <v>526</v>
+        <v>642</v>
       </c>
       <c r="J67" t="s">
         <v>26</v>
       </c>
       <c r="K67" t="s">
-        <v>527</v>
+        <v>643</v>
       </c>
       <c r="L67" t="s">
-        <v>528</v>
+        <v>644</v>
       </c>
       <c r="M67" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="N67" t="s">
-        <v>282</v>
-      </c>
-      <c r="O67"/>
-      <c r="P67"/>
-      <c r="Q67"/>
-      <c r="R67"/>
+        <v>30</v>
+      </c>
+      <c r="O67" t="s">
+        <v>645</v>
+      </c>
+      <c r="P67" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>647</v>
+      </c>
+      <c r="R67" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>20244133</v>
+        <v>20244112</v>
       </c>
       <c r="B68" t="s">
-        <v>529</v>
+        <v>648</v>
       </c>
       <c r="C68" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D68" t="s">
-        <v>195</v>
+        <v>649</v>
       </c>
       <c r="E68" t="s">
-        <v>196</v>
+        <v>76</v>
       </c>
       <c r="F68" t="s">
-        <v>508</v>
+        <v>640</v>
       </c>
       <c r="G68" t="s">
         <v>23</v>
       </c>
       <c r="H68" t="s">
-        <v>530</v>
+        <v>650</v>
       </c>
       <c r="I68" t="s">
-        <v>531</v>
+        <v>651</v>
       </c>
       <c r="J68" t="s">
         <v>26</v>
       </c>
       <c r="K68" t="s">
-        <v>532</v>
+        <v>652</v>
       </c>
       <c r="L68" t="s">
-        <v>533</v>
+        <v>653</v>
       </c>
       <c r="M68" t="s">
         <v>29</v>
       </c>
       <c r="N68" t="s">
-        <v>282</v>
-      </c>
-      <c r="O68"/>
-      <c r="P68"/>
-      <c r="Q68"/>
-      <c r="R68"/>
+        <v>30</v>
+      </c>
+      <c r="O68" t="s">
+        <v>654</v>
+      </c>
+      <c r="P68" t="s">
+        <v>655</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>656</v>
+      </c>
+      <c r="R68" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>20244137</v>
+        <v>20244131</v>
       </c>
       <c r="B69" t="s">
-        <v>534</v>
+        <v>657</v>
       </c>
       <c r="C69" t="s">
         <v>51</v>
       </c>
       <c r="D69" t="s">
-        <v>535</v>
+        <v>75</v>
       </c>
       <c r="E69" t="s">
         <v>76</v>
       </c>
       <c r="F69" t="s">
-        <v>508</v>
+        <v>640</v>
       </c>
       <c r="G69" t="s">
         <v>23</v>
       </c>
       <c r="H69" t="s">
-        <v>536</v>
+        <v>658</v>
       </c>
       <c r="I69" t="s">
-        <v>537</v>
+        <v>659</v>
       </c>
       <c r="J69" t="s">
         <v>26</v>
       </c>
       <c r="K69" t="s">
-        <v>538</v>
+        <v>660</v>
       </c>
       <c r="L69" t="s">
-        <v>539</v>
+        <v>661</v>
       </c>
       <c r="M69" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="N69" t="s">
-        <v>282</v>
-      </c>
-      <c r="O69"/>
-      <c r="P69"/>
-      <c r="Q69"/>
-      <c r="R69"/>
+        <v>30</v>
+      </c>
+      <c r="O69" t="s">
+        <v>662</v>
+      </c>
+      <c r="P69" t="s">
+        <v>663</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>664</v>
+      </c>
+      <c r="R69" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>20243948</v>
+        <v>20244132</v>
       </c>
       <c r="B70" t="s">
-        <v>540</v>
+        <v>665</v>
       </c>
       <c r="C70" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="D70" t="s">
-        <v>541</v>
+        <v>195</v>
       </c>
       <c r="E70" t="s">
-        <v>76</v>
+        <v>196</v>
       </c>
       <c r="F70" t="s">
-        <v>542</v>
+        <v>640</v>
       </c>
       <c r="G70" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="H70" t="s">
-        <v>543</v>
+        <v>666</v>
       </c>
       <c r="I70" t="s">
-        <v>544</v>
+        <v>667</v>
       </c>
       <c r="J70" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="K70" t="s">
-        <v>545</v>
+        <v>668</v>
       </c>
       <c r="L70" t="s">
-        <v>546</v>
+        <v>669</v>
       </c>
       <c r="M70" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="N70" t="s">
-        <v>282</v>
-      </c>
-      <c r="O70"/>
-      <c r="P70"/>
-      <c r="Q70"/>
-      <c r="R70"/>
+        <v>30</v>
+      </c>
+      <c r="O70" t="s">
+        <v>670</v>
+      </c>
+      <c r="P70" t="s">
+        <v>671</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>672</v>
+      </c>
+      <c r="R70" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>20247720</v>
+        <v>20244133</v>
       </c>
       <c r="B71" t="s">
-        <v>547</v>
+        <v>673</v>
       </c>
       <c r="C71" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="D71" t="s">
-        <v>358</v>
+        <v>195</v>
       </c>
       <c r="E71" t="s">
-        <v>37</v>
+        <v>196</v>
       </c>
       <c r="F71" t="s">
-        <v>548</v>
+        <v>640</v>
       </c>
       <c r="G71" t="s">
         <v>23</v>
       </c>
       <c r="H71" t="s">
-        <v>549</v>
+        <v>674</v>
       </c>
       <c r="I71" t="s">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="J71" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="K71" t="s">
-        <v>551</v>
+        <v>676</v>
       </c>
       <c r="L71" t="s">
-        <v>552</v>
+        <v>677</v>
       </c>
       <c r="M71" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N71" t="s">
-        <v>282</v>
-      </c>
-      <c r="O71"/>
-      <c r="P71"/>
-      <c r="Q71"/>
-      <c r="R71"/>
+        <v>30</v>
+      </c>
+      <c r="O71" t="s">
+        <v>678</v>
+      </c>
+      <c r="P71" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>680</v>
+      </c>
+      <c r="R71" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>20247726</v>
+        <v>20244137</v>
       </c>
       <c r="B72" t="s">
-        <v>553</v>
+        <v>681</v>
       </c>
       <c r="C72" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D72" t="s">
-        <v>383</v>
+        <v>682</v>
       </c>
       <c r="E72" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="F72" t="s">
-        <v>548</v>
+        <v>640</v>
       </c>
       <c r="G72" t="s">
         <v>23</v>
       </c>
       <c r="H72" t="s">
-        <v>554</v>
+        <v>683</v>
       </c>
       <c r="I72" t="s">
-        <v>555</v>
+        <v>684</v>
       </c>
       <c r="J72" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="K72" t="s">
-        <v>556</v>
+        <v>685</v>
       </c>
       <c r="L72" t="s">
-        <v>557</v>
+        <v>686</v>
       </c>
       <c r="M72" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="N72" t="s">
-        <v>282</v>
-      </c>
-      <c r="O72"/>
-      <c r="P72"/>
-      <c r="Q72"/>
-      <c r="R72"/>
+        <v>30</v>
+      </c>
+      <c r="O72" t="s">
+        <v>687</v>
+      </c>
+      <c r="P72" t="s">
+        <v>688</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>689</v>
+      </c>
+      <c r="R72" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>20247773</v>
+        <v>20243948</v>
       </c>
       <c r="B73" t="s">
-        <v>558</v>
+        <v>690</v>
       </c>
       <c r="C73" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D73" t="s">
-        <v>186</v>
+        <v>691</v>
       </c>
       <c r="E73" t="s">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="F73" t="s">
-        <v>548</v>
+        <v>692</v>
       </c>
       <c r="G73" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="H73" t="s">
-        <v>559</v>
+        <v>693</v>
       </c>
       <c r="I73" t="s">
-        <v>560</v>
+        <v>694</v>
       </c>
       <c r="J73" t="s">
         <v>68</v>
       </c>
       <c r="K73" t="s">
-        <v>561</v>
+        <v>695</v>
       </c>
       <c r="L73" t="s">
-        <v>562</v>
+        <v>696</v>
       </c>
       <c r="M73" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="N73" t="s">
-        <v>282</v>
-      </c>
-      <c r="O73"/>
-      <c r="P73"/>
-      <c r="Q73"/>
-      <c r="R73"/>
+        <v>30</v>
+      </c>
+      <c r="O73" t="s">
+        <v>697</v>
+      </c>
+      <c r="P73" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>699</v>
+      </c>
+      <c r="R73" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>20247774</v>
+        <v>20243937</v>
       </c>
       <c r="B74" t="s">
-        <v>563</v>
+        <v>700</v>
       </c>
       <c r="C74" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="D74" t="s">
-        <v>186</v>
+        <v>701</v>
       </c>
       <c r="E74" t="s">
-        <v>187</v>
+        <v>319</v>
       </c>
       <c r="F74" t="s">
-        <v>548</v>
+        <v>692</v>
       </c>
       <c r="G74" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="H74" t="s">
-        <v>564</v>
+        <v>702</v>
       </c>
       <c r="I74" t="s">
-        <v>565</v>
+        <v>703</v>
       </c>
       <c r="J74" t="s">
-        <v>68</v>
+        <v>267</v>
       </c>
       <c r="K74" t="s">
-        <v>566</v>
+        <v>704</v>
       </c>
       <c r="L74" t="s">
-        <v>567</v>
+        <v>705</v>
       </c>
       <c r="M74" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="N74" t="s">
-        <v>282</v>
-      </c>
-      <c r="O74"/>
-      <c r="P74"/>
-      <c r="Q74"/>
-      <c r="R74"/>
+        <v>30</v>
+      </c>
+      <c r="O74" t="s">
+        <v>706</v>
+      </c>
+      <c r="P74" t="s">
+        <v>707</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>708</v>
+      </c>
+      <c r="R74" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>20243858</v>
+        <v>20247720</v>
       </c>
       <c r="B75" t="s">
-        <v>568</v>
+        <v>709</v>
       </c>
       <c r="C75" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D75" t="s">
-        <v>569</v>
+        <v>394</v>
       </c>
       <c r="E75" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F75" t="s">
-        <v>570</v>
+        <v>710</v>
       </c>
       <c r="G75" t="s">
         <v>23</v>
       </c>
       <c r="H75" t="s">
-        <v>571</v>
+        <v>711</v>
       </c>
       <c r="I75" t="s">
-        <v>572</v>
+        <v>712</v>
       </c>
       <c r="J75" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="K75" t="s">
-        <v>573</v>
+        <v>713</v>
       </c>
       <c r="L75" t="s">
-        <v>574</v>
+        <v>714</v>
       </c>
       <c r="M75" t="s">
         <v>45</v>
       </c>
       <c r="N75" t="s">
-        <v>282</v>
-      </c>
-      <c r="O75"/>
-      <c r="P75"/>
+        <v>30</v>
+      </c>
+      <c r="O75" t="s">
+        <v>715</v>
+      </c>
+      <c r="P75" t="s">
+        <v>716</v>
+      </c>
       <c r="Q75"/>
-      <c r="R75"/>
+      <c r="R75" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>20243877</v>
+        <v>20247726</v>
       </c>
       <c r="B76" t="s">
-        <v>575</v>
+        <v>717</v>
       </c>
       <c r="C76" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D76" t="s">
-        <v>576</v>
+        <v>442</v>
       </c>
       <c r="E76" t="s">
         <v>21</v>
       </c>
       <c r="F76" t="s">
-        <v>570</v>
+        <v>710</v>
       </c>
       <c r="G76" t="s">
         <v>23</v>
       </c>
       <c r="H76" t="s">
-        <v>577</v>
+        <v>718</v>
       </c>
       <c r="I76" t="s">
-        <v>578</v>
+        <v>719</v>
       </c>
       <c r="J76" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="K76" t="s">
-        <v>579</v>
+        <v>720</v>
       </c>
       <c r="L76" t="s">
-        <v>580</v>
+        <v>721</v>
       </c>
       <c r="M76" t="s">
         <v>71</v>
       </c>
       <c r="N76" t="s">
-        <v>282</v>
-      </c>
-      <c r="O76"/>
-      <c r="P76"/>
+        <v>30</v>
+      </c>
+      <c r="O76" t="s">
+        <v>722</v>
+      </c>
+      <c r="P76" t="s">
+        <v>723</v>
+      </c>
       <c r="Q76"/>
-      <c r="R76"/>
+      <c r="R76" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>20247622</v>
+        <v>20247773</v>
       </c>
       <c r="B77" t="s">
-        <v>581</v>
+        <v>724</v>
       </c>
       <c r="C77" t="s">
         <v>63</v>
       </c>
       <c r="D77" t="s">
-        <v>75</v>
+        <v>186</v>
       </c>
       <c r="E77" t="s">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="F77" t="s">
-        <v>582</v>
+        <v>710</v>
       </c>
       <c r="G77" t="s">
         <v>23</v>
       </c>
       <c r="H77" t="s">
-        <v>583</v>
+        <v>725</v>
       </c>
       <c r="I77" t="s">
-        <v>584</v>
+        <v>726</v>
       </c>
       <c r="J77" t="s">
         <v>68</v>
       </c>
       <c r="K77" t="s">
-        <v>585</v>
+        <v>727</v>
       </c>
       <c r="L77" t="s">
-        <v>586</v>
+        <v>728</v>
       </c>
       <c r="M77" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="N77" t="s">
-        <v>282</v>
-      </c>
-      <c r="O77"/>
-      <c r="P77"/>
+        <v>30</v>
+      </c>
+      <c r="O77" t="s">
+        <v>729</v>
+      </c>
+      <c r="P77" t="s">
+        <v>730</v>
+      </c>
       <c r="Q77"/>
-      <c r="R77"/>
+      <c r="R77" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>20247649</v>
+        <v>20247774</v>
       </c>
       <c r="B78" t="s">
-        <v>587</v>
+        <v>731</v>
       </c>
       <c r="C78" t="s">
         <v>63</v>
       </c>
       <c r="D78" t="s">
-        <v>588</v>
+        <v>186</v>
       </c>
       <c r="E78" t="s">
-        <v>37</v>
+        <v>187</v>
       </c>
       <c r="F78" t="s">
-        <v>582</v>
+        <v>710</v>
       </c>
       <c r="G78" t="s">
         <v>23</v>
       </c>
       <c r="H78" t="s">
-        <v>589</v>
+        <v>732</v>
       </c>
       <c r="I78" t="s">
-        <v>590</v>
+        <v>733</v>
       </c>
       <c r="J78" t="s">
         <v>68</v>
       </c>
       <c r="K78" t="s">
-        <v>591</v>
+        <v>734</v>
       </c>
       <c r="L78" t="s">
-        <v>592</v>
+        <v>735</v>
       </c>
       <c r="M78" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="N78" t="s">
-        <v>282</v>
-      </c>
-      <c r="O78"/>
-      <c r="P78"/>
+        <v>30</v>
+      </c>
+      <c r="O78" t="s">
+        <v>736</v>
+      </c>
+      <c r="P78" t="s">
+        <v>737</v>
+      </c>
       <c r="Q78"/>
-      <c r="R78"/>
+      <c r="R78" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>20243709</v>
+        <v>20243858</v>
       </c>
       <c r="B79" t="s">
-        <v>593</v>
+        <v>738</v>
       </c>
       <c r="C79" t="s">
         <v>51</v>
       </c>
       <c r="D79" t="s">
-        <v>594</v>
+        <v>739</v>
       </c>
       <c r="E79" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="F79" t="s">
-        <v>595</v>
+        <v>740</v>
       </c>
       <c r="G79" t="s">
         <v>23</v>
       </c>
       <c r="H79" t="s">
-        <v>596</v>
+        <v>741</v>
       </c>
       <c r="I79" t="s">
-        <v>597</v>
+        <v>742</v>
       </c>
       <c r="J79" t="s">
         <v>26</v>
       </c>
       <c r="K79" t="s">
-        <v>598</v>
+        <v>743</v>
       </c>
       <c r="L79" t="s">
-        <v>599</v>
+        <v>744</v>
       </c>
       <c r="M79" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="N79" t="s">
-        <v>282</v>
-      </c>
-      <c r="O79"/>
-      <c r="P79"/>
-      <c r="Q79"/>
-      <c r="R79"/>
+        <v>30</v>
+      </c>
+      <c r="O79" t="s">
+        <v>745</v>
+      </c>
+      <c r="P79" t="s">
+        <v>746</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>747</v>
+      </c>
+      <c r="R79" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>20243773</v>
+        <v>20243877</v>
       </c>
       <c r="B80" t="s">
-        <v>600</v>
+        <v>748</v>
       </c>
       <c r="C80" t="s">
         <v>51</v>
       </c>
       <c r="D80" t="s">
-        <v>601</v>
+        <v>749</v>
       </c>
       <c r="E80" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="F80" t="s">
-        <v>595</v>
+        <v>740</v>
       </c>
       <c r="G80" t="s">
         <v>23</v>
       </c>
       <c r="H80" t="s">
-        <v>602</v>
+        <v>750</v>
       </c>
       <c r="I80" t="s">
-        <v>603</v>
+        <v>751</v>
       </c>
       <c r="J80" t="s">
         <v>26</v>
       </c>
       <c r="K80" t="s">
-        <v>604</v>
+        <v>752</v>
       </c>
       <c r="L80" t="s">
-        <v>605</v>
+        <v>753</v>
       </c>
       <c r="M80" t="s">
         <v>71</v>
       </c>
       <c r="N80" t="s">
-        <v>282</v>
-      </c>
-      <c r="O80"/>
-      <c r="P80"/>
-      <c r="Q80"/>
-      <c r="R80"/>
+        <v>30</v>
+      </c>
+      <c r="O80" t="s">
+        <v>754</v>
+      </c>
+      <c r="P80" t="s">
+        <v>755</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>756</v>
+      </c>
+      <c r="R80" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>20243776</v>
+        <v>20247622</v>
       </c>
       <c r="B81" t="s">
-        <v>606</v>
+        <v>757</v>
       </c>
       <c r="C81" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="D81" t="s">
-        <v>601</v>
+        <v>75</v>
       </c>
       <c r="E81" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="F81" t="s">
-        <v>595</v>
+        <v>758</v>
       </c>
       <c r="G81" t="s">
         <v>23</v>
       </c>
       <c r="H81" t="s">
-        <v>607</v>
+        <v>759</v>
       </c>
       <c r="I81" t="s">
-        <v>608</v>
+        <v>760</v>
       </c>
       <c r="J81" t="s">
         <v>68</v>
       </c>
       <c r="K81" t="s">
-        <v>609</v>
+        <v>761</v>
       </c>
       <c r="L81" t="s">
-        <v>610</v>
+        <v>762</v>
       </c>
       <c r="M81" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="N81" t="s">
-        <v>282</v>
-      </c>
-      <c r="O81"/>
-      <c r="P81"/>
+        <v>30</v>
+      </c>
+      <c r="O81" t="s">
+        <v>763</v>
+      </c>
+      <c r="P81" t="s">
+        <v>764</v>
+      </c>
       <c r="Q81"/>
-      <c r="R81"/>
+      <c r="R81" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>20243609</v>
+        <v>20247649</v>
       </c>
       <c r="B82" t="s">
-        <v>611</v>
+        <v>765</v>
       </c>
       <c r="C82" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="D82" t="s">
-        <v>612</v>
+        <v>766</v>
       </c>
       <c r="E82" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F82" t="s">
-        <v>613</v>
+        <v>758</v>
       </c>
       <c r="G82" t="s">
         <v>23</v>
       </c>
       <c r="H82" t="s">
-        <v>614</v>
+        <v>767</v>
       </c>
       <c r="I82" t="s">
-        <v>615</v>
+        <v>768</v>
       </c>
       <c r="J82" t="s">
-        <v>616</v>
+        <v>68</v>
       </c>
       <c r="K82" t="s">
-        <v>617</v>
+        <v>769</v>
       </c>
       <c r="L82" t="s">
-        <v>618</v>
+        <v>770</v>
       </c>
       <c r="M82" t="s">
         <v>71</v>
       </c>
       <c r="N82" t="s">
-        <v>282</v>
-      </c>
-      <c r="O82"/>
-      <c r="P82"/>
+        <v>30</v>
+      </c>
+      <c r="O82" t="s">
+        <v>771</v>
+      </c>
+      <c r="P82" t="s">
+        <v>772</v>
+      </c>
       <c r="Q82"/>
-      <c r="R82"/>
+      <c r="R82" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>20243574</v>
+        <v>20243709</v>
       </c>
       <c r="B83" t="s">
-        <v>619</v>
+        <v>773</v>
       </c>
       <c r="C83" t="s">
         <v>51</v>
       </c>
       <c r="D83" t="s">
-        <v>332</v>
+        <v>774</v>
       </c>
       <c r="E83" t="s">
-        <v>306</v>
+        <v>110</v>
       </c>
       <c r="F83" t="s">
-        <v>620</v>
+        <v>775</v>
       </c>
       <c r="G83" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="H83" t="s">
-        <v>621</v>
+        <v>776</v>
       </c>
       <c r="I83" t="s">
-        <v>622</v>
+        <v>777</v>
       </c>
       <c r="J83" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="K83" t="s">
-        <v>623</v>
+        <v>778</v>
       </c>
       <c r="L83" t="s">
-        <v>624</v>
+        <v>779</v>
       </c>
       <c r="M83" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N83" t="s">
-        <v>282</v>
-      </c>
-      <c r="O83"/>
-      <c r="P83"/>
-      <c r="Q83"/>
-      <c r="R83"/>
+        <v>30</v>
+      </c>
+      <c r="O83" t="s">
+        <v>780</v>
+      </c>
+      <c r="P83" t="s">
+        <v>781</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>782</v>
+      </c>
+      <c r="R83" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>20243557</v>
+        <v>20243773</v>
       </c>
       <c r="B84" t="s">
-        <v>625</v>
+        <v>783</v>
       </c>
       <c r="C84" t="s">
         <v>51</v>
       </c>
       <c r="D84" t="s">
-        <v>626</v>
+        <v>784</v>
       </c>
       <c r="E84" t="s">
-        <v>306</v>
+        <v>53</v>
       </c>
       <c r="F84" t="s">
-        <v>627</v>
+        <v>775</v>
       </c>
       <c r="G84" t="s">
         <v>23</v>
       </c>
       <c r="H84" t="s">
-        <v>628</v>
+        <v>785</v>
       </c>
       <c r="I84" t="s">
-        <v>629</v>
+        <v>786</v>
       </c>
       <c r="J84" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="K84" t="s">
-        <v>630</v>
+        <v>787</v>
       </c>
       <c r="L84" t="s">
-        <v>631</v>
+        <v>788</v>
       </c>
       <c r="M84" t="s">
         <v>71</v>
       </c>
       <c r="N84" t="s">
-        <v>282</v>
-      </c>
-      <c r="O84"/>
-      <c r="P84"/>
-      <c r="Q84"/>
-      <c r="R84"/>
+        <v>30</v>
+      </c>
+      <c r="O84" t="s">
+        <v>789</v>
+      </c>
+      <c r="P84" t="s">
+        <v>790</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>791</v>
+      </c>
+      <c r="R84" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>20243471</v>
+        <v>20243776</v>
       </c>
       <c r="B85" t="s">
-        <v>632</v>
+        <v>792</v>
       </c>
       <c r="C85" t="s">
         <v>19</v>
       </c>
       <c r="D85" t="s">
-        <v>633</v>
-      </c>
-      <c r="E85"/>
+        <v>784</v>
+      </c>
+      <c r="E85" t="s">
+        <v>53</v>
+      </c>
       <c r="F85" t="s">
-        <v>634</v>
+        <v>775</v>
       </c>
       <c r="G85" t="s">
         <v>23</v>
       </c>
       <c r="H85" t="s">
-        <v>635</v>
+        <v>793</v>
       </c>
       <c r="I85" t="s">
-        <v>636</v>
+        <v>794</v>
       </c>
       <c r="J85" t="s">
         <v>68</v>
       </c>
       <c r="K85" t="s">
-        <v>637</v>
+        <v>795</v>
       </c>
       <c r="L85" t="s">
-        <v>638</v>
+        <v>796</v>
       </c>
       <c r="M85" t="s">
         <v>45</v>
       </c>
       <c r="N85" t="s">
-        <v>282</v>
-      </c>
-      <c r="O85"/>
-      <c r="P85"/>
-      <c r="Q85"/>
-      <c r="R85"/>
+        <v>30</v>
+      </c>
+      <c r="O85" t="s">
+        <v>797</v>
+      </c>
+      <c r="P85" t="s">
+        <v>798</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>799</v>
+      </c>
+      <c r="R85" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>20243468</v>
+        <v>20243609</v>
       </c>
       <c r="B86" t="s">
-        <v>639</v>
+        <v>800</v>
       </c>
       <c r="C86" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="D86" t="s">
-        <v>640</v>
-      </c>
-      <c r="E86"/>
+        <v>801</v>
+      </c>
+      <c r="E86" t="s">
+        <v>21</v>
+      </c>
       <c r="F86" t="s">
-        <v>641</v>
+        <v>802</v>
       </c>
       <c r="G86" t="s">
         <v>23</v>
       </c>
       <c r="H86" t="s">
-        <v>642</v>
+        <v>803</v>
       </c>
       <c r="I86" t="s">
-        <v>643</v>
+        <v>804</v>
       </c>
       <c r="J86" t="s">
-        <v>267</v>
+        <v>805</v>
       </c>
       <c r="K86" t="s">
-        <v>644</v>
+        <v>806</v>
       </c>
       <c r="L86" t="s">
-        <v>645</v>
+        <v>807</v>
       </c>
       <c r="M86" t="s">
         <v>71</v>
       </c>
       <c r="N86" t="s">
-        <v>282</v>
-      </c>
-      <c r="O86"/>
-      <c r="P86"/>
-      <c r="Q86"/>
-      <c r="R86"/>
+        <v>30</v>
+      </c>
+      <c r="O86" t="s">
+        <v>808</v>
+      </c>
+      <c r="P86" t="s">
+        <v>809</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>810</v>
+      </c>
+      <c r="R86" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>20243318</v>
+        <v>20243574</v>
       </c>
       <c r="B87" t="s">
-        <v>646</v>
+        <v>811</v>
       </c>
       <c r="C87" t="s">
         <v>51</v>
       </c>
       <c r="D87" t="s">
-        <v>647</v>
+        <v>357</v>
       </c>
       <c r="E87" t="s">
-        <v>53</v>
+        <v>319</v>
       </c>
       <c r="F87" t="s">
-        <v>648</v>
+        <v>812</v>
       </c>
       <c r="G87" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="H87" t="s">
-        <v>649</v>
+        <v>813</v>
       </c>
       <c r="I87" t="s">
-        <v>650</v>
+        <v>814</v>
       </c>
       <c r="J87" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="K87" t="s">
-        <v>651</v>
+        <v>815</v>
       </c>
       <c r="L87" t="s">
-        <v>652</v>
+        <v>816</v>
       </c>
       <c r="M87" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="N87" t="s">
-        <v>282</v>
-      </c>
-      <c r="O87"/>
-      <c r="P87"/>
-      <c r="Q87"/>
-      <c r="R87"/>
+        <v>30</v>
+      </c>
+      <c r="O87" t="s">
+        <v>817</v>
+      </c>
+      <c r="P87" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>819</v>
+      </c>
+      <c r="R87" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>20243234</v>
+        <v>20243557</v>
       </c>
       <c r="B88" t="s">
-        <v>653</v>
+        <v>820</v>
       </c>
       <c r="C88" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D88" t="s">
-        <v>383</v>
+        <v>821</v>
       </c>
       <c r="E88" t="s">
-        <v>21</v>
+        <v>319</v>
       </c>
       <c r="F88" t="s">
-        <v>654</v>
+        <v>822</v>
       </c>
       <c r="G88" t="s">
         <v>23</v>
       </c>
       <c r="H88" t="s">
-        <v>655</v>
+        <v>823</v>
       </c>
       <c r="I88" t="s">
-        <v>656</v>
+        <v>824</v>
       </c>
       <c r="J88" t="s">
         <v>68</v>
       </c>
       <c r="K88" t="s">
-        <v>657</v>
+        <v>825</v>
       </c>
       <c r="L88" t="s">
-        <v>658</v>
+        <v>826</v>
       </c>
       <c r="M88" t="s">
         <v>71</v>
       </c>
       <c r="N88" t="s">
-        <v>282</v>
-      </c>
-      <c r="O88"/>
-      <c r="P88"/>
-      <c r="Q88"/>
-      <c r="R88"/>
+        <v>30</v>
+      </c>
+      <c r="O88" t="s">
+        <v>827</v>
+      </c>
+      <c r="P88" t="s">
+        <v>828</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>829</v>
+      </c>
+      <c r="R88" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>20243259</v>
+        <v>20243471</v>
       </c>
       <c r="B89" t="s">
-        <v>659</v>
+        <v>830</v>
       </c>
       <c r="C89" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="D89" t="s">
-        <v>660</v>
-      </c>
-      <c r="E89" t="s">
-        <v>110</v>
-      </c>
+        <v>831</v>
+      </c>
+      <c r="E89"/>
       <c r="F89" t="s">
-        <v>654</v>
+        <v>832</v>
       </c>
       <c r="G89" t="s">
         <v>23</v>
       </c>
       <c r="H89" t="s">
-        <v>661</v>
+        <v>833</v>
       </c>
       <c r="I89" t="s">
-        <v>662</v>
+        <v>834</v>
       </c>
       <c r="J89" t="s">
         <v>68</v>
       </c>
       <c r="K89" t="s">
-        <v>663</v>
+        <v>835</v>
       </c>
       <c r="L89" t="s">
-        <v>664</v>
+        <v>836</v>
       </c>
       <c r="M89" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="N89" t="s">
-        <v>282</v>
-      </c>
-      <c r="O89"/>
-      <c r="P89"/>
-      <c r="Q89"/>
-      <c r="R89"/>
+        <v>30</v>
+      </c>
+      <c r="O89" t="s">
+        <v>837</v>
+      </c>
+      <c r="P89" t="s">
+        <v>838</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>839</v>
+      </c>
+      <c r="R89" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>20243169</v>
+        <v>20243468</v>
       </c>
       <c r="B90" t="s">
-        <v>665</v>
+        <v>840</v>
       </c>
       <c r="C90" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="D90" t="s">
-        <v>666</v>
-      </c>
-      <c r="E90" t="s">
-        <v>21</v>
-      </c>
+        <v>841</v>
+      </c>
+      <c r="E90"/>
       <c r="F90" t="s">
-        <v>667</v>
+        <v>842</v>
       </c>
       <c r="G90" t="s">
         <v>23</v>
       </c>
       <c r="H90" t="s">
-        <v>668</v>
+        <v>843</v>
       </c>
       <c r="I90" t="s">
-        <v>669</v>
+        <v>844</v>
       </c>
       <c r="J90" t="s">
-        <v>68</v>
+        <v>267</v>
       </c>
       <c r="K90" t="s">
-        <v>670</v>
+        <v>845</v>
       </c>
       <c r="L90" t="s">
-        <v>671</v>
+        <v>846</v>
       </c>
       <c r="M90" t="s">
         <v>71</v>
       </c>
       <c r="N90" t="s">
-        <v>282</v>
-      </c>
-      <c r="O90"/>
-      <c r="P90"/>
-      <c r="Q90"/>
-      <c r="R90"/>
+        <v>30</v>
+      </c>
+      <c r="O90" t="s">
+        <v>847</v>
+      </c>
+      <c r="P90" t="s">
+        <v>848</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>849</v>
+      </c>
+      <c r="R90" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>20247112</v>
+        <v>20243467</v>
       </c>
       <c r="B91" t="s">
-        <v>672</v>
+        <v>850</v>
       </c>
       <c r="C91" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="D91" t="s">
-        <v>673</v>
-      </c>
-      <c r="E91" t="s">
-        <v>76</v>
-      </c>
+        <v>851</v>
+      </c>
+      <c r="E91"/>
       <c r="F91" t="s">
-        <v>674</v>
+        <v>852</v>
       </c>
       <c r="G91" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="H91" t="s">
-        <v>675</v>
+        <v>853</v>
       </c>
       <c r="I91" t="s">
-        <v>676</v>
+        <v>854</v>
       </c>
       <c r="J91" t="s">
         <v>68</v>
       </c>
       <c r="K91" t="s">
-        <v>677</v>
+        <v>855</v>
       </c>
       <c r="L91" t="s">
-        <v>678</v>
+        <v>856</v>
       </c>
       <c r="M91" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="N91" t="s">
-        <v>282</v>
-      </c>
-      <c r="O91"/>
-      <c r="P91"/>
-      <c r="Q91"/>
-      <c r="R91"/>
+        <v>30</v>
+      </c>
+      <c r="O91" t="s">
+        <v>857</v>
+      </c>
+      <c r="P91" t="s">
+        <v>858</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>859</v>
+      </c>
+      <c r="R91" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>20247015</v>
+        <v>20243318</v>
       </c>
       <c r="B92" t="s">
-        <v>679</v>
+        <v>860</v>
       </c>
       <c r="C92" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D92" t="s">
-        <v>358</v>
+        <v>861</v>
       </c>
       <c r="E92" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F92" t="s">
-        <v>680</v>
+        <v>862</v>
       </c>
       <c r="G92" t="s">
         <v>23</v>
       </c>
       <c r="H92" t="s">
-        <v>681</v>
+        <v>863</v>
       </c>
       <c r="I92" t="s">
-        <v>682</v>
+        <v>864</v>
       </c>
       <c r="J92" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="K92" t="s">
-        <v>683</v>
+        <v>865</v>
       </c>
       <c r="L92" t="s">
-        <v>684</v>
+        <v>866</v>
       </c>
       <c r="M92" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N92" t="s">
-        <v>282</v>
-      </c>
-      <c r="O92"/>
-      <c r="P92"/>
-      <c r="Q92"/>
-      <c r="R92"/>
+        <v>30</v>
+      </c>
+      <c r="O92" t="s">
+        <v>867</v>
+      </c>
+      <c r="P92" t="s">
+        <v>868</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>869</v>
+      </c>
+      <c r="R92" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>20234494</v>
+        <v>20243234</v>
       </c>
       <c r="B93" t="s">
-        <v>685</v>
+        <v>870</v>
       </c>
       <c r="C93" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="D93" t="s">
-        <v>204</v>
+        <v>442</v>
       </c>
       <c r="E93" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="F93" t="s">
-        <v>686</v>
+        <v>871</v>
       </c>
       <c r="G93" t="s">
         <v>23</v>
       </c>
       <c r="H93" t="s">
-        <v>687</v>
+        <v>872</v>
       </c>
       <c r="I93" t="s">
-        <v>688</v>
+        <v>873</v>
       </c>
       <c r="J93" t="s">
         <v>68</v>
       </c>
       <c r="K93" t="s">
-        <v>689</v>
+        <v>874</v>
       </c>
       <c r="L93" t="s">
-        <v>690</v>
+        <v>875</v>
       </c>
       <c r="M93" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="N93" t="s">
-        <v>282</v>
-      </c>
-      <c r="O93"/>
-      <c r="P93"/>
-      <c r="Q93"/>
-      <c r="R93"/>
+        <v>30</v>
+      </c>
+      <c r="O93" t="s">
+        <v>876</v>
+      </c>
+      <c r="P93" t="s">
+        <v>877</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>878</v>
+      </c>
+      <c r="R93" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>20234461</v>
+        <v>20243259</v>
       </c>
       <c r="B94" t="s">
-        <v>691</v>
+        <v>879</v>
       </c>
       <c r="C94" t="s">
         <v>51</v>
       </c>
       <c r="D94" t="s">
-        <v>147</v>
+        <v>880</v>
       </c>
       <c r="E94" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F94" t="s">
-        <v>692</v>
+        <v>871</v>
       </c>
       <c r="G94" t="s">
         <v>23</v>
       </c>
       <c r="H94" t="s">
-        <v>693</v>
+        <v>881</v>
       </c>
       <c r="I94" t="s">
-        <v>694</v>
+        <v>882</v>
       </c>
       <c r="J94" t="s">
         <v>68</v>
       </c>
       <c r="K94" t="s">
-        <v>695</v>
+        <v>883</v>
       </c>
       <c r="L94" t="s">
-        <v>696</v>
+        <v>884</v>
       </c>
       <c r="M94" t="s">
         <v>71</v>
       </c>
       <c r="N94" t="s">
-        <v>282</v>
-      </c>
-      <c r="O94"/>
-      <c r="P94"/>
-      <c r="Q94"/>
-      <c r="R94"/>
+        <v>30</v>
+      </c>
+      <c r="O94" t="s">
+        <v>885</v>
+      </c>
+      <c r="P94" t="s">
+        <v>886</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>887</v>
+      </c>
+      <c r="R94" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>20234375</v>
+        <v>20243169</v>
       </c>
       <c r="B95" t="s">
-        <v>697</v>
+        <v>888</v>
       </c>
       <c r="C95" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="D95" t="s">
-        <v>698</v>
+        <v>889</v>
       </c>
       <c r="E95" t="s">
         <v>21</v>
       </c>
       <c r="F95" t="s">
-        <v>699</v>
+        <v>890</v>
       </c>
       <c r="G95" t="s">
         <v>23</v>
       </c>
       <c r="H95" t="s">
-        <v>700</v>
+        <v>891</v>
       </c>
       <c r="I95" t="s">
-        <v>701</v>
+        <v>892</v>
       </c>
       <c r="J95" t="s">
         <v>68</v>
       </c>
       <c r="K95" t="s">
-        <v>702</v>
+        <v>893</v>
       </c>
       <c r="L95" t="s">
-        <v>703</v>
+        <v>894</v>
       </c>
       <c r="M95" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="N95" t="s">
-        <v>282</v>
-      </c>
-      <c r="O95"/>
-      <c r="P95"/>
-      <c r="Q95"/>
-      <c r="R95"/>
+        <v>30</v>
+      </c>
+      <c r="O95" t="s">
+        <v>895</v>
+      </c>
+      <c r="P95" t="s">
+        <v>896</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>897</v>
+      </c>
+      <c r="R95" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>20234353</v>
+        <v>20247112</v>
       </c>
       <c r="B96" t="s">
-        <v>704</v>
+        <v>898</v>
       </c>
       <c r="C96" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D96" t="s">
-        <v>705</v>
+        <v>899</v>
       </c>
       <c r="E96" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="F96" t="s">
-        <v>706</v>
+        <v>900</v>
       </c>
       <c r="G96" t="s">
         <v>23</v>
       </c>
       <c r="H96" t="s">
-        <v>707</v>
+        <v>901</v>
       </c>
       <c r="I96" t="s">
-        <v>708</v>
+        <v>902</v>
       </c>
       <c r="J96" t="s">
         <v>68</v>
       </c>
       <c r="K96" t="s">
-        <v>709</v>
+        <v>903</v>
       </c>
       <c r="L96" t="s">
-        <v>710</v>
+        <v>904</v>
       </c>
       <c r="M96" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="N96" t="s">
-        <v>282</v>
-      </c>
-      <c r="O96"/>
-      <c r="P96"/>
+        <v>30</v>
+      </c>
+      <c r="O96" t="s">
+        <v>905</v>
+      </c>
+      <c r="P96" t="s">
+        <v>906</v>
+      </c>
       <c r="Q96"/>
-      <c r="R96"/>
+      <c r="R96" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>20234346</v>
+        <v>20247015</v>
       </c>
       <c r="B97" t="s">
-        <v>711</v>
+        <v>907</v>
       </c>
       <c r="C97" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="D97" t="s">
-        <v>712</v>
-      </c>
-      <c r="E97"/>
+        <v>394</v>
+      </c>
+      <c r="E97" t="s">
+        <v>37</v>
+      </c>
       <c r="F97" t="s">
-        <v>713</v>
+        <v>908</v>
       </c>
       <c r="G97" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="H97" t="s">
-        <v>714</v>
+        <v>909</v>
       </c>
       <c r="I97" t="s">
-        <v>715</v>
+        <v>910</v>
       </c>
       <c r="J97" t="s">
         <v>68</v>
       </c>
       <c r="K97" t="s">
-        <v>716</v>
+        <v>911</v>
       </c>
       <c r="L97" t="s">
-        <v>717</v>
+        <v>912</v>
       </c>
       <c r="M97" t="s">
         <v>45</v>
       </c>
       <c r="N97" t="s">
-        <v>282</v>
-      </c>
-      <c r="O97"/>
-      <c r="P97"/>
+        <v>30</v>
+      </c>
+      <c r="O97" t="s">
+        <v>913</v>
+      </c>
+      <c r="P97" t="s">
+        <v>914</v>
+      </c>
       <c r="Q97"/>
-      <c r="R97"/>
+      <c r="R97" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>20253425</v>
+        <v>20234494</v>
       </c>
       <c r="B98" t="s">
-        <v>718</v>
+        <v>915</v>
       </c>
       <c r="C98" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D98" t="s">
-        <v>719</v>
-      </c>
-      <c r="E98"/>
+        <v>204</v>
+      </c>
+      <c r="E98" t="s">
+        <v>76</v>
+      </c>
       <c r="F98" t="s">
-        <v>720</v>
+        <v>916</v>
       </c>
       <c r="G98" t="s">
         <v>23</v>
       </c>
       <c r="H98" t="s">
-        <v>721</v>
+        <v>917</v>
       </c>
       <c r="I98" t="s">
-        <v>722</v>
+        <v>918</v>
       </c>
       <c r="J98" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="K98" t="s">
-        <v>723</v>
+        <v>919</v>
       </c>
       <c r="L98" t="s">
-        <v>724</v>
+        <v>920</v>
       </c>
       <c r="M98" t="s">
         <v>45</v>
       </c>
-      <c r="N98"/>
-      <c r="O98"/>
-      <c r="P98"/>
-      <c r="Q98"/>
-      <c r="R98"/>
+      <c r="N98" t="s">
+        <v>30</v>
+      </c>
+      <c r="O98" t="s">
+        <v>921</v>
+      </c>
+      <c r="P98" t="s">
+        <v>922</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>923</v>
+      </c>
+      <c r="R98" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>20253246</v>
+        <v>20234461</v>
       </c>
       <c r="B99" t="s">
-        <v>725</v>
+        <v>924</v>
       </c>
       <c r="C99" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D99" t="s">
-        <v>726</v>
+        <v>147</v>
       </c>
       <c r="E99" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="F99" t="s">
-        <v>390</v>
+        <v>925</v>
       </c>
       <c r="G99" t="s">
         <v>23</v>
       </c>
       <c r="H99" t="s">
-        <v>727</v>
+        <v>926</v>
       </c>
       <c r="I99" t="s">
-        <v>728</v>
+        <v>927</v>
       </c>
       <c r="J99" t="s">
-        <v>224</v>
+        <v>68</v>
       </c>
       <c r="K99" t="s">
-        <v>729</v>
+        <v>928</v>
       </c>
       <c r="L99" t="s">
-        <v>730</v>
+        <v>929</v>
       </c>
       <c r="M99" t="s">
-        <v>45</v>
-      </c>
-      <c r="N99"/>
-      <c r="O99"/>
-      <c r="P99"/>
-      <c r="Q99"/>
-      <c r="R99"/>
+        <v>71</v>
+      </c>
+      <c r="N99" t="s">
+        <v>30</v>
+      </c>
+      <c r="O99" t="s">
+        <v>930</v>
+      </c>
+      <c r="P99" t="s">
+        <v>931</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>932</v>
+      </c>
+      <c r="R99" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>20247975</v>
+        <v>20234375</v>
       </c>
       <c r="B100" t="s">
-        <v>731</v>
+        <v>933</v>
       </c>
       <c r="C100" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D100" t="s">
-        <v>732</v>
+        <v>934</v>
       </c>
       <c r="E100" t="s">
         <v>21</v>
       </c>
       <c r="F100" t="s">
-        <v>488</v>
+        <v>935</v>
       </c>
       <c r="G100" t="s">
         <v>23</v>
       </c>
       <c r="H100" t="s">
-        <v>733</v>
+        <v>936</v>
       </c>
       <c r="I100" t="s">
-        <v>734</v>
+        <v>937</v>
       </c>
       <c r="J100" t="s">
         <v>68</v>
       </c>
       <c r="K100" t="s">
-        <v>735</v>
+        <v>938</v>
       </c>
       <c r="L100" t="s">
-        <v>736</v>
+        <v>939</v>
       </c>
       <c r="M100" t="s">
         <v>45</v>
       </c>
-      <c r="N100"/>
-      <c r="O100"/>
-      <c r="P100"/>
-      <c r="Q100"/>
-      <c r="R100"/>
+      <c r="N100" t="s">
+        <v>30</v>
+      </c>
+      <c r="O100" t="s">
+        <v>940</v>
+      </c>
+      <c r="P100" t="s">
+        <v>941</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>942</v>
+      </c>
+      <c r="R100" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>20243937</v>
+        <v>20234353</v>
       </c>
       <c r="B101" t="s">
-        <v>737</v>
+        <v>943</v>
       </c>
       <c r="C101" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D101" t="s">
-        <v>738</v>
+        <v>944</v>
       </c>
       <c r="E101" t="s">
-        <v>306</v>
+        <v>21</v>
       </c>
       <c r="F101" t="s">
-        <v>542</v>
+        <v>945</v>
       </c>
       <c r="G101" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="H101" t="s">
-        <v>739</v>
+        <v>946</v>
       </c>
       <c r="I101" t="s">
-        <v>740</v>
+        <v>947</v>
       </c>
       <c r="J101" t="s">
-        <v>267</v>
+        <v>68</v>
       </c>
       <c r="K101" t="s">
-        <v>741</v>
+        <v>948</v>
       </c>
       <c r="L101" t="s">
-        <v>742</v>
+        <v>949</v>
       </c>
       <c r="M101" t="s">
-        <v>45</v>
-      </c>
-      <c r="N101"/>
-      <c r="O101"/>
-      <c r="P101"/>
-      <c r="Q101"/>
-      <c r="R101"/>
+        <v>71</v>
+      </c>
+      <c r="N101" t="s">
+        <v>30</v>
+      </c>
+      <c r="O101" t="s">
+        <v>950</v>
+      </c>
+      <c r="P101" t="s">
+        <v>951</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>952</v>
+      </c>
+      <c r="R101" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>20243467</v>
+        <v>20234346</v>
       </c>
       <c r="B102" t="s">
-        <v>743</v>
+        <v>953</v>
       </c>
       <c r="C102" t="s">
         <v>19</v>
       </c>
       <c r="D102" t="s">
-        <v>744</v>
+        <v>954</v>
       </c>
       <c r="E102"/>
       <c r="F102" t="s">
-        <v>745</v>
+        <v>955</v>
       </c>
       <c r="G102" t="s">
         <v>39</v>
       </c>
       <c r="H102" t="s">
-        <v>746</v>
+        <v>956</v>
       </c>
       <c r="I102" t="s">
-        <v>747</v>
+        <v>957</v>
       </c>
       <c r="J102" t="s">
         <v>68</v>
       </c>
       <c r="K102" t="s">
-        <v>748</v>
+        <v>958</v>
       </c>
       <c r="L102" t="s">
-        <v>749</v>
+        <v>959</v>
       </c>
       <c r="M102" t="s">
-        <v>71</v>
-      </c>
-      <c r="N102"/>
-      <c r="O102"/>
-      <c r="P102"/>
-      <c r="Q102"/>
-      <c r="R102"/>
+        <v>45</v>
+      </c>
+      <c r="N102" t="s">
+        <v>30</v>
+      </c>
+      <c r="O102" t="s">
+        <v>960</v>
+      </c>
+      <c r="P102" t="s">
+        <v>961</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>962</v>
+      </c>
+      <c r="R102" t="s">
+        <v>273</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Objets_parlementaires_CDF_EFK.xlsx
+++ b/Objets_parlementaires_CDF_EFK.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3621" uniqueCount="3621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3610" uniqueCount="3610">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -6237,7 +6237,7 @@
     <t xml:space="preserve">&lt;p&gt;Le Conseil fédéral a révisé le 1er novembre 2023 l’ordonnance sur les émoluments perçus par l’autorité fédérale de surveillance des fondations (OEmol-ASF), dont la nouvelle mouture entrera en vigueur le 1er janvier 2024. L’élément central de ce texte est une nouvelle augmentation des émoluments, qui aura des conséquences financières massives pour les fondations concernées. Ce qui m’amène à poser les questions suivantes :&amp;nbsp;&lt;br&gt;- Pourquoi n’est-il pas possible de passer d’un contrôle annuel de comptes annuels déjà révisés à un rythme pluriannuel assorti de contrôles approfondis en cas de suspicion, ce qui permettrait de réduire les dépenses de l’Autorité fédérale de surveillance des fondations (ASF) et par voie de conséquence la charge administrative et financière des fondations ?&lt;br&gt;- Le Conseil fédéral serait-il prêt à réserver un traitement à part aux fondations d’utilité publique dont le total du bilan est faible (&lt; 5 millions de CHF) et à prévoir pour elles une catégorie d’émoluments distincte et plus avantageuse assortie d’un rythme de révision plus lent (par ex. tous les 3 à 5 ans) ?&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;p&gt;Der Bundesrat hat am 01.11.2023 die Verordnung über die Gebühren der Eidgenössischen Stiftungsaufsicht (GebV-ESA) revidiert. Die neue Verordnung tritt auf den 01.01.2024 in Kraft. Der Kernpunkt der neuen Verordnung ist eine erneute Gebührenerhöhung – mit massiven finanziellen Auswirkungen für die betroffenen Stiftungen. Hierzu stellen sich folgende Fragen:&amp;nbsp;&lt;br&gt;- Warum kann der Aufwand der ESA und damit der finanzielle und administrative Aufwand der Stiftungen nicht reduziert werden, indem von einer alljährlichen Überprüfung bereits revidierter Jahresabschlüsse auf einen Mehrjahresrhythmus gewechselt wird und auf vertiefte Prüfungen in Verdachtsfällen?&lt;br&gt;- Wäre der Bundesrat bereit, gemeinnützigen Stiftungen mit geringer Bilanzsumme (&amp;lt; 5 Mio. CHF) differenziert zu behandeln und eine separate und günstigere Gebührenkategorie mit einem längeren Revisionsrhythmus einzuführen (z.B. alle 3 – 5 Jahre)?&lt;/p&gt;</t>
+    <t xml:space="preserve">&lt;p&gt;Der Bundesrat hat am 01.11.2023 die Verordnung über die Gebühren der Eidgenössischen Stiftungsaufsicht (GebV-ESA) revidiert. Die neue Verordnung tritt auf den 01.01.2024 in Kraft. Der Kernpunkt der neuen Verordnung ist eine erneute Gebührenerhöhung – mit massiven finanziellen Auswirkungen für die betroffenen Stiftungen. Hierzu stellen sich folgende Fragen:&amp;nbsp;&lt;br&gt;- Warum kann der Aufwand der ESA und damit der finanzielle und administrative Aufwand der Stiftungen nicht reduziert werden, indem von einer alljährlichen Überprüfung bereits revidierter Jahresabschlüsse auf einen Mehrjahresrhythmus gewechselt wird und auf vertiefte Prüfungen in Verdachtsfällen?&lt;br&gt;- Wäre der Bundesrat bereit, gemeinnützigen Stiftungen mit geringer Bilanzsumme (&lt; 5 Mio. CHF) differenziert zu behandeln und eine separate und günstigere Gebührenkategorie mit einem längeren Revisionsrhythmus einzuführen (z.B. alle 3 – 5 Jahre)?&lt;/p&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20234353</t>
@@ -10110,9 +10110,6 @@
     <t xml:space="preserve">&lt;p&gt;Der Bundesrat wird beauftragt, die rechtlichen Grundlagen zu erlassen, damit baldmöglichst&amp;nbsp; qualitätsgesicherte, aktuelle und insbesondere international anschlussfähige und vergleichbare strukturierte Daten der Bundesverwaltung zur Mehrfachnutzung (unter anderem durch KI) für Forschung, Planung und Steuerung zur Verfügung gestellt werden.&amp;nbsp;Diesbezügliche verbindliche Standards für die Bundesverwaltung sind zu erlassen.&amp;nbsp;Der Bundesrat wird zudem beauftragt, eine prioritäre Auswahl jener Verwaltungsdaten zu definieren, die für eine zügige und KI-taugliche Mehrfachnutzung zuerst harmonisiert, standardisiert und technisch zugänglich gemacht werden sollen.&amp;nbsp;Insbesondere die öffentliche Bereitstellung weiterer Registerdaten ist zu prüfen. Gezielte Pilotversuche nach Art. 15 EMBAG können dies beschleunigen und sind vom Bundesrat mit den benötigten Mitteln zu beantragen.&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Eingereicht / Déposé</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254620</t>
   </si>
   <si>
@@ -10846,36 +10843,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bestand des Bundespersonals auf dem Stand von 2015 einfrieren. Bericht des Bundesrates zur Abschreibung der Motion 15.3494 (FK-SR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geler les effectifs de la Confédération au niveau de 2015. Rapport du Conseil fédéral sur le classement de la motion 15.3494 (CdF-CE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloccare l'effettivo del personale della Confederazione al livello del 2015. Rapporto del Consiglio federale concernente lo stralcio della mozione 15.3494 (CdF-CS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20180032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20180032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Staatspolitik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Politique d'Etat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Politica nazionale</t>
   </si>
 </sst>
 </file>
@@ -10923,8 +10890,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:V329" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:V329"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:V328" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:V328"/>
   <tableColumns count="22">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Numéro"/>
@@ -31051,27 +31018,29 @@
         <v>3364</v>
       </c>
       <c r="N303" t="s">
+        <v>1342</v>
+      </c>
+      <c r="O303" t="s">
         <v>3365</v>
       </c>
-      <c r="O303" t="s">
+      <c r="P303" t="s">
         <v>3366</v>
-      </c>
-      <c r="P303" t="s">
-        <v>3367</v>
       </c>
       <c r="Q303" t="s">
         <v>72</v>
       </c>
       <c r="R303"/>
-      <c r="S303"/>
+      <c r="S303" t="s">
+        <v>38</v>
+      </c>
       <c r="T303" t="s">
+        <v>3367</v>
+      </c>
+      <c r="U303" t="s">
         <v>3368</v>
       </c>
-      <c r="U303" t="s">
+      <c r="V303" t="s">
         <v>3369</v>
-      </c>
-      <c r="V303" t="s">
-        <v>3370</v>
       </c>
     </row>
     <row r="304">
@@ -31079,7 +31048,7 @@
         <v>20254696</v>
       </c>
       <c r="B304" t="s">
-        <v>3371</v>
+        <v>3370</v>
       </c>
       <c r="C304" t="s">
         <v>61</v>
@@ -31100,28 +31069,28 @@
         <v>536</v>
       </c>
       <c r="I304" t="s">
+        <v>3371</v>
+      </c>
+      <c r="J304" t="s">
         <v>3372</v>
       </c>
-      <c r="J304" t="s">
+      <c r="K304" t="s">
         <v>3373</v>
       </c>
-      <c r="K304" t="s">
+      <c r="L304" t="s">
         <v>3374</v>
       </c>
-      <c r="L304" t="s">
+      <c r="M304" t="s">
         <v>3375</v>
-      </c>
-      <c r="M304" t="s">
-        <v>3376</v>
       </c>
       <c r="N304" t="s">
         <v>1342</v>
       </c>
       <c r="O304" t="s">
+        <v>3376</v>
+      </c>
+      <c r="P304" t="s">
         <v>3377</v>
-      </c>
-      <c r="P304" t="s">
-        <v>3378</v>
       </c>
       <c r="Q304" t="s">
         <v>55</v>
@@ -31143,7 +31112,7 @@
         <v>20254562</v>
       </c>
       <c r="B305" t="s">
-        <v>3379</v>
+        <v>3378</v>
       </c>
       <c r="C305" t="s">
         <v>205</v>
@@ -31155,7 +31124,7 @@
         <v>45</v>
       </c>
       <c r="F305" t="s">
-        <v>3380</v>
+        <v>3379</v>
       </c>
       <c r="G305" t="s">
         <v>27</v>
@@ -31164,28 +31133,28 @@
         <v>80</v>
       </c>
       <c r="I305" t="s">
+        <v>3380</v>
+      </c>
+      <c r="J305" t="s">
         <v>3381</v>
       </c>
-      <c r="J305" t="s">
+      <c r="K305" t="s">
         <v>3382</v>
       </c>
-      <c r="K305" t="s">
+      <c r="L305" t="s">
         <v>3383</v>
       </c>
-      <c r="L305" t="s">
+      <c r="M305" t="s">
         <v>3384</v>
-      </c>
-      <c r="M305" t="s">
-        <v>3385</v>
       </c>
       <c r="N305" t="s">
         <v>1342</v>
       </c>
       <c r="O305" t="s">
+        <v>3385</v>
+      </c>
+      <c r="P305" t="s">
         <v>3386</v>
-      </c>
-      <c r="P305" t="s">
-        <v>3387</v>
       </c>
       <c r="Q305" t="s">
         <v>37</v>
@@ -31193,13 +31162,13 @@
       <c r="R305"/>
       <c r="S305"/>
       <c r="T305" t="s">
+        <v>3387</v>
+      </c>
+      <c r="U305" t="s">
         <v>3388</v>
       </c>
-      <c r="U305" t="s">
+      <c r="V305" t="s">
         <v>3389</v>
-      </c>
-      <c r="V305" t="s">
-        <v>3390</v>
       </c>
     </row>
     <row r="306">
@@ -31207,19 +31176,19 @@
         <v>20254594</v>
       </c>
       <c r="B306" t="s">
-        <v>3391</v>
+        <v>3390</v>
       </c>
       <c r="C306" t="s">
         <v>61</v>
       </c>
       <c r="D306" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
       <c r="E306" t="s">
         <v>45</v>
       </c>
       <c r="F306" t="s">
-        <v>3380</v>
+        <v>3379</v>
       </c>
       <c r="G306" t="s">
         <v>47</v>
@@ -31228,28 +31197,28 @@
         <v>64</v>
       </c>
       <c r="I306" t="s">
+        <v>3392</v>
+      </c>
+      <c r="J306" t="s">
         <v>3393</v>
       </c>
-      <c r="J306" t="s">
+      <c r="K306" t="s">
         <v>3394</v>
       </c>
-      <c r="K306" t="s">
+      <c r="L306" t="s">
         <v>3395</v>
       </c>
-      <c r="L306" t="s">
+      <c r="M306" t="s">
         <v>3396</v>
-      </c>
-      <c r="M306" t="s">
-        <v>3397</v>
       </c>
       <c r="N306" t="s">
         <v>1342</v>
       </c>
       <c r="O306" t="s">
+        <v>3397</v>
+      </c>
+      <c r="P306" t="s">
         <v>3398</v>
-      </c>
-      <c r="P306" t="s">
-        <v>3399</v>
       </c>
       <c r="Q306" t="s">
         <v>37</v>
@@ -31257,13 +31226,13 @@
       <c r="R306"/>
       <c r="S306"/>
       <c r="T306" t="s">
+        <v>3399</v>
+      </c>
+      <c r="U306" t="s">
         <v>3400</v>
       </c>
-      <c r="U306" t="s">
+      <c r="V306" t="s">
         <v>3401</v>
-      </c>
-      <c r="V306" t="s">
-        <v>3402</v>
       </c>
     </row>
     <row r="307">
@@ -31271,7 +31240,7 @@
         <v>20254614</v>
       </c>
       <c r="B307" t="s">
-        <v>3403</v>
+        <v>3402</v>
       </c>
       <c r="C307" t="s">
         <v>61</v>
@@ -31283,7 +31252,7 @@
         <v>132</v>
       </c>
       <c r="F307" t="s">
-        <v>3380</v>
+        <v>3379</v>
       </c>
       <c r="G307" t="s">
         <v>27</v>
@@ -31292,28 +31261,28 @@
         <v>64</v>
       </c>
       <c r="I307" t="s">
+        <v>3403</v>
+      </c>
+      <c r="J307" t="s">
         <v>3404</v>
       </c>
-      <c r="J307" t="s">
+      <c r="K307" t="s">
         <v>3405</v>
       </c>
-      <c r="K307" t="s">
+      <c r="L307" t="s">
         <v>3406</v>
       </c>
-      <c r="L307" t="s">
+      <c r="M307" t="s">
         <v>3407</v>
-      </c>
-      <c r="M307" t="s">
-        <v>3408</v>
       </c>
       <c r="N307" t="s">
         <v>1342</v>
       </c>
       <c r="O307" t="s">
+        <v>3408</v>
+      </c>
+      <c r="P307" t="s">
         <v>3409</v>
-      </c>
-      <c r="P307" t="s">
-        <v>3410</v>
       </c>
       <c r="Q307" t="s">
         <v>37</v>
@@ -31335,19 +31304,19 @@
         <v>20258194</v>
       </c>
       <c r="B308" t="s">
-        <v>3411</v>
+        <v>3410</v>
       </c>
       <c r="C308" t="s">
         <v>23</v>
       </c>
       <c r="D308" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="E308" t="s">
         <v>25</v>
       </c>
       <c r="F308" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="G308" t="s">
         <v>27</v>
@@ -31356,26 +31325,26 @@
         <v>64</v>
       </c>
       <c r="I308" t="s">
+        <v>3413</v>
+      </c>
+      <c r="J308" t="s">
         <v>3414</v>
-      </c>
-      <c r="J308" t="s">
-        <v>3415</v>
       </c>
       <c r="K308"/>
       <c r="L308" t="s">
+        <v>3415</v>
+      </c>
+      <c r="M308" t="s">
         <v>3416</v>
-      </c>
-      <c r="M308" t="s">
-        <v>3417</v>
       </c>
       <c r="N308" t="s">
         <v>34</v>
       </c>
       <c r="O308" t="s">
+        <v>3417</v>
+      </c>
+      <c r="P308" t="s">
         <v>3418</v>
-      </c>
-      <c r="P308" t="s">
-        <v>3419</v>
       </c>
       <c r="Q308" t="s">
         <v>37</v>
@@ -31397,7 +31366,7 @@
         <v>20258273</v>
       </c>
       <c r="B309" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
       <c r="C309" t="s">
         <v>23</v>
@@ -31409,7 +31378,7 @@
         <v>633</v>
       </c>
       <c r="F309" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="G309" t="s">
         <v>27</v>
@@ -31418,26 +31387,26 @@
         <v>64</v>
       </c>
       <c r="I309" t="s">
+        <v>3420</v>
+      </c>
+      <c r="J309" t="s">
         <v>3421</v>
-      </c>
-      <c r="J309" t="s">
-        <v>3422</v>
       </c>
       <c r="K309"/>
       <c r="L309" t="s">
+        <v>3422</v>
+      </c>
+      <c r="M309" t="s">
         <v>3423</v>
-      </c>
-      <c r="M309" t="s">
-        <v>3424</v>
       </c>
       <c r="N309" t="s">
         <v>34</v>
       </c>
       <c r="O309" t="s">
+        <v>3424</v>
+      </c>
+      <c r="P309" t="s">
         <v>3425</v>
-      </c>
-      <c r="P309" t="s">
-        <v>3426</v>
       </c>
       <c r="Q309" t="s">
         <v>55</v>
@@ -31445,13 +31414,13 @@
       <c r="R309"/>
       <c r="S309"/>
       <c r="T309" t="s">
+        <v>3426</v>
+      </c>
+      <c r="U309" t="s">
         <v>3427</v>
       </c>
-      <c r="U309" t="s">
+      <c r="V309" t="s">
         <v>3428</v>
-      </c>
-      <c r="V309" t="s">
-        <v>3429</v>
       </c>
     </row>
     <row r="310">
@@ -31459,7 +31428,7 @@
         <v>20254463</v>
       </c>
       <c r="B310" t="s">
-        <v>3430</v>
+        <v>3429</v>
       </c>
       <c r="C310" t="s">
         <v>43</v>
@@ -31471,7 +31440,7 @@
         <v>633</v>
       </c>
       <c r="F310" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="G310" t="s">
         <v>27</v>
@@ -31480,28 +31449,28 @@
         <v>28</v>
       </c>
       <c r="I310" t="s">
+        <v>3431</v>
+      </c>
+      <c r="J310" t="s">
         <v>3432</v>
       </c>
-      <c r="J310" t="s">
+      <c r="K310" t="s">
         <v>3433</v>
       </c>
-      <c r="K310" t="s">
+      <c r="L310" t="s">
         <v>3434</v>
       </c>
-      <c r="L310" t="s">
+      <c r="M310" t="s">
         <v>3435</v>
-      </c>
-      <c r="M310" t="s">
-        <v>3436</v>
       </c>
       <c r="N310" t="s">
         <v>34</v>
       </c>
       <c r="O310" t="s">
+        <v>3436</v>
+      </c>
+      <c r="P310" t="s">
         <v>3437</v>
-      </c>
-      <c r="P310" t="s">
-        <v>3438</v>
       </c>
       <c r="Q310" t="s">
         <v>72</v>
@@ -31523,19 +31492,19 @@
         <v>20254281</v>
       </c>
       <c r="B311" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="C311" t="s">
         <v>205</v>
       </c>
       <c r="D311" t="s">
-        <v>3440</v>
+        <v>3439</v>
       </c>
       <c r="E311" t="s">
         <v>132</v>
       </c>
       <c r="F311" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="G311" t="s">
         <v>27</v>
@@ -31544,28 +31513,28 @@
         <v>536</v>
       </c>
       <c r="I311" t="s">
+        <v>3441</v>
+      </c>
+      <c r="J311" t="s">
         <v>3442</v>
       </c>
-      <c r="J311" t="s">
+      <c r="K311" t="s">
         <v>3443</v>
       </c>
-      <c r="K311" t="s">
+      <c r="L311" t="s">
         <v>3444</v>
       </c>
-      <c r="L311" t="s">
+      <c r="M311" t="s">
         <v>3445</v>
-      </c>
-      <c r="M311" t="s">
-        <v>3446</v>
       </c>
       <c r="N311" t="s">
         <v>1342</v>
       </c>
       <c r="O311" t="s">
+        <v>3446</v>
+      </c>
+      <c r="P311" t="s">
         <v>3447</v>
-      </c>
-      <c r="P311" t="s">
-        <v>3448</v>
       </c>
       <c r="Q311" t="s">
         <v>55</v>
@@ -31587,7 +31556,7 @@
         <v>20254317</v>
       </c>
       <c r="B312" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="C312" t="s">
         <v>43</v>
@@ -31599,7 +31568,7 @@
         <v>93</v>
       </c>
       <c r="F312" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="G312" t="s">
         <v>27</v>
@@ -31608,28 +31577,28 @@
         <v>536</v>
       </c>
       <c r="I312" t="s">
+        <v>3449</v>
+      </c>
+      <c r="J312" t="s">
         <v>3450</v>
       </c>
-      <c r="J312" t="s">
+      <c r="K312" t="s">
         <v>3451</v>
       </c>
-      <c r="K312" t="s">
+      <c r="L312" t="s">
         <v>3452</v>
       </c>
-      <c r="L312" t="s">
+      <c r="M312" t="s">
         <v>3453</v>
-      </c>
-      <c r="M312" t="s">
-        <v>3454</v>
       </c>
       <c r="N312" t="s">
         <v>1342</v>
       </c>
       <c r="O312" t="s">
+        <v>3454</v>
+      </c>
+      <c r="P312" t="s">
         <v>3455</v>
-      </c>
-      <c r="P312" t="s">
-        <v>3456</v>
       </c>
       <c r="Q312" t="s">
         <v>55</v>
@@ -31637,13 +31606,13 @@
       <c r="R312"/>
       <c r="S312"/>
       <c r="T312" t="s">
+        <v>3456</v>
+      </c>
+      <c r="U312" t="s">
         <v>3457</v>
       </c>
-      <c r="U312" t="s">
+      <c r="V312" t="s">
         <v>3458</v>
-      </c>
-      <c r="V312" t="s">
-        <v>3459</v>
       </c>
     </row>
     <row r="313">
@@ -31651,19 +31620,19 @@
         <v>20254145</v>
       </c>
       <c r="B313" t="s">
-        <v>3460</v>
+        <v>3459</v>
       </c>
       <c r="C313" t="s">
         <v>43</v>
       </c>
       <c r="D313" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="E313" t="s">
         <v>93</v>
       </c>
       <c r="F313" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="G313" t="s">
         <v>47</v>
@@ -31672,28 +31641,28 @@
         <v>28</v>
       </c>
       <c r="I313" t="s">
+        <v>3462</v>
+      </c>
+      <c r="J313" t="s">
         <v>3463</v>
       </c>
-      <c r="J313" t="s">
+      <c r="K313" t="s">
         <v>3464</v>
       </c>
-      <c r="K313" t="s">
+      <c r="L313" t="s">
         <v>3465</v>
       </c>
-      <c r="L313" t="s">
+      <c r="M313" t="s">
         <v>3466</v>
-      </c>
-      <c r="M313" t="s">
-        <v>3467</v>
       </c>
       <c r="N313" t="s">
         <v>34</v>
       </c>
       <c r="O313" t="s">
+        <v>3467</v>
+      </c>
+      <c r="P313" t="s">
         <v>3468</v>
-      </c>
-      <c r="P313" t="s">
-        <v>3469</v>
       </c>
       <c r="Q313" t="s">
         <v>37</v>
@@ -31715,19 +31684,19 @@
         <v>20254188</v>
       </c>
       <c r="B314" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
       <c r="C314" t="s">
         <v>43</v>
       </c>
       <c r="D314" t="s">
-        <v>3471</v>
+        <v>3470</v>
       </c>
       <c r="E314" t="s">
         <v>93</v>
       </c>
       <c r="F314" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="G314" t="s">
         <v>47</v>
@@ -31736,28 +31705,28 @@
         <v>64</v>
       </c>
       <c r="I314" t="s">
+        <v>3471</v>
+      </c>
+      <c r="J314" t="s">
         <v>3472</v>
       </c>
-      <c r="J314" t="s">
+      <c r="K314" t="s">
         <v>3473</v>
       </c>
-      <c r="K314" t="s">
+      <c r="L314" t="s">
         <v>3474</v>
       </c>
-      <c r="L314" t="s">
+      <c r="M314" t="s">
         <v>3475</v>
       </c>
-      <c r="M314" t="s">
+      <c r="N314" t="s">
         <v>3476</v>
       </c>
-      <c r="N314" t="s">
+      <c r="O314" t="s">
         <v>3477</v>
       </c>
-      <c r="O314" t="s">
+      <c r="P314" t="s">
         <v>3478</v>
-      </c>
-      <c r="P314" t="s">
-        <v>3479</v>
       </c>
       <c r="Q314" t="s">
         <v>37</v>
@@ -31779,7 +31748,7 @@
         <v>20254225</v>
       </c>
       <c r="B315" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="C315" t="s">
         <v>61</v>
@@ -31791,7 +31760,7 @@
         <v>633</v>
       </c>
       <c r="F315" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="G315" t="s">
         <v>27</v>
@@ -31800,28 +31769,28 @@
         <v>64</v>
       </c>
       <c r="I315" t="s">
+        <v>3480</v>
+      </c>
+      <c r="J315" t="s">
         <v>3481</v>
       </c>
-      <c r="J315" t="s">
+      <c r="K315" t="s">
         <v>3482</v>
       </c>
-      <c r="K315" t="s">
+      <c r="L315" t="s">
         <v>3483</v>
       </c>
-      <c r="L315" t="s">
+      <c r="M315" t="s">
         <v>3484</v>
-      </c>
-      <c r="M315" t="s">
-        <v>3485</v>
       </c>
       <c r="N315" t="s">
         <v>1342</v>
       </c>
       <c r="O315" t="s">
+        <v>3485</v>
+      </c>
+      <c r="P315" t="s">
         <v>3486</v>
-      </c>
-      <c r="P315" t="s">
-        <v>3487</v>
       </c>
       <c r="Q315" t="s">
         <v>55</v>
@@ -31829,13 +31798,13 @@
       <c r="R315"/>
       <c r="S315"/>
       <c r="T315" t="s">
+        <v>3487</v>
+      </c>
+      <c r="U315" t="s">
         <v>3488</v>
       </c>
-      <c r="U315" t="s">
+      <c r="V315" t="s">
         <v>3489</v>
-      </c>
-      <c r="V315" t="s">
-        <v>3490</v>
       </c>
     </row>
     <row r="316">
@@ -31843,19 +31812,19 @@
         <v>20254234</v>
       </c>
       <c r="B316" t="s">
-        <v>3491</v>
+        <v>3490</v>
       </c>
       <c r="C316" t="s">
         <v>43</v>
       </c>
       <c r="D316" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
       <c r="E316" t="s">
         <v>132</v>
       </c>
       <c r="F316" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="G316" t="s">
         <v>27</v>
@@ -31864,28 +31833,28 @@
         <v>64</v>
       </c>
       <c r="I316" t="s">
+        <v>3492</v>
+      </c>
+      <c r="J316" t="s">
         <v>3493</v>
       </c>
-      <c r="J316" t="s">
+      <c r="K316" t="s">
         <v>3494</v>
       </c>
-      <c r="K316" t="s">
+      <c r="L316" t="s">
         <v>3495</v>
       </c>
-      <c r="L316" t="s">
+      <c r="M316" t="s">
         <v>3496</v>
-      </c>
-      <c r="M316" t="s">
-        <v>3497</v>
       </c>
       <c r="N316" t="s">
         <v>34</v>
       </c>
       <c r="O316" t="s">
+        <v>3497</v>
+      </c>
+      <c r="P316" t="s">
         <v>3498</v>
-      </c>
-      <c r="P316" t="s">
-        <v>3499</v>
       </c>
       <c r="Q316" t="s">
         <v>72</v>
@@ -31893,13 +31862,13 @@
       <c r="R316"/>
       <c r="S316"/>
       <c r="T316" t="s">
+        <v>3499</v>
+      </c>
+      <c r="U316" t="s">
         <v>3500</v>
       </c>
-      <c r="U316" t="s">
+      <c r="V316" t="s">
         <v>3501</v>
-      </c>
-      <c r="V316" t="s">
-        <v>3502</v>
       </c>
     </row>
     <row r="317">
@@ -31907,19 +31876,19 @@
         <v>20254071</v>
       </c>
       <c r="B317" t="s">
-        <v>3503</v>
+        <v>3502</v>
       </c>
       <c r="C317" t="s">
         <v>61</v>
       </c>
       <c r="D317" t="s">
-        <v>3504</v>
+        <v>3503</v>
       </c>
       <c r="E317" t="s">
         <v>93</v>
       </c>
       <c r="F317" t="s">
-        <v>3505</v>
+        <v>3504</v>
       </c>
       <c r="G317" t="s">
         <v>47</v>
@@ -31928,28 +31897,28 @@
         <v>64</v>
       </c>
       <c r="I317" t="s">
+        <v>3505</v>
+      </c>
+      <c r="J317" t="s">
         <v>3506</v>
       </c>
-      <c r="J317" t="s">
+      <c r="K317" t="s">
         <v>3507</v>
       </c>
-      <c r="K317" t="s">
+      <c r="L317" t="s">
         <v>3508</v>
       </c>
-      <c r="L317" t="s">
+      <c r="M317" t="s">
         <v>3509</v>
-      </c>
-      <c r="M317" t="s">
-        <v>3510</v>
       </c>
       <c r="N317" t="s">
         <v>34</v>
       </c>
       <c r="O317" t="s">
+        <v>3510</v>
+      </c>
+      <c r="P317" t="s">
         <v>3511</v>
-      </c>
-      <c r="P317" t="s">
-        <v>3512</v>
       </c>
       <c r="Q317" t="s">
         <v>37</v>
@@ -31957,13 +31926,13 @@
       <c r="R317"/>
       <c r="S317"/>
       <c r="T317" t="s">
+        <v>3512</v>
+      </c>
+      <c r="U317" t="s">
         <v>3513</v>
       </c>
-      <c r="U317" t="s">
+      <c r="V317" t="s">
         <v>3514</v>
-      </c>
-      <c r="V317" t="s">
-        <v>3515</v>
       </c>
     </row>
     <row r="318">
@@ -31971,7 +31940,7 @@
         <v>20254024</v>
       </c>
       <c r="B318" t="s">
-        <v>3516</v>
+        <v>3515</v>
       </c>
       <c r="C318" t="s">
         <v>61</v>
@@ -31983,7 +31952,7 @@
         <v>132</v>
       </c>
       <c r="F318" t="s">
-        <v>3517</v>
+        <v>3516</v>
       </c>
       <c r="G318" t="s">
         <v>27</v>
@@ -31992,28 +31961,28 @@
         <v>119</v>
       </c>
       <c r="I318" t="s">
+        <v>3517</v>
+      </c>
+      <c r="J318" t="s">
         <v>3518</v>
       </c>
-      <c r="J318" t="s">
+      <c r="K318" t="s">
         <v>3519</v>
       </c>
-      <c r="K318" t="s">
+      <c r="L318" t="s">
         <v>3520</v>
       </c>
-      <c r="L318" t="s">
+      <c r="M318" t="s">
         <v>3521</v>
-      </c>
-      <c r="M318" t="s">
-        <v>3522</v>
       </c>
       <c r="N318" t="s">
         <v>1342</v>
       </c>
       <c r="O318" t="s">
+        <v>3522</v>
+      </c>
+      <c r="P318" t="s">
         <v>3523</v>
-      </c>
-      <c r="P318" t="s">
-        <v>3524</v>
       </c>
       <c r="Q318" t="s">
         <v>55</v>
@@ -32035,7 +32004,7 @@
         <v>20257863</v>
       </c>
       <c r="B319" t="s">
-        <v>3525</v>
+        <v>3524</v>
       </c>
       <c r="C319" t="s">
         <v>23</v>
@@ -32047,7 +32016,7 @@
         <v>1826</v>
       </c>
       <c r="F319" t="s">
-        <v>3517</v>
+        <v>3516</v>
       </c>
       <c r="G319" t="s">
         <v>27</v>
@@ -32056,26 +32025,26 @@
         <v>28</v>
       </c>
       <c r="I319" t="s">
+        <v>3525</v>
+      </c>
+      <c r="J319" t="s">
         <v>3526</v>
-      </c>
-      <c r="J319" t="s">
-        <v>3527</v>
       </c>
       <c r="K319"/>
       <c r="L319" t="s">
+        <v>3527</v>
+      </c>
+      <c r="M319" t="s">
         <v>3528</v>
-      </c>
-      <c r="M319" t="s">
-        <v>3529</v>
       </c>
       <c r="N319" t="s">
         <v>34</v>
       </c>
       <c r="O319" t="s">
+        <v>3529</v>
+      </c>
+      <c r="P319" t="s">
         <v>3530</v>
-      </c>
-      <c r="P319" t="s">
-        <v>3531</v>
       </c>
       <c r="Q319" t="s">
         <v>37</v>
@@ -32097,7 +32066,7 @@
         <v>20257888</v>
       </c>
       <c r="B320" t="s">
-        <v>3532</v>
+        <v>3531</v>
       </c>
       <c r="C320" t="s">
         <v>23</v>
@@ -32109,7 +32078,7 @@
         <v>1473</v>
       </c>
       <c r="F320" t="s">
-        <v>3517</v>
+        <v>3516</v>
       </c>
       <c r="G320" t="s">
         <v>27</v>
@@ -32118,26 +32087,26 @@
         <v>119</v>
       </c>
       <c r="I320" t="s">
+        <v>3532</v>
+      </c>
+      <c r="J320" t="s">
         <v>3533</v>
-      </c>
-      <c r="J320" t="s">
-        <v>3534</v>
       </c>
       <c r="K320"/>
       <c r="L320" t="s">
+        <v>3534</v>
+      </c>
+      <c r="M320" t="s">
         <v>3535</v>
-      </c>
-      <c r="M320" t="s">
-        <v>3536</v>
       </c>
       <c r="N320" t="s">
         <v>34</v>
       </c>
       <c r="O320" t="s">
+        <v>3536</v>
+      </c>
+      <c r="P320" t="s">
         <v>3537</v>
-      </c>
-      <c r="P320" t="s">
-        <v>3538</v>
       </c>
       <c r="Q320" t="s">
         <v>72</v>
@@ -32159,7 +32128,7 @@
         <v>20257890</v>
       </c>
       <c r="B321" t="s">
-        <v>3539</v>
+        <v>3538</v>
       </c>
       <c r="C321" t="s">
         <v>23</v>
@@ -32171,7 +32140,7 @@
         <v>633</v>
       </c>
       <c r="F321" t="s">
-        <v>3517</v>
+        <v>3516</v>
       </c>
       <c r="G321" t="s">
         <v>27</v>
@@ -32180,26 +32149,26 @@
         <v>536</v>
       </c>
       <c r="I321" t="s">
+        <v>3539</v>
+      </c>
+      <c r="J321" t="s">
         <v>3540</v>
-      </c>
-      <c r="J321" t="s">
-        <v>3541</v>
       </c>
       <c r="K321"/>
       <c r="L321" t="s">
+        <v>3541</v>
+      </c>
+      <c r="M321" t="s">
         <v>3542</v>
-      </c>
-      <c r="M321" t="s">
-        <v>3543</v>
       </c>
       <c r="N321" t="s">
         <v>34</v>
       </c>
       <c r="O321" t="s">
+        <v>3543</v>
+      </c>
+      <c r="P321" t="s">
         <v>3544</v>
-      </c>
-      <c r="P321" t="s">
-        <v>3545</v>
       </c>
       <c r="Q321" t="s">
         <v>55</v>
@@ -32221,17 +32190,17 @@
         <v>20254003</v>
       </c>
       <c r="B322" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
       <c r="C322" t="s">
         <v>205</v>
       </c>
       <c r="D322" t="s">
-        <v>3547</v>
+        <v>3546</v>
       </c>
       <c r="E322"/>
       <c r="F322" t="s">
-        <v>3548</v>
+        <v>3547</v>
       </c>
       <c r="G322" t="s">
         <v>27</v>
@@ -32240,28 +32209,28 @@
         <v>28</v>
       </c>
       <c r="I322" t="s">
+        <v>3548</v>
+      </c>
+      <c r="J322" t="s">
         <v>3549</v>
       </c>
-      <c r="J322" t="s">
+      <c r="K322" t="s">
         <v>3550</v>
       </c>
-      <c r="K322" t="s">
+      <c r="L322" t="s">
         <v>3551</v>
       </c>
-      <c r="L322" t="s">
+      <c r="M322" t="s">
         <v>3552</v>
-      </c>
-      <c r="M322" t="s">
-        <v>3553</v>
       </c>
       <c r="N322" t="s">
         <v>1342</v>
       </c>
       <c r="O322" t="s">
+        <v>3553</v>
+      </c>
+      <c r="P322" t="s">
         <v>3554</v>
-      </c>
-      <c r="P322" t="s">
-        <v>3555</v>
       </c>
       <c r="Q322" t="s">
         <v>37</v>
@@ -32269,13 +32238,13 @@
       <c r="R322"/>
       <c r="S322"/>
       <c r="T322" t="s">
+        <v>3555</v>
+      </c>
+      <c r="U322" t="s">
         <v>3556</v>
       </c>
-      <c r="U322" t="s">
+      <c r="V322" t="s">
         <v>3557</v>
-      </c>
-      <c r="V322" t="s">
-        <v>3558</v>
       </c>
     </row>
     <row r="323">
@@ -32283,7 +32252,7 @@
         <v>20253984</v>
       </c>
       <c r="B323" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="C323" t="s">
         <v>43</v>
@@ -32293,7 +32262,7 @@
       </c>
       <c r="E323"/>
       <c r="F323" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="G323" t="s">
         <v>27</v>
@@ -32302,28 +32271,28 @@
         <v>28</v>
       </c>
       <c r="I323" t="s">
+        <v>3462</v>
+      </c>
+      <c r="J323" t="s">
         <v>3463</v>
       </c>
-      <c r="J323" t="s">
+      <c r="K323" t="s">
         <v>3464</v>
       </c>
-      <c r="K323" t="s">
-        <v>3465</v>
-      </c>
       <c r="L323" t="s">
+        <v>3560</v>
+      </c>
+      <c r="M323" t="s">
         <v>3561</v>
-      </c>
-      <c r="M323" t="s">
-        <v>3562</v>
       </c>
       <c r="N323" t="s">
         <v>1329</v>
       </c>
       <c r="O323" t="s">
+        <v>3562</v>
+      </c>
+      <c r="P323" t="s">
         <v>3563</v>
-      </c>
-      <c r="P323" t="s">
-        <v>3564</v>
       </c>
       <c r="Q323" t="s">
         <v>37</v>
@@ -32345,7 +32314,7 @@
         <v>20257663</v>
       </c>
       <c r="B324" t="s">
-        <v>3565</v>
+        <v>3564</v>
       </c>
       <c r="C324" t="s">
         <v>23</v>
@@ -32357,7 +32326,7 @@
         <v>25</v>
       </c>
       <c r="F324" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="G324" t="s">
         <v>27</v>
@@ -32366,26 +32335,26 @@
         <v>119</v>
       </c>
       <c r="I324" t="s">
+        <v>3565</v>
+      </c>
+      <c r="J324" t="s">
         <v>3566</v>
-      </c>
-      <c r="J324" t="s">
-        <v>3567</v>
       </c>
       <c r="K324"/>
       <c r="L324" t="s">
+        <v>3567</v>
+      </c>
+      <c r="M324" t="s">
         <v>3568</v>
-      </c>
-      <c r="M324" t="s">
-        <v>3569</v>
       </c>
       <c r="N324" t="s">
         <v>34</v>
       </c>
       <c r="O324" t="s">
+        <v>3569</v>
+      </c>
+      <c r="P324" t="s">
         <v>3570</v>
-      </c>
-      <c r="P324" t="s">
-        <v>3571</v>
       </c>
       <c r="Q324" t="s">
         <v>37</v>
@@ -32393,13 +32362,13 @@
       <c r="R324"/>
       <c r="S324"/>
       <c r="T324" t="s">
+        <v>3571</v>
+      </c>
+      <c r="U324" t="s">
         <v>3572</v>
       </c>
-      <c r="U324" t="s">
+      <c r="V324" t="s">
         <v>3573</v>
-      </c>
-      <c r="V324" t="s">
-        <v>3574</v>
       </c>
     </row>
     <row r="325">
@@ -32407,19 +32376,19 @@
         <v>20257698</v>
       </c>
       <c r="B325" t="s">
-        <v>3575</v>
+        <v>3574</v>
       </c>
       <c r="C325" t="s">
         <v>23</v>
       </c>
       <c r="D325" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
       <c r="E325" t="s">
         <v>132</v>
       </c>
       <c r="F325" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="G325" t="s">
         <v>27</v>
@@ -32428,26 +32397,26 @@
         <v>119</v>
       </c>
       <c r="I325" t="s">
+        <v>3576</v>
+      </c>
+      <c r="J325" t="s">
         <v>3577</v>
-      </c>
-      <c r="J325" t="s">
-        <v>3578</v>
       </c>
       <c r="K325"/>
       <c r="L325" t="s">
+        <v>3578</v>
+      </c>
+      <c r="M325" t="s">
         <v>3579</v>
-      </c>
-      <c r="M325" t="s">
-        <v>3580</v>
       </c>
       <c r="N325" t="s">
         <v>34</v>
       </c>
       <c r="O325" t="s">
+        <v>3580</v>
+      </c>
+      <c r="P325" t="s">
         <v>3581</v>
-      </c>
-      <c r="P325" t="s">
-        <v>3582</v>
       </c>
       <c r="Q325" t="s">
         <v>37</v>
@@ -32469,19 +32438,19 @@
         <v>20253971</v>
       </c>
       <c r="B326" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
       <c r="C326" t="s">
         <v>61</v>
       </c>
       <c r="D326" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="E326" t="s">
         <v>93</v>
       </c>
       <c r="F326" t="s">
-        <v>3585</v>
+        <v>3584</v>
       </c>
       <c r="G326" t="s">
         <v>47</v>
@@ -32490,28 +32459,28 @@
         <v>536</v>
       </c>
       <c r="I326" t="s">
+        <v>3585</v>
+      </c>
+      <c r="J326" t="s">
         <v>3586</v>
       </c>
-      <c r="J326" t="s">
+      <c r="K326" t="s">
         <v>3587</v>
       </c>
-      <c r="K326" t="s">
+      <c r="L326" t="s">
         <v>3588</v>
       </c>
-      <c r="L326" t="s">
+      <c r="M326" t="s">
         <v>3589</v>
-      </c>
-      <c r="M326" t="s">
-        <v>3590</v>
       </c>
       <c r="N326" t="s">
         <v>34</v>
       </c>
       <c r="O326" t="s">
+        <v>3590</v>
+      </c>
+      <c r="P326" t="s">
         <v>3591</v>
-      </c>
-      <c r="P326" t="s">
-        <v>3592</v>
       </c>
       <c r="Q326" t="s">
         <v>55</v>
@@ -32519,13 +32488,13 @@
       <c r="R326"/>
       <c r="S326"/>
       <c r="T326" t="s">
+        <v>3456</v>
+      </c>
+      <c r="U326" t="s">
         <v>3457</v>
       </c>
-      <c r="U326" t="s">
+      <c r="V326" t="s">
         <v>3458</v>
-      </c>
-      <c r="V326" t="s">
-        <v>3459</v>
       </c>
     </row>
     <row r="327">
@@ -32533,7 +32502,7 @@
         <v>20257601</v>
       </c>
       <c r="B327" t="s">
-        <v>3593</v>
+        <v>3592</v>
       </c>
       <c r="C327" t="s">
         <v>23</v>
@@ -32545,7 +32514,7 @@
         <v>1473</v>
       </c>
       <c r="F327" t="s">
-        <v>3594</v>
+        <v>3593</v>
       </c>
       <c r="G327" t="s">
         <v>27</v>
@@ -32554,26 +32523,26 @@
         <v>64</v>
       </c>
       <c r="I327" t="s">
+        <v>3594</v>
+      </c>
+      <c r="J327" t="s">
         <v>3595</v>
-      </c>
-      <c r="J327" t="s">
-        <v>3596</v>
       </c>
       <c r="K327"/>
       <c r="L327" t="s">
+        <v>3596</v>
+      </c>
+      <c r="M327" t="s">
         <v>3597</v>
-      </c>
-      <c r="M327" t="s">
-        <v>3598</v>
       </c>
       <c r="N327" t="s">
         <v>34</v>
       </c>
       <c r="O327" t="s">
+        <v>3598</v>
+      </c>
+      <c r="P327" t="s">
         <v>3599</v>
-      </c>
-      <c r="P327" t="s">
-        <v>3600</v>
       </c>
       <c r="Q327" t="s">
         <v>55</v>
@@ -32595,17 +32564,17 @@
         <v>20253941</v>
       </c>
       <c r="B328" t="s">
-        <v>3601</v>
+        <v>3600</v>
       </c>
       <c r="C328" t="s">
         <v>43</v>
       </c>
       <c r="D328" t="s">
-        <v>3602</v>
+        <v>3601</v>
       </c>
       <c r="E328"/>
       <c r="F328" t="s">
-        <v>3603</v>
+        <v>3602</v>
       </c>
       <c r="G328" t="s">
         <v>27</v>
@@ -32614,28 +32583,28 @@
         <v>1533</v>
       </c>
       <c r="I328" t="s">
+        <v>3603</v>
+      </c>
+      <c r="J328" t="s">
         <v>3604</v>
       </c>
-      <c r="J328" t="s">
+      <c r="K328" t="s">
         <v>3605</v>
       </c>
-      <c r="K328" t="s">
+      <c r="L328" t="s">
         <v>3606</v>
       </c>
-      <c r="L328" t="s">
+      <c r="M328" t="s">
         <v>3607</v>
-      </c>
-      <c r="M328" t="s">
-        <v>3608</v>
       </c>
       <c r="N328" t="s">
         <v>1965</v>
       </c>
       <c r="O328" t="s">
+        <v>3608</v>
+      </c>
+      <c r="P328" t="s">
         <v>3609</v>
-      </c>
-      <c r="P328" t="s">
-        <v>3610</v>
       </c>
       <c r="Q328" t="s">
         <v>37</v>
@@ -32645,60 +32614,6 @@
       <c r="T328"/>
       <c r="U328"/>
       <c r="V328"/>
-    </row>
-    <row r="329">
-      <c r="A329" t="n">
-        <v>20180032</v>
-      </c>
-      <c r="B329" t="s">
-        <v>3611</v>
-      </c>
-      <c r="C329" t="s">
-        <v>3612</v>
-      </c>
-      <c r="D329"/>
-      <c r="E329"/>
-      <c r="F329" t="s">
-        <v>673</v>
-      </c>
-      <c r="G329"/>
-      <c r="H329" t="s">
-        <v>28</v>
-      </c>
-      <c r="I329" t="s">
-        <v>3613</v>
-      </c>
-      <c r="J329" t="s">
-        <v>3614</v>
-      </c>
-      <c r="K329" t="s">
-        <v>3615</v>
-      </c>
-      <c r="L329"/>
-      <c r="M329"/>
-      <c r="N329" t="s">
-        <v>34</v>
-      </c>
-      <c r="O329" t="s">
-        <v>3616</v>
-      </c>
-      <c r="P329" t="s">
-        <v>3617</v>
-      </c>
-      <c r="Q329" t="s">
-        <v>975</v>
-      </c>
-      <c r="R329"/>
-      <c r="S329"/>
-      <c r="T329" t="s">
-        <v>3618</v>
-      </c>
-      <c r="U329" t="s">
-        <v>3619</v>
-      </c>
-      <c r="V329" t="s">
-        <v>3620</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Objets_parlementaires_CDF_EFK.xlsx
+++ b/Objets_parlementaires_CDF_EFK.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3619" uniqueCount="3619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3621" uniqueCount="3621">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -10140,10 +10140,16 @@
     <t xml:space="preserve">&lt;p&gt;Der Bundesrat wird beauftragt, die rechtlichen Grundlagen zu erlassen, damit baldmöglichst&amp;nbsp; qualitätsgesicherte, aktuelle und insbesondere international anschlussfähige und vergleichbare strukturierte Daten der Bundesverwaltung zur Mehrfachnutzung (unter anderem durch KI) für Forschung, Planung und Steuerung zur Verfügung gestellt werden.&amp;nbsp;Diesbezügliche verbindliche Standards für die Bundesverwaltung sind zu erlassen.&amp;nbsp;Der Bundesrat wird zudem beauftragt, eine prioritäre Auswahl jener Verwaltungsdaten zu definieren, die für eine zügige und KI-taugliche Mehrfachnutzung zuerst harmonisiert, standardisiert und technisch zugänglich gemacht werden sollen.&amp;nbsp;Insbesondere die öffentliche Bereitstellung weiterer Registerdaten ist zu prüfen. Gezielte Pilotversuche nach Art. 15 EMBAG können dies beschleunigen und sind vom Bundesrat mit den benötigten Mitteln zu beantragen.&lt;/p&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">In Ständerat geplant / Planifié au Conseil des Etats</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.parlament.ch/de/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254620</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-02-27</t>
   </si>
   <si>
     <t xml:space="preserve">Staatspolitik|Medien und Kommunikation|Menschenrechte</t>
@@ -31111,27 +31117,29 @@
         <v>3374</v>
       </c>
       <c r="N304" t="s">
-        <v>34</v>
+        <v>3375</v>
       </c>
       <c r="O304" t="s">
-        <v>3375</v>
+        <v>3376</v>
       </c>
       <c r="P304" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="Q304" t="s">
         <v>89</v>
       </c>
       <c r="R304"/>
-      <c r="S304"/>
+      <c r="S304" t="s">
+        <v>3378</v>
+      </c>
       <c r="T304" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="U304" t="s">
-        <v>3378</v>
+        <v>3380</v>
       </c>
       <c r="V304" t="s">
-        <v>3379</v>
+        <v>3381</v>
       </c>
     </row>
     <row r="305">
@@ -31139,7 +31147,7 @@
         <v>20254696</v>
       </c>
       <c r="B305" t="s">
-        <v>3380</v>
+        <v>3382</v>
       </c>
       <c r="C305" t="s">
         <v>23</v>
@@ -31160,28 +31168,28 @@
         <v>548</v>
       </c>
       <c r="I305" t="s">
-        <v>3381</v>
+        <v>3383</v>
       </c>
       <c r="J305" t="s">
-        <v>3382</v>
+        <v>3384</v>
       </c>
       <c r="K305" t="s">
-        <v>3383</v>
+        <v>3385</v>
       </c>
       <c r="L305" t="s">
-        <v>3384</v>
+        <v>3386</v>
       </c>
       <c r="M305" t="s">
-        <v>3385</v>
+        <v>3387</v>
       </c>
       <c r="N305" t="s">
         <v>34</v>
       </c>
       <c r="O305" t="s">
-        <v>3386</v>
+        <v>3388</v>
       </c>
       <c r="P305" t="s">
-        <v>3387</v>
+        <v>3389</v>
       </c>
       <c r="Q305" t="s">
         <v>73</v>
@@ -31203,7 +31211,7 @@
         <v>20254562</v>
       </c>
       <c r="B306" t="s">
-        <v>3388</v>
+        <v>3390</v>
       </c>
       <c r="C306" t="s">
         <v>217</v>
@@ -31224,28 +31232,28 @@
         <v>97</v>
       </c>
       <c r="I306" t="s">
-        <v>3389</v>
+        <v>3391</v>
       </c>
       <c r="J306" t="s">
-        <v>3390</v>
+        <v>3392</v>
       </c>
       <c r="K306" t="s">
-        <v>3391</v>
+        <v>3393</v>
       </c>
       <c r="L306" t="s">
-        <v>3392</v>
+        <v>3394</v>
       </c>
       <c r="M306" t="s">
-        <v>3393</v>
+        <v>3395</v>
       </c>
       <c r="N306" t="s">
         <v>34</v>
       </c>
       <c r="O306" t="s">
-        <v>3394</v>
+        <v>3396</v>
       </c>
       <c r="P306" t="s">
-        <v>3395</v>
+        <v>3397</v>
       </c>
       <c r="Q306" t="s">
         <v>37</v>
@@ -31253,13 +31261,13 @@
       <c r="R306"/>
       <c r="S306"/>
       <c r="T306" t="s">
-        <v>3396</v>
+        <v>3398</v>
       </c>
       <c r="U306" t="s">
-        <v>3397</v>
+        <v>3399</v>
       </c>
       <c r="V306" t="s">
-        <v>3398</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="307">
@@ -31267,13 +31275,13 @@
         <v>20254594</v>
       </c>
       <c r="B307" t="s">
-        <v>3399</v>
+        <v>3401</v>
       </c>
       <c r="C307" t="s">
         <v>23</v>
       </c>
       <c r="D307" t="s">
-        <v>3400</v>
+        <v>3402</v>
       </c>
       <c r="E307" t="s">
         <v>63</v>
@@ -31288,42 +31296,44 @@
         <v>81</v>
       </c>
       <c r="I307" t="s">
-        <v>3401</v>
+        <v>3403</v>
       </c>
       <c r="J307" t="s">
-        <v>3402</v>
+        <v>3404</v>
       </c>
       <c r="K307" t="s">
-        <v>3403</v>
+        <v>3405</v>
       </c>
       <c r="L307" t="s">
-        <v>3404</v>
+        <v>3406</v>
       </c>
       <c r="M307" t="s">
-        <v>3405</v>
+        <v>3407</v>
       </c>
       <c r="N307" t="s">
-        <v>34</v>
+        <v>3375</v>
       </c>
       <c r="O307" t="s">
-        <v>3406</v>
+        <v>3408</v>
       </c>
       <c r="P307" t="s">
-        <v>3407</v>
+        <v>3409</v>
       </c>
       <c r="Q307" t="s">
         <v>37</v>
       </c>
       <c r="R307"/>
-      <c r="S307"/>
+      <c r="S307" t="s">
+        <v>3378</v>
+      </c>
       <c r="T307" t="s">
-        <v>3408</v>
+        <v>3410</v>
       </c>
       <c r="U307" t="s">
-        <v>3409</v>
+        <v>3411</v>
       </c>
       <c r="V307" t="s">
-        <v>3410</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="308">
@@ -31331,7 +31341,7 @@
         <v>20254614</v>
       </c>
       <c r="B308" t="s">
-        <v>3411</v>
+        <v>3413</v>
       </c>
       <c r="C308" t="s">
         <v>23</v>
@@ -31352,28 +31362,28 @@
         <v>81</v>
       </c>
       <c r="I308" t="s">
-        <v>3412</v>
+        <v>3414</v>
       </c>
       <c r="J308" t="s">
-        <v>3413</v>
+        <v>3415</v>
       </c>
       <c r="K308" t="s">
-        <v>3414</v>
+        <v>3416</v>
       </c>
       <c r="L308" t="s">
-        <v>3415</v>
+        <v>3417</v>
       </c>
       <c r="M308" t="s">
-        <v>3416</v>
+        <v>3418</v>
       </c>
       <c r="N308" t="s">
         <v>34</v>
       </c>
       <c r="O308" t="s">
-        <v>3417</v>
+        <v>3419</v>
       </c>
       <c r="P308" t="s">
-        <v>3418</v>
+        <v>3420</v>
       </c>
       <c r="Q308" t="s">
         <v>37</v>
@@ -31395,19 +31405,19 @@
         <v>20258194</v>
       </c>
       <c r="B309" t="s">
-        <v>3419</v>
+        <v>3421</v>
       </c>
       <c r="C309" t="s">
         <v>43</v>
       </c>
       <c r="D309" t="s">
-        <v>3420</v>
+        <v>3422</v>
       </c>
       <c r="E309" t="s">
         <v>45</v>
       </c>
       <c r="F309" t="s">
-        <v>3421</v>
+        <v>3423</v>
       </c>
       <c r="G309" t="s">
         <v>27</v>
@@ -31416,26 +31426,26 @@
         <v>81</v>
       </c>
       <c r="I309" t="s">
-        <v>3422</v>
+        <v>3424</v>
       </c>
       <c r="J309" t="s">
-        <v>3423</v>
+        <v>3425</v>
       </c>
       <c r="K309"/>
       <c r="L309" t="s">
-        <v>3424</v>
+        <v>3426</v>
       </c>
       <c r="M309" t="s">
-        <v>3425</v>
+        <v>3427</v>
       </c>
       <c r="N309" t="s">
         <v>53</v>
       </c>
       <c r="O309" t="s">
-        <v>3426</v>
+        <v>3428</v>
       </c>
       <c r="P309" t="s">
-        <v>3427</v>
+        <v>3429</v>
       </c>
       <c r="Q309" t="s">
         <v>37</v>
@@ -31457,7 +31467,7 @@
         <v>20258273</v>
       </c>
       <c r="B310" t="s">
-        <v>3428</v>
+        <v>3430</v>
       </c>
       <c r="C310" t="s">
         <v>43</v>
@@ -31469,7 +31479,7 @@
         <v>645</v>
       </c>
       <c r="F310" t="s">
-        <v>3421</v>
+        <v>3423</v>
       </c>
       <c r="G310" t="s">
         <v>27</v>
@@ -31478,26 +31488,26 @@
         <v>81</v>
       </c>
       <c r="I310" t="s">
-        <v>3429</v>
+        <v>3431</v>
       </c>
       <c r="J310" t="s">
-        <v>3430</v>
+        <v>3432</v>
       </c>
       <c r="K310"/>
       <c r="L310" t="s">
-        <v>3431</v>
+        <v>3433</v>
       </c>
       <c r="M310" t="s">
-        <v>3432</v>
+        <v>3434</v>
       </c>
       <c r="N310" t="s">
         <v>53</v>
       </c>
       <c r="O310" t="s">
-        <v>3433</v>
+        <v>3435</v>
       </c>
       <c r="P310" t="s">
-        <v>3434</v>
+        <v>3436</v>
       </c>
       <c r="Q310" t="s">
         <v>73</v>
@@ -31505,13 +31515,13 @@
       <c r="R310"/>
       <c r="S310"/>
       <c r="T310" t="s">
-        <v>3435</v>
+        <v>3437</v>
       </c>
       <c r="U310" t="s">
-        <v>3436</v>
+        <v>3438</v>
       </c>
       <c r="V310" t="s">
-        <v>3437</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="311">
@@ -31519,7 +31529,7 @@
         <v>20254463</v>
       </c>
       <c r="B311" t="s">
-        <v>3438</v>
+        <v>3440</v>
       </c>
       <c r="C311" t="s">
         <v>61</v>
@@ -31531,7 +31541,7 @@
         <v>645</v>
       </c>
       <c r="F311" t="s">
-        <v>3439</v>
+        <v>3441</v>
       </c>
       <c r="G311" t="s">
         <v>27</v>
@@ -31540,28 +31550,28 @@
         <v>47</v>
       </c>
       <c r="I311" t="s">
-        <v>3440</v>
+        <v>3442</v>
       </c>
       <c r="J311" t="s">
-        <v>3441</v>
+        <v>3443</v>
       </c>
       <c r="K311" t="s">
-        <v>3442</v>
+        <v>3444</v>
       </c>
       <c r="L311" t="s">
-        <v>3443</v>
+        <v>3445</v>
       </c>
       <c r="M311" t="s">
-        <v>3444</v>
+        <v>3446</v>
       </c>
       <c r="N311" t="s">
         <v>53</v>
       </c>
       <c r="O311" t="s">
-        <v>3445</v>
+        <v>3447</v>
       </c>
       <c r="P311" t="s">
-        <v>3446</v>
+        <v>3448</v>
       </c>
       <c r="Q311" t="s">
         <v>89</v>
@@ -31583,19 +31593,19 @@
         <v>20254281</v>
       </c>
       <c r="B312" t="s">
-        <v>3447</v>
+        <v>3449</v>
       </c>
       <c r="C312" t="s">
         <v>217</v>
       </c>
       <c r="D312" t="s">
-        <v>3448</v>
+        <v>3450</v>
       </c>
       <c r="E312" t="s">
         <v>144</v>
       </c>
       <c r="F312" t="s">
-        <v>3449</v>
+        <v>3451</v>
       </c>
       <c r="G312" t="s">
         <v>27</v>
@@ -31604,28 +31614,28 @@
         <v>548</v>
       </c>
       <c r="I312" t="s">
-        <v>3450</v>
+        <v>3452</v>
       </c>
       <c r="J312" t="s">
-        <v>3451</v>
+        <v>3453</v>
       </c>
       <c r="K312" t="s">
-        <v>3452</v>
+        <v>3454</v>
       </c>
       <c r="L312" t="s">
-        <v>3453</v>
+        <v>3455</v>
       </c>
       <c r="M312" t="s">
-        <v>3454</v>
+        <v>3456</v>
       </c>
       <c r="N312" t="s">
         <v>34</v>
       </c>
       <c r="O312" t="s">
-        <v>3455</v>
+        <v>3457</v>
       </c>
       <c r="P312" t="s">
-        <v>3456</v>
+        <v>3458</v>
       </c>
       <c r="Q312" t="s">
         <v>73</v>
@@ -31647,7 +31657,7 @@
         <v>20254317</v>
       </c>
       <c r="B313" t="s">
-        <v>3457</v>
+        <v>3459</v>
       </c>
       <c r="C313" t="s">
         <v>61</v>
@@ -31659,7 +31669,7 @@
         <v>25</v>
       </c>
       <c r="F313" t="s">
-        <v>3449</v>
+        <v>3451</v>
       </c>
       <c r="G313" t="s">
         <v>27</v>
@@ -31668,28 +31678,28 @@
         <v>548</v>
       </c>
       <c r="I313" t="s">
-        <v>3458</v>
+        <v>3460</v>
       </c>
       <c r="J313" t="s">
-        <v>3459</v>
+        <v>3461</v>
       </c>
       <c r="K313" t="s">
-        <v>3460</v>
+        <v>3462</v>
       </c>
       <c r="L313" t="s">
-        <v>3461</v>
+        <v>3463</v>
       </c>
       <c r="M313" t="s">
-        <v>3462</v>
+        <v>3464</v>
       </c>
       <c r="N313" t="s">
         <v>34</v>
       </c>
       <c r="O313" t="s">
-        <v>3463</v>
+        <v>3465</v>
       </c>
       <c r="P313" t="s">
-        <v>3464</v>
+        <v>3466</v>
       </c>
       <c r="Q313" t="s">
         <v>73</v>
@@ -31697,13 +31707,13 @@
       <c r="R313"/>
       <c r="S313"/>
       <c r="T313" t="s">
-        <v>3465</v>
+        <v>3467</v>
       </c>
       <c r="U313" t="s">
-        <v>3466</v>
+        <v>3468</v>
       </c>
       <c r="V313" t="s">
-        <v>3467</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="314">
@@ -31711,19 +31721,19 @@
         <v>20254145</v>
       </c>
       <c r="B314" t="s">
-        <v>3468</v>
+        <v>3470</v>
       </c>
       <c r="C314" t="s">
         <v>61</v>
       </c>
       <c r="D314" t="s">
-        <v>3469</v>
+        <v>3471</v>
       </c>
       <c r="E314" t="s">
         <v>25</v>
       </c>
       <c r="F314" t="s">
-        <v>3470</v>
+        <v>3472</v>
       </c>
       <c r="G314" t="s">
         <v>65</v>
@@ -31732,28 +31742,28 @@
         <v>47</v>
       </c>
       <c r="I314" t="s">
-        <v>3471</v>
+        <v>3473</v>
       </c>
       <c r="J314" t="s">
-        <v>3472</v>
+        <v>3474</v>
       </c>
       <c r="K314" t="s">
-        <v>3473</v>
+        <v>3475</v>
       </c>
       <c r="L314" t="s">
-        <v>3474</v>
+        <v>3476</v>
       </c>
       <c r="M314" t="s">
-        <v>3475</v>
+        <v>3477</v>
       </c>
       <c r="N314" t="s">
         <v>53</v>
       </c>
       <c r="O314" t="s">
-        <v>3476</v>
+        <v>3478</v>
       </c>
       <c r="P314" t="s">
-        <v>3477</v>
+        <v>3479</v>
       </c>
       <c r="Q314" t="s">
         <v>37</v>
@@ -31775,19 +31785,19 @@
         <v>20254188</v>
       </c>
       <c r="B315" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="C315" t="s">
         <v>61</v>
       </c>
       <c r="D315" t="s">
-        <v>3479</v>
+        <v>3481</v>
       </c>
       <c r="E315" t="s">
         <v>25</v>
       </c>
       <c r="F315" t="s">
-        <v>3470</v>
+        <v>3472</v>
       </c>
       <c r="G315" t="s">
         <v>65</v>
@@ -31796,28 +31806,28 @@
         <v>81</v>
       </c>
       <c r="I315" t="s">
-        <v>3480</v>
+        <v>3482</v>
       </c>
       <c r="J315" t="s">
-        <v>3481</v>
+        <v>3483</v>
       </c>
       <c r="K315" t="s">
-        <v>3482</v>
+        <v>3484</v>
       </c>
       <c r="L315" t="s">
-        <v>3483</v>
+        <v>3485</v>
       </c>
       <c r="M315" t="s">
-        <v>3484</v>
+        <v>3486</v>
       </c>
       <c r="N315" t="s">
-        <v>3485</v>
+        <v>3487</v>
       </c>
       <c r="O315" t="s">
-        <v>3486</v>
+        <v>3488</v>
       </c>
       <c r="P315" t="s">
-        <v>3487</v>
+        <v>3489</v>
       </c>
       <c r="Q315" t="s">
         <v>37</v>
@@ -31839,7 +31849,7 @@
         <v>20254225</v>
       </c>
       <c r="B316" t="s">
-        <v>3488</v>
+        <v>3490</v>
       </c>
       <c r="C316" t="s">
         <v>23</v>
@@ -31851,7 +31861,7 @@
         <v>645</v>
       </c>
       <c r="F316" t="s">
-        <v>3470</v>
+        <v>3472</v>
       </c>
       <c r="G316" t="s">
         <v>27</v>
@@ -31860,28 +31870,28 @@
         <v>81</v>
       </c>
       <c r="I316" t="s">
-        <v>3489</v>
+        <v>3491</v>
       </c>
       <c r="J316" t="s">
-        <v>3490</v>
+        <v>3492</v>
       </c>
       <c r="K316" t="s">
-        <v>3491</v>
+        <v>3493</v>
       </c>
       <c r="L316" t="s">
-        <v>3492</v>
+        <v>3494</v>
       </c>
       <c r="M316" t="s">
-        <v>3493</v>
+        <v>3495</v>
       </c>
       <c r="N316" t="s">
         <v>34</v>
       </c>
       <c r="O316" t="s">
-        <v>3494</v>
+        <v>3496</v>
       </c>
       <c r="P316" t="s">
-        <v>3495</v>
+        <v>3497</v>
       </c>
       <c r="Q316" t="s">
         <v>73</v>
@@ -31889,13 +31899,13 @@
       <c r="R316"/>
       <c r="S316"/>
       <c r="T316" t="s">
-        <v>3496</v>
+        <v>3498</v>
       </c>
       <c r="U316" t="s">
-        <v>3497</v>
+        <v>3499</v>
       </c>
       <c r="V316" t="s">
-        <v>3498</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="317">
@@ -31903,19 +31913,19 @@
         <v>20254234</v>
       </c>
       <c r="B317" t="s">
-        <v>3499</v>
+        <v>3501</v>
       </c>
       <c r="C317" t="s">
         <v>61</v>
       </c>
       <c r="D317" t="s">
-        <v>3500</v>
+        <v>3502</v>
       </c>
       <c r="E317" t="s">
         <v>144</v>
       </c>
       <c r="F317" t="s">
-        <v>3470</v>
+        <v>3472</v>
       </c>
       <c r="G317" t="s">
         <v>27</v>
@@ -31924,28 +31934,28 @@
         <v>81</v>
       </c>
       <c r="I317" t="s">
-        <v>3501</v>
+        <v>3503</v>
       </c>
       <c r="J317" t="s">
-        <v>3502</v>
+        <v>3504</v>
       </c>
       <c r="K317" t="s">
-        <v>3503</v>
+        <v>3505</v>
       </c>
       <c r="L317" t="s">
-        <v>3504</v>
+        <v>3506</v>
       </c>
       <c r="M317" t="s">
-        <v>3505</v>
+        <v>3507</v>
       </c>
       <c r="N317" t="s">
         <v>53</v>
       </c>
       <c r="O317" t="s">
-        <v>3506</v>
+        <v>3508</v>
       </c>
       <c r="P317" t="s">
-        <v>3507</v>
+        <v>3509</v>
       </c>
       <c r="Q317" t="s">
         <v>89</v>
@@ -31953,13 +31963,13 @@
       <c r="R317"/>
       <c r="S317"/>
       <c r="T317" t="s">
-        <v>3508</v>
+        <v>3510</v>
       </c>
       <c r="U317" t="s">
-        <v>3509</v>
+        <v>3511</v>
       </c>
       <c r="V317" t="s">
-        <v>3510</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="318">
@@ -31967,19 +31977,19 @@
         <v>20254071</v>
       </c>
       <c r="B318" t="s">
-        <v>3511</v>
+        <v>3513</v>
       </c>
       <c r="C318" t="s">
         <v>23</v>
       </c>
       <c r="D318" t="s">
-        <v>3512</v>
+        <v>3514</v>
       </c>
       <c r="E318" t="s">
         <v>25</v>
       </c>
       <c r="F318" t="s">
-        <v>3513</v>
+        <v>3515</v>
       </c>
       <c r="G318" t="s">
         <v>65</v>
@@ -31988,28 +31998,28 @@
         <v>81</v>
       </c>
       <c r="I318" t="s">
-        <v>3514</v>
+        <v>3516</v>
       </c>
       <c r="J318" t="s">
-        <v>3515</v>
+        <v>3517</v>
       </c>
       <c r="K318" t="s">
-        <v>3516</v>
+        <v>3518</v>
       </c>
       <c r="L318" t="s">
-        <v>3517</v>
+        <v>3519</v>
       </c>
       <c r="M318" t="s">
-        <v>3518</v>
+        <v>3520</v>
       </c>
       <c r="N318" t="s">
         <v>53</v>
       </c>
       <c r="O318" t="s">
-        <v>3519</v>
+        <v>3521</v>
       </c>
       <c r="P318" t="s">
-        <v>3520</v>
+        <v>3522</v>
       </c>
       <c r="Q318" t="s">
         <v>37</v>
@@ -32017,13 +32027,13 @@
       <c r="R318"/>
       <c r="S318"/>
       <c r="T318" t="s">
-        <v>3521</v>
+        <v>3523</v>
       </c>
       <c r="U318" t="s">
-        <v>3522</v>
+        <v>3524</v>
       </c>
       <c r="V318" t="s">
-        <v>3523</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="319">
@@ -32031,7 +32041,7 @@
         <v>20254024</v>
       </c>
       <c r="B319" t="s">
-        <v>3524</v>
+        <v>3526</v>
       </c>
       <c r="C319" t="s">
         <v>23</v>
@@ -32043,7 +32053,7 @@
         <v>144</v>
       </c>
       <c r="F319" t="s">
-        <v>3525</v>
+        <v>3527</v>
       </c>
       <c r="G319" t="s">
         <v>27</v>
@@ -32052,28 +32062,28 @@
         <v>28</v>
       </c>
       <c r="I319" t="s">
-        <v>3526</v>
+        <v>3528</v>
       </c>
       <c r="J319" t="s">
-        <v>3527</v>
+        <v>3529</v>
       </c>
       <c r="K319" t="s">
-        <v>3528</v>
+        <v>3530</v>
       </c>
       <c r="L319" t="s">
-        <v>3529</v>
+        <v>3531</v>
       </c>
       <c r="M319" t="s">
-        <v>3530</v>
+        <v>3532</v>
       </c>
       <c r="N319" t="s">
         <v>34</v>
       </c>
       <c r="O319" t="s">
-        <v>3531</v>
+        <v>3533</v>
       </c>
       <c r="P319" t="s">
-        <v>3532</v>
+        <v>3534</v>
       </c>
       <c r="Q319" t="s">
         <v>73</v>
@@ -32095,7 +32105,7 @@
         <v>20257863</v>
       </c>
       <c r="B320" t="s">
-        <v>3533</v>
+        <v>3535</v>
       </c>
       <c r="C320" t="s">
         <v>43</v>
@@ -32107,7 +32117,7 @@
         <v>1836</v>
       </c>
       <c r="F320" t="s">
-        <v>3525</v>
+        <v>3527</v>
       </c>
       <c r="G320" t="s">
         <v>27</v>
@@ -32116,26 +32126,26 @@
         <v>47</v>
       </c>
       <c r="I320" t="s">
-        <v>3534</v>
+        <v>3536</v>
       </c>
       <c r="J320" t="s">
-        <v>3535</v>
+        <v>3537</v>
       </c>
       <c r="K320"/>
       <c r="L320" t="s">
-        <v>3536</v>
+        <v>3538</v>
       </c>
       <c r="M320" t="s">
-        <v>3537</v>
+        <v>3539</v>
       </c>
       <c r="N320" t="s">
         <v>53</v>
       </c>
       <c r="O320" t="s">
-        <v>3538</v>
+        <v>3540</v>
       </c>
       <c r="P320" t="s">
-        <v>3539</v>
+        <v>3541</v>
       </c>
       <c r="Q320" t="s">
         <v>37</v>
@@ -32157,7 +32167,7 @@
         <v>20257888</v>
       </c>
       <c r="B321" t="s">
-        <v>3540</v>
+        <v>3542</v>
       </c>
       <c r="C321" t="s">
         <v>43</v>
@@ -32169,7 +32179,7 @@
         <v>1483</v>
       </c>
       <c r="F321" t="s">
-        <v>3525</v>
+        <v>3527</v>
       </c>
       <c r="G321" t="s">
         <v>27</v>
@@ -32178,26 +32188,26 @@
         <v>28</v>
       </c>
       <c r="I321" t="s">
-        <v>3541</v>
+        <v>3543</v>
       </c>
       <c r="J321" t="s">
-        <v>3542</v>
+        <v>3544</v>
       </c>
       <c r="K321"/>
       <c r="L321" t="s">
-        <v>3543</v>
+        <v>3545</v>
       </c>
       <c r="M321" t="s">
-        <v>3544</v>
+        <v>3546</v>
       </c>
       <c r="N321" t="s">
         <v>53</v>
       </c>
       <c r="O321" t="s">
-        <v>3545</v>
+        <v>3547</v>
       </c>
       <c r="P321" t="s">
-        <v>3546</v>
+        <v>3548</v>
       </c>
       <c r="Q321" t="s">
         <v>89</v>
@@ -32219,7 +32229,7 @@
         <v>20257890</v>
       </c>
       <c r="B322" t="s">
-        <v>3547</v>
+        <v>3549</v>
       </c>
       <c r="C322" t="s">
         <v>43</v>
@@ -32231,7 +32241,7 @@
         <v>645</v>
       </c>
       <c r="F322" t="s">
-        <v>3525</v>
+        <v>3527</v>
       </c>
       <c r="G322" t="s">
         <v>27</v>
@@ -32240,26 +32250,26 @@
         <v>548</v>
       </c>
       <c r="I322" t="s">
-        <v>3548</v>
+        <v>3550</v>
       </c>
       <c r="J322" t="s">
-        <v>3549</v>
+        <v>3551</v>
       </c>
       <c r="K322"/>
       <c r="L322" t="s">
-        <v>3550</v>
+        <v>3552</v>
       </c>
       <c r="M322" t="s">
-        <v>3551</v>
+        <v>3553</v>
       </c>
       <c r="N322" t="s">
         <v>53</v>
       </c>
       <c r="O322" t="s">
-        <v>3552</v>
+        <v>3554</v>
       </c>
       <c r="P322" t="s">
-        <v>3553</v>
+        <v>3555</v>
       </c>
       <c r="Q322" t="s">
         <v>73</v>
@@ -32281,17 +32291,17 @@
         <v>20254003</v>
       </c>
       <c r="B323" t="s">
-        <v>3554</v>
+        <v>3556</v>
       </c>
       <c r="C323" t="s">
         <v>217</v>
       </c>
       <c r="D323" t="s">
-        <v>3555</v>
+        <v>3557</v>
       </c>
       <c r="E323"/>
       <c r="F323" t="s">
-        <v>3556</v>
+        <v>3558</v>
       </c>
       <c r="G323" t="s">
         <v>27</v>
@@ -32300,28 +32310,28 @@
         <v>47</v>
       </c>
       <c r="I323" t="s">
-        <v>3557</v>
+        <v>3559</v>
       </c>
       <c r="J323" t="s">
-        <v>3558</v>
+        <v>3560</v>
       </c>
       <c r="K323" t="s">
-        <v>3559</v>
+        <v>3561</v>
       </c>
       <c r="L323" t="s">
-        <v>3560</v>
+        <v>3562</v>
       </c>
       <c r="M323" t="s">
-        <v>3561</v>
+        <v>3563</v>
       </c>
       <c r="N323" t="s">
         <v>34</v>
       </c>
       <c r="O323" t="s">
-        <v>3562</v>
+        <v>3564</v>
       </c>
       <c r="P323" t="s">
-        <v>3563</v>
+        <v>3565</v>
       </c>
       <c r="Q323" t="s">
         <v>37</v>
@@ -32329,13 +32339,13 @@
       <c r="R323"/>
       <c r="S323"/>
       <c r="T323" t="s">
-        <v>3564</v>
+        <v>3566</v>
       </c>
       <c r="U323" t="s">
-        <v>3565</v>
+        <v>3567</v>
       </c>
       <c r="V323" t="s">
-        <v>3566</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="324">
@@ -32343,7 +32353,7 @@
         <v>20253984</v>
       </c>
       <c r="B324" t="s">
-        <v>3567</v>
+        <v>3569</v>
       </c>
       <c r="C324" t="s">
         <v>61</v>
@@ -32353,7 +32363,7 @@
       </c>
       <c r="E324"/>
       <c r="F324" t="s">
-        <v>3568</v>
+        <v>3570</v>
       </c>
       <c r="G324" t="s">
         <v>27</v>
@@ -32362,34 +32372,36 @@
         <v>47</v>
       </c>
       <c r="I324" t="s">
-        <v>3471</v>
+        <v>3473</v>
       </c>
       <c r="J324" t="s">
-        <v>3472</v>
+        <v>3474</v>
       </c>
       <c r="K324" t="s">
-        <v>3473</v>
+        <v>3475</v>
       </c>
       <c r="L324" t="s">
-        <v>3569</v>
+        <v>3571</v>
       </c>
       <c r="M324" t="s">
-        <v>3570</v>
+        <v>3572</v>
       </c>
       <c r="N324" t="s">
-        <v>1341</v>
+        <v>3375</v>
       </c>
       <c r="O324" t="s">
-        <v>3571</v>
+        <v>3573</v>
       </c>
       <c r="P324" t="s">
-        <v>3572</v>
+        <v>3574</v>
       </c>
       <c r="Q324" t="s">
         <v>37</v>
       </c>
       <c r="R324"/>
-      <c r="S324"/>
+      <c r="S324" t="s">
+        <v>3378</v>
+      </c>
       <c r="T324" t="s">
         <v>117</v>
       </c>
@@ -32405,7 +32417,7 @@
         <v>20257663</v>
       </c>
       <c r="B325" t="s">
-        <v>3573</v>
+        <v>3575</v>
       </c>
       <c r="C325" t="s">
         <v>43</v>
@@ -32417,7 +32429,7 @@
         <v>45</v>
       </c>
       <c r="F325" t="s">
-        <v>3568</v>
+        <v>3570</v>
       </c>
       <c r="G325" t="s">
         <v>27</v>
@@ -32426,26 +32438,26 @@
         <v>28</v>
       </c>
       <c r="I325" t="s">
-        <v>3574</v>
+        <v>3576</v>
       </c>
       <c r="J325" t="s">
-        <v>3575</v>
+        <v>3577</v>
       </c>
       <c r="K325"/>
       <c r="L325" t="s">
-        <v>3576</v>
+        <v>3578</v>
       </c>
       <c r="M325" t="s">
-        <v>3577</v>
+        <v>3579</v>
       </c>
       <c r="N325" t="s">
         <v>53</v>
       </c>
       <c r="O325" t="s">
-        <v>3578</v>
+        <v>3580</v>
       </c>
       <c r="P325" t="s">
-        <v>3579</v>
+        <v>3581</v>
       </c>
       <c r="Q325" t="s">
         <v>37</v>
@@ -32453,13 +32465,13 @@
       <c r="R325"/>
       <c r="S325"/>
       <c r="T325" t="s">
-        <v>3580</v>
+        <v>3582</v>
       </c>
       <c r="U325" t="s">
-        <v>3581</v>
+        <v>3583</v>
       </c>
       <c r="V325" t="s">
-        <v>3582</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="326">
@@ -32467,19 +32479,19 @@
         <v>20257698</v>
       </c>
       <c r="B326" t="s">
-        <v>3583</v>
+        <v>3585</v>
       </c>
       <c r="C326" t="s">
         <v>43</v>
       </c>
       <c r="D326" t="s">
-        <v>3584</v>
+        <v>3586</v>
       </c>
       <c r="E326" t="s">
         <v>144</v>
       </c>
       <c r="F326" t="s">
-        <v>3568</v>
+        <v>3570</v>
       </c>
       <c r="G326" t="s">
         <v>27</v>
@@ -32488,26 +32500,26 @@
         <v>28</v>
       </c>
       <c r="I326" t="s">
-        <v>3585</v>
+        <v>3587</v>
       </c>
       <c r="J326" t="s">
-        <v>3586</v>
+        <v>3588</v>
       </c>
       <c r="K326"/>
       <c r="L326" t="s">
-        <v>3587</v>
+        <v>3589</v>
       </c>
       <c r="M326" t="s">
-        <v>3588</v>
+        <v>3590</v>
       </c>
       <c r="N326" t="s">
         <v>53</v>
       </c>
       <c r="O326" t="s">
-        <v>3589</v>
+        <v>3591</v>
       </c>
       <c r="P326" t="s">
-        <v>3590</v>
+        <v>3592</v>
       </c>
       <c r="Q326" t="s">
         <v>37</v>
@@ -32529,19 +32541,19 @@
         <v>20253971</v>
       </c>
       <c r="B327" t="s">
-        <v>3591</v>
+        <v>3593</v>
       </c>
       <c r="C327" t="s">
         <v>23</v>
       </c>
       <c r="D327" t="s">
-        <v>3592</v>
+        <v>3594</v>
       </c>
       <c r="E327" t="s">
         <v>25</v>
       </c>
       <c r="F327" t="s">
-        <v>3593</v>
+        <v>3595</v>
       </c>
       <c r="G327" t="s">
         <v>65</v>
@@ -32550,28 +32562,28 @@
         <v>548</v>
       </c>
       <c r="I327" t="s">
-        <v>3594</v>
+        <v>3596</v>
       </c>
       <c r="J327" t="s">
-        <v>3595</v>
+        <v>3597</v>
       </c>
       <c r="K327" t="s">
-        <v>3596</v>
+        <v>3598</v>
       </c>
       <c r="L327" t="s">
-        <v>3597</v>
+        <v>3599</v>
       </c>
       <c r="M327" t="s">
-        <v>3598</v>
+        <v>3600</v>
       </c>
       <c r="N327" t="s">
         <v>53</v>
       </c>
       <c r="O327" t="s">
-        <v>3599</v>
+        <v>3601</v>
       </c>
       <c r="P327" t="s">
-        <v>3600</v>
+        <v>3602</v>
       </c>
       <c r="Q327" t="s">
         <v>73</v>
@@ -32579,13 +32591,13 @@
       <c r="R327"/>
       <c r="S327"/>
       <c r="T327" t="s">
-        <v>3465</v>
+        <v>3467</v>
       </c>
       <c r="U327" t="s">
-        <v>3466</v>
+        <v>3468</v>
       </c>
       <c r="V327" t="s">
-        <v>3467</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="328">
@@ -32593,7 +32605,7 @@
         <v>20257601</v>
       </c>
       <c r="B328" t="s">
-        <v>3601</v>
+        <v>3603</v>
       </c>
       <c r="C328" t="s">
         <v>43</v>
@@ -32605,7 +32617,7 @@
         <v>1483</v>
       </c>
       <c r="F328" t="s">
-        <v>3602</v>
+        <v>3604</v>
       </c>
       <c r="G328" t="s">
         <v>27</v>
@@ -32614,26 +32626,26 @@
         <v>81</v>
       </c>
       <c r="I328" t="s">
-        <v>3603</v>
+        <v>3605</v>
       </c>
       <c r="J328" t="s">
-        <v>3604</v>
+        <v>3606</v>
       </c>
       <c r="K328"/>
       <c r="L328" t="s">
-        <v>3605</v>
+        <v>3607</v>
       </c>
       <c r="M328" t="s">
-        <v>3606</v>
+        <v>3608</v>
       </c>
       <c r="N328" t="s">
         <v>53</v>
       </c>
       <c r="O328" t="s">
-        <v>3607</v>
+        <v>3609</v>
       </c>
       <c r="P328" t="s">
-        <v>3608</v>
+        <v>3610</v>
       </c>
       <c r="Q328" t="s">
         <v>73</v>
@@ -32655,17 +32667,17 @@
         <v>20253941</v>
       </c>
       <c r="B329" t="s">
-        <v>3609</v>
+        <v>3611</v>
       </c>
       <c r="C329" t="s">
         <v>61</v>
       </c>
       <c r="D329" t="s">
-        <v>3610</v>
+        <v>3612</v>
       </c>
       <c r="E329"/>
       <c r="F329" t="s">
-        <v>3611</v>
+        <v>3613</v>
       </c>
       <c r="G329" t="s">
         <v>27</v>
@@ -32674,28 +32686,28 @@
         <v>1543</v>
       </c>
       <c r="I329" t="s">
-        <v>3612</v>
+        <v>3614</v>
       </c>
       <c r="J329" t="s">
-        <v>3613</v>
+        <v>3615</v>
       </c>
       <c r="K329" t="s">
-        <v>3614</v>
+        <v>3616</v>
       </c>
       <c r="L329" t="s">
-        <v>3615</v>
+        <v>3617</v>
       </c>
       <c r="M329" t="s">
-        <v>3616</v>
+        <v>3618</v>
       </c>
       <c r="N329" t="s">
         <v>1975</v>
       </c>
       <c r="O329" t="s">
-        <v>3617</v>
+        <v>3619</v>
       </c>
       <c r="P329" t="s">
-        <v>3618</v>
+        <v>3620</v>
       </c>
       <c r="Q329" t="s">
         <v>37</v>

--- a/Objets_parlementaires_CDF_EFK.xlsx
+++ b/Objets_parlementaires_CDF_EFK.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3621" uniqueCount="3621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3620" uniqueCount="3620">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -10147,9 +10147,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254620</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-02-27</t>
   </si>
   <si>
     <t xml:space="preserve">Staatspolitik|Medien und Kommunikation|Menschenrechte</t>
@@ -31129,17 +31126,15 @@
         <v>89</v>
       </c>
       <c r="R304"/>
-      <c r="S304" t="s">
+      <c r="S304"/>
+      <c r="T304" t="s">
         <v>3378</v>
       </c>
-      <c r="T304" t="s">
+      <c r="U304" t="s">
         <v>3379</v>
       </c>
-      <c r="U304" t="s">
+      <c r="V304" t="s">
         <v>3380</v>
-      </c>
-      <c r="V304" t="s">
-        <v>3381</v>
       </c>
     </row>
     <row r="305">
@@ -31147,7 +31142,7 @@
         <v>20254696</v>
       </c>
       <c r="B305" t="s">
-        <v>3382</v>
+        <v>3381</v>
       </c>
       <c r="C305" t="s">
         <v>23</v>
@@ -31168,28 +31163,28 @@
         <v>548</v>
       </c>
       <c r="I305" t="s">
+        <v>3382</v>
+      </c>
+      <c r="J305" t="s">
         <v>3383</v>
       </c>
-      <c r="J305" t="s">
+      <c r="K305" t="s">
         <v>3384</v>
       </c>
-      <c r="K305" t="s">
+      <c r="L305" t="s">
         <v>3385</v>
       </c>
-      <c r="L305" t="s">
+      <c r="M305" t="s">
         <v>3386</v>
-      </c>
-      <c r="M305" t="s">
-        <v>3387</v>
       </c>
       <c r="N305" t="s">
         <v>34</v>
       </c>
       <c r="O305" t="s">
+        <v>3387</v>
+      </c>
+      <c r="P305" t="s">
         <v>3388</v>
-      </c>
-      <c r="P305" t="s">
-        <v>3389</v>
       </c>
       <c r="Q305" t="s">
         <v>73</v>
@@ -31211,7 +31206,7 @@
         <v>20254562</v>
       </c>
       <c r="B306" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="C306" t="s">
         <v>217</v>
@@ -31232,28 +31227,28 @@
         <v>97</v>
       </c>
       <c r="I306" t="s">
+        <v>3390</v>
+      </c>
+      <c r="J306" t="s">
         <v>3391</v>
       </c>
-      <c r="J306" t="s">
+      <c r="K306" t="s">
         <v>3392</v>
       </c>
-      <c r="K306" t="s">
+      <c r="L306" t="s">
         <v>3393</v>
       </c>
-      <c r="L306" t="s">
+      <c r="M306" t="s">
         <v>3394</v>
-      </c>
-      <c r="M306" t="s">
-        <v>3395</v>
       </c>
       <c r="N306" t="s">
         <v>34</v>
       </c>
       <c r="O306" t="s">
+        <v>3395</v>
+      </c>
+      <c r="P306" t="s">
         <v>3396</v>
-      </c>
-      <c r="P306" t="s">
-        <v>3397</v>
       </c>
       <c r="Q306" t="s">
         <v>37</v>
@@ -31261,13 +31256,13 @@
       <c r="R306"/>
       <c r="S306"/>
       <c r="T306" t="s">
+        <v>3397</v>
+      </c>
+      <c r="U306" t="s">
         <v>3398</v>
       </c>
-      <c r="U306" t="s">
+      <c r="V306" t="s">
         <v>3399</v>
-      </c>
-      <c r="V306" t="s">
-        <v>3400</v>
       </c>
     </row>
     <row r="307">
@@ -31275,13 +31270,13 @@
         <v>20254594</v>
       </c>
       <c r="B307" t="s">
-        <v>3401</v>
+        <v>3400</v>
       </c>
       <c r="C307" t="s">
         <v>23</v>
       </c>
       <c r="D307" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="E307" t="s">
         <v>63</v>
@@ -31296,44 +31291,42 @@
         <v>81</v>
       </c>
       <c r="I307" t="s">
+        <v>3402</v>
+      </c>
+      <c r="J307" t="s">
         <v>3403</v>
       </c>
-      <c r="J307" t="s">
+      <c r="K307" t="s">
         <v>3404</v>
       </c>
-      <c r="K307" t="s">
+      <c r="L307" t="s">
         <v>3405</v>
       </c>
-      <c r="L307" t="s">
+      <c r="M307" t="s">
         <v>3406</v>
-      </c>
-      <c r="M307" t="s">
-        <v>3407</v>
       </c>
       <c r="N307" t="s">
         <v>3375</v>
       </c>
       <c r="O307" t="s">
+        <v>3407</v>
+      </c>
+      <c r="P307" t="s">
         <v>3408</v>
-      </c>
-      <c r="P307" t="s">
-        <v>3409</v>
       </c>
       <c r="Q307" t="s">
         <v>37</v>
       </c>
       <c r="R307"/>
-      <c r="S307" t="s">
-        <v>3378</v>
-      </c>
+      <c r="S307"/>
       <c r="T307" t="s">
+        <v>3409</v>
+      </c>
+      <c r="U307" t="s">
         <v>3410</v>
       </c>
-      <c r="U307" t="s">
+      <c r="V307" t="s">
         <v>3411</v>
-      </c>
-      <c r="V307" t="s">
-        <v>3412</v>
       </c>
     </row>
     <row r="308">
@@ -31341,7 +31334,7 @@
         <v>20254614</v>
       </c>
       <c r="B308" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="C308" t="s">
         <v>23</v>
@@ -31362,28 +31355,28 @@
         <v>81</v>
       </c>
       <c r="I308" t="s">
+        <v>3413</v>
+      </c>
+      <c r="J308" t="s">
         <v>3414</v>
       </c>
-      <c r="J308" t="s">
+      <c r="K308" t="s">
         <v>3415</v>
       </c>
-      <c r="K308" t="s">
+      <c r="L308" t="s">
         <v>3416</v>
       </c>
-      <c r="L308" t="s">
+      <c r="M308" t="s">
         <v>3417</v>
-      </c>
-      <c r="M308" t="s">
-        <v>3418</v>
       </c>
       <c r="N308" t="s">
         <v>34</v>
       </c>
       <c r="O308" t="s">
+        <v>3418</v>
+      </c>
+      <c r="P308" t="s">
         <v>3419</v>
-      </c>
-      <c r="P308" t="s">
-        <v>3420</v>
       </c>
       <c r="Q308" t="s">
         <v>37</v>
@@ -31405,19 +31398,19 @@
         <v>20258194</v>
       </c>
       <c r="B309" t="s">
-        <v>3421</v>
+        <v>3420</v>
       </c>
       <c r="C309" t="s">
         <v>43</v>
       </c>
       <c r="D309" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="E309" t="s">
         <v>45</v>
       </c>
       <c r="F309" t="s">
-        <v>3423</v>
+        <v>3422</v>
       </c>
       <c r="G309" t="s">
         <v>27</v>
@@ -31426,26 +31419,26 @@
         <v>81</v>
       </c>
       <c r="I309" t="s">
+        <v>3423</v>
+      </c>
+      <c r="J309" t="s">
         <v>3424</v>
-      </c>
-      <c r="J309" t="s">
-        <v>3425</v>
       </c>
       <c r="K309"/>
       <c r="L309" t="s">
+        <v>3425</v>
+      </c>
+      <c r="M309" t="s">
         <v>3426</v>
-      </c>
-      <c r="M309" t="s">
-        <v>3427</v>
       </c>
       <c r="N309" t="s">
         <v>53</v>
       </c>
       <c r="O309" t="s">
+        <v>3427</v>
+      </c>
+      <c r="P309" t="s">
         <v>3428</v>
-      </c>
-      <c r="P309" t="s">
-        <v>3429</v>
       </c>
       <c r="Q309" t="s">
         <v>37</v>
@@ -31467,7 +31460,7 @@
         <v>20258273</v>
       </c>
       <c r="B310" t="s">
-        <v>3430</v>
+        <v>3429</v>
       </c>
       <c r="C310" t="s">
         <v>43</v>
@@ -31479,7 +31472,7 @@
         <v>645</v>
       </c>
       <c r="F310" t="s">
-        <v>3423</v>
+        <v>3422</v>
       </c>
       <c r="G310" t="s">
         <v>27</v>
@@ -31488,26 +31481,26 @@
         <v>81</v>
       </c>
       <c r="I310" t="s">
+        <v>3430</v>
+      </c>
+      <c r="J310" t="s">
         <v>3431</v>
-      </c>
-      <c r="J310" t="s">
-        <v>3432</v>
       </c>
       <c r="K310"/>
       <c r="L310" t="s">
+        <v>3432</v>
+      </c>
+      <c r="M310" t="s">
         <v>3433</v>
-      </c>
-      <c r="M310" t="s">
-        <v>3434</v>
       </c>
       <c r="N310" t="s">
         <v>53</v>
       </c>
       <c r="O310" t="s">
+        <v>3434</v>
+      </c>
+      <c r="P310" t="s">
         <v>3435</v>
-      </c>
-      <c r="P310" t="s">
-        <v>3436</v>
       </c>
       <c r="Q310" t="s">
         <v>73</v>
@@ -31515,13 +31508,13 @@
       <c r="R310"/>
       <c r="S310"/>
       <c r="T310" t="s">
+        <v>3436</v>
+      </c>
+      <c r="U310" t="s">
         <v>3437</v>
       </c>
-      <c r="U310" t="s">
+      <c r="V310" t="s">
         <v>3438</v>
-      </c>
-      <c r="V310" t="s">
-        <v>3439</v>
       </c>
     </row>
     <row r="311">
@@ -31529,7 +31522,7 @@
         <v>20254463</v>
       </c>
       <c r="B311" t="s">
-        <v>3440</v>
+        <v>3439</v>
       </c>
       <c r="C311" t="s">
         <v>61</v>
@@ -31541,7 +31534,7 @@
         <v>645</v>
       </c>
       <c r="F311" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="G311" t="s">
         <v>27</v>
@@ -31550,28 +31543,28 @@
         <v>47</v>
       </c>
       <c r="I311" t="s">
+        <v>3441</v>
+      </c>
+      <c r="J311" t="s">
         <v>3442</v>
       </c>
-      <c r="J311" t="s">
+      <c r="K311" t="s">
         <v>3443</v>
       </c>
-      <c r="K311" t="s">
+      <c r="L311" t="s">
         <v>3444</v>
       </c>
-      <c r="L311" t="s">
+      <c r="M311" t="s">
         <v>3445</v>
-      </c>
-      <c r="M311" t="s">
-        <v>3446</v>
       </c>
       <c r="N311" t="s">
         <v>53</v>
       </c>
       <c r="O311" t="s">
+        <v>3446</v>
+      </c>
+      <c r="P311" t="s">
         <v>3447</v>
-      </c>
-      <c r="P311" t="s">
-        <v>3448</v>
       </c>
       <c r="Q311" t="s">
         <v>89</v>
@@ -31593,19 +31586,19 @@
         <v>20254281</v>
       </c>
       <c r="B312" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="C312" t="s">
         <v>217</v>
       </c>
       <c r="D312" t="s">
-        <v>3450</v>
+        <v>3449</v>
       </c>
       <c r="E312" t="s">
         <v>144</v>
       </c>
       <c r="F312" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="G312" t="s">
         <v>27</v>
@@ -31614,28 +31607,28 @@
         <v>548</v>
       </c>
       <c r="I312" t="s">
+        <v>3451</v>
+      </c>
+      <c r="J312" t="s">
         <v>3452</v>
       </c>
-      <c r="J312" t="s">
+      <c r="K312" t="s">
         <v>3453</v>
       </c>
-      <c r="K312" t="s">
+      <c r="L312" t="s">
         <v>3454</v>
       </c>
-      <c r="L312" t="s">
+      <c r="M312" t="s">
         <v>3455</v>
-      </c>
-      <c r="M312" t="s">
-        <v>3456</v>
       </c>
       <c r="N312" t="s">
         <v>34</v>
       </c>
       <c r="O312" t="s">
+        <v>3456</v>
+      </c>
+      <c r="P312" t="s">
         <v>3457</v>
-      </c>
-      <c r="P312" t="s">
-        <v>3458</v>
       </c>
       <c r="Q312" t="s">
         <v>73</v>
@@ -31657,7 +31650,7 @@
         <v>20254317</v>
       </c>
       <c r="B313" t="s">
-        <v>3459</v>
+        <v>3458</v>
       </c>
       <c r="C313" t="s">
         <v>61</v>
@@ -31669,7 +31662,7 @@
         <v>25</v>
       </c>
       <c r="F313" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="G313" t="s">
         <v>27</v>
@@ -31678,28 +31671,28 @@
         <v>548</v>
       </c>
       <c r="I313" t="s">
+        <v>3459</v>
+      </c>
+      <c r="J313" t="s">
         <v>3460</v>
       </c>
-      <c r="J313" t="s">
+      <c r="K313" t="s">
         <v>3461</v>
       </c>
-      <c r="K313" t="s">
+      <c r="L313" t="s">
         <v>3462</v>
       </c>
-      <c r="L313" t="s">
+      <c r="M313" t="s">
         <v>3463</v>
-      </c>
-      <c r="M313" t="s">
-        <v>3464</v>
       </c>
       <c r="N313" t="s">
         <v>34</v>
       </c>
       <c r="O313" t="s">
+        <v>3464</v>
+      </c>
+      <c r="P313" t="s">
         <v>3465</v>
-      </c>
-      <c r="P313" t="s">
-        <v>3466</v>
       </c>
       <c r="Q313" t="s">
         <v>73</v>
@@ -31707,13 +31700,13 @@
       <c r="R313"/>
       <c r="S313"/>
       <c r="T313" t="s">
+        <v>3466</v>
+      </c>
+      <c r="U313" t="s">
         <v>3467</v>
       </c>
-      <c r="U313" t="s">
+      <c r="V313" t="s">
         <v>3468</v>
-      </c>
-      <c r="V313" t="s">
-        <v>3469</v>
       </c>
     </row>
     <row r="314">
@@ -31721,19 +31714,19 @@
         <v>20254145</v>
       </c>
       <c r="B314" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
       <c r="C314" t="s">
         <v>61</v>
       </c>
       <c r="D314" t="s">
-        <v>3471</v>
+        <v>3470</v>
       </c>
       <c r="E314" t="s">
         <v>25</v>
       </c>
       <c r="F314" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
       <c r="G314" t="s">
         <v>65</v>
@@ -31742,28 +31735,28 @@
         <v>47</v>
       </c>
       <c r="I314" t="s">
+        <v>3472</v>
+      </c>
+      <c r="J314" t="s">
         <v>3473</v>
       </c>
-      <c r="J314" t="s">
+      <c r="K314" t="s">
         <v>3474</v>
       </c>
-      <c r="K314" t="s">
+      <c r="L314" t="s">
         <v>3475</v>
       </c>
-      <c r="L314" t="s">
+      <c r="M314" t="s">
         <v>3476</v>
-      </c>
-      <c r="M314" t="s">
-        <v>3477</v>
       </c>
       <c r="N314" t="s">
         <v>53</v>
       </c>
       <c r="O314" t="s">
+        <v>3477</v>
+      </c>
+      <c r="P314" t="s">
         <v>3478</v>
-      </c>
-      <c r="P314" t="s">
-        <v>3479</v>
       </c>
       <c r="Q314" t="s">
         <v>37</v>
@@ -31785,19 +31778,19 @@
         <v>20254188</v>
       </c>
       <c r="B315" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="C315" t="s">
         <v>61</v>
       </c>
       <c r="D315" t="s">
-        <v>3481</v>
+        <v>3480</v>
       </c>
       <c r="E315" t="s">
         <v>25</v>
       </c>
       <c r="F315" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
       <c r="G315" t="s">
         <v>65</v>
@@ -31806,28 +31799,28 @@
         <v>81</v>
       </c>
       <c r="I315" t="s">
+        <v>3481</v>
+      </c>
+      <c r="J315" t="s">
         <v>3482</v>
       </c>
-      <c r="J315" t="s">
+      <c r="K315" t="s">
         <v>3483</v>
       </c>
-      <c r="K315" t="s">
+      <c r="L315" t="s">
         <v>3484</v>
       </c>
-      <c r="L315" t="s">
+      <c r="M315" t="s">
         <v>3485</v>
       </c>
-      <c r="M315" t="s">
+      <c r="N315" t="s">
         <v>3486</v>
       </c>
-      <c r="N315" t="s">
+      <c r="O315" t="s">
         <v>3487</v>
       </c>
-      <c r="O315" t="s">
+      <c r="P315" t="s">
         <v>3488</v>
-      </c>
-      <c r="P315" t="s">
-        <v>3489</v>
       </c>
       <c r="Q315" t="s">
         <v>37</v>
@@ -31849,7 +31842,7 @@
         <v>20254225</v>
       </c>
       <c r="B316" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="C316" t="s">
         <v>23</v>
@@ -31861,7 +31854,7 @@
         <v>645</v>
       </c>
       <c r="F316" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
       <c r="G316" t="s">
         <v>27</v>
@@ -31870,28 +31863,28 @@
         <v>81</v>
       </c>
       <c r="I316" t="s">
+        <v>3490</v>
+      </c>
+      <c r="J316" t="s">
         <v>3491</v>
       </c>
-      <c r="J316" t="s">
+      <c r="K316" t="s">
         <v>3492</v>
       </c>
-      <c r="K316" t="s">
+      <c r="L316" t="s">
         <v>3493</v>
       </c>
-      <c r="L316" t="s">
+      <c r="M316" t="s">
         <v>3494</v>
-      </c>
-      <c r="M316" t="s">
-        <v>3495</v>
       </c>
       <c r="N316" t="s">
         <v>34</v>
       </c>
       <c r="O316" t="s">
+        <v>3495</v>
+      </c>
+      <c r="P316" t="s">
         <v>3496</v>
-      </c>
-      <c r="P316" t="s">
-        <v>3497</v>
       </c>
       <c r="Q316" t="s">
         <v>73</v>
@@ -31899,13 +31892,13 @@
       <c r="R316"/>
       <c r="S316"/>
       <c r="T316" t="s">
+        <v>3497</v>
+      </c>
+      <c r="U316" t="s">
         <v>3498</v>
       </c>
-      <c r="U316" t="s">
+      <c r="V316" t="s">
         <v>3499</v>
-      </c>
-      <c r="V316" t="s">
-        <v>3500</v>
       </c>
     </row>
     <row r="317">
@@ -31913,19 +31906,19 @@
         <v>20254234</v>
       </c>
       <c r="B317" t="s">
-        <v>3501</v>
+        <v>3500</v>
       </c>
       <c r="C317" t="s">
         <v>61</v>
       </c>
       <c r="D317" t="s">
-        <v>3502</v>
+        <v>3501</v>
       </c>
       <c r="E317" t="s">
         <v>144</v>
       </c>
       <c r="F317" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
       <c r="G317" t="s">
         <v>27</v>
@@ -31934,28 +31927,28 @@
         <v>81</v>
       </c>
       <c r="I317" t="s">
+        <v>3502</v>
+      </c>
+      <c r="J317" t="s">
         <v>3503</v>
       </c>
-      <c r="J317" t="s">
+      <c r="K317" t="s">
         <v>3504</v>
       </c>
-      <c r="K317" t="s">
+      <c r="L317" t="s">
         <v>3505</v>
       </c>
-      <c r="L317" t="s">
+      <c r="M317" t="s">
         <v>3506</v>
-      </c>
-      <c r="M317" t="s">
-        <v>3507</v>
       </c>
       <c r="N317" t="s">
         <v>53</v>
       </c>
       <c r="O317" t="s">
+        <v>3507</v>
+      </c>
+      <c r="P317" t="s">
         <v>3508</v>
-      </c>
-      <c r="P317" t="s">
-        <v>3509</v>
       </c>
       <c r="Q317" t="s">
         <v>89</v>
@@ -31963,13 +31956,13 @@
       <c r="R317"/>
       <c r="S317"/>
       <c r="T317" t="s">
+        <v>3509</v>
+      </c>
+      <c r="U317" t="s">
         <v>3510</v>
       </c>
-      <c r="U317" t="s">
+      <c r="V317" t="s">
         <v>3511</v>
-      </c>
-      <c r="V317" t="s">
-        <v>3512</v>
       </c>
     </row>
     <row r="318">
@@ -31977,19 +31970,19 @@
         <v>20254071</v>
       </c>
       <c r="B318" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="C318" t="s">
         <v>23</v>
       </c>
       <c r="D318" t="s">
-        <v>3514</v>
+        <v>3513</v>
       </c>
       <c r="E318" t="s">
         <v>25</v>
       </c>
       <c r="F318" t="s">
-        <v>3515</v>
+        <v>3514</v>
       </c>
       <c r="G318" t="s">
         <v>65</v>
@@ -31998,28 +31991,28 @@
         <v>81</v>
       </c>
       <c r="I318" t="s">
+        <v>3515</v>
+      </c>
+      <c r="J318" t="s">
         <v>3516</v>
       </c>
-      <c r="J318" t="s">
+      <c r="K318" t="s">
         <v>3517</v>
       </c>
-      <c r="K318" t="s">
+      <c r="L318" t="s">
         <v>3518</v>
       </c>
-      <c r="L318" t="s">
+      <c r="M318" t="s">
         <v>3519</v>
-      </c>
-      <c r="M318" t="s">
-        <v>3520</v>
       </c>
       <c r="N318" t="s">
         <v>53</v>
       </c>
       <c r="O318" t="s">
+        <v>3520</v>
+      </c>
+      <c r="P318" t="s">
         <v>3521</v>
-      </c>
-      <c r="P318" t="s">
-        <v>3522</v>
       </c>
       <c r="Q318" t="s">
         <v>37</v>
@@ -32027,13 +32020,13 @@
       <c r="R318"/>
       <c r="S318"/>
       <c r="T318" t="s">
+        <v>3522</v>
+      </c>
+      <c r="U318" t="s">
         <v>3523</v>
       </c>
-      <c r="U318" t="s">
+      <c r="V318" t="s">
         <v>3524</v>
-      </c>
-      <c r="V318" t="s">
-        <v>3525</v>
       </c>
     </row>
     <row r="319">
@@ -32041,7 +32034,7 @@
         <v>20254024</v>
       </c>
       <c r="B319" t="s">
-        <v>3526</v>
+        <v>3525</v>
       </c>
       <c r="C319" t="s">
         <v>23</v>
@@ -32053,7 +32046,7 @@
         <v>144</v>
       </c>
       <c r="F319" t="s">
-        <v>3527</v>
+        <v>3526</v>
       </c>
       <c r="G319" t="s">
         <v>27</v>
@@ -32062,28 +32055,28 @@
         <v>28</v>
       </c>
       <c r="I319" t="s">
+        <v>3527</v>
+      </c>
+      <c r="J319" t="s">
         <v>3528</v>
       </c>
-      <c r="J319" t="s">
+      <c r="K319" t="s">
         <v>3529</v>
       </c>
-      <c r="K319" t="s">
+      <c r="L319" t="s">
         <v>3530</v>
       </c>
-      <c r="L319" t="s">
+      <c r="M319" t="s">
         <v>3531</v>
-      </c>
-      <c r="M319" t="s">
-        <v>3532</v>
       </c>
       <c r="N319" t="s">
         <v>34</v>
       </c>
       <c r="O319" t="s">
+        <v>3532</v>
+      </c>
+      <c r="P319" t="s">
         <v>3533</v>
-      </c>
-      <c r="P319" t="s">
-        <v>3534</v>
       </c>
       <c r="Q319" t="s">
         <v>73</v>
@@ -32105,7 +32098,7 @@
         <v>20257863</v>
       </c>
       <c r="B320" t="s">
-        <v>3535</v>
+        <v>3534</v>
       </c>
       <c r="C320" t="s">
         <v>43</v>
@@ -32117,7 +32110,7 @@
         <v>1836</v>
       </c>
       <c r="F320" t="s">
-        <v>3527</v>
+        <v>3526</v>
       </c>
       <c r="G320" t="s">
         <v>27</v>
@@ -32126,26 +32119,26 @@
         <v>47</v>
       </c>
       <c r="I320" t="s">
+        <v>3535</v>
+      </c>
+      <c r="J320" t="s">
         <v>3536</v>
-      </c>
-      <c r="J320" t="s">
-        <v>3537</v>
       </c>
       <c r="K320"/>
       <c r="L320" t="s">
+        <v>3537</v>
+      </c>
+      <c r="M320" t="s">
         <v>3538</v>
-      </c>
-      <c r="M320" t="s">
-        <v>3539</v>
       </c>
       <c r="N320" t="s">
         <v>53</v>
       </c>
       <c r="O320" t="s">
+        <v>3539</v>
+      </c>
+      <c r="P320" t="s">
         <v>3540</v>
-      </c>
-      <c r="P320" t="s">
-        <v>3541</v>
       </c>
       <c r="Q320" t="s">
         <v>37</v>
@@ -32167,7 +32160,7 @@
         <v>20257888</v>
       </c>
       <c r="B321" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
       <c r="C321" t="s">
         <v>43</v>
@@ -32179,7 +32172,7 @@
         <v>1483</v>
       </c>
       <c r="F321" t="s">
-        <v>3527</v>
+        <v>3526</v>
       </c>
       <c r="G321" t="s">
         <v>27</v>
@@ -32188,26 +32181,26 @@
         <v>28</v>
       </c>
       <c r="I321" t="s">
+        <v>3542</v>
+      </c>
+      <c r="J321" t="s">
         <v>3543</v>
-      </c>
-      <c r="J321" t="s">
-        <v>3544</v>
       </c>
       <c r="K321"/>
       <c r="L321" t="s">
+        <v>3544</v>
+      </c>
+      <c r="M321" t="s">
         <v>3545</v>
-      </c>
-      <c r="M321" t="s">
-        <v>3546</v>
       </c>
       <c r="N321" t="s">
         <v>53</v>
       </c>
       <c r="O321" t="s">
+        <v>3546</v>
+      </c>
+      <c r="P321" t="s">
         <v>3547</v>
-      </c>
-      <c r="P321" t="s">
-        <v>3548</v>
       </c>
       <c r="Q321" t="s">
         <v>89</v>
@@ -32229,7 +32222,7 @@
         <v>20257890</v>
       </c>
       <c r="B322" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="C322" t="s">
         <v>43</v>
@@ -32241,7 +32234,7 @@
         <v>645</v>
       </c>
       <c r="F322" t="s">
-        <v>3527</v>
+        <v>3526</v>
       </c>
       <c r="G322" t="s">
         <v>27</v>
@@ -32250,26 +32243,26 @@
         <v>548</v>
       </c>
       <c r="I322" t="s">
+        <v>3549</v>
+      </c>
+      <c r="J322" t="s">
         <v>3550</v>
-      </c>
-      <c r="J322" t="s">
-        <v>3551</v>
       </c>
       <c r="K322"/>
       <c r="L322" t="s">
+        <v>3551</v>
+      </c>
+      <c r="M322" t="s">
         <v>3552</v>
-      </c>
-      <c r="M322" t="s">
-        <v>3553</v>
       </c>
       <c r="N322" t="s">
         <v>53</v>
       </c>
       <c r="O322" t="s">
+        <v>3553</v>
+      </c>
+      <c r="P322" t="s">
         <v>3554</v>
-      </c>
-      <c r="P322" t="s">
-        <v>3555</v>
       </c>
       <c r="Q322" t="s">
         <v>73</v>
@@ -32291,17 +32284,17 @@
         <v>20254003</v>
       </c>
       <c r="B323" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="C323" t="s">
         <v>217</v>
       </c>
       <c r="D323" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="E323"/>
       <c r="F323" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="G323" t="s">
         <v>27</v>
@@ -32310,28 +32303,28 @@
         <v>47</v>
       </c>
       <c r="I323" t="s">
+        <v>3558</v>
+      </c>
+      <c r="J323" t="s">
         <v>3559</v>
       </c>
-      <c r="J323" t="s">
+      <c r="K323" t="s">
         <v>3560</v>
       </c>
-      <c r="K323" t="s">
+      <c r="L323" t="s">
         <v>3561</v>
       </c>
-      <c r="L323" t="s">
+      <c r="M323" t="s">
         <v>3562</v>
-      </c>
-      <c r="M323" t="s">
-        <v>3563</v>
       </c>
       <c r="N323" t="s">
         <v>34</v>
       </c>
       <c r="O323" t="s">
+        <v>3563</v>
+      </c>
+      <c r="P323" t="s">
         <v>3564</v>
-      </c>
-      <c r="P323" t="s">
-        <v>3565</v>
       </c>
       <c r="Q323" t="s">
         <v>37</v>
@@ -32339,13 +32332,13 @@
       <c r="R323"/>
       <c r="S323"/>
       <c r="T323" t="s">
+        <v>3565</v>
+      </c>
+      <c r="U323" t="s">
         <v>3566</v>
       </c>
-      <c r="U323" t="s">
+      <c r="V323" t="s">
         <v>3567</v>
-      </c>
-      <c r="V323" t="s">
-        <v>3568</v>
       </c>
     </row>
     <row r="324">
@@ -32353,7 +32346,7 @@
         <v>20253984</v>
       </c>
       <c r="B324" t="s">
-        <v>3569</v>
+        <v>3568</v>
       </c>
       <c r="C324" t="s">
         <v>61</v>
@@ -32363,7 +32356,7 @@
       </c>
       <c r="E324"/>
       <c r="F324" t="s">
-        <v>3570</v>
+        <v>3569</v>
       </c>
       <c r="G324" t="s">
         <v>27</v>
@@ -32372,36 +32365,34 @@
         <v>47</v>
       </c>
       <c r="I324" t="s">
+        <v>3472</v>
+      </c>
+      <c r="J324" t="s">
         <v>3473</v>
       </c>
-      <c r="J324" t="s">
+      <c r="K324" t="s">
         <v>3474</v>
       </c>
-      <c r="K324" t="s">
-        <v>3475</v>
-      </c>
       <c r="L324" t="s">
+        <v>3570</v>
+      </c>
+      <c r="M324" t="s">
         <v>3571</v>
-      </c>
-      <c r="M324" t="s">
-        <v>3572</v>
       </c>
       <c r="N324" t="s">
         <v>3375</v>
       </c>
       <c r="O324" t="s">
+        <v>3572</v>
+      </c>
+      <c r="P324" t="s">
         <v>3573</v>
-      </c>
-      <c r="P324" t="s">
-        <v>3574</v>
       </c>
       <c r="Q324" t="s">
         <v>37</v>
       </c>
       <c r="R324"/>
-      <c r="S324" t="s">
-        <v>3378</v>
-      </c>
+      <c r="S324"/>
       <c r="T324" t="s">
         <v>117</v>
       </c>
@@ -32417,7 +32408,7 @@
         <v>20257663</v>
       </c>
       <c r="B325" t="s">
-        <v>3575</v>
+        <v>3574</v>
       </c>
       <c r="C325" t="s">
         <v>43</v>
@@ -32429,7 +32420,7 @@
         <v>45</v>
       </c>
       <c r="F325" t="s">
-        <v>3570</v>
+        <v>3569</v>
       </c>
       <c r="G325" t="s">
         <v>27</v>
@@ -32438,26 +32429,26 @@
         <v>28</v>
       </c>
       <c r="I325" t="s">
+        <v>3575</v>
+      </c>
+      <c r="J325" t="s">
         <v>3576</v>
-      </c>
-      <c r="J325" t="s">
-        <v>3577</v>
       </c>
       <c r="K325"/>
       <c r="L325" t="s">
+        <v>3577</v>
+      </c>
+      <c r="M325" t="s">
         <v>3578</v>
-      </c>
-      <c r="M325" t="s">
-        <v>3579</v>
       </c>
       <c r="N325" t="s">
         <v>53</v>
       </c>
       <c r="O325" t="s">
+        <v>3579</v>
+      </c>
+      <c r="P325" t="s">
         <v>3580</v>
-      </c>
-      <c r="P325" t="s">
-        <v>3581</v>
       </c>
       <c r="Q325" t="s">
         <v>37</v>
@@ -32465,13 +32456,13 @@
       <c r="R325"/>
       <c r="S325"/>
       <c r="T325" t="s">
+        <v>3581</v>
+      </c>
+      <c r="U325" t="s">
         <v>3582</v>
       </c>
-      <c r="U325" t="s">
+      <c r="V325" t="s">
         <v>3583</v>
-      </c>
-      <c r="V325" t="s">
-        <v>3584</v>
       </c>
     </row>
     <row r="326">
@@ -32479,19 +32470,19 @@
         <v>20257698</v>
       </c>
       <c r="B326" t="s">
-        <v>3585</v>
+        <v>3584</v>
       </c>
       <c r="C326" t="s">
         <v>43</v>
       </c>
       <c r="D326" t="s">
-        <v>3586</v>
+        <v>3585</v>
       </c>
       <c r="E326" t="s">
         <v>144</v>
       </c>
       <c r="F326" t="s">
-        <v>3570</v>
+        <v>3569</v>
       </c>
       <c r="G326" t="s">
         <v>27</v>
@@ -32500,26 +32491,26 @@
         <v>28</v>
       </c>
       <c r="I326" t="s">
+        <v>3586</v>
+      </c>
+      <c r="J326" t="s">
         <v>3587</v>
-      </c>
-      <c r="J326" t="s">
-        <v>3588</v>
       </c>
       <c r="K326"/>
       <c r="L326" t="s">
+        <v>3588</v>
+      </c>
+      <c r="M326" t="s">
         <v>3589</v>
-      </c>
-      <c r="M326" t="s">
-        <v>3590</v>
       </c>
       <c r="N326" t="s">
         <v>53</v>
       </c>
       <c r="O326" t="s">
+        <v>3590</v>
+      </c>
+      <c r="P326" t="s">
         <v>3591</v>
-      </c>
-      <c r="P326" t="s">
-        <v>3592</v>
       </c>
       <c r="Q326" t="s">
         <v>37</v>
@@ -32541,19 +32532,19 @@
         <v>20253971</v>
       </c>
       <c r="B327" t="s">
-        <v>3593</v>
+        <v>3592</v>
       </c>
       <c r="C327" t="s">
         <v>23</v>
       </c>
       <c r="D327" t="s">
-        <v>3594</v>
+        <v>3593</v>
       </c>
       <c r="E327" t="s">
         <v>25</v>
       </c>
       <c r="F327" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
       <c r="G327" t="s">
         <v>65</v>
@@ -32562,28 +32553,28 @@
         <v>548</v>
       </c>
       <c r="I327" t="s">
+        <v>3595</v>
+      </c>
+      <c r="J327" t="s">
         <v>3596</v>
       </c>
-      <c r="J327" t="s">
+      <c r="K327" t="s">
         <v>3597</v>
       </c>
-      <c r="K327" t="s">
+      <c r="L327" t="s">
         <v>3598</v>
       </c>
-      <c r="L327" t="s">
+      <c r="M327" t="s">
         <v>3599</v>
-      </c>
-      <c r="M327" t="s">
-        <v>3600</v>
       </c>
       <c r="N327" t="s">
         <v>53</v>
       </c>
       <c r="O327" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P327" t="s">
         <v>3601</v>
-      </c>
-      <c r="P327" t="s">
-        <v>3602</v>
       </c>
       <c r="Q327" t="s">
         <v>73</v>
@@ -32591,13 +32582,13 @@
       <c r="R327"/>
       <c r="S327"/>
       <c r="T327" t="s">
+        <v>3466</v>
+      </c>
+      <c r="U327" t="s">
         <v>3467</v>
       </c>
-      <c r="U327" t="s">
+      <c r="V327" t="s">
         <v>3468</v>
-      </c>
-      <c r="V327" t="s">
-        <v>3469</v>
       </c>
     </row>
     <row r="328">
@@ -32605,7 +32596,7 @@
         <v>20257601</v>
       </c>
       <c r="B328" t="s">
-        <v>3603</v>
+        <v>3602</v>
       </c>
       <c r="C328" t="s">
         <v>43</v>
@@ -32617,7 +32608,7 @@
         <v>1483</v>
       </c>
       <c r="F328" t="s">
-        <v>3604</v>
+        <v>3603</v>
       </c>
       <c r="G328" t="s">
         <v>27</v>
@@ -32626,26 +32617,26 @@
         <v>81</v>
       </c>
       <c r="I328" t="s">
+        <v>3604</v>
+      </c>
+      <c r="J328" t="s">
         <v>3605</v>
-      </c>
-      <c r="J328" t="s">
-        <v>3606</v>
       </c>
       <c r="K328"/>
       <c r="L328" t="s">
+        <v>3606</v>
+      </c>
+      <c r="M328" t="s">
         <v>3607</v>
-      </c>
-      <c r="M328" t="s">
-        <v>3608</v>
       </c>
       <c r="N328" t="s">
         <v>53</v>
       </c>
       <c r="O328" t="s">
+        <v>3608</v>
+      </c>
+      <c r="P328" t="s">
         <v>3609</v>
-      </c>
-      <c r="P328" t="s">
-        <v>3610</v>
       </c>
       <c r="Q328" t="s">
         <v>73</v>
@@ -32667,17 +32658,17 @@
         <v>20253941</v>
       </c>
       <c r="B329" t="s">
-        <v>3611</v>
+        <v>3610</v>
       </c>
       <c r="C329" t="s">
         <v>61</v>
       </c>
       <c r="D329" t="s">
-        <v>3612</v>
+        <v>3611</v>
       </c>
       <c r="E329"/>
       <c r="F329" t="s">
-        <v>3613</v>
+        <v>3612</v>
       </c>
       <c r="G329" t="s">
         <v>27</v>
@@ -32686,28 +32677,28 @@
         <v>1543</v>
       </c>
       <c r="I329" t="s">
+        <v>3613</v>
+      </c>
+      <c r="J329" t="s">
         <v>3614</v>
       </c>
-      <c r="J329" t="s">
+      <c r="K329" t="s">
         <v>3615</v>
       </c>
-      <c r="K329" t="s">
+      <c r="L329" t="s">
         <v>3616</v>
       </c>
-      <c r="L329" t="s">
+      <c r="M329" t="s">
         <v>3617</v>
-      </c>
-      <c r="M329" t="s">
-        <v>3618</v>
       </c>
       <c r="N329" t="s">
         <v>1975</v>
       </c>
       <c r="O329" t="s">
+        <v>3618</v>
+      </c>
+      <c r="P329" t="s">
         <v>3619</v>
-      </c>
-      <c r="P329" t="s">
-        <v>3620</v>
       </c>
       <c r="Q329" t="s">
         <v>37</v>
